--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E80E43-D495-4D37-9297-B98316BB90FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA671C9-1191-429A-9176-1604B38B0AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="495" windowWidth="16065" windowHeight="14835" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -530,8 +530,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d\.mmm"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="181" formatCode="0.000000"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -945,36 +945,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="19" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="19" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2158,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="42">
-        <v>28.3</v>
+        <v>41.6</v>
       </c>
       <c r="E43" s="40" t="s">
         <v>18</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G43" s="69">
         <f>Sayfa2!$D43*Sayfa2!$C43</f>
-        <v>367.90000000000003</v>
+        <v>540.80000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.5" thickBot="1">
@@ -2218,7 +2218,7 @@
       <c r="F46" s="42"/>
       <c r="G46" s="59">
         <f>G45/G43</f>
-        <v>0.46996466431095402</v>
+        <v>0.31971153846153844</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="G47" s="60">
         <f>G46/A46*30</f>
-        <v>0.30649869411583958</v>
+        <v>0.20850752508361203</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13.5" thickBot="1">
@@ -2950,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A46DA45-D277-43A0-951D-C22728888BB5}">
   <dimension ref="A3:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.140625" defaultRowHeight="15"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA671C9-1191-429A-9176-1604B38B0AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6610D037-5D5F-4094-A5A5-DE22B248C82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="495" windowWidth="16065" windowHeight="14835" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10905" yWindow="645" windowWidth="17895" windowHeight="14835" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="158">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -1137,8 +1137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:G90" totalsRowShown="0">
-  <autoFilter ref="A8:G90" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:G103" totalsRowShown="0">
+  <autoFilter ref="A8:G103" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tarih"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Açıklama"/>
@@ -1595,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:H93"/>
+  <dimension ref="A3:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1621,7 +1621,7 @@
         <v>146</v>
       </c>
       <c r="G4" s="72">
-        <f>G42+G73+G50+G54+G67+G61+G11+G16+G21+G27+G33+G38</f>
+        <f>G55+G86+G63+G67+G80+G74+G11+G16+G21+G27+G33+G38</f>
         <v>129536.03268999999</v>
       </c>
       <c r="H4" s="1"/>
@@ -1631,8 +1631,8 @@
         <v>148</v>
       </c>
       <c r="G5" s="74">
-        <f>G45+G63+G69+G75+G80+G13+G18+G23+G29+G35+G40+G52+G56</f>
-        <v>4550.4724840000099</v>
+        <f>G58+G76+G82+G88+G93+G13+G18+G23+G29+G35+G40+G65+G69</f>
+        <v>5061.300164000012</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G6" s="73">
         <f>G5/G4</f>
-        <v>3.5129009199239586E-2</v>
+        <v>3.9072527225783547E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1949,13 +1949,13 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>46.98</v>
+        <v>47.9</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="75">
         <f>Sayfa2!$D28*Sayfa2!$C28</f>
-        <v>469.79999999999995</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1968,13 +1968,13 @@
       </c>
       <c r="D29" s="78">
         <f>D28-D27</f>
-        <v>-2.2000000000000028</v>
+        <v>-1.2800000000000011</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="76">
         <f>Sayfa2!$D29*Sayfa2!$C29</f>
-        <v>-22.000000000000028</v>
+        <v>-12.800000000000011</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2022,13 +2022,13 @@
         <v>110</v>
       </c>
       <c r="D34">
-        <v>552.81493399999999</v>
+        <v>555.950107</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="75">
         <f>Sayfa2!$D34*Sayfa2!$C34</f>
-        <v>60809.642739999996</v>
+        <v>61154.511769999997</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2041,13 +2041,13 @@
       </c>
       <c r="D35" s="78">
         <f>D34-D33</f>
-        <v>12.21382600000004</v>
+        <v>15.348999000000049</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="76">
         <f>Sayfa2!$D35*Sayfa2!$C35</f>
-        <v>1343.5208600000044</v>
+        <v>1688.3898900000054</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2094,12 +2094,11 @@
         <v>50</v>
       </c>
       <c r="D39">
-        <f>D34</f>
-        <v>552.81493399999999</v>
+        <v>555.950107</v>
       </c>
       <c r="G39" s="75">
         <f>Sayfa2!$D39*Sayfa2!$C39</f>
-        <v>27640.7467</v>
+        <v>27797.505349999999</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2111,271 +2110,213 @@
       </c>
       <c r="D40" s="78">
         <f>D39-D38</f>
-        <v>10.380432000000042</v>
+        <v>13.51560500000005</v>
       </c>
       <c r="G40" s="76">
         <f>Sayfa2!$D40*Sayfa2!$C40</f>
-        <v>519.02160000000208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" thickBot="1">
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="53"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A42" s="47">
+        <v>675.78025000000252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="G41" s="58"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="G42" s="58"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4">
+        <v>45321</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>555.950107</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="66">
+        <f>Sayfa2!$D43*Sayfa2!$C43</f>
+        <v>27797.505349999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>555.950107</v>
+      </c>
+      <c r="G44" s="75">
+        <f>Sayfa2!$D44*Sayfa2!$C44</f>
+        <v>27797.505349999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="78">
+        <v>50</v>
+      </c>
+      <c r="D45" s="78">
+        <f>D44-D43</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="76">
+        <f>Sayfa2!$D45*Sayfa2!$C45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="G46" s="58"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="66">
+        <f>Sayfa2!$D47*Sayfa2!$C47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="G48" s="75">
+        <f>Sayfa2!$D48*Sayfa2!$C48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="78">
+        <v>46</v>
+      </c>
+      <c r="D49" s="78">
+        <f>D48-D47</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="76">
+        <f>Sayfa2!$D49*Sayfa2!$C49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="G50" s="58"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>26</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="66">
+        <f>Sayfa2!$D51*Sayfa2!$C51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52">
+        <v>26</v>
+      </c>
+      <c r="G52" s="75">
+        <f>Sayfa2!$D52*Sayfa2!$C52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="78">
+        <v>26</v>
+      </c>
+      <c r="D53" s="78">
+        <f>D52-D51</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="76">
+        <f>Sayfa2!$D53*Sayfa2!$C53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" thickBot="1">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="53"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A55" s="47">
         <v>45267</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B55" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C55" s="39">
         <v>13</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D55" s="39">
         <v>28.3</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E55" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F55" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="67">
-        <f>Sayfa2!$D42*Sayfa2!$C42</f>
+      <c r="G55" s="67">
+        <f>Sayfa2!$D55*Sayfa2!$C55</f>
         <v>367.90000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="42">
-        <v>13</v>
-      </c>
-      <c r="D43" s="42">
-        <v>41.6</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="69">
-        <f>Sayfa2!$D43*Sayfa2!$C43</f>
-        <v>540.80000000000007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A44" s="41"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="54"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="77">
-        <v>13</v>
-      </c>
-      <c r="D45" s="77">
-        <v>13.3</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="70">
-        <f>Sayfa2!$D45*Sayfa2!$C45</f>
-        <v>172.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="45">
-        <f>A45-A42</f>
-        <v>46</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="59">
-        <f>G45/G43</f>
-        <v>0.31971153846153844</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" s="60">
-        <f>G46/A46*30</f>
-        <v>0.20850752508361203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="61"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A49" s="4"/>
-      <c r="G49" s="62"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A50" s="47">
-        <v>45273</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="39">
-        <v>26</v>
-      </c>
-      <c r="D50" s="39">
-        <v>55.08</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="67">
-        <f>Sayfa2!$D50*Sayfa2!$C50</f>
-        <v>1432.08</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A51" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="42">
-        <v>26</v>
-      </c>
-      <c r="D51" s="42">
-        <v>51.4</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="69">
-        <f>Sayfa2!$D51*Sayfa2!$C51</f>
-        <v>1336.3999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="77">
-        <v>26</v>
-      </c>
-      <c r="D52" s="77">
-        <f>D51-D50</f>
-        <v>-3.6799999999999997</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="71">
-        <f>Sayfa2!$D52*Sayfa2!$C52</f>
-        <v>-95.679999999999993</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="54"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A54" s="41">
-        <v>45288</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="42">
-        <v>100</v>
-      </c>
-      <c r="D54" s="42">
-        <v>39.5</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="68">
-        <f>Sayfa2!$D54*Sayfa2!$C54</f>
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A55" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="42">
-        <v>100</v>
-      </c>
-      <c r="D55" s="42">
-        <v>51.4</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="69">
-        <f>Sayfa2!$D55*Sayfa2!$C55</f>
-        <v>5140</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2383,28 +2324,27 @@
         <v>45313</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="77">
-        <v>100</v>
-      </c>
-      <c r="D56" s="77">
-        <f>D55-D54</f>
-        <v>11.899999999999999</v>
+        <v>32</v>
+      </c>
+      <c r="C56" s="42">
+        <v>13</v>
+      </c>
+      <c r="D56" s="42">
+        <v>41.6</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F56" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="71">
+      <c r="G56" s="69">
         <f>Sayfa2!$D56*Sayfa2!$C56</f>
-        <v>1189.9999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="50"/>
+        <v>540.80000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A57" s="41"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
@@ -2413,514 +2353,746 @@
       <c r="G57" s="54"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="50">
-        <f>A51-A50</f>
-        <v>40</v>
+      <c r="A58" s="41">
+        <v>45313</v>
       </c>
       <c r="B58" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="77">
+        <v>13</v>
+      </c>
+      <c r="D58" s="77">
+        <v>13.3</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="70">
+        <f>Sayfa2!$D58*Sayfa2!$C58</f>
+        <v>172.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="45">
+        <f>A58-A55</f>
+        <v>46</v>
+      </c>
+      <c r="B59" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="59">
-        <f>(G52+G56)/(G54+G50)</f>
-        <v>0.20332659492240912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A59" s="51"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="52" t="s">
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="59">
+        <f>G58/G56</f>
+        <v>0.31971153846153844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="G59" s="63">
-        <f>G58/A58*30</f>
-        <v>0.15249494619180684</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" thickBot="1">
-      <c r="G60" s="53"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="47">
-        <v>45267</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="39">
-        <v>300</v>
-      </c>
-      <c r="D61" s="39">
-        <v>18.207357999999999</v>
-      </c>
-      <c r="E61" s="40" t="s">
+      <c r="G60" s="60">
+        <f>G59/A59*30</f>
+        <v>0.20850752508361203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="61"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A62" s="4"/>
+      <c r="G62" s="62"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A63" s="47">
+        <v>45273</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="39">
+        <v>26</v>
+      </c>
+      <c r="D63" s="39">
+        <v>55.08</v>
+      </c>
+      <c r="E63" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="67">
-        <f>Sayfa2!$D61*Sayfa2!$C61</f>
-        <v>5462.2073999999993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="41">
+      <c r="F63" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="67">
+        <f>Sayfa2!$D63*Sayfa2!$C63</f>
+        <v>1432.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A64" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="42">
+        <v>26</v>
+      </c>
+      <c r="D64" s="42">
+        <v>51.4</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="69">
+        <f>Sayfa2!$D64*Sayfa2!$C64</f>
+        <v>1336.3999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="77">
+        <v>26</v>
+      </c>
+      <c r="D65" s="77">
+        <f>D64-D63</f>
+        <v>-3.6799999999999997</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="71">
+        <f>Sayfa2!$D65*Sayfa2!$C65</f>
+        <v>-95.679999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="54"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A67" s="41">
         <v>45288</v>
       </c>
-      <c r="B62" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="42">
-        <v>300</v>
-      </c>
-      <c r="D62" s="42">
-        <v>18.625761000000001</v>
-      </c>
-      <c r="E62" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="48" t="s">
+      <c r="B67" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="42">
+        <v>100</v>
+      </c>
+      <c r="D67" s="42">
+        <v>39.5</v>
+      </c>
+      <c r="E67" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="69">
-        <f>Sayfa2!$D62*Sayfa2!$C62</f>
-        <v>5587.7282999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="41">
-        <v>45288</v>
-      </c>
-      <c r="B63" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="77">
-        <v>300</v>
-      </c>
-      <c r="D63" s="77">
-        <f>D62-D61</f>
-        <v>0.41840300000000141</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="71">
-        <f>Sayfa2!$D63*Sayfa2!$C63</f>
-        <v>125.52090000000042</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="50">
-        <f>A63-A61</f>
+      <c r="F67" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="59">
-        <f>G63/G62</f>
-        <v>2.2463672759464776E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A65" s="51"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G65" s="63">
-        <f>G64/A64*30</f>
-        <v>3.209096108494968E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A66" s="3"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="53"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A67" s="38">
-        <v>45267</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="39">
-        <v>10</v>
-      </c>
-      <c r="D67" s="39">
-        <v>523.88987099999997</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="67">
+      <c r="G67" s="68">
         <f>Sayfa2!$D67*Sayfa2!$C67</f>
-        <v>5238.8987099999995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="49">
-        <v>45293</v>
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A68" s="41">
+        <v>45313</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C68" s="42">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D68" s="42">
-        <v>538.78970700000002</v>
-      </c>
-      <c r="E68" s="48" t="s">
-        <v>22</v>
+        <v>51.4</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="F68" s="40" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="69">
         <f>Sayfa2!$D68*Sayfa2!$C68</f>
-        <v>5387.89707</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="49">
-        <v>45293</v>
+      <c r="A69" s="41">
+        <v>45313</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C69" s="77">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D69" s="77">
         <f>D68-D67</f>
-        <v>14.89983600000005</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="48" t="s">
+        <v>11.899999999999999</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="40" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="71">
         <f>Sayfa2!$D69*Sayfa2!$C69</f>
-        <v>148.9983600000005</v>
+        <v>1189.9999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="50">
-        <f>A69-A67</f>
-        <v>26</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>144</v>
-      </c>
+      <c r="A70" s="50"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="42"/>
       <c r="D70" s="42"/>
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
-      <c r="G70" s="59">
-        <f>G69/G68</f>
-        <v>2.7654269943208194E-2</v>
-      </c>
+      <c r="G70" s="54"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="50"/>
-      <c r="B71" s="42"/>
+      <c r="A71" s="50">
+        <f>A64-A63</f>
+        <v>40</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>144</v>
+      </c>
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
       <c r="E71" s="42"/>
-      <c r="F71" s="46" t="s">
+      <c r="F71" s="42"/>
+      <c r="G71" s="59">
+        <f>(G65+G69)/(G67+G63)</f>
+        <v>0.20332659492240912</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A72" s="51"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="G71" s="60">
-        <f>G70/A70*30</f>
-        <v>3.1908773011394068E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="49"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="54"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="49">
-        <v>45273</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="42">
-        <v>40</v>
-      </c>
-      <c r="D73" s="42">
-        <v>527.21223999999995</v>
-      </c>
-      <c r="E73" s="48" t="s">
+      <c r="G72" s="63">
+        <f>G71/A71*30</f>
+        <v>0.15249494619180684</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13.5" thickBot="1">
+      <c r="G73" s="53"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="47">
+        <v>45267</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="39">
+        <v>300</v>
+      </c>
+      <c r="D74" s="39">
+        <v>18.207357999999999</v>
+      </c>
+      <c r="E74" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="68">
-        <f>Sayfa2!$D73*Sayfa2!$C73</f>
-        <v>21088.489599999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="49">
-        <v>45293</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="42">
-        <v>28</v>
-      </c>
-      <c r="D74" s="42">
-        <f>D68</f>
-        <v>538.78970700000002</v>
-      </c>
-      <c r="E74" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="69">
+      <c r="F74" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="67">
         <f>Sayfa2!$D74*Sayfa2!$C74</f>
-        <v>15086.111796000001</v>
+        <v>5462.2073999999993</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="49">
-        <v>45293</v>
+      <c r="A75" s="41">
+        <v>45288</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="77">
-        <v>28</v>
-      </c>
-      <c r="D75" s="77">
-        <f>D74-D73</f>
-        <v>11.57746700000007</v>
+        <v>39</v>
+      </c>
+      <c r="C75" s="42">
+        <v>300</v>
+      </c>
+      <c r="D75" s="42">
+        <v>18.625761000000001</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="71">
+      <c r="G75" s="69">
         <f>Sayfa2!$D75*Sayfa2!$C75</f>
-        <v>324.16907600000195</v>
+        <v>5587.7282999999998</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="50">
-        <f>A75-A73</f>
+      <c r="A76" s="41">
+        <v>45288</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="77">
+        <v>300</v>
+      </c>
+      <c r="D76" s="77">
+        <f>D75-D74</f>
+        <v>0.41840300000000141</v>
+      </c>
+      <c r="E76" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="F76" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="71">
+        <f>Sayfa2!$D76*Sayfa2!$C76</f>
+        <v>125.52090000000042</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="50">
+        <f>A76-A74</f>
+        <v>21</v>
+      </c>
+      <c r="B77" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="59">
-        <f>G75/G74</f>
-        <v>2.1487914207685612E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="50"/>
-      <c r="B77" s="42"/>
       <c r="C77" s="42"/>
       <c r="D77" s="42"/>
       <c r="E77" s="42"/>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="42"/>
+      <c r="G77" s="59">
+        <f>G76/G75</f>
+        <v>2.2463672759464776E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A78" s="51"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="G77" s="60">
-        <f>G76/A76*30</f>
-        <v>3.2231871311528416E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="49"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="54"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="49">
-        <v>45295</v>
-      </c>
-      <c r="B79" s="42" t="s">
+      <c r="G78" s="63">
+        <f>G77/A77*30</f>
+        <v>3.209096108494968E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A79" s="3"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="53"/>
+    </row>
+    <row r="80" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A80" s="38">
+        <v>45267</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="39">
+        <v>10</v>
+      </c>
+      <c r="D80" s="39">
+        <v>523.88987099999997</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="67">
+        <f>Sayfa2!$D80*Sayfa2!$C80</f>
+        <v>5238.8987099999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="49">
+        <v>45293</v>
+      </c>
+      <c r="B81" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C81" s="42">
+        <v>10</v>
+      </c>
+      <c r="D81" s="42">
+        <v>538.78970700000002</v>
+      </c>
+      <c r="E81" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="42">
-        <v>540.000044</v>
-      </c>
-      <c r="E79" s="48" t="s">
+      <c r="F81" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="69">
+        <f>Sayfa2!$D81*Sayfa2!$C81</f>
+        <v>5387.89707</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="49">
+        <v>45293</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="77">
+        <v>10</v>
+      </c>
+      <c r="D82" s="77">
+        <f>D81-D80</f>
+        <v>14.89983600000005</v>
+      </c>
+      <c r="E82" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="48" t="s">
+      <c r="F82" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="69">
-        <f>Sayfa2!$D79*Sayfa2!$C79</f>
-        <v>11880.000968</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="49">
-        <v>45295</v>
-      </c>
-      <c r="B80" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="77">
-        <v>22</v>
-      </c>
-      <c r="D80" s="77">
-        <f>D79-D73</f>
-        <v>12.787804000000051</v>
-      </c>
-      <c r="E80" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="71">
-        <f>Sayfa2!$D80*Sayfa2!$C80</f>
-        <v>281.33168800000112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="50">
-        <f>A80-A73</f>
-        <v>22</v>
-      </c>
-      <c r="B81" s="42" t="s">
+      <c r="G82" s="71">
+        <f>Sayfa2!$D82*Sayfa2!$C82</f>
+        <v>148.9983600000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="50">
+        <f>A82-A80</f>
+        <v>26</v>
+      </c>
+      <c r="B83" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="59">
-        <f>G80/G79</f>
-        <v>2.3681116588946151E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A82" s="51"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G82" s="63">
-        <f>G81/A81*30</f>
-        <v>3.2292431712199296E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="55"/>
-      <c r="B83" s="42"/>
       <c r="C83" s="42"/>
       <c r="D83" s="42"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="56"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="59">
+        <f>G82/G81</f>
+        <v>2.7654269943208194E-2</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="3"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="53"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G84" s="60">
+        <f>G83/A83*30</f>
+        <v>3.1908773011394068E-2</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="3"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="53"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="54"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="3"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="53"/>
+      <c r="A86" s="49">
+        <v>45273</v>
+      </c>
+      <c r="B86" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="42">
+        <v>40</v>
+      </c>
+      <c r="D86" s="42">
+        <v>527.21223999999995</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="68">
+        <f>Sayfa2!$D86*Sayfa2!$C86</f>
+        <v>21088.489599999997</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="3"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="53"/>
+      <c r="A87" s="49">
+        <v>45293</v>
+      </c>
+      <c r="B87" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="42">
+        <v>28</v>
+      </c>
+      <c r="D87" s="42">
+        <f>D81</f>
+        <v>538.78970700000002</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="69">
+        <f>Sayfa2!$D87*Sayfa2!$C87</f>
+        <v>15086.111796000001</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="3"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="53"/>
+      <c r="A88" s="49">
+        <v>45293</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="77">
+        <v>28</v>
+      </c>
+      <c r="D88" s="77">
+        <f>D87-D86</f>
+        <v>11.57746700000007</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="71">
+        <f>Sayfa2!$D88*Sayfa2!$C88</f>
+        <v>324.16907600000195</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="3"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="53"/>
+      <c r="A89" s="50">
+        <f>A88-A86</f>
+        <v>20</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="59">
+        <f>G88/G87</f>
+        <v>2.1487914207685612E-2</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="G90" s="53"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G90" s="60">
+        <f>G89/A89*30</f>
+        <v>3.2231871311528416E-2</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="G91" s="53"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="54"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="4"/>
-      <c r="G92" s="53"/>
+      <c r="A92" s="49">
+        <v>45295</v>
+      </c>
+      <c r="B92" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="42">
+        <v>22</v>
+      </c>
+      <c r="D92" s="42">
+        <v>540.000044</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="69">
+        <f>Sayfa2!$D92*Sayfa2!$C92</f>
+        <v>11880.000968</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="4"/>
-      <c r="G93" s="53"/>
+      <c r="A93" s="49">
+        <v>45295</v>
+      </c>
+      <c r="B93" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="77">
+        <v>22</v>
+      </c>
+      <c r="D93" s="77">
+        <f>D92-D86</f>
+        <v>12.787804000000051</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="71">
+        <f>Sayfa2!$D93*Sayfa2!$C93</f>
+        <v>281.33168800000112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="50">
+        <f>A93-A86</f>
+        <v>22</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="59">
+        <f>G93/G92</f>
+        <v>2.3681116588946151E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A95" s="51"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="63">
+        <f>G94/A94*30</f>
+        <v>3.2292431712199296E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="55"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="56"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="53"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="53"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="53"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="53"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="53"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="53"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="G103" s="53"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="G104" s="53"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="4"/>
+      <c r="G105" s="53"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="4"/>
+      <c r="G106" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2938,7 +3110,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E45:F45 E72:F75 E27:F30 E61:F63 E66:F69 E33:F38 E83:F89 E78:F80 E11:F25 E41:F43 E50:F56</xm:sqref>
+          <xm:sqref>E58:F58 E85:F88 E27:F30 E74:F76 E79:F82 E33:F38 E96:F102 E91:F93 E11:F25 E54:F56 E63:F69 E43:F43 E47:F47 E51:F51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6610D037-5D5F-4094-A5A5-DE22B248C82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B37408-B696-41B1-9840-136B8446310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="645" windowWidth="17895" windowHeight="14835" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="G5" s="74">
         <f>G58+G76+G82+G88+G93+G13+G18+G23+G29+G35+G40+G65+G69</f>
-        <v>5061.300164000012</v>
+        <v>5149.3513640000137</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G6" s="73">
         <f>G5/G4</f>
-        <v>3.9072527225783547E-2</v>
+        <v>3.975227013724604E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1711,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>140.5</v>
+        <v>139.9</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="G12" s="75">
         <f>Sayfa2!$D12*Sayfa2!$C12</f>
-        <v>1264.5</v>
+        <v>1259.1000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1734,13 +1734,13 @@
       </c>
       <c r="D13" s="78">
         <f>D12-D11</f>
-        <v>10.5</v>
+        <v>9.9000000000000057</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="76">
         <f>Sayfa2!$D13*Sayfa2!$C13</f>
-        <v>94.5</v>
+        <v>89.100000000000051</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1790,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>140.5</v>
+        <v>139.9</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="G17" s="75">
         <f>Sayfa2!$D17*Sayfa2!$C17</f>
-        <v>1405</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1813,13 +1813,13 @@
       </c>
       <c r="D18" s="78">
         <f>D17-D16</f>
-        <v>-3.5010000000000048</v>
+        <v>-4.1009999999999991</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="76">
         <f>Sayfa2!$D18*Sayfa2!$C18</f>
-        <v>-35.010000000000048</v>
+        <v>-41.009999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1869,7 +1869,7 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>140.5</v>
+        <v>139.9</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>23</v>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="G22" s="75">
         <f>Sayfa2!$D22*Sayfa2!$C22</f>
-        <v>2810</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1892,13 +1892,13 @@
       </c>
       <c r="D23" s="78">
         <f>D22-D21</f>
-        <v>25.159999999999997</v>
+        <v>24.560000000000002</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="76">
         <f>Sayfa2!$D23*Sayfa2!$C23</f>
-        <v>503.19999999999993</v>
+        <v>491.20000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1949,13 +1949,13 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>47.9</v>
+        <v>48.94</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="75">
         <f>Sayfa2!$D28*Sayfa2!$C28</f>
-        <v>479</v>
+        <v>489.4</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1968,13 +1968,13 @@
       </c>
       <c r="D29" s="78">
         <f>D28-D27</f>
-        <v>-1.2800000000000011</v>
+        <v>-0.24000000000000199</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="76">
         <f>Sayfa2!$D29*Sayfa2!$C29</f>
-        <v>-12.800000000000011</v>
+        <v>-2.4000000000000199</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2022,13 +2022,13 @@
         <v>110</v>
       </c>
       <c r="D34">
-        <v>555.950107</v>
+        <v>556.58167700000001</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="75">
         <f>Sayfa2!$D34*Sayfa2!$C34</f>
-        <v>61154.511769999997</v>
+        <v>61223.984470000003</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2041,13 +2041,13 @@
       </c>
       <c r="D35" s="78">
         <f>D34-D33</f>
-        <v>15.348999000000049</v>
+        <v>15.98056900000006</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="76">
         <f>Sayfa2!$D35*Sayfa2!$C35</f>
-        <v>1688.3898900000054</v>
+        <v>1757.8625900000065</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2094,11 +2094,11 @@
         <v>50</v>
       </c>
       <c r="D39">
-        <v>555.950107</v>
+        <v>556.58167700000001</v>
       </c>
       <c r="G39" s="75">
         <f>Sayfa2!$D39*Sayfa2!$C39</f>
-        <v>27797.505349999999</v>
+        <v>27829.083849999999</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2110,11 +2110,11 @@
       </c>
       <c r="D40" s="78">
         <f>D39-D38</f>
-        <v>13.51560500000005</v>
+        <v>14.147175000000061</v>
       </c>
       <c r="G40" s="76">
         <f>Sayfa2!$D40*Sayfa2!$C40</f>
-        <v>675.78025000000252</v>
+        <v>707.35875000000306</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2159,11 +2159,11 @@
         <v>50</v>
       </c>
       <c r="D44">
-        <v>555.950107</v>
+        <v>556.58167700000001</v>
       </c>
       <c r="G44" s="75">
         <f>Sayfa2!$D44*Sayfa2!$C44</f>
-        <v>27797.505349999999</v>
+        <v>27829.083849999999</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2175,11 +2175,11 @@
       </c>
       <c r="D45" s="78">
         <f>D44-D43</f>
-        <v>0</v>
+        <v>0.63157000000001062</v>
       </c>
       <c r="G45" s="76">
         <f>Sayfa2!$D45*Sayfa2!$C45</f>
-        <v>0</v>
+        <v>31.578500000000531</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2197,6 +2197,9 @@
       <c r="C47">
         <v>46</v>
       </c>
+      <c r="D47">
+        <v>555.950107</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
       </c>
@@ -2205,7 +2208,7 @@
       </c>
       <c r="G47" s="66">
         <f>Sayfa2!$D47*Sayfa2!$C47</f>
-        <v>0</v>
+        <v>25573.704922000001</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2215,9 +2218,12 @@
       <c r="C48">
         <v>46</v>
       </c>
+      <c r="D48">
+        <v>556.58167700000001</v>
+      </c>
       <c r="G48" s="75">
         <f>Sayfa2!$D48*Sayfa2!$C48</f>
-        <v>0</v>
+        <v>25602.757142000002</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2229,11 +2235,11 @@
       </c>
       <c r="D49" s="78">
         <f>D48-D47</f>
-        <v>0</v>
+        <v>0.63157000000001062</v>
       </c>
       <c r="G49" s="76">
         <f>Sayfa2!$D49*Sayfa2!$C49</f>
-        <v>0</v>
+        <v>29.052220000000489</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2251,6 +2257,9 @@
       <c r="C51">
         <v>26</v>
       </c>
+      <c r="D51">
+        <v>555.950107</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>15</v>
       </c>
@@ -2259,7 +2268,7 @@
       </c>
       <c r="G51" s="66">
         <f>Sayfa2!$D51*Sayfa2!$C51</f>
-        <v>0</v>
+        <v>14454.702782</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2269,9 +2278,12 @@
       <c r="C52">
         <v>26</v>
       </c>
+      <c r="D52">
+        <v>556.58167700000001</v>
+      </c>
       <c r="G52" s="75">
         <f>Sayfa2!$D52*Sayfa2!$C52</f>
-        <v>0</v>
+        <v>14471.123602</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2283,11 +2295,11 @@
       </c>
       <c r="D53" s="78">
         <f>D52-D51</f>
-        <v>0</v>
+        <v>0.63157000000001062</v>
       </c>
       <c r="G53" s="76">
         <f>Sayfa2!$D53*Sayfa2!$C53</f>
-        <v>0</v>
+        <v>16.420820000000276</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="13.5" thickBot="1">

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B37408-B696-41B1-9840-136B8446310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE217E7-87B2-4991-9A83-7C4112FF7E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="161">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -490,9 +490,6 @@
     <t>Toplam Yatırım</t>
   </si>
   <si>
-    <t>Toplam Getiri %</t>
-  </si>
-  <si>
     <t>Toplam Getiri TL</t>
   </si>
   <si>
@@ -521,19 +518,34 @@
   </si>
   <si>
     <t>Avrupakent GYO Satış Geliri</t>
+  </si>
+  <si>
+    <t>Sütun1</t>
+  </si>
+  <si>
+    <t>Sütun2</t>
+  </si>
+  <si>
+    <t>Mevcut</t>
+  </si>
+  <si>
+    <t>Satılan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="d\.mmm"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -676,15 +688,24 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <sz val="8"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,8 +826,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -909,6 +936,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -935,7 +971,7 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -984,28 +1020,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="9" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1015,12 +1042,55 @@
     <xf numFmtId="4" fontId="2" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="21" fillId="12" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="20" fillId="13" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="13" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="13" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="13" borderId="9" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="20" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1137,9 +1207,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:G103" totalsRowShown="0">
-  <autoFilter ref="A8:G103" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:I129" totalsRowShown="0">
+  <autoFilter ref="A8:I129" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tarih"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Açıklama"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="adet"/>
@@ -1147,6 +1217,8 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Hesap"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Transfer"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tutar" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{EEF0C82D-5827-4BB7-BED6-5FFEDEEC9850}" name="Sütun1"/>
+    <tableColumn id="9" xr3:uid="{5B8EA65F-970F-4132-BAB4-53FD10BB59AA}" name="Sütun2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1595,59 +1667,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:H106"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="1" spans="1:9">
+      <c r="G1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="90">
+        <f>SUBTOTAL(109,G9:G65)</f>
+        <v>133756.865112</v>
+      </c>
+      <c r="H2" s="92">
+        <f>SUBTOTAL(109,H9:H65)</f>
+        <v>138360.79025199998</v>
+      </c>
+      <c r="I2" s="92">
+        <f>SUBTOTAL(109,I9:I65)</f>
+        <v>4603.9251399999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="F4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="72">
-        <f>G55+G86+G63+G67+G80+G74+G11+G16+G21+G27+G33+G38</f>
-        <v>129536.03268999999</v>
-      </c>
+      <c r="I3" s="89">
+        <f>I2/G2</f>
+        <v>3.4420103492594174E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="F5" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="74">
-        <f>G58+G76+G82+G88+G93+G13+G18+G23+G29+G35+G40+G65+G69</f>
-        <v>5149.3513640000137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="F6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="73">
-        <f>G5/G4</f>
-        <v>3.975227013724604E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="G7" s="53"/>
-    </row>
-    <row r="8" spans="1:8">
+    <row r="5" spans="1:9">
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="91">
+        <f>SUBTOTAL(109,G73:G127)</f>
+        <v>63605.080631999997</v>
+      </c>
+      <c r="H5" s="91">
+        <f>SUBTOTAL(109,H73:H127)</f>
+        <v>71231.295555999997</v>
+      </c>
+      <c r="I5" s="91">
+        <f>SUBTOTAL(109,I73:I127)</f>
+        <v>2354.0925240000024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="E6" s="67"/>
+      <c r="I6" s="109">
+        <f>I5/G5</f>
+        <v>3.7011076797780963E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1666,19 +1768,25 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="55" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="G9" s="53"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="4">
-        <v>45588</v>
+        <v>45222</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -1695,23 +1803,23 @@
       <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="59">
         <f>Sayfa2!$D11*Sayfa2!$C11</f>
         <v>1170</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>45316</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>139.9</v>
+      <c r="D12" s="97">
+        <v>160</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1719,361 +1827,353 @@
       <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="51"/>
+      <c r="H12" s="68">
         <f>Sayfa2!$D12*Sayfa2!$C12</f>
-        <v>1259.1000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="96">
+        <v>45351</v>
+      </c>
       <c r="B13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="78">
+        <v>151</v>
+      </c>
+      <c r="C13" s="71">
         <v>9</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="71">
         <f>D12-D11</f>
-        <v>9.9000000000000057</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="76">
+      <c r="G13" s="51"/>
+      <c r="I13" s="69">
         <f>Sayfa2!$D13*Sayfa2!$C13</f>
-        <v>89.100000000000051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4">
-        <v>45271</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>144.001</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="65">
-        <f>Sayfa2!$D16*Sayfa2!$C16</f>
-        <v>1440.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4">
-        <v>45316</v>
-      </c>
-      <c r="B17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>139.9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="75">
-        <f>Sayfa2!$D17*Sayfa2!$C17</f>
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="80">
+        <f>A13-A11</f>
+        <v>129</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82">
+        <f>I13/G11</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="82">
+        <f>F14/A14*30</f>
+        <v>5.3667262969588549E-2</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4"/>
-      <c r="B18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="78">
-        <v>10</v>
-      </c>
-      <c r="D18" s="78">
-        <f>D17-D16</f>
-        <v>-4.1009999999999991</v>
-      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="76">
-        <f>Sayfa2!$D18*Sayfa2!$C18</f>
-        <v>-41.009999999999991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="58"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="58"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4">
+        <v>45271</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>144.001</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="60">
+        <f>Sayfa2!$D20*Sayfa2!$C20</f>
+        <v>1440.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
-        <v>45288</v>
+        <v>45316</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>115.34</v>
+        <v>10</v>
+      </c>
+      <c r="D21" s="97">
+        <v>160</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="64">
+      <c r="G21" s="51"/>
+      <c r="H21" s="68">
         <f>Sayfa2!$D21*Sayfa2!$C21</f>
-        <v>2306.8000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4">
-        <v>45316</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="96">
+        <v>45351</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>139.9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="75">
+        <v>151</v>
+      </c>
+      <c r="C22" s="71">
+        <v>10</v>
+      </c>
+      <c r="D22" s="71">
+        <f>D21-D20</f>
+        <v>15.998999999999995</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="51"/>
+      <c r="I22" s="69">
         <f>Sayfa2!$D22*Sayfa2!$C22</f>
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="78">
-        <v>20</v>
-      </c>
-      <c r="D23" s="78">
-        <f>D22-D21</f>
-        <v>24.560000000000002</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="76">
-        <f>Sayfa2!$D23*Sayfa2!$C23</f>
-        <v>491.20000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="58"/>
-    </row>
-    <row r="25" spans="1:7">
+        <v>159.98999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="80">
+        <f>A22-A20</f>
+        <v>80</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82">
+        <f>I22/G20</f>
+        <v>0.11110339511531167</v>
+      </c>
+      <c r="G23" s="56"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="82">
+        <f>F23/A23*30</f>
+        <v>4.1663773168241873E-2</v>
+      </c>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="58"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="G26" s="53"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4">
-        <v>45267</v>
-      </c>
-      <c r="B27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>49.18</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="66">
-        <f>Sayfa2!$D27*Sayfa2!$C27</f>
-        <v>491.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>48.94</v>
-      </c>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="56"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="75">
-        <f>Sayfa2!$D28*Sayfa2!$C28</f>
-        <v>489.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4">
+        <v>45288</v>
+      </c>
       <c r="B29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="78">
-        <v>10</v>
-      </c>
-      <c r="D29" s="78">
-        <f>D28-D27</f>
-        <v>-0.24000000000000199</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="76">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>115.34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="59">
         <f>Sayfa2!$D29*Sayfa2!$C29</f>
-        <v>-2.4000000000000199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="53"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="4">
-        <v>45296</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33">
-        <v>110</v>
-      </c>
-      <c r="D33">
-        <v>540.60110799999995</v>
-      </c>
-      <c r="E33" s="2" t="s">
+        <v>2306.8000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4">
+        <v>45316</v>
+      </c>
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" s="97">
+        <v>160</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="66">
-        <f>Sayfa2!$D33*Sayfa2!$C33</f>
-        <v>59466.121879999992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
-      <c r="B34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34">
-        <v>110</v>
-      </c>
-      <c r="D34">
-        <v>556.58167700000001</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="75">
-        <f>Sayfa2!$D34*Sayfa2!$C34</f>
-        <v>61223.984470000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G30" s="51"/>
+      <c r="H30" s="68">
+        <f>Sayfa2!$D30*Sayfa2!$C30</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="96">
+        <v>45351</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="71">
+        <v>20</v>
+      </c>
+      <c r="D31" s="71">
+        <f>D30-D29</f>
+        <v>44.66</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="51"/>
+      <c r="I31" s="69">
+        <f>Sayfa2!$D31*Sayfa2!$C31</f>
+        <v>893.19999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="80">
+        <f>A31-A29</f>
+        <v>63</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82">
+        <f>I31/G29</f>
+        <v>0.387203051846714</v>
+      </c>
+      <c r="G32" s="56"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="82">
+        <f>F32/A32*30</f>
+        <v>0.18438240564129238</v>
+      </c>
+      <c r="G33" s="56"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="G34" s="51"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3"/>
-      <c r="B35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="78">
-        <v>110</v>
-      </c>
-      <c r="D35" s="78">
-        <f>D34-D33</f>
-        <v>15.98056900000006</v>
-      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="76">
-        <f>Sayfa2!$D35*Sayfa2!$C35</f>
-        <v>1757.8625900000065</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="53"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="53"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G35" s="51"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="G36" s="51"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="G37" s="51"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D38">
-        <v>542.43450199999995</v>
+        <v>540.60110799999995</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
@@ -2081,1032 +2181,1472 @@
       <c r="F38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="66">
+      <c r="G38" s="61">
         <f>Sayfa2!$D38*Sayfa2!$C38</f>
-        <v>27121.725099999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>59466.121879999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="3"/>
       <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39">
+        <v>110</v>
+      </c>
+      <c r="D39">
+        <v>559.83385699999997</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="68">
+        <f>Sayfa2!$D39*Sayfa2!$C39</f>
+        <v>61581.724269999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="3">
+        <v>45327</v>
+      </c>
+      <c r="B40" t="s">
         <v>154</v>
       </c>
-      <c r="C39">
-        <v>50</v>
-      </c>
-      <c r="D39">
-        <v>556.58167700000001</v>
-      </c>
-      <c r="G39" s="75">
-        <f>Sayfa2!$D39*Sayfa2!$C39</f>
-        <v>27829.083849999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="78">
-        <v>50</v>
-      </c>
-      <c r="D40" s="78">
+      <c r="C40" s="71">
+        <v>110</v>
+      </c>
+      <c r="D40" s="71">
         <f>D39-D38</f>
-        <v>14.147175000000061</v>
-      </c>
-      <c r="G40" s="76">
+        <v>19.232749000000013</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="51"/>
+      <c r="I40" s="69">
         <f>Sayfa2!$D40*Sayfa2!$C40</f>
-        <v>707.35875000000306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>2115.6023900000014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="80">
+        <f>A40-A38</f>
+        <v>31</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>144</v>
+      </c>
       <c r="C41" s="78"/>
       <c r="D41" s="78"/>
-      <c r="G41" s="58"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="E41" s="81"/>
+      <c r="F41" s="82">
+        <f>I40/G38</f>
+        <v>3.5576599299163875E-2</v>
+      </c>
+      <c r="G41" s="51"/>
+      <c r="I41" s="69"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="78"/>
       <c r="C42" s="78"/>
       <c r="D42" s="78"/>
-      <c r="G42" s="58"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="4">
-        <v>45321</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E42" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="82">
+        <f>F41/A41*30</f>
+        <v>3.4428967063706975E-2</v>
+      </c>
+      <c r="G42" s="51"/>
+      <c r="I42" s="69"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="3"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="51"/>
+      <c r="I43" s="69"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="3"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="51"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="3"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="51"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4">
+        <v>45299</v>
+      </c>
+      <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="C43">
+      <c r="C46">
         <v>50</v>
       </c>
-      <c r="D43">
-        <v>555.950107</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D46">
+        <v>542.43450199999995</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="66">
-        <f>Sayfa2!$D43*Sayfa2!$C43</f>
-        <v>27797.505349999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44">
+      <c r="G46" s="61">
+        <f>Sayfa2!$D46*Sayfa2!$C46</f>
+        <v>27121.725099999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47">
         <v>50</v>
       </c>
-      <c r="D44">
-        <v>556.58167700000001</v>
-      </c>
-      <c r="G44" s="75">
-        <f>Sayfa2!$D44*Sayfa2!$C44</f>
-        <v>27829.083849999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="78">
-        <v>50</v>
-      </c>
-      <c r="D45" s="78">
-        <f>D44-D43</f>
-        <v>0.63157000000001062</v>
-      </c>
-      <c r="G45" s="76">
-        <f>Sayfa2!$D45*Sayfa2!$C45</f>
-        <v>31.578500000000531</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="G46" s="58"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="4">
-        <v>45322</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47">
-        <v>46</v>
-      </c>
       <c r="D47">
-        <v>555.950107</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="66">
+        <v>559.83385699999997</v>
+      </c>
+      <c r="G47" s="51"/>
+      <c r="H47" s="68">
         <f>Sayfa2!$D47*Sayfa2!$C47</f>
-        <v>25573.704922000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>27991.692849999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="110">
+        <v>45327</v>
+      </c>
       <c r="B48" t="s">
         <v>154</v>
       </c>
-      <c r="C48">
-        <v>46</v>
-      </c>
-      <c r="D48">
-        <v>556.58167700000001</v>
-      </c>
-      <c r="G48" s="75">
+      <c r="C48" s="71">
+        <v>50</v>
+      </c>
+      <c r="D48" s="71">
+        <f>D47-D46</f>
+        <v>17.399355000000014</v>
+      </c>
+      <c r="G48" s="51"/>
+      <c r="I48" s="69">
         <f>Sayfa2!$D48*Sayfa2!$C48</f>
-        <v>25602.757142000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="B49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="78">
-        <v>46</v>
-      </c>
-      <c r="D49" s="78">
-        <f>D48-D47</f>
-        <v>0.63157000000001062</v>
-      </c>
-      <c r="G49" s="76">
-        <f>Sayfa2!$D49*Sayfa2!$C49</f>
-        <v>29.052220000000489</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>869.96775000000071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="80">
+        <f>A48-A46</f>
+        <v>28</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="82">
+        <f>I48/G46</f>
+        <v>3.2076416481339562E-2</v>
+      </c>
+      <c r="G49" s="51"/>
+      <c r="I49" s="69"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" s="78"/>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
-      <c r="G50" s="58"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="4">
+      <c r="E50" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="82">
+        <f>F49/A49*30</f>
+        <v>3.4367589087149535E-2</v>
+      </c>
+      <c r="G50" s="51"/>
+      <c r="I50" s="69"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="G51" s="51"/>
+      <c r="I51" s="69"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="G52" s="56"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="G53" s="56"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="4">
+        <v>45321</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>555.950107</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="61">
+        <f>Sayfa2!$D54*Sayfa2!$C54</f>
+        <v>27797.505349999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>559.83385699999997</v>
+      </c>
+      <c r="G55" s="51"/>
+      <c r="H55" s="68">
+        <f>Sayfa2!$D55*Sayfa2!$C55</f>
+        <v>27991.692849999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="110">
+        <v>45327</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="71">
+        <v>50</v>
+      </c>
+      <c r="D56" s="71">
+        <f>D55-D54</f>
+        <v>3.8837499999999636</v>
+      </c>
+      <c r="G56" s="51"/>
+      <c r="I56" s="69">
+        <f>Sayfa2!$D56*Sayfa2!$C56</f>
+        <v>194.18749999999818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="80">
+        <f>A56-A54</f>
+        <v>6</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="82">
+        <f>I56/G54</f>
+        <v>6.9857887445284074E-3</v>
+      </c>
+      <c r="G57" s="51"/>
+      <c r="I57" s="69"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="82">
+        <f>F57/A57*30</f>
+        <v>3.492894372264204E-2</v>
+      </c>
+      <c r="G58" s="51"/>
+      <c r="I58" s="69"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="G59" s="51"/>
+      <c r="I59" s="69"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="G60" s="56"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="G61" s="56"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4">
         <v>45322</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B62" t="s">
         <v>41</v>
       </c>
-      <c r="C51">
+      <c r="C62">
         <v>26</v>
       </c>
-      <c r="D51">
+      <c r="D62">
         <v>555.950107</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="66">
-        <f>Sayfa2!$D51*Sayfa2!$C51</f>
+      <c r="G62" s="61">
+        <f>Sayfa2!$D62*Sayfa2!$C62</f>
         <v>14454.702782</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="B52" t="s">
+    <row r="63" spans="1:9">
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>559.83385699999997</v>
+      </c>
+      <c r="G63" s="51"/>
+      <c r="H63" s="68">
+        <f>Sayfa2!$D63*Sayfa2!$C63</f>
+        <v>14555.680281999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="110">
+        <v>45327</v>
+      </c>
+      <c r="B64" t="s">
         <v>154</v>
       </c>
-      <c r="C52">
+      <c r="C64" s="71">
         <v>26</v>
       </c>
-      <c r="D52">
-        <v>556.58167700000001</v>
-      </c>
-      <c r="G52" s="75">
-        <f>Sayfa2!$D52*Sayfa2!$C52</f>
-        <v>14471.123602</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="78">
-        <v>26</v>
-      </c>
-      <c r="D53" s="78">
-        <f>D52-D51</f>
-        <v>0.63157000000001062</v>
-      </c>
-      <c r="G53" s="76">
-        <f>Sayfa2!$D53*Sayfa2!$C53</f>
-        <v>16.420820000000276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" thickBot="1">
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="53"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A55" s="47">
+      <c r="D64" s="71">
+        <f>D63-D62</f>
+        <v>3.8837499999999636</v>
+      </c>
+      <c r="G64" s="51"/>
+      <c r="I64" s="69">
+        <f>Sayfa2!$D64*Sayfa2!$C64</f>
+        <v>100.97749999999905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="80">
+        <f>A64-A62</f>
+        <v>5</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="82">
+        <f>I64/G62</f>
+        <v>6.9857887445284074E-3</v>
+      </c>
+      <c r="G65" s="56"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="82">
+        <f>F65/A65*30</f>
+        <v>4.1914732467170444E-2</v>
+      </c>
+      <c r="G66" s="51"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="G67" s="56"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="G68" s="56"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="G69" s="56"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="G70" s="56"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="G71" s="56"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="G72" s="56"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="72">
+        <v>45322</v>
+      </c>
+      <c r="B73" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="73">
+        <v>46</v>
+      </c>
+      <c r="D73" s="73">
+        <v>555.950107</v>
+      </c>
+      <c r="E73" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="75">
+        <f>Sayfa2!$D73*Sayfa2!$C73</f>
+        <v>25573.704922000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="73"/>
+      <c r="B74" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="73">
+        <v>46</v>
+      </c>
+      <c r="D74" s="73">
+        <v>559.83385699999997</v>
+      </c>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="76">
+        <f>Sayfa2!$D74*Sayfa2!$C74</f>
+        <v>25752.357421999997</v>
+      </c>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="77">
+        <v>45327</v>
+      </c>
+      <c r="B75" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="73">
+        <v>46</v>
+      </c>
+      <c r="D75" s="73">
+        <f>D74-D73</f>
+        <v>3.8837499999999636</v>
+      </c>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="51"/>
+      <c r="I75" s="79">
+        <f>Sayfa2!$D75*Sayfa2!$C75</f>
+        <v>178.65249999999833</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="80">
+        <f>A75-A73</f>
+        <v>5</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="82">
+        <f>I75/G73</f>
+        <v>6.9857887445284065E-3</v>
+      </c>
+      <c r="G76" s="51"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" s="84">
+        <f>F76/A76*30</f>
+        <v>4.1914732467170444E-2</v>
+      </c>
+      <c r="G77" s="51"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="51"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="51"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="98">
         <v>45267</v>
       </c>
-      <c r="B55" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="39">
-        <v>13</v>
-      </c>
-      <c r="D55" s="39">
-        <v>28.3</v>
-      </c>
-      <c r="E55" s="40" t="s">
+      <c r="B80" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="99">
+        <v>10</v>
+      </c>
+      <c r="D80" s="99">
+        <v>49.18</v>
+      </c>
+      <c r="E80" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="67">
-        <f>Sayfa2!$D55*Sayfa2!$C55</f>
-        <v>367.90000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="42">
-        <v>13</v>
-      </c>
-      <c r="D56" s="42">
-        <v>41.6</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="69">
-        <f>Sayfa2!$D56*Sayfa2!$C56</f>
-        <v>540.80000000000007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="54"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="77">
-        <v>13</v>
-      </c>
-      <c r="D58" s="77">
-        <v>13.3</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="70">
-        <f>Sayfa2!$D58*Sayfa2!$C58</f>
-        <v>172.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="45">
-        <f>A58-A55</f>
-        <v>46</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="59">
-        <f>G58/G56</f>
-        <v>0.31971153846153844</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G60" s="60">
-        <f>G59/A59*30</f>
-        <v>0.20850752508361203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A61" s="43"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="61"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A62" s="4"/>
-      <c r="G62" s="62"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A63" s="47">
-        <v>45273</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="39">
-        <v>26</v>
-      </c>
-      <c r="D63" s="39">
-        <v>55.08</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="67">
-        <f>Sayfa2!$D63*Sayfa2!$C63</f>
-        <v>1432.08</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A64" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B64" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="42">
-        <v>26</v>
-      </c>
-      <c r="D64" s="42">
-        <v>51.4</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="69">
-        <f>Sayfa2!$D64*Sayfa2!$C64</f>
-        <v>1336.3999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B65" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="77">
-        <v>26</v>
-      </c>
-      <c r="D65" s="77">
-        <f>D64-D63</f>
-        <v>-3.6799999999999997</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="71">
-        <f>Sayfa2!$D65*Sayfa2!$C65</f>
-        <v>-95.679999999999993</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="41"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="54"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A67" s="41">
-        <v>45288</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="42">
-        <v>100</v>
-      </c>
-      <c r="D67" s="42">
-        <v>39.5</v>
-      </c>
-      <c r="E67" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="68">
-        <f>Sayfa2!$D67*Sayfa2!$C67</f>
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A68" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="42">
-        <v>100</v>
-      </c>
-      <c r="D68" s="42">
-        <v>51.4</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="69">
-        <f>Sayfa2!$D68*Sayfa2!$C68</f>
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="77">
-        <v>100</v>
-      </c>
-      <c r="D69" s="77">
-        <f>D68-D67</f>
-        <v>11.899999999999999</v>
-      </c>
-      <c r="E69" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="71">
-        <f>Sayfa2!$D69*Sayfa2!$C69</f>
-        <v>1189.9999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="50"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="54"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="50">
-        <f>A64-A63</f>
-        <v>40</v>
-      </c>
-      <c r="B71" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="59">
-        <f>(G65+G69)/(G67+G63)</f>
-        <v>0.20332659492240912</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A72" s="51"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G72" s="63">
-        <f>G71/A71*30</f>
-        <v>0.15249494619180684</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="13.5" thickBot="1">
-      <c r="G73" s="53"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="47">
-        <v>45267</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="39">
-        <v>300</v>
-      </c>
-      <c r="D74" s="39">
-        <v>18.207357999999999</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="67">
-        <f>Sayfa2!$D74*Sayfa2!$C74</f>
-        <v>5462.2073999999993</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="41">
-        <v>45288</v>
-      </c>
-      <c r="B75" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="42">
-        <v>300</v>
-      </c>
-      <c r="D75" s="42">
-        <v>18.625761000000001</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="69">
-        <f>Sayfa2!$D75*Sayfa2!$C75</f>
-        <v>5587.7282999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="41">
-        <v>45288</v>
-      </c>
-      <c r="B76" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="77">
-        <v>300</v>
-      </c>
-      <c r="D76" s="77">
-        <f>D75-D74</f>
-        <v>0.41840300000000141</v>
-      </c>
-      <c r="E76" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="71">
-        <f>Sayfa2!$D76*Sayfa2!$C76</f>
-        <v>125.52090000000042</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="50">
-        <f>A76-A74</f>
-        <v>21</v>
-      </c>
-      <c r="B77" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="59">
-        <f>G76/G75</f>
-        <v>2.2463672759464776E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A78" s="51"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G78" s="63">
-        <f>G77/A77*30</f>
-        <v>3.209096108494968E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A79" s="3"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="53"/>
-    </row>
-    <row r="80" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A80" s="38">
-        <v>45267</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" s="39">
+      <c r="F80" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="54">
+        <f>Sayfa2!$D80*Sayfa2!$C80</f>
+        <v>491.8</v>
+      </c>
+      <c r="H80" s="99"/>
+      <c r="I80" s="99"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="101"/>
+      <c r="B81" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="99">
         <v>10</v>
       </c>
-      <c r="D80" s="39">
-        <v>523.88987099999997</v>
-      </c>
-      <c r="E80" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="67">
-        <f>Sayfa2!$D80*Sayfa2!$C80</f>
-        <v>5238.8987099999995</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="49">
-        <v>45293</v>
-      </c>
-      <c r="B81" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" s="42">
+      <c r="D81" s="106">
+        <v>52</v>
+      </c>
+      <c r="E81" s="100"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="102">
+        <f>Sayfa2!$D81*Sayfa2!$C81</f>
+        <v>520</v>
+      </c>
+      <c r="I81" s="99"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="107">
+        <v>45327</v>
+      </c>
+      <c r="B82" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="103">
         <v>10</v>
       </c>
-      <c r="D81" s="42">
-        <v>538.78970700000002</v>
-      </c>
-      <c r="E81" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="69">
-        <f>Sayfa2!$D81*Sayfa2!$C81</f>
-        <v>5387.89707</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="49">
-        <v>45293</v>
-      </c>
-      <c r="B82" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="77">
-        <v>10</v>
-      </c>
-      <c r="D82" s="77">
+      <c r="D82" s="103">
         <f>D81-D80</f>
-        <v>14.89983600000005</v>
-      </c>
-      <c r="E82" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="71">
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="108">
         <f>Sayfa2!$D82*Sayfa2!$C82</f>
-        <v>148.9983600000005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="50">
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="80">
         <f>A82-A80</f>
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B83" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="59">
-        <f>G82/G81</f>
-        <v>2.7654269943208194E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="50"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="46" t="s">
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="82">
+        <f>I82/G80</f>
+        <v>5.7340382269215132E-2</v>
+      </c>
+      <c r="G83" s="51"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="G84" s="60">
-        <f>G83/A83*30</f>
-        <v>3.1908773011394068E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="49"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="54"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="49">
-        <v>45273</v>
-      </c>
-      <c r="B86" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="42">
-        <v>40</v>
-      </c>
-      <c r="D86" s="42">
-        <v>527.21223999999995</v>
-      </c>
-      <c r="E86" s="48" t="s">
+      <c r="F84" s="84">
+        <f>F83/A83*30</f>
+        <v>2.8670191134607566E-2</v>
+      </c>
+      <c r="G84" s="56"/>
+    </row>
+    <row r="85" spans="1:10" ht="13.5" thickBot="1">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="51"/>
+    </row>
+    <row r="86" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A86" s="46">
+        <v>45267</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="39">
+        <v>13</v>
+      </c>
+      <c r="D86" s="39">
+        <v>28.3</v>
+      </c>
+      <c r="E86" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="68">
+      <c r="F86" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="62">
         <f>Sayfa2!$D86*Sayfa2!$C86</f>
-        <v>21088.489599999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="49">
-        <v>45293</v>
+        <v>367.90000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="41">
+        <v>45313</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C87" s="42">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D87" s="42">
-        <f>D81</f>
-        <v>538.78970700000002</v>
-      </c>
-      <c r="E87" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" s="48" t="s">
+        <v>41.6</v>
+      </c>
+      <c r="E87" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="69">
+      <c r="G87" s="51"/>
+      <c r="H87" s="64">
         <f>Sayfa2!$D87*Sayfa2!$C87</f>
-        <v>15086.111796000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="49">
-        <v>45293</v>
-      </c>
-      <c r="B88" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" s="77">
-        <v>28</v>
-      </c>
-      <c r="D88" s="77">
-        <f>D87-D86</f>
-        <v>11.57746700000007</v>
-      </c>
-      <c r="E88" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" s="48" t="s">
+        <v>540.80000000000007</v>
+      </c>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A88" s="41"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="52"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="70">
+        <v>13</v>
+      </c>
+      <c r="D89" s="70">
+        <v>13.3</v>
+      </c>
+      <c r="E89" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="71">
-        <f>Sayfa2!$D88*Sayfa2!$C88</f>
-        <v>324.16907600000195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="50">
-        <f>A88-A86</f>
-        <v>20</v>
-      </c>
-      <c r="B89" s="42" t="s">
+      <c r="G89" s="51"/>
+      <c r="I89" s="65">
+        <f>Sayfa2!$D89*Sayfa2!$C89</f>
+        <v>172.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="45">
+        <f>A89-A86</f>
+        <v>46</v>
+      </c>
+      <c r="B90" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="59">
-        <f>G88/G87</f>
-        <v>2.1487914207685612E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="50"/>
-      <c r="B90" s="42"/>
       <c r="C90" s="42"/>
       <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G90" s="60">
-        <f>G89/A89*30</f>
-        <v>3.2231871311528416E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="49"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="86">
+        <f>I89/G86</f>
+        <v>0.46996466431095402</v>
+      </c>
+      <c r="G90" s="51"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="41"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
       <c r="D91" s="42"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="54"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="49">
+      <c r="E91" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" s="84">
+        <f>F90/A90*30</f>
+        <v>0.30649869411583958</v>
+      </c>
+      <c r="G91" s="51"/>
+    </row>
+    <row r="92" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A92" s="43"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="57"/>
+    </row>
+    <row r="93" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A93" s="4"/>
+      <c r="G93" s="58"/>
+    </row>
+    <row r="94" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A94" s="46">
+        <v>45273</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="39">
+        <v>26</v>
+      </c>
+      <c r="D94" s="39">
+        <v>55.08</v>
+      </c>
+      <c r="E94" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="62">
+        <f>Sayfa2!$D94*Sayfa2!$C94</f>
+        <v>1432.08</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A95" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="42">
+        <v>26</v>
+      </c>
+      <c r="D95" s="42">
+        <v>51.4</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="51"/>
+      <c r="H95" s="64">
+        <f>Sayfa2!$D95*Sayfa2!$C95</f>
+        <v>1336.3999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B96" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" s="70">
+        <v>26</v>
+      </c>
+      <c r="D96" s="70">
+        <f>D95-D94</f>
+        <v>-3.6799999999999997</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="51"/>
+      <c r="I96" s="66">
+        <f>Sayfa2!$D96*Sayfa2!$C96</f>
+        <v>-95.679999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="41"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="52"/>
+    </row>
+    <row r="98" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A98" s="41">
+        <v>45288</v>
+      </c>
+      <c r="B98" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="42">
+        <v>100</v>
+      </c>
+      <c r="D98" s="42">
+        <v>39.5</v>
+      </c>
+      <c r="E98" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="63">
+        <f>Sayfa2!$D98*Sayfa2!$C98</f>
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A99" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B99" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="42">
+        <v>100</v>
+      </c>
+      <c r="D99" s="42">
+        <v>51.4</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="51"/>
+      <c r="H99" s="64">
+        <f>Sayfa2!$D99*Sayfa2!$C99</f>
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B100" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="70">
+        <v>100</v>
+      </c>
+      <c r="D100" s="70">
+        <f>D99-D98</f>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="51"/>
+      <c r="I100" s="66">
+        <f>Sayfa2!$D100*Sayfa2!$C100</f>
+        <v>1189.9999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="49"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="52"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="49">
+        <f>A95-A94</f>
+        <v>40</v>
+      </c>
+      <c r="B102" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="86">
+        <f>(I96+I100)/(G98+G94)</f>
+        <v>0.20332659492240912</v>
+      </c>
+      <c r="G102" s="51"/>
+    </row>
+    <row r="103" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A103" s="50"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="F103" s="88">
+        <f>F102/A102*30</f>
+        <v>0.15249494619180684</v>
+      </c>
+      <c r="G103" s="51"/>
+    </row>
+    <row r="104" spans="1:9" ht="13.5" thickBot="1">
+      <c r="G104" s="51"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="46">
+        <v>45267</v>
+      </c>
+      <c r="B105" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="39">
+        <v>300</v>
+      </c>
+      <c r="D105" s="39">
+        <v>18.207357999999999</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="62">
+        <f>Sayfa2!$D105*Sayfa2!$C105</f>
+        <v>5462.2073999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="41">
+        <v>45288</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="42">
+        <v>300</v>
+      </c>
+      <c r="D106" s="42">
+        <v>18.625761000000001</v>
+      </c>
+      <c r="E106" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="51"/>
+      <c r="H106" s="64">
+        <f>Sayfa2!$D106*Sayfa2!$C106</f>
+        <v>5587.7282999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="41">
+        <v>45288</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="70">
+        <v>300</v>
+      </c>
+      <c r="D107" s="70">
+        <f>D106-D105</f>
+        <v>0.41840300000000141</v>
+      </c>
+      <c r="E107" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="51"/>
+      <c r="I107" s="66">
+        <f>Sayfa2!$D107*Sayfa2!$C107</f>
+        <v>125.52090000000042</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="49">
+        <f>A107-A105</f>
+        <v>21</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="86">
+        <f>I107/H106</f>
+        <v>2.2463672759464776E-2</v>
+      </c>
+      <c r="G108" s="51"/>
+    </row>
+    <row r="109" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A109" s="50"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="F109" s="88">
+        <f>F108/A108*30</f>
+        <v>3.209096108494968E-2</v>
+      </c>
+      <c r="G109" s="51"/>
+    </row>
+    <row r="110" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A110" s="3"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="51"/>
+    </row>
+    <row r="111" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A111" s="38">
+        <v>45267</v>
+      </c>
+      <c r="B111" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="39">
+        <v>10</v>
+      </c>
+      <c r="D111" s="39">
+        <v>523.88987099999997</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="62">
+        <f>Sayfa2!$D111*Sayfa2!$C111</f>
+        <v>5238.8987099999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="48">
+        <v>45293</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" s="42">
+        <v>10</v>
+      </c>
+      <c r="D112" s="42">
+        <v>538.78970700000002</v>
+      </c>
+      <c r="E112" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="51"/>
+      <c r="H112" s="64">
+        <f>Sayfa2!$D112*Sayfa2!$C112</f>
+        <v>5387.89707</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="48">
+        <v>45293</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="70">
+        <v>10</v>
+      </c>
+      <c r="D113" s="70">
+        <f>D112-D111</f>
+        <v>14.89983600000005</v>
+      </c>
+      <c r="E113" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="51"/>
+      <c r="I113" s="66">
+        <f>Sayfa2!$D113*Sayfa2!$C113</f>
+        <v>148.9983600000005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="49">
+        <f>A113-A111</f>
+        <v>26</v>
+      </c>
+      <c r="B114" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="86">
+        <f>I113/H112</f>
+        <v>2.7654269943208194E-2</v>
+      </c>
+      <c r="G114" s="51"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="49"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F115" s="84">
+        <f>F114/A114*30</f>
+        <v>3.1908773011394068E-2</v>
+      </c>
+      <c r="G115" s="51"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="48"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="52"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="48">
+        <v>45273</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" s="42">
+        <v>40</v>
+      </c>
+      <c r="D117" s="42">
+        <v>527.21223999999995</v>
+      </c>
+      <c r="E117" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="63">
+        <f>Sayfa2!$D117*Sayfa2!$C117</f>
+        <v>21088.489599999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="48">
+        <v>45293</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="42">
+        <v>28</v>
+      </c>
+      <c r="D118" s="42">
+        <f>D112</f>
+        <v>538.78970700000002</v>
+      </c>
+      <c r="E118" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="51"/>
+      <c r="H118" s="64">
+        <f>Sayfa2!$D118*Sayfa2!$C118</f>
+        <v>15086.111796000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="48">
+        <v>45293</v>
+      </c>
+      <c r="B119" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="70">
+        <v>28</v>
+      </c>
+      <c r="D119" s="70">
+        <f>D118-D117</f>
+        <v>11.57746700000007</v>
+      </c>
+      <c r="E119" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="51"/>
+      <c r="I119" s="66">
+        <f>Sayfa2!$D119*Sayfa2!$C119</f>
+        <v>324.16907600000195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="49">
+        <f>A119-A117</f>
+        <v>20</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="42"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="86">
+        <f>I119/H118</f>
+        <v>2.1487914207685612E-2</v>
+      </c>
+      <c r="G120" s="51"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="49"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F121" s="84">
+        <f>F120/A120*30</f>
+        <v>3.2231871311528416E-2</v>
+      </c>
+      <c r="G121" s="51"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="48"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="52"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="48">
         <v>45295</v>
       </c>
-      <c r="B92" s="42" t="s">
+      <c r="B123" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="42">
+      <c r="C123" s="42">
         <v>22</v>
       </c>
-      <c r="D92" s="42">
+      <c r="D123" s="42">
         <v>540.000044</v>
       </c>
-      <c r="E92" s="48" t="s">
+      <c r="E123" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="48" t="s">
+      <c r="F123" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="69">
-        <f>Sayfa2!$D92*Sayfa2!$C92</f>
+      <c r="G123" s="51"/>
+      <c r="H123" s="64">
+        <f>Sayfa2!$D123*Sayfa2!$C123</f>
         <v>11880.000968</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="49">
+    <row r="124" spans="1:9">
+      <c r="A124" s="48">
         <v>45295</v>
       </c>
-      <c r="B93" s="42" t="s">
+      <c r="B124" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="77">
+      <c r="C124" s="70">
         <v>22</v>
       </c>
-      <c r="D93" s="77">
-        <f>D92-D86</f>
+      <c r="D124" s="70">
+        <f>D123-D117</f>
         <v>12.787804000000051</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E124" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F93" s="48" t="s">
+      <c r="F124" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="71">
-        <f>Sayfa2!$D93*Sayfa2!$C93</f>
+      <c r="G124" s="51"/>
+      <c r="I124" s="66">
+        <f>Sayfa2!$D124*Sayfa2!$C124</f>
         <v>281.33168800000112</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="50">
-        <f>A93-A86</f>
+    <row r="125" spans="1:9">
+      <c r="A125" s="49">
+        <f>A124-A117</f>
         <v>22</v>
       </c>
-      <c r="B94" s="42" t="s">
+      <c r="B125" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="59">
-        <f>G93/G92</f>
+      <c r="C125" s="42"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="86">
+        <f>I124/H123</f>
         <v>2.3681116588946151E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A95" s="51"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="52" t="s">
+      <c r="G125" s="51"/>
+    </row>
+    <row r="126" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A126" s="50"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="G95" s="63">
-        <f>G94/A94*30</f>
+      <c r="F126" s="88">
+        <f>F125/A125*30</f>
         <v>3.2292431712199296E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="55"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="56"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="3"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="53"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="3"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="53"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="3"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="53"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="3"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="53"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="3"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="53"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="3"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="53"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="G103" s="53"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="G104" s="53"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="4"/>
-      <c r="G105" s="53"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="4"/>
-      <c r="G106" s="53"/>
+      <c r="G126" s="51"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="53"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="54"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="3"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="51"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="3"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="51"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="3"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="51"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="3"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="51"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="3"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="51"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="3"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="51"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="G134" s="51"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="G135" s="51"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="4"/>
+      <c r="G136" s="51"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="4"/>
+      <c r="G137" s="51"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -3114,7 +3654,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Sayfa1!$C:$C</xm:f>
@@ -3122,7 +3662,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E58:F58 E85:F88 E27:F30 E74:F76 E79:F82 E33:F38 E96:F102 E91:F93 E11:F25 E54:F56 E63:F69 E43:F43 E47:F47 E51:F51</xm:sqref>
+          <xm:sqref>E89:F89 E116:F119 E105:F107 E110:F113 E35:F35 E127:F133 E122:F124 E85:F87 E94:F100 E54:F54 E73:F73 E62:F62 E80:F82 E11:F13 E16:F22 E25:F31 E38:F40 E43:F46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE217E7-87B2-4991-9A83-7C4112FF7E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E72EFB-3933-4251-87C4-E954B202B88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="645" windowWidth="17895" windowHeight="14835" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,8 +832,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -945,6 +951,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -971,7 +988,7 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1091,6 +1108,8 @@
     <xf numFmtId="4" fontId="2" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="14" fillId="20" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1670,7 +1689,7 @@
   <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1705,18 +1724,18 @@
       </c>
       <c r="H2" s="92">
         <f>SUBTOTAL(109,H9:H65)</f>
-        <v>138360.79025199998</v>
+        <v>138398.938104</v>
       </c>
       <c r="I2" s="92">
         <f>SUBTOTAL(109,I9:I65)</f>
-        <v>4603.9251399999994</v>
+        <v>4642.0729920000176</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="H3" s="1"/>
       <c r="I3" s="89">
         <f>I2/G2</f>
-        <v>3.4420103492594174E-2</v>
+        <v>3.4705306438761283E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1819,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="97">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1830,7 +1849,7 @@
       <c r="G12" s="51"/>
       <c r="H12" s="68">
         <f>Sayfa2!$D12*Sayfa2!$C12</f>
-        <v>1440</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1845,14 +1864,14 @@
       </c>
       <c r="D13" s="71">
         <f>D12-D11</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="51"/>
       <c r="I13" s="69">
         <f>Sayfa2!$D13*Sayfa2!$C13</f>
-        <v>270</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1868,7 +1887,7 @@
       <c r="E14" s="81"/>
       <c r="F14" s="82">
         <f>I13/G11</f>
-        <v>0.23076923076923078</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="78"/>
@@ -1883,7 +1902,7 @@
       </c>
       <c r="F15" s="82">
         <f>F14/A14*30</f>
-        <v>5.3667262969588549E-2</v>
+        <v>2.6833631484794274E-2</v>
       </c>
       <c r="G15" s="51"/>
       <c r="H15" s="78"/>
@@ -1956,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="97">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
@@ -1967,7 +1986,7 @@
       <c r="G21" s="51"/>
       <c r="H21" s="68">
         <f>Sayfa2!$D21*Sayfa2!$C21</f>
-        <v>1600</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1982,14 +2001,14 @@
       </c>
       <c r="D22" s="71">
         <f>D21-D20</f>
-        <v>15.998999999999995</v>
+        <v>0.99899999999999523</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="51"/>
       <c r="I22" s="69">
         <f>Sayfa2!$D22*Sayfa2!$C22</f>
-        <v>159.98999999999995</v>
+        <v>9.9899999999999523</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2005,7 +2024,7 @@
       <c r="E23" s="81"/>
       <c r="F23" s="82">
         <f>I22/G20</f>
-        <v>0.11110339511531167</v>
+        <v>6.9374518232511945E-3</v>
       </c>
       <c r="G23" s="56"/>
     </row>
@@ -2018,7 +2037,7 @@
       </c>
       <c r="F24" s="82">
         <f>F23/A23*30</f>
-        <v>4.1663773168241873E-2</v>
+        <v>2.601544433719198E-3</v>
       </c>
       <c r="G24" s="56"/>
     </row>
@@ -2081,7 +2100,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="97">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>23</v>
@@ -2092,7 +2111,7 @@
       <c r="G30" s="51"/>
       <c r="H30" s="68">
         <f>Sayfa2!$D30*Sayfa2!$C30</f>
-        <v>3200</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2107,14 +2126,14 @@
       </c>
       <c r="D31" s="71">
         <f>D30-D29</f>
-        <v>44.66</v>
+        <v>29.659999999999997</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="51"/>
       <c r="I31" s="69">
         <f>Sayfa2!$D31*Sayfa2!$C31</f>
-        <v>893.19999999999993</v>
+        <v>593.19999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2130,7 +2149,7 @@
       <c r="E32" s="81"/>
       <c r="F32" s="82">
         <f>I31/G29</f>
-        <v>0.387203051846714</v>
+        <v>0.25715276573608459</v>
       </c>
       <c r="G32" s="56"/>
     </row>
@@ -2143,7 +2162,7 @@
       </c>
       <c r="F33" s="82">
         <f>F32/A32*30</f>
-        <v>0.18438240564129238</v>
+        <v>0.12245369796956408</v>
       </c>
       <c r="G33" s="56"/>
     </row>
@@ -2195,19 +2214,19 @@
         <v>110</v>
       </c>
       <c r="D39">
-        <v>559.83385699999997</v>
+        <v>562.47431400000005</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="51"/>
       <c r="H39" s="68">
         <f>Sayfa2!$D39*Sayfa2!$C39</f>
-        <v>61581.724269999999</v>
+        <v>61872.174540000007</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3">
-        <v>45327</v>
+        <v>45332</v>
       </c>
       <c r="B40" t="s">
         <v>154</v>
@@ -2217,20 +2236,20 @@
       </c>
       <c r="D40" s="71">
         <f>D39-D38</f>
-        <v>19.232749000000013</v>
+        <v>21.873206000000096</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="51"/>
       <c r="I40" s="69">
         <f>Sayfa2!$D40*Sayfa2!$C40</f>
-        <v>2115.6023900000014</v>
+        <v>2406.0526600000103</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="80">
         <f>A40-A38</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B41" s="42" t="s">
         <v>144</v>
@@ -2240,7 +2259,7 @@
       <c r="E41" s="81"/>
       <c r="F41" s="82">
         <f>I40/G38</f>
-        <v>3.5576599299163875E-2</v>
+        <v>4.0460897464531458E-2</v>
       </c>
       <c r="G41" s="51"/>
       <c r="I41" s="69"/>
@@ -2254,7 +2273,7 @@
       </c>
       <c r="F42" s="82">
         <f>F41/A41*30</f>
-        <v>3.4428967063706975E-2</v>
+        <v>3.3717414553776213E-2</v>
       </c>
       <c r="G42" s="51"/>
       <c r="I42" s="69"/>
@@ -2312,17 +2331,17 @@
         <v>50</v>
       </c>
       <c r="D47">
-        <v>559.83385699999997</v>
+        <v>562.47431400000005</v>
       </c>
       <c r="G47" s="51"/>
       <c r="H47" s="68">
         <f>Sayfa2!$D47*Sayfa2!$C47</f>
-        <v>27991.692849999999</v>
+        <v>28123.715700000001</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="110">
-        <v>45327</v>
+        <v>45332</v>
       </c>
       <c r="B48" t="s">
         <v>154</v>
@@ -2332,18 +2351,18 @@
       </c>
       <c r="D48" s="71">
         <f>D47-D46</f>
-        <v>17.399355000000014</v>
+        <v>20.039812000000097</v>
       </c>
       <c r="G48" s="51"/>
       <c r="I48" s="69">
         <f>Sayfa2!$D48*Sayfa2!$C48</f>
-        <v>869.96775000000071</v>
+        <v>1001.9906000000049</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="80">
         <f>A48-A46</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B49" s="42" t="s">
         <v>144</v>
@@ -2353,7 +2372,7 @@
       <c r="E49" s="81"/>
       <c r="F49" s="82">
         <f>I48/G46</f>
-        <v>3.2076416481339562E-2</v>
+        <v>3.6944206030611416E-2</v>
       </c>
       <c r="G49" s="51"/>
       <c r="I49" s="69"/>
@@ -2367,7 +2386,7 @@
       </c>
       <c r="F50" s="82">
         <f>F49/A49*30</f>
-        <v>3.4367589087149535E-2</v>
+        <v>3.3585641846010379E-2</v>
       </c>
       <c r="G50" s="51"/>
       <c r="I50" s="69"/>
@@ -2420,17 +2439,17 @@
         <v>50</v>
       </c>
       <c r="D55">
-        <v>559.83385699999997</v>
+        <v>562.47431400000005</v>
       </c>
       <c r="G55" s="51"/>
       <c r="H55" s="68">
         <f>Sayfa2!$D55*Sayfa2!$C55</f>
-        <v>27991.692849999999</v>
+        <v>28123.715700000001</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="110">
-        <v>45327</v>
+        <v>45332</v>
       </c>
       <c r="B56" t="s">
         <v>154</v>
@@ -2440,18 +2459,18 @@
       </c>
       <c r="D56" s="71">
         <f>D55-D54</f>
-        <v>3.8837499999999636</v>
+        <v>6.5242070000000467</v>
       </c>
       <c r="G56" s="51"/>
       <c r="I56" s="69">
         <f>Sayfa2!$D56*Sayfa2!$C56</f>
-        <v>194.18749999999818</v>
+        <v>326.21035000000234</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="80">
         <f>A56-A54</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B57" s="42" t="s">
         <v>144</v>
@@ -2461,7 +2480,7 @@
       <c r="E57" s="81"/>
       <c r="F57" s="82">
         <f>I56/G54</f>
-        <v>6.9857887445284074E-3</v>
+        <v>1.1735238320585569E-2</v>
       </c>
       <c r="G57" s="51"/>
       <c r="I57" s="69"/>
@@ -2475,7 +2494,7 @@
       </c>
       <c r="F58" s="82">
         <f>F57/A57*30</f>
-        <v>3.492894372264204E-2</v>
+        <v>3.200519541977883E-2</v>
       </c>
       <c r="G58" s="51"/>
       <c r="I58" s="69"/>
@@ -2528,17 +2547,17 @@
         <v>26</v>
       </c>
       <c r="D63">
-        <v>559.83385699999997</v>
+        <v>562.47431400000005</v>
       </c>
       <c r="G63" s="51"/>
       <c r="H63" s="68">
         <f>Sayfa2!$D63*Sayfa2!$C63</f>
-        <v>14555.680281999999</v>
+        <v>14624.332164000001</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="110">
-        <v>45327</v>
+        <v>45332</v>
       </c>
       <c r="B64" t="s">
         <v>154</v>
@@ -2548,18 +2567,18 @@
       </c>
       <c r="D64" s="71">
         <f>D63-D62</f>
-        <v>3.8837499999999636</v>
+        <v>6.5242070000000467</v>
       </c>
       <c r="G64" s="51"/>
       <c r="I64" s="69">
         <f>Sayfa2!$D64*Sayfa2!$C64</f>
-        <v>100.97749999999905</v>
+        <v>169.62938200000121</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="80">
         <f>A64-A62</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B65" s="42" t="s">
         <v>144</v>
@@ -2569,7 +2588,7 @@
       <c r="E65" s="81"/>
       <c r="F65" s="82">
         <f>I64/G62</f>
-        <v>6.9857887445284074E-3</v>
+        <v>1.1735238320585567E-2</v>
       </c>
       <c r="G65" s="56"/>
     </row>
@@ -2582,7 +2601,7 @@
       </c>
       <c r="F66" s="82">
         <f>F65/A65*30</f>
-        <v>4.1914732467170444E-2</v>
+        <v>3.5205714961756701E-2</v>
       </c>
       <c r="G66" s="51"/>
     </row>
@@ -2602,9 +2621,15 @@
       <c r="G69" s="56"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="G70" s="56"/>
+      <c r="A70" s="111"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="111"/>
     </row>
     <row r="71" spans="1:10">
       <c r="C71" s="78"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E72EFB-3933-4251-87C4-E954B202B88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6178DB68-3B18-4DB0-9922-99AC746C6A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="645" windowWidth="17895" windowHeight="14835" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="47" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="161">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -1226,8 +1226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:I129" totalsRowShown="0">
-  <autoFilter ref="A8:I129" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:I134" totalsRowShown="0">
+  <autoFilter ref="A8:I134" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tarih"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Açıklama"/>
@@ -1686,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1720,22 +1720,22 @@
       </c>
       <c r="G2" s="90">
         <f>SUBTOTAL(109,G9:G65)</f>
-        <v>133756.865112</v>
+        <v>128197.36404199999</v>
       </c>
       <c r="H2" s="92">
         <f>SUBTOTAL(109,H9:H65)</f>
-        <v>138398.938104</v>
+        <v>133236.32214800001</v>
       </c>
       <c r="I2" s="92">
         <f>SUBTOTAL(109,I9:I65)</f>
-        <v>4642.0729920000176</v>
+        <v>5038.9581060000137</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="H3" s="1"/>
       <c r="I3" s="89">
         <f>I2/G2</f>
-        <v>3.4705306438761283E-2</v>
+        <v>3.9306253632088346E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1746,15 +1746,15 @@
         <v>160</v>
       </c>
       <c r="G5" s="91">
-        <f>SUBTOTAL(109,G73:G127)</f>
+        <f>SUBTOTAL(109,G78:G132)</f>
         <v>63605.080631999997</v>
       </c>
       <c r="H5" s="91">
-        <f>SUBTOTAL(109,H73:H127)</f>
+        <f>SUBTOTAL(109,H78:H132)</f>
         <v>71231.295555999997</v>
       </c>
       <c r="I5" s="91">
-        <f>SUBTOTAL(109,I73:I127)</f>
+        <f>SUBTOTAL(109,I78:I132)</f>
         <v>2354.0925240000024</v>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="97">
-        <v>145</v>
+        <v>145.4</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1849,12 +1849,12 @@
       <c r="G12" s="51"/>
       <c r="H12" s="68">
         <f>Sayfa2!$D12*Sayfa2!$C12</f>
-        <v>1305</v>
+        <v>1308.6000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="96">
-        <v>45351</v>
+        <v>45334</v>
       </c>
       <c r="B13" t="s">
         <v>151</v>
@@ -1864,20 +1864,20 @@
       </c>
       <c r="D13" s="71">
         <f>D12-D11</f>
-        <v>15</v>
+        <v>15.400000000000006</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="51"/>
       <c r="I13" s="69">
         <f>Sayfa2!$D13*Sayfa2!$C13</f>
-        <v>135</v>
+        <v>138.60000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="80">
         <f>A13-A11</f>
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>144</v>
@@ -1887,7 +1887,7 @@
       <c r="E14" s="81"/>
       <c r="F14" s="82">
         <f>I13/G11</f>
-        <v>0.11538461538461539</v>
+        <v>0.11846153846153851</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="78"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F15" s="82">
         <f>F14/A14*30</f>
-        <v>2.6833631484794274E-2</v>
+        <v>3.1730769230769243E-2</v>
       </c>
       <c r="G15" s="51"/>
       <c r="H15" s="78"/>
@@ -1975,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="97">
-        <v>145</v>
+        <v>145.4</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
@@ -1986,12 +1986,12 @@
       <c r="G21" s="51"/>
       <c r="H21" s="68">
         <f>Sayfa2!$D21*Sayfa2!$C21</f>
-        <v>1450</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="96">
-        <v>45351</v>
+        <v>45334</v>
       </c>
       <c r="B22" t="s">
         <v>151</v>
@@ -2001,20 +2001,20 @@
       </c>
       <c r="D22" s="71">
         <f>D21-D20</f>
-        <v>0.99899999999999523</v>
+        <v>1.3990000000000009</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="51"/>
       <c r="I22" s="69">
         <f>Sayfa2!$D22*Sayfa2!$C22</f>
-        <v>9.9899999999999523</v>
+        <v>13.990000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="80">
         <f>A22-A20</f>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>144</v>
@@ -2024,7 +2024,7 @@
       <c r="E23" s="81"/>
       <c r="F23" s="82">
         <f>I22/G20</f>
-        <v>6.9374518232511945E-3</v>
+        <v>9.7152103110395138E-3</v>
       </c>
       <c r="G23" s="56"/>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="F24" s="82">
         <f>F23/A23*30</f>
-        <v>2.601544433719198E-3</v>
+        <v>4.6262906243045299E-3</v>
       </c>
       <c r="G24" s="56"/>
     </row>
@@ -2100,7 +2100,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="97">
-        <v>145</v>
+        <v>145.4</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>23</v>
@@ -2111,12 +2111,12 @@
       <c r="G30" s="51"/>
       <c r="H30" s="68">
         <f>Sayfa2!$D30*Sayfa2!$C30</f>
-        <v>2900</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="96">
-        <v>45351</v>
+        <v>45334</v>
       </c>
       <c r="B31" t="s">
         <v>151</v>
@@ -2126,20 +2126,20 @@
       </c>
       <c r="D31" s="71">
         <f>D30-D29</f>
-        <v>29.659999999999997</v>
+        <v>30.060000000000002</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="51"/>
       <c r="I31" s="69">
         <f>Sayfa2!$D31*Sayfa2!$C31</f>
-        <v>593.19999999999993</v>
+        <v>601.20000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="80">
         <f>A31-A29</f>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>144</v>
@@ -2149,7 +2149,7 @@
       <c r="E32" s="81"/>
       <c r="F32" s="82">
         <f>I31/G29</f>
-        <v>0.25715276573608459</v>
+        <v>0.26062077336570139</v>
       </c>
       <c r="G32" s="56"/>
     </row>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="F33" s="82">
         <f>F32/A32*30</f>
-        <v>0.12245369796956408</v>
+        <v>0.16997006958632699</v>
       </c>
       <c r="G33" s="56"/>
     </row>
@@ -2214,19 +2214,19 @@
         <v>110</v>
       </c>
       <c r="D39">
-        <v>562.47431400000005</v>
+        <v>564.45009800000003</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="51"/>
       <c r="H39" s="68">
         <f>Sayfa2!$D39*Sayfa2!$C39</f>
-        <v>61872.174540000007</v>
+        <v>62089.510780000004</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B40" t="s">
         <v>154</v>
@@ -2236,20 +2236,20 @@
       </c>
       <c r="D40" s="71">
         <f>D39-D38</f>
-        <v>21.873206000000096</v>
+        <v>23.848990000000072</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="51"/>
       <c r="I40" s="69">
         <f>Sayfa2!$D40*Sayfa2!$C40</f>
-        <v>2406.0526600000103</v>
+        <v>2623.3889000000081</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="80">
         <f>A40-A38</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="42" t="s">
         <v>144</v>
@@ -2259,7 +2259,7 @@
       <c r="E41" s="81"/>
       <c r="F41" s="82">
         <f>I40/G38</f>
-        <v>4.0460897464531458E-2</v>
+        <v>4.4115688345944121E-2</v>
       </c>
       <c r="G41" s="51"/>
       <c r="I41" s="69"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="F42" s="82">
         <f>F41/A41*30</f>
-        <v>3.3717414553776213E-2</v>
+        <v>3.4828175009955886E-2</v>
       </c>
       <c r="G42" s="51"/>
       <c r="I42" s="69"/>
@@ -2331,17 +2331,17 @@
         <v>50</v>
       </c>
       <c r="D47">
-        <v>562.47431400000005</v>
+        <v>564.45009800000003</v>
       </c>
       <c r="G47" s="51"/>
       <c r="H47" s="68">
         <f>Sayfa2!$D47*Sayfa2!$C47</f>
-        <v>28123.715700000001</v>
+        <v>28222.5049</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="110">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B48" t="s">
         <v>154</v>
@@ -2351,18 +2351,18 @@
       </c>
       <c r="D48" s="71">
         <f>D47-D46</f>
-        <v>20.039812000000097</v>
+        <v>22.015596000000073</v>
       </c>
       <c r="G48" s="51"/>
       <c r="I48" s="69">
         <f>Sayfa2!$D48*Sayfa2!$C48</f>
-        <v>1001.9906000000049</v>
+        <v>1100.7798000000037</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="80">
         <f>A48-A46</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B49" s="42" t="s">
         <v>144</v>
@@ -2372,7 +2372,7 @@
       <c r="E49" s="81"/>
       <c r="F49" s="82">
         <f>I48/G46</f>
-        <v>3.6944206030611416E-2</v>
+        <v>4.0586643952084146E-2</v>
       </c>
       <c r="G49" s="51"/>
       <c r="I49" s="69"/>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F50" s="82">
         <f>F49/A49*30</f>
-        <v>3.3585641846010379E-2</v>
+        <v>3.4788551958929263E-2</v>
       </c>
       <c r="G50" s="51"/>
       <c r="I50" s="69"/>
@@ -2439,17 +2439,17 @@
         <v>50</v>
       </c>
       <c r="D55">
-        <v>562.47431400000005</v>
+        <v>564.45009800000003</v>
       </c>
       <c r="G55" s="51"/>
       <c r="H55" s="68">
         <f>Sayfa2!$D55*Sayfa2!$C55</f>
-        <v>28123.715700000001</v>
+        <v>28222.5049</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="110">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B56" t="s">
         <v>154</v>
@@ -2459,18 +2459,18 @@
       </c>
       <c r="D56" s="71">
         <f>D55-D54</f>
-        <v>6.5242070000000467</v>
+        <v>8.4999910000000227</v>
       </c>
       <c r="G56" s="51"/>
       <c r="I56" s="69">
         <f>Sayfa2!$D56*Sayfa2!$C56</f>
-        <v>326.21035000000234</v>
+        <v>424.99955000000114</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="80">
         <f>A56-A54</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B57" s="42" t="s">
         <v>144</v>
@@ -2480,7 +2480,7 @@
       <c r="E57" s="81"/>
       <c r="F57" s="82">
         <f>I56/G54</f>
-        <v>1.1735238320585569E-2</v>
+        <v>1.5289125576155384E-2</v>
       </c>
       <c r="G57" s="51"/>
       <c r="I57" s="69"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="F58" s="82">
         <f>F57/A57*30</f>
-        <v>3.200519541977883E-2</v>
+        <v>3.5282597483435499E-2</v>
       </c>
       <c r="G58" s="51"/>
       <c r="I58" s="69"/>
@@ -2523,7 +2523,7 @@
         <v>41</v>
       </c>
       <c r="C62">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>555.950107</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="G62" s="61">
         <f>Sayfa2!$D62*Sayfa2!$C62</f>
-        <v>14454.702782</v>
+        <v>8895.201712</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2544,41 +2544,41 @@
         <v>153</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>562.47431400000005</v>
+        <v>564.45009800000003</v>
       </c>
       <c r="G63" s="51"/>
       <c r="H63" s="68">
         <f>Sayfa2!$D63*Sayfa2!$C63</f>
-        <v>14624.332164000001</v>
+        <v>9031.2015680000004</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="110">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B64" t="s">
         <v>154</v>
       </c>
       <c r="C64" s="71">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D64" s="71">
         <f>D63-D62</f>
-        <v>6.5242070000000467</v>
+        <v>8.4999910000000227</v>
       </c>
       <c r="G64" s="51"/>
       <c r="I64" s="69">
         <f>Sayfa2!$D64*Sayfa2!$C64</f>
-        <v>169.62938200000121</v>
+        <v>135.99985600000036</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="80">
         <f>A64-A62</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B65" s="42" t="s">
         <v>144</v>
@@ -2588,7 +2588,7 @@
       <c r="E65" s="81"/>
       <c r="F65" s="82">
         <f>I64/G62</f>
-        <v>1.1735238320585567E-2</v>
+        <v>1.5289125576155384E-2</v>
       </c>
       <c r="G65" s="56"/>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="F66" s="82">
         <f>F65/A65*30</f>
-        <v>3.5205714961756701E-2</v>
+        <v>3.8222813940388463E-2</v>
       </c>
       <c r="G66" s="51"/>
     </row>
@@ -2637,499 +2637,479 @@
       <c r="G71" s="56"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="G72" s="56"/>
+      <c r="A72" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>555.950107</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="61">
+        <f>Sayfa2!$D72*Sayfa2!$C72</f>
+        <v>5559.5010700000003</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="72">
-        <v>45322</v>
-      </c>
-      <c r="B73" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="73">
-        <v>46</v>
-      </c>
-      <c r="D73" s="73">
-        <v>555.950107</v>
-      </c>
-      <c r="E73" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="75">
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>564.45009800000003</v>
+      </c>
+      <c r="G73" s="51"/>
+      <c r="H73" s="68">
         <f>Sayfa2!$D73*Sayfa2!$C73</f>
-        <v>25573.704922000001</v>
+        <v>5644.5009800000007</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="73"/>
-      <c r="B74" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="73">
-        <v>46</v>
-      </c>
-      <c r="D74" s="73">
-        <v>559.83385699999997</v>
-      </c>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
+      <c r="A74" s="110">
+        <v>45334</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="71">
+        <v>10</v>
+      </c>
+      <c r="D74" s="71">
+        <f>D73-D72</f>
+        <v>8.4999910000000227</v>
+      </c>
       <c r="G74" s="51"/>
-      <c r="H74" s="76">
+      <c r="I74" s="69">
         <f>Sayfa2!$D74*Sayfa2!$C74</f>
-        <v>25752.357421999997</v>
-      </c>
-      <c r="J74" s="1"/>
+        <v>84.999910000000227</v>
+      </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="77">
-        <v>45327</v>
-      </c>
-      <c r="B75" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="73">
-        <v>46</v>
-      </c>
-      <c r="D75" s="73">
-        <f>D74-D73</f>
-        <v>3.8837499999999636</v>
-      </c>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="51"/>
-      <c r="I75" s="79">
-        <f>Sayfa2!$D75*Sayfa2!$C75</f>
-        <v>178.65249999999833</v>
-      </c>
+      <c r="A75" s="80">
+        <f>A74-A72</f>
+        <v>12</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="82">
+        <f>I74/G72</f>
+        <v>1.5289125576155384E-2</v>
+      </c>
+      <c r="G75" s="56"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="80">
-        <f>A75-A73</f>
-        <v>5</v>
-      </c>
-      <c r="B76" s="42" t="s">
-        <v>144</v>
-      </c>
+      <c r="B76" s="78"/>
       <c r="C76" s="78"/>
       <c r="D76" s="78"/>
-      <c r="E76" s="81"/>
+      <c r="E76" s="83" t="s">
+        <v>145</v>
+      </c>
       <c r="F76" s="82">
-        <f>I75/G73</f>
-        <v>6.9857887445284065E-3</v>
+        <f>F75/A75*30</f>
+        <v>3.8222813940388463E-2</v>
       </c>
       <c r="G76" s="51"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="B77" s="78"/>
       <c r="C77" s="78"/>
       <c r="D77" s="78"/>
-      <c r="E77" s="83" t="s">
+      <c r="G77" s="56"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="72">
+        <v>45322</v>
+      </c>
+      <c r="B78" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="73">
+        <v>46</v>
+      </c>
+      <c r="D78" s="73">
+        <v>555.950107</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="75">
+        <f>Sayfa2!$D78*Sayfa2!$C78</f>
+        <v>25573.704922000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="73"/>
+      <c r="B79" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="73">
+        <v>46</v>
+      </c>
+      <c r="D79" s="73">
+        <v>559.83385699999997</v>
+      </c>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="76">
+        <f>Sayfa2!$D79*Sayfa2!$C79</f>
+        <v>25752.357421999997</v>
+      </c>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="77">
+        <v>45327</v>
+      </c>
+      <c r="B80" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="73">
+        <v>46</v>
+      </c>
+      <c r="D80" s="73">
+        <f>D79-D78</f>
+        <v>3.8837499999999636</v>
+      </c>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="51"/>
+      <c r="I80" s="79">
+        <f>Sayfa2!$D80*Sayfa2!$C80</f>
+        <v>178.65249999999833</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="80">
+        <f>A80-A78</f>
+        <v>5</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="82">
+        <f>I80/G78</f>
+        <v>6.9857887445284065E-3</v>
+      </c>
+      <c r="G81" s="51"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="B82" s="78"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F77" s="84">
-        <f>F76/A76*30</f>
+      <c r="F82" s="84">
+        <f>F81/A81*30</f>
         <v>4.1914732467170444E-2</v>
       </c>
-      <c r="G77" s="51"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="51"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="93"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="51"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="98">
-        <v>45267</v>
-      </c>
-      <c r="B80" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" s="99">
-        <v>10</v>
-      </c>
-      <c r="D80" s="99">
-        <v>49.18</v>
-      </c>
-      <c r="E80" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="54">
-        <f>Sayfa2!$D80*Sayfa2!$C80</f>
-        <v>491.8</v>
-      </c>
-      <c r="H80" s="99"/>
-      <c r="I80" s="99"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="101"/>
-      <c r="B81" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="99">
-        <v>10</v>
-      </c>
-      <c r="D81" s="106">
-        <v>52</v>
-      </c>
-      <c r="E81" s="100"/>
-      <c r="F81" s="100"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="102">
-        <f>Sayfa2!$D81*Sayfa2!$C81</f>
-        <v>520</v>
-      </c>
-      <c r="I81" s="99"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="107">
-        <v>45327</v>
-      </c>
-      <c r="B82" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="103">
-        <v>10</v>
-      </c>
-      <c r="D82" s="103">
-        <f>D81-D80</f>
-        <v>2.8200000000000003</v>
-      </c>
-      <c r="E82" s="104"/>
-      <c r="F82" s="104"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="103"/>
-      <c r="I82" s="108">
-        <f>Sayfa2!$D82*Sayfa2!$C82</f>
-        <v>28.200000000000003</v>
-      </c>
+      <c r="G82" s="51"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="80">
-        <f>A82-A80</f>
-        <v>60</v>
-      </c>
-      <c r="B83" s="42" t="s">
-        <v>144</v>
-      </c>
+      <c r="B83" s="78"/>
       <c r="C83" s="78"/>
       <c r="D83" s="78"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="82">
-        <f>I82/G80</f>
-        <v>5.7340382269215132E-2</v>
-      </c>
+      <c r="E83" s="93"/>
+      <c r="F83" s="94"/>
       <c r="G83" s="51"/>
     </row>
     <row r="84" spans="1:10">
+      <c r="B84" s="78"/>
       <c r="C84" s="78"/>
       <c r="D84" s="78"/>
-      <c r="E84" s="83" t="s">
+      <c r="E84" s="93"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="51"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="98">
+        <v>45267</v>
+      </c>
+      <c r="B85" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="99">
+        <v>10</v>
+      </c>
+      <c r="D85" s="99">
+        <v>49.18</v>
+      </c>
+      <c r="E85" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="54">
+        <f>Sayfa2!$D85*Sayfa2!$C85</f>
+        <v>491.8</v>
+      </c>
+      <c r="H85" s="99"/>
+      <c r="I85" s="99"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="101"/>
+      <c r="B86" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="99">
+        <v>10</v>
+      </c>
+      <c r="D86" s="106">
+        <v>52</v>
+      </c>
+      <c r="E86" s="100"/>
+      <c r="F86" s="100"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="102">
+        <f>Sayfa2!$D86*Sayfa2!$C86</f>
+        <v>520</v>
+      </c>
+      <c r="I86" s="99"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="107">
+        <v>45327</v>
+      </c>
+      <c r="B87" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="103">
+        <v>10</v>
+      </c>
+      <c r="D87" s="103">
+        <f>D86-D85</f>
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="E87" s="104"/>
+      <c r="F87" s="104"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="103"/>
+      <c r="I87" s="108">
+        <f>Sayfa2!$D87*Sayfa2!$C87</f>
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="80">
+        <f>A87-A85</f>
+        <v>60</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="78"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="82">
+        <f>I87/G85</f>
+        <v>5.7340382269215132E-2</v>
+      </c>
+      <c r="G88" s="51"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F84" s="84">
-        <f>F83/A83*30</f>
+      <c r="F89" s="84">
+        <f>F88/A88*30</f>
         <v>2.8670191134607566E-2</v>
       </c>
-      <c r="G84" s="56"/>
-    </row>
-    <row r="85" spans="1:10" ht="13.5" thickBot="1">
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="51"/>
-    </row>
-    <row r="86" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A86" s="46">
+      <c r="G89" s="56"/>
+    </row>
+    <row r="90" spans="1:10" ht="13.5" thickBot="1">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="51"/>
+    </row>
+    <row r="91" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A91" s="46">
         <v>45267</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B91" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="39">
+      <c r="C91" s="39">
         <v>13</v>
       </c>
-      <c r="D86" s="39">
+      <c r="D91" s="39">
         <v>28.3</v>
       </c>
-      <c r="E86" s="40" t="s">
+      <c r="E91" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="40" t="s">
+      <c r="F91" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="62">
-        <f>Sayfa2!$D86*Sayfa2!$C86</f>
+      <c r="G91" s="62">
+        <f>Sayfa2!$D91*Sayfa2!$C91</f>
         <v>367.90000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="41">
+    <row r="92" spans="1:10">
+      <c r="A92" s="41">
         <v>45313</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B92" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="42">
+      <c r="C92" s="42">
         <v>13</v>
       </c>
-      <c r="D87" s="42">
+      <c r="D92" s="42">
         <v>41.6</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E92" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="40" t="s">
+      <c r="F92" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="51"/>
-      <c r="H87" s="64">
-        <f>Sayfa2!$D87*Sayfa2!$C87</f>
+      <c r="G92" s="51"/>
+      <c r="H92" s="64">
+        <f>Sayfa2!$D92*Sayfa2!$C92</f>
         <v>540.80000000000007</v>
       </c>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A88" s="41"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="52"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="41">
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A93" s="41"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="52"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="41">
         <v>45313</v>
       </c>
-      <c r="B89" s="42" t="s">
+      <c r="B94" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="70">
+      <c r="C94" s="70">
         <v>13</v>
       </c>
-      <c r="D89" s="70">
+      <c r="D94" s="70">
         <v>13.3</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E94" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F89" s="40" t="s">
+      <c r="F94" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="51"/>
-      <c r="I89" s="65">
-        <f>Sayfa2!$D89*Sayfa2!$C89</f>
+      <c r="G94" s="51"/>
+      <c r="I94" s="65">
+        <f>Sayfa2!$D94*Sayfa2!$C94</f>
         <v>172.9</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="45">
-        <f>A89-A86</f>
+    <row r="95" spans="1:10">
+      <c r="A95" s="45">
+        <f>A94-A91</f>
         <v>46</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B95" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="86">
-        <f>I89/G86</f>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="86">
+        <f>I94/G91</f>
         <v>0.46996466431095402</v>
       </c>
-      <c r="G90" s="51"/>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="41"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="83" t="s">
+      <c r="G95" s="51"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="41"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F91" s="84">
-        <f>F90/A90*30</f>
+      <c r="F96" s="84">
+        <f>F95/A95*30</f>
         <v>0.30649869411583958</v>
       </c>
-      <c r="G91" s="51"/>
-    </row>
-    <row r="92" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A92" s="43"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="57"/>
-    </row>
-    <row r="93" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A93" s="4"/>
-      <c r="G93" s="58"/>
-    </row>
-    <row r="94" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A94" s="46">
+      <c r="G96" s="51"/>
+    </row>
+    <row r="97" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A97" s="43"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="57"/>
+    </row>
+    <row r="98" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A98" s="4"/>
+      <c r="G98" s="58"/>
+    </row>
+    <row r="99" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A99" s="46">
         <v>45273</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B99" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C99" s="39">
         <v>26</v>
       </c>
-      <c r="D94" s="39">
+      <c r="D99" s="39">
         <v>55.08</v>
       </c>
-      <c r="E94" s="40" t="s">
+      <c r="E99" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="40" t="s">
+      <c r="F99" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G94" s="62">
-        <f>Sayfa2!$D94*Sayfa2!$C94</f>
+      <c r="G99" s="62">
+        <f>Sayfa2!$D99*Sayfa2!$C99</f>
         <v>1432.08</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A95" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B95" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="42">
-        <v>26</v>
-      </c>
-      <c r="D95" s="42">
-        <v>51.4</v>
-      </c>
-      <c r="E95" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F95" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" s="51"/>
-      <c r="H95" s="64">
-        <f>Sayfa2!$D95*Sayfa2!$C95</f>
-        <v>1336.3999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B96" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C96" s="70">
-        <v>26</v>
-      </c>
-      <c r="D96" s="70">
-        <f>D95-D94</f>
-        <v>-3.6799999999999997</v>
-      </c>
-      <c r="E96" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="51"/>
-      <c r="I96" s="66">
-        <f>Sayfa2!$D96*Sayfa2!$C96</f>
-        <v>-95.679999999999993</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="41"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="52"/>
-    </row>
-    <row r="98" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A98" s="41">
-        <v>45288</v>
-      </c>
-      <c r="B98" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="42">
-        <v>100</v>
-      </c>
-      <c r="D98" s="42">
-        <v>39.5</v>
-      </c>
-      <c r="E98" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="63">
-        <f>Sayfa2!$D98*Sayfa2!$C98</f>
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A99" s="41">
-        <v>45313</v>
-      </c>
-      <c r="B99" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" s="42">
-        <v>100</v>
-      </c>
-      <c r="D99" s="42">
-        <v>51.4</v>
-      </c>
-      <c r="E99" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="51"/>
-      <c r="H99" s="64">
-        <f>Sayfa2!$D99*Sayfa2!$C99</f>
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" ht="13.5" thickBot="1">
       <c r="A100" s="41">
         <v>45313</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="70">
-        <v>100</v>
-      </c>
-      <c r="D100" s="70">
-        <f>D99-D98</f>
-        <v>11.899999999999999</v>
+        <v>35</v>
+      </c>
+      <c r="C100" s="42">
+        <v>26</v>
+      </c>
+      <c r="D100" s="42">
+        <v>51.4</v>
       </c>
       <c r="E100" s="40" t="s">
         <v>21</v>
@@ -3138,303 +3118,323 @@
         <v>15</v>
       </c>
       <c r="G100" s="51"/>
-      <c r="I100" s="66">
+      <c r="H100" s="64">
         <f>Sayfa2!$D100*Sayfa2!$C100</f>
-        <v>1189.9999999999998</v>
+        <v>1336.3999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="49"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="52"/>
+      <c r="A101" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" s="70">
+        <v>26</v>
+      </c>
+      <c r="D101" s="70">
+        <f>D100-D99</f>
+        <v>-3.6799999999999997</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="51"/>
+      <c r="I101" s="66">
+        <f>Sayfa2!$D101*Sayfa2!$C101</f>
+        <v>-95.679999999999993</v>
+      </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="49">
-        <f>A95-A94</f>
-        <v>40</v>
-      </c>
-      <c r="B102" s="42" t="s">
-        <v>144</v>
-      </c>
+      <c r="A102" s="41"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="86">
-        <f>(I96+I100)/(G98+G94)</f>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="52"/>
+    </row>
+    <row r="103" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A103" s="41">
+        <v>45288</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="42">
+        <v>100</v>
+      </c>
+      <c r="D103" s="42">
+        <v>39.5</v>
+      </c>
+      <c r="E103" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="63">
+        <f>Sayfa2!$D103*Sayfa2!$C103</f>
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A104" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="42">
+        <v>100</v>
+      </c>
+      <c r="D104" s="42">
+        <v>51.4</v>
+      </c>
+      <c r="E104" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="51"/>
+      <c r="H104" s="64">
+        <f>Sayfa2!$D104*Sayfa2!$C104</f>
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="41">
+        <v>45313</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="70">
+        <v>100</v>
+      </c>
+      <c r="D105" s="70">
+        <f>D104-D103</f>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="51"/>
+      <c r="I105" s="66">
+        <f>Sayfa2!$D105*Sayfa2!$C105</f>
+        <v>1189.9999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="49"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="52"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="49">
+        <f>A100-A99</f>
+        <v>40</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="86">
+        <f>(I101+I105)/(G103+G99)</f>
         <v>0.20332659492240912</v>
       </c>
-      <c r="G102" s="51"/>
-    </row>
-    <row r="103" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A103" s="50"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="87" t="s">
+      <c r="G107" s="51"/>
+    </row>
+    <row r="108" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A108" s="50"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="F103" s="88">
-        <f>F102/A102*30</f>
+      <c r="F108" s="88">
+        <f>F107/A107*30</f>
         <v>0.15249494619180684</v>
       </c>
-      <c r="G103" s="51"/>
-    </row>
-    <row r="104" spans="1:9" ht="13.5" thickBot="1">
-      <c r="G104" s="51"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="46">
+      <c r="G108" s="51"/>
+    </row>
+    <row r="109" spans="1:9" ht="13.5" thickBot="1">
+      <c r="G109" s="51"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="46">
         <v>45267</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B110" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C105" s="39">
+      <c r="C110" s="39">
         <v>300</v>
       </c>
-      <c r="D105" s="39">
+      <c r="D110" s="39">
         <v>18.207357999999999</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E110" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="40" t="s">
+      <c r="F110" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="62">
-        <f>Sayfa2!$D105*Sayfa2!$C105</f>
+      <c r="G110" s="62">
+        <f>Sayfa2!$D110*Sayfa2!$C110</f>
         <v>5462.2073999999993</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="41">
+    <row r="111" spans="1:9">
+      <c r="A111" s="41">
         <v>45288</v>
       </c>
-      <c r="B106" s="42" t="s">
+      <c r="B111" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C106" s="42">
+      <c r="C111" s="42">
         <v>300</v>
       </c>
-      <c r="D106" s="42">
+      <c r="D111" s="42">
         <v>18.625761000000001</v>
       </c>
-      <c r="E106" s="47" t="s">
+      <c r="E111" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F106" s="47" t="s">
+      <c r="F111" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="51"/>
-      <c r="H106" s="64">
-        <f>Sayfa2!$D106*Sayfa2!$C106</f>
+      <c r="G111" s="51"/>
+      <c r="H111" s="64">
+        <f>Sayfa2!$D111*Sayfa2!$C111</f>
         <v>5587.7282999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="41">
+    <row r="112" spans="1:9">
+      <c r="A112" s="41">
         <v>45288</v>
       </c>
-      <c r="B107" s="42" t="s">
+      <c r="B112" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C107" s="70">
+      <c r="C112" s="70">
         <v>300</v>
       </c>
-      <c r="D107" s="70">
-        <f>D106-D105</f>
+      <c r="D112" s="70">
+        <f>D111-D110</f>
         <v>0.41840300000000141</v>
       </c>
-      <c r="E107" s="47" t="s">
+      <c r="E112" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="47" t="s">
+      <c r="F112" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G107" s="51"/>
-      <c r="I107" s="66">
-        <f>Sayfa2!$D107*Sayfa2!$C107</f>
+      <c r="G112" s="51"/>
+      <c r="I112" s="66">
+        <f>Sayfa2!$D112*Sayfa2!$C112</f>
         <v>125.52090000000042</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="49">
-        <f>A107-A105</f>
+    <row r="113" spans="1:9">
+      <c r="A113" s="49">
+        <f>A112-A110</f>
         <v>21</v>
       </c>
-      <c r="B108" s="42" t="s">
+      <c r="B113" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="86">
-        <f>I107/H106</f>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="86">
+        <f>I112/H111</f>
         <v>2.2463672759464776E-2</v>
       </c>
-      <c r="G108" s="51"/>
-    </row>
-    <row r="109" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A109" s="50"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="87" t="s">
+      <c r="G113" s="51"/>
+    </row>
+    <row r="114" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A114" s="50"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="F109" s="88">
-        <f>F108/A108*30</f>
+      <c r="F114" s="88">
+        <f>F113/A113*30</f>
         <v>3.209096108494968E-2</v>
       </c>
-      <c r="G109" s="51"/>
-    </row>
-    <row r="110" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A110" s="3"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="51"/>
-    </row>
-    <row r="111" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A111" s="38">
+      <c r="G114" s="51"/>
+    </row>
+    <row r="115" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A115" s="3"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="51"/>
+    </row>
+    <row r="116" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A116" s="38">
         <v>45267</v>
       </c>
-      <c r="B111" s="39" t="s">
+      <c r="B116" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="39">
+      <c r="C116" s="39">
         <v>10</v>
       </c>
-      <c r="D111" s="39">
+      <c r="D116" s="39">
         <v>523.88987099999997</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E116" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F111" s="40" t="s">
+      <c r="F116" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G111" s="62">
-        <f>Sayfa2!$D111*Sayfa2!$C111</f>
+      <c r="G116" s="62">
+        <f>Sayfa2!$D116*Sayfa2!$C116</f>
         <v>5238.8987099999995</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="48">
-        <v>45293</v>
-      </c>
-      <c r="B112" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C112" s="42">
-        <v>10</v>
-      </c>
-      <c r="D112" s="42">
-        <v>538.78970700000002</v>
-      </c>
-      <c r="E112" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" s="51"/>
-      <c r="H112" s="64">
-        <f>Sayfa2!$D112*Sayfa2!$C112</f>
-        <v>5387.89707</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="48">
-        <v>45293</v>
-      </c>
-      <c r="B113" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C113" s="70">
-        <v>10</v>
-      </c>
-      <c r="D113" s="70">
-        <f>D112-D111</f>
-        <v>14.89983600000005</v>
-      </c>
-      <c r="E113" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" s="51"/>
-      <c r="I113" s="66">
-        <f>Sayfa2!$D113*Sayfa2!$C113</f>
-        <v>148.9983600000005</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="49">
-        <f>A113-A111</f>
-        <v>26</v>
-      </c>
-      <c r="B114" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C114" s="42"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="86">
-        <f>I113/H112</f>
-        <v>2.7654269943208194E-2</v>
-      </c>
-      <c r="G114" s="51"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="49"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="F115" s="84">
-        <f>F114/A114*30</f>
-        <v>3.1908773011394068E-2</v>
-      </c>
-      <c r="G115" s="51"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="48"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="52"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="48">
-        <v>45273</v>
+        <v>45293</v>
       </c>
       <c r="B117" s="42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C117" s="42">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D117" s="42">
-        <v>527.21223999999995</v>
+        <v>538.78970700000002</v>
       </c>
       <c r="E117" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="63">
+      <c r="G117" s="51"/>
+      <c r="H117" s="64">
         <f>Sayfa2!$D117*Sayfa2!$C117</f>
-        <v>21088.489599999997</v>
+        <v>5387.89707</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3442,14 +3442,14 @@
         <v>45293</v>
       </c>
       <c r="B118" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C118" s="42">
-        <v>28</v>
-      </c>
-      <c r="D118" s="42">
-        <f>D112</f>
-        <v>538.78970700000002</v>
+        <v>43</v>
+      </c>
+      <c r="C118" s="70">
+        <v>10</v>
+      </c>
+      <c r="D118" s="70">
+        <f>D117-D116</f>
+        <v>14.89983600000005</v>
       </c>
       <c r="E118" s="47" t="s">
         <v>22</v>
@@ -3458,89 +3458,88 @@
         <v>15</v>
       </c>
       <c r="G118" s="51"/>
-      <c r="H118" s="64">
+      <c r="I118" s="66">
         <f>Sayfa2!$D118*Sayfa2!$C118</f>
-        <v>15086.111796000001</v>
+        <v>148.9983600000005</v>
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="48">
-        <v>45293</v>
+      <c r="A119" s="49">
+        <f>A118-A116</f>
+        <v>26</v>
       </c>
       <c r="B119" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C119" s="70">
-        <v>28</v>
-      </c>
-      <c r="D119" s="70">
-        <f>D118-D117</f>
-        <v>11.57746700000007</v>
-      </c>
-      <c r="E119" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="47" t="s">
-        <v>15</v>
+        <v>144</v>
+      </c>
+      <c r="C119" s="42"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="86">
+        <f>I118/H117</f>
+        <v>2.7654269943208194E-2</v>
       </c>
       <c r="G119" s="51"/>
-      <c r="I119" s="66">
-        <f>Sayfa2!$D119*Sayfa2!$C119</f>
-        <v>324.16907600000195</v>
-      </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="49">
-        <f>A119-A117</f>
-        <v>20</v>
-      </c>
-      <c r="B120" s="42" t="s">
-        <v>144</v>
-      </c>
+      <c r="A120" s="49"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="42"/>
       <c r="D120" s="42"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="86">
-        <f>I119/H118</f>
-        <v>2.1487914207685612E-2</v>
+      <c r="E120" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F120" s="84">
+        <f>F119/A119*30</f>
+        <v>3.1908773011394068E-2</v>
       </c>
       <c r="G120" s="51"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="49"/>
+      <c r="A121" s="48"/>
       <c r="B121" s="42"/>
       <c r="C121" s="42"/>
       <c r="D121" s="42"/>
-      <c r="E121" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="F121" s="84">
-        <f>F120/A120*30</f>
-        <v>3.2231871311528416E-2</v>
-      </c>
-      <c r="G121" s="51"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="52"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="48"/>
-      <c r="B122" s="42"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="52"/>
+      <c r="A122" s="48">
+        <v>45273</v>
+      </c>
+      <c r="B122" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="42">
+        <v>40</v>
+      </c>
+      <c r="D122" s="42">
+        <v>527.21223999999995</v>
+      </c>
+      <c r="E122" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="63">
+        <f>Sayfa2!$D122*Sayfa2!$C122</f>
+        <v>21088.489599999997</v>
+      </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="48">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B123" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C123" s="42">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D123" s="42">
-        <v>540.000044</v>
+        <f>D117</f>
+        <v>538.78970700000002</v>
       </c>
       <c r="E123" s="47" t="s">
         <v>22</v>
@@ -3551,22 +3550,22 @@
       <c r="G123" s="51"/>
       <c r="H123" s="64">
         <f>Sayfa2!$D123*Sayfa2!$C123</f>
-        <v>11880.000968</v>
+        <v>15086.111796000001</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="48">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B124" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C124" s="70">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D124" s="70">
-        <f>D123-D117</f>
-        <v>12.787804000000051</v>
+        <f>D123-D122</f>
+        <v>11.57746700000007</v>
       </c>
       <c r="E124" s="47" t="s">
         <v>22</v>
@@ -3577,13 +3576,13 @@
       <c r="G124" s="51"/>
       <c r="I124" s="66">
         <f>Sayfa2!$D124*Sayfa2!$C124</f>
-        <v>281.33168800000112</v>
+        <v>324.16907600000195</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="49">
-        <f>A124-A117</f>
-        <v>22</v>
+        <f>A124-A122</f>
+        <v>20</v>
       </c>
       <c r="B125" s="42" t="s">
         <v>144</v>
@@ -3593,82 +3592,173 @@
       <c r="E125" s="85"/>
       <c r="F125" s="86">
         <f>I124/H123</f>
-        <v>2.3681116588946151E-2</v>
+        <v>2.1487914207685612E-2</v>
       </c>
       <c r="G125" s="51"/>
     </row>
-    <row r="126" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A126" s="50"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="87" t="s">
+    <row r="126" spans="1:9">
+      <c r="A126" s="49"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F126" s="88">
+      <c r="F126" s="84">
         <f>F125/A125*30</f>
-        <v>3.2292431712199296E-2</v>
+        <v>3.2231871311528416E-2</v>
       </c>
       <c r="G126" s="51"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="53"/>
+      <c r="A127" s="48"/>
       <c r="B127" s="42"/>
       <c r="C127" s="42"/>
       <c r="D127" s="42"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
-      <c r="G127" s="54"/>
+      <c r="G127" s="52"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="3"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
+      <c r="A128" s="48">
+        <v>45295</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="42">
+        <v>22</v>
+      </c>
+      <c r="D128" s="42">
+        <v>540.000044</v>
+      </c>
+      <c r="E128" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="47" t="s">
+        <v>15</v>
+      </c>
       <c r="G128" s="51"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="3"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="H128" s="64">
+        <f>Sayfa2!$D128*Sayfa2!$C128</f>
+        <v>11880.000968</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="48">
+        <v>45295</v>
+      </c>
+      <c r="B129" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" s="70">
+        <v>22</v>
+      </c>
+      <c r="D129" s="70">
+        <f>D128-D122</f>
+        <v>12.787804000000051</v>
+      </c>
+      <c r="E129" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="47" t="s">
+        <v>15</v>
+      </c>
       <c r="G129" s="51"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="3"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="I129" s="66">
+        <f>Sayfa2!$D129*Sayfa2!$C129</f>
+        <v>281.33168800000112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="49">
+        <f>A129-A122</f>
+        <v>22</v>
+      </c>
+      <c r="B130" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" s="42"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="86">
+        <f>I129/H128</f>
+        <v>2.3681116588946151E-2</v>
+      </c>
       <c r="G130" s="51"/>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="3"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+    <row r="131" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A131" s="50"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="F131" s="88">
+        <f>F130/A130*30</f>
+        <v>3.2292431712199296E-2</v>
+      </c>
       <c r="G131" s="51"/>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="3"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="51"/>
-    </row>
-    <row r="133" spans="1:7">
+    <row r="132" spans="1:9">
+      <c r="A132" s="53"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="54"/>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="3"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="51"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:9">
+      <c r="A134" s="3"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
       <c r="G134" s="51"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:9">
+      <c r="A135" s="3"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
       <c r="G135" s="51"/>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="4"/>
+    <row r="136" spans="1:9">
+      <c r="A136" s="3"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
       <c r="G136" s="51"/>
     </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="4"/>
+    <row r="137" spans="1:9">
+      <c r="A137" s="3"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
       <c r="G137" s="51"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="3"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="51"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="G139" s="51"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="G140" s="51"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="4"/>
+      <c r="G141" s="51"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="4"/>
+      <c r="G142" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -3679,7 +3769,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Sayfa1!$C:$C</xm:f>
@@ -3687,7 +3777,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E89:F89 E116:F119 E105:F107 E110:F113 E35:F35 E127:F133 E122:F124 E85:F87 E94:F100 E54:F54 E73:F73 E62:F62 E80:F82 E11:F13 E16:F22 E25:F31 E38:F40 E43:F46</xm:sqref>
+          <xm:sqref>E94:F94 E121:F124 E110:F112 E115:F118 E35:F35 E132:F138 E127:F129 E90:F92 E99:F105 E54:F54 E78:F78 E62:F62 E85:F87 E11:F13 E16:F22 E25:F31 E38:F40 E43:F46 E72:F72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39161AD-2922-409D-A69C-433CFF552219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AE2D49-2C04-492E-A59E-A6AE74F5F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="645" windowWidth="20460" windowHeight="14835" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="167">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>Aylık</t>
+  </si>
+  <si>
+    <t>Sütun5</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="170" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -939,11 +942,11 @@
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="14" fillId="19" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -966,7 +969,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="20" fillId="13" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="13" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1105,9 +1108,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:K103" totalsRowShown="0">
-  <autoFilter ref="A8:K103" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:L103" totalsRowShown="0">
+  <autoFilter ref="A8:L103" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tarih"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Açıklama"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="adet"/>
@@ -1119,6 +1122,7 @@
     <tableColumn id="9" xr3:uid="{5B8EA65F-970F-4132-BAB4-53FD10BB59AA}" name="Sütun2"/>
     <tableColumn id="12" xr3:uid="{E55B5EF3-7157-412C-A1DB-0D6C6EF75438}" name="Sütun3"/>
     <tableColumn id="13" xr3:uid="{BDA77C86-1F3E-4B86-A840-C55EA578AC6E}" name="Sütun4"/>
+    <tableColumn id="7" xr3:uid="{6C1C5CA3-2FE2-4877-9553-6075A7F972A5}" name="Sütun5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1567,27 +1571,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="33" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="33" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="48" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.5703125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="E1" s="45" t="s">
         <v>144</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="D2" s="33" t="s">
         <v>156</v>
       </c>
@@ -1608,23 +1612,23 @@
       </c>
       <c r="F2" s="47">
         <f>SUBTOTAL(109,F9:F35)</f>
-        <v>161120.24671400001</v>
+        <v>130657.08816399999</v>
       </c>
       <c r="G2" s="47">
         <f>SUBTOTAL(109,G9:G35)</f>
-        <v>3929.6560020000061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>7122.2560020000028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="G3" s="49">
         <f>G2/E2</f>
-        <v>3.1810105160031056E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>5.7653828295650925E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="G4" s="48"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="D5" s="33" t="s">
         <v>157</v>
       </c>
@@ -1641,17 +1645,17 @@
         <v>5893.0717440000108</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="F6" s="51"/>
       <c r="G6" s="52">
         <f>G5/E5</f>
         <v>4.4127154343323545E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="E7" s="36"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="34" t="s">
         <v>24</v>
       </c>
@@ -1685,29 +1689,43 @@
       <c r="K8" s="33" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="E9" s="36"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="E11" s="36"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="33">
+        <v>197.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="35"/>
       <c r="E12" s="36"/>
       <c r="F12" s="34"/>
       <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="33">
+        <f>L11*1.1</f>
+        <v>217.58000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="33">
+        <f>L12*1.1</f>
+        <v>239.33800000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="E14" s="36"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="E15" s="36"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="54">
         <v>45335</v>
       </c>
@@ -1737,12 +1755,12 @@
         <v>313</v>
       </c>
       <c r="D17" s="33">
-        <v>197.8</v>
+        <v>208</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="50">
         <f>Sayfa2!$D17*Sayfa2!$C17</f>
-        <v>61911.4</v>
+        <v>65104</v>
       </c>
       <c r="G17" s="34"/>
       <c r="I17" s="58">
@@ -1752,7 +1770,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="57">
-        <v>45341</v>
+        <v>45338</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>162</v>
@@ -1762,21 +1780,21 @@
       </c>
       <c r="D18" s="55">
         <f>D17-D16</f>
-        <v>7</v>
+        <v>17.199999999999989</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="50"/>
       <c r="G18" s="59">
         <f>Sayfa2!$D18*Sayfa2!$C18</f>
-        <v>2191</v>
+        <v>5383.5999999999967</v>
       </c>
       <c r="H18" s="74">
         <f>G18/E16</f>
-        <v>3.668763102725367E-2</v>
+        <v>9.0146750524108962E-2</v>
       </c>
       <c r="I18" s="74">
         <f>H18/I17*30</f>
-        <v>0.3668763102725367</v>
+        <v>0.90146750524108954</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1825,8 +1843,8 @@
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="50">
-        <f>Sayfa2!$D17*Sayfa2!$C17</f>
-        <v>61911.4</v>
+        <f>Sayfa2!$D22*Sayfa2!$C22</f>
+        <v>28255.641450000003</v>
       </c>
       <c r="G22" s="34"/>
       <c r="I22" s="58">
@@ -3260,7 +3278,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F12:H12 F64:H64 F31:H31 F60:H60 F47:G47 F48:H50 I47 F19:H20 F27 G26:H26 F52:H55 G21 F42 F41:H41 F43:H43 H42 F46 F45:H45 H46 F51 H51 F56 F57:H57 H56 F70 F69:H69 H70 F74 F71:H73 H74 F79 F78:H78 H79 F83 F80:H82 H83 F88 F87:H87 F89:G89 H88 F92 F90:H91 F93:G93 H92 F96 F94:H95 H96 F99 F98:H98 H99 F100:H107 I97 F97:G97 I84 F84:G84</xm:sqref>
+          <xm:sqref>F12:H12 F64:H64 F31:H31 F60:H60 F47:G47 F48:H50 I47 F19:H20 F84:G84 G26:H26 F52:H55 G21 F42 F41:H41 F43:H43 H42 F46 F45:H45 H46 F51 H51 F56 F57:H57 H56 F70 F69:H69 H70 F74 F71:H73 H74 F79 F78:H78 H79 F83 F80:H82 H83 F88 F87:H87 F89:G89 H88 F92 F90:H91 F93:G93 H92 F96 F94:H95 H96 F99 F98:H98 H99 F100:H107 I97 F97:G97 I84</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AE2D49-2C04-492E-A59E-A6AE74F5F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E75F190-8A63-4226-A915-086D65E1C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="645" windowWidth="20460" windowHeight="14835" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="164">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -523,12 +523,6 @@
     <t>Satılan</t>
   </si>
   <si>
-    <t>Sütun3</t>
-  </si>
-  <si>
-    <t>Sütun4</t>
-  </si>
-  <si>
     <t>GUBRF alış</t>
   </si>
   <si>
@@ -545,9 +539,6 @@
   </si>
   <si>
     <t>Aylık</t>
-  </si>
-  <si>
-    <t>Sütun5</t>
   </si>
 </sst>
 </file>
@@ -1108,9 +1099,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:L103" totalsRowShown="0">
-  <autoFilter ref="A8:L103" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:I106" totalsRowShown="0">
+  <autoFilter ref="A8:I106" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tarih"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Açıklama"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="adet"/>
@@ -1120,9 +1111,6 @@
     <tableColumn id="11" xr3:uid="{BF580679-CB93-4B1D-9D98-3E93F56EBE01}" name="Sütun1" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Aylık"/>
     <tableColumn id="9" xr3:uid="{5B8EA65F-970F-4132-BAB4-53FD10BB59AA}" name="Sütun2"/>
-    <tableColumn id="12" xr3:uid="{E55B5EF3-7157-412C-A1DB-0D6C6EF75438}" name="Sütun3"/>
-    <tableColumn id="13" xr3:uid="{BDA77C86-1F3E-4B86-A840-C55EA578AC6E}" name="Sütun4"/>
-    <tableColumn id="7" xr3:uid="{6C1C5CA3-2FE2-4877-9553-6075A7F972A5}" name="Sütun5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1571,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1591,71 +1579,71 @@
     <col min="10" max="16384" width="8.5703125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="E1" s="45" t="s">
         <v>144</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="D2" s="33" t="s">
         <v>156</v>
       </c>
       <c r="E2" s="46">
         <f>SUBTOTAL(109,E9:E35)</f>
-        <v>123534.83216199999</v>
+        <v>63814.432161999997</v>
       </c>
       <c r="F2" s="47">
         <f>SUBTOTAL(109,F9:F35)</f>
-        <v>130657.08816399999</v>
+        <v>65704.284536000006</v>
       </c>
       <c r="G2" s="47">
         <f>SUBTOTAL(109,G9:G35)</f>
-        <v>7122.2560020000028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1889.8523740000023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="G3" s="49">
         <f>G2/E2</f>
-        <v>5.7653828295650925E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.9614811414483841E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="G4" s="48"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:9">
       <c r="D5" s="33" t="s">
         <v>157</v>
       </c>
       <c r="E5" s="50">
-        <f>SUBTOTAL(109,E37:E101)</f>
-        <v>133547.51358199999</v>
+        <f>SUBTOTAL(109,E37:E104)</f>
+        <v>193267.91358199995</v>
       </c>
       <c r="F5" s="50">
-        <f>SUBTOTAL(109,F37:F101)</f>
-        <v>144712.70772600002</v>
+        <f>SUBTOTAL(109,F37:F104)</f>
+        <v>208345.60772600002</v>
       </c>
       <c r="G5" s="50">
-        <f>SUBTOTAL(109,G37:G100)</f>
-        <v>5893.0717440000108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <f>SUBTOTAL(109,G37:G103)</f>
+        <v>9805.5717440000117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="F6" s="51"/>
       <c r="G6" s="52">
         <f>G5/E5</f>
-        <v>4.4127154343323545E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>5.0735642364347723E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="E7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:9">
       <c r="A8" s="34" t="s">
         <v>24</v>
       </c>
@@ -1678,124 +1666,44 @@
         <v>154</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:9">
       <c r="E9" s="36"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:9">
       <c r="E11" s="36"/>
-      <c r="L11" s="33">
-        <v>197.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="35"/>
       <c r="E12" s="36"/>
       <c r="F12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="L12" s="33">
-        <f>L11*1.1</f>
-        <v>217.58000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:9">
       <c r="E13" s="36"/>
-      <c r="L13" s="33">
-        <f>L12*1.1</f>
-        <v>239.33800000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:9">
       <c r="E14" s="36"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:9">
       <c r="E15" s="36"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="54">
-        <v>45335</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="33">
-        <v>313</v>
-      </c>
-      <c r="D16" s="55">
-        <v>190.8</v>
-      </c>
-      <c r="E16" s="56">
-        <f>Sayfa2!$D16*Sayfa2!$C16</f>
-        <v>59720.4</v>
-      </c>
+    <row r="16" spans="1:9">
+      <c r="E16" s="36"/>
       <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="57">
-        <v>45338</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="33">
-        <v>313</v>
-      </c>
-      <c r="D17" s="33">
-        <v>208</v>
-      </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="50">
-        <f>Sayfa2!$D17*Sayfa2!$C17</f>
-        <v>65104</v>
-      </c>
       <c r="G17" s="34"/>
-      <c r="I17" s="58">
-        <f>A17-A16</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="57">
-        <v>45338</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="37">
-        <v>313</v>
-      </c>
-      <c r="D18" s="55">
-        <f>D17-D16</f>
-        <v>17.199999999999989</v>
-      </c>
       <c r="E18" s="36"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="59">
-        <f>Sayfa2!$D18*Sayfa2!$C18</f>
-        <v>5383.5999999999967</v>
-      </c>
-      <c r="H18" s="74">
-        <f>G18/E16</f>
-        <v>9.0146750524108962E-2</v>
-      </c>
-      <c r="I18" s="74">
-        <f>H18/I17*30</f>
-        <v>0.90146750524108954</v>
-      </c>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="35"/>
@@ -1830,7 +1738,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="54">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>150</v>
@@ -1839,17 +1747,17 @@
         <v>50</v>
       </c>
       <c r="D22" s="33">
-        <v>565.11282900000003</v>
+        <v>566.416246</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="50">
         <f>Sayfa2!$D22*Sayfa2!$C22</f>
-        <v>28255.641450000003</v>
+        <v>28320.812300000001</v>
       </c>
       <c r="G22" s="34"/>
       <c r="I22" s="58">
         <f>A22-A21</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1861,20 +1769,20 @@
       </c>
       <c r="D23" s="37">
         <f>D22-D21</f>
-        <v>22.678327000000081</v>
+        <v>23.981744000000049</v>
       </c>
       <c r="E23" s="36"/>
       <c r="G23" s="59">
         <f>Sayfa2!$D23*Sayfa2!$C23</f>
-        <v>1133.9163500000041</v>
+        <v>1199.0872000000024</v>
       </c>
       <c r="H23" s="74">
         <f>G23/E21</f>
-        <v>4.1808415424135548E-2</v>
+        <v>4.4211317516819851E-2</v>
       </c>
       <c r="I23" s="74">
         <f>H23/I22*30</f>
-        <v>3.4840346186779621E-2</v>
+        <v>3.4903671723805145E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1912,7 +1820,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="57">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>150</v>
@@ -1921,17 +1829,17 @@
         <v>50</v>
       </c>
       <c r="D27" s="33">
-        <v>565.11282900000003</v>
+        <v>566.416246</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="50">
         <f>Sayfa2!$D27*Sayfa2!$C27</f>
-        <v>28255.641450000003</v>
+        <v>28320.812300000001</v>
       </c>
       <c r="G27" s="34"/>
       <c r="I27" s="58">
         <f>A27-A26</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1943,21 +1851,21 @@
       </c>
       <c r="D28" s="37">
         <f>D27-D26</f>
-        <v>9.1627220000000307</v>
+        <v>10.466138999999998</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="50"/>
       <c r="G28" s="59">
         <f>Sayfa2!$D28*Sayfa2!$C28</f>
-        <v>458.13610000000153</v>
+        <v>523.30694999999992</v>
       </c>
       <c r="H28" s="74">
         <f>G28/E26</f>
-        <v>1.6481194777429965E-2</v>
+        <v>1.8825680341131759E-2</v>
       </c>
       <c r="I28" s="74">
         <f>H28/I27*30</f>
-        <v>3.5316845951635645E-2</v>
+        <v>3.529815063962205E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2002,22 +1910,22 @@
         <v>16</v>
       </c>
       <c r="D32" s="33">
-        <v>565.11282900000003</v>
+        <v>566.416246</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="50">
         <f>Sayfa2!$D32*Sayfa2!$C32</f>
-        <v>9041.8052640000005</v>
+        <v>9062.659936</v>
       </c>
       <c r="G32" s="34"/>
       <c r="I32" s="58">
         <f>A33-A31</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="57">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>151</v>
@@ -2027,21 +1935,21 @@
       </c>
       <c r="D33" s="37">
         <f>D32-D31</f>
-        <v>9.1627220000000307</v>
+        <v>10.466138999999998</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="50"/>
       <c r="G33" s="59">
         <f>Sayfa2!$D33*Sayfa2!$C33</f>
-        <v>146.60355200000049</v>
+        <v>167.45822399999997</v>
       </c>
       <c r="H33" s="74">
         <f>G33/E31</f>
-        <v>1.6481194777429965E-2</v>
+        <v>1.8825680341131759E-2</v>
       </c>
       <c r="I33" s="74">
         <f>H33/I32*30</f>
-        <v>3.8033526409453768E-2</v>
+        <v>3.7651360682263518E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2086,766 +1994,791 @@
       <c r="D39" s="40"/>
       <c r="E39" s="43"/>
       <c r="F39" s="50"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="50"/>
+      <c r="A40" s="54">
+        <v>45335</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="33">
+        <v>313</v>
+      </c>
+      <c r="D40" s="55">
+        <v>190.8</v>
+      </c>
+      <c r="E40" s="56">
+        <f>Sayfa2!$D40*Sayfa2!$C40</f>
+        <v>59720.4</v>
+      </c>
+      <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="54">
+      <c r="A41" s="57">
+        <v>45337</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="33">
+        <v>313</v>
+      </c>
+      <c r="D41" s="33">
+        <v>203.3</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="50">
+        <f>Sayfa2!$D41*Sayfa2!$C41</f>
+        <v>63632.9</v>
+      </c>
+      <c r="G41" s="34"/>
+      <c r="I41" s="58">
+        <f>A41-A40</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="57">
+        <v>45337</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="37">
+        <v>313</v>
+      </c>
+      <c r="D42" s="55">
+        <f>D41-D40</f>
+        <v>12.5</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="59">
+        <f>Sayfa2!$D42*Sayfa2!$C42</f>
+        <v>3912.5</v>
+      </c>
+      <c r="H42" s="74">
+        <f>G42/E40</f>
+        <v>6.5513626834381555E-2</v>
+      </c>
+      <c r="I42" s="74">
+        <f>H42/I41*30</f>
+        <v>0.98270440251572333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="50"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="54">
         <v>45296</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B44" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C44" s="33">
         <v>110</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D44" s="33">
         <v>540.60110799999995</v>
       </c>
-      <c r="E41" s="56">
-        <f>Sayfa2!$D41*Sayfa2!$C41</f>
+      <c r="E44" s="56">
+        <f>Sayfa2!$D44*Sayfa2!$C44</f>
         <v>59466.121879999992</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="H41" s="34"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="35"/>
-      <c r="B42" s="33" t="s">
+      <c r="F44" s="50"/>
+      <c r="H44" s="34"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="35"/>
+      <c r="B45" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C45" s="33">
         <v>110</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D45" s="33">
         <v>565.11282900000003</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="50">
-        <f>Sayfa2!$D42*Sayfa2!$C42</f>
+      <c r="E45" s="36"/>
+      <c r="F45" s="50">
+        <f>Sayfa2!$D45*Sayfa2!$C45</f>
         <v>62162.411190000006</v>
       </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="58">
-        <f>A43-A41</f>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="58">
+        <f>A46-A44</f>
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="57">
+    <row r="46" spans="1:9">
+      <c r="A46" s="57">
         <v>45335</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B46" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C46" s="37">
         <v>110</v>
       </c>
-      <c r="D43" s="37">
-        <f>D42-D41</f>
+      <c r="D46" s="37">
+        <f>D45-D44</f>
         <v>24.51172100000008</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="59">
-        <f>Sayfa2!$D43*Sayfa2!$C43</f>
+      <c r="E46" s="36"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="59">
+        <f>Sayfa2!$D46*Sayfa2!$C46</f>
         <v>2696.2893100000088</v>
       </c>
-      <c r="H43" s="74">
-        <f>I43/I42*30</f>
+      <c r="H46" s="74">
+        <f>I46/I45*30</f>
         <v>3.4878156409550054E-2</v>
       </c>
-      <c r="I43" s="74">
-        <f>G43/E41</f>
+      <c r="I46" s="74">
+        <f>G46/E44</f>
         <v>4.5341603332415076E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="50"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="54">
+    <row r="47" spans="1:9">
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="54">
         <v>45222</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B48" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C48" s="33">
         <v>9</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D48" s="33">
         <v>130</v>
       </c>
-      <c r="E45" s="62">
-        <f>Sayfa2!$D45*Sayfa2!$C45</f>
+      <c r="E48" s="62">
+        <f>Sayfa2!$D48*Sayfa2!$C48</f>
         <v>1170</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="H45" s="34"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="54">
-        <v>45316</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="33">
-        <v>9</v>
-      </c>
-      <c r="D46" s="63">
-        <v>145.5</v>
-      </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="50">
-        <f>Sayfa2!$D46*Sayfa2!$C46</f>
-        <v>1309.5</v>
-      </c>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="58">
-        <f>A47-A45</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="64">
-        <v>45334</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="37">
-        <v>9</v>
-      </c>
-      <c r="D47" s="37">
-        <f>D46-D45</f>
-        <v>15.5</v>
-      </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="59">
-        <f>Sayfa2!$D47*Sayfa2!$C47</f>
-        <v>139.5</v>
-      </c>
-      <c r="H47" s="74">
-        <f>I47/I46*30</f>
-        <v>3.1936813186813191E-2</v>
-      </c>
-      <c r="I47" s="74">
-        <f>G47/E45</f>
-        <v>0.11923076923076924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="54"/>
-      <c r="E48" s="43"/>
       <c r="F48" s="50"/>
       <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="54"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="50"/>
+      <c r="A49" s="54">
+        <v>45316</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="33">
+        <v>9</v>
+      </c>
+      <c r="D49" s="63">
+        <v>145.5</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="50">
+        <f>Sayfa2!$D49*Sayfa2!$C49</f>
+        <v>1309.5</v>
+      </c>
+      <c r="G49" s="34"/>
       <c r="H49" s="34"/>
+      <c r="I49" s="58">
+        <f>A50-A48</f>
+        <v>112</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="54">
+      <c r="A50" s="64">
+        <v>45334</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="37">
+        <v>9</v>
+      </c>
+      <c r="D50" s="37">
+        <f>D49-D48</f>
+        <v>15.5</v>
+      </c>
+      <c r="E50" s="36"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="59">
+        <f>Sayfa2!$D50*Sayfa2!$C50</f>
+        <v>139.5</v>
+      </c>
+      <c r="H50" s="74">
+        <f>I50/I49*30</f>
+        <v>3.1936813186813191E-2</v>
+      </c>
+      <c r="I50" s="74">
+        <f>G50/E48</f>
+        <v>0.11923076923076924</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="54"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="50"/>
+      <c r="H51" s="34"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="54"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="50"/>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="54">
         <v>45271</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B53" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C53" s="33">
         <v>10</v>
       </c>
-      <c r="D50" s="33">
+      <c r="D53" s="33">
         <v>144.001</v>
       </c>
-      <c r="E50" s="65">
-        <f>Sayfa2!$D50*Sayfa2!$C50</f>
+      <c r="E53" s="65">
+        <f>Sayfa2!$D53*Sayfa2!$C53</f>
         <v>1440.01</v>
       </c>
-      <c r="F50" s="50"/>
-      <c r="H50" s="34"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="54">
-        <v>45316</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="33">
-        <v>10</v>
-      </c>
-      <c r="D51" s="63">
-        <v>145.5</v>
-      </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="50">
-        <f>Sayfa2!$D51*Sayfa2!$C51</f>
-        <v>1455</v>
-      </c>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="58">
-        <f>A52-A50</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="64">
-        <v>45334</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="37">
-        <v>10</v>
-      </c>
-      <c r="D52" s="37">
-        <f>D51-D50</f>
-        <v>1.4989999999999952</v>
-      </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="59">
-        <f>Sayfa2!$D52*Sayfa2!$C52</f>
-        <v>14.989999999999952</v>
-      </c>
-      <c r="H52" s="74">
-        <f>I52/I51*30</f>
-        <v>4.9569761585650214E-3</v>
-      </c>
-      <c r="I52" s="74">
-        <f>G52/E50</f>
-        <v>1.0409649932986544E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="54"/>
-      <c r="E53" s="43"/>
       <c r="F53" s="50"/>
       <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="54"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="50"/>
+      <c r="A54" s="54">
+        <v>45316</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="33">
+        <v>10</v>
+      </c>
+      <c r="D54" s="63">
+        <v>145.5</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="50">
+        <f>Sayfa2!$D54*Sayfa2!$C54</f>
+        <v>1455</v>
+      </c>
+      <c r="G54" s="34"/>
       <c r="H54" s="34"/>
+      <c r="I54" s="58">
+        <f>A55-A53</f>
+        <v>63</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="54">
+      <c r="A55" s="64">
+        <v>45334</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="37">
+        <v>10</v>
+      </c>
+      <c r="D55" s="37">
+        <f>D54-D53</f>
+        <v>1.4989999999999952</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="59">
+        <f>Sayfa2!$D55*Sayfa2!$C55</f>
+        <v>14.989999999999952</v>
+      </c>
+      <c r="H55" s="74">
+        <f>I55/I54*30</f>
+        <v>4.9569761585650214E-3</v>
+      </c>
+      <c r="I55" s="74">
+        <f>G55/E53</f>
+        <v>1.0409649932986544E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="54"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="50"/>
+      <c r="H56" s="34"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="54"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="50"/>
+      <c r="H57" s="34"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="54">
         <v>45288</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B58" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C58" s="33">
         <v>20</v>
       </c>
-      <c r="D55" s="33">
+      <c r="D58" s="33">
         <v>115.34</v>
       </c>
-      <c r="E55" s="62">
-        <f>Sayfa2!$D55*Sayfa2!$C55</f>
+      <c r="E58" s="62">
+        <f>Sayfa2!$D58*Sayfa2!$C58</f>
         <v>2306.8000000000002</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="H55" s="34"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="54">
+      <c r="F58" s="50"/>
+      <c r="H58" s="34"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="54">
         <v>45316</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B59" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C59" s="33">
         <v>20</v>
       </c>
-      <c r="D56" s="63">
+      <c r="D59" s="63">
         <v>145.5</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="50">
-        <f>Sayfa2!$D56*Sayfa2!$C56</f>
+      <c r="E59" s="36"/>
+      <c r="F59" s="50">
+        <f>Sayfa2!$D59*Sayfa2!$C59</f>
         <v>2910</v>
       </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="58">
-        <f>A57-A55</f>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="58">
+        <f>A60-A58</f>
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="64">
+    <row r="60" spans="1:9">
+      <c r="A60" s="64">
         <v>45334</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B60" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C60" s="37">
         <v>20</v>
       </c>
-      <c r="D57" s="37">
-        <f>D56-D55</f>
+      <c r="D60" s="37">
+        <f>D59-D58</f>
         <v>30.159999999999997</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="59">
-        <f>Sayfa2!$D57*Sayfa2!$C57</f>
+      <c r="E60" s="36"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="59">
+        <f>Sayfa2!$D60*Sayfa2!$C60</f>
         <v>603.19999999999993</v>
       </c>
-      <c r="H57" s="74">
-        <f>I57/I56*30</f>
+      <c r="H60" s="74">
+        <f>I60/I59*30</f>
         <v>0.17053550561289493</v>
       </c>
-      <c r="I57" s="74">
-        <f>G57/E55</f>
+      <c r="I60" s="74">
+        <f>G60/E58</f>
         <v>0.26148777527310557</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="B58" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="50"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="50"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="54">
-        <v>45322</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="33">
-        <v>10</v>
-      </c>
-      <c r="D60" s="33">
-        <v>555.950107</v>
-      </c>
-      <c r="E60" s="56">
-        <f>Sayfa2!$D60*Sayfa2!$C60</f>
-        <v>5559.5010700000003</v>
-      </c>
-      <c r="F60" s="50"/>
-      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="50"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="54">
+        <v>45322</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="33">
+        <v>10</v>
+      </c>
+      <c r="D63" s="33">
+        <v>555.950107</v>
+      </c>
+      <c r="E63" s="56">
+        <f>Sayfa2!$D63*Sayfa2!$C63</f>
+        <v>5559.5010700000003</v>
+      </c>
+      <c r="F63" s="50"/>
+      <c r="H63" s="34"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C64" s="33">
         <v>10</v>
       </c>
-      <c r="D61" s="33">
+      <c r="D64" s="33">
         <v>564.45009800000003</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="50">
-        <f>Sayfa2!$D61*Sayfa2!$C61</f>
+      <c r="E64" s="36"/>
+      <c r="F64" s="50">
+        <f>Sayfa2!$D64*Sayfa2!$C64</f>
         <v>5644.5009800000007</v>
       </c>
-      <c r="G61" s="34"/>
-      <c r="I61" s="58">
-        <f>A62-A60</f>
+      <c r="G64" s="34"/>
+      <c r="I64" s="58">
+        <f>A65-A63</f>
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="57">
+    <row r="65" spans="1:9">
+      <c r="A65" s="57">
         <v>45334</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B65" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C65" s="37">
         <v>10</v>
       </c>
-      <c r="D62" s="37">
-        <f>D61-D60</f>
+      <c r="D65" s="37">
+        <f>D64-D63</f>
         <v>8.4999910000000227</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="59">
-        <f>Sayfa2!$D62*Sayfa2!$C62</f>
+      <c r="E65" s="36"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="59">
+        <f>Sayfa2!$D65*Sayfa2!$C65</f>
         <v>84.999910000000227</v>
       </c>
-      <c r="H62" s="74">
-        <f>I62/I61*30</f>
+      <c r="H65" s="74">
+        <f>I65/I64*30</f>
         <v>3.8222813940388463E-2</v>
       </c>
-      <c r="I62" s="74">
-        <f>G62/E60</f>
+      <c r="I65" s="74">
+        <f>G65/E63</f>
         <v>1.5289125576155384E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="50"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="39">
+    <row r="66" spans="1:9">
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="50"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="39">
         <v>45322</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B67" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C67" s="40">
         <v>46</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D67" s="40">
         <v>555.950107</v>
       </c>
-      <c r="E64" s="36">
-        <f>Sayfa2!$D64*Sayfa2!$C64</f>
+      <c r="E67" s="36">
+        <f>Sayfa2!$D67*Sayfa2!$C67</f>
         <v>25573.704922000001</v>
       </c>
-      <c r="F64" s="50"/>
-      <c r="H64" s="41"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40" t="s">
+      <c r="F67" s="50"/>
+      <c r="H67" s="41"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C68" s="40">
         <v>46</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D68" s="40">
         <v>559.83385699999997</v>
       </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="50">
-        <f>Sayfa2!$D65*Sayfa2!$C65</f>
+      <c r="E68" s="36"/>
+      <c r="F68" s="50">
+        <f>Sayfa2!$D68*Sayfa2!$C68</f>
         <v>25752.357421999997</v>
       </c>
-      <c r="G65" s="34"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="58">
-        <f>A66-A64</f>
+      <c r="G68" s="34"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="58">
+        <f>A69-A67</f>
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="72">
+    <row r="69" spans="1:9">
+      <c r="A69" s="72">
         <v>45327</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B69" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="40">
+      <c r="C69" s="40">
         <v>46</v>
       </c>
-      <c r="D66" s="40">
-        <f>D65-D64</f>
+      <c r="D69" s="40">
+        <f>D68-D67</f>
         <v>3.8837499999999636</v>
       </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="66">
-        <f>Sayfa2!$D66*Sayfa2!$C66</f>
+      <c r="E69" s="36"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="66">
+        <f>Sayfa2!$D69*Sayfa2!$C69</f>
         <v>178.65249999999833</v>
       </c>
-      <c r="H66" s="74">
-        <f>I66/I65*30</f>
+      <c r="H69" s="74">
+        <f>I69/I68*30</f>
         <v>4.1914732467170444E-2</v>
       </c>
-      <c r="I66" s="74">
-        <f>G66/E64</f>
+      <c r="I69" s="74">
+        <f>G69/E67</f>
         <v>6.9857887445284065E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="50"/>
-      <c r="H67" s="38"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="50"/>
-      <c r="H68" s="38"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="39">
-        <v>45267</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="40">
-        <v>10</v>
-      </c>
-      <c r="D69" s="40">
-        <v>49.18</v>
-      </c>
-      <c r="E69" s="36">
-        <f>Sayfa2!$D69*Sayfa2!$C69</f>
-        <v>491.8</v>
-      </c>
-      <c r="F69" s="50"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="40"/>
-    </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="42"/>
-      <c r="B70" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="40">
-        <v>10</v>
-      </c>
-      <c r="D70" s="44">
-        <v>52</v>
-      </c>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="36"/>
-      <c r="F70" s="50">
-        <f>Sayfa2!$D70*Sayfa2!$C70</f>
-        <v>520</v>
-      </c>
-      <c r="G70" s="34"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="58">
-        <f>A71-A69</f>
-        <v>60</v>
-      </c>
+      <c r="F70" s="50"/>
+      <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="67">
-        <v>45327</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="40">
-        <v>10</v>
-      </c>
-      <c r="D71" s="40">
-        <f>D70-D69</f>
-        <v>2.8200000000000003</v>
-      </c>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="36"/>
       <c r="F71" s="50"/>
-      <c r="G71" s="59">
-        <f>Sayfa2!$D71*Sayfa2!$C71</f>
+      <c r="H71" s="38"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="39">
+        <v>45267</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="40">
+        <v>10</v>
+      </c>
+      <c r="D72" s="40">
+        <v>49.18</v>
+      </c>
+      <c r="E72" s="36">
+        <f>Sayfa2!$D72*Sayfa2!$C72</f>
+        <v>491.8</v>
+      </c>
+      <c r="F72" s="50"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="40"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="42"/>
+      <c r="B73" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="40">
+        <v>10</v>
+      </c>
+      <c r="D73" s="44">
+        <v>52</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="50">
+        <f>Sayfa2!$D73*Sayfa2!$C73</f>
+        <v>520</v>
+      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="58">
+        <f>A74-A72</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="67">
+        <v>45327</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="40">
+        <v>10</v>
+      </c>
+      <c r="D74" s="40">
+        <f>D73-D72</f>
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="59">
+        <f>Sayfa2!$D74*Sayfa2!$C74</f>
         <v>28.200000000000003</v>
       </c>
-      <c r="H71" s="74">
-        <f>I71/I70*30</f>
+      <c r="H74" s="74">
+        <f>I74/I73*30</f>
         <v>2.8670191134607566E-2</v>
       </c>
-      <c r="I71" s="74">
-        <f>G71/E69</f>
+      <c r="I74" s="74">
+        <f>G74/E72</f>
         <v>5.7340382269215132E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="E72" s="36"/>
-      <c r="F72" s="50"/>
-      <c r="H72" s="34"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="54">
-        <v>45267</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="33">
-        <v>13</v>
-      </c>
-      <c r="D73" s="33">
-        <v>28.3</v>
-      </c>
-      <c r="E73" s="56">
-        <f>Sayfa2!$D73*Sayfa2!$C73</f>
-        <v>367.90000000000003</v>
-      </c>
-      <c r="F73" s="50"/>
-      <c r="H73" s="34"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="33">
-        <v>13</v>
-      </c>
-      <c r="D74" s="33">
-        <v>41.6</v>
-      </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="50">
-        <f>Sayfa2!$D74*Sayfa2!$C74</f>
-        <v>540.80000000000007</v>
-      </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="68">
-        <f>A75-A73</f>
-        <v>46</v>
-      </c>
-    </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="37">
-        <v>13</v>
-      </c>
-      <c r="D75" s="37">
-        <v>13.3</v>
-      </c>
       <c r="E75" s="36"/>
       <c r="F75" s="50"/>
-      <c r="G75" s="59">
-        <f>Sayfa2!$D75*Sayfa2!$C75</f>
-        <v>172.9</v>
-      </c>
-      <c r="H75" s="74">
-        <f>I75/I74*30</f>
-        <v>0.30649869411583958</v>
-      </c>
-      <c r="I75" s="75">
-        <f>G75/E73</f>
-        <v>0.46996466431095402</v>
-      </c>
+      <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="54"/>
-      <c r="E76" s="69"/>
+      <c r="A76" s="54">
+        <v>45267</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="33">
+        <v>13</v>
+      </c>
+      <c r="D76" s="33">
+        <v>28.3</v>
+      </c>
+      <c r="E76" s="56">
+        <f>Sayfa2!$D76*Sayfa2!$C76</f>
+        <v>367.90000000000003</v>
+      </c>
       <c r="F76" s="50"/>
+      <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="54"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="50"/>
+      <c r="A77" s="54">
+        <v>45313</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="33">
+        <v>13</v>
+      </c>
+      <c r="D77" s="33">
+        <v>41.6</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="50">
+        <f>Sayfa2!$D77*Sayfa2!$C77</f>
+        <v>540.80000000000007</v>
+      </c>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="68">
+        <f>A78-A76</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="54">
+        <v>45313</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="37">
+        <v>13</v>
+      </c>
+      <c r="D78" s="37">
+        <v>13.3</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="59">
+        <f>Sayfa2!$D78*Sayfa2!$C78</f>
+        <v>172.9</v>
+      </c>
+      <c r="H78" s="74">
+        <f>I78/I77*30</f>
+        <v>0.30649869411583958</v>
+      </c>
+      <c r="I78" s="75">
+        <f>G78/E76</f>
+        <v>0.46996466431095402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="54"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="50"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="54"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="50"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="54">
         <v>45273</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B81" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="33">
+      <c r="C81" s="33">
         <v>26</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D81" s="33">
         <v>55.08</v>
       </c>
-      <c r="E78" s="56">
-        <f>Sayfa2!$D78*Sayfa2!$C78</f>
+      <c r="E81" s="56">
+        <f>Sayfa2!$D81*Sayfa2!$C81</f>
         <v>1432.08</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="H78" s="34"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="33">
-        <v>26</v>
-      </c>
-      <c r="D79" s="33">
-        <v>51.4</v>
-      </c>
-      <c r="E79" s="36"/>
-      <c r="F79" s="50">
-        <f>Sayfa2!$D79*Sayfa2!$C79</f>
-        <v>1336.3999999999999</v>
-      </c>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="37">
-        <v>26</v>
-      </c>
-      <c r="D80" s="37">
-        <f>D79-D78</f>
-        <v>-3.6799999999999997</v>
-      </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="71">
-        <f>Sayfa2!$D80*Sayfa2!$C80</f>
-        <v>-95.679999999999993</v>
-      </c>
-      <c r="H80" s="34"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="54"/>
-      <c r="E81" s="36"/>
       <c r="F81" s="50"/>
       <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="54">
-        <v>45288</v>
+        <v>45313</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C82" s="33">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D82" s="33">
-        <v>39.5</v>
-      </c>
-      <c r="E82" s="56">
+        <v>51.4</v>
+      </c>
+      <c r="E82" s="36"/>
+      <c r="F82" s="50">
         <f>Sayfa2!$D82*Sayfa2!$C82</f>
-        <v>3950</v>
-      </c>
-      <c r="F82" s="50"/>
+        <v>1336.3999999999999</v>
+      </c>
+      <c r="G82" s="34"/>
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:9">
@@ -2853,375 +2786,405 @@
         <v>45313</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="33">
-        <v>100</v>
-      </c>
-      <c r="D83" s="33">
-        <v>51.4</v>
+        <v>153</v>
+      </c>
+      <c r="C83" s="37">
+        <v>26</v>
+      </c>
+      <c r="D83" s="37">
+        <f>D82-D81</f>
+        <v>-3.6799999999999997</v>
       </c>
       <c r="E83" s="36"/>
-      <c r="F83" s="50">
+      <c r="F83" s="50"/>
+      <c r="G83" s="71">
         <f>Sayfa2!$D83*Sayfa2!$C83</f>
-        <v>5140</v>
-      </c>
-      <c r="G83" s="34"/>
+        <v>-95.679999999999993</v>
+      </c>
       <c r="H83" s="34"/>
-      <c r="I83" s="33">
-        <f>A79-A78</f>
-        <v>40</v>
-      </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B84" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" s="37">
-        <v>100</v>
-      </c>
-      <c r="D84" s="37">
-        <f>D83-D82</f>
-        <v>11.899999999999999</v>
-      </c>
+      <c r="A84" s="54"/>
       <c r="E84" s="36"/>
       <c r="F84" s="50"/>
-      <c r="G84" s="71">
-        <f>Sayfa2!$D84*Sayfa2!$C84</f>
-        <v>1189.9999999999998</v>
-      </c>
-      <c r="H84" s="74">
-        <f>I84/I83*30</f>
-        <v>0.15249494619180684</v>
-      </c>
-      <c r="I84" s="75">
-        <f>(G80+G84)/(E82+E78)</f>
-        <v>0.20332659492240912</v>
-      </c>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="E85" s="36"/>
+      <c r="A85" s="54">
+        <v>45288</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="33">
+        <v>100</v>
+      </c>
+      <c r="D85" s="33">
+        <v>39.5</v>
+      </c>
+      <c r="E85" s="56">
+        <f>Sayfa2!$D85*Sayfa2!$C85</f>
+        <v>3950</v>
+      </c>
       <c r="F85" s="50"/>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:9">
+      <c r="A86" s="54">
+        <v>45313</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="33">
+        <v>100</v>
+      </c>
+      <c r="D86" s="33">
+        <v>51.4</v>
+      </c>
       <c r="E86" s="36"/>
-      <c r="F86" s="50"/>
+      <c r="F86" s="50">
+        <f>Sayfa2!$D86*Sayfa2!$C86</f>
+        <v>5140</v>
+      </c>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="33">
+        <f>A82-A81</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="54">
-        <v>45267</v>
+        <v>45313</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="33">
-        <v>300</v>
-      </c>
-      <c r="D87" s="33">
-        <v>18.207357999999999</v>
-      </c>
-      <c r="E87" s="56">
+        <v>153</v>
+      </c>
+      <c r="C87" s="37">
+        <v>100</v>
+      </c>
+      <c r="D87" s="37">
+        <f>D86-D85</f>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="71">
         <f>Sayfa2!$D87*Sayfa2!$C87</f>
-        <v>5462.2073999999993</v>
-      </c>
-      <c r="F87" s="50"/>
-      <c r="H87" s="34"/>
+        <v>1189.9999999999998</v>
+      </c>
+      <c r="H87" s="74">
+        <f>I87/I86*30</f>
+        <v>0.15249494619180684</v>
+      </c>
+      <c r="I87" s="75">
+        <f>(G83+G87)/(E85+E81)</f>
+        <v>0.20332659492240912</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="54">
-        <v>45288</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="33">
-        <v>300</v>
-      </c>
-      <c r="D88" s="33">
-        <v>18.625761000000001</v>
-      </c>
       <c r="E88" s="36"/>
-      <c r="F88" s="50">
-        <f>Sayfa2!$D88*Sayfa2!$C88</f>
-        <v>5587.7282999999998</v>
-      </c>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="33">
-        <f>A89-A87</f>
-        <v>21</v>
-      </c>
+      <c r="F88" s="50"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="54">
-        <v>45288</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C89" s="37">
-        <v>300</v>
-      </c>
-      <c r="D89" s="37">
-        <f>D88-D87</f>
-        <v>0.41840300000000141</v>
-      </c>
       <c r="E89" s="36"/>
       <c r="F89" s="50"/>
-      <c r="G89" s="71">
-        <f>Sayfa2!$D89*Sayfa2!$C89</f>
-        <v>125.52090000000042</v>
-      </c>
-      <c r="H89" s="74">
-        <f>I89/I88*30</f>
-        <v>3.209096108494968E-2</v>
-      </c>
-      <c r="I89" s="75">
-        <f>G89/F88</f>
-        <v>2.2463672759464776E-2</v>
-      </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="35"/>
-      <c r="E90" s="36"/>
+      <c r="A90" s="54">
+        <v>45267</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="33">
+        <v>300</v>
+      </c>
+      <c r="D90" s="33">
+        <v>18.207357999999999</v>
+      </c>
+      <c r="E90" s="56">
+        <f>Sayfa2!$D90*Sayfa2!$C90</f>
+        <v>5462.2073999999993</v>
+      </c>
       <c r="F90" s="50"/>
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="35">
-        <v>45267</v>
+      <c r="A91" s="54">
+        <v>45288</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C91" s="33">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="D91" s="33">
-        <v>523.88987099999997</v>
-      </c>
-      <c r="E91" s="56">
+        <v>18.625761000000001</v>
+      </c>
+      <c r="E91" s="36"/>
+      <c r="F91" s="50">
         <f>Sayfa2!$D91*Sayfa2!$C91</f>
-        <v>5238.8987099999995</v>
-      </c>
-      <c r="F91" s="50"/>
+        <v>5587.7282999999998</v>
+      </c>
+      <c r="G91" s="34"/>
       <c r="H91" s="34"/>
+      <c r="I91" s="33">
+        <f>A92-A90</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="35">
-        <v>45293</v>
+      <c r="A92" s="54">
+        <v>45288</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C92" s="33">
-        <v>10</v>
-      </c>
-      <c r="D92" s="33">
-        <v>538.78970700000002</v>
+        <v>39</v>
+      </c>
+      <c r="C92" s="37">
+        <v>300</v>
+      </c>
+      <c r="D92" s="37">
+        <f>D91-D90</f>
+        <v>0.41840300000000141</v>
       </c>
       <c r="E92" s="36"/>
-      <c r="F92" s="50">
+      <c r="F92" s="50"/>
+      <c r="G92" s="71">
         <f>Sayfa2!$D92*Sayfa2!$C92</f>
-        <v>5387.89707</v>
-      </c>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="33">
-        <f>A93-A91</f>
-        <v>26</v>
+        <v>125.52090000000042</v>
+      </c>
+      <c r="H92" s="74">
+        <f>I92/I91*30</f>
+        <v>3.209096108494968E-2</v>
+      </c>
+      <c r="I92" s="75">
+        <f>G92/F91</f>
+        <v>2.2463672759464776E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="35">
-        <v>45293</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" s="37">
-        <v>10</v>
-      </c>
-      <c r="D93" s="37">
-        <f>D92-D91</f>
-        <v>14.89983600000005</v>
-      </c>
+      <c r="A93" s="35"/>
       <c r="E93" s="36"/>
       <c r="F93" s="50"/>
-      <c r="G93" s="71">
-        <f>Sayfa2!$D93*Sayfa2!$C93</f>
-        <v>148.9983600000005</v>
-      </c>
-      <c r="H93" s="74">
-        <f>I93/I92*30</f>
-        <v>3.1908773011394068E-2</v>
-      </c>
-      <c r="I93" s="75">
-        <f>G93/F92</f>
-        <v>2.7654269943208194E-2</v>
-      </c>
+      <c r="H93" s="34"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="35"/>
-      <c r="E94" s="36"/>
+      <c r="A94" s="35">
+        <v>45267</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="33">
+        <v>10</v>
+      </c>
+      <c r="D94" s="33">
+        <v>523.88987099999997</v>
+      </c>
+      <c r="E94" s="56">
+        <f>Sayfa2!$D94*Sayfa2!$C94</f>
+        <v>5238.8987099999995</v>
+      </c>
       <c r="F94" s="50"/>
       <c r="H94" s="34"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="35">
-        <v>45273</v>
+        <v>45293</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C95" s="33">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D95" s="33">
-        <v>527.21223999999995</v>
-      </c>
-      <c r="E95" s="56">
+        <v>538.78970700000002</v>
+      </c>
+      <c r="E95" s="36"/>
+      <c r="F95" s="50">
         <f>Sayfa2!$D95*Sayfa2!$C95</f>
-        <v>21088.489599999997</v>
-      </c>
-      <c r="F95" s="50"/>
+        <v>5387.89707</v>
+      </c>
+      <c r="G95" s="34"/>
       <c r="H95" s="34"/>
+      <c r="I95" s="33">
+        <f>A96-A94</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="35">
         <v>45293</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" s="33">
-        <v>28</v>
-      </c>
-      <c r="D96" s="33">
-        <f>D92</f>
-        <v>538.78970700000002</v>
+        <v>42</v>
+      </c>
+      <c r="C96" s="37">
+        <v>10</v>
+      </c>
+      <c r="D96" s="37">
+        <f>D95-D94</f>
+        <v>14.89983600000005</v>
       </c>
       <c r="E96" s="36"/>
-      <c r="F96" s="50">
+      <c r="F96" s="50"/>
+      <c r="G96" s="71">
         <f>Sayfa2!$D96*Sayfa2!$C96</f>
-        <v>15086.111796000001</v>
-      </c>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="33">
-        <f>A97-A95</f>
-        <v>20</v>
+        <v>148.9983600000005</v>
+      </c>
+      <c r="H96" s="74">
+        <f>I96/I95*30</f>
+        <v>3.1908773011394068E-2</v>
+      </c>
+      <c r="I96" s="75">
+        <f>G96/F95</f>
+        <v>2.7654269943208194E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="35">
-        <v>45293</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97" s="37">
-        <v>28</v>
-      </c>
-      <c r="D97" s="37">
-        <f>D96-D95</f>
-        <v>11.57746700000007</v>
-      </c>
+      <c r="A97" s="35"/>
       <c r="E97" s="36"/>
       <c r="F97" s="50"/>
-      <c r="G97" s="71">
-        <f>Sayfa2!$D97*Sayfa2!$C97</f>
-        <v>324.16907600000195</v>
-      </c>
-      <c r="H97" s="74">
-        <f>I97/I96*30</f>
-        <v>3.2231871311528416E-2</v>
-      </c>
-      <c r="I97" s="75">
-        <f>G97/F96</f>
-        <v>2.1487914207685612E-2</v>
-      </c>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="35"/>
-      <c r="E98" s="36"/>
+      <c r="A98" s="35">
+        <v>45273</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="33">
+        <v>40</v>
+      </c>
+      <c r="D98" s="33">
+        <v>527.21223999999995</v>
+      </c>
+      <c r="E98" s="56">
+        <f>Sayfa2!$D98*Sayfa2!$C98</f>
+        <v>21088.489599999997</v>
+      </c>
       <c r="F98" s="50"/>
       <c r="H98" s="34"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="35">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B99" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C99" s="33">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D99" s="33">
-        <v>540.000044</v>
+        <f>D95</f>
+        <v>538.78970700000002</v>
       </c>
       <c r="E99" s="36"/>
       <c r="F99" s="50">
         <f>Sayfa2!$D99*Sayfa2!$C99</f>
-        <v>11880.000968</v>
+        <v>15086.111796000001</v>
       </c>
       <c r="G99" s="34"/>
       <c r="H99" s="34"/>
       <c r="I99" s="33">
-        <f>A100-A95</f>
-        <v>22</v>
+        <f>A100-A98</f>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="35">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B100" s="33" t="s">
         <v>42</v>
       </c>
       <c r="C100" s="37">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D100" s="37">
-        <f>D99-D95</f>
-        <v>12.787804000000051</v>
+        <f>D99-D98</f>
+        <v>11.57746700000007</v>
       </c>
       <c r="E100" s="36"/>
-      <c r="F100" s="34"/>
+      <c r="F100" s="50"/>
       <c r="G100" s="71">
         <f>Sayfa2!$D100*Sayfa2!$C100</f>
-        <v>281.33168800000112</v>
+        <v>324.16907600000195</v>
       </c>
       <c r="H100" s="74">
         <f>I100/I99*30</f>
-        <v>3.2292431712199296E-2</v>
+        <v>3.2231871311528416E-2</v>
       </c>
       <c r="I100" s="75">
         <f>G100/F99</f>
-        <v>2.3681116588946151E-2</v>
+        <v>2.1487914207685612E-2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="35"/>
       <c r="E101" s="36"/>
-      <c r="F101" s="34"/>
+      <c r="F101" s="50"/>
       <c r="H101" s="34"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="35"/>
+      <c r="A102" s="35">
+        <v>45295</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="33">
+        <v>22</v>
+      </c>
+      <c r="D102" s="33">
+        <v>540.000044</v>
+      </c>
       <c r="E102" s="36"/>
-      <c r="F102" s="34"/>
+      <c r="F102" s="50">
+        <f>Sayfa2!$D102*Sayfa2!$C102</f>
+        <v>11880.000968</v>
+      </c>
+      <c r="G102" s="34"/>
       <c r="H102" s="34"/>
+      <c r="I102" s="33">
+        <f>A103-A98</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="35"/>
+      <c r="A103" s="35">
+        <v>45295</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="37">
+        <v>22</v>
+      </c>
+      <c r="D103" s="37">
+        <f>D102-D98</f>
+        <v>12.787804000000051</v>
+      </c>
       <c r="E103" s="36"/>
       <c r="F103" s="34"/>
-      <c r="H103" s="34"/>
+      <c r="G103" s="71">
+        <f>Sayfa2!$D103*Sayfa2!$C103</f>
+        <v>281.33168800000112</v>
+      </c>
+      <c r="H103" s="74">
+        <f>I103/I102*30</f>
+        <v>3.2292431712199296E-2</v>
+      </c>
+      <c r="I103" s="75">
+        <f>G103/F102</f>
+        <v>2.3681116588946151E-2</v>
+      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="35"/>
@@ -3248,18 +3211,36 @@
       <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:9">
+      <c r="A108" s="35"/>
       <c r="E108" s="36"/>
+      <c r="F108" s="34"/>
+      <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:9">
+      <c r="A109" s="35"/>
       <c r="E109" s="36"/>
+      <c r="F109" s="34"/>
+      <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="54"/>
+      <c r="A110" s="35"/>
       <c r="E110" s="36"/>
+      <c r="F110" s="34"/>
+      <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="54"/>
       <c r="E111" s="36"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="E112" s="36"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="54"/>
+      <c r="E113" s="36"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="54"/>
+      <c r="E114" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -3270,7 +3251,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Sayfa1!$C:$C</xm:f>
@@ -3278,7 +3259,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F12:H12 F64:H64 F31:H31 F60:H60 F47:G47 F48:H50 I47 F19:H20 F84:G84 G26:H26 F52:H55 G21 F42 F41:H41 F43:H43 H42 F46 F45:H45 H46 F51 H51 F56 F57:H57 H56 F70 F69:H69 H70 F74 F71:H73 H74 F79 F78:H78 H79 F83 F80:H82 H83 F88 F87:H87 F89:G89 H88 F92 F90:H91 F93:G93 H92 F96 F94:H95 H96 F99 F98:H98 H99 F100:H107 I97 F97:G97 I84</xm:sqref>
+          <xm:sqref>F12:H12 F67:H67 F31:H31 F63:H63 F50:G50 F51:H53 I50 F19:H20 F87:G87 G26:H26 F55:H58 G21 F45 F44:H44 F46:H46 H45 F49 F48:H48 H49 F54 H54 F59 F60:H60 H59 F73 F72:H72 H73 F77 F74:H76 H77 F82 F81:H81 H82 F86 F83:H85 H86 F91 F90:H90 F92:G92 H91 F95 F93:H94 F96:G96 H95 F99 F97:H98 H99 F102 F101:H101 H102 F103:H110 I100 F100:G100 I87</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3290,7 +3271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A46DA45-D277-43A0-951D-C22728888BB5}">
   <dimension ref="A3:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D60" sqref="D60:G60"/>
     </sheetView>
   </sheetViews>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E75F190-8A63-4226-A915-086D65E1C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7ACB71-0661-49E6-A40F-46905FA4C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="164">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -1561,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1596,21 +1596,21 @@
       </c>
       <c r="E2" s="46">
         <f>SUBTOTAL(109,E9:E35)</f>
-        <v>63814.432161999997</v>
+        <v>100107.702626</v>
       </c>
       <c r="F2" s="47">
         <f>SUBTOTAL(109,F9:F35)</f>
-        <v>65704.284536000006</v>
+        <v>102074.82318000001</v>
       </c>
       <c r="G2" s="47">
         <f>SUBTOTAL(109,G9:G35)</f>
-        <v>1889.8523740000023</v>
+        <v>1967.1205540000042</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="G3" s="49">
         <f>G2/E2</f>
-        <v>2.9614811414483841E-2</v>
+        <v>1.9650041928832587E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1694,16 +1694,72 @@
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="E16" s="36"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="54">
+        <v>45338</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="33">
+        <v>64</v>
+      </c>
+      <c r="D16" s="33">
+        <v>567.08235100000002</v>
+      </c>
+      <c r="E16" s="56">
+        <f>Sayfa2!$D16*Sayfa2!$C16</f>
+        <v>36293.270464000001</v>
+      </c>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:9">
+      <c r="A17" s="54">
+        <v>45341</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="33">
+        <v>64</v>
+      </c>
+      <c r="D17" s="33">
+        <v>567.08235100000002</v>
+      </c>
       <c r="E17" s="36"/>
+      <c r="F17" s="50">
+        <f>Sayfa2!$D17*Sayfa2!$C17</f>
+        <v>36293.270464000001</v>
+      </c>
       <c r="G17" s="34"/>
+      <c r="I17" s="58">
+        <f>A17-A16</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
+      <c r="B18" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="37">
+        <v>64</v>
+      </c>
+      <c r="D18" s="37">
+        <f>D17-D16</f>
+        <v>0</v>
+      </c>
       <c r="E18" s="36"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="59">
+        <f>Sayfa2!$D18*Sayfa2!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="74">
+        <f>G18/E16</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="74">
+        <f>H18/I17*30</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="35"/>
@@ -1738,7 +1794,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="54">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>150</v>
@@ -1747,17 +1803,17 @@
         <v>50</v>
       </c>
       <c r="D22" s="33">
-        <v>566.416246</v>
+        <v>567.08235100000002</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="50">
         <f>Sayfa2!$D22*Sayfa2!$C22</f>
-        <v>28320.812300000001</v>
+        <v>28354.117550000003</v>
       </c>
       <c r="G22" s="34"/>
       <c r="I22" s="58">
         <f>A22-A21</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1769,20 +1825,20 @@
       </c>
       <c r="D23" s="37">
         <f>D22-D21</f>
-        <v>23.981744000000049</v>
+        <v>24.647849000000065</v>
       </c>
       <c r="E23" s="36"/>
       <c r="G23" s="59">
         <f>Sayfa2!$D23*Sayfa2!$C23</f>
-        <v>1199.0872000000024</v>
+        <v>1232.3924500000032</v>
       </c>
       <c r="H23" s="74">
         <f>G23/E21</f>
-        <v>4.4211317516819851E-2</v>
+        <v>4.5439309094685992E-2</v>
       </c>
       <c r="I23" s="74">
         <f>H23/I22*30</f>
-        <v>3.4903671723805145E-2</v>
+        <v>3.4953314688219994E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1820,7 +1876,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="57">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>150</v>
@@ -1829,17 +1885,17 @@
         <v>50</v>
       </c>
       <c r="D27" s="33">
-        <v>566.416246</v>
+        <v>567.08235100000002</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="50">
         <f>Sayfa2!$D27*Sayfa2!$C27</f>
-        <v>28320.812300000001</v>
+        <v>28354.117550000003</v>
       </c>
       <c r="G27" s="34"/>
       <c r="I27" s="58">
         <f>A27-A26</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1851,21 +1907,21 @@
       </c>
       <c r="D28" s="37">
         <f>D27-D26</f>
-        <v>10.466138999999998</v>
+        <v>11.132244000000014</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="50"/>
       <c r="G28" s="59">
         <f>Sayfa2!$D28*Sayfa2!$C28</f>
-        <v>523.30694999999992</v>
+        <v>556.61220000000071</v>
       </c>
       <c r="H28" s="74">
         <f>G28/E26</f>
-        <v>1.8825680341131759E-2</v>
+        <v>2.0023818432325646E-2</v>
       </c>
       <c r="I28" s="74">
         <f>H28/I27*30</f>
-        <v>3.529815063962205E-2</v>
+        <v>3.5336150174692313E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1910,22 +1966,22 @@
         <v>16</v>
       </c>
       <c r="D32" s="33">
-        <v>566.416246</v>
+        <v>567.08235100000002</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="50">
         <f>Sayfa2!$D32*Sayfa2!$C32</f>
-        <v>9062.659936</v>
+        <v>9073.3176160000003</v>
       </c>
       <c r="G32" s="34"/>
       <c r="I32" s="58">
         <f>A33-A31</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="57">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>151</v>
@@ -1935,21 +1991,21 @@
       </c>
       <c r="D33" s="37">
         <f>D32-D31</f>
-        <v>10.466138999999998</v>
+        <v>11.132244000000014</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="50"/>
       <c r="G33" s="59">
         <f>Sayfa2!$D33*Sayfa2!$C33</f>
-        <v>167.45822399999997</v>
+        <v>178.11590400000023</v>
       </c>
       <c r="H33" s="74">
         <f>G33/E31</f>
-        <v>1.8825680341131759E-2</v>
+        <v>2.0023818432325643E-2</v>
       </c>
       <c r="I33" s="74">
         <f>H33/I32*30</f>
-        <v>3.7651360682263518E-2</v>
+        <v>3.754465956061058E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3259,7 +3315,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F12:H12 F67:H67 F31:H31 F63:H63 F50:G50 F51:H53 I50 F19:H20 F87:G87 G26:H26 F55:H58 G21 F45 F44:H44 F46:H46 H45 F49 F48:H48 H49 F54 H54 F59 F60:H60 H59 F73 F72:H72 H73 F77 F74:H76 H77 F82 F81:H81 H82 F86 F83:H85 H86 F91 F90:H90 F92:G92 H91 F95 F93:H94 F96:G96 H95 F99 F97:H98 H99 F102 F101:H101 H102 F103:H110 I100 F100:G100 I87</xm:sqref>
+          <xm:sqref>F12:H12 F67:H67 F31:H31 F63:H63 F50:G50 F51:H53 I50 F19:H20 F87:G87 G26:H26 F55:H58 G21 F45 F44:H44 F46:H46 H45 F49 F48:H48 H49 F54 H54 F59 F60:H60 H59 F73 F72:H72 H73 F77 F74:H76 H77 F82 F81:H81 H82 F86 F83:H85 H86 F91 F90:H90 F92:G92 H91 F95 F93:H94 F96:G96 H95 F99 F97:H98 H99 F102 F101:H101 H102 F103:H110 I100 F100:G100 I87 G16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7ACB71-0661-49E6-A40F-46905FA4C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5BB0F-869F-41EB-90AC-6E3DC6C604A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="169">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -539,6 +539,21 @@
   </si>
   <si>
     <t>Aylık</t>
+  </si>
+  <si>
+    <t>komisyon</t>
+  </si>
+  <si>
+    <t>32,3820 * 18,01€ = 583,20</t>
+  </si>
+  <si>
+    <t>LMKDC halkaarz</t>
+  </si>
+  <si>
+    <t>LMKDC satış</t>
+  </si>
+  <si>
+    <t>LMKDC gelir</t>
   </si>
 </sst>
 </file>
@@ -884,7 +899,7 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -963,6 +978,8 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="20" fillId="13" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="13" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1099,8 +1116,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:I106" totalsRowShown="0">
-  <autoFilter ref="A8:I106" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:I116" totalsRowShown="0">
+  <autoFilter ref="A8:I116" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tarih"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Açıklama"/>
@@ -1559,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1595,50 +1612,51 @@
         <v>156</v>
       </c>
       <c r="E2" s="46">
-        <f>SUBTOTAL(109,E9:E35)</f>
-        <v>100107.702626</v>
+        <f>SUBTOTAL(109,E9:E42)</f>
+        <v>160982.31653000001</v>
       </c>
       <c r="F2" s="47">
-        <f>SUBTOTAL(109,F9:F35)</f>
-        <v>102074.82318000001</v>
+        <f>SUBTOTAL(109,F9:F42)</f>
+        <v>163780.479024</v>
       </c>
       <c r="G2" s="47">
-        <f>SUBTOTAL(109,G9:G35)</f>
-        <v>1967.1205540000042</v>
+        <f>SUBTOTAL(109,G9:G42)</f>
+        <v>2798.1624939999992</v>
+      </c>
+      <c r="H2" s="49">
+        <f>G2/E2</f>
+        <v>1.7381800400906425E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="G3" s="49">
-        <f>G2/E2</f>
-        <v>1.9650041928832587E-2</v>
+      <c r="D3" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="50">
+        <f>SUBTOTAL(109,E44:E114)</f>
+        <v>193267.91358199995</v>
+      </c>
+      <c r="F3" s="50">
+        <f>SUBTOTAL(109,F44:F114)</f>
+        <v>208345.60772600002</v>
+      </c>
+      <c r="G3" s="50">
+        <f>SUBTOTAL(109,G44:G113)</f>
+        <v>9671.9417440000107</v>
+      </c>
+      <c r="H3" s="52">
+        <f>G3/E3</f>
+        <v>5.0044218746617693E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="D5" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="50">
-        <f>SUBTOTAL(109,E37:E104)</f>
-        <v>193267.91358199995</v>
-      </c>
-      <c r="F5" s="50">
-        <f>SUBTOTAL(109,F37:F104)</f>
-        <v>208345.60772600002</v>
-      </c>
-      <c r="G5" s="50">
-        <f>SUBTOTAL(109,G37:G103)</f>
-        <v>9805.5717440000117</v>
+      <c r="G4" s="77">
+        <f>SUM(G2:G3)</f>
+        <v>12470.104238000011</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="F6" s="51"/>
-      <c r="G6" s="52">
-        <f>G5/E5</f>
-        <v>5.0735642364347723E-2</v>
-      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="E7" s="36"/>
@@ -1676,726 +1694,731 @@
       <c r="E9" s="36"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="E11" s="36"/>
+      <c r="A11" s="54">
+        <v>45341</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="33">
+        <v>106</v>
+      </c>
+      <c r="D11" s="33">
+        <v>569.09258399999999</v>
+      </c>
+      <c r="E11" s="56">
+        <f>Sayfa2!$D11*Sayfa2!$C11</f>
+        <v>60323.813903999995</v>
+      </c>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="35"/>
+      <c r="A12" s="54">
+        <v>45351</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="33">
+        <v>106</v>
+      </c>
+      <c r="D12" s="33">
+        <v>569.09258399999999</v>
+      </c>
       <c r="E12" s="36"/>
-      <c r="F12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="F12" s="50">
+        <f>Sayfa2!$D12*Sayfa2!$C12</f>
+        <v>60323.813903999995</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="I12" s="58">
+        <f>A12-A11</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
+      <c r="B13" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="37">
+        <v>106</v>
+      </c>
+      <c r="D13" s="37">
+        <f>D12-D11</f>
+        <v>0</v>
+      </c>
       <c r="E13" s="36"/>
+      <c r="G13" s="59">
+        <f>Sayfa2!$D13*Sayfa2!$C13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="74">
+        <f>G13/E11</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="74">
+        <f>H13/I12*30</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="E14" s="36"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:9">
       <c r="E15" s="36"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="54">
-        <v>45338</v>
-      </c>
       <c r="B16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="33">
-        <v>64</v>
-      </c>
-      <c r="D16" s="33">
-        <v>567.08235100000002</v>
-      </c>
-      <c r="E16" s="56">
-        <f>Sayfa2!$D16*Sayfa2!$C16</f>
-        <v>36293.270464000001</v>
-      </c>
-      <c r="F16" s="50"/>
+        <v>165</v>
+      </c>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="54">
+      <c r="A17" s="35">
         <v>45341</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C17" s="33">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D17" s="33">
-        <v>567.08235100000002</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="50">
+        <v>16.2</v>
+      </c>
+      <c r="E17" s="56">
         <f>Sayfa2!$D17*Sayfa2!$C17</f>
-        <v>36293.270464000001</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="I17" s="58">
-        <f>A17-A16</f>
-        <v>3</v>
-      </c>
+        <v>550.79999999999995</v>
+      </c>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="1:9">
+      <c r="A18" s="35">
+        <v>45351</v>
+      </c>
       <c r="B18" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="37">
-        <v>64</v>
-      </c>
-      <c r="D18" s="37">
-        <f>D17-D16</f>
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="C18" s="33">
+        <v>34</v>
+      </c>
+      <c r="D18" s="33">
+        <v>30</v>
       </c>
       <c r="E18" s="36"/>
-      <c r="G18" s="59">
+      <c r="F18" s="50">
         <f>Sayfa2!$D18*Sayfa2!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="74">
-        <f>G18/E16</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="74">
-        <f>H18/I17*30</f>
-        <v>0</v>
+        <v>1020</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="I18" s="58">
+        <f>A18-A17</f>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="35"/>
+      <c r="B19" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="33">
+        <v>34</v>
+      </c>
+      <c r="D19" s="37">
+        <f>D18-D17</f>
+        <v>13.8</v>
+      </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="73"/>
-      <c r="H19" s="34"/>
+      <c r="G19" s="59">
+        <f>Sayfa2!$D19*Sayfa2!$C19</f>
+        <v>469.20000000000005</v>
+      </c>
+      <c r="H19" s="74">
+        <f>G19/E17</f>
+        <v>0.85185185185185197</v>
+      </c>
+      <c r="I19" s="74">
+        <f>H19/I18*30</f>
+        <v>2.5555555555555558</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="35"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="73"/>
-      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="54">
+      <c r="E21" s="36"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="54">
+        <v>45338</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="33">
+        <v>64</v>
+      </c>
+      <c r="D23" s="33">
+        <v>567.08235100000002</v>
+      </c>
+      <c r="E23" s="56">
+        <f>Sayfa2!$D23*Sayfa2!$C23</f>
+        <v>36293.270464000001</v>
+      </c>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="54">
+        <v>45341</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="33">
+        <v>64</v>
+      </c>
+      <c r="D24" s="33">
+        <v>569.09258399999999</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="50">
+        <f>Sayfa2!$D24*Sayfa2!$C24</f>
+        <v>36421.925375999999</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="I24" s="58">
+        <f>A24-A23</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="37">
+        <v>64</v>
+      </c>
+      <c r="D25" s="37">
+        <f>D24-D23</f>
+        <v>2.0102329999999711</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="G25" s="59">
+        <f>Sayfa2!$D25*Sayfa2!$C25</f>
+        <v>128.65491199999815</v>
+      </c>
+      <c r="H25" s="74">
+        <f>G25/E23</f>
+        <v>3.5448696233538238E-3</v>
+      </c>
+      <c r="I25" s="74">
+        <f>H25/I24*30</f>
+        <v>3.5448696233538239E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="73"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="73"/>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="54">
         <v>45299</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B28" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C28" s="33">
         <v>50</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D28" s="33">
         <v>542.43450199999995</v>
       </c>
-      <c r="E21" s="56">
-        <f>Sayfa2!$D21*Sayfa2!$C21</f>
+      <c r="E28" s="56">
+        <f>Sayfa2!$D28*Sayfa2!$C28</f>
         <v>27121.725099999996</v>
       </c>
-      <c r="F21" s="50"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="54">
-        <v>45338</v>
-      </c>
-      <c r="B22" s="33" t="s">
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="54">
+        <v>45341</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C29" s="33">
         <v>50</v>
       </c>
-      <c r="D22" s="33">
-        <v>567.08235100000002</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="50">
-        <f>Sayfa2!$D22*Sayfa2!$C22</f>
-        <v>28354.117550000003</v>
-      </c>
-      <c r="G22" s="34"/>
-      <c r="I22" s="58">
-        <f>A22-A21</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="33" t="s">
+      <c r="D29" s="33">
+        <v>569.09258399999999</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="50">
+        <f>Sayfa2!$D29*Sayfa2!$C29</f>
+        <v>28454.629199999999</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="I29" s="58">
+        <f>A29-A28</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C30" s="37">
         <v>50</v>
       </c>
-      <c r="D23" s="37">
-        <f>D22-D21</f>
-        <v>24.647849000000065</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="G23" s="59">
-        <f>Sayfa2!$D23*Sayfa2!$C23</f>
-        <v>1232.3924500000032</v>
-      </c>
-      <c r="H23" s="74">
-        <f>G23/E21</f>
-        <v>4.5439309094685992E-2</v>
-      </c>
-      <c r="I23" s="74">
-        <f>H23/I22*30</f>
-        <v>3.4953314688219994E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="50"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="54">
+      <c r="D30" s="37">
+        <f>D29-D28</f>
+        <v>26.658082000000036</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="G30" s="59">
+        <f>Sayfa2!$D30*Sayfa2!$C30</f>
+        <v>1332.9041000000018</v>
+      </c>
+      <c r="H30" s="74">
+        <f>G30/E28</f>
+        <v>4.9145255144555755E-2</v>
+      </c>
+      <c r="I30" s="74">
+        <f>H30/I29*30</f>
+        <v>3.5103753674682686E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="54">
         <v>45321</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B33" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C33" s="33">
         <v>50</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D33" s="33">
         <v>555.950107</v>
       </c>
-      <c r="E26" s="56">
-        <f>Sayfa2!$D26*Sayfa2!$C26</f>
+      <c r="E33" s="56">
+        <f>Sayfa2!$D33*Sayfa2!$C33</f>
         <v>27797.505349999999</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="57">
-        <v>45338</v>
-      </c>
-      <c r="B27" s="33" t="s">
+      <c r="F33" s="50"/>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="54">
+        <v>45341</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C34" s="33">
         <v>50</v>
       </c>
-      <c r="D27" s="33">
-        <v>567.08235100000002</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="50">
-        <f>Sayfa2!$D27*Sayfa2!$C27</f>
-        <v>28354.117550000003</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="I27" s="58">
-        <f>A27-A26</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="33" t="s">
+      <c r="D34" s="33">
+        <v>569.09258399999999</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="50">
+        <f>Sayfa2!$D34*Sayfa2!$C34</f>
+        <v>28454.629199999999</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="I34" s="58">
+        <f>A34-A33</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C35" s="37">
         <v>50</v>
       </c>
-      <c r="D28" s="37">
-        <f>D27-D26</f>
-        <v>11.132244000000014</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="59">
-        <f>Sayfa2!$D28*Sayfa2!$C28</f>
-        <v>556.61220000000071</v>
-      </c>
-      <c r="H28" s="74">
-        <f>G28/E26</f>
-        <v>2.0023818432325646E-2</v>
-      </c>
-      <c r="I28" s="74">
-        <f>H28/I27*30</f>
-        <v>3.5336150174692313E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="54">
-        <v>45322</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="33">
-        <v>16</v>
-      </c>
-      <c r="D31" s="33">
-        <v>555.950107</v>
-      </c>
-      <c r="E31" s="56">
-        <f>Sayfa2!$D31*Sayfa2!$C31</f>
-        <v>8895.201712</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="H31" s="34"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="33">
-        <v>16</v>
-      </c>
-      <c r="D32" s="33">
-        <v>567.08235100000002</v>
-      </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="50">
-        <f>Sayfa2!$D32*Sayfa2!$C32</f>
-        <v>9073.3176160000003</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="I32" s="58">
-        <f>A33-A31</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="57">
-        <v>45338</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="37">
-        <v>16</v>
-      </c>
-      <c r="D33" s="37">
-        <f>D32-D31</f>
-        <v>11.132244000000014</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="59">
-        <f>Sayfa2!$D33*Sayfa2!$C33</f>
-        <v>178.11590400000023</v>
-      </c>
-      <c r="H33" s="74">
-        <f>G33/E31</f>
-        <v>2.0023818432325643E-2</v>
-      </c>
-      <c r="I33" s="74">
-        <f>H33/I32*30</f>
-        <v>3.754465956061058E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="34"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="43"/>
+      <c r="D35" s="37">
+        <f>D34-D33</f>
+        <v>13.142476999999985</v>
+      </c>
+      <c r="E35" s="36"/>
       <c r="F35" s="50"/>
-      <c r="G35" s="34"/>
+      <c r="G35" s="59">
+        <f>Sayfa2!$D35*Sayfa2!$C35</f>
+        <v>657.12384999999927</v>
+      </c>
+      <c r="H35" s="74">
+        <f>G35/E33</f>
+        <v>2.3639669881383774E-2</v>
+      </c>
+      <c r="I35" s="74">
+        <f>H35/I34*30</f>
+        <v>3.545950482207566E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="50"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:9">
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
       <c r="E37" s="43"/>
       <c r="F37" s="50"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="54">
+        <v>45322</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="33">
+        <v>16</v>
+      </c>
+      <c r="D38" s="33">
+        <v>555.950107</v>
+      </c>
+      <c r="E38" s="56">
+        <f>Sayfa2!$D38*Sayfa2!$C38</f>
+        <v>8895.201712</v>
+      </c>
       <c r="F38" s="50"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="50"/>
+      <c r="B39" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="33">
+        <v>16</v>
+      </c>
+      <c r="D39" s="33">
+        <v>569.09258399999999</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="50">
+        <f>Sayfa2!$D39*Sayfa2!$C39</f>
+        <v>9105.4813439999998</v>
+      </c>
       <c r="G39" s="34"/>
+      <c r="I39" s="58">
+        <f>A40-A38</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="54">
+        <v>45341</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="37">
+        <v>16</v>
+      </c>
+      <c r="D40" s="37">
+        <f>D39-D38</f>
+        <v>13.142476999999985</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="59">
+        <f>Sayfa2!$D40*Sayfa2!$C40</f>
+        <v>210.27963199999976</v>
+      </c>
+      <c r="H40" s="74">
+        <f>G40/E38</f>
+        <v>2.363966988138377E-2</v>
+      </c>
+      <c r="I40" s="74">
+        <f>H40/I39*30</f>
+        <v>3.7325794549553315E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="50"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="50"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="54">
         <v>45335</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B47" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C47" s="33">
         <v>313</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D47" s="55">
         <v>190.8</v>
       </c>
-      <c r="E40" s="56">
-        <f>Sayfa2!$D40*Sayfa2!$C40</f>
+      <c r="E47" s="56">
+        <f>Sayfa2!$D47*Sayfa2!$C47</f>
         <v>59720.4</v>
       </c>
-      <c r="G40" s="34"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="57">
+      <c r="G47" s="34"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="57">
         <v>45337</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B48" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C48" s="33">
         <v>313</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D48" s="33">
         <v>203.3</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="50">
-        <f>Sayfa2!$D41*Sayfa2!$C41</f>
+      <c r="E48" s="36"/>
+      <c r="F48" s="50">
+        <f>Sayfa2!$D48*Sayfa2!$C48</f>
         <v>63632.9</v>
       </c>
-      <c r="G41" s="34"/>
-      <c r="I41" s="58">
-        <f>A41-A40</f>
+      <c r="G48" s="34"/>
+      <c r="I48" s="58">
+        <f>A48-A47</f>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="57">
+    <row r="49" spans="1:9">
+      <c r="A49" s="57">
         <v>45337</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B49" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C49" s="37">
         <v>313</v>
       </c>
-      <c r="D42" s="55">
-        <f>D41-D40</f>
+      <c r="D49" s="55">
+        <f>D48-D47</f>
         <v>12.5</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="59">
-        <f>Sayfa2!$D42*Sayfa2!$C42</f>
-        <v>3912.5</v>
-      </c>
-      <c r="H42" s="74">
-        <f>G42/E40</f>
-        <v>6.5513626834381555E-2</v>
-      </c>
-      <c r="I42" s="74">
-        <f>H42/I41*30</f>
-        <v>0.98270440251572333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="50"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="54">
-        <v>45296</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="33">
-        <v>110</v>
-      </c>
-      <c r="D44" s="33">
-        <v>540.60110799999995</v>
-      </c>
-      <c r="E44" s="56">
-        <f>Sayfa2!$D44*Sayfa2!$C44</f>
-        <v>59466.121879999992</v>
-      </c>
-      <c r="F44" s="50"/>
-      <c r="H44" s="34"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="35"/>
-      <c r="B45" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="33">
-        <v>110</v>
-      </c>
-      <c r="D45" s="33">
-        <v>565.11282900000003</v>
-      </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="50">
-        <f>Sayfa2!$D45*Sayfa2!$C45</f>
-        <v>62162.411190000006</v>
-      </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="58">
-        <f>A46-A44</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="57">
-        <v>45335</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="37">
-        <v>110</v>
-      </c>
-      <c r="D46" s="37">
-        <f>D45-D44</f>
-        <v>24.51172100000008</v>
-      </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="59">
-        <f>Sayfa2!$D46*Sayfa2!$C46</f>
-        <v>2696.2893100000088</v>
-      </c>
-      <c r="H46" s="74">
-        <f>I46/I45*30</f>
-        <v>3.4878156409550054E-2</v>
-      </c>
-      <c r="I46" s="74">
-        <f>G46/E44</f>
-        <v>4.5341603332415076E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="50"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="54">
-        <v>45222</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="33">
-        <v>9</v>
-      </c>
-      <c r="D48" s="33">
-        <v>130</v>
-      </c>
-      <c r="E48" s="62">
-        <f>Sayfa2!$D48*Sayfa2!$C48</f>
-        <v>1170</v>
-      </c>
-      <c r="F48" s="50"/>
-      <c r="H48" s="34"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="54">
-        <v>45316</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="33">
-        <v>9</v>
-      </c>
-      <c r="D49" s="63">
-        <v>145.5</v>
-      </c>
       <c r="E49" s="36"/>
-      <c r="F49" s="50">
-        <f>Sayfa2!$D49*Sayfa2!$C49</f>
-        <v>1309.5</v>
-      </c>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="58">
-        <f>A50-A48</f>
-        <v>112</v>
+      <c r="F49" s="50"/>
+      <c r="G49" s="59">
+        <f>Sayfa2!$D49*Sayfa2!$C49+D50</f>
+        <v>3778.87</v>
+      </c>
+      <c r="H49" s="74">
+        <f>G49/E47</f>
+        <v>6.3276032980355112E-2</v>
+      </c>
+      <c r="I49" s="74">
+        <f>H49/I48*30</f>
+        <v>0.94914049470532669</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="64">
-        <v>45334</v>
-      </c>
+      <c r="A50" s="57"/>
       <c r="B50" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="37">
-        <v>9</v>
-      </c>
-      <c r="D50" s="37">
-        <f>D49-D48</f>
-        <v>15.5</v>
+        <v>164</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="55">
+        <v>-133.63</v>
       </c>
       <c r="E50" s="36"/>
       <c r="F50" s="50"/>
-      <c r="G50" s="59">
-        <f>Sayfa2!$D50*Sayfa2!$C50</f>
-        <v>139.5</v>
-      </c>
-      <c r="H50" s="74">
-        <f>I50/I49*30</f>
-        <v>3.1936813186813191E-2</v>
-      </c>
-      <c r="I50" s="74">
-        <f>G50/E48</f>
-        <v>0.11923076923076924</v>
-      </c>
+      <c r="G50" s="76"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="54"/>
-      <c r="E51" s="43"/>
+      <c r="A51" s="57"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="50"/>
-      <c r="H51" s="34"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="54"/>
-      <c r="E52" s="43"/>
+      <c r="A52" s="57"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="50"/>
-      <c r="H52" s="34"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="54">
-        <v>45271</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="33">
-        <v>10</v>
-      </c>
-      <c r="D53" s="33">
-        <v>144.001</v>
-      </c>
-      <c r="E53" s="65">
-        <f>Sayfa2!$D53*Sayfa2!$C53</f>
-        <v>1440.01</v>
-      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="50"/>
-      <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="54">
-        <v>45316</v>
+        <v>45296</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="C54" s="33">
-        <v>10</v>
-      </c>
-      <c r="D54" s="63">
-        <v>145.5</v>
-      </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="50">
+        <v>110</v>
+      </c>
+      <c r="D54" s="33">
+        <v>540.60110799999995</v>
+      </c>
+      <c r="E54" s="56">
         <f>Sayfa2!$D54*Sayfa2!$C54</f>
-        <v>1455</v>
-      </c>
-      <c r="G54" s="34"/>
+        <v>59466.121879999992</v>
+      </c>
+      <c r="F54" s="50"/>
       <c r="H54" s="34"/>
-      <c r="I54" s="58">
-        <f>A55-A53</f>
-        <v>63</v>
-      </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="64">
-        <v>45334</v>
-      </c>
+      <c r="A55" s="35"/>
       <c r="B55" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="37">
-        <v>10</v>
-      </c>
-      <c r="D55" s="37">
-        <f>D54-D53</f>
-        <v>1.4989999999999952</v>
+        <v>150</v>
+      </c>
+      <c r="C55" s="33">
+        <v>110</v>
+      </c>
+      <c r="D55" s="33">
+        <v>565.11282900000003</v>
       </c>
       <c r="E55" s="36"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="59">
+      <c r="F55" s="50">
         <f>Sayfa2!$D55*Sayfa2!$C55</f>
-        <v>14.989999999999952</v>
-      </c>
-      <c r="H55" s="74">
-        <f>I55/I54*30</f>
-        <v>4.9569761585650214E-3</v>
-      </c>
-      <c r="I55" s="74">
-        <f>G55/E53</f>
-        <v>1.0409649932986544E-2</v>
+        <v>62162.411190000006</v>
+      </c>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="58">
+        <f>A56-A54</f>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="54"/>
-      <c r="E56" s="43"/>
+      <c r="A56" s="57">
+        <v>45335</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="37">
+        <v>110</v>
+      </c>
+      <c r="D56" s="37">
+        <f>D55-D54</f>
+        <v>24.51172100000008</v>
+      </c>
+      <c r="E56" s="36"/>
       <c r="F56" s="50"/>
-      <c r="H56" s="34"/>
+      <c r="G56" s="59">
+        <f>Sayfa2!$D56*Sayfa2!$C56</f>
+        <v>2696.2893100000088</v>
+      </c>
+      <c r="H56" s="74">
+        <f>I56/I55*30</f>
+        <v>3.4878156409550054E-2</v>
+      </c>
+      <c r="I56" s="74">
+        <f>G56/E54</f>
+        <v>4.5341603332415076E-2</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="54"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="43"/>
       <c r="F57" s="50"/>
-      <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="54">
-        <v>45288</v>
+        <v>45222</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="33">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D58" s="33">
-        <v>115.34</v>
+        <v>130</v>
       </c>
       <c r="E58" s="62">
         <f>Sayfa2!$D58*Sayfa2!$C58</f>
-        <v>2306.8000000000002</v>
+        <v>1170</v>
       </c>
       <c r="F58" s="50"/>
       <c r="H58" s="34"/>
@@ -2408,7 +2431,7 @@
         <v>145</v>
       </c>
       <c r="C59" s="33">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D59" s="63">
         <v>145.5</v>
@@ -2416,13 +2439,13 @@
       <c r="E59" s="36"/>
       <c r="F59" s="50">
         <f>Sayfa2!$D59*Sayfa2!$C59</f>
-        <v>2910</v>
+        <v>1309.5</v>
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="58">
         <f>A60-A58</f>
-        <v>46</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2433,870 +2456,1042 @@
         <v>148</v>
       </c>
       <c r="C60" s="37">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D60" s="37">
         <f>D59-D58</f>
-        <v>30.159999999999997</v>
+        <v>15.5</v>
       </c>
       <c r="E60" s="36"/>
       <c r="F60" s="50"/>
       <c r="G60" s="59">
         <f>Sayfa2!$D60*Sayfa2!$C60</f>
-        <v>603.19999999999993</v>
+        <v>139.5</v>
       </c>
       <c r="H60" s="74">
         <f>I60/I59*30</f>
-        <v>0.17053550561289493</v>
+        <v>3.1936813186813191E-2</v>
       </c>
       <c r="I60" s="74">
         <f>G60/E58</f>
-        <v>0.26148777527310557</v>
+        <v>0.11923076923076924</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="B61" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
+      <c r="A61" s="54"/>
       <c r="E61" s="43"/>
       <c r="F61" s="50"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
+      <c r="A62" s="54"/>
       <c r="E62" s="43"/>
       <c r="F62" s="50"/>
+      <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="54">
-        <v>45322</v>
+        <v>45271</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C63" s="33">
         <v>10</v>
       </c>
       <c r="D63" s="33">
-        <v>555.950107</v>
-      </c>
-      <c r="E63" s="56">
+        <v>144.001</v>
+      </c>
+      <c r="E63" s="65">
         <f>Sayfa2!$D63*Sayfa2!$C63</f>
-        <v>5559.5010700000003</v>
+        <v>1440.01</v>
       </c>
       <c r="F63" s="50"/>
       <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:9">
+      <c r="A64" s="54">
+        <v>45316</v>
+      </c>
       <c r="B64" s="33" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C64" s="33">
         <v>10</v>
       </c>
-      <c r="D64" s="33">
-        <v>564.45009800000003</v>
+      <c r="D64" s="63">
+        <v>145.5</v>
       </c>
       <c r="E64" s="36"/>
       <c r="F64" s="50">
         <f>Sayfa2!$D64*Sayfa2!$C64</f>
-        <v>5644.5009800000007</v>
+        <v>1455</v>
       </c>
       <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
       <c r="I64" s="58">
         <f>A65-A63</f>
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="57">
+      <c r="A65" s="64">
         <v>45334</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C65" s="37">
         <v>10</v>
       </c>
       <c r="D65" s="37">
         <f>D64-D63</f>
-        <v>8.4999910000000227</v>
+        <v>1.4989999999999952</v>
       </c>
       <c r="E65" s="36"/>
       <c r="F65" s="50"/>
       <c r="G65" s="59">
         <f>Sayfa2!$D65*Sayfa2!$C65</f>
-        <v>84.999910000000227</v>
+        <v>14.989999999999952</v>
       </c>
       <c r="H65" s="74">
         <f>I65/I64*30</f>
-        <v>3.8222813940388463E-2</v>
+        <v>4.9569761585650214E-3</v>
       </c>
       <c r="I65" s="74">
         <f>G65/E63</f>
-        <v>1.5289125576155384E-2</v>
+        <v>1.0409649932986544E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
+      <c r="A66" s="54"/>
       <c r="E66" s="43"/>
       <c r="F66" s="50"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="39">
-        <v>45322</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="40">
+      <c r="A67" s="54"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="50"/>
+      <c r="H67" s="34"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="54">
+        <v>45288</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="33">
+        <v>20</v>
+      </c>
+      <c r="D68" s="33">
+        <v>115.34</v>
+      </c>
+      <c r="E68" s="62">
+        <f>Sayfa2!$D68*Sayfa2!$C68</f>
+        <v>2306.8000000000002</v>
+      </c>
+      <c r="F68" s="50"/>
+      <c r="H68" s="34"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="54">
+        <v>45316</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="33">
+        <v>20</v>
+      </c>
+      <c r="D69" s="63">
+        <v>145.5</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="50">
+        <f>Sayfa2!$D69*Sayfa2!$C69</f>
+        <v>2910</v>
+      </c>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="58">
+        <f>A70-A68</f>
         <v>46</v>
       </c>
-      <c r="D67" s="40">
-        <v>555.950107</v>
-      </c>
-      <c r="E67" s="36">
-        <f>Sayfa2!$D67*Sayfa2!$C67</f>
-        <v>25573.704922000001</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="H67" s="41"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="40">
-        <v>46</v>
-      </c>
-      <c r="D68" s="40">
-        <v>559.83385699999997</v>
-      </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="50">
-        <f>Sayfa2!$D68*Sayfa2!$C68</f>
-        <v>25752.357421999997</v>
-      </c>
-      <c r="G68" s="34"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="58">
-        <f>A69-A67</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="72">
-        <v>45327</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="40">
-        <v>46</v>
-      </c>
-      <c r="D69" s="40">
-        <f>D68-D67</f>
-        <v>3.8837499999999636</v>
-      </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="66">
-        <f>Sayfa2!$D69*Sayfa2!$C69</f>
-        <v>178.65249999999833</v>
-      </c>
-      <c r="H69" s="74">
-        <f>I69/I68*30</f>
-        <v>4.1914732467170444E-2</v>
-      </c>
-      <c r="I69" s="74">
-        <f>G69/E67</f>
-        <v>6.9857887445284065E-3</v>
-      </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
+      <c r="A70" s="64">
+        <v>45334</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="37">
+        <v>20</v>
+      </c>
+      <c r="D70" s="37">
+        <f>D69-D68</f>
+        <v>30.159999999999997</v>
+      </c>
       <c r="E70" s="36"/>
       <c r="F70" s="50"/>
-      <c r="H70" s="38"/>
+      <c r="G70" s="59">
+        <f>Sayfa2!$D70*Sayfa2!$C70</f>
+        <v>603.19999999999993</v>
+      </c>
+      <c r="H70" s="74">
+        <f>I70/I69*30</f>
+        <v>0.17053550561289493</v>
+      </c>
+      <c r="I70" s="74">
+        <f>G70/E68</f>
+        <v>0.26148777527310557</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="B71" s="40"/>
+      <c r="B71" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" s="40"/>
       <c r="D71" s="40"/>
-      <c r="E71" s="36"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="50"/>
-      <c r="H71" s="38"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="39">
-        <v>45267</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="40">
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="50"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="54">
+        <v>45322</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="33">
         <v>10</v>
       </c>
-      <c r="D72" s="40">
-        <v>49.18</v>
-      </c>
-      <c r="E72" s="36">
-        <f>Sayfa2!$D72*Sayfa2!$C72</f>
-        <v>491.8</v>
-      </c>
-      <c r="F72" s="50"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="40"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="42"/>
-      <c r="B73" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="40">
+      <c r="D73" s="33">
+        <v>555.950107</v>
+      </c>
+      <c r="E73" s="56">
+        <f>Sayfa2!$D73*Sayfa2!$C73</f>
+        <v>5559.5010700000003</v>
+      </c>
+      <c r="F73" s="50"/>
+      <c r="H73" s="34"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="33">
         <v>10</v>
       </c>
-      <c r="D73" s="44">
-        <v>52</v>
-      </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="50">
-        <f>Sayfa2!$D73*Sayfa2!$C73</f>
-        <v>520</v>
-      </c>
-      <c r="G73" s="34"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="58">
-        <f>A74-A72</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="67">
-        <v>45327</v>
-      </c>
-      <c r="B74" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="40">
+      <c r="D74" s="33">
+        <v>564.45009800000003</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="50">
+        <f>Sayfa2!$D74*Sayfa2!$C74</f>
+        <v>5644.5009800000007</v>
+      </c>
+      <c r="G74" s="34"/>
+      <c r="I74" s="58">
+        <f>A75-A73</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="57">
+        <v>45334</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="37">
         <v>10</v>
       </c>
-      <c r="D74" s="40">
-        <f>D73-D72</f>
-        <v>2.8200000000000003</v>
-      </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="59">
-        <f>Sayfa2!$D74*Sayfa2!$C74</f>
-        <v>28.200000000000003</v>
-      </c>
-      <c r="H74" s="74">
-        <f>I74/I73*30</f>
-        <v>2.8670191134607566E-2</v>
-      </c>
-      <c r="I74" s="74">
-        <f>G74/E72</f>
-        <v>5.7340382269215132E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="D75" s="37">
+        <f>D74-D73</f>
+        <v>8.4999910000000227</v>
+      </c>
       <c r="E75" s="36"/>
       <c r="F75" s="50"/>
-      <c r="H75" s="34"/>
+      <c r="G75" s="59">
+        <f>Sayfa2!$D75*Sayfa2!$C75</f>
+        <v>84.999910000000227</v>
+      </c>
+      <c r="H75" s="74">
+        <f>I75/I74*30</f>
+        <v>3.8222813940388463E-2</v>
+      </c>
+      <c r="I75" s="74">
+        <f>G75/E73</f>
+        <v>1.5289125576155384E-2</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="54">
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="50"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="39">
+        <v>45322</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="40">
+        <v>46</v>
+      </c>
+      <c r="D77" s="40">
+        <v>555.950107</v>
+      </c>
+      <c r="E77" s="36">
+        <f>Sayfa2!$D77*Sayfa2!$C77</f>
+        <v>25573.704922000001</v>
+      </c>
+      <c r="F77" s="50"/>
+      <c r="H77" s="41"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="40"/>
+      <c r="B78" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="40">
+        <v>46</v>
+      </c>
+      <c r="D78" s="40">
+        <v>559.83385699999997</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="50">
+        <f>Sayfa2!$D78*Sayfa2!$C78</f>
+        <v>25752.357421999997</v>
+      </c>
+      <c r="G78" s="34"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="58">
+        <f>A79-A77</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="72">
+        <v>45327</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="40">
+        <v>46</v>
+      </c>
+      <c r="D79" s="40">
+        <f>D78-D77</f>
+        <v>3.8837499999999636</v>
+      </c>
+      <c r="E79" s="36"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="66">
+        <f>Sayfa2!$D79*Sayfa2!$C79</f>
+        <v>178.65249999999833</v>
+      </c>
+      <c r="H79" s="74">
+        <f>I79/I78*30</f>
+        <v>4.1914732467170444E-2</v>
+      </c>
+      <c r="I79" s="74">
+        <f>G79/E77</f>
+        <v>6.9857887445284065E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="50"/>
+      <c r="H80" s="38"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="50"/>
+      <c r="H81" s="38"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="39">
         <v>45267</v>
       </c>
-      <c r="B76" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="33">
-        <v>13</v>
-      </c>
-      <c r="D76" s="33">
-        <v>28.3</v>
-      </c>
-      <c r="E76" s="56">
-        <f>Sayfa2!$D76*Sayfa2!$C76</f>
-        <v>367.90000000000003</v>
-      </c>
-      <c r="F76" s="50"/>
-      <c r="H76" s="34"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="33">
-        <v>13</v>
-      </c>
-      <c r="D77" s="33">
-        <v>41.6</v>
-      </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="50">
-        <f>Sayfa2!$D77*Sayfa2!$C77</f>
-        <v>540.80000000000007</v>
-      </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="68">
-        <f>A78-A76</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="37">
-        <v>13</v>
-      </c>
-      <c r="D78" s="37">
-        <v>13.3</v>
-      </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="59">
-        <f>Sayfa2!$D78*Sayfa2!$C78</f>
-        <v>172.9</v>
-      </c>
-      <c r="H78" s="74">
-        <f>I78/I77*30</f>
-        <v>0.30649869411583958</v>
-      </c>
-      <c r="I78" s="75">
-        <f>G78/E76</f>
-        <v>0.46996466431095402</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="54"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="50"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="54"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="50"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="54">
-        <v>45273</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="33">
-        <v>26</v>
-      </c>
-      <c r="D81" s="33">
-        <v>55.08</v>
-      </c>
-      <c r="E81" s="56">
-        <f>Sayfa2!$D81*Sayfa2!$C81</f>
-        <v>1432.08</v>
-      </c>
-      <c r="F81" s="50"/>
-      <c r="H81" s="34"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="33">
-        <v>26</v>
-      </c>
-      <c r="D82" s="33">
-        <v>51.4</v>
-      </c>
-      <c r="E82" s="36"/>
-      <c r="F82" s="50">
+      <c r="B82" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="40">
+        <v>10</v>
+      </c>
+      <c r="D82" s="40">
+        <v>49.18</v>
+      </c>
+      <c r="E82" s="36">
         <f>Sayfa2!$D82*Sayfa2!$C82</f>
-        <v>1336.3999999999999</v>
-      </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
+        <v>491.8</v>
+      </c>
+      <c r="F82" s="50"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="40"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="37">
-        <v>26</v>
-      </c>
-      <c r="D83" s="37">
-        <f>D82-D81</f>
-        <v>-3.6799999999999997</v>
+      <c r="A83" s="42"/>
+      <c r="B83" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="40">
+        <v>10</v>
+      </c>
+      <c r="D83" s="44">
+        <v>52</v>
       </c>
       <c r="E83" s="36"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="71">
+      <c r="F83" s="50">
         <f>Sayfa2!$D83*Sayfa2!$C83</f>
-        <v>-95.679999999999993</v>
-      </c>
-      <c r="H83" s="34"/>
+        <v>520</v>
+      </c>
+      <c r="G83" s="34"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="58">
+        <f>A84-A82</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="54"/>
+      <c r="A84" s="67">
+        <v>45327</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="40">
+        <v>10</v>
+      </c>
+      <c r="D84" s="40">
+        <f>D83-D82</f>
+        <v>2.8200000000000003</v>
+      </c>
       <c r="E84" s="36"/>
       <c r="F84" s="50"/>
-      <c r="H84" s="34"/>
+      <c r="G84" s="59">
+        <f>Sayfa2!$D84*Sayfa2!$C84</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="H84" s="74">
+        <f>I84/I83*30</f>
+        <v>2.8670191134607566E-2</v>
+      </c>
+      <c r="I84" s="74">
+        <f>G84/E82</f>
+        <v>5.7340382269215132E-2</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="54">
-        <v>45288</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="33">
-        <v>100</v>
-      </c>
-      <c r="D85" s="33">
-        <v>39.5</v>
-      </c>
-      <c r="E85" s="56">
-        <f>Sayfa2!$D85*Sayfa2!$C85</f>
-        <v>3950</v>
-      </c>
+      <c r="E85" s="36"/>
       <c r="F85" s="50"/>
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="54">
-        <v>45313</v>
+        <v>45267</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C86" s="33">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D86" s="33">
-        <v>51.4</v>
-      </c>
-      <c r="E86" s="36"/>
-      <c r="F86" s="50">
+        <v>28.3</v>
+      </c>
+      <c r="E86" s="56">
         <f>Sayfa2!$D86*Sayfa2!$C86</f>
-        <v>5140</v>
-      </c>
-      <c r="G86" s="34"/>
+        <v>367.90000000000003</v>
+      </c>
+      <c r="F86" s="50"/>
       <c r="H86" s="34"/>
-      <c r="I86" s="33">
-        <f>A82-A81</f>
-        <v>40</v>
-      </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="54">
         <v>45313</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="37">
-        <v>100</v>
-      </c>
-      <c r="D87" s="37">
-        <f>D86-D85</f>
-        <v>11.899999999999999</v>
+        <v>31</v>
+      </c>
+      <c r="C87" s="33">
+        <v>13</v>
+      </c>
+      <c r="D87" s="33">
+        <v>41.6</v>
       </c>
       <c r="E87" s="36"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="71">
+      <c r="F87" s="50">
         <f>Sayfa2!$D87*Sayfa2!$C87</f>
-        <v>1189.9999999999998</v>
-      </c>
-      <c r="H87" s="74">
-        <f>I87/I86*30</f>
-        <v>0.15249494619180684</v>
-      </c>
-      <c r="I87" s="75">
-        <f>(G83+G87)/(E85+E81)</f>
-        <v>0.20332659492240912</v>
+        <v>540.80000000000007</v>
+      </c>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="68">
+        <f>A88-A86</f>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:9">
+      <c r="A88" s="54">
+        <v>45313</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="37">
+        <v>13</v>
+      </c>
+      <c r="D88" s="37">
+        <v>13.3</v>
+      </c>
       <c r="E88" s="36"/>
       <c r="F88" s="50"/>
+      <c r="G88" s="59">
+        <f>Sayfa2!$D88*Sayfa2!$C88</f>
+        <v>172.9</v>
+      </c>
+      <c r="H88" s="74">
+        <f>I88/I87*30</f>
+        <v>0.30649869411583958</v>
+      </c>
+      <c r="I88" s="75">
+        <f>G88/E86</f>
+        <v>0.46996466431095402</v>
+      </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="E89" s="36"/>
+      <c r="A89" s="54"/>
+      <c r="E89" s="69"/>
       <c r="F89" s="50"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="54">
-        <v>45267</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="33">
-        <v>300</v>
-      </c>
-      <c r="D90" s="33">
-        <v>18.207357999999999</v>
-      </c>
-      <c r="E90" s="56">
-        <f>Sayfa2!$D90*Sayfa2!$C90</f>
-        <v>5462.2073999999993</v>
-      </c>
+      <c r="A90" s="54"/>
+      <c r="E90" s="70"/>
       <c r="F90" s="50"/>
-      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="54">
-        <v>45288</v>
+        <v>45273</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C91" s="33">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="D91" s="33">
-        <v>18.625761000000001</v>
-      </c>
-      <c r="E91" s="36"/>
-      <c r="F91" s="50">
+        <v>55.08</v>
+      </c>
+      <c r="E91" s="56">
         <f>Sayfa2!$D91*Sayfa2!$C91</f>
-        <v>5587.7282999999998</v>
-      </c>
-      <c r="G91" s="34"/>
+        <v>1432.08</v>
+      </c>
+      <c r="F91" s="50"/>
       <c r="H91" s="34"/>
-      <c r="I91" s="33">
-        <f>A92-A90</f>
-        <v>21</v>
-      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="54">
-        <v>45288</v>
+        <v>45313</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="37">
-        <v>300</v>
-      </c>
-      <c r="D92" s="37">
-        <f>D91-D90</f>
-        <v>0.41840300000000141</v>
+        <v>34</v>
+      </c>
+      <c r="C92" s="33">
+        <v>26</v>
+      </c>
+      <c r="D92" s="33">
+        <v>51.4</v>
       </c>
       <c r="E92" s="36"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="71">
+      <c r="F92" s="50">
         <f>Sayfa2!$D92*Sayfa2!$C92</f>
-        <v>125.52090000000042</v>
-      </c>
-      <c r="H92" s="74">
-        <f>I92/I91*30</f>
-        <v>3.209096108494968E-2</v>
-      </c>
-      <c r="I92" s="75">
-        <f>G92/F91</f>
-        <v>2.2463672759464776E-2</v>
-      </c>
+        <v>1336.3999999999999</v>
+      </c>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="35"/>
+      <c r="A93" s="54">
+        <v>45313</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="37">
+        <v>26</v>
+      </c>
+      <c r="D93" s="37">
+        <f>D92-D91</f>
+        <v>-3.6799999999999997</v>
+      </c>
       <c r="E93" s="36"/>
       <c r="F93" s="50"/>
+      <c r="G93" s="71">
+        <f>Sayfa2!$D93*Sayfa2!$C93</f>
+        <v>-95.679999999999993</v>
+      </c>
       <c r="H93" s="34"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="35">
-        <v>45267</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" s="33">
-        <v>10</v>
-      </c>
-      <c r="D94" s="33">
-        <v>523.88987099999997</v>
-      </c>
-      <c r="E94" s="56">
-        <f>Sayfa2!$D94*Sayfa2!$C94</f>
-        <v>5238.8987099999995</v>
-      </c>
+      <c r="A94" s="54"/>
+      <c r="E94" s="36"/>
       <c r="F94" s="50"/>
       <c r="H94" s="34"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="35">
-        <v>45293</v>
+      <c r="A95" s="54">
+        <v>45288</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C95" s="33">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D95" s="33">
-        <v>538.78970700000002</v>
-      </c>
-      <c r="E95" s="36"/>
-      <c r="F95" s="50">
+        <v>39.5</v>
+      </c>
+      <c r="E95" s="56">
         <f>Sayfa2!$D95*Sayfa2!$C95</f>
-        <v>5387.89707</v>
-      </c>
-      <c r="G95" s="34"/>
+        <v>3950</v>
+      </c>
+      <c r="F95" s="50"/>
       <c r="H95" s="34"/>
-      <c r="I95" s="33">
-        <f>A96-A94</f>
-        <v>26</v>
-      </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="35">
-        <v>45293</v>
+      <c r="A96" s="54">
+        <v>45313</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="37">
-        <v>10</v>
-      </c>
-      <c r="D96" s="37">
-        <f>D95-D94</f>
-        <v>14.89983600000005</v>
+        <v>34</v>
+      </c>
+      <c r="C96" s="33">
+        <v>100</v>
+      </c>
+      <c r="D96" s="33">
+        <v>51.4</v>
       </c>
       <c r="E96" s="36"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="71">
+      <c r="F96" s="50">
         <f>Sayfa2!$D96*Sayfa2!$C96</f>
-        <v>148.9983600000005</v>
-      </c>
-      <c r="H96" s="74">
-        <f>I96/I95*30</f>
-        <v>3.1908773011394068E-2</v>
-      </c>
-      <c r="I96" s="75">
-        <f>G96/F95</f>
-        <v>2.7654269943208194E-2</v>
+        <v>5140</v>
+      </c>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="33">
+        <f>A92-A91</f>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="35"/>
+      <c r="A97" s="54">
+        <v>45313</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="37">
+        <v>100</v>
+      </c>
+      <c r="D97" s="37">
+        <f>D96-D95</f>
+        <v>11.899999999999999</v>
+      </c>
       <c r="E97" s="36"/>
       <c r="F97" s="50"/>
-      <c r="H97" s="34"/>
+      <c r="G97" s="71">
+        <f>Sayfa2!$D97*Sayfa2!$C97</f>
+        <v>1189.9999999999998</v>
+      </c>
+      <c r="H97" s="74">
+        <f>I97/I96*30</f>
+        <v>0.15249494619180684</v>
+      </c>
+      <c r="I97" s="75">
+        <f>(G93+G97)/(E95+E91)</f>
+        <v>0.20332659492240912</v>
+      </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="35">
-        <v>45273</v>
-      </c>
-      <c r="B98" s="33" t="s">
+      <c r="E98" s="36"/>
+      <c r="F98" s="50"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="E99" s="36"/>
+      <c r="F99" s="50"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="54">
+        <v>45267</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="33">
+        <v>300</v>
+      </c>
+      <c r="D100" s="33">
+        <v>18.207357999999999</v>
+      </c>
+      <c r="E100" s="56">
+        <f>Sayfa2!$D100*Sayfa2!$C100</f>
+        <v>5462.2073999999993</v>
+      </c>
+      <c r="F100" s="50"/>
+      <c r="H100" s="34"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="54">
+        <v>45288</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="33">
+        <v>300</v>
+      </c>
+      <c r="D101" s="33">
+        <v>18.625761000000001</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="50">
+        <f>Sayfa2!$D101*Sayfa2!$C101</f>
+        <v>5587.7282999999998</v>
+      </c>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="33">
+        <f>A102-A100</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="54">
+        <v>45288</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="37">
+        <v>300</v>
+      </c>
+      <c r="D102" s="37">
+        <f>D101-D100</f>
+        <v>0.41840300000000141</v>
+      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="71">
+        <f>Sayfa2!$D102*Sayfa2!$C102</f>
+        <v>125.52090000000042</v>
+      </c>
+      <c r="H102" s="74">
+        <f>I102/I101*30</f>
+        <v>3.209096108494968E-2</v>
+      </c>
+      <c r="I102" s="75">
+        <f>G102/F101</f>
+        <v>2.2463672759464776E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="35"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="50"/>
+      <c r="H103" s="34"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="35">
+        <v>45267</v>
+      </c>
+      <c r="B104" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="33">
-        <v>40</v>
-      </c>
-      <c r="D98" s="33">
-        <v>527.21223999999995</v>
-      </c>
-      <c r="E98" s="56">
-        <f>Sayfa2!$D98*Sayfa2!$C98</f>
-        <v>21088.489599999997</v>
-      </c>
-      <c r="F98" s="50"/>
-      <c r="H98" s="34"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="35">
+      <c r="C104" s="33">
+        <v>10</v>
+      </c>
+      <c r="D104" s="33">
+        <v>523.88987099999997</v>
+      </c>
+      <c r="E104" s="56">
+        <f>Sayfa2!$D104*Sayfa2!$C104</f>
+        <v>5238.8987099999995</v>
+      </c>
+      <c r="F104" s="50"/>
+      <c r="H104" s="34"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="35">
         <v>45293</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B105" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="33">
-        <v>28</v>
-      </c>
-      <c r="D99" s="33">
-        <f>D95</f>
+      <c r="C105" s="33">
+        <v>10</v>
+      </c>
+      <c r="D105" s="33">
         <v>538.78970700000002</v>
       </c>
-      <c r="E99" s="36"/>
-      <c r="F99" s="50">
-        <f>Sayfa2!$D99*Sayfa2!$C99</f>
-        <v>15086.111796000001</v>
-      </c>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="33">
-        <f>A100-A98</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="35">
+      <c r="E105" s="36"/>
+      <c r="F105" s="50">
+        <f>Sayfa2!$D105*Sayfa2!$C105</f>
+        <v>5387.89707</v>
+      </c>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="33">
+        <f>A106-A104</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="35">
         <v>45293</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B106" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C100" s="37">
-        <v>28</v>
-      </c>
-      <c r="D100" s="37">
-        <f>D99-D98</f>
-        <v>11.57746700000007</v>
-      </c>
-      <c r="E100" s="36"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="71">
-        <f>Sayfa2!$D100*Sayfa2!$C100</f>
-        <v>324.16907600000195</v>
-      </c>
-      <c r="H100" s="74">
-        <f>I100/I99*30</f>
-        <v>3.2231871311528416E-2</v>
-      </c>
-      <c r="I100" s="75">
-        <f>G100/F99</f>
-        <v>2.1487914207685612E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="35"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="50"/>
-      <c r="H101" s="34"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="35">
-        <v>45295</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C102" s="33">
-        <v>22</v>
-      </c>
-      <c r="D102" s="33">
-        <v>540.000044</v>
-      </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="50">
-        <f>Sayfa2!$D102*Sayfa2!$C102</f>
-        <v>11880.000968</v>
-      </c>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="33">
-        <f>A103-A98</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="35">
-        <v>45295</v>
-      </c>
-      <c r="B103" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="37">
-        <v>22</v>
-      </c>
-      <c r="D103" s="37">
-        <f>D102-D98</f>
-        <v>12.787804000000051</v>
-      </c>
-      <c r="E103" s="36"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="71">
-        <f>Sayfa2!$D103*Sayfa2!$C103</f>
-        <v>281.33168800000112</v>
-      </c>
-      <c r="H103" s="74">
-        <f>I103/I102*30</f>
-        <v>3.2292431712199296E-2</v>
-      </c>
-      <c r="I103" s="75">
-        <f>G103/F102</f>
-        <v>2.3681116588946151E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="35"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="34"/>
-      <c r="H104" s="34"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="35"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="34"/>
-      <c r="H105" s="34"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="35"/>
+      <c r="C106" s="37">
+        <v>10</v>
+      </c>
+      <c r="D106" s="37">
+        <f>D105-D104</f>
+        <v>14.89983600000005</v>
+      </c>
       <c r="E106" s="36"/>
-      <c r="F106" s="34"/>
-      <c r="H106" s="34"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="71">
+        <f>Sayfa2!$D106*Sayfa2!$C106</f>
+        <v>148.9983600000005</v>
+      </c>
+      <c r="H106" s="74">
+        <f>I106/I105*30</f>
+        <v>3.1908773011394068E-2</v>
+      </c>
+      <c r="I106" s="75">
+        <f>G106/F105</f>
+        <v>2.7654269943208194E-2</v>
+      </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="35"/>
       <c r="E107" s="36"/>
-      <c r="F107" s="34"/>
+      <c r="F107" s="50"/>
       <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="35"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="34"/>
+      <c r="A108" s="35">
+        <v>45273</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="33">
+        <v>40</v>
+      </c>
+      <c r="D108" s="33">
+        <v>527.21223999999995</v>
+      </c>
+      <c r="E108" s="56">
+        <f>Sayfa2!$D108*Sayfa2!$C108</f>
+        <v>21088.489599999997</v>
+      </c>
+      <c r="F108" s="50"/>
       <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="35"/>
+      <c r="A109" s="35">
+        <v>45293</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="33">
+        <v>28</v>
+      </c>
+      <c r="D109" s="33">
+        <f>D105</f>
+        <v>538.78970700000002</v>
+      </c>
       <c r="E109" s="36"/>
-      <c r="F109" s="34"/>
+      <c r="F109" s="50">
+        <f>Sayfa2!$D109*Sayfa2!$C109</f>
+        <v>15086.111796000001</v>
+      </c>
+      <c r="G109" s="34"/>
       <c r="H109" s="34"/>
+      <c r="I109" s="33">
+        <f>A110-A108</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="35"/>
+      <c r="A110" s="35">
+        <v>45293</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="37">
+        <v>28</v>
+      </c>
+      <c r="D110" s="37">
+        <f>D109-D108</f>
+        <v>11.57746700000007</v>
+      </c>
       <c r="E110" s="36"/>
-      <c r="F110" s="34"/>
-      <c r="H110" s="34"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="71">
+        <f>Sayfa2!$D110*Sayfa2!$C110</f>
+        <v>324.16907600000195</v>
+      </c>
+      <c r="H110" s="74">
+        <f>I110/I109*30</f>
+        <v>3.2231871311528416E-2</v>
+      </c>
+      <c r="I110" s="75">
+        <f>G110/F109</f>
+        <v>2.1487914207685612E-2</v>
+      </c>
     </row>
     <row r="111" spans="1:9">
+      <c r="A111" s="35"/>
       <c r="E111" s="36"/>
+      <c r="F111" s="50"/>
+      <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:9">
+      <c r="A112" s="35">
+        <v>45295</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="33">
+        <v>22</v>
+      </c>
+      <c r="D112" s="33">
+        <v>540.000044</v>
+      </c>
       <c r="E112" s="36"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="54"/>
+      <c r="F112" s="50">
+        <f>Sayfa2!$D112*Sayfa2!$C112</f>
+        <v>11880.000968</v>
+      </c>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="33">
+        <f>A113-A108</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="35">
+        <v>45295</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="37">
+        <v>22</v>
+      </c>
+      <c r="D113" s="37">
+        <f>D112-D108</f>
+        <v>12.787804000000051</v>
+      </c>
       <c r="E113" s="36"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="54"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="71">
+        <f>Sayfa2!$D113*Sayfa2!$C113</f>
+        <v>281.33168800000112</v>
+      </c>
+      <c r="H113" s="74">
+        <f>I113/I112*30</f>
+        <v>3.2292431712199296E-2</v>
+      </c>
+      <c r="I113" s="75">
+        <f>G113/F112</f>
+        <v>2.3681116588946151E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="35"/>
       <c r="E114" s="36"/>
+      <c r="F114" s="34"/>
+      <c r="H114" s="34"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="35"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="34"/>
+      <c r="H115" s="34"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="35"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="34"/>
+      <c r="H116" s="34"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="35"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="34"/>
+      <c r="H117" s="34"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="35"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="34"/>
+      <c r="H118" s="34"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="35"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="34"/>
+      <c r="H119" s="34"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="35"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="34"/>
+      <c r="H120" s="34"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="E121" s="36"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="E122" s="36"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="54"/>
+      <c r="E123" s="36"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="54"/>
+      <c r="E124" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -3315,7 +3510,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F12:H12 F67:H67 F31:H31 F63:H63 F50:G50 F51:H53 I50 F19:H20 F87:G87 G26:H26 F55:H58 G21 F45 F44:H44 F46:H46 H45 F49 F48:H48 H49 F54 H54 F59 F60:H60 H59 F73 F72:H72 H73 F77 F74:H76 H77 F82 F81:H81 H82 F86 F83:H85 H86 F91 F90:H90 F92:G92 H91 F95 F93:H94 F96:G96 H95 F99 F97:H98 H99 F102 F101:H101 H102 F103:H110 I100 F100:G100 I87 G16</xm:sqref>
+          <xm:sqref>G23 F77:H77 F38:H38 F73:H73 F60:G60 F61:H63 I60 F26:H27 F97:G97 G33:H33 F65:H68 G28 F55 F54:H54 F56:H56 H55 F59 F58:H58 H59 F64 H64 F69 F70:H70 H69 F83 F82:H82 H83 F87 F84:H86 H87 F92 F91:H91 H92 F96 F93:H95 H96 F101 F100:H100 F102:G102 H101 F105 F103:H104 F106:G106 H105 F109 F107:H108 H109 F112 F111:H111 H112 F113:H120 I110 F110:G110 I97 G17 G11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5BB0F-869F-41EB-90AC-6E3DC6C604A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C2EF46-0BE9-4180-8AD7-6262C9B19ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="182">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -133,9 +133,6 @@
     <t>birim fiyat</t>
   </si>
   <si>
-    <t>Hesap</t>
-  </si>
-  <si>
     <t>Tutar</t>
   </si>
   <si>
@@ -511,12 +508,6 @@
     <t>Avrupakent GYO Satış Geliri</t>
   </si>
   <si>
-    <t>Sütun1</t>
-  </si>
-  <si>
-    <t>Sütun2</t>
-  </si>
-  <si>
     <t>Mevcut</t>
   </si>
   <si>
@@ -538,37 +529,86 @@
     <t>NET TL</t>
   </si>
   <si>
-    <t>Aylık</t>
-  </si>
-  <si>
     <t>komisyon</t>
   </si>
   <si>
-    <t>32,3820 * 18,01€ = 583,20</t>
-  </si>
-  <si>
     <t>LMKDC halkaarz</t>
   </si>
   <si>
-    <t>LMKDC satış</t>
-  </si>
-  <si>
-    <t>LMKDC gelir</t>
+    <t>TTE Fon alış</t>
+  </si>
+  <si>
+    <t>ALIŞ</t>
+  </si>
+  <si>
+    <t>SATIŞ</t>
+  </si>
+  <si>
+    <t>FARK</t>
+  </si>
+  <si>
+    <t>Tutar2</t>
+  </si>
+  <si>
+    <t>Miktar</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Tutar3</t>
+  </si>
+  <si>
+    <t>GÜN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY </t>
+  </si>
+  <si>
+    <t>Tarih2</t>
+  </si>
+  <si>
+    <t>Miktar3</t>
+  </si>
+  <si>
+    <t>Fiyat</t>
+  </si>
+  <si>
+    <t>Mktr</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euro </t>
+  </si>
+  <si>
+    <t>Euro satış LMKDC için</t>
+  </si>
+  <si>
+    <t>XAU</t>
+  </si>
+  <si>
+    <t>ALVES halkaarz</t>
+  </si>
+  <si>
+    <t>OBAMS halkaarz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="d\.mmm"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+  <numFmts count="7">
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="169" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="171" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -727,8 +767,14 @@
       <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,6 +895,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -899,7 +957,7 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,14 +993,11 @@
     <xf numFmtId="4" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,33 +1008,89 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="19" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="20" fillId="13" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="13" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="21" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="18" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="24" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1006,7 +1117,7 @@
     <cellStyle name="Warning 21" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Yüzde" xfId="22" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1024,6 +1135,58 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Liberation Sans1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="#,##0.000000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1116,18 +1279,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:I116" totalsRowShown="0">
-  <autoFilter ref="A8:I116" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="tarih"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:M122" totalsRowShown="0">
+  <autoFilter ref="A8:M122" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Açıklama"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="adet"/>
+    <tableColumn id="14" xr3:uid="{14C635C0-A2B7-4CD1-9422-A5A044293C07}" name="tarih" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{B85EB234-503C-47DE-B516-6C24B7106350}" name="adet" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="birim fiyat"/>
-    <tableColumn id="10" xr3:uid="{29742D95-3580-43F2-99B1-A96453A17C73}" name="Tutar" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Hesap"/>
-    <tableColumn id="11" xr3:uid="{BF580679-CB93-4B1D-9D98-3E93F56EBE01}" name="Sütun1" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Aylık"/>
-    <tableColumn id="9" xr3:uid="{5B8EA65F-970F-4132-BAB4-53FD10BB59AA}" name="Sütun2"/>
+    <tableColumn id="10" xr3:uid="{29742D95-3580-43F2-99B1-A96453A17C73}" name="Tutar" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{3D12E663-60FF-492B-BED5-F82E9F708C0C}" name="Tarih2" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{AE9F45A6-081C-4108-99AC-AAECA36FD297}" name="Miktar" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B8686873-6881-42EC-88F2-A1C5140B6E41}" name="Fiyat" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tutar3"/>
+    <tableColumn id="11" xr3:uid="{BF580679-CB93-4B1D-9D98-3E93F56EBE01}" name="Miktar3" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tutar2"/>
+    <tableColumn id="13" xr3:uid="{F2210C53-71DE-4182-ADA1-DA7F836D8145}" name="Mktr" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{5B8EA65F-970F-4132-BAB4-53FD10BB59AA}" name="%"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1576,1922 +1743,2989 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.5703125" style="33"/>
+    <col min="1" max="1" width="20" style="33" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.5703125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="E1" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="45" t="s">
+    <row r="1" spans="1:14">
+      <c r="E1" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="109"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="K3" s="97">
+        <f>SUM(K4:K5)</f>
+        <v>218504.018014</v>
+      </c>
+      <c r="L3" s="96"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="D4" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="92">
+        <f>SUBTOTAL(109,E30:E120)</f>
+        <v>293375.61620799993</v>
+      </c>
+      <c r="F4" s="110"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="75">
+        <f>SUBTOTAL(109,I30:I120)</f>
+        <v>311144.54876600002</v>
+      </c>
+      <c r="J4" s="79"/>
+      <c r="K4" s="92">
+        <f>SUBTOTAL(109,J30:J119)</f>
+        <v>12363.180158000014</v>
+      </c>
+      <c r="L4" s="91">
+        <f>K4/E4</f>
+        <v>4.2141130601783421E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="D5" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="43">
+        <f>SUBTOTAL(109,E9:E28)</f>
+        <v>307741.24214400002</v>
+      </c>
+      <c r="I5" s="44">
+        <f>SUBTOTAL(109,I9:I28)</f>
+        <v>583.19982000000005</v>
+      </c>
+      <c r="K5" s="93">
+        <f>SUBTOTAL(109,K9:K28)</f>
+        <v>206140.837856</v>
+      </c>
+      <c r="L5" s="46">
+        <f>K5/E5</f>
+        <v>0.66985119192942433</v>
+      </c>
+      <c r="M5" s="85">
+        <f>SUBTOTAL(101,M9:M21)</f>
+        <v>0.29260124614802097</v>
+      </c>
+      <c r="N5" s="85">
+        <f>SUBTOTAL(101,N9:N21)</f>
+        <v>0.1649121170990934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="D6" s="88"/>
+      <c r="E6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="N7" s="86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="N8" s="87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="78"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="78"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="106"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="118"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="106"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="118"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="100">
+        <v>45344</v>
+      </c>
+      <c r="C12" s="106">
+        <v>38</v>
+      </c>
+      <c r="D12" s="36">
+        <v>39.24</v>
+      </c>
+      <c r="E12" s="60">
+        <f>Sayfa2!$D12*Sayfa2!$C12</f>
+        <v>1491.1200000000001</v>
+      </c>
+      <c r="F12" s="100">
+        <v>45348</v>
+      </c>
+      <c r="G12" s="79"/>
+      <c r="H12" s="69">
+        <v>40</v>
+      </c>
+      <c r="I12" s="75">
+        <f>Sayfa2!$H12*Sayfa2!$G12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="106">
+        <f>H12-D12</f>
+        <v>0.75999999999999801</v>
+      </c>
+      <c r="K12" s="51">
+        <f>Sayfa2!$J12*Sayfa2!$C12</f>
+        <v>28.879999999999924</v>
+      </c>
+      <c r="L12" s="50">
+        <f>F12-B12</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="85">
+        <f>K12/E12</f>
+        <v>1.9367991845056012E-2</v>
+      </c>
+      <c r="N12" s="85">
+        <f>M12/L12*30</f>
+        <v>0.1452599388379201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="100">
+        <v>45344</v>
+      </c>
+      <c r="C13" s="106">
+        <v>25</v>
+      </c>
+      <c r="D13" s="36">
+        <v>19.45</v>
+      </c>
+      <c r="E13" s="60">
+        <f>Sayfa2!$D13*Sayfa2!$C13</f>
+        <v>486.25</v>
+      </c>
+      <c r="F13" s="100">
+        <v>45348</v>
+      </c>
+      <c r="G13" s="79"/>
+      <c r="H13" s="69">
+        <v>20</v>
+      </c>
+      <c r="I13" s="75">
+        <f>Sayfa2!$H13*Sayfa2!$G13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="106">
+        <f>H13-D13</f>
+        <v>0.55000000000000071</v>
+      </c>
+      <c r="K13" s="51">
+        <f>Sayfa2!$J13*Sayfa2!$C13</f>
+        <v>13.750000000000018</v>
+      </c>
+      <c r="L13" s="50">
+        <f>F13-B13</f>
+        <v>4</v>
+      </c>
+      <c r="M13" s="85">
+        <f>K13/E13</f>
+        <v>2.8277634961439625E-2</v>
+      </c>
+      <c r="N13" s="85">
+        <f>M13/L13*30</f>
+        <v>0.21208226221079718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="100">
+        <v>45344</v>
+      </c>
+      <c r="C14" s="106">
+        <v>50000</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0.97160599999999997</v>
+      </c>
+      <c r="E14" s="60">
+        <f>Sayfa2!$D14*Sayfa2!$C14</f>
+        <v>48580.299999999996</v>
+      </c>
+      <c r="F14" s="100">
+        <v>45348</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="69">
+        <v>0.98</v>
+      </c>
+      <c r="I14" s="75">
+        <f>Sayfa2!$H14*Sayfa2!$G14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="106">
+        <f>H14-D14</f>
+        <v>8.3940000000000126E-3</v>
+      </c>
+      <c r="K14" s="51">
+        <f>Sayfa2!$J14*Sayfa2!$C14</f>
+        <v>419.70000000000061</v>
+      </c>
+      <c r="L14" s="50">
+        <f>F14-B14</f>
+        <v>4</v>
+      </c>
+      <c r="M14" s="85">
+        <f>K14/E14</f>
+        <v>8.6393044094005313E-3</v>
+      </c>
+      <c r="N14" s="85">
+        <f>M14/L14*30</f>
+        <v>6.4794783070503986E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="100">
+        <v>45344</v>
+      </c>
+      <c r="C15" s="106">
+        <v>80</v>
+      </c>
+      <c r="D15" s="36">
+        <v>571.10522800000001</v>
+      </c>
+      <c r="E15" s="60">
+        <f>Sayfa2!$D15*Sayfa2!$C15</f>
+        <v>45688.418239999999</v>
+      </c>
+      <c r="F15" s="100">
+        <v>45348</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="69">
+        <v>572</v>
+      </c>
+      <c r="I15" s="75">
+        <f>Sayfa2!$H15*Sayfa2!$G15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="106">
+        <f>H15-D15</f>
+        <v>0.89477199999998902</v>
+      </c>
+      <c r="K15" s="51">
+        <f>Sayfa2!$J15*Sayfa2!$C15</f>
+        <v>71.581759999999122</v>
+      </c>
+      <c r="L15" s="50">
+        <f>F15-B15</f>
+        <v>4</v>
+      </c>
+      <c r="M15" s="85">
+        <f>K15/E15</f>
+        <v>1.5667375400037296E-3</v>
+      </c>
+      <c r="N15" s="85">
+        <f>M15/L15*30</f>
+        <v>1.1750531550027973E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="100">
+        <v>45341</v>
+      </c>
+      <c r="C16" s="106">
+        <v>106</v>
+      </c>
+      <c r="D16" s="36">
+        <v>569.09258399999999</v>
+      </c>
+      <c r="E16" s="60">
+        <f>Sayfa2!$D16*Sayfa2!$C16</f>
+        <v>60323.813903999995</v>
+      </c>
+      <c r="F16" s="100">
+        <v>45344</v>
+      </c>
+      <c r="G16" s="79"/>
+      <c r="H16" s="69">
+        <v>572</v>
+      </c>
+      <c r="I16" s="75">
+        <f>Sayfa2!$H16*Sayfa2!$G16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="106">
+        <f>H16-D16</f>
+        <v>2.907416000000012</v>
+      </c>
+      <c r="K16" s="51">
+        <f>Sayfa2!$J16*Sayfa2!$C16</f>
+        <v>308.18609600000127</v>
+      </c>
+      <c r="L16" s="50">
+        <f>F16-B16</f>
+        <v>3</v>
+      </c>
+      <c r="M16" s="85">
+        <f>K16/E16</f>
+        <v>5.108862919218804E-3</v>
+      </c>
+      <c r="N16" s="85">
+        <f>M16/L16*30</f>
+        <v>5.108862919218804E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="D2" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="46">
-        <f>SUBTOTAL(109,E9:E42)</f>
-        <v>160982.31653000001</v>
-      </c>
-      <c r="F2" s="47">
-        <f>SUBTOTAL(109,F9:F42)</f>
-        <v>163780.479024</v>
-      </c>
-      <c r="G2" s="47">
-        <f>SUBTOTAL(109,G9:G42)</f>
-        <v>2798.1624939999992</v>
-      </c>
-      <c r="H2" s="49">
-        <f>G2/E2</f>
-        <v>1.7381800400906425E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="D3" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="50">
-        <f>SUBTOTAL(109,E44:E114)</f>
-        <v>193267.91358199995</v>
-      </c>
-      <c r="F3" s="50">
-        <f>SUBTOTAL(109,F44:F114)</f>
-        <v>208345.60772600002</v>
-      </c>
-      <c r="G3" s="50">
-        <f>SUBTOTAL(109,G44:G113)</f>
-        <v>9671.9417440000107</v>
-      </c>
-      <c r="H3" s="52">
-        <f>G3/E3</f>
-        <v>5.0044218746617693E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="G4" s="77">
-        <f>SUM(G2:G3)</f>
-        <v>12470.104238000011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="F6" s="51"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="E9" s="36"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="54">
+      <c r="B17" s="100">
         <v>45341</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="33">
-        <v>106</v>
-      </c>
-      <c r="D11" s="33">
-        <v>569.09258399999999</v>
-      </c>
-      <c r="E11" s="56">
-        <f>Sayfa2!$D11*Sayfa2!$C11</f>
-        <v>60323.813903999995</v>
-      </c>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="54">
-        <v>45351</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="33">
-        <v>106</v>
-      </c>
-      <c r="D12" s="33">
-        <v>569.09258399999999</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="50">
-        <f>Sayfa2!$D12*Sayfa2!$C12</f>
-        <v>60323.813903999995</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="I12" s="58">
-        <f>A12-A11</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="37">
-        <v>106</v>
-      </c>
-      <c r="D13" s="37">
-        <f>D12-D11</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="G13" s="59">
-        <f>Sayfa2!$D13*Sayfa2!$C13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="74">
-        <f>G13/E11</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="74">
-        <f>H13/I12*30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="E14" s="36"/>
-      <c r="G14" s="34"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="E15" s="36"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="35">
-        <v>45341</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="33">
+      <c r="C17" s="106">
         <v>34</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="36">
         <v>16.2</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="60">
         <f>Sayfa2!$D17*Sayfa2!$C17</f>
         <v>550.79999999999995</v>
       </c>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="35">
+      <c r="F17" s="100">
+        <v>45344</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="69">
+        <v>17.82</v>
+      </c>
+      <c r="I17" s="75">
+        <f>Sayfa2!$H17*Sayfa2!$G17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="106">
+        <f>H17-D17</f>
+        <v>1.620000000000001</v>
+      </c>
+      <c r="K17" s="51">
+        <f>Sayfa2!$J17*Sayfa2!$C17</f>
+        <v>55.080000000000034</v>
+      </c>
+      <c r="L17" s="50">
+        <f>F17-B17</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="85">
+        <f>K17/E17</f>
+        <v>0.10000000000000007</v>
+      </c>
+      <c r="N17" s="85">
+        <f>M17/L17*30</f>
+        <v>1.0000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="100">
+        <v>44784</v>
+      </c>
+      <c r="C18" s="106">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="D18" s="36">
+        <v>18.721599999999999</v>
+      </c>
+      <c r="E18" s="60">
+        <f>Sayfa2!$D18*Sayfa2!$C18</f>
+        <v>337.176016</v>
+      </c>
+      <c r="F18" s="100">
+        <v>45344</v>
+      </c>
+      <c r="G18" s="79">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="H18" s="69">
+        <v>32.381999999999998</v>
+      </c>
+      <c r="I18" s="75">
+        <f>Sayfa2!$H18*Sayfa2!$G18</f>
+        <v>583.19982000000005</v>
+      </c>
+      <c r="J18" s="106">
+        <f>H18-D18</f>
+        <v>13.660399999999999</v>
+      </c>
+      <c r="K18" s="51">
+        <f>Sayfa2!$J18*Sayfa2!$C18</f>
+        <v>246.02380400000001</v>
+      </c>
+      <c r="L18" s="50">
+        <f>F18-B18</f>
+        <v>560</v>
+      </c>
+      <c r="M18" s="85">
+        <f>K18/E18</f>
+        <v>0.72965985813178369</v>
+      </c>
+      <c r="N18" s="85">
+        <f>M18/L18*30</f>
+        <v>3.9088920971345559E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="100">
+        <v>44784</v>
+      </c>
+      <c r="C19" s="106">
+        <v>81.99</v>
+      </c>
+      <c r="D19" s="36">
+        <v>18.721599999999999</v>
+      </c>
+      <c r="E19" s="60">
+        <f>Sayfa2!$D19*Sayfa2!$C19</f>
+        <v>1534.9839839999997</v>
+      </c>
+      <c r="F19" s="100">
+        <v>45344</v>
+      </c>
+      <c r="G19" s="79"/>
+      <c r="H19" s="69">
+        <v>32.381999999999998</v>
+      </c>
+      <c r="I19" s="75">
+        <f>Sayfa2!$H19*Sayfa2!$G19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="106">
+        <f>H19-D19</f>
+        <v>13.660399999999999</v>
+      </c>
+      <c r="K19" s="51">
+        <f>Sayfa2!$J19*Sayfa2!$C19</f>
+        <v>1120.0161959999998</v>
+      </c>
+      <c r="L19" s="50">
+        <f>F19-B19</f>
+        <v>560</v>
+      </c>
+      <c r="M19" s="85">
+        <f>K19/E19</f>
+        <v>0.72965985813178358</v>
+      </c>
+      <c r="N19" s="85">
+        <f>M19/L19*30</f>
+        <v>3.9088920971345552E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="100">
+        <v>44774</v>
+      </c>
+      <c r="C20" s="106">
+        <v>850</v>
+      </c>
+      <c r="D20" s="36">
+        <v>15</v>
+      </c>
+      <c r="E20" s="60">
+        <f>Sayfa2!$D20*Sayfa2!$C20</f>
+        <v>12750</v>
+      </c>
+      <c r="F20" s="100">
         <v>45351</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="33">
+      <c r="G20" s="79"/>
+      <c r="H20" s="69">
+        <v>33</v>
+      </c>
+      <c r="I20" s="75">
+        <f>Sayfa2!$H20*Sayfa2!$G20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="106">
+        <f>H20-D20</f>
+        <v>18</v>
+      </c>
+      <c r="K20" s="51">
+        <f>Sayfa2!$J20*Sayfa2!$C20</f>
+        <v>15300</v>
+      </c>
+      <c r="L20" s="50">
+        <f>F20-B20</f>
+        <v>577</v>
+      </c>
+      <c r="M20" s="85">
+        <f>K20/E20</f>
+        <v>1.2</v>
+      </c>
+      <c r="N20" s="85">
+        <f>M20/L20*30</f>
+        <v>6.2391681109185443E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="100">
+        <v>45219</v>
+      </c>
+      <c r="C21" s="106">
+        <v>50</v>
+      </c>
+      <c r="D21" s="36">
+        <v>1826.53</v>
+      </c>
+      <c r="E21" s="60">
+        <f>Sayfa2!$D21*Sayfa2!$C21</f>
+        <v>91326.5</v>
+      </c>
+      <c r="F21" s="100">
+        <v>45351</v>
+      </c>
+      <c r="G21" s="79"/>
+      <c r="H21" s="69">
+        <v>2016</v>
+      </c>
+      <c r="I21" s="75">
+        <f>Sayfa2!$H21*Sayfa2!$G21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="106">
+        <f t="shared" ref="J21:J26" si="0">H21-D21</f>
+        <v>189.47000000000003</v>
+      </c>
+      <c r="K21" s="51">
+        <f>Sayfa2!$J21*Sayfa2!$C21</f>
+        <v>9473.5000000000018</v>
+      </c>
+      <c r="L21" s="50">
+        <f t="shared" ref="L21:L26" si="1">F21-B21</f>
+        <v>132</v>
+      </c>
+      <c r="M21" s="85">
+        <f t="shared" ref="M21:M26" si="2">K21/E21</f>
+        <v>0.10373221354152411</v>
+      </c>
+      <c r="N21" s="85">
+        <f t="shared" ref="N21:N26" si="3">M21/L21*30</f>
+        <v>2.3575503077619114E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="100">
+        <v>44244</v>
+      </c>
+      <c r="C22" s="106">
+        <v>11</v>
+      </c>
+      <c r="D22" s="36">
+        <v>402.1</v>
+      </c>
+      <c r="E22" s="60">
+        <f>Sayfa2!$D22*Sayfa2!$C22</f>
+        <v>4423.1000000000004</v>
+      </c>
+      <c r="F22" s="100">
+        <v>45351</v>
+      </c>
+      <c r="G22" s="79"/>
+      <c r="H22" s="69">
+        <v>2016</v>
+      </c>
+      <c r="I22" s="75">
+        <f>Sayfa2!$H22*Sayfa2!$G22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="106">
+        <f t="shared" si="0"/>
+        <v>1613.9</v>
+      </c>
+      <c r="K22" s="51">
+        <f>Sayfa2!$J22*Sayfa2!$C22</f>
+        <v>17752.900000000001</v>
+      </c>
+      <c r="L22" s="50">
+        <f t="shared" si="1"/>
+        <v>1107</v>
+      </c>
+      <c r="M22" s="85">
+        <f t="shared" si="2"/>
+        <v>4.0136781895050984</v>
+      </c>
+      <c r="N22" s="85">
+        <f t="shared" si="3"/>
+        <v>0.10877176665325469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="100">
+        <v>44084</v>
+      </c>
+      <c r="C23" s="106">
+        <v>50</v>
+      </c>
+      <c r="D23" s="36">
+        <v>468.86</v>
+      </c>
+      <c r="E23" s="60">
+        <f>Sayfa2!$D23*Sayfa2!$C23</f>
+        <v>23443</v>
+      </c>
+      <c r="F23" s="100">
+        <v>45351</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="69">
+        <v>2016</v>
+      </c>
+      <c r="I23" s="75">
+        <f>Sayfa2!$H23*Sayfa2!$G23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="106">
+        <f t="shared" si="0"/>
+        <v>1547.1399999999999</v>
+      </c>
+      <c r="K23" s="51">
+        <f>Sayfa2!$J23*Sayfa2!$C23</f>
+        <v>77357</v>
+      </c>
+      <c r="L23" s="50">
+        <f t="shared" si="1"/>
+        <v>1267</v>
+      </c>
+      <c r="M23" s="85">
+        <f t="shared" si="2"/>
+        <v>3.2997909823828007</v>
+      </c>
+      <c r="N23" s="85">
+        <f t="shared" si="3"/>
+        <v>7.8132383166127889E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="100">
+        <v>44020</v>
+      </c>
+      <c r="C24" s="106">
+        <v>25</v>
+      </c>
+      <c r="D24" s="36">
+        <v>399.87</v>
+      </c>
+      <c r="E24" s="60">
+        <f>Sayfa2!$D24*Sayfa2!$C24</f>
+        <v>9996.75</v>
+      </c>
+      <c r="F24" s="100">
+        <v>45351</v>
+      </c>
+      <c r="G24" s="79"/>
+      <c r="H24" s="69">
+        <v>2016</v>
+      </c>
+      <c r="I24" s="75">
+        <f>Sayfa2!$H24*Sayfa2!$G24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="106">
+        <f t="shared" si="0"/>
+        <v>1616.13</v>
+      </c>
+      <c r="K24" s="51">
+        <f>Sayfa2!$J24*Sayfa2!$C24</f>
+        <v>40403.25</v>
+      </c>
+      <c r="L24" s="50">
+        <f t="shared" si="1"/>
+        <v>1331</v>
+      </c>
+      <c r="M24" s="85">
+        <f t="shared" si="2"/>
+        <v>4.0416385325230699</v>
+      </c>
+      <c r="N24" s="85">
+        <f t="shared" si="3"/>
+        <v>9.109628548136145E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="100">
+        <v>43803</v>
+      </c>
+      <c r="C25" s="106">
+        <v>24</v>
+      </c>
+      <c r="D25" s="36">
+        <v>273.81</v>
+      </c>
+      <c r="E25" s="60">
+        <f>Sayfa2!$D25*Sayfa2!$C25</f>
+        <v>6571.4400000000005</v>
+      </c>
+      <c r="F25" s="100">
+        <v>45351</v>
+      </c>
+      <c r="G25" s="79"/>
+      <c r="H25" s="69">
+        <v>2016</v>
+      </c>
+      <c r="I25" s="75">
+        <f>Sayfa2!$H25*Sayfa2!$G25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="106">
+        <f t="shared" si="0"/>
+        <v>1742.19</v>
+      </c>
+      <c r="K25" s="51">
+        <f>Sayfa2!$J25*Sayfa2!$C25</f>
+        <v>41812.559999999998</v>
+      </c>
+      <c r="L25" s="50">
+        <f t="shared" si="1"/>
+        <v>1548</v>
+      </c>
+      <c r="M25" s="85">
+        <f t="shared" si="2"/>
+        <v>6.3627698038786011</v>
+      </c>
+      <c r="N25" s="85">
+        <f t="shared" si="3"/>
+        <v>0.12330949232322869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="100">
+        <v>43803</v>
+      </c>
+      <c r="C26" s="106">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
+        <v>237.59</v>
+      </c>
+      <c r="E26" s="60">
+        <f>Sayfa2!$D26*Sayfa2!$C26</f>
+        <v>237.59</v>
+      </c>
+      <c r="F26" s="100">
+        <v>45351</v>
+      </c>
+      <c r="G26" s="79"/>
+      <c r="H26" s="69">
+        <v>2016</v>
+      </c>
+      <c r="I26" s="75">
+        <f>Sayfa2!$H26*Sayfa2!$G26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="106">
+        <f t="shared" si="0"/>
+        <v>1778.41</v>
+      </c>
+      <c r="K26" s="51">
+        <f>Sayfa2!$J26*Sayfa2!$C26</f>
+        <v>1778.41</v>
+      </c>
+      <c r="L26" s="50">
+        <f t="shared" si="1"/>
+        <v>1548</v>
+      </c>
+      <c r="M26" s="85">
+        <f t="shared" si="2"/>
+        <v>7.485205606296562</v>
+      </c>
+      <c r="N26" s="85">
+        <f t="shared" si="3"/>
+        <v>0.14506212415303416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="C27" s="106"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="118"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="C28" s="106"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="118"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="52"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="C30" s="78"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="C31" s="78"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="47"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="C32" s="78"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="118"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="100">
+        <v>45338</v>
+      </c>
+      <c r="C33" s="48">
+        <v>64</v>
+      </c>
+      <c r="D33" s="33">
+        <v>567.08235100000002</v>
+      </c>
+      <c r="E33" s="49">
+        <f>Sayfa2!$D33*Sayfa2!$C33</f>
+        <v>36293.270464000001</v>
+      </c>
+      <c r="F33" s="110"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="47"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="100">
+        <v>45344</v>
+      </c>
+      <c r="C34" s="48">
+        <v>64</v>
+      </c>
+      <c r="D34" s="33">
+        <v>571.10522800000001</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="47">
+        <f>Sayfa2!$D34*Sayfa2!$C34</f>
+        <v>36550.734592000001</v>
+      </c>
+      <c r="J34" s="118"/>
+      <c r="M34" s="50">
+        <f>B34-B33</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="106">
+        <v>64</v>
+      </c>
+      <c r="D35" s="36">
+        <f>D34-D33</f>
+        <v>4.022876999999994</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="68"/>
+      <c r="J35" s="119">
+        <f>Sayfa2!$D35*Sayfa2!$C35</f>
+        <v>257.46412799999962</v>
+      </c>
+      <c r="K35" s="62">
+        <f>J35/E33</f>
+        <v>7.0939908337933691E-3</v>
+      </c>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62">
+        <f>K35/M34*30</f>
+        <v>3.5469954168966845E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="E36" s="35"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="61"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="E37" s="35"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="61"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="100">
+        <v>45299</v>
+      </c>
+      <c r="C38" s="48">
+        <v>50</v>
+      </c>
+      <c r="D38" s="33">
+        <v>542.43450199999995</v>
+      </c>
+      <c r="E38" s="49">
+        <f>Sayfa2!$D38*Sayfa2!$C38</f>
+        <v>27121.725099999996</v>
+      </c>
+      <c r="F38" s="110"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="100">
+        <v>45344</v>
+      </c>
+      <c r="C39" s="48">
+        <v>50</v>
+      </c>
+      <c r="D39" s="33">
+        <v>571.10522800000001</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="47">
+        <f>Sayfa2!$D39*Sayfa2!$C39</f>
+        <v>28555.261399999999</v>
+      </c>
+      <c r="J39" s="118"/>
+      <c r="M39" s="50">
+        <f>B39-B38</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="106">
+        <v>50</v>
+      </c>
+      <c r="D40" s="36">
+        <f>D39-D38</f>
+        <v>28.670726000000059</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="68"/>
+      <c r="J40" s="119">
+        <f>Sayfa2!$D40*Sayfa2!$C40</f>
+        <v>1433.5363000000029</v>
+      </c>
+      <c r="K40" s="62">
+        <f>J40/E38</f>
+        <v>5.2855645970690972E-2</v>
+      </c>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62">
+        <f>K40/M39*30</f>
+        <v>3.5237097313793986E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="C41" s="78"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="47"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="C42" s="78"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="118"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="100">
+        <v>45321</v>
+      </c>
+      <c r="C43" s="48">
+        <v>50</v>
+      </c>
+      <c r="D43" s="33">
+        <v>555.950107</v>
+      </c>
+      <c r="E43" s="49">
+        <f>Sayfa2!$D43*Sayfa2!$C43</f>
+        <v>27797.505349999999</v>
+      </c>
+      <c r="F43" s="110"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="47"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="100">
+        <v>45344</v>
+      </c>
+      <c r="C44" s="48">
+        <v>50</v>
+      </c>
+      <c r="D44" s="33">
+        <v>571.10522800000001</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="47">
+        <f>Sayfa2!$D44*Sayfa2!$C44</f>
+        <v>28555.261399999999</v>
+      </c>
+      <c r="J44" s="118"/>
+      <c r="M44" s="50">
+        <f>B44-B43</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="106">
+        <v>50</v>
+      </c>
+      <c r="D45" s="36">
+        <f>D44-D43</f>
+        <v>15.155121000000008</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="119">
+        <f>Sayfa2!$D45*Sayfa2!$C45</f>
+        <v>757.75605000000041</v>
+      </c>
+      <c r="K45" s="62">
+        <f>J45/E43</f>
+        <v>2.7259858050535473E-2</v>
+      </c>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62">
+        <f>K45/M44*30</f>
+        <v>3.5556336587654967E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="C46" s="78"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="118"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="C47" s="78"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="118"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="100">
+        <v>45322</v>
+      </c>
+      <c r="C48" s="48">
+        <v>16</v>
+      </c>
+      <c r="D48" s="33">
+        <v>555.950107</v>
+      </c>
+      <c r="E48" s="49">
+        <f>Sayfa2!$D48*Sayfa2!$C48</f>
+        <v>8895.201712</v>
+      </c>
+      <c r="F48" s="110"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="47"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="48">
+        <v>16</v>
+      </c>
+      <c r="D49" s="33">
+        <v>571.10522800000001</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="47">
+        <f>Sayfa2!$D49*Sayfa2!$C49</f>
+        <v>9137.6836480000002</v>
+      </c>
+      <c r="J49" s="118"/>
+      <c r="M49" s="50">
+        <f>B50-B48</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="100">
+        <v>45344</v>
+      </c>
+      <c r="C50" s="106">
+        <v>16</v>
+      </c>
+      <c r="D50" s="36">
+        <f>D49-D48</f>
+        <v>15.155121000000008</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="119">
+        <f>Sayfa2!$D50*Sayfa2!$C50</f>
+        <v>242.48193600000013</v>
+      </c>
+      <c r="K50" s="62">
+        <f>J50/E48</f>
+        <v>2.7259858050535473E-2</v>
+      </c>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62">
+        <f>K50/M49*30</f>
+        <v>3.7172533705275651E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="C51" s="78"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="118"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="C52" s="78"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="118"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="100">
+        <v>45335</v>
+      </c>
+      <c r="C53" s="48">
+        <v>313</v>
+      </c>
+      <c r="D53" s="48">
+        <v>190.8</v>
+      </c>
+      <c r="E53" s="49">
+        <f>Sayfa2!$D53*Sayfa2!$C53</f>
+        <v>59720.4</v>
+      </c>
+      <c r="F53" s="110"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="69"/>
+      <c r="J53" s="118"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="100">
+        <v>45337</v>
+      </c>
+      <c r="C54" s="48">
+        <v>313</v>
+      </c>
+      <c r="D54" s="33">
+        <v>203.3</v>
+      </c>
+      <c r="E54" s="35"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="47">
+        <f>Sayfa2!$D54*Sayfa2!$C54</f>
+        <v>63632.9</v>
+      </c>
+      <c r="J54" s="118"/>
+      <c r="M54" s="50">
+        <f>B54-B53</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="100">
+        <v>45337</v>
+      </c>
+      <c r="C55" s="106">
+        <v>313</v>
+      </c>
+      <c r="D55" s="48">
+        <f>D54-D53</f>
+        <v>12.5</v>
+      </c>
+      <c r="E55" s="35"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="119">
+        <f>Sayfa2!$D55*Sayfa2!$C55+D56</f>
+        <v>3778.87</v>
+      </c>
+      <c r="K55" s="62">
+        <f>J55/E53</f>
+        <v>6.3276032980355112E-2</v>
+      </c>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62">
+        <f>K55/M54*30</f>
+        <v>0.94914049470532669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="106"/>
+      <c r="D56" s="48">
+        <v>-133.63</v>
+      </c>
+      <c r="E56" s="35"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="C57" s="106"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="C58" s="106"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="C59" s="78"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="47"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="100">
+        <v>45296</v>
+      </c>
+      <c r="C60" s="48">
+        <v>110</v>
+      </c>
+      <c r="D60" s="33">
+        <v>540.60110799999995</v>
+      </c>
+      <c r="E60" s="49">
+        <f>Sayfa2!$D60*Sayfa2!$C60</f>
+        <v>59466.121879999992</v>
+      </c>
+      <c r="F60" s="110"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="47"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="48">
+        <v>110</v>
+      </c>
+      <c r="D61" s="33">
+        <v>565.11282900000003</v>
+      </c>
+      <c r="E61" s="35"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="47">
+        <f>Sayfa2!$D61*Sayfa2!$C61</f>
+        <v>62162.411190000006</v>
+      </c>
+      <c r="J61" s="118"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="50">
+        <f>B62-B60</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="100">
+        <v>45335</v>
+      </c>
+      <c r="C62" s="106">
+        <v>110</v>
+      </c>
+      <c r="D62" s="36">
+        <f>D61-D60</f>
+        <v>24.51172100000008</v>
+      </c>
+      <c r="E62" s="35"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="119">
+        <f>Sayfa2!$D62*Sayfa2!$C62</f>
+        <v>2696.2893100000088</v>
+      </c>
+      <c r="K62" s="62">
+        <f>M62/M61*30</f>
+        <v>3.4878156409550054E-2</v>
+      </c>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62">
+        <f>J62/E60</f>
+        <v>4.5341603332415076E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="C63" s="78"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="47"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="33">
+      <c r="B64" s="100">
+        <v>45222</v>
+      </c>
+      <c r="C64" s="48">
+        <v>9</v>
+      </c>
+      <c r="D64" s="33">
+        <v>130</v>
+      </c>
+      <c r="E64" s="54">
+        <f>Sayfa2!$D64*Sayfa2!$C64</f>
+        <v>1170</v>
+      </c>
+      <c r="F64" s="114"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="47"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="100">
+        <v>45316</v>
+      </c>
+      <c r="C65" s="48">
+        <v>9</v>
+      </c>
+      <c r="D65" s="55">
+        <v>145.5</v>
+      </c>
+      <c r="E65" s="35"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="47">
+        <f>Sayfa2!$D65*Sayfa2!$C65</f>
+        <v>1309.5</v>
+      </c>
+      <c r="J65" s="118"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="50">
+        <f>B66-B64</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="103">
+        <v>45334</v>
+      </c>
+      <c r="C66" s="106">
+        <v>9</v>
+      </c>
+      <c r="D66" s="36">
+        <f>D65-D64</f>
+        <v>15.5</v>
+      </c>
+      <c r="E66" s="35"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="119">
+        <f>Sayfa2!$D66*Sayfa2!$C66</f>
+        <v>139.5</v>
+      </c>
+      <c r="K66" s="62">
+        <f>M66/M65*30</f>
+        <v>3.1936813186813191E-2</v>
+      </c>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62">
+        <f>J66/E64</f>
+        <v>0.11923076923076924</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="E67" s="40"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="47"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="E68" s="40"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="47"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="100">
+        <v>45271</v>
+      </c>
+      <c r="C69" s="48">
+        <v>10</v>
+      </c>
+      <c r="D69" s="33">
+        <v>144.001</v>
+      </c>
+      <c r="E69" s="56">
+        <f>Sayfa2!$D69*Sayfa2!$C69</f>
+        <v>1440.01</v>
+      </c>
+      <c r="F69" s="115"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="47"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="100">
+        <v>45316</v>
+      </c>
+      <c r="C70" s="48">
+        <v>10</v>
+      </c>
+      <c r="D70" s="55">
+        <v>145.5</v>
+      </c>
+      <c r="E70" s="35"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="47">
+        <f>Sayfa2!$D70*Sayfa2!$C70</f>
+        <v>1455</v>
+      </c>
+      <c r="J70" s="118"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="50">
+        <f>B71-B69</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="103">
+        <v>45334</v>
+      </c>
+      <c r="C71" s="106">
+        <v>10</v>
+      </c>
+      <c r="D71" s="36">
+        <f>D70-D69</f>
+        <v>1.4989999999999952</v>
+      </c>
+      <c r="E71" s="35"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="78"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="119">
+        <f>Sayfa2!$D71*Sayfa2!$C71</f>
+        <v>14.989999999999952</v>
+      </c>
+      <c r="K71" s="62">
+        <f>M71/M70*30</f>
+        <v>4.9569761585650214E-3</v>
+      </c>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62">
+        <f>J71/E69</f>
+        <v>1.0409649932986544E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="E72" s="40"/>
+      <c r="F72" s="112"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="47"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="E73" s="40"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="47"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="100">
+        <v>45288</v>
+      </c>
+      <c r="C74" s="48">
+        <v>20</v>
+      </c>
+      <c r="D74" s="33">
+        <v>115.34</v>
+      </c>
+      <c r="E74" s="54">
+        <f>Sayfa2!$D74*Sayfa2!$C74</f>
+        <v>2306.8000000000002</v>
+      </c>
+      <c r="F74" s="114"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="47"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="100">
+        <v>45316</v>
+      </c>
+      <c r="C75" s="48">
+        <v>20</v>
+      </c>
+      <c r="D75" s="55">
+        <v>145.5</v>
+      </c>
+      <c r="E75" s="35"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="47">
+        <f>Sayfa2!$D75*Sayfa2!$C75</f>
+        <v>2910</v>
+      </c>
+      <c r="J75" s="118"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="50">
+        <f>B76-B74</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="103">
+        <v>45334</v>
+      </c>
+      <c r="C76" s="106">
+        <v>20</v>
+      </c>
+      <c r="D76" s="36">
+        <f>D75-D74</f>
+        <v>30.159999999999997</v>
+      </c>
+      <c r="E76" s="35"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="119">
+        <f>Sayfa2!$D76*Sayfa2!$C76</f>
+        <v>603.19999999999993</v>
+      </c>
+      <c r="K76" s="62">
+        <f>M76/M75*30</f>
+        <v>0.17053550561289493</v>
+      </c>
+      <c r="L76" s="62"/>
+      <c r="M76" s="62">
+        <f>J76/E74</f>
+        <v>0.26148777527310557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="78"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="47"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="38"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="47"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="100">
+        <v>45322</v>
+      </c>
+      <c r="C79" s="48">
+        <v>10</v>
+      </c>
+      <c r="D79" s="33">
+        <v>555.950107</v>
+      </c>
+      <c r="E79" s="49">
+        <f>Sayfa2!$D79*Sayfa2!$C79</f>
+        <v>5559.5010700000003</v>
+      </c>
+      <c r="F79" s="110"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="47"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="48">
+        <v>10</v>
+      </c>
+      <c r="D80" s="33">
+        <v>564.45009800000003</v>
+      </c>
+      <c r="E80" s="35"/>
+      <c r="F80" s="104"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="47">
+        <f>Sayfa2!$D80*Sayfa2!$C80</f>
+        <v>5644.5009800000007</v>
+      </c>
+      <c r="J80" s="118"/>
+      <c r="M80" s="50">
+        <f>B81-B79</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="100">
+        <v>45334</v>
+      </c>
+      <c r="C81" s="106">
+        <v>10</v>
+      </c>
+      <c r="D81" s="36">
+        <f>D80-D79</f>
+        <v>8.4999910000000227</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="104"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="119">
+        <f>Sayfa2!$D81*Sayfa2!$C81</f>
+        <v>84.999910000000227</v>
+      </c>
+      <c r="K81" s="62">
+        <f>M81/M80*30</f>
+        <v>3.8222813940388463E-2</v>
+      </c>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62">
+        <f>J81/E79</f>
+        <v>1.5289125576155384E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="C82" s="78"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="47"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="104">
+        <v>45322</v>
+      </c>
+      <c r="C83" s="78">
+        <v>46</v>
+      </c>
+      <c r="D83" s="38">
+        <v>555.950107</v>
+      </c>
+      <c r="E83" s="35">
+        <f>Sayfa2!$D83*Sayfa2!$C83</f>
+        <v>25573.704922000001</v>
+      </c>
+      <c r="F83" s="104"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="47"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="104"/>
+      <c r="C84" s="78">
+        <v>46</v>
+      </c>
+      <c r="D84" s="38">
+        <v>559.83385699999997</v>
+      </c>
+      <c r="E84" s="35"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="47">
+        <f>Sayfa2!$D84*Sayfa2!$C84</f>
+        <v>25752.357421999997</v>
+      </c>
+      <c r="J84" s="118"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="50">
+        <f>B85-B83</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="104">
+        <v>45327</v>
+      </c>
+      <c r="C85" s="78">
+        <v>46</v>
+      </c>
+      <c r="D85" s="38">
+        <f>D84-D83</f>
+        <v>3.8837499999999636</v>
+      </c>
+      <c r="E85" s="35"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="120">
+        <f>Sayfa2!$D85*Sayfa2!$C85</f>
+        <v>178.65249999999833</v>
+      </c>
+      <c r="K85" s="62">
+        <f>M85/M84*30</f>
+        <v>4.1914732467170444E-2</v>
+      </c>
+      <c r="L85" s="62"/>
+      <c r="M85" s="62">
+        <f>J85/E83</f>
+        <v>6.9857887445284065E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="38"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="104"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="47"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="38"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="104"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="47"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="104">
+        <v>45267</v>
+      </c>
+      <c r="C88" s="78">
+        <v>10</v>
+      </c>
+      <c r="D88" s="38">
+        <v>49.18</v>
+      </c>
+      <c r="E88" s="35">
+        <f>Sayfa2!$D88*Sayfa2!$C88</f>
+        <v>491.8</v>
+      </c>
+      <c r="F88" s="104"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="78"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="38"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="104"/>
+      <c r="C89" s="78">
+        <v>10</v>
+      </c>
+      <c r="D89" s="41">
+        <v>52</v>
+      </c>
+      <c r="E89" s="35"/>
+      <c r="F89" s="104"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="47">
+        <f>Sayfa2!$D89*Sayfa2!$C89</f>
+        <v>520</v>
+      </c>
+      <c r="J89" s="118"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="50">
+        <f>B90-B88</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="105">
+        <v>45327</v>
+      </c>
+      <c r="C90" s="78">
+        <v>10</v>
+      </c>
+      <c r="D90" s="38">
+        <f>D89-D88</f>
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="E90" s="35"/>
+      <c r="F90" s="104"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="119">
+        <f>Sayfa2!$D90*Sayfa2!$C90</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="K90" s="62">
+        <f>M90/M89*30</f>
+        <v>2.8670191134607566E-2</v>
+      </c>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62">
+        <f>J90/E88</f>
+        <v>5.7340382269215132E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="E91" s="35"/>
+      <c r="F91" s="104"/>
+      <c r="G91" s="78"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="47"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="100">
+        <v>45267</v>
+      </c>
+      <c r="C92" s="48">
+        <v>13</v>
+      </c>
+      <c r="D92" s="33">
+        <v>28.3</v>
+      </c>
+      <c r="E92" s="49">
+        <f>Sayfa2!$D92*Sayfa2!$C92</f>
+        <v>367.90000000000003</v>
+      </c>
+      <c r="F92" s="110"/>
+      <c r="G92" s="79"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="47"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="50">
-        <f>Sayfa2!$D18*Sayfa2!$C18</f>
-        <v>1020</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="I18" s="58">
-        <f>A18-A17</f>
+      <c r="B93" s="100">
+        <v>45313</v>
+      </c>
+      <c r="C93" s="48">
+        <v>13</v>
+      </c>
+      <c r="D93" s="33">
+        <v>41.6</v>
+      </c>
+      <c r="E93" s="35"/>
+      <c r="F93" s="104"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="47">
+        <f>Sayfa2!$D93*Sayfa2!$C93</f>
+        <v>540.80000000000007</v>
+      </c>
+      <c r="J93" s="118"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="57">
+        <f>B94-B92</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="100">
+        <v>45313</v>
+      </c>
+      <c r="C94" s="106">
+        <v>13</v>
+      </c>
+      <c r="D94" s="36">
+        <v>13.3</v>
+      </c>
+      <c r="E94" s="35"/>
+      <c r="F94" s="104"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="119">
+        <f>Sayfa2!$D94*Sayfa2!$C94</f>
+        <v>172.9</v>
+      </c>
+      <c r="K94" s="62">
+        <f>M94/M93*30</f>
+        <v>0.30649869411583958</v>
+      </c>
+      <c r="L94" s="62"/>
+      <c r="M94" s="63">
+        <f>J94/E92</f>
+        <v>0.46996466431095402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="E95" s="58"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="73"/>
+      <c r="I95" s="47"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="E96" s="59"/>
+      <c r="F96" s="117"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="47"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="100">
+        <v>45273</v>
+      </c>
+      <c r="C97" s="48">
+        <v>26</v>
+      </c>
+      <c r="D97" s="33">
+        <v>55.08</v>
+      </c>
+      <c r="E97" s="49">
+        <f>Sayfa2!$D97*Sayfa2!$C97</f>
+        <v>1432.08</v>
+      </c>
+      <c r="F97" s="110"/>
+      <c r="G97" s="79"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="47"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="34"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="100">
+        <v>45313</v>
+      </c>
+      <c r="C98" s="48">
+        <v>26</v>
+      </c>
+      <c r="D98" s="33">
+        <v>51.4</v>
+      </c>
+      <c r="E98" s="35"/>
+      <c r="F98" s="104"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="47">
+        <f>Sayfa2!$D98*Sayfa2!$C98</f>
+        <v>1336.3999999999999</v>
+      </c>
+      <c r="J98" s="118"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="100">
+        <v>45313</v>
+      </c>
+      <c r="C99" s="106">
+        <v>26</v>
+      </c>
+      <c r="D99" s="36">
+        <f>D98-D97</f>
+        <v>-3.6799999999999997</v>
+      </c>
+      <c r="E99" s="35"/>
+      <c r="F99" s="104"/>
+      <c r="G99" s="78"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="106">
+        <f>Sayfa2!$D99*Sayfa2!$C99</f>
+        <v>-95.679999999999993</v>
+      </c>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="E100" s="35"/>
+      <c r="F100" s="104"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="47"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="100">
+        <v>45288</v>
+      </c>
+      <c r="C101" s="48">
+        <v>100</v>
+      </c>
+      <c r="D101" s="33">
+        <v>39.5</v>
+      </c>
+      <c r="E101" s="49">
+        <f>Sayfa2!$D101*Sayfa2!$C101</f>
+        <v>3950</v>
+      </c>
+      <c r="F101" s="110"/>
+      <c r="G101" s="79"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="47"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="100">
+        <v>45313</v>
+      </c>
+      <c r="C102" s="48">
+        <v>100</v>
+      </c>
+      <c r="D102" s="33">
+        <v>51.4</v>
+      </c>
+      <c r="E102" s="35"/>
+      <c r="F102" s="104"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="68"/>
+      <c r="I102" s="47">
+        <f>Sayfa2!$D102*Sayfa2!$C102</f>
+        <v>5140</v>
+      </c>
+      <c r="J102" s="118"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="33">
+        <f>B98-B97</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="100">
+        <v>45313</v>
+      </c>
+      <c r="C103" s="106">
+        <v>100</v>
+      </c>
+      <c r="D103" s="36">
+        <f>D102-D101</f>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="E103" s="35"/>
+      <c r="F103" s="104"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="106">
+        <f>Sayfa2!$D103*Sayfa2!$C103</f>
+        <v>1189.9999999999998</v>
+      </c>
+      <c r="K103" s="62">
+        <f>M103/M102*30</f>
+        <v>0.15249494619180684</v>
+      </c>
+      <c r="L103" s="62"/>
+      <c r="M103" s="63">
+        <f>(J99+J103)/(E101+E97)</f>
+        <v>0.20332659492240912</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="E104" s="35"/>
+      <c r="F104" s="104"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="68"/>
+      <c r="I104" s="47"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="E105" s="35"/>
+      <c r="F105" s="104"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="47"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="100">
+        <v>45267</v>
+      </c>
+      <c r="C106" s="48">
+        <v>300</v>
+      </c>
+      <c r="D106" s="33">
+        <v>18.207357999999999</v>
+      </c>
+      <c r="E106" s="49">
+        <f>Sayfa2!$D106*Sayfa2!$C106</f>
+        <v>5462.2073999999993</v>
+      </c>
+      <c r="F106" s="110"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="69"/>
+      <c r="I106" s="47"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" s="100">
+        <v>45288</v>
+      </c>
+      <c r="C107" s="48">
+        <v>300</v>
+      </c>
+      <c r="D107" s="33">
+        <v>18.625761000000001</v>
+      </c>
+      <c r="E107" s="35"/>
+      <c r="F107" s="104"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="68"/>
+      <c r="I107" s="47">
+        <f>Sayfa2!$D107*Sayfa2!$C107</f>
+        <v>5587.7282999999998</v>
+      </c>
+      <c r="J107" s="118"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="33">
+        <f>B108-B106</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="100">
+        <v>45288</v>
+      </c>
+      <c r="C108" s="106">
+        <v>300</v>
+      </c>
+      <c r="D108" s="36">
+        <f>D107-D106</f>
+        <v>0.41840300000000141</v>
+      </c>
+      <c r="E108" s="35"/>
+      <c r="F108" s="104"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="68"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="106">
+        <f>Sayfa2!$D108*Sayfa2!$C108</f>
+        <v>125.52090000000042</v>
+      </c>
+      <c r="K108" s="62">
+        <f>M108/M107*30</f>
+        <v>3.209096108494968E-2</v>
+      </c>
+      <c r="L108" s="62"/>
+      <c r="M108" s="63">
+        <f>J108/I107</f>
+        <v>2.2463672759464776E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="E109" s="35"/>
+      <c r="F109" s="104"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="68"/>
+      <c r="I109" s="47"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="34"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" s="100">
+        <v>45267</v>
+      </c>
+      <c r="C110" s="48">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="35"/>
-      <c r="B19" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="33">
-        <v>34</v>
-      </c>
-      <c r="D19" s="37">
-        <f>D18-D17</f>
-        <v>13.8</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="G19" s="59">
-        <f>Sayfa2!$D19*Sayfa2!$C19</f>
-        <v>469.20000000000005</v>
-      </c>
-      <c r="H19" s="74">
-        <f>G19/E17</f>
-        <v>0.85185185185185197</v>
-      </c>
-      <c r="I19" s="74">
-        <f>H19/I18*30</f>
-        <v>2.5555555555555558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="E20" s="36"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="54">
-        <v>45338</v>
-      </c>
-      <c r="B23" s="33" t="s">
+      <c r="D110" s="33">
+        <v>523.88987099999997</v>
+      </c>
+      <c r="E110" s="49">
+        <f>Sayfa2!$D110*Sayfa2!$C110</f>
+        <v>5238.8987099999995</v>
+      </c>
+      <c r="F110" s="110"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="69"/>
+      <c r="I110" s="47"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="34"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="33">
-        <v>64</v>
-      </c>
-      <c r="D23" s="33">
-        <v>567.08235100000002</v>
-      </c>
-      <c r="E23" s="56">
-        <f>Sayfa2!$D23*Sayfa2!$C23</f>
-        <v>36293.270464000001</v>
-      </c>
-      <c r="F23" s="50"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="54">
-        <v>45341</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="33">
-        <v>64</v>
-      </c>
-      <c r="D24" s="33">
-        <v>569.09258399999999</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="50">
-        <f>Sayfa2!$D24*Sayfa2!$C24</f>
-        <v>36421.925375999999</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="I24" s="58">
-        <f>A24-A23</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="37">
-        <v>64</v>
-      </c>
-      <c r="D25" s="37">
-        <f>D24-D23</f>
-        <v>2.0102329999999711</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="G25" s="59">
-        <f>Sayfa2!$D25*Sayfa2!$C25</f>
-        <v>128.65491199999815</v>
-      </c>
-      <c r="H25" s="74">
-        <f>G25/E23</f>
-        <v>3.5448696233538238E-3</v>
-      </c>
-      <c r="I25" s="74">
-        <f>H25/I24*30</f>
-        <v>3.5448696233538239E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="73"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="73"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="54">
-        <v>45299</v>
-      </c>
-      <c r="B28" s="33" t="s">
+      <c r="B111" s="100">
+        <v>45293</v>
+      </c>
+      <c r="C111" s="48">
+        <v>10</v>
+      </c>
+      <c r="D111" s="33">
+        <v>538.78970700000002</v>
+      </c>
+      <c r="E111" s="35"/>
+      <c r="F111" s="104"/>
+      <c r="G111" s="78"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="47">
+        <f>Sayfa2!$D111*Sayfa2!$C111</f>
+        <v>5387.89707</v>
+      </c>
+      <c r="J111" s="118"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="33">
+        <f>B112-B110</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" s="100">
+        <v>45293</v>
+      </c>
+      <c r="C112" s="106">
+        <v>10</v>
+      </c>
+      <c r="D112" s="36">
+        <f>D111-D110</f>
+        <v>14.89983600000005</v>
+      </c>
+      <c r="E112" s="35"/>
+      <c r="F112" s="104"/>
+      <c r="G112" s="78"/>
+      <c r="H112" s="68"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="106">
+        <f>Sayfa2!$D112*Sayfa2!$C112</f>
+        <v>148.9983600000005</v>
+      </c>
+      <c r="K112" s="62">
+        <f>M112/M111*30</f>
+        <v>3.1908773011394068E-2</v>
+      </c>
+      <c r="L112" s="62"/>
+      <c r="M112" s="63">
+        <f>J112/I111</f>
+        <v>2.7654269943208194E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="E113" s="35"/>
+      <c r="F113" s="104"/>
+      <c r="G113" s="78"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="47"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="100">
+        <v>45273</v>
+      </c>
+      <c r="C114" s="48">
         <v>40</v>
       </c>
-      <c r="C28" s="33">
-        <v>50</v>
-      </c>
-      <c r="D28" s="33">
-        <v>542.43450199999995</v>
-      </c>
-      <c r="E28" s="56">
-        <f>Sayfa2!$D28*Sayfa2!$C28</f>
-        <v>27121.725099999996</v>
-      </c>
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="54">
-        <v>45341</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="33">
-        <v>50</v>
-      </c>
-      <c r="D29" s="33">
-        <v>569.09258399999999</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="50">
-        <f>Sayfa2!$D29*Sayfa2!$C29</f>
-        <v>28454.629199999999</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="I29" s="58">
-        <f>A29-A28</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="37">
-        <v>50</v>
-      </c>
-      <c r="D30" s="37">
-        <f>D29-D28</f>
-        <v>26.658082000000036</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="G30" s="59">
-        <f>Sayfa2!$D30*Sayfa2!$C30</f>
-        <v>1332.9041000000018</v>
-      </c>
-      <c r="H30" s="74">
-        <f>G30/E28</f>
-        <v>4.9145255144555755E-2</v>
-      </c>
-      <c r="I30" s="74">
-        <f>H30/I29*30</f>
-        <v>3.5103753674682686E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="34"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="54">
-        <v>45321</v>
-      </c>
-      <c r="B33" s="33" t="s">
+      <c r="D114" s="33">
+        <v>527.21223999999995</v>
+      </c>
+      <c r="E114" s="49">
+        <f>Sayfa2!$D114*Sayfa2!$C114</f>
+        <v>21088.489599999997</v>
+      </c>
+      <c r="F114" s="110"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="69"/>
+      <c r="I114" s="47"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="33">
-        <v>50</v>
-      </c>
-      <c r="D33" s="33">
-        <v>555.950107</v>
-      </c>
-      <c r="E33" s="56">
-        <f>Sayfa2!$D33*Sayfa2!$C33</f>
-        <v>27797.505349999999</v>
-      </c>
-      <c r="F33" s="50"/>
-      <c r="H33" s="34"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="54">
-        <v>45341</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="33">
-        <v>50</v>
-      </c>
-      <c r="D34" s="33">
-        <v>569.09258399999999</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="50">
-        <f>Sayfa2!$D34*Sayfa2!$C34</f>
-        <v>28454.629199999999</v>
-      </c>
-      <c r="G34" s="34"/>
-      <c r="I34" s="58">
-        <f>A34-A33</f>
+      <c r="B115" s="100">
+        <v>45293</v>
+      </c>
+      <c r="C115" s="48">
+        <v>28</v>
+      </c>
+      <c r="D115" s="33">
+        <f>D111</f>
+        <v>538.78970700000002</v>
+      </c>
+      <c r="E115" s="35"/>
+      <c r="F115" s="104"/>
+      <c r="G115" s="78"/>
+      <c r="H115" s="68"/>
+      <c r="I115" s="47">
+        <f>Sayfa2!$D115*Sayfa2!$C115</f>
+        <v>15086.111796000001</v>
+      </c>
+      <c r="J115" s="118"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="34"/>
+      <c r="M115" s="33">
+        <f>B116-B114</f>
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="37">
-        <v>50</v>
-      </c>
-      <c r="D35" s="37">
-        <f>D34-D33</f>
-        <v>13.142476999999985</v>
-      </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="59">
-        <f>Sayfa2!$D35*Sayfa2!$C35</f>
-        <v>657.12384999999927</v>
-      </c>
-      <c r="H35" s="74">
-        <f>G35/E33</f>
-        <v>2.3639669881383774E-2</v>
-      </c>
-      <c r="I35" s="74">
-        <f>H35/I34*30</f>
-        <v>3.545950482207566E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="34"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="34"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="54">
-        <v>45322</v>
-      </c>
-      <c r="B38" s="33" t="s">
+    <row r="116" spans="1:13">
+      <c r="A116" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="100">
+        <v>45293</v>
+      </c>
+      <c r="C116" s="106">
+        <v>28</v>
+      </c>
+      <c r="D116" s="36">
+        <f>D115-D114</f>
+        <v>11.57746700000007</v>
+      </c>
+      <c r="E116" s="35"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="78"/>
+      <c r="H116" s="68"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="106">
+        <f>Sayfa2!$D116*Sayfa2!$C116</f>
+        <v>324.16907600000195</v>
+      </c>
+      <c r="K116" s="62">
+        <f>M116/M115*30</f>
+        <v>3.2231871311528416E-2</v>
+      </c>
+      <c r="L116" s="62"/>
+      <c r="M116" s="63">
+        <f>J116/I115</f>
+        <v>2.1487914207685612E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="E117" s="35"/>
+      <c r="F117" s="104"/>
+      <c r="G117" s="78"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="47"/>
+      <c r="K117" s="34"/>
+      <c r="L117" s="34"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="33">
-        <v>16</v>
-      </c>
-      <c r="D38" s="33">
-        <v>555.950107</v>
-      </c>
-      <c r="E38" s="56">
-        <f>Sayfa2!$D38*Sayfa2!$C38</f>
-        <v>8895.201712</v>
-      </c>
-      <c r="F38" s="50"/>
-      <c r="H38" s="34"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="33">
-        <v>16</v>
-      </c>
-      <c r="D39" s="33">
-        <v>569.09258399999999</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="50">
-        <f>Sayfa2!$D39*Sayfa2!$C39</f>
-        <v>9105.4813439999998</v>
-      </c>
-      <c r="G39" s="34"/>
-      <c r="I39" s="58">
-        <f>A40-A38</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="54">
-        <v>45341</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="37">
-        <v>16</v>
-      </c>
-      <c r="D40" s="37">
-        <f>D39-D38</f>
-        <v>13.142476999999985</v>
-      </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="59">
-        <f>Sayfa2!$D40*Sayfa2!$C40</f>
-        <v>210.27963199999976</v>
-      </c>
-      <c r="H40" s="74">
-        <f>G40/E38</f>
-        <v>2.363966988138377E-2</v>
-      </c>
-      <c r="I40" s="74">
-        <f>H40/I39*30</f>
-        <v>3.7325794549553315E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="34"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="50"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="50"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="34"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="54">
-        <v>45335</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="33">
-        <v>313</v>
-      </c>
-      <c r="D47" s="55">
-        <v>190.8</v>
-      </c>
-      <c r="E47" s="56">
-        <f>Sayfa2!$D47*Sayfa2!$C47</f>
-        <v>59720.4</v>
-      </c>
-      <c r="G47" s="34"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="57">
-        <v>45337</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="33">
-        <v>313</v>
-      </c>
-      <c r="D48" s="33">
-        <v>203.3</v>
-      </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="50">
-        <f>Sayfa2!$D48*Sayfa2!$C48</f>
-        <v>63632.9</v>
-      </c>
-      <c r="G48" s="34"/>
-      <c r="I48" s="58">
-        <f>A48-A47</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="57">
-        <v>45337</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="37">
-        <v>313</v>
-      </c>
-      <c r="D49" s="55">
-        <f>D48-D47</f>
-        <v>12.5</v>
-      </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="59">
-        <f>Sayfa2!$D49*Sayfa2!$C49+D50</f>
-        <v>3778.87</v>
-      </c>
-      <c r="H49" s="74">
-        <f>G49/E47</f>
-        <v>6.3276032980355112E-2</v>
-      </c>
-      <c r="I49" s="74">
-        <f>H49/I48*30</f>
-        <v>0.94914049470532669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="57"/>
-      <c r="B50" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="55">
-        <v>-133.63</v>
-      </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="57"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="57"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="50"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="54">
-        <v>45296</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="33">
-        <v>110</v>
-      </c>
-      <c r="D54" s="33">
-        <v>540.60110799999995</v>
-      </c>
-      <c r="E54" s="56">
-        <f>Sayfa2!$D54*Sayfa2!$C54</f>
-        <v>59466.121879999992</v>
-      </c>
-      <c r="F54" s="50"/>
-      <c r="H54" s="34"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="35"/>
-      <c r="B55" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="33">
-        <v>110</v>
-      </c>
-      <c r="D55" s="33">
-        <v>565.11282900000003</v>
-      </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="50">
-        <f>Sayfa2!$D55*Sayfa2!$C55</f>
-        <v>62162.411190000006</v>
-      </c>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="58">
-        <f>A56-A54</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="57">
-        <v>45335</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="37">
-        <v>110</v>
-      </c>
-      <c r="D56" s="37">
-        <f>D55-D54</f>
-        <v>24.51172100000008</v>
-      </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="59">
-        <f>Sayfa2!$D56*Sayfa2!$C56</f>
-        <v>2696.2893100000088</v>
-      </c>
-      <c r="H56" s="74">
-        <f>I56/I55*30</f>
-        <v>3.4878156409550054E-2</v>
-      </c>
-      <c r="I56" s="74">
-        <f>G56/E54</f>
-        <v>4.5341603332415076E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="50"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="54">
-        <v>45222</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="33">
-        <v>9</v>
-      </c>
-      <c r="D58" s="33">
-        <v>130</v>
-      </c>
-      <c r="E58" s="62">
-        <f>Sayfa2!$D58*Sayfa2!$C58</f>
-        <v>1170</v>
-      </c>
-      <c r="F58" s="50"/>
-      <c r="H58" s="34"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="54">
-        <v>45316</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="33">
-        <v>9</v>
-      </c>
-      <c r="D59" s="63">
-        <v>145.5</v>
-      </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="50">
-        <f>Sayfa2!$D59*Sayfa2!$C59</f>
-        <v>1309.5</v>
-      </c>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="58">
-        <f>A60-A58</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="64">
-        <v>45334</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="37">
-        <v>9</v>
-      </c>
-      <c r="D60" s="37">
-        <f>D59-D58</f>
-        <v>15.5</v>
-      </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="59">
-        <f>Sayfa2!$D60*Sayfa2!$C60</f>
-        <v>139.5</v>
-      </c>
-      <c r="H60" s="74">
-        <f>I60/I59*30</f>
-        <v>3.1936813186813191E-2</v>
-      </c>
-      <c r="I60" s="74">
-        <f>G60/E58</f>
-        <v>0.11923076923076924</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="54"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="50"/>
-      <c r="H61" s="34"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="54"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="50"/>
-      <c r="H62" s="34"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="54">
-        <v>45271</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="33">
-        <v>10</v>
-      </c>
-      <c r="D63" s="33">
-        <v>144.001</v>
-      </c>
-      <c r="E63" s="65">
-        <f>Sayfa2!$D63*Sayfa2!$C63</f>
-        <v>1440.01</v>
-      </c>
-      <c r="F63" s="50"/>
-      <c r="H63" s="34"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="54">
-        <v>45316</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="33">
-        <v>10</v>
-      </c>
-      <c r="D64" s="63">
-        <v>145.5</v>
-      </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="50">
-        <f>Sayfa2!$D64*Sayfa2!$C64</f>
-        <v>1455</v>
-      </c>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="58">
-        <f>A65-A63</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="64">
-        <v>45334</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="37">
-        <v>10</v>
-      </c>
-      <c r="D65" s="37">
-        <f>D64-D63</f>
-        <v>1.4989999999999952</v>
-      </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="59">
-        <f>Sayfa2!$D65*Sayfa2!$C65</f>
-        <v>14.989999999999952</v>
-      </c>
-      <c r="H65" s="74">
-        <f>I65/I64*30</f>
-        <v>4.9569761585650214E-3</v>
-      </c>
-      <c r="I65" s="74">
-        <f>G65/E63</f>
-        <v>1.0409649932986544E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="54"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="50"/>
-      <c r="H66" s="34"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="54"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="50"/>
-      <c r="H67" s="34"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="54">
-        <v>45288</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="33">
-        <v>20</v>
-      </c>
-      <c r="D68" s="33">
-        <v>115.34</v>
-      </c>
-      <c r="E68" s="62">
-        <f>Sayfa2!$D68*Sayfa2!$C68</f>
-        <v>2306.8000000000002</v>
-      </c>
-      <c r="F68" s="50"/>
-      <c r="H68" s="34"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="54">
-        <v>45316</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="33">
-        <v>20</v>
-      </c>
-      <c r="D69" s="63">
-        <v>145.5</v>
-      </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="50">
-        <f>Sayfa2!$D69*Sayfa2!$C69</f>
-        <v>2910</v>
-      </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="58">
-        <f>A70-A68</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="64">
-        <v>45334</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="37">
-        <v>20</v>
-      </c>
-      <c r="D70" s="37">
-        <f>D69-D68</f>
-        <v>30.159999999999997</v>
-      </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="59">
-        <f>Sayfa2!$D70*Sayfa2!$C70</f>
-        <v>603.19999999999993</v>
-      </c>
-      <c r="H70" s="74">
-        <f>I70/I69*30</f>
-        <v>0.17053550561289493</v>
-      </c>
-      <c r="I70" s="74">
-        <f>G70/E68</f>
-        <v>0.26148777527310557</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="50"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="50"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="54">
-        <v>45322</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="33">
-        <v>10</v>
-      </c>
-      <c r="D73" s="33">
-        <v>555.950107</v>
-      </c>
-      <c r="E73" s="56">
-        <f>Sayfa2!$D73*Sayfa2!$C73</f>
-        <v>5559.5010700000003</v>
-      </c>
-      <c r="F73" s="50"/>
-      <c r="H73" s="34"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="B74" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="33">
-        <v>10</v>
-      </c>
-      <c r="D74" s="33">
-        <v>564.45009800000003</v>
-      </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="50">
-        <f>Sayfa2!$D74*Sayfa2!$C74</f>
-        <v>5644.5009800000007</v>
-      </c>
-      <c r="G74" s="34"/>
-      <c r="I74" s="58">
-        <f>A75-A73</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="57">
-        <v>45334</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="37">
-        <v>10</v>
-      </c>
-      <c r="D75" s="37">
-        <f>D74-D73</f>
-        <v>8.4999910000000227</v>
-      </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="59">
-        <f>Sayfa2!$D75*Sayfa2!$C75</f>
-        <v>84.999910000000227</v>
-      </c>
-      <c r="H75" s="74">
-        <f>I75/I74*30</f>
-        <v>3.8222813940388463E-2</v>
-      </c>
-      <c r="I75" s="74">
-        <f>G75/E73</f>
-        <v>1.5289125576155384E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="50"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="39">
-        <v>45322</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="40">
-        <v>46</v>
-      </c>
-      <c r="D77" s="40">
-        <v>555.950107</v>
-      </c>
-      <c r="E77" s="36">
-        <f>Sayfa2!$D77*Sayfa2!$C77</f>
-        <v>25573.704922000001</v>
-      </c>
-      <c r="F77" s="50"/>
-      <c r="H77" s="41"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="40">
-        <v>46</v>
-      </c>
-      <c r="D78" s="40">
-        <v>559.83385699999997</v>
-      </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="50">
-        <f>Sayfa2!$D78*Sayfa2!$C78</f>
-        <v>25752.357421999997</v>
-      </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="58">
-        <f>A79-A77</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="72">
-        <v>45327</v>
-      </c>
-      <c r="B79" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="40">
-        <v>46</v>
-      </c>
-      <c r="D79" s="40">
-        <f>D78-D77</f>
-        <v>3.8837499999999636</v>
-      </c>
-      <c r="E79" s="36"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="66">
-        <f>Sayfa2!$D79*Sayfa2!$C79</f>
-        <v>178.65249999999833</v>
-      </c>
-      <c r="H79" s="74">
-        <f>I79/I78*30</f>
-        <v>4.1914732467170444E-2</v>
-      </c>
-      <c r="I79" s="74">
-        <f>G79/E77</f>
-        <v>6.9857887445284065E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="50"/>
-      <c r="H80" s="38"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="50"/>
-      <c r="H81" s="38"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="39">
-        <v>45267</v>
-      </c>
-      <c r="B82" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="40">
-        <v>10</v>
-      </c>
-      <c r="D82" s="40">
-        <v>49.18</v>
-      </c>
-      <c r="E82" s="36">
-        <f>Sayfa2!$D82*Sayfa2!$C82</f>
-        <v>491.8</v>
-      </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="40"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="42"/>
-      <c r="B83" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="40">
-        <v>10</v>
-      </c>
-      <c r="D83" s="44">
-        <v>52</v>
-      </c>
-      <c r="E83" s="36"/>
-      <c r="F83" s="50">
-        <f>Sayfa2!$D83*Sayfa2!$C83</f>
-        <v>520</v>
-      </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="58">
-        <f>A84-A82</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="67">
-        <v>45327</v>
-      </c>
-      <c r="B84" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84" s="40">
-        <v>10</v>
-      </c>
-      <c r="D84" s="40">
-        <f>D83-D82</f>
-        <v>2.8200000000000003</v>
-      </c>
-      <c r="E84" s="36"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="59">
-        <f>Sayfa2!$D84*Sayfa2!$C84</f>
-        <v>28.200000000000003</v>
-      </c>
-      <c r="H84" s="74">
-        <f>I84/I83*30</f>
-        <v>2.8670191134607566E-2</v>
-      </c>
-      <c r="I84" s="74">
-        <f>G84/E82</f>
-        <v>5.7340382269215132E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="E85" s="36"/>
-      <c r="F85" s="50"/>
-      <c r="H85" s="34"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="54">
-        <v>45267</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="33">
-        <v>13</v>
-      </c>
-      <c r="D86" s="33">
-        <v>28.3</v>
-      </c>
-      <c r="E86" s="56">
-        <f>Sayfa2!$D86*Sayfa2!$C86</f>
-        <v>367.90000000000003</v>
-      </c>
-      <c r="F86" s="50"/>
-      <c r="H86" s="34"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="33">
-        <v>13</v>
-      </c>
-      <c r="D87" s="33">
-        <v>41.6</v>
-      </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="50">
-        <f>Sayfa2!$D87*Sayfa2!$C87</f>
-        <v>540.80000000000007</v>
-      </c>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="68">
-        <f>A88-A86</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="37">
-        <v>13</v>
-      </c>
-      <c r="D88" s="37">
-        <v>13.3</v>
-      </c>
-      <c r="E88" s="36"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="59">
-        <f>Sayfa2!$D88*Sayfa2!$C88</f>
-        <v>172.9</v>
-      </c>
-      <c r="H88" s="74">
-        <f>I88/I87*30</f>
-        <v>0.30649869411583958</v>
-      </c>
-      <c r="I88" s="75">
-        <f>G88/E86</f>
-        <v>0.46996466431095402</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="54"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="50"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="54"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="50"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="54">
-        <v>45273</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="33">
-        <v>26</v>
-      </c>
-      <c r="D91" s="33">
-        <v>55.08</v>
-      </c>
-      <c r="E91" s="56">
-        <f>Sayfa2!$D91*Sayfa2!$C91</f>
-        <v>1432.08</v>
-      </c>
-      <c r="F91" s="50"/>
-      <c r="H91" s="34"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="33">
-        <v>26</v>
-      </c>
-      <c r="D92" s="33">
-        <v>51.4</v>
-      </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="50">
-        <f>Sayfa2!$D92*Sayfa2!$C92</f>
-        <v>1336.3999999999999</v>
-      </c>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="37">
-        <v>26</v>
-      </c>
-      <c r="D93" s="37">
-        <f>D92-D91</f>
-        <v>-3.6799999999999997</v>
-      </c>
-      <c r="E93" s="36"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="71">
-        <f>Sayfa2!$D93*Sayfa2!$C93</f>
-        <v>-95.679999999999993</v>
-      </c>
-      <c r="H93" s="34"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="54"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="50"/>
-      <c r="H94" s="34"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="54">
-        <v>45288</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" s="33">
-        <v>100</v>
-      </c>
-      <c r="D95" s="33">
-        <v>39.5</v>
-      </c>
-      <c r="E95" s="56">
-        <f>Sayfa2!$D95*Sayfa2!$C95</f>
-        <v>3950</v>
-      </c>
-      <c r="F95" s="50"/>
-      <c r="H95" s="34"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" s="33">
-        <v>100</v>
-      </c>
-      <c r="D96" s="33">
-        <v>51.4</v>
-      </c>
-      <c r="E96" s="36"/>
-      <c r="F96" s="50">
-        <f>Sayfa2!$D96*Sayfa2!$C96</f>
-        <v>5140</v>
-      </c>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="33">
-        <f>A92-A91</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="54">
-        <v>45313</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" s="37">
-        <v>100</v>
-      </c>
-      <c r="D97" s="37">
-        <f>D96-D95</f>
-        <v>11.899999999999999</v>
-      </c>
-      <c r="E97" s="36"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="71">
-        <f>Sayfa2!$D97*Sayfa2!$C97</f>
-        <v>1189.9999999999998</v>
-      </c>
-      <c r="H97" s="74">
-        <f>I97/I96*30</f>
-        <v>0.15249494619180684</v>
-      </c>
-      <c r="I97" s="75">
-        <f>(G93+G97)/(E95+E91)</f>
-        <v>0.20332659492240912</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="E98" s="36"/>
-      <c r="F98" s="50"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="E99" s="36"/>
-      <c r="F99" s="50"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="54">
-        <v>45267</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" s="33">
-        <v>300</v>
-      </c>
-      <c r="D100" s="33">
-        <v>18.207357999999999</v>
-      </c>
-      <c r="E100" s="56">
-        <f>Sayfa2!$D100*Sayfa2!$C100</f>
-        <v>5462.2073999999993</v>
-      </c>
-      <c r="F100" s="50"/>
-      <c r="H100" s="34"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="54">
-        <v>45288</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C101" s="33">
-        <v>300</v>
-      </c>
-      <c r="D101" s="33">
-        <v>18.625761000000001</v>
-      </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="50">
-        <f>Sayfa2!$D101*Sayfa2!$C101</f>
-        <v>5587.7282999999998</v>
-      </c>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="33">
-        <f>A102-A100</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="54">
-        <v>45288</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C102" s="37">
-        <v>300</v>
-      </c>
-      <c r="D102" s="37">
-        <f>D101-D100</f>
-        <v>0.41840300000000141</v>
-      </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="71">
-        <f>Sayfa2!$D102*Sayfa2!$C102</f>
-        <v>125.52090000000042</v>
-      </c>
-      <c r="H102" s="74">
-        <f>I102/I101*30</f>
-        <v>3.209096108494968E-2</v>
-      </c>
-      <c r="I102" s="75">
-        <f>G102/F101</f>
-        <v>2.2463672759464776E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="35"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="50"/>
-      <c r="H103" s="34"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="35">
-        <v>45267</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="33">
-        <v>10</v>
-      </c>
-      <c r="D104" s="33">
-        <v>523.88987099999997</v>
-      </c>
-      <c r="E104" s="56">
-        <f>Sayfa2!$D104*Sayfa2!$C104</f>
-        <v>5238.8987099999995</v>
-      </c>
-      <c r="F104" s="50"/>
-      <c r="H104" s="34"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="35">
-        <v>45293</v>
-      </c>
-      <c r="B105" s="33" t="s">
+      <c r="B118" s="100">
+        <v>45295</v>
+      </c>
+      <c r="C118" s="48">
+        <v>22</v>
+      </c>
+      <c r="D118" s="33">
+        <v>540.000044</v>
+      </c>
+      <c r="E118" s="35"/>
+      <c r="F118" s="104"/>
+      <c r="G118" s="78"/>
+      <c r="H118" s="68"/>
+      <c r="I118" s="47">
+        <f>Sayfa2!$D118*Sayfa2!$C118</f>
+        <v>11880.000968</v>
+      </c>
+      <c r="J118" s="118"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="34"/>
+      <c r="M118" s="33">
+        <f>B119-B114</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="33">
-        <v>10</v>
-      </c>
-      <c r="D105" s="33">
-        <v>538.78970700000002</v>
-      </c>
-      <c r="E105" s="36"/>
-      <c r="F105" s="50">
-        <f>Sayfa2!$D105*Sayfa2!$C105</f>
-        <v>5387.89707</v>
-      </c>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="33">
-        <f>A106-A104</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="35">
-        <v>45293</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="37">
-        <v>10</v>
-      </c>
-      <c r="D106" s="37">
-        <f>D105-D104</f>
-        <v>14.89983600000005</v>
-      </c>
-      <c r="E106" s="36"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="71">
-        <f>Sayfa2!$D106*Sayfa2!$C106</f>
-        <v>148.9983600000005</v>
-      </c>
-      <c r="H106" s="74">
-        <f>I106/I105*30</f>
-        <v>3.1908773011394068E-2</v>
-      </c>
-      <c r="I106" s="75">
-        <f>G106/F105</f>
-        <v>2.7654269943208194E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="35"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="50"/>
-      <c r="H107" s="34"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="35">
-        <v>45273</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108" s="33">
-        <v>40</v>
-      </c>
-      <c r="D108" s="33">
-        <v>527.21223999999995</v>
-      </c>
-      <c r="E108" s="56">
-        <f>Sayfa2!$D108*Sayfa2!$C108</f>
-        <v>21088.489599999997</v>
-      </c>
-      <c r="F108" s="50"/>
-      <c r="H108" s="34"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="35">
-        <v>45293</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109" s="33">
-        <v>28</v>
-      </c>
-      <c r="D109" s="33">
-        <f>D105</f>
-        <v>538.78970700000002</v>
-      </c>
-      <c r="E109" s="36"/>
-      <c r="F109" s="50">
-        <f>Sayfa2!$D109*Sayfa2!$C109</f>
-        <v>15086.111796000001</v>
-      </c>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="33">
-        <f>A110-A108</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="35">
-        <v>45293</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C110" s="37">
-        <v>28</v>
-      </c>
-      <c r="D110" s="37">
-        <f>D109-D108</f>
-        <v>11.57746700000007</v>
-      </c>
-      <c r="E110" s="36"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="71">
-        <f>Sayfa2!$D110*Sayfa2!$C110</f>
-        <v>324.16907600000195</v>
-      </c>
-      <c r="H110" s="74">
-        <f>I110/I109*30</f>
-        <v>3.2231871311528416E-2</v>
-      </c>
-      <c r="I110" s="75">
-        <f>G110/F109</f>
-        <v>2.1487914207685612E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="35"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="50"/>
-      <c r="H111" s="34"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="35">
+      <c r="B119" s="100">
         <v>45295</v>
       </c>
-      <c r="B112" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" s="33">
+      <c r="C119" s="106">
         <v>22</v>
       </c>
-      <c r="D112" s="33">
-        <v>540.000044</v>
-      </c>
-      <c r="E112" s="36"/>
-      <c r="F112" s="50">
-        <f>Sayfa2!$D112*Sayfa2!$C112</f>
-        <v>11880.000968</v>
-      </c>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="33">
-        <f>A113-A108</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="35">
-        <v>45295</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C113" s="37">
-        <v>22</v>
-      </c>
-      <c r="D113" s="37">
-        <f>D112-D108</f>
+      <c r="D119" s="36">
+        <f>D118-D114</f>
         <v>12.787804000000051</v>
       </c>
-      <c r="E113" s="36"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="71">
-        <f>Sayfa2!$D113*Sayfa2!$C113</f>
+      <c r="E119" s="35"/>
+      <c r="F119" s="104"/>
+      <c r="G119" s="78"/>
+      <c r="H119" s="68"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="106">
+        <f>Sayfa2!$D119*Sayfa2!$C119</f>
         <v>281.33168800000112</v>
       </c>
-      <c r="H113" s="74">
-        <f>I113/I112*30</f>
+      <c r="K119" s="62">
+        <f>M119/M118*30</f>
         <v>3.2292431712199296E-2</v>
       </c>
-      <c r="I113" s="75">
-        <f>G113/F112</f>
+      <c r="L119" s="62"/>
+      <c r="M119" s="63">
+        <f>J119/I118</f>
         <v>2.3681116588946151E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="35"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="34"/>
-      <c r="H114" s="34"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="35"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="34"/>
-      <c r="H115" s="34"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="35"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="34"/>
-      <c r="H116" s="34"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="35"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="34"/>
-      <c r="H117" s="34"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="35"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="34"/>
-      <c r="H118" s="34"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="35"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="34"/>
-      <c r="H119" s="34"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="35"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="34"/>
-      <c r="H120" s="34"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="E121" s="36"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="E122" s="36"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="54"/>
-      <c r="E123" s="36"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="54"/>
-      <c r="E124" s="36"/>
+    <row r="120" spans="1:13">
+      <c r="E120" s="35"/>
+      <c r="F120" s="104"/>
+      <c r="G120" s="78"/>
+      <c r="H120" s="68"/>
+      <c r="I120" s="34"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="34"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="E121" s="35"/>
+      <c r="F121" s="104"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="68"/>
+      <c r="I121" s="34"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="E122" s="35"/>
+      <c r="F122" s="104"/>
+      <c r="G122" s="78"/>
+      <c r="H122" s="68"/>
+      <c r="I122" s="34"/>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="E123" s="35"/>
+      <c r="F123" s="104"/>
+      <c r="G123" s="78"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="34"/>
+      <c r="K123" s="34"/>
+      <c r="L123" s="34"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="E124" s="35"/>
+      <c r="F124" s="104"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="68"/>
+      <c r="I124" s="34"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="34"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="E125" s="35"/>
+      <c r="F125" s="104"/>
+      <c r="G125" s="78"/>
+      <c r="H125" s="68"/>
+      <c r="I125" s="34"/>
+      <c r="K125" s="34"/>
+      <c r="L125" s="34"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="E126" s="35"/>
+      <c r="F126" s="104"/>
+      <c r="G126" s="78"/>
+      <c r="H126" s="68"/>
+      <c r="I126" s="34"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="E127" s="35"/>
+      <c r="F127" s="104"/>
+      <c r="G127" s="78"/>
+      <c r="H127" s="68"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="E128" s="35"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="78"/>
+      <c r="H128" s="68"/>
+    </row>
+    <row r="129" spans="5:8">
+      <c r="E129" s="35"/>
+      <c r="F129" s="104"/>
+      <c r="G129" s="78"/>
+      <c r="H129" s="68"/>
+    </row>
+    <row r="130" spans="5:8">
+      <c r="E130" s="35"/>
+      <c r="F130" s="104"/>
+      <c r="G130" s="78"/>
+      <c r="H130" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -3510,7 +4744,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G23 F77:H77 F38:H38 F73:H73 F60:G60 F61:H63 I60 F26:H27 F97:G97 G33:H33 F65:H68 G28 F55 F54:H54 F56:H56 H55 F59 F58:H58 H59 F64 H64 F69 F70:H70 H69 F83 F82:H82 H83 F87 F84:H86 H87 F92 F91:H91 H92 F96 F93:H95 H96 F101 F100:H100 F102:G102 H101 F105 F103:H104 F106:G106 H105 F109 F107:H108 H109 F112 F111:H111 H112 F113:H120 I110 F110:G110 I97 G17 G11</xm:sqref>
+          <xm:sqref>J33 I83:L83 I48:L48 I79:L79 I66:J66 I67:L69 M66 I36:L37 I103:J103 J43:L43 I71:L74 J38 I61 I60:L60 I62:L62 K61:L61 I65 I64:L64 K65:L65 I70 K70:L70 I75 I76:L76 K75:L75 I89 I88:L88 K89:L89 I93 I90:L92 K93:L93 I98 I97:L97 K98:L98 I102 I99:L101 K102:L102 I107 I106:L106 I108:J108 K107:L107 I111 I109:L110 I112:J112 K111:L111 I115 I113:L114 K115:L115 I118 I117:L117 K118:L118 I119:L126 M116 I116:J116 M103</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3547,108 +4781,108 @@
   <sheetData>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3656,13 +4890,13 @@
         <v>45217</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="1">
         <v>3000.68</v>
@@ -3675,7 +4909,7 @@
         <v>3000.68</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" s="1">
         <v>5800</v>
@@ -3684,7 +4918,7 @@
         <v>95113516</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3692,13 +4926,13 @@
         <v>45217</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="18"/>
       <c r="H7" s="15">
@@ -3712,7 +4946,7 @@
         <v>920.68</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="1">
         <v>5800</v>
@@ -3721,7 +4955,7 @@
         <v>36114333</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3729,13 +4963,13 @@
         <v>45222</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -3750,7 +4984,7 @@
         <v>1830.68</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" s="1">
         <v>165</v>
@@ -3759,7 +4993,7 @@
         <v>88888888</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3767,7 +5001,7 @@
         <v>45222</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="24">
         <v>130</v>
@@ -3789,7 +5023,7 @@
         <v>1830.68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="1">
         <v>165</v>
@@ -3798,7 +5032,7 @@
         <v>88888888</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3806,7 +5040,7 @@
         <v>45226</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2">
         <v>157.30000000000001</v>
@@ -3824,7 +5058,7 @@
         <v>1830.68</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L10" s="1">
         <v>165</v>
@@ -3833,7 +5067,7 @@
         <v>95215533</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3841,7 +5075,7 @@
         <v>45226</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2">
         <v>157.30000000000001</v>
@@ -3859,7 +5093,7 @@
         <v>1830.68</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L11" s="1">
         <v>165</v>
@@ -3868,7 +5102,7 @@
         <v>95215846</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3876,7 +5110,7 @@
         <v>45229</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2">
         <v>173</v>
@@ -3894,7 +5128,7 @@
         <v>1830.68</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L12" s="1">
         <v>165</v>
@@ -3903,7 +5137,7 @@
         <v>95103707</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3911,7 +5145,7 @@
         <v>45229</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2">
         <v>173</v>
@@ -3929,7 +5163,7 @@
         <v>1830.68</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13" s="1">
         <v>165</v>
@@ -3938,7 +5172,7 @@
         <v>18200988</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3946,7 +5180,7 @@
         <v>45229</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2">
         <v>157.30000000000001</v>
@@ -3964,7 +5198,7 @@
         <v>1830.68</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L14" s="1">
         <v>165</v>
@@ -3973,7 +5207,7 @@
         <v>18201019</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3981,7 +5215,7 @@
         <v>45229</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2">
         <v>157.30000000000001</v>
@@ -3999,7 +5233,7 @@
         <v>1830.68</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L15" s="1">
         <v>165</v>
@@ -4008,7 +5242,7 @@
         <v>18201200</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4016,13 +5250,13 @@
         <v>45267</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="18"/>
       <c r="H16" s="15">
@@ -4036,7 +5270,7 @@
         <v>1264.68</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L16" s="1">
         <v>5800</v>
@@ -4045,7 +5279,7 @@
         <v>36093318</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4053,13 +5287,13 @@
         <v>45267</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="18"/>
       <c r="H17" s="15">
@@ -4073,7 +5307,7 @@
         <v>281.08</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="1">
         <v>5800</v>
@@ -4082,7 +5316,7 @@
         <v>36093353</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4090,13 +5324,13 @@
         <v>45267</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="1">
         <v>5181.13</v>
@@ -4109,7 +5343,7 @@
         <v>5462.21</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18" s="1">
         <v>5800</v>
@@ -4118,7 +5352,7 @@
         <v>36094012</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4150,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L19" s="1">
         <v>5800</v>
@@ -4167,13 +5401,13 @@
         <v>45267</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1">
         <v>5238.8999999999996</v>
@@ -4186,7 +5420,7 @@
         <v>5238.8999999999996</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20" s="1">
         <v>5800</v>
@@ -4195,7 +5429,7 @@
         <v>36094051</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4227,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L21" s="1">
         <v>5800</v>
@@ -4244,13 +5478,13 @@
         <v>45267</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="1">
         <v>1576.31</v>
@@ -4263,7 +5497,7 @@
         <v>1576.31</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" s="1">
         <v>5800</v>
@@ -4272,7 +5506,7 @@
         <v>10001</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4280,7 +5514,7 @@
         <v>45267</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2">
         <v>157.30000000000001</v>
@@ -4296,7 +5530,7 @@
         <v>1576.31</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L23" s="1">
         <v>165</v>
@@ -4305,7 +5539,7 @@
         <v>36094616</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4313,7 +5547,7 @@
         <v>45267</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2">
         <v>-157.53</v>
@@ -4329,7 +5563,7 @@
         <v>1576.31</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L24" s="1">
         <v>165</v>
@@ -4338,7 +5572,7 @@
         <v>36094724</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4346,7 +5580,7 @@
         <v>45271</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="20">
         <v>-143.69999999999999</v>
@@ -4372,7 +5606,7 @@
         <v>136.30000000000001</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L25" s="1">
         <v>165</v>
@@ -4381,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4389,10 +5623,10 @@
         <v>45271</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -4407,7 +5641,7 @@
         <v>628.1</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L26" s="1">
         <v>165</v>
@@ -4416,7 +5650,7 @@
         <v>88888888</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4424,7 +5658,7 @@
         <v>45271</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="24">
         <v>49.18</v>
@@ -4446,7 +5680,7 @@
         <v>628.1</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L27" s="1">
         <v>165</v>
@@ -4455,7 +5689,7 @@
         <v>88888888</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4463,13 +5697,13 @@
         <v>45271</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -4484,7 +5718,7 @@
         <v>826.2</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L28" s="1">
         <v>165</v>
@@ -4493,7 +5727,7 @@
         <v>88888888</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4501,7 +5735,7 @@
         <v>45271</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="24">
         <v>28.3</v>
@@ -4523,7 +5757,7 @@
         <v>826.2</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L29" s="1">
         <v>165</v>
@@ -4532,7 +5766,7 @@
         <v>88888888</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4540,13 +5774,13 @@
         <v>45273</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H30" s="1">
         <v>826.2</v>
@@ -4559,7 +5793,7 @@
         <v>1652.4</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30" s="1">
         <v>5800</v>
@@ -4568,7 +5802,7 @@
         <v>36151331</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4576,13 +5810,13 @@
         <v>45273</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="E31" s="18"/>
       <c r="H31" s="15">
@@ -4596,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L31" s="1">
         <v>5800</v>
@@ -4605,7 +5839,7 @@
         <v>36151331</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4613,13 +5847,13 @@
         <v>45273</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H32" s="1">
         <v>21088.49</v>
@@ -4632,7 +5866,7 @@
         <v>21088.49</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L32" s="1">
         <v>5800</v>
@@ -4641,7 +5875,7 @@
         <v>36151857</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -4673,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L33" s="1">
         <v>5800</v>
@@ -4690,13 +5924,13 @@
         <v>45278</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -4711,7 +5945,7 @@
         <v>220.32</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L34" s="1">
         <v>165</v>
@@ -4720,7 +5954,7 @@
         <v>88888888</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -4728,7 +5962,7 @@
         <v>45278</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="24">
         <v>55.08</v>
@@ -4750,7 +5984,7 @@
         <v>220.32</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L35" s="1">
         <v>165</v>
@@ -4759,7 +5993,7 @@
         <v>88888888</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4789,7 +6023,7 @@
         <v>5808.05</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="1">
         <v>5800</v>
@@ -4806,13 +6040,13 @@
         <v>45288</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H37" s="1">
         <v>-5587.73</v>
@@ -4825,7 +6059,7 @@
         <v>220.32</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L37" s="1">
         <v>5800</v>
@@ -4834,7 +6068,7 @@
         <v>95105725</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4842,13 +6076,13 @@
         <v>45288</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H38" s="1">
         <v>2086.5100000000002</v>
@@ -4861,7 +6095,7 @@
         <v>2306.83</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L38" s="1">
         <v>5800</v>
@@ -4870,7 +6104,7 @@
         <v>10001</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4878,7 +6112,7 @@
         <v>45288</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2">
         <v>115.1</v>
@@ -4894,7 +6128,7 @@
         <v>2306.83</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L39" s="1">
         <v>165</v>
@@ -4903,7 +6137,7 @@
         <v>95110347</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4911,13 +6145,13 @@
         <v>45288</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H40" s="1">
         <v>3960.3</v>
@@ -4930,7 +6164,7 @@
         <v>6267.13</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L40" s="1">
         <v>5800</v>
@@ -4939,7 +6173,7 @@
         <v>10001</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4947,7 +6181,7 @@
         <v>45288</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
         <v>39.520000000000003</v>
@@ -4963,7 +6197,7 @@
         <v>6267.13</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L41" s="1">
         <v>165</v>
@@ -4972,7 +6206,7 @@
         <v>95111027</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4996,7 +6230,7 @@
         <v>45293</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="20">
         <v>-115.1</v>
@@ -5023,7 +6257,7 @@
         <v>3960.3</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L43" s="1">
         <v>165</v>
@@ -5032,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -5040,7 +6274,7 @@
         <v>45293</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="20">
         <v>-39.5</v>
@@ -5067,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L44" s="1">
         <v>165</v>
@@ -5076,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -5106,7 +6340,7 @@
         <v>15088.11</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L45" s="1">
         <v>5800</v>
@@ -5123,13 +6357,13 @@
         <v>45293</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H46" s="1">
         <v>-15086.11</v>
@@ -5142,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L46" s="1">
         <v>5800</v>
@@ -5151,7 +6385,7 @@
         <v>95112740</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -5159,13 +6393,13 @@
         <v>45294</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G47" s="4">
         <v>-1.9</v>
@@ -5181,7 +6415,7 @@
         <v>0.1</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L47" s="1">
         <v>165</v>
@@ -5190,7 +6424,7 @@
         <v>22229971</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -5198,13 +6432,13 @@
         <v>45294</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G48" s="4">
         <v>-0.1</v>
@@ -5220,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L48" s="1">
         <v>165</v>
@@ -5229,7 +6463,7 @@
         <v>22229977</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -5259,7 +6493,7 @@
         <v>11880</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L49" s="1">
         <v>5800</v>
@@ -5276,13 +6510,13 @@
         <v>45295</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H50" s="1">
         <v>-11855.75</v>
@@ -5295,7 +6529,7 @@
         <v>24.25</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L50" s="1">
         <v>5800</v>
@@ -5304,7 +6538,7 @@
         <v>95101505</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5312,13 +6546,13 @@
         <v>45295</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G51" s="4">
         <v>-23.1</v>
@@ -5334,7 +6568,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L51" s="1">
         <v>5800</v>
@@ -5343,7 +6577,7 @@
         <v>95109971</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5351,13 +6585,13 @@
         <v>45295</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G52" s="4">
         <v>-1.1499999999999999</v>
@@ -5373,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L52" s="1">
         <v>5800</v>
@@ -5382,7 +6616,7 @@
         <v>95109977</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5390,13 +6624,13 @@
         <v>45296</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H53" s="1">
         <v>59466.12</v>
@@ -5409,7 +6643,7 @@
         <v>59466.12</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L53" s="1">
         <v>5800</v>
@@ -5418,7 +6652,7 @@
         <v>36161744</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5451,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L54" s="1">
         <v>5800</v>
@@ -5468,13 +6702,13 @@
         <v>45296</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H55" s="1">
         <v>27030.06</v>
@@ -5487,7 +6721,7 @@
         <v>27030.06</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L55" s="1">
         <v>5800</v>
@@ -5496,7 +6730,7 @@
         <v>95173631</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5507,7 +6741,7 @@
         <v>801</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D56" s="3">
         <v>50000</v>
@@ -5520,7 +6754,7 @@
         <v>27030.06</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L56" s="1">
         <v>5800</v>
@@ -5529,7 +6763,7 @@
         <v>95173631</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -5537,13 +6771,13 @@
         <v>45299</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H57" s="1">
         <v>91.67</v>
@@ -5556,7 +6790,7 @@
         <v>27121.73</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L57" s="1">
         <v>5800</v>
@@ -5565,7 +6799,7 @@
         <v>58009517</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5595,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L58" s="1">
         <v>5800</v>
@@ -5604,7 +6838,7 @@
         <v>95173631</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5612,7 +6846,7 @@
         <v>45313</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2">
         <v>51.4</v>
@@ -5628,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L59" s="1">
         <v>165</v>
@@ -5637,7 +6871,7 @@
         <v>95164217</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5645,7 +6879,7 @@
         <v>45313</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2">
         <v>41.6</v>
@@ -5661,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L60" s="1">
         <v>165</v>
@@ -5670,7 +6904,7 @@
         <v>95164250</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5678,7 +6912,7 @@
         <v>45315</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="30">
         <v>-51.4</v>
@@ -5703,7 +6937,7 @@
         <v>6462.8</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L61" s="1">
         <v>165</v>
@@ -5712,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5720,7 +6954,7 @@
         <v>45315</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="30">
         <v>-41.6</v>
@@ -5745,7 +6979,7 @@
         <v>7002.47</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L62" s="1">
         <v>165</v>
@@ -5754,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:14">

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C2EF46-0BE9-4180-8AD7-6262C9B19ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FDC8A0-2A51-419B-9DE8-CDBBC00FF88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,13 +600,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="169" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="171" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
-    <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -960,36 +960,36 @@
   <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="19" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1003,14 +1003,14 @@
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1021,23 +1021,23 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="20" fillId="13" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="13" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1060,34 +1060,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="14" fillId="18" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="24" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1135,31 +1135,6 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1178,9 +1153,28 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0.000000"/>
+      <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1196,6 +1190,12 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1283,17 +1283,17 @@
   <autoFilter ref="A8:M122" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Açıklama"/>
-    <tableColumn id="14" xr3:uid="{14C635C0-A2B7-4CD1-9422-A5A044293C07}" name="tarih" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{B85EB234-503C-47DE-B516-6C24B7106350}" name="adet" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{14C635C0-A2B7-4CD1-9422-A5A044293C07}" name="tarih" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{B85EB234-503C-47DE-B516-6C24B7106350}" name="adet" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="birim fiyat"/>
-    <tableColumn id="10" xr3:uid="{29742D95-3580-43F2-99B1-A96453A17C73}" name="Tutar" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{3D12E663-60FF-492B-BED5-F82E9F708C0C}" name="Tarih2" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{AE9F45A6-081C-4108-99AC-AAECA36FD297}" name="Miktar" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B8686873-6881-42EC-88F2-A1C5140B6E41}" name="Fiyat" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{29742D95-3580-43F2-99B1-A96453A17C73}" name="Tutar" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{3D12E663-60FF-492B-BED5-F82E9F708C0C}" name="Tarih2" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{AE9F45A6-081C-4108-99AC-AAECA36FD297}" name="Miktar" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{B8686873-6881-42EC-88F2-A1C5140B6E41}" name="Fiyat" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tutar3"/>
-    <tableColumn id="11" xr3:uid="{BF580679-CB93-4B1D-9D98-3E93F56EBE01}" name="Miktar3" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{BF580679-CB93-4B1D-9D98-3E93F56EBE01}" name="Miktar3" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tutar2"/>
-    <tableColumn id="13" xr3:uid="{F2210C53-71DE-4182-ADA1-DA7F836D8145}" name="Mktr" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F2210C53-71DE-4182-ADA1-DA7F836D8145}" name="Mktr" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{5B8EA65F-970F-4132-BAB4-53FD10BB59AA}" name="%"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1784,7 +1784,7 @@
     <row r="3" spans="1:14">
       <c r="K3" s="97">
         <f>SUM(K4:K5)</f>
-        <v>218504.018014</v>
+        <v>218151.638014</v>
       </c>
       <c r="L3" s="96"/>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E5" s="43">
         <f>SUBTOTAL(109,E9:E28)</f>
-        <v>307741.24214400002</v>
+        <v>309353.59214399999</v>
       </c>
       <c r="I5" s="44">
         <f>SUBTOTAL(109,I9:I28)</f>
@@ -1827,19 +1827,19 @@
       </c>
       <c r="K5" s="93">
         <f>SUBTOTAL(109,K9:K28)</f>
-        <v>206140.837856</v>
+        <v>205788.45785599999</v>
       </c>
       <c r="L5" s="46">
         <f>K5/E5</f>
-        <v>0.66985119192942433</v>
+        <v>0.66522084463208109</v>
       </c>
       <c r="M5" s="85">
         <f>SUBTOTAL(101,M9:M21)</f>
-        <v>0.29260124614802097</v>
+        <v>0.30272497002806864</v>
       </c>
       <c r="N5" s="85">
         <f>SUBTOTAL(101,N9:N21)</f>
-        <v>0.1649121170990934</v>
+        <v>0.32545453954093367</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1992,7 +1992,7 @@
         <v>1491.1200000000001</v>
       </c>
       <c r="F12" s="100">
-        <v>45348</v>
+        <v>45345</v>
       </c>
       <c r="G12" s="79"/>
       <c r="H12" s="69">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="106">
-        <f>H12-D12</f>
+        <f t="shared" ref="J12:J20" si="0">H12-D12</f>
         <v>0.75999999999999801</v>
       </c>
       <c r="K12" s="51">
@@ -2011,16 +2011,16 @@
         <v>28.879999999999924</v>
       </c>
       <c r="L12" s="50">
-        <f>F12-B12</f>
-        <v>4</v>
+        <f t="shared" ref="L12:L20" si="1">F12-B12</f>
+        <v>1</v>
       </c>
       <c r="M12" s="85">
-        <f>K12/E12</f>
+        <f t="shared" ref="M12:M20" si="2">K12/E12</f>
         <v>1.9367991845056012E-2</v>
       </c>
       <c r="N12" s="85">
-        <f>M12/L12*30</f>
-        <v>0.1452599388379201</v>
+        <f t="shared" ref="N12:N20" si="3">M12/L12*30</f>
+        <v>0.5810397553516804</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2041,7 +2041,8 @@
         <v>486.25</v>
       </c>
       <c r="F13" s="100">
-        <v>45348</v>
+        <f t="shared" ref="F13:F20" si="4">F12</f>
+        <v>45345</v>
       </c>
       <c r="G13" s="79"/>
       <c r="H13" s="69">
@@ -2052,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="106">
-        <f>H13-D13</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000071</v>
       </c>
       <c r="K13" s="51">
@@ -2060,16 +2061,16 @@
         <v>13.750000000000018</v>
       </c>
       <c r="L13" s="50">
-        <f>F13-B13</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M13" s="85">
-        <f>K13/E13</f>
+        <f t="shared" si="2"/>
         <v>2.8277634961439625E-2</v>
       </c>
       <c r="N13" s="85">
-        <f>M13/L13*30</f>
-        <v>0.21208226221079718</v>
+        <f t="shared" si="3"/>
+        <v>0.84832904884318872</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2083,42 +2084,43 @@
         <v>50000</v>
       </c>
       <c r="D14" s="36">
-        <v>0.97160599999999997</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="E14" s="60">
         <f>Sayfa2!$D14*Sayfa2!$C14</f>
-        <v>48580.299999999996</v>
+        <v>50160.249999999993</v>
       </c>
       <c r="F14" s="100">
-        <v>45348</v>
+        <f t="shared" si="4"/>
+        <v>45345</v>
       </c>
       <c r="G14" s="79"/>
       <c r="H14" s="69">
-        <v>0.98</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="I14" s="75">
         <f>Sayfa2!$H14*Sayfa2!$G14</f>
         <v>0</v>
       </c>
       <c r="J14" s="106">
-        <f>H14-D14</f>
-        <v>8.3940000000000126E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K14" s="51">
         <f>Sayfa2!$J14*Sayfa2!$C14</f>
-        <v>419.70000000000061</v>
+        <v>0</v>
       </c>
       <c r="L14" s="50">
-        <f>F14-B14</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M14" s="85">
-        <f>K14/E14</f>
-        <v>8.6393044094005313E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N14" s="85">
-        <f>M14/L14*30</f>
-        <v>6.4794783070503986E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2139,7 +2141,8 @@
         <v>45688.418239999999</v>
       </c>
       <c r="F15" s="100">
-        <v>45348</v>
+        <f t="shared" si="4"/>
+        <v>45345</v>
       </c>
       <c r="G15" s="79"/>
       <c r="H15" s="69">
@@ -2150,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="106">
-        <f>H15-D15</f>
+        <f t="shared" si="0"/>
         <v>0.89477199999998902</v>
       </c>
       <c r="K15" s="51">
@@ -2158,16 +2161,16 @@
         <v>71.581759999999122</v>
       </c>
       <c r="L15" s="50">
-        <f>F15-B15</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M15" s="85">
-        <f>K15/E15</f>
+        <f t="shared" si="2"/>
         <v>1.5667375400037296E-3</v>
       </c>
       <c r="N15" s="85">
-        <f>M15/L15*30</f>
-        <v>1.1750531550027973E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.7002126200111891E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2188,7 +2191,8 @@
         <v>60323.813903999995</v>
       </c>
       <c r="F16" s="100">
-        <v>45344</v>
+        <f t="shared" si="4"/>
+        <v>45345</v>
       </c>
       <c r="G16" s="79"/>
       <c r="H16" s="69">
@@ -2199,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="106">
-        <f>H16-D16</f>
+        <f t="shared" si="0"/>
         <v>2.907416000000012</v>
       </c>
       <c r="K16" s="51">
@@ -2207,16 +2211,16 @@
         <v>308.18609600000127</v>
       </c>
       <c r="L16" s="50">
-        <f>F16-B16</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="M16" s="85">
-        <f>K16/E16</f>
+        <f t="shared" si="2"/>
         <v>5.108862919218804E-3</v>
       </c>
       <c r="N16" s="85">
-        <f>M16/L16*30</f>
-        <v>5.108862919218804E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.831647189414103E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2227,45 +2231,46 @@
         <v>45341</v>
       </c>
       <c r="C17" s="106">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="36">
         <v>16.2</v>
       </c>
       <c r="E17" s="60">
         <f>Sayfa2!$D17*Sayfa2!$C17</f>
-        <v>550.79999999999995</v>
+        <v>583.19999999999993</v>
       </c>
       <c r="F17" s="100">
-        <v>45344</v>
+        <f t="shared" si="4"/>
+        <v>45345</v>
       </c>
       <c r="G17" s="79"/>
       <c r="H17" s="69">
-        <v>17.82</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I17" s="75">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
         <v>0</v>
       </c>
       <c r="J17" s="106">
-        <f>H17-D17</f>
-        <v>1.620000000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.4000000000000021</v>
       </c>
       <c r="K17" s="51">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>55.080000000000034</v>
+        <v>122.40000000000008</v>
       </c>
       <c r="L17" s="50">
-        <f>F17-B17</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="M17" s="85">
-        <f>K17/E17</f>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>0.2098765432098767</v>
       </c>
       <c r="N17" s="85">
-        <f>M17/L17*30</f>
-        <v>1.0000000000000009</v>
+        <f t="shared" si="3"/>
+        <v>1.5740740740740753</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2286,7 +2291,8 @@
         <v>337.176016</v>
       </c>
       <c r="F18" s="100">
-        <v>45344</v>
+        <f t="shared" si="4"/>
+        <v>45345</v>
       </c>
       <c r="G18" s="79">
         <v>18.010000000000002</v>
@@ -2299,7 +2305,7 @@
         <v>583.19982000000005</v>
       </c>
       <c r="J18" s="106">
-        <f>H18-D18</f>
+        <f t="shared" si="0"/>
         <v>13.660399999999999</v>
       </c>
       <c r="K18" s="51">
@@ -2307,16 +2313,16 @@
         <v>246.02380400000001</v>
       </c>
       <c r="L18" s="50">
-        <f>F18-B18</f>
-        <v>560</v>
+        <f t="shared" si="1"/>
+        <v>561</v>
       </c>
       <c r="M18" s="85">
-        <f>K18/E18</f>
+        <f t="shared" si="2"/>
         <v>0.72965985813178369</v>
       </c>
       <c r="N18" s="85">
-        <f>M18/L18*30</f>
-        <v>3.9088920971345559E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.901924375036276E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2337,7 +2343,8 @@
         <v>1534.9839839999997</v>
       </c>
       <c r="F19" s="100">
-        <v>45344</v>
+        <f t="shared" si="4"/>
+        <v>45345</v>
       </c>
       <c r="G19" s="79"/>
       <c r="H19" s="69">
@@ -2348,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="106">
-        <f>H19-D19</f>
+        <f t="shared" si="0"/>
         <v>13.660399999999999</v>
       </c>
       <c r="K19" s="51">
@@ -2356,16 +2363,16 @@
         <v>1120.0161959999998</v>
       </c>
       <c r="L19" s="50">
-        <f>F19-B19</f>
-        <v>560</v>
+        <f t="shared" si="1"/>
+        <v>561</v>
       </c>
       <c r="M19" s="85">
-        <f>K19/E19</f>
+        <f t="shared" si="2"/>
         <v>0.72965985813178358</v>
       </c>
       <c r="N19" s="85">
-        <f>M19/L19*30</f>
-        <v>3.9088920971345552E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.901924375036276E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2386,7 +2393,8 @@
         <v>12750</v>
       </c>
       <c r="F20" s="100">
-        <v>45351</v>
+        <f t="shared" si="4"/>
+        <v>45345</v>
       </c>
       <c r="G20" s="79"/>
       <c r="H20" s="69">
@@ -2397,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="106">
-        <f>H20-D20</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K20" s="51">
@@ -2405,16 +2413,16 @@
         <v>15300</v>
       </c>
       <c r="L20" s="50">
-        <f>F20-B20</f>
-        <v>577</v>
+        <f t="shared" si="1"/>
+        <v>571</v>
       </c>
       <c r="M20" s="85">
-        <f>K20/E20</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="N20" s="85">
-        <f>M20/L20*30</f>
-        <v>6.2391681109185443E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.304728546409806E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2435,7 +2443,8 @@
         <v>91326.5</v>
       </c>
       <c r="F21" s="100">
-        <v>45351</v>
+        <f t="shared" ref="F17:F26" si="5">F20</f>
+        <v>45345</v>
       </c>
       <c r="G21" s="79"/>
       <c r="H21" s="69">
@@ -2446,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="106">
-        <f t="shared" ref="J21:J26" si="0">H21-D21</f>
+        <f t="shared" ref="J21:J26" si="6">H21-D21</f>
         <v>189.47000000000003</v>
       </c>
       <c r="K21" s="51">
@@ -2454,16 +2463,16 @@
         <v>9473.5000000000018</v>
       </c>
       <c r="L21" s="50">
-        <f t="shared" ref="L21:L26" si="1">F21-B21</f>
-        <v>132</v>
+        <f t="shared" ref="L21:L26" si="7">F21-B21</f>
+        <v>126</v>
       </c>
       <c r="M21" s="85">
-        <f t="shared" ref="M21:M26" si="2">K21/E21</f>
+        <f t="shared" ref="M21:M26" si="8">K21/E21</f>
         <v>0.10373221354152411</v>
       </c>
       <c r="N21" s="85">
-        <f t="shared" ref="N21:N26" si="3">M21/L21*30</f>
-        <v>2.3575503077619114E-2</v>
+        <f t="shared" ref="N21:N26" si="9">M21/L21*30</f>
+        <v>2.4698146081315264E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2484,7 +2493,8 @@
         <v>4423.1000000000004</v>
       </c>
       <c r="F22" s="100">
-        <v>45351</v>
+        <f t="shared" si="5"/>
+        <v>45345</v>
       </c>
       <c r="G22" s="79"/>
       <c r="H22" s="69">
@@ -2495,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1613.9</v>
       </c>
       <c r="K22" s="51">
@@ -2503,16 +2513,16 @@
         <v>17752.900000000001</v>
       </c>
       <c r="L22" s="50">
-        <f t="shared" si="1"/>
-        <v>1107</v>
+        <f t="shared" si="7"/>
+        <v>1101</v>
       </c>
       <c r="M22" s="85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.0136781895050984</v>
       </c>
       <c r="N22" s="85">
-        <f t="shared" si="3"/>
-        <v>0.10877176665325469</v>
+        <f t="shared" si="9"/>
+        <v>0.1093645283243896</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2533,7 +2543,8 @@
         <v>23443</v>
       </c>
       <c r="F23" s="100">
-        <v>45351</v>
+        <f t="shared" si="5"/>
+        <v>45345</v>
       </c>
       <c r="G23" s="79"/>
       <c r="H23" s="69">
@@ -2544,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1547.1399999999999</v>
       </c>
       <c r="K23" s="51">
@@ -2552,16 +2563,16 @@
         <v>77357</v>
       </c>
       <c r="L23" s="50">
-        <f t="shared" si="1"/>
-        <v>1267</v>
+        <f t="shared" si="7"/>
+        <v>1261</v>
       </c>
       <c r="M23" s="85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.2997909823828007</v>
       </c>
       <c r="N23" s="85">
-        <f t="shared" si="3"/>
-        <v>7.8132383166127889E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.8504147082858064E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2582,7 +2593,8 @@
         <v>9996.75</v>
       </c>
       <c r="F24" s="100">
-        <v>45351</v>
+        <f t="shared" si="5"/>
+        <v>45345</v>
       </c>
       <c r="G24" s="79"/>
       <c r="H24" s="69">
@@ -2593,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1616.13</v>
       </c>
       <c r="K24" s="51">
@@ -2601,16 +2613,16 @@
         <v>40403.25</v>
       </c>
       <c r="L24" s="50">
-        <f t="shared" si="1"/>
-        <v>1331</v>
+        <f t="shared" si="7"/>
+        <v>1325</v>
       </c>
       <c r="M24" s="85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.0416385325230699</v>
       </c>
       <c r="N24" s="85">
-        <f t="shared" si="3"/>
-        <v>9.109628548136145E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.1508796962786493E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2631,7 +2643,8 @@
         <v>6571.4400000000005</v>
       </c>
       <c r="F25" s="100">
-        <v>45351</v>
+        <f t="shared" si="5"/>
+        <v>45345</v>
       </c>
       <c r="G25" s="79"/>
       <c r="H25" s="69">
@@ -2642,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1742.19</v>
       </c>
       <c r="K25" s="51">
@@ -2650,16 +2663,16 @@
         <v>41812.559999999998</v>
       </c>
       <c r="L25" s="50">
-        <f t="shared" si="1"/>
-        <v>1548</v>
+        <f t="shared" si="7"/>
+        <v>1542</v>
       </c>
       <c r="M25" s="85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.3627698038786011</v>
       </c>
       <c r="N25" s="85">
-        <f t="shared" si="3"/>
-        <v>0.12330949232322869</v>
+        <f t="shared" si="9"/>
+        <v>0.12378929579530353</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2680,7 +2693,8 @@
         <v>237.59</v>
       </c>
       <c r="F26" s="100">
-        <v>45351</v>
+        <f t="shared" si="5"/>
+        <v>45345</v>
       </c>
       <c r="G26" s="79"/>
       <c r="H26" s="69">
@@ -2691,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1778.41</v>
       </c>
       <c r="K26" s="51">
@@ -2699,16 +2713,16 @@
         <v>1778.41</v>
       </c>
       <c r="L26" s="50">
-        <f t="shared" si="1"/>
-        <v>1548</v>
+        <f t="shared" si="7"/>
+        <v>1542</v>
       </c>
       <c r="M26" s="85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.485205606296562</v>
       </c>
       <c r="N26" s="85">
-        <f t="shared" si="3"/>
-        <v>0.14506212415303416</v>
+        <f t="shared" si="9"/>
+        <v>0.1456265682158864</v>
       </c>
     </row>
     <row r="27" spans="1:14">

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7575DE8-3C09-4D9C-9F25-C7172134FE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DFA546-4E3E-4C83-91B6-347B583B3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
+    <sheet name="TTE" sheetId="4" r:id="rId2"/>
+    <sheet name="801" sheetId="5" r:id="rId3"/>
+    <sheet name="Sayfa3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="217">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -552,13 +554,148 @@
   </si>
   <si>
     <t>Euro satış MOGAN</t>
+  </si>
+  <si>
+    <t>TTE</t>
+  </si>
+  <si>
+    <t>Tarih</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Kar</t>
+  </si>
+  <si>
+    <t>Alış</t>
+  </si>
+  <si>
+    <t>Toplam Kar</t>
+  </si>
+  <si>
+    <t>Kar %</t>
+  </si>
+  <si>
+    <t>Değişim</t>
+  </si>
+  <si>
+    <t>Değişim Oranı (%)</t>
+  </si>
+  <si>
+    <t>Küm.Oran (%)</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.616584</t>
+  </si>
+  <si>
+    <t>0.593753</t>
+  </si>
+  <si>
+    <t>0.601064</t>
+  </si>
+  <si>
+    <t>0.608605</t>
+  </si>
+  <si>
+    <t>0.604285</t>
+  </si>
+  <si>
+    <t>0.604500</t>
+  </si>
+  <si>
+    <t>0.600845</t>
+  </si>
+  <si>
+    <t>0.599500</t>
+  </si>
+  <si>
+    <t>0.597470</t>
+  </si>
+  <si>
+    <t>0.605467</t>
+  </si>
+  <si>
+    <t>0.608884</t>
+  </si>
+  <si>
+    <t>0.629702</t>
+  </si>
+  <si>
+    <t>0.625502</t>
+  </si>
+  <si>
+    <t>0.625781</t>
+  </si>
+  <si>
+    <t>0.614817</t>
+  </si>
+  <si>
+    <t>0.634786</t>
+  </si>
+  <si>
+    <t>0.631570</t>
+  </si>
+  <si>
+    <t>0.629156</t>
+  </si>
+  <si>
+    <t>0.641710</t>
+  </si>
+  <si>
+    <t>0.665196</t>
+  </si>
+  <si>
+    <t>0.658159</t>
+  </si>
+  <si>
+    <t>0.658668</t>
+  </si>
+  <si>
+    <t>0.658434</t>
+  </si>
+  <si>
+    <t>0.662731</t>
+  </si>
+  <si>
+    <t>0.645802</t>
+  </si>
+  <si>
+    <t>0.657615</t>
+  </si>
+  <si>
+    <t>0.666105</t>
+  </si>
+  <si>
+    <t>0.670066</t>
+  </si>
+  <si>
+    <t>0.667361</t>
+  </si>
+  <si>
+    <t>0.675217</t>
+  </si>
+  <si>
+    <t>0.681558</t>
+  </si>
+  <si>
+    <t>0.689368</t>
+  </si>
+  <si>
+    <t>0.690072</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
@@ -569,6 +706,7 @@
     <numFmt numFmtId="171" formatCode="0.000000"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
     <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -904,7 +1042,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1028,6 +1166,55 @@
     <xf numFmtId="170" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="17" fillId="23" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="20" fillId="24" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1450,162 +1637,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:3">
-      <c r="C5">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ73"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
@@ -1613,11 +1654,12 @@
     <col min="6" max="6" width="8.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="1024" width="8.5703125" style="1"/>
   </cols>
@@ -1643,7 +1685,7 @@
       </c>
       <c r="K2" s="12">
         <f>SUM(K4:K5)</f>
-        <v>227558.60604200003</v>
+        <v>225221.56604200002</v>
       </c>
     </row>
     <row r="3" spans="1:1024">
@@ -1685,7 +1727,7 @@
     <row r="5" spans="1:1024">
       <c r="B5" s="3">
         <f>(K5+K4)/B4</f>
-        <v>147.09670720232711</v>
+        <v>145.5860155410472</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>28</v>
@@ -1700,19 +1742,19 @@
       </c>
       <c r="K5" s="24">
         <f>SUBTOTAL(109,K9:K31)</f>
-        <v>214430.66066200001</v>
+        <v>212093.620662</v>
       </c>
       <c r="L5" s="25">
         <f>K5/E5</f>
-        <v>0.67872539216844885</v>
+        <v>0.67132809000272153</v>
       </c>
       <c r="M5" s="26">
         <f>SUBTOTAL(101,M9:M24)</f>
-        <v>0.34162814721660217</v>
+        <v>0.35050061033580204</v>
       </c>
       <c r="N5" s="26">
         <f>SUBTOTAL(101,N9:N24)</f>
-        <v>0.19009638307235052</v>
+        <v>0.29846895596984263</v>
       </c>
     </row>
     <row r="6" spans="1:1024">
@@ -5032,11 +5074,11 @@
         <v>79832.625</v>
       </c>
       <c r="F14" s="2">
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18">
-        <v>1.1000000000000001</v>
+        <v>1.067704</v>
       </c>
       <c r="I14" s="19">
         <f>Sayfa2!$H14*Sayfa2!$G14</f>
@@ -5044,23 +5086,23 @@
       </c>
       <c r="J14" s="28">
         <f t="shared" ref="J14:J29" si="9">H14-D14</f>
-        <v>3.5565000000000069E-2</v>
+        <v>3.2689999999999664E-3</v>
       </c>
       <c r="K14" s="47">
         <f>Sayfa2!$J14*Sayfa2!$C14</f>
-        <v>2667.375000000005</v>
+        <v>245.17499999999748</v>
       </c>
       <c r="L14" s="48">
         <f t="shared" ref="L14:L29" si="10">F14-B14</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M14" s="26">
         <f t="shared" ref="M14:M29" si="11">K14/E14</f>
-        <v>3.3412091860940372E-2</v>
+        <v>3.071112843903072E-3</v>
       </c>
       <c r="N14" s="26">
         <f t="shared" ref="N14:N29" si="12">M14/L14*30</f>
-        <v>9.1123886893473741E-2</v>
+        <v>4.6066692658546078E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1024">
@@ -5180,11 +5222,11 @@
         <v>50160.249999999993</v>
       </c>
       <c r="F17" s="2">
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18">
-        <v>1.0677000000000001</v>
+        <v>1.067704</v>
       </c>
       <c r="I17" s="19">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
@@ -5192,23 +5234,23 @@
       </c>
       <c r="J17" s="28">
         <f t="shared" si="9"/>
-        <v>6.4495000000000191E-2</v>
+        <v>6.4499000000000084E-2</v>
       </c>
       <c r="K17" s="47">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>3224.7500000000095</v>
+        <v>3224.9500000000044</v>
       </c>
       <c r="L17" s="48">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M17" s="26">
         <f t="shared" si="11"/>
-        <v>6.4288953902741919E-2</v>
+        <v>6.4292941123698641E-2</v>
       </c>
       <c r="N17" s="26">
         <f t="shared" si="12"/>
-        <v>0.12857790780548384</v>
+        <v>0.32146470561849322</v>
       </c>
     </row>
     <row r="18" spans="1:1024">
@@ -5279,11 +5321,11 @@
       </c>
       <c r="F19" s="2">
         <f>F39</f>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="I19" s="19">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
@@ -5291,23 +5333,23 @@
       </c>
       <c r="J19" s="28">
         <f t="shared" si="9"/>
-        <v>7.5</v>
+        <v>9.86</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>270</v>
+        <v>354.96</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M19" s="26">
         <f t="shared" si="11"/>
-        <v>0.46296296296296302</v>
+        <v>0.60864197530864206</v>
       </c>
       <c r="N19" s="26">
         <f t="shared" si="12"/>
-        <v>0.77160493827160503</v>
+        <v>2.0288065843621403</v>
       </c>
     </row>
     <row r="20" spans="1:1024">
@@ -5329,7 +5371,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" ref="F20:F29" si="13">F19</f>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G20" s="17">
         <v>18.010000000000002</v>
@@ -5351,7 +5393,7 @@
       </c>
       <c r="L20" s="48">
         <f t="shared" si="10"/>
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="M20" s="26">
         <f t="shared" si="11"/>
@@ -5359,7 +5401,7 @@
       </c>
       <c r="N20" s="26">
         <f t="shared" si="12"/>
-        <v>3.8069209989484369E-2</v>
+        <v>3.8674550784370161E-2</v>
       </c>
     </row>
     <row r="21" spans="1:1024">
@@ -5381,7 +5423,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="13"/>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18">
@@ -5401,7 +5443,7 @@
       </c>
       <c r="L21" s="48">
         <f t="shared" si="10"/>
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="M21" s="26">
         <f t="shared" si="11"/>
@@ -5409,7 +5451,7 @@
       </c>
       <c r="N21" s="26">
         <f t="shared" si="12"/>
-        <v>3.8069209989484362E-2</v>
+        <v>3.8674550784370154E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1024">
@@ -6457,7 +6499,7 @@
       </c>
       <c r="F23" s="2">
         <f>F21</f>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="18">
@@ -6477,7 +6519,7 @@
       </c>
       <c r="L23" s="48">
         <f t="shared" si="10"/>
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="M23" s="26">
         <f t="shared" si="11"/>
@@ -6485,7 +6527,7 @@
       </c>
       <c r="N23" s="26">
         <f t="shared" si="12"/>
-        <v>6.1538461538461542E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="O23" s="4"/>
     </row>
@@ -6508,7 +6550,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="13"/>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="18">
@@ -6528,7 +6570,7 @@
       </c>
       <c r="L24" s="48">
         <f t="shared" si="10"/>
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M24" s="26">
         <f t="shared" si="11"/>
@@ -6536,7 +6578,7 @@
       </c>
       <c r="N24" s="26">
         <f t="shared" si="12"/>
-        <v>2.3870790124287198E-2</v>
+        <v>2.5510768071757312E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1024">
@@ -6558,7 +6600,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="13"/>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="18">
@@ -6579,7 +6621,7 @@
       </c>
       <c r="L25" s="48">
         <f t="shared" si="10"/>
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="M25" s="26">
         <f t="shared" si="11"/>
@@ -6587,7 +6629,7 @@
       </c>
       <c r="N25" s="26">
         <f t="shared" si="12"/>
-        <v>0.10892812733150957</v>
+        <v>0.10981452258104266</v>
       </c>
     </row>
     <row r="26" spans="1:1024">
@@ -6609,7 +6651,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="13"/>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="18">
@@ -6630,7 +6672,7 @@
       </c>
       <c r="L26" s="48">
         <f t="shared" si="10"/>
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="M26" s="26">
         <f t="shared" si="11"/>
@@ -6638,7 +6680,7 @@
       </c>
       <c r="N26" s="26">
         <f t="shared" si="12"/>
-        <v>7.8344720987827798E-2</v>
+        <v>7.8901673980632261E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1024">
@@ -6660,7 +6702,7 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="13"/>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="18">
@@ -6681,7 +6723,7 @@
       </c>
       <c r="L27" s="48">
         <f t="shared" si="10"/>
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="M27" s="26">
         <f t="shared" si="11"/>
@@ -6689,7 +6731,7 @@
       </c>
       <c r="N27" s="26">
         <f t="shared" si="12"/>
-        <v>9.1336443119219138E-2</v>
+        <v>9.1954509275664981E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1024">
@@ -6711,7 +6753,7 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="13"/>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18">
@@ -6732,7 +6774,7 @@
       </c>
       <c r="L28" s="48">
         <f t="shared" si="10"/>
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="M28" s="26">
         <f t="shared" si="11"/>
@@ -6740,7 +6782,7 @@
       </c>
       <c r="N28" s="26">
         <f t="shared" si="12"/>
-        <v>0.12366131394098077</v>
+        <v>0.12438073981394059</v>
       </c>
     </row>
     <row r="29" spans="1:1024">
@@ -6762,7 +6804,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="13"/>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="18">
@@ -6783,7 +6825,7 @@
       </c>
       <c r="L29" s="48">
         <f t="shared" si="10"/>
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="M29" s="26">
         <f t="shared" si="11"/>
@@ -6791,7 +6833,7 @@
       </c>
       <c r="N29" s="26">
         <f t="shared" si="12"/>
-        <v>0.14545239033218207</v>
+        <v>0.14629859040521997</v>
       </c>
     </row>
     <row r="30" spans="1:1024">
@@ -6878,7 +6920,7 @@
       </c>
       <c r="F36" s="2">
         <f>F17</f>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G36" s="17">
         <v>2</v>
@@ -6900,7 +6942,7 @@
       </c>
       <c r="L36" s="48">
         <f t="shared" ref="L36:L44" si="15">F36-B36</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M36" s="26">
         <f>K36/E36</f>
@@ -6908,7 +6950,7 @@
       </c>
       <c r="N36" s="26">
         <f>M36/L36*30</f>
-        <v>9.5628121268047355E-3</v>
+        <v>2.3907030317011836E-2</v>
       </c>
       <c r="O36" s="45"/>
     </row>
@@ -6984,7 +7026,7 @@
       </c>
       <c r="F38" s="2">
         <f>F17</f>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G38" s="17">
         <v>44</v>
@@ -7006,7 +7048,7 @@
       </c>
       <c r="L38" s="48">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M38" s="26">
         <f>K38/E38</f>
@@ -7014,7 +7056,7 @@
       </c>
       <c r="N38" s="26">
         <f>M38/L38*30</f>
-        <v>9.5628121268047338E-3</v>
+        <v>2.3907030317011836E-2</v>
       </c>
       <c r="O38" s="45"/>
     </row>
@@ -7037,7 +7079,7 @@
       </c>
       <c r="F39" s="2">
         <f>F38</f>
-        <v>45359</v>
+        <v>45350</v>
       </c>
       <c r="G39" s="17">
         <v>106</v>
@@ -7059,7 +7101,7 @@
       </c>
       <c r="L39" s="48">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M39" s="26">
         <f>K39/E39</f>
@@ -7067,7 +7109,7 @@
       </c>
       <c r="N39" s="26">
         <f>M39/L39*30</f>
-        <v>1.3891500649040305E-2</v>
+        <v>2.778300129808061E-2</v>
       </c>
       <c r="O39" s="45"/>
     </row>
@@ -7868,7 +7910,7 @@
         <v>0.30126582278481007</v>
       </c>
       <c r="N55" s="62">
-        <f t="shared" ref="N54:N56" si="22">M55/L55*30</f>
+        <f t="shared" ref="N55:N56" si="22">M55/L55*30</f>
         <v>0.36151898734177207</v>
       </c>
       <c r="O55" s="45"/>
@@ -8189,10 +8231,10 @@
       <c r="J73"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -8212,7 +8254,1109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7640D-BCE1-450D-8C0D-0DF7FD321A6F}">
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" style="110" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="112" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="112" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="112" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="110" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="110"/>
+    <col min="10" max="10" width="11.28515625" style="112" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="112" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="112"/>
+    <col min="14" max="18" width="9.140625" style="110"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="111" customFormat="1">
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+    </row>
+    <row r="2" spans="1:13" s="111" customFormat="1">
+      <c r="B2" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+    </row>
+    <row r="3" spans="1:13" s="111" customFormat="1">
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+    </row>
+    <row r="4" spans="1:13" s="111" customFormat="1">
+      <c r="C4" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+    </row>
+    <row r="5" spans="1:13" s="111" customFormat="1">
+      <c r="A5" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="112"/>
+      <c r="G5" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="111" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+    </row>
+    <row r="6" spans="1:13" s="111" customFormat="1">
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+    </row>
+    <row r="7" spans="1:13" s="111" customFormat="1">
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+    </row>
+    <row r="8" spans="1:13" s="111" customFormat="1">
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+    </row>
+    <row r="9" spans="1:13" s="111" customFormat="1">
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+    </row>
+    <row r="10" spans="1:13" s="111" customFormat="1">
+      <c r="A10" s="111">
+        <v>45351</v>
+      </c>
+      <c r="B10" s="110">
+        <v>1.067704</v>
+      </c>
+      <c r="D10" s="112">
+        <f>$C$14*B10</f>
+        <v>53385.2</v>
+      </c>
+      <c r="E10" s="112">
+        <f>D10-$D$14</f>
+        <v>3224.9500000000044</v>
+      </c>
+      <c r="F10" s="112"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="112">
+        <f>$G$12*B10</f>
+        <v>80077.8</v>
+      </c>
+      <c r="I10" s="112">
+        <f>H10-$H$12</f>
+        <v>245.17500000000291</v>
+      </c>
+      <c r="J10" s="112">
+        <f>E10+I10</f>
+        <v>3470.1250000000073</v>
+      </c>
+      <c r="K10" s="113">
+        <f>J10/($H$12+$D$14)</f>
+        <v>2.669473230744383E-2</v>
+      </c>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="109">
+        <v>45350</v>
+      </c>
+      <c r="B11" s="110">
+        <v>1.067704</v>
+      </c>
+      <c r="D11" s="112">
+        <f>$C$14*B11</f>
+        <v>53385.2</v>
+      </c>
+      <c r="E11" s="112">
+        <f>D11-$D$14</f>
+        <v>3224.9500000000044</v>
+      </c>
+      <c r="H11" s="112">
+        <f>$G$12*B11</f>
+        <v>80077.8</v>
+      </c>
+      <c r="I11" s="112">
+        <f>H11-$H$12</f>
+        <v>245.17500000000291</v>
+      </c>
+      <c r="J11" s="112">
+        <f>E11+I11</f>
+        <v>3470.1250000000073</v>
+      </c>
+      <c r="K11" s="113">
+        <f>J11/($H$12+$D$14)</f>
+        <v>2.669473230744383E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="109">
+        <v>45349</v>
+      </c>
+      <c r="B12" s="110">
+        <v>1.064435</v>
+      </c>
+      <c r="D12" s="112">
+        <f>$C$14*B12</f>
+        <v>53221.75</v>
+      </c>
+      <c r="E12" s="112">
+        <f>D12-$D$14</f>
+        <v>3061.5000000000073</v>
+      </c>
+      <c r="G12" s="111">
+        <v>75000</v>
+      </c>
+      <c r="H12" s="112">
+        <f>$B$12*G12</f>
+        <v>79832.625</v>
+      </c>
+      <c r="I12" s="112">
+        <f>H12-$H$12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="112">
+        <f>E12+I12</f>
+        <v>3061.5000000000073</v>
+      </c>
+      <c r="K12" s="113">
+        <f>J12/($H$12+$D$14)</f>
+        <v>2.3551290791899226E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="109">
+        <v>45348</v>
+      </c>
+      <c r="B13" s="110">
+        <v>1.0192399999999999</v>
+      </c>
+      <c r="D13" s="112">
+        <f>$C$14*B13</f>
+        <v>50961.999999999993</v>
+      </c>
+      <c r="E13" s="112">
+        <f>D13-$D$14</f>
+        <v>801.75</v>
+      </c>
+      <c r="J13" s="112">
+        <f>E13+I13</f>
+        <v>801.75</v>
+      </c>
+      <c r="K13" s="113">
+        <f>J13/($H$12+$D$14)</f>
+        <v>6.167645726736946E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="109">
+        <v>45347</v>
+      </c>
+      <c r="B14" s="110">
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="C14" s="111">
+        <v>50000</v>
+      </c>
+      <c r="D14" s="112">
+        <f>$C$14*B14</f>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="E14" s="112">
+        <f>D14-$D$14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="112">
+        <f>E14+I14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="110">
+        <f>J14/($H$12+$D$14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="109">
+        <v>45346</v>
+      </c>
+      <c r="B15" s="110">
+        <v>0.97160999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="109">
+        <v>45345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F6C3B0-725E-4944-8F62-283C27DB3DF7}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="117" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="128" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="123" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="9.140625" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25.5">
+      <c r="A1" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="115">
+        <v>45289</v>
+      </c>
+      <c r="B2" s="126">
+        <v>538.78970700000002</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="116">
+        <v>0</v>
+      </c>
+      <c r="E2" s="124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="115">
+        <v>45294</v>
+      </c>
+      <c r="B3" s="126">
+        <v>539.40629100000001</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E3" s="129">
+        <f>D2+D3</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="115">
+        <v>45295</v>
+      </c>
+      <c r="B4" s="127">
+        <v>540.000044</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E4" s="129">
+        <f>D3+D4</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="115">
+        <v>45296</v>
+      </c>
+      <c r="B5" s="126">
+        <v>540.60110799999995</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E5" s="129">
+        <f>E4+D5</f>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="115">
+        <v>45299</v>
+      </c>
+      <c r="B6" s="126">
+        <v>542.43450199999995</v>
+      </c>
+      <c r="C6" s="122">
+        <v>1833394</v>
+      </c>
+      <c r="D6" s="116">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E6" s="129">
+        <f>E5+D6</f>
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="115">
+        <v>45300</v>
+      </c>
+      <c r="B7" s="126">
+        <v>543.04310699999996</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E7" s="129">
+        <f>E6+D7</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="115">
+        <v>45301</v>
+      </c>
+      <c r="B8" s="126">
+        <v>543.64739199999997</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E8" s="129">
+        <f>E7+D8</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="115">
+        <v>45302</v>
+      </c>
+      <c r="B9" s="126">
+        <v>544.251892</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E9" s="129">
+        <f t="shared" ref="E9:E43" si="0">E8+D9</f>
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="K9" s="118"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="115">
+        <v>45303</v>
+      </c>
+      <c r="B10" s="126">
+        <v>544.85273700000005</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E10" s="129">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="K10" s="118"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="115">
+        <v>45306</v>
+      </c>
+      <c r="B11" s="126">
+        <v>546.65639799999997</v>
+      </c>
+      <c r="C11" s="122">
+        <v>1803661</v>
+      </c>
+      <c r="D11" s="116">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E11" s="129">
+        <f t="shared" si="0"/>
+        <v>1.43E-2</v>
+      </c>
+      <c r="K11" s="118"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="115">
+        <v>45307</v>
+      </c>
+      <c r="B12" s="126">
+        <v>547.255898</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="116">
+        <v>1E-3</v>
+      </c>
+      <c r="E12" s="129">
+        <f t="shared" si="0"/>
+        <v>1.5300000000000001E-2</v>
+      </c>
+      <c r="K12" s="118"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="115">
+        <v>45308</v>
+      </c>
+      <c r="B13" s="126">
+        <v>547.85336800000005</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="116">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="129">
+        <f t="shared" si="0"/>
+        <v>1.6300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="115">
+        <v>45309</v>
+      </c>
+      <c r="B14" s="126">
+        <v>548.45883500000002</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E14" s="129">
+        <f t="shared" si="0"/>
+        <v>1.7400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="115">
+        <v>45310</v>
+      </c>
+      <c r="B15" s="126">
+        <v>549.06771900000001</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E15" s="129">
+        <f t="shared" si="0"/>
+        <v>1.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="115">
+        <v>45313</v>
+      </c>
+      <c r="B16" s="126">
+        <v>550.93394899999998</v>
+      </c>
+      <c r="C16" s="122">
+        <v>1866230</v>
+      </c>
+      <c r="D16" s="116">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E16" s="129">
+        <f t="shared" si="0"/>
+        <v>2.1800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="115">
+        <v>45314</v>
+      </c>
+      <c r="B17" s="126">
+        <v>551.56365100000005</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E17" s="129">
+        <f t="shared" si="0"/>
+        <v>2.2900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="115">
+        <v>45315</v>
+      </c>
+      <c r="B18" s="126">
+        <v>552.18915300000003</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E18" s="129">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="115">
+        <v>45316</v>
+      </c>
+      <c r="B19" s="126">
+        <v>552.81493399999999</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E19" s="129">
+        <f t="shared" si="0"/>
+        <v>2.5100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="115">
+        <v>45317</v>
+      </c>
+      <c r="B20" s="126">
+        <v>553.42975100000001</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E20" s="129">
+        <f t="shared" si="0"/>
+        <v>2.6200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="115">
+        <v>45320</v>
+      </c>
+      <c r="B21" s="126">
+        <v>555.31532100000004</v>
+      </c>
+      <c r="C21" s="122">
+        <v>1885570</v>
+      </c>
+      <c r="D21" s="116">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E21" s="129">
+        <f t="shared" si="0"/>
+        <v>2.9600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="115">
+        <v>45321</v>
+      </c>
+      <c r="B22" s="126">
+        <v>555.950107</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E22" s="129">
+        <f t="shared" si="0"/>
+        <v>3.0700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="115">
+        <v>45322</v>
+      </c>
+      <c r="B23" s="126">
+        <v>556.58167700000001</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E23" s="129">
+        <f t="shared" si="0"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="115">
+        <v>45323</v>
+      </c>
+      <c r="B24" s="126">
+        <v>557.21083299999998</v>
+      </c>
+      <c r="C24" s="121" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E24" s="129">
+        <f t="shared" si="0"/>
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="115">
+        <v>45324</v>
+      </c>
+      <c r="B25" s="126">
+        <v>557.85254299999997</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E25" s="129">
+        <f t="shared" si="0"/>
+        <v>3.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="115">
+        <v>45327</v>
+      </c>
+      <c r="B26" s="126">
+        <v>559.83385699999997</v>
+      </c>
+      <c r="C26" s="122">
+        <v>1981314</v>
+      </c>
+      <c r="D26" s="116">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E26" s="129">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="115">
+        <v>45328</v>
+      </c>
+      <c r="B27" s="126">
+        <v>560.499053</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E27" s="129">
+        <f t="shared" si="0"/>
+        <v>3.8599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="115">
+        <v>45329</v>
+      </c>
+      <c r="B28" s="126">
+        <v>561.15721199999996</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E28" s="129">
+        <f t="shared" si="0"/>
+        <v>3.9699999999999992E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="115">
+        <v>45330</v>
+      </c>
+      <c r="B29" s="126">
+        <v>561.81587999999999</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E29" s="129">
+        <f t="shared" si="0"/>
+        <v>4.0799999999999989E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="115">
+        <v>45331</v>
+      </c>
+      <c r="B30" s="126">
+        <v>562.47431400000005</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E30" s="129">
+        <f t="shared" si="0"/>
+        <v>4.1899999999999986E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="115">
+        <v>45334</v>
+      </c>
+      <c r="B31" s="126">
+        <v>564.45009800000003</v>
+      </c>
+      <c r="C31" s="122">
+        <v>1975784</v>
+      </c>
+      <c r="D31" s="116">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E31" s="129">
+        <f t="shared" si="0"/>
+        <v>4.5399999999999989E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="115">
+        <v>45335</v>
+      </c>
+      <c r="B32" s="126">
+        <v>565.11282900000003</v>
+      </c>
+      <c r="C32" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E32" s="129">
+        <f t="shared" si="0"/>
+        <v>4.6499999999999986E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="115">
+        <v>45336</v>
+      </c>
+      <c r="B33" s="126">
+        <v>565.75863100000004</v>
+      </c>
+      <c r="C33" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E33" s="129">
+        <f t="shared" si="0"/>
+        <v>4.7599999999999983E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="115">
+        <v>45337</v>
+      </c>
+      <c r="B34" s="126">
+        <v>566.416246</v>
+      </c>
+      <c r="C34" s="121" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E34" s="129">
+        <f t="shared" si="0"/>
+        <v>4.8699999999999979E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="115">
+        <v>45338</v>
+      </c>
+      <c r="B35" s="126">
+        <v>567.08235100000002</v>
+      </c>
+      <c r="C35" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E35" s="129">
+        <f t="shared" si="0"/>
+        <v>4.9799999999999976E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="115">
+        <v>45341</v>
+      </c>
+      <c r="B36" s="126">
+        <v>569.09258399999999</v>
+      </c>
+      <c r="C36" s="122">
+        <v>2010233</v>
+      </c>
+      <c r="D36" s="116">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E36" s="129">
+        <f t="shared" si="0"/>
+        <v>5.3299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="115">
+        <v>45342</v>
+      </c>
+      <c r="B37" s="126">
+        <v>569.76265000000001</v>
+      </c>
+      <c r="C37" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E37" s="129">
+        <f t="shared" si="0"/>
+        <v>5.4399999999999976E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="115">
+        <v>45343</v>
+      </c>
+      <c r="B38" s="126">
+        <v>570.43001100000004</v>
+      </c>
+      <c r="C38" s="121" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E38" s="129">
+        <f t="shared" si="0"/>
+        <v>5.5499999999999973E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="115">
+        <v>45344</v>
+      </c>
+      <c r="B39" s="126">
+        <v>571.10522800000001</v>
+      </c>
+      <c r="C39" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E39" s="129">
+        <f t="shared" si="0"/>
+        <v>5.659999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="115">
+        <v>45345</v>
+      </c>
+      <c r="B40" s="126">
+        <v>571.78678600000001</v>
+      </c>
+      <c r="C40" s="121" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E40" s="129">
+        <f t="shared" si="0"/>
+        <v>5.7699999999999967E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="115">
+        <v>45348</v>
+      </c>
+      <c r="B41" s="126">
+        <v>573.835914</v>
+      </c>
+      <c r="C41" s="122">
+        <v>2049128</v>
+      </c>
+      <c r="D41" s="116">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E41" s="129">
+        <f t="shared" si="0"/>
+        <v>6.119999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="115">
+        <v>45349</v>
+      </c>
+      <c r="B42" s="126">
+        <v>574.52528199999995</v>
+      </c>
+      <c r="C42" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="116">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E42" s="129">
+        <f t="shared" si="0"/>
+        <v>6.2399999999999969E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="115">
+        <v>45350</v>
+      </c>
+      <c r="B43" s="126">
+        <v>575.21535400000005</v>
+      </c>
+      <c r="C43" s="121" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="116">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E43" s="129">
+        <f t="shared" si="0"/>
+        <v>6.3599999999999976E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:AMJ65"/>
   <sheetViews>
@@ -10462,4 +11606,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C5:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:3">
+      <c r="C5">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DFA546-4E3E-4C83-91B6-347B583B3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD18A4A-4C7E-475A-BCE5-5C4106F49D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
-    <sheet name="TTE" sheetId="4" r:id="rId2"/>
-    <sheet name="801" sheetId="5" r:id="rId3"/>
-    <sheet name="Sayfa3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sayfa4" sheetId="6" r:id="rId2"/>
+    <sheet name="TTE" sheetId="4" r:id="rId3"/>
+    <sheet name="801" sheetId="5" r:id="rId4"/>
+    <sheet name="Sayfa3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="225">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -689,6 +690,30 @@
   </si>
   <si>
     <t>0.690072</t>
+  </si>
+  <si>
+    <t>GAU</t>
+  </si>
+  <si>
+    <t>LMKDC</t>
+  </si>
+  <si>
+    <t>ALVES</t>
+  </si>
+  <si>
+    <t>OBAMS</t>
+  </si>
+  <si>
+    <t>MOGAN</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>XU100</t>
   </si>
 </sst>
 </file>
@@ -706,7 +731,7 @@
     <numFmt numFmtId="171" formatCode="0.000000"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
     <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="180" formatCode="0.0000%"/>
+    <numFmt numFmtId="174" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1042,7 +1067,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1170,7 +1195,7 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1215,6 +1240,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1641,7 +1671,7 @@
   <dimension ref="A1:AMJ73"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1685,7 +1715,7 @@
       </c>
       <c r="K2" s="12">
         <f>SUM(K4:K5)</f>
-        <v>225221.56604200002</v>
+        <v>217507.80937000003</v>
       </c>
     </row>
     <row r="3" spans="1:1024">
@@ -1726,8 +1756,8 @@
     </row>
     <row r="5" spans="1:1024">
       <c r="B5" s="3">
-        <f>(K5+K4)/B4</f>
-        <v>145.5860155410472</v>
+        <f>K2/B4</f>
+        <v>140.59974749191986</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>28</v>
@@ -1742,19 +1772,19 @@
       </c>
       <c r="K5" s="24">
         <f>SUBTOTAL(109,K9:K31)</f>
-        <v>212093.620662</v>
+        <v>204379.86399000001</v>
       </c>
       <c r="L5" s="25">
         <f>K5/E5</f>
-        <v>0.67132809000272153</v>
+        <v>0.6469121668967075</v>
       </c>
       <c r="M5" s="26">
         <f>SUBTOTAL(101,M9:M24)</f>
-        <v>0.35050061033580204</v>
+        <v>0.36273405941550824</v>
       </c>
       <c r="N5" s="26">
         <f>SUBTOTAL(101,N9:N24)</f>
-        <v>0.29846895596984263</v>
+        <v>0.43082294347225047</v>
       </c>
     </row>
     <row r="6" spans="1:1024">
@@ -1898,7 +1928,8 @@
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18">
-        <v>576</v>
+        <f>Sayfa4!I2</f>
+        <v>576.58807100000001</v>
       </c>
       <c r="I11" s="19">
         <f>Sayfa2!$H11*Sayfa2!$G11</f>
@@ -1906,11 +1937,11 @@
       </c>
       <c r="J11" s="28">
         <f t="shared" ref="J11" si="0">H11-D11</f>
-        <v>0.78464599999995244</v>
+        <v>1.372716999999966</v>
       </c>
       <c r="K11" s="47">
         <f>Sayfa2!$J11*Sayfa2!$C11</f>
-        <v>18.831503999998858</v>
+        <v>32.945207999999184</v>
       </c>
       <c r="L11" s="48">
         <f t="shared" ref="L11" si="1">F11-B11</f>
@@ -1918,11 +1949,11 @@
       </c>
       <c r="M11" s="26">
         <f t="shared" ref="M11" si="2">K11/E11</f>
-        <v>1.3640908479643128E-3</v>
+        <v>2.3864401227369982E-3</v>
       </c>
       <c r="N11" s="26">
         <f t="shared" ref="N11" si="3">M11/L11*30</f>
-        <v>3.720247767175399E-3</v>
+        <v>6.5084730620099951E-3</v>
       </c>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
@@ -2957,7 +2988,7 @@
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I12" s="19">
         <f>Sayfa2!$H12*Sayfa2!$G12</f>
@@ -2965,11 +2996,11 @@
       </c>
       <c r="J12" s="28">
         <f t="shared" ref="J12:J13" si="4">H12-D12</f>
-        <v>3.67</v>
+        <v>0.66999999999999993</v>
       </c>
       <c r="K12" s="47">
         <f>Sayfa2!$J12*Sayfa2!$C12</f>
-        <v>256.89999999999998</v>
+        <v>46.899999999999991</v>
       </c>
       <c r="L12" s="48">
         <f t="shared" ref="L12:L13" si="5">F12-B12</f>
@@ -2977,11 +3008,11 @@
       </c>
       <c r="M12" s="26">
         <f t="shared" ref="M12:M13" si="6">K12/E12</f>
-        <v>0.32391879964695497</v>
+        <v>5.9135039717563974E-2</v>
       </c>
       <c r="N12" s="26">
         <f t="shared" ref="N12:N13" si="7">M12/L12*30</f>
-        <v>0.88341490812805901</v>
+        <v>0.16127738104790176</v>
       </c>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
@@ -5078,7 +5109,8 @@
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18">
-        <v>1.067704</v>
+        <f>Sayfa4!K2</f>
+        <v>1.034036</v>
       </c>
       <c r="I14" s="19">
         <f>Sayfa2!$H14*Sayfa2!$G14</f>
@@ -5086,11 +5118,11 @@
       </c>
       <c r="J14" s="28">
         <f t="shared" ref="J14:J29" si="9">H14-D14</f>
-        <v>3.2689999999999664E-3</v>
+        <v>-3.0399000000000065E-2</v>
       </c>
       <c r="K14" s="47">
         <f>Sayfa2!$J14*Sayfa2!$C14</f>
-        <v>245.17499999999748</v>
+        <v>-2279.9250000000047</v>
       </c>
       <c r="L14" s="48">
         <f t="shared" ref="L14:L29" si="10">F14-B14</f>
@@ -5098,11 +5130,11 @@
       </c>
       <c r="M14" s="26">
         <f t="shared" ref="M14:M29" si="11">K14/E14</f>
-        <v>3.071112843903072E-3</v>
+        <v>-2.8558812891346173E-2</v>
       </c>
       <c r="N14" s="26">
         <f t="shared" ref="N14:N29" si="12">M14/L14*30</f>
-        <v>4.6066692658546078E-2</v>
+        <v>-0.42838219337019262</v>
       </c>
     </row>
     <row r="15" spans="1:1024">
@@ -5127,7 +5159,8 @@
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="18">
-        <v>40</v>
+        <f>Sayfa4!Q2</f>
+        <v>43.16</v>
       </c>
       <c r="I15" s="19">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
@@ -5135,11 +5168,11 @@
       </c>
       <c r="J15" s="28">
         <f t="shared" si="9"/>
-        <v>0.75999999999999801</v>
+        <v>3.9199999999999946</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>11.39999999999997</v>
+        <v>58.799999999999919</v>
       </c>
       <c r="L15" s="48">
         <f t="shared" si="10"/>
@@ -5147,11 +5180,11 @@
       </c>
       <c r="M15" s="26">
         <f t="shared" si="11"/>
-        <v>1.9367991845056012E-2</v>
+        <v>9.989806320081536E-2</v>
       </c>
       <c r="N15" s="26">
         <f t="shared" si="12"/>
-        <v>0.1452599388379201</v>
+        <v>0.74923547400611523</v>
       </c>
     </row>
     <row r="16" spans="1:1024">
@@ -5177,7 +5210,8 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18">
-        <v>20</v>
+        <f>Sayfa4!O2</f>
+        <v>23.5</v>
       </c>
       <c r="I16" s="19">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
@@ -5185,11 +5219,11 @@
       </c>
       <c r="J16" s="28">
         <f t="shared" si="9"/>
-        <v>0.55000000000000071</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="K16" s="47">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>6.6000000000000085</v>
+        <v>48.600000000000009</v>
       </c>
       <c r="L16" s="48">
         <f t="shared" si="10"/>
@@ -5197,11 +5231,11 @@
       </c>
       <c r="M16" s="26">
         <f t="shared" si="11"/>
-        <v>2.8277634961439629E-2</v>
+        <v>0.20822622107969158</v>
       </c>
       <c r="N16" s="26">
         <f t="shared" si="12"/>
-        <v>0.21208226221079721</v>
+        <v>1.5616966580976868</v>
       </c>
     </row>
     <row r="17" spans="1:1024">
@@ -5226,7 +5260,8 @@
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18">
-        <v>1.067704</v>
+        <f>H14</f>
+        <v>1.034036</v>
       </c>
       <c r="I17" s="19">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
@@ -5234,11 +5269,11 @@
       </c>
       <c r="J17" s="28">
         <f t="shared" si="9"/>
-        <v>6.4499000000000084E-2</v>
+        <v>3.0831000000000053E-2</v>
       </c>
       <c r="K17" s="47">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>3224.9500000000044</v>
+        <v>1541.5500000000027</v>
       </c>
       <c r="L17" s="48">
         <f t="shared" si="10"/>
@@ -5246,11 +5281,11 @@
       </c>
       <c r="M17" s="26">
         <f t="shared" si="11"/>
-        <v>6.4292941123698641E-2</v>
+        <v>3.0732502330032305E-2</v>
       </c>
       <c r="N17" s="26">
         <f t="shared" si="12"/>
-        <v>0.32146470561849322</v>
+        <v>0.15366251165016151</v>
       </c>
     </row>
     <row r="18" spans="1:1024">
@@ -5275,7 +5310,8 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="18">
-        <v>575.21535400000005</v>
+        <f>H11</f>
+        <v>576.58807100000001</v>
       </c>
       <c r="I18" s="19">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
@@ -5283,11 +5319,11 @@
       </c>
       <c r="J18" s="28">
         <f t="shared" si="9"/>
-        <v>4.1101260000000366</v>
+        <v>5.4828430000000026</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>135.63415800000121</v>
+        <v>180.93381900000008</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" si="10"/>
@@ -5295,11 +5331,11 @@
       </c>
       <c r="M18" s="26">
         <f t="shared" si="11"/>
-        <v>7.1967928124097589E-3</v>
+        <v>9.6004076502693159E-3</v>
       </c>
       <c r="N18" s="26">
         <f t="shared" si="12"/>
-        <v>3.598396406204879E-2</v>
+        <v>4.8002038251346579E-2</v>
       </c>
     </row>
     <row r="19" spans="1:1024">
@@ -5325,7 +5361,8 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18">
-        <v>26.06</v>
+        <f>Sayfa4!M5</f>
+        <v>31.52</v>
       </c>
       <c r="I19" s="19">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
@@ -5333,11 +5370,11 @@
       </c>
       <c r="J19" s="28">
         <f t="shared" si="9"/>
-        <v>9.86</v>
+        <v>15.32</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>354.96</v>
+        <v>551.52</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="10"/>
@@ -5345,11 +5382,11 @@
       </c>
       <c r="M19" s="26">
         <f t="shared" si="11"/>
-        <v>0.60864197530864206</v>
+        <v>0.94567901234567908</v>
       </c>
       <c r="N19" s="26">
         <f t="shared" si="12"/>
-        <v>2.0288065843621403</v>
+        <v>3.1522633744855968</v>
       </c>
     </row>
     <row r="20" spans="1:1024">
@@ -5427,7 +5464,8 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18">
-        <v>32.381999999999998</v>
+        <f>Sayfa4!G2</f>
+        <v>33.225700000000003</v>
       </c>
       <c r="I21" s="19">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
@@ -5435,11 +5473,11 @@
       </c>
       <c r="J21" s="28">
         <f t="shared" si="9"/>
-        <v>13.660399999999999</v>
+        <v>14.504100000000005</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>1120.0161959999998</v>
+        <v>1189.1911590000002</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="10"/>
@@ -5447,11 +5485,11 @@
       </c>
       <c r="M21" s="26">
         <f t="shared" si="11"/>
-        <v>0.72965985813178358</v>
+        <v>0.77472545081616984</v>
       </c>
       <c r="N21" s="26">
         <f t="shared" si="12"/>
-        <v>3.8674550784370154E-2</v>
+        <v>4.10631864390196E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1024">
@@ -6503,7 +6541,8 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="18">
-        <v>33</v>
+        <f>Sayfa4!E2</f>
+        <v>30.7361</v>
       </c>
       <c r="I23" s="19">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
@@ -6511,11 +6550,11 @@
       </c>
       <c r="J23" s="28">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>15.7361</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>15300</v>
+        <v>13375.684999999999</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="10"/>
@@ -6523,11 +6562,11 @@
       </c>
       <c r="M23" s="26">
         <f t="shared" si="11"/>
-        <v>1.2</v>
+        <v>1.0490733333333333</v>
       </c>
       <c r="N23" s="26">
         <f t="shared" si="12"/>
-        <v>6.25E-2</v>
+        <v>5.4639236111111107E-2</v>
       </c>
       <c r="O23" s="4"/>
     </row>
@@ -6554,7 +6593,8 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="18">
-        <v>2030</v>
+        <f>Sayfa4!C5</f>
+        <v>2018.91</v>
       </c>
       <c r="I24" s="19">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
@@ -6562,11 +6602,11 @@
       </c>
       <c r="J24" s="28">
         <f t="shared" si="9"/>
-        <v>203.47000000000003</v>
+        <v>192.38000000000011</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>10173.500000000002</v>
+        <v>9619.0000000000055</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="10"/>
@@ -6574,11 +6614,11 @@
       </c>
       <c r="M24" s="26">
         <f t="shared" si="11"/>
-        <v>0.11139702058000692</v>
+        <v>0.10532539843309451</v>
       </c>
       <c r="N24" s="26">
         <f t="shared" si="12"/>
-        <v>2.5510768071757312E-2</v>
+        <v>2.4120320251853702E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1024">
@@ -6605,7 +6645,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="18">
         <f>H24</f>
-        <v>2030</v>
+        <v>2018.91</v>
       </c>
       <c r="I25" s="19">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
@@ -6613,11 +6653,11 @@
       </c>
       <c r="J25" s="28">
         <f t="shared" si="9"/>
-        <v>1627.9</v>
+        <v>1616.81</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>17906.900000000001</v>
+        <v>17784.91</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="10"/>
@@ -6625,11 +6665,11 @@
       </c>
       <c r="M25" s="26">
         <f t="shared" si="11"/>
-        <v>4.0484953991544392</v>
+        <v>4.0209151952250677</v>
       </c>
       <c r="N25" s="26">
         <f t="shared" si="12"/>
-        <v>0.10981452258104266</v>
+        <v>0.10906641578368176</v>
       </c>
     </row>
     <row r="26" spans="1:1024">
@@ -6656,7 +6696,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="18">
         <f>H25</f>
-        <v>2030</v>
+        <v>2018.91</v>
       </c>
       <c r="I26" s="19">
         <f>Sayfa2!$H26*Sayfa2!$G26</f>
@@ -6664,11 +6704,11 @@
       </c>
       <c r="J26" s="28">
         <f t="shared" si="9"/>
-        <v>1561.1399999999999</v>
+        <v>1550.0500000000002</v>
       </c>
       <c r="K26" s="47">
         <f>Sayfa2!$J26*Sayfa2!$C26</f>
-        <v>78057</v>
+        <v>77502.500000000015</v>
       </c>
       <c r="L26" s="48">
         <f t="shared" si="10"/>
@@ -6676,11 +6716,11 @@
       </c>
       <c r="M26" s="26">
         <f t="shared" si="11"/>
-        <v>3.3296506419826812</v>
+        <v>3.3059975259139196</v>
       </c>
       <c r="N26" s="26">
         <f t="shared" si="12"/>
-        <v>7.8901673980632261E-2</v>
+        <v>7.8341173599855915E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1024">
@@ -6707,7 +6747,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="18">
         <f>H26</f>
-        <v>2030</v>
+        <v>2018.91</v>
       </c>
       <c r="I27" s="19">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
@@ -6715,11 +6755,11 @@
       </c>
       <c r="J27" s="28">
         <f t="shared" si="9"/>
-        <v>1630.13</v>
+        <v>1619.04</v>
       </c>
       <c r="K27" s="47">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>40753.25</v>
+        <v>40476</v>
       </c>
       <c r="L27" s="48">
         <f t="shared" si="10"/>
@@ -6727,11 +6767,11 @@
       </c>
       <c r="M27" s="26">
         <f t="shared" si="11"/>
-        <v>4.0766499112211472</v>
+        <v>4.0489158976667419</v>
       </c>
       <c r="N27" s="26">
         <f t="shared" si="12"/>
-        <v>9.1954509275664981E-2</v>
+        <v>9.1328930022558097E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1024">
@@ -6758,7 +6798,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="18">
         <f>H27</f>
-        <v>2030</v>
+        <v>2018.91</v>
       </c>
       <c r="I28" s="19">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
@@ -6766,11 +6806,11 @@
       </c>
       <c r="J28" s="28">
         <f t="shared" si="9"/>
-        <v>1756.19</v>
+        <v>1745.1000000000001</v>
       </c>
       <c r="K28" s="47">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>42148.56</v>
+        <v>41882.400000000001</v>
       </c>
       <c r="L28" s="48">
         <f t="shared" si="10"/>
@@ -6778,11 +6818,11 @@
       </c>
       <c r="M28" s="26">
         <f t="shared" si="11"/>
-        <v>6.4139001497388692</v>
+        <v>6.3733976114824147</v>
       </c>
       <c r="N28" s="26">
         <f t="shared" si="12"/>
-        <v>0.12438073981394059</v>
+        <v>0.1235952995116176</v>
       </c>
     </row>
     <row r="29" spans="1:1024">
@@ -6809,7 +6849,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="18">
         <f>H28</f>
-        <v>2030</v>
+        <v>2018.91</v>
       </c>
       <c r="I29" s="19">
         <f>Sayfa2!$H29*Sayfa2!$G29</f>
@@ -6817,11 +6857,11 @@
       </c>
       <c r="J29" s="28">
         <f t="shared" si="9"/>
-        <v>1792.41</v>
+        <v>1781.3200000000002</v>
       </c>
       <c r="K29" s="47">
         <f>Sayfa2!$J29*Sayfa2!$C29</f>
-        <v>1792.41</v>
+        <v>1781.3200000000002</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="10"/>
@@ -6829,11 +6869,11 @@
       </c>
       <c r="M29" s="26">
         <f t="shared" si="11"/>
-        <v>7.5441306452291768</v>
+        <v>7.497453596531841</v>
       </c>
       <c r="N29" s="26">
         <f t="shared" si="12"/>
-        <v>0.14629859040521997</v>
+        <v>0.14539341169745004</v>
       </c>
     </row>
     <row r="30" spans="1:1024">
@@ -8255,11 +8295,390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E833796-0219-408B-99C0-FA7EE694BB58}">
+  <dimension ref="A2:U12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="111" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21">
+      <c r="A2" s="109">
+        <f>A5</f>
+        <v>45352</v>
+      </c>
+      <c r="C2">
+        <f>C5</f>
+        <v>2018.91</v>
+      </c>
+      <c r="E2">
+        <f>E5</f>
+        <v>30.7361</v>
+      </c>
+      <c r="G2">
+        <f>G5</f>
+        <v>33.225700000000003</v>
+      </c>
+      <c r="I2">
+        <f>I5</f>
+        <v>576.58807100000001</v>
+      </c>
+      <c r="K2">
+        <f>K5</f>
+        <v>1.034036</v>
+      </c>
+      <c r="M2">
+        <f>M5</f>
+        <v>31.52</v>
+      </c>
+      <c r="O2">
+        <f>O5</f>
+        <v>23.5</v>
+      </c>
+      <c r="Q2">
+        <f>Q5</f>
+        <v>43.16</v>
+      </c>
+      <c r="S2">
+        <f>S5</f>
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="130"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="131" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131">
+        <v>801</v>
+      </c>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131" t="s">
+        <v>218</v>
+      </c>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131" t="s">
+        <v>220</v>
+      </c>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="131" t="s">
+        <v>223</v>
+      </c>
+      <c r="U3" s="131" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="109">
+        <v>45352</v>
+      </c>
+      <c r="B5" s="111">
+        <v>161</v>
+      </c>
+      <c r="C5">
+        <v>2018.91</v>
+      </c>
+      <c r="D5">
+        <v>1100</v>
+      </c>
+      <c r="E5">
+        <v>30.7361</v>
+      </c>
+      <c r="F5">
+        <v>81.99</v>
+      </c>
+      <c r="G5">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H5">
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="J5">
+        <v>125000</v>
+      </c>
+      <c r="K5">
+        <v>1.034036</v>
+      </c>
+      <c r="L5">
+        <v>36</v>
+      </c>
+      <c r="M5">
+        <v>31.52</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>23.5</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>43.16</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>11.33</v>
+      </c>
+      <c r="T5">
+        <f>(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(J5*K5)+(L5*M5)+(N5*O5)+(P5*Q5)+(R5*S5)</f>
+        <v>525932.48518999992</v>
+      </c>
+      <c r="U5">
+        <v>9193.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="109">
+        <v>45351</v>
+      </c>
+      <c r="B6" s="111">
+        <v>161</v>
+      </c>
+      <c r="C6">
+        <v>2018.91</v>
+      </c>
+      <c r="D6">
+        <v>1100</v>
+      </c>
+      <c r="E6">
+        <v>30.7361</v>
+      </c>
+      <c r="F6">
+        <v>81.99</v>
+      </c>
+      <c r="G6">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H6">
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="J6">
+        <v>125000</v>
+      </c>
+      <c r="K6">
+        <v>1.010337</v>
+      </c>
+      <c r="L6">
+        <v>36</v>
+      </c>
+      <c r="M6">
+        <v>28.66</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>21.38</v>
+      </c>
+      <c r="P6">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>39.24</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T12" si="0">(B6*C6)+(D6*E6)+(F6*G6)+(H6*I6)+(J6*K6)+(L6*M6)+(N6*O6)+(P6*Q6)+(R6*S6)</f>
+        <v>522612.96018999995</v>
+      </c>
+      <c r="U6">
+        <v>9100.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="109">
+        <v>45350</v>
+      </c>
+      <c r="B7" s="111">
+        <v>161</v>
+      </c>
+      <c r="C7">
+        <v>2018.91</v>
+      </c>
+      <c r="D7">
+        <v>1100</v>
+      </c>
+      <c r="E7">
+        <v>30.7361</v>
+      </c>
+      <c r="F7">
+        <v>81.99</v>
+      </c>
+      <c r="G7">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H7">
+        <v>57</v>
+      </c>
+      <c r="I7">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="J7">
+        <v>125000</v>
+      </c>
+      <c r="K7">
+        <v>1.067704</v>
+      </c>
+      <c r="L7">
+        <v>36</v>
+      </c>
+      <c r="M7">
+        <v>26.06</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>19.45</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>529078.47519000003</v>
+      </c>
+      <c r="U7">
+        <v>9184.6299999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="J8">
+        <v>125000</v>
+      </c>
+      <c r="K8">
+        <v>1.064435</v>
+      </c>
+      <c r="L8">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>23.7</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>133907.57500000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="J9">
+        <v>125000</v>
+      </c>
+      <c r="K9">
+        <v>1.0192399999999999</v>
+      </c>
+      <c r="L9">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <v>21.56</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>128181.15999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="J10">
+        <v>125000</v>
+      </c>
+      <c r="K10">
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L10">
+        <v>36</v>
+      </c>
+      <c r="M10">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>126106.22499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="L11">
+        <v>36</v>
+      </c>
+      <c r="M11">
+        <v>17.82</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>641.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="L12">
+        <v>36</v>
+      </c>
+      <c r="M12">
+        <v>15.3</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>550.80000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7640D-BCE1-450D-8C0D-0DF7FD321A6F}">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8353,6 +8772,8 @@
       <c r="M5" s="112"/>
     </row>
     <row r="6" spans="1:13" s="111" customFormat="1">
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
       <c r="D6" s="112"/>
       <c r="E6" s="112"/>
       <c r="F6" s="112"/>
@@ -8361,6 +8782,8 @@
       <c r="M6" s="112"/>
     </row>
     <row r="7" spans="1:13" s="111" customFormat="1">
+      <c r="A7" s="109"/>
+      <c r="B7" s="110"/>
       <c r="D7" s="112"/>
       <c r="E7" s="112"/>
       <c r="F7" s="112"/>
@@ -8369,6 +8792,8 @@
       <c r="M7" s="112"/>
     </row>
     <row r="8" spans="1:13" s="111" customFormat="1">
+      <c r="A8" s="109"/>
+      <c r="B8" s="110"/>
       <c r="D8" s="112"/>
       <c r="E8" s="112"/>
       <c r="F8" s="112"/>
@@ -8377,15 +8802,43 @@
       <c r="M8" s="112"/>
     </row>
     <row r="9" spans="1:13" s="111" customFormat="1">
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
+      <c r="A9" s="109">
+        <v>45352</v>
+      </c>
+      <c r="B9" s="110">
+        <v>1.034036</v>
+      </c>
+      <c r="D9" s="112">
+        <f>$C$14*B9</f>
+        <v>51701.799999999996</v>
+      </c>
+      <c r="E9" s="112">
+        <f>D9-$D$14</f>
+        <v>1541.5500000000029</v>
+      </c>
       <c r="F9" s="112"/>
-      <c r="J9" s="112"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="112">
+        <f>$G$12*B9</f>
+        <v>77552.7</v>
+      </c>
+      <c r="I9" s="112">
+        <f>H9-$H$12</f>
+        <v>-2279.9250000000029</v>
+      </c>
+      <c r="J9" s="112">
+        <f>E9+I9</f>
+        <v>-738.375</v>
+      </c>
+      <c r="K9" s="113">
+        <f>J9/($H$12+$D$14)</f>
+        <v>-5.6801190065224726E-3</v>
+      </c>
       <c r="L9" s="112"/>
       <c r="M9" s="112"/>
     </row>
     <row r="10" spans="1:13" s="111" customFormat="1">
-      <c r="A10" s="111">
+      <c r="A10" s="109">
         <v>45351</v>
       </c>
       <c r="B10" s="110">
@@ -8557,12 +9010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F6C3B0-725E-4944-8F62-283C27DB3DF7}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E43"/>
+    <sheetView topLeftCell="A29" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9351,12 +9804,112 @@
         <v>6.3599999999999976E-2</v>
       </c>
     </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="115">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="115">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="115"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="115"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="115"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="115"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="115"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="115"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="115"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="115"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="115"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="115"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="115"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="115"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="115"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="115"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="115"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="115"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="115"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="115"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="115"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="115"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="115"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="115"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="115"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="115"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="115"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="115"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="115"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="115"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="115"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="115"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:AMJ65"/>
   <sheetViews>
@@ -11608,7 +12161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:C30"/>
   <sheetViews>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD18A4A-4C7E-475A-BCE5-5C4106F49D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2AAA0F-C3AB-4986-AD6A-FED553E42756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="226">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -710,17 +710,20 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>XU100</t>
+  </si>
+  <si>
+    <t>TPL</t>
+  </si>
+  <si>
+    <t>satış</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
@@ -732,6 +735,7 @@
     <numFmt numFmtId="172" formatCode="0.000"/>
     <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="174" formatCode="0.0000%"/>
+    <numFmt numFmtId="175" formatCode="%0.000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1067,7 +1071,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1245,6 +1249,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1350,8 +1361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:M62" totalsRowShown="0">
-  <autoFilter ref="A8:M62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A8:M63" totalsRowShown="0">
+  <autoFilter ref="A8:M63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Açıklama"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="tarih"/>
@@ -1668,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ73"/>
+  <dimension ref="A1:AMJ74"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1711,11 +1722,11 @@
     </row>
     <row r="2" spans="1:1024">
       <c r="B2" s="2">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="K2" s="12">
         <f>SUM(K4:K5)</f>
-        <v>217507.80937000003</v>
+        <v>235014.77166200004</v>
       </c>
     </row>
     <row r="3" spans="1:1024">
@@ -1728,25 +1739,25 @@
     <row r="4" spans="1:1024">
       <c r="B4" s="3">
         <f>B2-B3</f>
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="15">
-        <f>SUBTOTAL(109,E34:E61)</f>
+        <f>SUBTOTAL(109,E35:E62)</f>
         <v>385813.49822799995</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19">
-        <f>SUBTOTAL(109,I34:I61)</f>
+        <f>SUBTOTAL(109,I35:I62)</f>
         <v>398941.44360799994</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="15">
-        <f>SUBTOTAL(109,K34:K60)</f>
+        <f>SUBTOTAL(109,K35:K61)</f>
         <v>13127.945380000016</v>
       </c>
       <c r="L4" s="20">
@@ -1757,34 +1768,34 @@
     <row r="5" spans="1:1024">
       <c r="B5" s="3">
         <f>K2/B4</f>
-        <v>140.59974749191986</v>
+        <v>151.42704359664953</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="22">
-        <f>SUBTOTAL(109,E9:E31)</f>
-        <v>315931.39601999999</v>
+        <f>SUBTOTAL(109,E9:E32)</f>
+        <v>358553.51620000007</v>
       </c>
       <c r="I5" s="23">
-        <f>SUBTOTAL(109,I9:I31)</f>
-        <v>1392.74982</v>
+        <f>SUBTOTAL(109,I9:I32)</f>
+        <v>2601.3988709999999</v>
       </c>
       <c r="K5" s="24">
-        <f>SUBTOTAL(109,K9:K31)</f>
-        <v>204379.86399000001</v>
+        <f>SUBTOTAL(109,K9:K32)</f>
+        <v>221886.82628200002</v>
       </c>
       <c r="L5" s="25">
         <f>K5/E5</f>
-        <v>0.6469121668967075</v>
+        <v>0.61883879604246361</v>
       </c>
       <c r="M5" s="26">
-        <f>SUBTOTAL(101,M9:M24)</f>
-        <v>0.36273405941550824</v>
+        <f>SUBTOTAL(101,M9:M25)</f>
+        <v>0.37877622498594876</v>
       </c>
       <c r="N5" s="26">
-        <f>SUBTOTAL(101,N9:N24)</f>
-        <v>0.43082294347225047</v>
+        <f>SUBTOTAL(101,N9:N25)</f>
+        <v>0.34170421525605565</v>
       </c>
     </row>
     <row r="6" spans="1:1024">
@@ -1911,25 +1922,24 @@
         <v>50</v>
       </c>
       <c r="B11" s="2">
-        <v>45350</v>
+        <v>45295</v>
       </c>
       <c r="C11" s="28">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D11" s="29">
-        <v>575.21535400000005</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="E11" s="46">
         <f>Sayfa2!$D11*Sayfa2!$C11</f>
-        <v>13805.168496000002</v>
+        <v>34719.636180000001</v>
       </c>
       <c r="F11" s="2">
-        <v>45361</v>
+        <v>45355</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18">
-        <f>Sayfa4!I2</f>
-        <v>576.58807100000001</v>
+        <v>579</v>
       </c>
       <c r="I11" s="19">
         <f>Sayfa2!$H11*Sayfa2!$G11</f>
@@ -1937,23 +1947,23 @@
       </c>
       <c r="J11" s="28">
         <f t="shared" ref="J11" si="0">H11-D11</f>
-        <v>1.372716999999966</v>
+        <v>0.33939699999996265</v>
       </c>
       <c r="K11" s="47">
         <f>Sayfa2!$J11*Sayfa2!$C11</f>
-        <v>32.945207999999184</v>
+        <v>20.363819999997759</v>
       </c>
       <c r="L11" s="48">
         <f t="shared" ref="L11" si="1">F11-B11</f>
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="M11" s="26">
         <f t="shared" ref="M11" si="2">K11/E11</f>
-        <v>2.3864401227369982E-3</v>
+        <v>5.8652169897241587E-4</v>
       </c>
       <c r="N11" s="26">
         <f t="shared" ref="N11" si="3">M11/L11*30</f>
-        <v>6.5084730620099951E-3</v>
+        <v>2.9326084948620793E-4</v>
       </c>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
@@ -2968,51 +2978,52 @@
     </row>
     <row r="12" spans="1:1024">
       <c r="A12" s="43" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
         <v>45350</v>
       </c>
       <c r="C12" s="28">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D12" s="29">
-        <v>11.33</v>
+        <v>575.21535400000005</v>
       </c>
       <c r="E12" s="46">
         <f>Sayfa2!$D12*Sayfa2!$C12</f>
-        <v>793.1</v>
+        <v>13805.168496000002</v>
       </c>
       <c r="F12" s="2">
-        <v>45361</v>
+        <v>45355</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18">
-        <v>12</v>
+        <f>Sayfa4!I2</f>
+        <v>578.66060300000004</v>
       </c>
       <c r="I12" s="19">
         <f>Sayfa2!$H12*Sayfa2!$G12</f>
         <v>0</v>
       </c>
       <c r="J12" s="28">
-        <f t="shared" ref="J12:J13" si="4">H12-D12</f>
-        <v>0.66999999999999993</v>
+        <f t="shared" ref="J12" si="4">H12-D12</f>
+        <v>3.4452489999999898</v>
       </c>
       <c r="K12" s="47">
         <f>Sayfa2!$J12*Sayfa2!$C12</f>
-        <v>46.899999999999991</v>
+        <v>82.685975999999755</v>
       </c>
       <c r="L12" s="48">
-        <f t="shared" ref="L12:L13" si="5">F12-B12</f>
-        <v>11</v>
+        <f t="shared" ref="L12" si="5">F12-B12</f>
+        <v>5</v>
       </c>
       <c r="M12" s="26">
-        <f t="shared" ref="M12:M13" si="6">K12/E12</f>
-        <v>5.9135039717563974E-2</v>
+        <f t="shared" ref="M12" si="6">K12/E12</f>
+        <v>5.9894941538712635E-3</v>
       </c>
       <c r="N12" s="26">
-        <f t="shared" ref="N12:N13" si="7">M12/L12*30</f>
-        <v>0.16127738104790176</v>
+        <f t="shared" ref="N12" si="7">M12/L12*30</f>
+        <v>3.593696492322758E-2</v>
       </c>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
@@ -4027,54 +4038,51 @@
     </row>
     <row r="13" spans="1:1024">
       <c r="A13" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2">
-        <v>44784</v>
-      </c>
-      <c r="C13" s="28">
-        <v>25</v>
-      </c>
-      <c r="D13" s="29">
-        <v>18.721599999999999</v>
-      </c>
-      <c r="E13" s="46">
+        <v>45350</v>
+      </c>
+      <c r="C13" s="136">
+        <v>68</v>
+      </c>
+      <c r="D13" s="137">
+        <v>11.33</v>
+      </c>
+      <c r="E13" s="47">
         <f>Sayfa2!$D13*Sayfa2!$C13</f>
-        <v>468.03999999999996</v>
+        <v>770.44</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13" si="8">F12</f>
-        <v>45361</v>
-      </c>
-      <c r="G13" s="17">
-        <v>25</v>
-      </c>
+        <v>45355</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="18">
-        <v>32.381999999999998</v>
+        <v>12.43</v>
       </c>
       <c r="I13" s="19">
         <f>Sayfa2!$H13*Sayfa2!$G13</f>
-        <v>809.55</v>
+        <v>0</v>
       </c>
       <c r="J13" s="28">
-        <f t="shared" si="4"/>
-        <v>13.660399999999999</v>
+        <f t="shared" ref="J13:J14" si="8">H13-D13</f>
+        <v>1.0999999999999996</v>
       </c>
       <c r="K13" s="47">
         <f>Sayfa2!$J13*Sayfa2!$C13</f>
-        <v>341.51</v>
+        <v>74.799999999999983</v>
       </c>
       <c r="L13" s="48">
-        <f t="shared" si="5"/>
-        <v>577</v>
+        <f t="shared" ref="L13:L14" si="9">F13-B13</f>
+        <v>5</v>
       </c>
       <c r="M13" s="26">
-        <f t="shared" si="6"/>
-        <v>0.72965985813178369</v>
+        <f t="shared" ref="M13:M14" si="10">K13/E13</f>
+        <v>9.708737864077667E-2</v>
       </c>
       <c r="N13" s="26">
-        <f t="shared" si="7"/>
-        <v>3.7937254322276452E-2</v>
+        <f t="shared" ref="N13:N14" si="11">M13/L13*30</f>
+        <v>0.58252427184466005</v>
       </c>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
@@ -5088,1588 +5096,2601 @@
       <c r="AMJ13" s="43"/>
     </row>
     <row r="14" spans="1:1024">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
+      <c r="A14" s="43" t="s">
+        <v>171</v>
       </c>
       <c r="B14" s="2">
-        <v>45348</v>
+        <v>44784</v>
       </c>
       <c r="C14" s="28">
-        <v>75000</v>
+        <v>23.19</v>
       </c>
       <c r="D14" s="29">
-        <v>1.064435</v>
+        <v>18.721599999999999</v>
       </c>
       <c r="E14" s="46">
         <f>Sayfa2!$D14*Sayfa2!$C14</f>
-        <v>79832.625</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45350</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18">
-        <f>Sayfa4!K2</f>
-        <v>1.034036</v>
+        <v>434.15390400000001</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" ref="F14" si="12">F13</f>
+        <v>45355</v>
+      </c>
+      <c r="G14" s="50">
+        <v>23.19</v>
+      </c>
+      <c r="H14" s="51">
+        <v>33.222900000000003</v>
       </c>
       <c r="I14" s="19">
         <f>Sayfa2!$H14*Sayfa2!$G14</f>
-        <v>0</v>
+        <v>770.43905100000006</v>
       </c>
       <c r="J14" s="28">
-        <f t="shared" ref="J14:J29" si="9">H14-D14</f>
-        <v>-3.0399000000000065E-2</v>
+        <f t="shared" si="8"/>
+        <v>14.501300000000004</v>
       </c>
       <c r="K14" s="47">
         <f>Sayfa2!$J14*Sayfa2!$C14</f>
-        <v>-2279.9250000000047</v>
+        <v>336.28514700000011</v>
       </c>
       <c r="L14" s="48">
-        <f t="shared" ref="L14:L29" si="10">F14-B14</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>571</v>
       </c>
       <c r="M14" s="26">
-        <f t="shared" ref="M14:M29" si="11">K14/E14</f>
-        <v>-2.8558812891346173E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.77457589094949175</v>
       </c>
       <c r="N14" s="26">
-        <f t="shared" ref="N14:N29" si="12">M14/L14*30</f>
-        <v>-0.42838219337019262</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>4.0695756091917251E-2</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="43"/>
+      <c r="BD14" s="43"/>
+      <c r="BE14" s="43"/>
+      <c r="BF14" s="43"/>
+      <c r="BG14" s="43"/>
+      <c r="BH14" s="43"/>
+      <c r="BI14" s="43"/>
+      <c r="BJ14" s="43"/>
+      <c r="BK14" s="43"/>
+      <c r="BL14" s="43"/>
+      <c r="BM14" s="43"/>
+      <c r="BN14" s="43"/>
+      <c r="BO14" s="43"/>
+      <c r="BP14" s="43"/>
+      <c r="BQ14" s="43"/>
+      <c r="BR14" s="43"/>
+      <c r="BS14" s="43"/>
+      <c r="BT14" s="43"/>
+      <c r="BU14" s="43"/>
+      <c r="BV14" s="43"/>
+      <c r="BW14" s="43"/>
+      <c r="BX14" s="43"/>
+      <c r="BY14" s="43"/>
+      <c r="BZ14" s="43"/>
+      <c r="CA14" s="43"/>
+      <c r="CB14" s="43"/>
+      <c r="CC14" s="43"/>
+      <c r="CD14" s="43"/>
+      <c r="CE14" s="43"/>
+      <c r="CF14" s="43"/>
+      <c r="CG14" s="43"/>
+      <c r="CH14" s="43"/>
+      <c r="CI14" s="43"/>
+      <c r="CJ14" s="43"/>
+      <c r="CK14" s="43"/>
+      <c r="CL14" s="43"/>
+      <c r="CM14" s="43"/>
+      <c r="CN14" s="43"/>
+      <c r="CO14" s="43"/>
+      <c r="CP14" s="43"/>
+      <c r="CQ14" s="43"/>
+      <c r="CR14" s="43"/>
+      <c r="CS14" s="43"/>
+      <c r="CT14" s="43"/>
+      <c r="CU14" s="43"/>
+      <c r="CV14" s="43"/>
+      <c r="CW14" s="43"/>
+      <c r="CX14" s="43"/>
+      <c r="CY14" s="43"/>
+      <c r="CZ14" s="43"/>
+      <c r="DA14" s="43"/>
+      <c r="DB14" s="43"/>
+      <c r="DC14" s="43"/>
+      <c r="DD14" s="43"/>
+      <c r="DE14" s="43"/>
+      <c r="DF14" s="43"/>
+      <c r="DG14" s="43"/>
+      <c r="DH14" s="43"/>
+      <c r="DI14" s="43"/>
+      <c r="DJ14" s="43"/>
+      <c r="DK14" s="43"/>
+      <c r="DL14" s="43"/>
+      <c r="DM14" s="43"/>
+      <c r="DN14" s="43"/>
+      <c r="DO14" s="43"/>
+      <c r="DP14" s="43"/>
+      <c r="DQ14" s="43"/>
+      <c r="DR14" s="43"/>
+      <c r="DS14" s="43"/>
+      <c r="DT14" s="43"/>
+      <c r="DU14" s="43"/>
+      <c r="DV14" s="43"/>
+      <c r="DW14" s="43"/>
+      <c r="DX14" s="43"/>
+      <c r="DY14" s="43"/>
+      <c r="DZ14" s="43"/>
+      <c r="EA14" s="43"/>
+      <c r="EB14" s="43"/>
+      <c r="EC14" s="43"/>
+      <c r="ED14" s="43"/>
+      <c r="EE14" s="43"/>
+      <c r="EF14" s="43"/>
+      <c r="EG14" s="43"/>
+      <c r="EH14" s="43"/>
+      <c r="EI14" s="43"/>
+      <c r="EJ14" s="43"/>
+      <c r="EK14" s="43"/>
+      <c r="EL14" s="43"/>
+      <c r="EM14" s="43"/>
+      <c r="EN14" s="43"/>
+      <c r="EO14" s="43"/>
+      <c r="EP14" s="43"/>
+      <c r="EQ14" s="43"/>
+      <c r="ER14" s="43"/>
+      <c r="ES14" s="43"/>
+      <c r="ET14" s="43"/>
+      <c r="EU14" s="43"/>
+      <c r="EV14" s="43"/>
+      <c r="EW14" s="43"/>
+      <c r="EX14" s="43"/>
+      <c r="EY14" s="43"/>
+      <c r="EZ14" s="43"/>
+      <c r="FA14" s="43"/>
+      <c r="FB14" s="43"/>
+      <c r="FC14" s="43"/>
+      <c r="FD14" s="43"/>
+      <c r="FE14" s="43"/>
+      <c r="FF14" s="43"/>
+      <c r="FG14" s="43"/>
+      <c r="FH14" s="43"/>
+      <c r="FI14" s="43"/>
+      <c r="FJ14" s="43"/>
+      <c r="FK14" s="43"/>
+      <c r="FL14" s="43"/>
+      <c r="FM14" s="43"/>
+      <c r="FN14" s="43"/>
+      <c r="FO14" s="43"/>
+      <c r="FP14" s="43"/>
+      <c r="FQ14" s="43"/>
+      <c r="FR14" s="43"/>
+      <c r="FS14" s="43"/>
+      <c r="FT14" s="43"/>
+      <c r="FU14" s="43"/>
+      <c r="FV14" s="43"/>
+      <c r="FW14" s="43"/>
+      <c r="FX14" s="43"/>
+      <c r="FY14" s="43"/>
+      <c r="FZ14" s="43"/>
+      <c r="GA14" s="43"/>
+      <c r="GB14" s="43"/>
+      <c r="GC14" s="43"/>
+      <c r="GD14" s="43"/>
+      <c r="GE14" s="43"/>
+      <c r="GF14" s="43"/>
+      <c r="GG14" s="43"/>
+      <c r="GH14" s="43"/>
+      <c r="GI14" s="43"/>
+      <c r="GJ14" s="43"/>
+      <c r="GK14" s="43"/>
+      <c r="GL14" s="43"/>
+      <c r="GM14" s="43"/>
+      <c r="GN14" s="43"/>
+      <c r="GO14" s="43"/>
+      <c r="GP14" s="43"/>
+      <c r="GQ14" s="43"/>
+      <c r="GR14" s="43"/>
+      <c r="GS14" s="43"/>
+      <c r="GT14" s="43"/>
+      <c r="GU14" s="43"/>
+      <c r="GV14" s="43"/>
+      <c r="GW14" s="43"/>
+      <c r="GX14" s="43"/>
+      <c r="GY14" s="43"/>
+      <c r="GZ14" s="43"/>
+      <c r="HA14" s="43"/>
+      <c r="HB14" s="43"/>
+      <c r="HC14" s="43"/>
+      <c r="HD14" s="43"/>
+      <c r="HE14" s="43"/>
+      <c r="HF14" s="43"/>
+      <c r="HG14" s="43"/>
+      <c r="HH14" s="43"/>
+      <c r="HI14" s="43"/>
+      <c r="HJ14" s="43"/>
+      <c r="HK14" s="43"/>
+      <c r="HL14" s="43"/>
+      <c r="HM14" s="43"/>
+      <c r="HN14" s="43"/>
+      <c r="HO14" s="43"/>
+      <c r="HP14" s="43"/>
+      <c r="HQ14" s="43"/>
+      <c r="HR14" s="43"/>
+      <c r="HS14" s="43"/>
+      <c r="HT14" s="43"/>
+      <c r="HU14" s="43"/>
+      <c r="HV14" s="43"/>
+      <c r="HW14" s="43"/>
+      <c r="HX14" s="43"/>
+      <c r="HY14" s="43"/>
+      <c r="HZ14" s="43"/>
+      <c r="IA14" s="43"/>
+      <c r="IB14" s="43"/>
+      <c r="IC14" s="43"/>
+      <c r="ID14" s="43"/>
+      <c r="IE14" s="43"/>
+      <c r="IF14" s="43"/>
+      <c r="IG14" s="43"/>
+      <c r="IH14" s="43"/>
+      <c r="II14" s="43"/>
+      <c r="IJ14" s="43"/>
+      <c r="IK14" s="43"/>
+      <c r="IL14" s="43"/>
+      <c r="IM14" s="43"/>
+      <c r="IN14" s="43"/>
+      <c r="IO14" s="43"/>
+      <c r="IP14" s="43"/>
+      <c r="IQ14" s="43"/>
+      <c r="IR14" s="43"/>
+      <c r="IS14" s="43"/>
+      <c r="IT14" s="43"/>
+      <c r="IU14" s="43"/>
+      <c r="IV14" s="43"/>
+      <c r="IW14" s="43"/>
+      <c r="IX14" s="43"/>
+      <c r="IY14" s="43"/>
+      <c r="IZ14" s="43"/>
+      <c r="JA14" s="43"/>
+      <c r="JB14" s="43"/>
+      <c r="JC14" s="43"/>
+      <c r="JD14" s="43"/>
+      <c r="JE14" s="43"/>
+      <c r="JF14" s="43"/>
+      <c r="JG14" s="43"/>
+      <c r="JH14" s="43"/>
+      <c r="JI14" s="43"/>
+      <c r="JJ14" s="43"/>
+      <c r="JK14" s="43"/>
+      <c r="JL14" s="43"/>
+      <c r="JM14" s="43"/>
+      <c r="JN14" s="43"/>
+      <c r="JO14" s="43"/>
+      <c r="JP14" s="43"/>
+      <c r="JQ14" s="43"/>
+      <c r="JR14" s="43"/>
+      <c r="JS14" s="43"/>
+      <c r="JT14" s="43"/>
+      <c r="JU14" s="43"/>
+      <c r="JV14" s="43"/>
+      <c r="JW14" s="43"/>
+      <c r="JX14" s="43"/>
+      <c r="JY14" s="43"/>
+      <c r="JZ14" s="43"/>
+      <c r="KA14" s="43"/>
+      <c r="KB14" s="43"/>
+      <c r="KC14" s="43"/>
+      <c r="KD14" s="43"/>
+      <c r="KE14" s="43"/>
+      <c r="KF14" s="43"/>
+      <c r="KG14" s="43"/>
+      <c r="KH14" s="43"/>
+      <c r="KI14" s="43"/>
+      <c r="KJ14" s="43"/>
+      <c r="KK14" s="43"/>
+      <c r="KL14" s="43"/>
+      <c r="KM14" s="43"/>
+      <c r="KN14" s="43"/>
+      <c r="KO14" s="43"/>
+      <c r="KP14" s="43"/>
+      <c r="KQ14" s="43"/>
+      <c r="KR14" s="43"/>
+      <c r="KS14" s="43"/>
+      <c r="KT14" s="43"/>
+      <c r="KU14" s="43"/>
+      <c r="KV14" s="43"/>
+      <c r="KW14" s="43"/>
+      <c r="KX14" s="43"/>
+      <c r="KY14" s="43"/>
+      <c r="KZ14" s="43"/>
+      <c r="LA14" s="43"/>
+      <c r="LB14" s="43"/>
+      <c r="LC14" s="43"/>
+      <c r="LD14" s="43"/>
+      <c r="LE14" s="43"/>
+      <c r="LF14" s="43"/>
+      <c r="LG14" s="43"/>
+      <c r="LH14" s="43"/>
+      <c r="LI14" s="43"/>
+      <c r="LJ14" s="43"/>
+      <c r="LK14" s="43"/>
+      <c r="LL14" s="43"/>
+      <c r="LM14" s="43"/>
+      <c r="LN14" s="43"/>
+      <c r="LO14" s="43"/>
+      <c r="LP14" s="43"/>
+      <c r="LQ14" s="43"/>
+      <c r="LR14" s="43"/>
+      <c r="LS14" s="43"/>
+      <c r="LT14" s="43"/>
+      <c r="LU14" s="43"/>
+      <c r="LV14" s="43"/>
+      <c r="LW14" s="43"/>
+      <c r="LX14" s="43"/>
+      <c r="LY14" s="43"/>
+      <c r="LZ14" s="43"/>
+      <c r="MA14" s="43"/>
+      <c r="MB14" s="43"/>
+      <c r="MC14" s="43"/>
+      <c r="MD14" s="43"/>
+      <c r="ME14" s="43"/>
+      <c r="MF14" s="43"/>
+      <c r="MG14" s="43"/>
+      <c r="MH14" s="43"/>
+      <c r="MI14" s="43"/>
+      <c r="MJ14" s="43"/>
+      <c r="MK14" s="43"/>
+      <c r="ML14" s="43"/>
+      <c r="MM14" s="43"/>
+      <c r="MN14" s="43"/>
+      <c r="MO14" s="43"/>
+      <c r="MP14" s="43"/>
+      <c r="MQ14" s="43"/>
+      <c r="MR14" s="43"/>
+      <c r="MS14" s="43"/>
+      <c r="MT14" s="43"/>
+      <c r="MU14" s="43"/>
+      <c r="MV14" s="43"/>
+      <c r="MW14" s="43"/>
+      <c r="MX14" s="43"/>
+      <c r="MY14" s="43"/>
+      <c r="MZ14" s="43"/>
+      <c r="NA14" s="43"/>
+      <c r="NB14" s="43"/>
+      <c r="NC14" s="43"/>
+      <c r="ND14" s="43"/>
+      <c r="NE14" s="43"/>
+      <c r="NF14" s="43"/>
+      <c r="NG14" s="43"/>
+      <c r="NH14" s="43"/>
+      <c r="NI14" s="43"/>
+      <c r="NJ14" s="43"/>
+      <c r="NK14" s="43"/>
+      <c r="NL14" s="43"/>
+      <c r="NM14" s="43"/>
+      <c r="NN14" s="43"/>
+      <c r="NO14" s="43"/>
+      <c r="NP14" s="43"/>
+      <c r="NQ14" s="43"/>
+      <c r="NR14" s="43"/>
+      <c r="NS14" s="43"/>
+      <c r="NT14" s="43"/>
+      <c r="NU14" s="43"/>
+      <c r="NV14" s="43"/>
+      <c r="NW14" s="43"/>
+      <c r="NX14" s="43"/>
+      <c r="NY14" s="43"/>
+      <c r="NZ14" s="43"/>
+      <c r="OA14" s="43"/>
+      <c r="OB14" s="43"/>
+      <c r="OC14" s="43"/>
+      <c r="OD14" s="43"/>
+      <c r="OE14" s="43"/>
+      <c r="OF14" s="43"/>
+      <c r="OG14" s="43"/>
+      <c r="OH14" s="43"/>
+      <c r="OI14" s="43"/>
+      <c r="OJ14" s="43"/>
+      <c r="OK14" s="43"/>
+      <c r="OL14" s="43"/>
+      <c r="OM14" s="43"/>
+      <c r="ON14" s="43"/>
+      <c r="OO14" s="43"/>
+      <c r="OP14" s="43"/>
+      <c r="OQ14" s="43"/>
+      <c r="OR14" s="43"/>
+      <c r="OS14" s="43"/>
+      <c r="OT14" s="43"/>
+      <c r="OU14" s="43"/>
+      <c r="OV14" s="43"/>
+      <c r="OW14" s="43"/>
+      <c r="OX14" s="43"/>
+      <c r="OY14" s="43"/>
+      <c r="OZ14" s="43"/>
+      <c r="PA14" s="43"/>
+      <c r="PB14" s="43"/>
+      <c r="PC14" s="43"/>
+      <c r="PD14" s="43"/>
+      <c r="PE14" s="43"/>
+      <c r="PF14" s="43"/>
+      <c r="PG14" s="43"/>
+      <c r="PH14" s="43"/>
+      <c r="PI14" s="43"/>
+      <c r="PJ14" s="43"/>
+      <c r="PK14" s="43"/>
+      <c r="PL14" s="43"/>
+      <c r="PM14" s="43"/>
+      <c r="PN14" s="43"/>
+      <c r="PO14" s="43"/>
+      <c r="PP14" s="43"/>
+      <c r="PQ14" s="43"/>
+      <c r="PR14" s="43"/>
+      <c r="PS14" s="43"/>
+      <c r="PT14" s="43"/>
+      <c r="PU14" s="43"/>
+      <c r="PV14" s="43"/>
+      <c r="PW14" s="43"/>
+      <c r="PX14" s="43"/>
+      <c r="PY14" s="43"/>
+      <c r="PZ14" s="43"/>
+      <c r="QA14" s="43"/>
+      <c r="QB14" s="43"/>
+      <c r="QC14" s="43"/>
+      <c r="QD14" s="43"/>
+      <c r="QE14" s="43"/>
+      <c r="QF14" s="43"/>
+      <c r="QG14" s="43"/>
+      <c r="QH14" s="43"/>
+      <c r="QI14" s="43"/>
+      <c r="QJ14" s="43"/>
+      <c r="QK14" s="43"/>
+      <c r="QL14" s="43"/>
+      <c r="QM14" s="43"/>
+      <c r="QN14" s="43"/>
+      <c r="QO14" s="43"/>
+      <c r="QP14" s="43"/>
+      <c r="QQ14" s="43"/>
+      <c r="QR14" s="43"/>
+      <c r="QS14" s="43"/>
+      <c r="QT14" s="43"/>
+      <c r="QU14" s="43"/>
+      <c r="QV14" s="43"/>
+      <c r="QW14" s="43"/>
+      <c r="QX14" s="43"/>
+      <c r="QY14" s="43"/>
+      <c r="QZ14" s="43"/>
+      <c r="RA14" s="43"/>
+      <c r="RB14" s="43"/>
+      <c r="RC14" s="43"/>
+      <c r="RD14" s="43"/>
+      <c r="RE14" s="43"/>
+      <c r="RF14" s="43"/>
+      <c r="RG14" s="43"/>
+      <c r="RH14" s="43"/>
+      <c r="RI14" s="43"/>
+      <c r="RJ14" s="43"/>
+      <c r="RK14" s="43"/>
+      <c r="RL14" s="43"/>
+      <c r="RM14" s="43"/>
+      <c r="RN14" s="43"/>
+      <c r="RO14" s="43"/>
+      <c r="RP14" s="43"/>
+      <c r="RQ14" s="43"/>
+      <c r="RR14" s="43"/>
+      <c r="RS14" s="43"/>
+      <c r="RT14" s="43"/>
+      <c r="RU14" s="43"/>
+      <c r="RV14" s="43"/>
+      <c r="RW14" s="43"/>
+      <c r="RX14" s="43"/>
+      <c r="RY14" s="43"/>
+      <c r="RZ14" s="43"/>
+      <c r="SA14" s="43"/>
+      <c r="SB14" s="43"/>
+      <c r="SC14" s="43"/>
+      <c r="SD14" s="43"/>
+      <c r="SE14" s="43"/>
+      <c r="SF14" s="43"/>
+      <c r="SG14" s="43"/>
+      <c r="SH14" s="43"/>
+      <c r="SI14" s="43"/>
+      <c r="SJ14" s="43"/>
+      <c r="SK14" s="43"/>
+      <c r="SL14" s="43"/>
+      <c r="SM14" s="43"/>
+      <c r="SN14" s="43"/>
+      <c r="SO14" s="43"/>
+      <c r="SP14" s="43"/>
+      <c r="SQ14" s="43"/>
+      <c r="SR14" s="43"/>
+      <c r="SS14" s="43"/>
+      <c r="ST14" s="43"/>
+      <c r="SU14" s="43"/>
+      <c r="SV14" s="43"/>
+      <c r="SW14" s="43"/>
+      <c r="SX14" s="43"/>
+      <c r="SY14" s="43"/>
+      <c r="SZ14" s="43"/>
+      <c r="TA14" s="43"/>
+      <c r="TB14" s="43"/>
+      <c r="TC14" s="43"/>
+      <c r="TD14" s="43"/>
+      <c r="TE14" s="43"/>
+      <c r="TF14" s="43"/>
+      <c r="TG14" s="43"/>
+      <c r="TH14" s="43"/>
+      <c r="TI14" s="43"/>
+      <c r="TJ14" s="43"/>
+      <c r="TK14" s="43"/>
+      <c r="TL14" s="43"/>
+      <c r="TM14" s="43"/>
+      <c r="TN14" s="43"/>
+      <c r="TO14" s="43"/>
+      <c r="TP14" s="43"/>
+      <c r="TQ14" s="43"/>
+      <c r="TR14" s="43"/>
+      <c r="TS14" s="43"/>
+      <c r="TT14" s="43"/>
+      <c r="TU14" s="43"/>
+      <c r="TV14" s="43"/>
+      <c r="TW14" s="43"/>
+      <c r="TX14" s="43"/>
+      <c r="TY14" s="43"/>
+      <c r="TZ14" s="43"/>
+      <c r="UA14" s="43"/>
+      <c r="UB14" s="43"/>
+      <c r="UC14" s="43"/>
+      <c r="UD14" s="43"/>
+      <c r="UE14" s="43"/>
+      <c r="UF14" s="43"/>
+      <c r="UG14" s="43"/>
+      <c r="UH14" s="43"/>
+      <c r="UI14" s="43"/>
+      <c r="UJ14" s="43"/>
+      <c r="UK14" s="43"/>
+      <c r="UL14" s="43"/>
+      <c r="UM14" s="43"/>
+      <c r="UN14" s="43"/>
+      <c r="UO14" s="43"/>
+      <c r="UP14" s="43"/>
+      <c r="UQ14" s="43"/>
+      <c r="UR14" s="43"/>
+      <c r="US14" s="43"/>
+      <c r="UT14" s="43"/>
+      <c r="UU14" s="43"/>
+      <c r="UV14" s="43"/>
+      <c r="UW14" s="43"/>
+      <c r="UX14" s="43"/>
+      <c r="UY14" s="43"/>
+      <c r="UZ14" s="43"/>
+      <c r="VA14" s="43"/>
+      <c r="VB14" s="43"/>
+      <c r="VC14" s="43"/>
+      <c r="VD14" s="43"/>
+      <c r="VE14" s="43"/>
+      <c r="VF14" s="43"/>
+      <c r="VG14" s="43"/>
+      <c r="VH14" s="43"/>
+      <c r="VI14" s="43"/>
+      <c r="VJ14" s="43"/>
+      <c r="VK14" s="43"/>
+      <c r="VL14" s="43"/>
+      <c r="VM14" s="43"/>
+      <c r="VN14" s="43"/>
+      <c r="VO14" s="43"/>
+      <c r="VP14" s="43"/>
+      <c r="VQ14" s="43"/>
+      <c r="VR14" s="43"/>
+      <c r="VS14" s="43"/>
+      <c r="VT14" s="43"/>
+      <c r="VU14" s="43"/>
+      <c r="VV14" s="43"/>
+      <c r="VW14" s="43"/>
+      <c r="VX14" s="43"/>
+      <c r="VY14" s="43"/>
+      <c r="VZ14" s="43"/>
+      <c r="WA14" s="43"/>
+      <c r="WB14" s="43"/>
+      <c r="WC14" s="43"/>
+      <c r="WD14" s="43"/>
+      <c r="WE14" s="43"/>
+      <c r="WF14" s="43"/>
+      <c r="WG14" s="43"/>
+      <c r="WH14" s="43"/>
+      <c r="WI14" s="43"/>
+      <c r="WJ14" s="43"/>
+      <c r="WK14" s="43"/>
+      <c r="WL14" s="43"/>
+      <c r="WM14" s="43"/>
+      <c r="WN14" s="43"/>
+      <c r="WO14" s="43"/>
+      <c r="WP14" s="43"/>
+      <c r="WQ14" s="43"/>
+      <c r="WR14" s="43"/>
+      <c r="WS14" s="43"/>
+      <c r="WT14" s="43"/>
+      <c r="WU14" s="43"/>
+      <c r="WV14" s="43"/>
+      <c r="WW14" s="43"/>
+      <c r="WX14" s="43"/>
+      <c r="WY14" s="43"/>
+      <c r="WZ14" s="43"/>
+      <c r="XA14" s="43"/>
+      <c r="XB14" s="43"/>
+      <c r="XC14" s="43"/>
+      <c r="XD14" s="43"/>
+      <c r="XE14" s="43"/>
+      <c r="XF14" s="43"/>
+      <c r="XG14" s="43"/>
+      <c r="XH14" s="43"/>
+      <c r="XI14" s="43"/>
+      <c r="XJ14" s="43"/>
+      <c r="XK14" s="43"/>
+      <c r="XL14" s="43"/>
+      <c r="XM14" s="43"/>
+      <c r="XN14" s="43"/>
+      <c r="XO14" s="43"/>
+      <c r="XP14" s="43"/>
+      <c r="XQ14" s="43"/>
+      <c r="XR14" s="43"/>
+      <c r="XS14" s="43"/>
+      <c r="XT14" s="43"/>
+      <c r="XU14" s="43"/>
+      <c r="XV14" s="43"/>
+      <c r="XW14" s="43"/>
+      <c r="XX14" s="43"/>
+      <c r="XY14" s="43"/>
+      <c r="XZ14" s="43"/>
+      <c r="YA14" s="43"/>
+      <c r="YB14" s="43"/>
+      <c r="YC14" s="43"/>
+      <c r="YD14" s="43"/>
+      <c r="YE14" s="43"/>
+      <c r="YF14" s="43"/>
+      <c r="YG14" s="43"/>
+      <c r="YH14" s="43"/>
+      <c r="YI14" s="43"/>
+      <c r="YJ14" s="43"/>
+      <c r="YK14" s="43"/>
+      <c r="YL14" s="43"/>
+      <c r="YM14" s="43"/>
+      <c r="YN14" s="43"/>
+      <c r="YO14" s="43"/>
+      <c r="YP14" s="43"/>
+      <c r="YQ14" s="43"/>
+      <c r="YR14" s="43"/>
+      <c r="YS14" s="43"/>
+      <c r="YT14" s="43"/>
+      <c r="YU14" s="43"/>
+      <c r="YV14" s="43"/>
+      <c r="YW14" s="43"/>
+      <c r="YX14" s="43"/>
+      <c r="YY14" s="43"/>
+      <c r="YZ14" s="43"/>
+      <c r="ZA14" s="43"/>
+      <c r="ZB14" s="43"/>
+      <c r="ZC14" s="43"/>
+      <c r="ZD14" s="43"/>
+      <c r="ZE14" s="43"/>
+      <c r="ZF14" s="43"/>
+      <c r="ZG14" s="43"/>
+      <c r="ZH14" s="43"/>
+      <c r="ZI14" s="43"/>
+      <c r="ZJ14" s="43"/>
+      <c r="ZK14" s="43"/>
+      <c r="ZL14" s="43"/>
+      <c r="ZM14" s="43"/>
+      <c r="ZN14" s="43"/>
+      <c r="ZO14" s="43"/>
+      <c r="ZP14" s="43"/>
+      <c r="ZQ14" s="43"/>
+      <c r="ZR14" s="43"/>
+      <c r="ZS14" s="43"/>
+      <c r="ZT14" s="43"/>
+      <c r="ZU14" s="43"/>
+      <c r="ZV14" s="43"/>
+      <c r="ZW14" s="43"/>
+      <c r="ZX14" s="43"/>
+      <c r="ZY14" s="43"/>
+      <c r="ZZ14" s="43"/>
+      <c r="AAA14" s="43"/>
+      <c r="AAB14" s="43"/>
+      <c r="AAC14" s="43"/>
+      <c r="AAD14" s="43"/>
+      <c r="AAE14" s="43"/>
+      <c r="AAF14" s="43"/>
+      <c r="AAG14" s="43"/>
+      <c r="AAH14" s="43"/>
+      <c r="AAI14" s="43"/>
+      <c r="AAJ14" s="43"/>
+      <c r="AAK14" s="43"/>
+      <c r="AAL14" s="43"/>
+      <c r="AAM14" s="43"/>
+      <c r="AAN14" s="43"/>
+      <c r="AAO14" s="43"/>
+      <c r="AAP14" s="43"/>
+      <c r="AAQ14" s="43"/>
+      <c r="AAR14" s="43"/>
+      <c r="AAS14" s="43"/>
+      <c r="AAT14" s="43"/>
+      <c r="AAU14" s="43"/>
+      <c r="AAV14" s="43"/>
+      <c r="AAW14" s="43"/>
+      <c r="AAX14" s="43"/>
+      <c r="AAY14" s="43"/>
+      <c r="AAZ14" s="43"/>
+      <c r="ABA14" s="43"/>
+      <c r="ABB14" s="43"/>
+      <c r="ABC14" s="43"/>
+      <c r="ABD14" s="43"/>
+      <c r="ABE14" s="43"/>
+      <c r="ABF14" s="43"/>
+      <c r="ABG14" s="43"/>
+      <c r="ABH14" s="43"/>
+      <c r="ABI14" s="43"/>
+      <c r="ABJ14" s="43"/>
+      <c r="ABK14" s="43"/>
+      <c r="ABL14" s="43"/>
+      <c r="ABM14" s="43"/>
+      <c r="ABN14" s="43"/>
+      <c r="ABO14" s="43"/>
+      <c r="ABP14" s="43"/>
+      <c r="ABQ14" s="43"/>
+      <c r="ABR14" s="43"/>
+      <c r="ABS14" s="43"/>
+      <c r="ABT14" s="43"/>
+      <c r="ABU14" s="43"/>
+      <c r="ABV14" s="43"/>
+      <c r="ABW14" s="43"/>
+      <c r="ABX14" s="43"/>
+      <c r="ABY14" s="43"/>
+      <c r="ABZ14" s="43"/>
+      <c r="ACA14" s="43"/>
+      <c r="ACB14" s="43"/>
+      <c r="ACC14" s="43"/>
+      <c r="ACD14" s="43"/>
+      <c r="ACE14" s="43"/>
+      <c r="ACF14" s="43"/>
+      <c r="ACG14" s="43"/>
+      <c r="ACH14" s="43"/>
+      <c r="ACI14" s="43"/>
+      <c r="ACJ14" s="43"/>
+      <c r="ACK14" s="43"/>
+      <c r="ACL14" s="43"/>
+      <c r="ACM14" s="43"/>
+      <c r="ACN14" s="43"/>
+      <c r="ACO14" s="43"/>
+      <c r="ACP14" s="43"/>
+      <c r="ACQ14" s="43"/>
+      <c r="ACR14" s="43"/>
+      <c r="ACS14" s="43"/>
+      <c r="ACT14" s="43"/>
+      <c r="ACU14" s="43"/>
+      <c r="ACV14" s="43"/>
+      <c r="ACW14" s="43"/>
+      <c r="ACX14" s="43"/>
+      <c r="ACY14" s="43"/>
+      <c r="ACZ14" s="43"/>
+      <c r="ADA14" s="43"/>
+      <c r="ADB14" s="43"/>
+      <c r="ADC14" s="43"/>
+      <c r="ADD14" s="43"/>
+      <c r="ADE14" s="43"/>
+      <c r="ADF14" s="43"/>
+      <c r="ADG14" s="43"/>
+      <c r="ADH14" s="43"/>
+      <c r="ADI14" s="43"/>
+      <c r="ADJ14" s="43"/>
+      <c r="ADK14" s="43"/>
+      <c r="ADL14" s="43"/>
+      <c r="ADM14" s="43"/>
+      <c r="ADN14" s="43"/>
+      <c r="ADO14" s="43"/>
+      <c r="ADP14" s="43"/>
+      <c r="ADQ14" s="43"/>
+      <c r="ADR14" s="43"/>
+      <c r="ADS14" s="43"/>
+      <c r="ADT14" s="43"/>
+      <c r="ADU14" s="43"/>
+      <c r="ADV14" s="43"/>
+      <c r="ADW14" s="43"/>
+      <c r="ADX14" s="43"/>
+      <c r="ADY14" s="43"/>
+      <c r="ADZ14" s="43"/>
+      <c r="AEA14" s="43"/>
+      <c r="AEB14" s="43"/>
+      <c r="AEC14" s="43"/>
+      <c r="AED14" s="43"/>
+      <c r="AEE14" s="43"/>
+      <c r="AEF14" s="43"/>
+      <c r="AEG14" s="43"/>
+      <c r="AEH14" s="43"/>
+      <c r="AEI14" s="43"/>
+      <c r="AEJ14" s="43"/>
+      <c r="AEK14" s="43"/>
+      <c r="AEL14" s="43"/>
+      <c r="AEM14" s="43"/>
+      <c r="AEN14" s="43"/>
+      <c r="AEO14" s="43"/>
+      <c r="AEP14" s="43"/>
+      <c r="AEQ14" s="43"/>
+      <c r="AER14" s="43"/>
+      <c r="AES14" s="43"/>
+      <c r="AET14" s="43"/>
+      <c r="AEU14" s="43"/>
+      <c r="AEV14" s="43"/>
+      <c r="AEW14" s="43"/>
+      <c r="AEX14" s="43"/>
+      <c r="AEY14" s="43"/>
+      <c r="AEZ14" s="43"/>
+      <c r="AFA14" s="43"/>
+      <c r="AFB14" s="43"/>
+      <c r="AFC14" s="43"/>
+      <c r="AFD14" s="43"/>
+      <c r="AFE14" s="43"/>
+      <c r="AFF14" s="43"/>
+      <c r="AFG14" s="43"/>
+      <c r="AFH14" s="43"/>
+      <c r="AFI14" s="43"/>
+      <c r="AFJ14" s="43"/>
+      <c r="AFK14" s="43"/>
+      <c r="AFL14" s="43"/>
+      <c r="AFM14" s="43"/>
+      <c r="AFN14" s="43"/>
+      <c r="AFO14" s="43"/>
+      <c r="AFP14" s="43"/>
+      <c r="AFQ14" s="43"/>
+      <c r="AFR14" s="43"/>
+      <c r="AFS14" s="43"/>
+      <c r="AFT14" s="43"/>
+      <c r="AFU14" s="43"/>
+      <c r="AFV14" s="43"/>
+      <c r="AFW14" s="43"/>
+      <c r="AFX14" s="43"/>
+      <c r="AFY14" s="43"/>
+      <c r="AFZ14" s="43"/>
+      <c r="AGA14" s="43"/>
+      <c r="AGB14" s="43"/>
+      <c r="AGC14" s="43"/>
+      <c r="AGD14" s="43"/>
+      <c r="AGE14" s="43"/>
+      <c r="AGF14" s="43"/>
+      <c r="AGG14" s="43"/>
+      <c r="AGH14" s="43"/>
+      <c r="AGI14" s="43"/>
+      <c r="AGJ14" s="43"/>
+      <c r="AGK14" s="43"/>
+      <c r="AGL14" s="43"/>
+      <c r="AGM14" s="43"/>
+      <c r="AGN14" s="43"/>
+      <c r="AGO14" s="43"/>
+      <c r="AGP14" s="43"/>
+      <c r="AGQ14" s="43"/>
+      <c r="AGR14" s="43"/>
+      <c r="AGS14" s="43"/>
+      <c r="AGT14" s="43"/>
+      <c r="AGU14" s="43"/>
+      <c r="AGV14" s="43"/>
+      <c r="AGW14" s="43"/>
+      <c r="AGX14" s="43"/>
+      <c r="AGY14" s="43"/>
+      <c r="AGZ14" s="43"/>
+      <c r="AHA14" s="43"/>
+      <c r="AHB14" s="43"/>
+      <c r="AHC14" s="43"/>
+      <c r="AHD14" s="43"/>
+      <c r="AHE14" s="43"/>
+      <c r="AHF14" s="43"/>
+      <c r="AHG14" s="43"/>
+      <c r="AHH14" s="43"/>
+      <c r="AHI14" s="43"/>
+      <c r="AHJ14" s="43"/>
+      <c r="AHK14" s="43"/>
+      <c r="AHL14" s="43"/>
+      <c r="AHM14" s="43"/>
+      <c r="AHN14" s="43"/>
+      <c r="AHO14" s="43"/>
+      <c r="AHP14" s="43"/>
+      <c r="AHQ14" s="43"/>
+      <c r="AHR14" s="43"/>
+      <c r="AHS14" s="43"/>
+      <c r="AHT14" s="43"/>
+      <c r="AHU14" s="43"/>
+      <c r="AHV14" s="43"/>
+      <c r="AHW14" s="43"/>
+      <c r="AHX14" s="43"/>
+      <c r="AHY14" s="43"/>
+      <c r="AHZ14" s="43"/>
+      <c r="AIA14" s="43"/>
+      <c r="AIB14" s="43"/>
+      <c r="AIC14" s="43"/>
+      <c r="AID14" s="43"/>
+      <c r="AIE14" s="43"/>
+      <c r="AIF14" s="43"/>
+      <c r="AIG14" s="43"/>
+      <c r="AIH14" s="43"/>
+      <c r="AII14" s="43"/>
+      <c r="AIJ14" s="43"/>
+      <c r="AIK14" s="43"/>
+      <c r="AIL14" s="43"/>
+      <c r="AIM14" s="43"/>
+      <c r="AIN14" s="43"/>
+      <c r="AIO14" s="43"/>
+      <c r="AIP14" s="43"/>
+      <c r="AIQ14" s="43"/>
+      <c r="AIR14" s="43"/>
+      <c r="AIS14" s="43"/>
+      <c r="AIT14" s="43"/>
+      <c r="AIU14" s="43"/>
+      <c r="AIV14" s="43"/>
+      <c r="AIW14" s="43"/>
+      <c r="AIX14" s="43"/>
+      <c r="AIY14" s="43"/>
+      <c r="AIZ14" s="43"/>
+      <c r="AJA14" s="43"/>
+      <c r="AJB14" s="43"/>
+      <c r="AJC14" s="43"/>
+      <c r="AJD14" s="43"/>
+      <c r="AJE14" s="43"/>
+      <c r="AJF14" s="43"/>
+      <c r="AJG14" s="43"/>
+      <c r="AJH14" s="43"/>
+      <c r="AJI14" s="43"/>
+      <c r="AJJ14" s="43"/>
+      <c r="AJK14" s="43"/>
+      <c r="AJL14" s="43"/>
+      <c r="AJM14" s="43"/>
+      <c r="AJN14" s="43"/>
+      <c r="AJO14" s="43"/>
+      <c r="AJP14" s="43"/>
+      <c r="AJQ14" s="43"/>
+      <c r="AJR14" s="43"/>
+      <c r="AJS14" s="43"/>
+      <c r="AJT14" s="43"/>
+      <c r="AJU14" s="43"/>
+      <c r="AJV14" s="43"/>
+      <c r="AJW14" s="43"/>
+      <c r="AJX14" s="43"/>
+      <c r="AJY14" s="43"/>
+      <c r="AJZ14" s="43"/>
+      <c r="AKA14" s="43"/>
+      <c r="AKB14" s="43"/>
+      <c r="AKC14" s="43"/>
+      <c r="AKD14" s="43"/>
+      <c r="AKE14" s="43"/>
+      <c r="AKF14" s="43"/>
+      <c r="AKG14" s="43"/>
+      <c r="AKH14" s="43"/>
+      <c r="AKI14" s="43"/>
+      <c r="AKJ14" s="43"/>
+      <c r="AKK14" s="43"/>
+      <c r="AKL14" s="43"/>
+      <c r="AKM14" s="43"/>
+      <c r="AKN14" s="43"/>
+      <c r="AKO14" s="43"/>
+      <c r="AKP14" s="43"/>
+      <c r="AKQ14" s="43"/>
+      <c r="AKR14" s="43"/>
+      <c r="AKS14" s="43"/>
+      <c r="AKT14" s="43"/>
+      <c r="AKU14" s="43"/>
+      <c r="AKV14" s="43"/>
+      <c r="AKW14" s="43"/>
+      <c r="AKX14" s="43"/>
+      <c r="AKY14" s="43"/>
+      <c r="AKZ14" s="43"/>
+      <c r="ALA14" s="43"/>
+      <c r="ALB14" s="43"/>
+      <c r="ALC14" s="43"/>
+      <c r="ALD14" s="43"/>
+      <c r="ALE14" s="43"/>
+      <c r="ALF14" s="43"/>
+      <c r="ALG14" s="43"/>
+      <c r="ALH14" s="43"/>
+      <c r="ALI14" s="43"/>
+      <c r="ALJ14" s="43"/>
+      <c r="ALK14" s="43"/>
+      <c r="ALL14" s="43"/>
+      <c r="ALM14" s="43"/>
+      <c r="ALN14" s="43"/>
+      <c r="ALO14" s="43"/>
+      <c r="ALP14" s="43"/>
+      <c r="ALQ14" s="43"/>
+      <c r="ALR14" s="43"/>
+      <c r="ALS14" s="43"/>
+      <c r="ALT14" s="43"/>
+      <c r="ALU14" s="43"/>
+      <c r="ALV14" s="43"/>
+      <c r="ALW14" s="43"/>
+      <c r="ALX14" s="43"/>
+      <c r="ALY14" s="43"/>
+      <c r="ALZ14" s="43"/>
+      <c r="AMA14" s="43"/>
+      <c r="AMB14" s="43"/>
+      <c r="AMC14" s="43"/>
+      <c r="AMD14" s="43"/>
+      <c r="AME14" s="43"/>
+      <c r="AMF14" s="43"/>
+      <c r="AMG14" s="43"/>
+      <c r="AMH14" s="43"/>
+      <c r="AMI14" s="43"/>
+      <c r="AMJ14" s="43"/>
     </row>
     <row r="15" spans="1:1024">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="C15" s="28">
-        <v>15</v>
+        <v>75000</v>
       </c>
       <c r="D15" s="29">
-        <v>39.24</v>
+        <v>1.064435</v>
       </c>
       <c r="E15" s="46">
         <f>Sayfa2!$D15*Sayfa2!$C15</f>
-        <v>588.6</v>
+        <v>79832.625</v>
       </c>
       <c r="F15" s="2">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="18">
-        <f>Sayfa4!Q2</f>
-        <v>43.16</v>
+        <f>Sayfa4!K2</f>
+        <v>1.041954</v>
       </c>
       <c r="I15" s="19">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
         <v>0</v>
       </c>
       <c r="J15" s="28">
-        <f t="shared" si="9"/>
-        <v>3.9199999999999946</v>
+        <f t="shared" ref="J15:J30" si="13">H15-D15</f>
+        <v>-2.2480999999999973E-2</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>58.799999999999919</v>
+        <v>-1686.074999999998</v>
       </c>
       <c r="L15" s="48">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" ref="L15:L30" si="14">F15-B15</f>
+        <v>7</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" si="11"/>
-        <v>9.989806320081536E-2</v>
+        <f t="shared" ref="M15:M30" si="15">K15/E15</f>
+        <v>-2.1120124761023429E-2</v>
       </c>
       <c r="N15" s="26">
-        <f t="shared" si="12"/>
-        <v>0.74923547400611523</v>
+        <f t="shared" ref="N15:N30" si="16">M15/L15*30</f>
+        <v>-9.0514820404386132E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>45344</v>
       </c>
       <c r="C16" s="28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" s="29">
-        <v>19.45</v>
+        <v>39.24</v>
       </c>
       <c r="E16" s="46">
         <f>Sayfa2!$D16*Sayfa2!$C16</f>
-        <v>233.39999999999998</v>
+        <v>588.6</v>
       </c>
       <c r="F16" s="2">
-        <f>F15</f>
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18">
-        <f>Sayfa4!O2</f>
-        <v>23.5</v>
+        <f>Sayfa4!Q2</f>
+        <v>47.46</v>
       </c>
       <c r="I16" s="19">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
         <v>0</v>
       </c>
       <c r="J16" s="28">
-        <f t="shared" si="9"/>
-        <v>4.0500000000000007</v>
+        <f t="shared" si="13"/>
+        <v>8.2199999999999989</v>
       </c>
       <c r="K16" s="47">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>48.600000000000009</v>
+        <v>123.29999999999998</v>
       </c>
       <c r="L16" s="48">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" si="11"/>
-        <v>0.20822622107969158</v>
+        <f t="shared" si="15"/>
+        <v>0.209480122324159</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" si="12"/>
-        <v>1.5616966580976868</v>
+        <f t="shared" si="16"/>
+        <v>0.57130942452043365</v>
       </c>
     </row>
     <row r="17" spans="1:1024">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <v>45344</v>
       </c>
       <c r="C17" s="28">
-        <v>50000</v>
+        <v>12</v>
       </c>
       <c r="D17" s="29">
-        <v>1.0032049999999999</v>
+        <v>19.45</v>
       </c>
       <c r="E17" s="46">
         <f>Sayfa2!$D17*Sayfa2!$C17</f>
-        <v>50160.249999999993</v>
+        <v>233.39999999999998</v>
       </c>
       <c r="F17" s="2">
-        <v>45350</v>
+        <f>F16</f>
+        <v>45355</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18">
-        <f>H14</f>
-        <v>1.034036</v>
+        <f>Sayfa4!O2</f>
+        <v>25.84</v>
       </c>
       <c r="I17" s="19">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
         <v>0</v>
       </c>
       <c r="J17" s="28">
-        <f t="shared" si="9"/>
-        <v>3.0831000000000053E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.3900000000000006</v>
       </c>
       <c r="K17" s="47">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>1541.5500000000027</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="L17" s="48">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="11"/>
-        <v>3.0732502330032305E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.32853470437018001</v>
       </c>
       <c r="N17" s="26">
-        <f t="shared" si="12"/>
-        <v>0.15366251165016151</v>
+        <f t="shared" si="16"/>
+        <v>0.89600373919140008</v>
       </c>
     </row>
     <row r="18" spans="1:1024">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
         <v>45344</v>
       </c>
       <c r="C18" s="28">
-        <v>33</v>
+        <v>50000</v>
       </c>
       <c r="D18" s="29">
-        <v>571.10522800000001</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="E18" s="46">
         <f>Sayfa2!$D18*Sayfa2!$C18</f>
-        <v>18846.472524000001</v>
+        <v>50160.249999999993</v>
       </c>
       <c r="F18" s="2">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="18">
-        <f>H11</f>
-        <v>576.58807100000001</v>
+        <f>H15</f>
+        <v>1.041954</v>
       </c>
       <c r="I18" s="19">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
         <v>0</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="9"/>
-        <v>5.4828430000000026</v>
+        <f t="shared" si="13"/>
+        <v>3.8749000000000144E-2</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>180.93381900000008</v>
+        <v>1937.4500000000073</v>
       </c>
       <c r="L18" s="48">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" si="11"/>
-        <v>9.6004076502693159E-3</v>
+        <f t="shared" si="15"/>
+        <v>3.862520621408401E-2</v>
       </c>
       <c r="N18" s="26">
-        <f t="shared" si="12"/>
-        <v>4.8002038251346579E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.10534147149295639</v>
       </c>
     </row>
     <row r="19" spans="1:1024">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="C19" s="28">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="29">
-        <v>16.2</v>
+        <v>571.10522800000001</v>
       </c>
       <c r="E19" s="46">
         <f>Sayfa2!$D19*Sayfa2!$C19</f>
-        <v>583.19999999999993</v>
+        <v>18846.472524000001</v>
       </c>
       <c r="F19" s="2">
-        <f>F39</f>
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18">
-        <f>Sayfa4!M5</f>
-        <v>31.52</v>
+        <f>H12</f>
+        <v>578.66060300000004</v>
       </c>
       <c r="I19" s="19">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
-        <f t="shared" si="9"/>
-        <v>15.32</v>
+        <f t="shared" si="13"/>
+        <v>7.5553750000000264</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>551.52</v>
+        <v>249.32737500000087</v>
       </c>
       <c r="L19" s="48">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="M19" s="26">
-        <f t="shared" si="11"/>
-        <v>0.94567901234567908</v>
+        <f t="shared" si="15"/>
+        <v>1.3229392114757573E-2</v>
       </c>
       <c r="N19" s="26">
-        <f t="shared" si="12"/>
-        <v>3.1522633744855968</v>
+        <f t="shared" si="16"/>
+        <v>3.6080160312975194E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1024">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2">
-        <v>44784</v>
+        <v>45341</v>
       </c>
       <c r="C20" s="28">
-        <v>18.010000000000002</v>
+        <v>36</v>
       </c>
       <c r="D20" s="29">
-        <v>18.721599999999999</v>
+        <v>16.2</v>
       </c>
       <c r="E20" s="46">
         <f>Sayfa2!$D20*Sayfa2!$C20</f>
-        <v>337.176016</v>
+        <v>583.19999999999993</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ref="F20:F29" si="13">F19</f>
-        <v>45350</v>
+        <f>F40</f>
+        <v>45355</v>
       </c>
       <c r="G20" s="17">
-        <v>18.010000000000002</v>
+        <v>36</v>
       </c>
       <c r="H20" s="18">
-        <v>32.381999999999998</v>
+        <f>Sayfa4!M5</f>
+        <v>34.659999999999997</v>
       </c>
       <c r="I20" s="19">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>583.19982000000005</v>
+        <v>1247.7599999999998</v>
       </c>
       <c r="J20" s="28">
-        <f t="shared" si="9"/>
-        <v>13.660399999999999</v>
+        <f t="shared" si="13"/>
+        <v>18.459999999999997</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>246.02380400000001</v>
+        <v>664.56</v>
       </c>
       <c r="L20" s="48">
-        <f t="shared" si="10"/>
-        <v>566</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="M20" s="26">
-        <f t="shared" si="11"/>
-        <v>0.72965985813178369</v>
+        <f t="shared" si="15"/>
+        <v>1.1395061728395062</v>
       </c>
       <c r="N20" s="26">
-        <f t="shared" si="12"/>
-        <v>3.8674550784370161E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.4417989417989419</v>
       </c>
     </row>
     <row r="21" spans="1:1024">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2">
         <v>44784</v>
       </c>
       <c r="C21" s="28">
-        <v>81.99</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="D21" s="29">
         <v>18.721599999999999</v>
       </c>
       <c r="E21" s="46">
         <f>Sayfa2!$D21*Sayfa2!$C21</f>
-        <v>1534.9839839999997</v>
+        <v>337.176016</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="13"/>
-        <v>45350</v>
-      </c>
-      <c r="G21" s="17"/>
+        <f t="shared" ref="F21:F30" si="17">F20</f>
+        <v>45355</v>
+      </c>
+      <c r="G21" s="17">
+        <v>18.010000000000002</v>
+      </c>
       <c r="H21" s="18">
-        <f>Sayfa4!G2</f>
-        <v>33.225700000000003</v>
+        <v>32.381999999999998</v>
       </c>
       <c r="I21" s="19">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>0</v>
+        <v>583.19982000000005</v>
       </c>
       <c r="J21" s="28">
-        <f t="shared" si="9"/>
-        <v>14.504100000000005</v>
+        <f t="shared" si="13"/>
+        <v>13.660399999999999</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>1189.1911590000002</v>
+        <v>246.02380400000001</v>
       </c>
       <c r="L21" s="48">
-        <f t="shared" si="10"/>
-        <v>566</v>
+        <f t="shared" si="14"/>
+        <v>571</v>
       </c>
       <c r="M21" s="26">
-        <f t="shared" si="11"/>
-        <v>0.77472545081616984</v>
+        <f t="shared" si="15"/>
+        <v>0.72965985813178369</v>
       </c>
       <c r="N21" s="26">
-        <f t="shared" si="12"/>
-        <v>4.10631864390196E-2</v>
+        <f t="shared" si="16"/>
+        <v>3.8335894472773226E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1024">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="43"/>
-      <c r="AI22" s="43"/>
-      <c r="AJ22" s="43"/>
-      <c r="AK22" s="43"/>
-      <c r="AL22" s="43"/>
-      <c r="AM22" s="43"/>
-      <c r="AN22" s="43"/>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="43"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="43"/>
-      <c r="AT22" s="43"/>
-      <c r="AU22" s="43"/>
-      <c r="AV22" s="43"/>
-      <c r="AW22" s="43"/>
-      <c r="AX22" s="43"/>
-      <c r="AY22" s="43"/>
-      <c r="AZ22" s="43"/>
-      <c r="BA22" s="43"/>
-      <c r="BB22" s="43"/>
-      <c r="BC22" s="43"/>
-      <c r="BD22" s="43"/>
-      <c r="BE22" s="43"/>
-      <c r="BF22" s="43"/>
-      <c r="BG22" s="43"/>
-      <c r="BH22" s="43"/>
-      <c r="BI22" s="43"/>
-      <c r="BJ22" s="43"/>
-      <c r="BK22" s="43"/>
-      <c r="BL22" s="43"/>
-      <c r="BM22" s="43"/>
-      <c r="BN22" s="43"/>
-      <c r="BO22" s="43"/>
-      <c r="BP22" s="43"/>
-      <c r="BQ22" s="43"/>
-      <c r="BR22" s="43"/>
-      <c r="BS22" s="43"/>
-      <c r="BT22" s="43"/>
-      <c r="BU22" s="43"/>
-      <c r="BV22" s="43"/>
-      <c r="BW22" s="43"/>
-      <c r="BX22" s="43"/>
-      <c r="BY22" s="43"/>
-      <c r="BZ22" s="43"/>
-      <c r="CA22" s="43"/>
-      <c r="CB22" s="43"/>
-      <c r="CC22" s="43"/>
-      <c r="CD22" s="43"/>
-      <c r="CE22" s="43"/>
-      <c r="CF22" s="43"/>
-      <c r="CG22" s="43"/>
-      <c r="CH22" s="43"/>
-      <c r="CI22" s="43"/>
-      <c r="CJ22" s="43"/>
-      <c r="CK22" s="43"/>
-      <c r="CL22" s="43"/>
-      <c r="CM22" s="43"/>
-      <c r="CN22" s="43"/>
-      <c r="CO22" s="43"/>
-      <c r="CP22" s="43"/>
-      <c r="CQ22" s="43"/>
-      <c r="CR22" s="43"/>
-      <c r="CS22" s="43"/>
-      <c r="CT22" s="43"/>
-      <c r="CU22" s="43"/>
-      <c r="CV22" s="43"/>
-      <c r="CW22" s="43"/>
-      <c r="CX22" s="43"/>
-      <c r="CY22" s="43"/>
-      <c r="CZ22" s="43"/>
-      <c r="DA22" s="43"/>
-      <c r="DB22" s="43"/>
-      <c r="DC22" s="43"/>
-      <c r="DD22" s="43"/>
-      <c r="DE22" s="43"/>
-      <c r="DF22" s="43"/>
-      <c r="DG22" s="43"/>
-      <c r="DH22" s="43"/>
-      <c r="DI22" s="43"/>
-      <c r="DJ22" s="43"/>
-      <c r="DK22" s="43"/>
-      <c r="DL22" s="43"/>
-      <c r="DM22" s="43"/>
-      <c r="DN22" s="43"/>
-      <c r="DO22" s="43"/>
-      <c r="DP22" s="43"/>
-      <c r="DQ22" s="43"/>
-      <c r="DR22" s="43"/>
-      <c r="DS22" s="43"/>
-      <c r="DT22" s="43"/>
-      <c r="DU22" s="43"/>
-      <c r="DV22" s="43"/>
-      <c r="DW22" s="43"/>
-      <c r="DX22" s="43"/>
-      <c r="DY22" s="43"/>
-      <c r="DZ22" s="43"/>
-      <c r="EA22" s="43"/>
-      <c r="EB22" s="43"/>
-      <c r="EC22" s="43"/>
-      <c r="ED22" s="43"/>
-      <c r="EE22" s="43"/>
-      <c r="EF22" s="43"/>
-      <c r="EG22" s="43"/>
-      <c r="EH22" s="43"/>
-      <c r="EI22" s="43"/>
-      <c r="EJ22" s="43"/>
-      <c r="EK22" s="43"/>
-      <c r="EL22" s="43"/>
-      <c r="EM22" s="43"/>
-      <c r="EN22" s="43"/>
-      <c r="EO22" s="43"/>
-      <c r="EP22" s="43"/>
-      <c r="EQ22" s="43"/>
-      <c r="ER22" s="43"/>
-      <c r="ES22" s="43"/>
-      <c r="ET22" s="43"/>
-      <c r="EU22" s="43"/>
-      <c r="EV22" s="43"/>
-      <c r="EW22" s="43"/>
-      <c r="EX22" s="43"/>
-      <c r="EY22" s="43"/>
-      <c r="EZ22" s="43"/>
-      <c r="FA22" s="43"/>
-      <c r="FB22" s="43"/>
-      <c r="FC22" s="43"/>
-      <c r="FD22" s="43"/>
-      <c r="FE22" s="43"/>
-      <c r="FF22" s="43"/>
-      <c r="FG22" s="43"/>
-      <c r="FH22" s="43"/>
-      <c r="FI22" s="43"/>
-      <c r="FJ22" s="43"/>
-      <c r="FK22" s="43"/>
-      <c r="FL22" s="43"/>
-      <c r="FM22" s="43"/>
-      <c r="FN22" s="43"/>
-      <c r="FO22" s="43"/>
-      <c r="FP22" s="43"/>
-      <c r="FQ22" s="43"/>
-      <c r="FR22" s="43"/>
-      <c r="FS22" s="43"/>
-      <c r="FT22" s="43"/>
-      <c r="FU22" s="43"/>
-      <c r="FV22" s="43"/>
-      <c r="FW22" s="43"/>
-      <c r="FX22" s="43"/>
-      <c r="FY22" s="43"/>
-      <c r="FZ22" s="43"/>
-      <c r="GA22" s="43"/>
-      <c r="GB22" s="43"/>
-      <c r="GC22" s="43"/>
-      <c r="GD22" s="43"/>
-      <c r="GE22" s="43"/>
-      <c r="GF22" s="43"/>
-      <c r="GG22" s="43"/>
-      <c r="GH22" s="43"/>
-      <c r="GI22" s="43"/>
-      <c r="GJ22" s="43"/>
-      <c r="GK22" s="43"/>
-      <c r="GL22" s="43"/>
-      <c r="GM22" s="43"/>
-      <c r="GN22" s="43"/>
-      <c r="GO22" s="43"/>
-      <c r="GP22" s="43"/>
-      <c r="GQ22" s="43"/>
-      <c r="GR22" s="43"/>
-      <c r="GS22" s="43"/>
-      <c r="GT22" s="43"/>
-      <c r="GU22" s="43"/>
-      <c r="GV22" s="43"/>
-      <c r="GW22" s="43"/>
-      <c r="GX22" s="43"/>
-      <c r="GY22" s="43"/>
-      <c r="GZ22" s="43"/>
-      <c r="HA22" s="43"/>
-      <c r="HB22" s="43"/>
-      <c r="HC22" s="43"/>
-      <c r="HD22" s="43"/>
-      <c r="HE22" s="43"/>
-      <c r="HF22" s="43"/>
-      <c r="HG22" s="43"/>
-      <c r="HH22" s="43"/>
-      <c r="HI22" s="43"/>
-      <c r="HJ22" s="43"/>
-      <c r="HK22" s="43"/>
-      <c r="HL22" s="43"/>
-      <c r="HM22" s="43"/>
-      <c r="HN22" s="43"/>
-      <c r="HO22" s="43"/>
-      <c r="HP22" s="43"/>
-      <c r="HQ22" s="43"/>
-      <c r="HR22" s="43"/>
-      <c r="HS22" s="43"/>
-      <c r="HT22" s="43"/>
-      <c r="HU22" s="43"/>
-      <c r="HV22" s="43"/>
-      <c r="HW22" s="43"/>
-      <c r="HX22" s="43"/>
-      <c r="HY22" s="43"/>
-      <c r="HZ22" s="43"/>
-      <c r="IA22" s="43"/>
-      <c r="IB22" s="43"/>
-      <c r="IC22" s="43"/>
-      <c r="ID22" s="43"/>
-      <c r="IE22" s="43"/>
-      <c r="IF22" s="43"/>
-      <c r="IG22" s="43"/>
-      <c r="IH22" s="43"/>
-      <c r="II22" s="43"/>
-      <c r="IJ22" s="43"/>
-      <c r="IK22" s="43"/>
-      <c r="IL22" s="43"/>
-      <c r="IM22" s="43"/>
-      <c r="IN22" s="43"/>
-      <c r="IO22" s="43"/>
-      <c r="IP22" s="43"/>
-      <c r="IQ22" s="43"/>
-      <c r="IR22" s="43"/>
-      <c r="IS22" s="43"/>
-      <c r="IT22" s="43"/>
-      <c r="IU22" s="43"/>
-      <c r="IV22" s="43"/>
-      <c r="IW22" s="43"/>
-      <c r="IX22" s="43"/>
-      <c r="IY22" s="43"/>
-      <c r="IZ22" s="43"/>
-      <c r="JA22" s="43"/>
-      <c r="JB22" s="43"/>
-      <c r="JC22" s="43"/>
-      <c r="JD22" s="43"/>
-      <c r="JE22" s="43"/>
-      <c r="JF22" s="43"/>
-      <c r="JG22" s="43"/>
-      <c r="JH22" s="43"/>
-      <c r="JI22" s="43"/>
-      <c r="JJ22" s="43"/>
-      <c r="JK22" s="43"/>
-      <c r="JL22" s="43"/>
-      <c r="JM22" s="43"/>
-      <c r="JN22" s="43"/>
-      <c r="JO22" s="43"/>
-      <c r="JP22" s="43"/>
-      <c r="JQ22" s="43"/>
-      <c r="JR22" s="43"/>
-      <c r="JS22" s="43"/>
-      <c r="JT22" s="43"/>
-      <c r="JU22" s="43"/>
-      <c r="JV22" s="43"/>
-      <c r="JW22" s="43"/>
-      <c r="JX22" s="43"/>
-      <c r="JY22" s="43"/>
-      <c r="JZ22" s="43"/>
-      <c r="KA22" s="43"/>
-      <c r="KB22" s="43"/>
-      <c r="KC22" s="43"/>
-      <c r="KD22" s="43"/>
-      <c r="KE22" s="43"/>
-      <c r="KF22" s="43"/>
-      <c r="KG22" s="43"/>
-      <c r="KH22" s="43"/>
-      <c r="KI22" s="43"/>
-      <c r="KJ22" s="43"/>
-      <c r="KK22" s="43"/>
-      <c r="KL22" s="43"/>
-      <c r="KM22" s="43"/>
-      <c r="KN22" s="43"/>
-      <c r="KO22" s="43"/>
-      <c r="KP22" s="43"/>
-      <c r="KQ22" s="43"/>
-      <c r="KR22" s="43"/>
-      <c r="KS22" s="43"/>
-      <c r="KT22" s="43"/>
-      <c r="KU22" s="43"/>
-      <c r="KV22" s="43"/>
-      <c r="KW22" s="43"/>
-      <c r="KX22" s="43"/>
-      <c r="KY22" s="43"/>
-      <c r="KZ22" s="43"/>
-      <c r="LA22" s="43"/>
-      <c r="LB22" s="43"/>
-      <c r="LC22" s="43"/>
-      <c r="LD22" s="43"/>
-      <c r="LE22" s="43"/>
-      <c r="LF22" s="43"/>
-      <c r="LG22" s="43"/>
-      <c r="LH22" s="43"/>
-      <c r="LI22" s="43"/>
-      <c r="LJ22" s="43"/>
-      <c r="LK22" s="43"/>
-      <c r="LL22" s="43"/>
-      <c r="LM22" s="43"/>
-      <c r="LN22" s="43"/>
-      <c r="LO22" s="43"/>
-      <c r="LP22" s="43"/>
-      <c r="LQ22" s="43"/>
-      <c r="LR22" s="43"/>
-      <c r="LS22" s="43"/>
-      <c r="LT22" s="43"/>
-      <c r="LU22" s="43"/>
-      <c r="LV22" s="43"/>
-      <c r="LW22" s="43"/>
-      <c r="LX22" s="43"/>
-      <c r="LY22" s="43"/>
-      <c r="LZ22" s="43"/>
-      <c r="MA22" s="43"/>
-      <c r="MB22" s="43"/>
-      <c r="MC22" s="43"/>
-      <c r="MD22" s="43"/>
-      <c r="ME22" s="43"/>
-      <c r="MF22" s="43"/>
-      <c r="MG22" s="43"/>
-      <c r="MH22" s="43"/>
-      <c r="MI22" s="43"/>
-      <c r="MJ22" s="43"/>
-      <c r="MK22" s="43"/>
-      <c r="ML22" s="43"/>
-      <c r="MM22" s="43"/>
-      <c r="MN22" s="43"/>
-      <c r="MO22" s="43"/>
-      <c r="MP22" s="43"/>
-      <c r="MQ22" s="43"/>
-      <c r="MR22" s="43"/>
-      <c r="MS22" s="43"/>
-      <c r="MT22" s="43"/>
-      <c r="MU22" s="43"/>
-      <c r="MV22" s="43"/>
-      <c r="MW22" s="43"/>
-      <c r="MX22" s="43"/>
-      <c r="MY22" s="43"/>
-      <c r="MZ22" s="43"/>
-      <c r="NA22" s="43"/>
-      <c r="NB22" s="43"/>
-      <c r="NC22" s="43"/>
-      <c r="ND22" s="43"/>
-      <c r="NE22" s="43"/>
-      <c r="NF22" s="43"/>
-      <c r="NG22" s="43"/>
-      <c r="NH22" s="43"/>
-      <c r="NI22" s="43"/>
-      <c r="NJ22" s="43"/>
-      <c r="NK22" s="43"/>
-      <c r="NL22" s="43"/>
-      <c r="NM22" s="43"/>
-      <c r="NN22" s="43"/>
-      <c r="NO22" s="43"/>
-      <c r="NP22" s="43"/>
-      <c r="NQ22" s="43"/>
-      <c r="NR22" s="43"/>
-      <c r="NS22" s="43"/>
-      <c r="NT22" s="43"/>
-      <c r="NU22" s="43"/>
-      <c r="NV22" s="43"/>
-      <c r="NW22" s="43"/>
-      <c r="NX22" s="43"/>
-      <c r="NY22" s="43"/>
-      <c r="NZ22" s="43"/>
-      <c r="OA22" s="43"/>
-      <c r="OB22" s="43"/>
-      <c r="OC22" s="43"/>
-      <c r="OD22" s="43"/>
-      <c r="OE22" s="43"/>
-      <c r="OF22" s="43"/>
-      <c r="OG22" s="43"/>
-      <c r="OH22" s="43"/>
-      <c r="OI22" s="43"/>
-      <c r="OJ22" s="43"/>
-      <c r="OK22" s="43"/>
-      <c r="OL22" s="43"/>
-      <c r="OM22" s="43"/>
-      <c r="ON22" s="43"/>
-      <c r="OO22" s="43"/>
-      <c r="OP22" s="43"/>
-      <c r="OQ22" s="43"/>
-      <c r="OR22" s="43"/>
-      <c r="OS22" s="43"/>
-      <c r="OT22" s="43"/>
-      <c r="OU22" s="43"/>
-      <c r="OV22" s="43"/>
-      <c r="OW22" s="43"/>
-      <c r="OX22" s="43"/>
-      <c r="OY22" s="43"/>
-      <c r="OZ22" s="43"/>
-      <c r="PA22" s="43"/>
-      <c r="PB22" s="43"/>
-      <c r="PC22" s="43"/>
-      <c r="PD22" s="43"/>
-      <c r="PE22" s="43"/>
-      <c r="PF22" s="43"/>
-      <c r="PG22" s="43"/>
-      <c r="PH22" s="43"/>
-      <c r="PI22" s="43"/>
-      <c r="PJ22" s="43"/>
-      <c r="PK22" s="43"/>
-      <c r="PL22" s="43"/>
-      <c r="PM22" s="43"/>
-      <c r="PN22" s="43"/>
-      <c r="PO22" s="43"/>
-      <c r="PP22" s="43"/>
-      <c r="PQ22" s="43"/>
-      <c r="PR22" s="43"/>
-      <c r="PS22" s="43"/>
-      <c r="PT22" s="43"/>
-      <c r="PU22" s="43"/>
-      <c r="PV22" s="43"/>
-      <c r="PW22" s="43"/>
-      <c r="PX22" s="43"/>
-      <c r="PY22" s="43"/>
-      <c r="PZ22" s="43"/>
-      <c r="QA22" s="43"/>
-      <c r="QB22" s="43"/>
-      <c r="QC22" s="43"/>
-      <c r="QD22" s="43"/>
-      <c r="QE22" s="43"/>
-      <c r="QF22" s="43"/>
-      <c r="QG22" s="43"/>
-      <c r="QH22" s="43"/>
-      <c r="QI22" s="43"/>
-      <c r="QJ22" s="43"/>
-      <c r="QK22" s="43"/>
-      <c r="QL22" s="43"/>
-      <c r="QM22" s="43"/>
-      <c r="QN22" s="43"/>
-      <c r="QO22" s="43"/>
-      <c r="QP22" s="43"/>
-      <c r="QQ22" s="43"/>
-      <c r="QR22" s="43"/>
-      <c r="QS22" s="43"/>
-      <c r="QT22" s="43"/>
-      <c r="QU22" s="43"/>
-      <c r="QV22" s="43"/>
-      <c r="QW22" s="43"/>
-      <c r="QX22" s="43"/>
-      <c r="QY22" s="43"/>
-      <c r="QZ22" s="43"/>
-      <c r="RA22" s="43"/>
-      <c r="RB22" s="43"/>
-      <c r="RC22" s="43"/>
-      <c r="RD22" s="43"/>
-      <c r="RE22" s="43"/>
-      <c r="RF22" s="43"/>
-      <c r="RG22" s="43"/>
-      <c r="RH22" s="43"/>
-      <c r="RI22" s="43"/>
-      <c r="RJ22" s="43"/>
-      <c r="RK22" s="43"/>
-      <c r="RL22" s="43"/>
-      <c r="RM22" s="43"/>
-      <c r="RN22" s="43"/>
-      <c r="RO22" s="43"/>
-      <c r="RP22" s="43"/>
-      <c r="RQ22" s="43"/>
-      <c r="RR22" s="43"/>
-      <c r="RS22" s="43"/>
-      <c r="RT22" s="43"/>
-      <c r="RU22" s="43"/>
-      <c r="RV22" s="43"/>
-      <c r="RW22" s="43"/>
-      <c r="RX22" s="43"/>
-      <c r="RY22" s="43"/>
-      <c r="RZ22" s="43"/>
-      <c r="SA22" s="43"/>
-      <c r="SB22" s="43"/>
-      <c r="SC22" s="43"/>
-      <c r="SD22" s="43"/>
-      <c r="SE22" s="43"/>
-      <c r="SF22" s="43"/>
-      <c r="SG22" s="43"/>
-      <c r="SH22" s="43"/>
-      <c r="SI22" s="43"/>
-      <c r="SJ22" s="43"/>
-      <c r="SK22" s="43"/>
-      <c r="SL22" s="43"/>
-      <c r="SM22" s="43"/>
-      <c r="SN22" s="43"/>
-      <c r="SO22" s="43"/>
-      <c r="SP22" s="43"/>
-      <c r="SQ22" s="43"/>
-      <c r="SR22" s="43"/>
-      <c r="SS22" s="43"/>
-      <c r="ST22" s="43"/>
-      <c r="SU22" s="43"/>
-      <c r="SV22" s="43"/>
-      <c r="SW22" s="43"/>
-      <c r="SX22" s="43"/>
-      <c r="SY22" s="43"/>
-      <c r="SZ22" s="43"/>
-      <c r="TA22" s="43"/>
-      <c r="TB22" s="43"/>
-      <c r="TC22" s="43"/>
-      <c r="TD22" s="43"/>
-      <c r="TE22" s="43"/>
-      <c r="TF22" s="43"/>
-      <c r="TG22" s="43"/>
-      <c r="TH22" s="43"/>
-      <c r="TI22" s="43"/>
-      <c r="TJ22" s="43"/>
-      <c r="TK22" s="43"/>
-      <c r="TL22" s="43"/>
-      <c r="TM22" s="43"/>
-      <c r="TN22" s="43"/>
-      <c r="TO22" s="43"/>
-      <c r="TP22" s="43"/>
-      <c r="TQ22" s="43"/>
-      <c r="TR22" s="43"/>
-      <c r="TS22" s="43"/>
-      <c r="TT22" s="43"/>
-      <c r="TU22" s="43"/>
-      <c r="TV22" s="43"/>
-      <c r="TW22" s="43"/>
-      <c r="TX22" s="43"/>
-      <c r="TY22" s="43"/>
-      <c r="TZ22" s="43"/>
-      <c r="UA22" s="43"/>
-      <c r="UB22" s="43"/>
-      <c r="UC22" s="43"/>
-      <c r="UD22" s="43"/>
-      <c r="UE22" s="43"/>
-      <c r="UF22" s="43"/>
-      <c r="UG22" s="43"/>
-      <c r="UH22" s="43"/>
-      <c r="UI22" s="43"/>
-      <c r="UJ22" s="43"/>
-      <c r="UK22" s="43"/>
-      <c r="UL22" s="43"/>
-      <c r="UM22" s="43"/>
-      <c r="UN22" s="43"/>
-      <c r="UO22" s="43"/>
-      <c r="UP22" s="43"/>
-      <c r="UQ22" s="43"/>
-      <c r="UR22" s="43"/>
-      <c r="US22" s="43"/>
-      <c r="UT22" s="43"/>
-      <c r="UU22" s="43"/>
-      <c r="UV22" s="43"/>
-      <c r="UW22" s="43"/>
-      <c r="UX22" s="43"/>
-      <c r="UY22" s="43"/>
-      <c r="UZ22" s="43"/>
-      <c r="VA22" s="43"/>
-      <c r="VB22" s="43"/>
-      <c r="VC22" s="43"/>
-      <c r="VD22" s="43"/>
-      <c r="VE22" s="43"/>
-      <c r="VF22" s="43"/>
-      <c r="VG22" s="43"/>
-      <c r="VH22" s="43"/>
-      <c r="VI22" s="43"/>
-      <c r="VJ22" s="43"/>
-      <c r="VK22" s="43"/>
-      <c r="VL22" s="43"/>
-      <c r="VM22" s="43"/>
-      <c r="VN22" s="43"/>
-      <c r="VO22" s="43"/>
-      <c r="VP22" s="43"/>
-      <c r="VQ22" s="43"/>
-      <c r="VR22" s="43"/>
-      <c r="VS22" s="43"/>
-      <c r="VT22" s="43"/>
-      <c r="VU22" s="43"/>
-      <c r="VV22" s="43"/>
-      <c r="VW22" s="43"/>
-      <c r="VX22" s="43"/>
-      <c r="VY22" s="43"/>
-      <c r="VZ22" s="43"/>
-      <c r="WA22" s="43"/>
-      <c r="WB22" s="43"/>
-      <c r="WC22" s="43"/>
-      <c r="WD22" s="43"/>
-      <c r="WE22" s="43"/>
-      <c r="WF22" s="43"/>
-      <c r="WG22" s="43"/>
-      <c r="WH22" s="43"/>
-      <c r="WI22" s="43"/>
-      <c r="WJ22" s="43"/>
-      <c r="WK22" s="43"/>
-      <c r="WL22" s="43"/>
-      <c r="WM22" s="43"/>
-      <c r="WN22" s="43"/>
-      <c r="WO22" s="43"/>
-      <c r="WP22" s="43"/>
-      <c r="WQ22" s="43"/>
-      <c r="WR22" s="43"/>
-      <c r="WS22" s="43"/>
-      <c r="WT22" s="43"/>
-      <c r="WU22" s="43"/>
-      <c r="WV22" s="43"/>
-      <c r="WW22" s="43"/>
-      <c r="WX22" s="43"/>
-      <c r="WY22" s="43"/>
-      <c r="WZ22" s="43"/>
-      <c r="XA22" s="43"/>
-      <c r="XB22" s="43"/>
-      <c r="XC22" s="43"/>
-      <c r="XD22" s="43"/>
-      <c r="XE22" s="43"/>
-      <c r="XF22" s="43"/>
-      <c r="XG22" s="43"/>
-      <c r="XH22" s="43"/>
-      <c r="XI22" s="43"/>
-      <c r="XJ22" s="43"/>
-      <c r="XK22" s="43"/>
-      <c r="XL22" s="43"/>
-      <c r="XM22" s="43"/>
-      <c r="XN22" s="43"/>
-      <c r="XO22" s="43"/>
-      <c r="XP22" s="43"/>
-      <c r="XQ22" s="43"/>
-      <c r="XR22" s="43"/>
-      <c r="XS22" s="43"/>
-      <c r="XT22" s="43"/>
-      <c r="XU22" s="43"/>
-      <c r="XV22" s="43"/>
-      <c r="XW22" s="43"/>
-      <c r="XX22" s="43"/>
-      <c r="XY22" s="43"/>
-      <c r="XZ22" s="43"/>
-      <c r="YA22" s="43"/>
-      <c r="YB22" s="43"/>
-      <c r="YC22" s="43"/>
-      <c r="YD22" s="43"/>
-      <c r="YE22" s="43"/>
-      <c r="YF22" s="43"/>
-      <c r="YG22" s="43"/>
-      <c r="YH22" s="43"/>
-      <c r="YI22" s="43"/>
-      <c r="YJ22" s="43"/>
-      <c r="YK22" s="43"/>
-      <c r="YL22" s="43"/>
-      <c r="YM22" s="43"/>
-      <c r="YN22" s="43"/>
-      <c r="YO22" s="43"/>
-      <c r="YP22" s="43"/>
-      <c r="YQ22" s="43"/>
-      <c r="YR22" s="43"/>
-      <c r="YS22" s="43"/>
-      <c r="YT22" s="43"/>
-      <c r="YU22" s="43"/>
-      <c r="YV22" s="43"/>
-      <c r="YW22" s="43"/>
-      <c r="YX22" s="43"/>
-      <c r="YY22" s="43"/>
-      <c r="YZ22" s="43"/>
-      <c r="ZA22" s="43"/>
-      <c r="ZB22" s="43"/>
-      <c r="ZC22" s="43"/>
-      <c r="ZD22" s="43"/>
-      <c r="ZE22" s="43"/>
-      <c r="ZF22" s="43"/>
-      <c r="ZG22" s="43"/>
-      <c r="ZH22" s="43"/>
-      <c r="ZI22" s="43"/>
-      <c r="ZJ22" s="43"/>
-      <c r="ZK22" s="43"/>
-      <c r="ZL22" s="43"/>
-      <c r="ZM22" s="43"/>
-      <c r="ZN22" s="43"/>
-      <c r="ZO22" s="43"/>
-      <c r="ZP22" s="43"/>
-      <c r="ZQ22" s="43"/>
-      <c r="ZR22" s="43"/>
-      <c r="ZS22" s="43"/>
-      <c r="ZT22" s="43"/>
-      <c r="ZU22" s="43"/>
-      <c r="ZV22" s="43"/>
-      <c r="ZW22" s="43"/>
-      <c r="ZX22" s="43"/>
-      <c r="ZY22" s="43"/>
-      <c r="ZZ22" s="43"/>
-      <c r="AAA22" s="43"/>
-      <c r="AAB22" s="43"/>
-      <c r="AAC22" s="43"/>
-      <c r="AAD22" s="43"/>
-      <c r="AAE22" s="43"/>
-      <c r="AAF22" s="43"/>
-      <c r="AAG22" s="43"/>
-      <c r="AAH22" s="43"/>
-      <c r="AAI22" s="43"/>
-      <c r="AAJ22" s="43"/>
-      <c r="AAK22" s="43"/>
-      <c r="AAL22" s="43"/>
-      <c r="AAM22" s="43"/>
-      <c r="AAN22" s="43"/>
-      <c r="AAO22" s="43"/>
-      <c r="AAP22" s="43"/>
-      <c r="AAQ22" s="43"/>
-      <c r="AAR22" s="43"/>
-      <c r="AAS22" s="43"/>
-      <c r="AAT22" s="43"/>
-      <c r="AAU22" s="43"/>
-      <c r="AAV22" s="43"/>
-      <c r="AAW22" s="43"/>
-      <c r="AAX22" s="43"/>
-      <c r="AAY22" s="43"/>
-      <c r="AAZ22" s="43"/>
-      <c r="ABA22" s="43"/>
-      <c r="ABB22" s="43"/>
-      <c r="ABC22" s="43"/>
-      <c r="ABD22" s="43"/>
-      <c r="ABE22" s="43"/>
-      <c r="ABF22" s="43"/>
-      <c r="ABG22" s="43"/>
-      <c r="ABH22" s="43"/>
-      <c r="ABI22" s="43"/>
-      <c r="ABJ22" s="43"/>
-      <c r="ABK22" s="43"/>
-      <c r="ABL22" s="43"/>
-      <c r="ABM22" s="43"/>
-      <c r="ABN22" s="43"/>
-      <c r="ABO22" s="43"/>
-      <c r="ABP22" s="43"/>
-      <c r="ABQ22" s="43"/>
-      <c r="ABR22" s="43"/>
-      <c r="ABS22" s="43"/>
-      <c r="ABT22" s="43"/>
-      <c r="ABU22" s="43"/>
-      <c r="ABV22" s="43"/>
-      <c r="ABW22" s="43"/>
-      <c r="ABX22" s="43"/>
-      <c r="ABY22" s="43"/>
-      <c r="ABZ22" s="43"/>
-      <c r="ACA22" s="43"/>
-      <c r="ACB22" s="43"/>
-      <c r="ACC22" s="43"/>
-      <c r="ACD22" s="43"/>
-      <c r="ACE22" s="43"/>
-      <c r="ACF22" s="43"/>
-      <c r="ACG22" s="43"/>
-      <c r="ACH22" s="43"/>
-      <c r="ACI22" s="43"/>
-      <c r="ACJ22" s="43"/>
-      <c r="ACK22" s="43"/>
-      <c r="ACL22" s="43"/>
-      <c r="ACM22" s="43"/>
-      <c r="ACN22" s="43"/>
-      <c r="ACO22" s="43"/>
-      <c r="ACP22" s="43"/>
-      <c r="ACQ22" s="43"/>
-      <c r="ACR22" s="43"/>
-      <c r="ACS22" s="43"/>
-      <c r="ACT22" s="43"/>
-      <c r="ACU22" s="43"/>
-      <c r="ACV22" s="43"/>
-      <c r="ACW22" s="43"/>
-      <c r="ACX22" s="43"/>
-      <c r="ACY22" s="43"/>
-      <c r="ACZ22" s="43"/>
-      <c r="ADA22" s="43"/>
-      <c r="ADB22" s="43"/>
-      <c r="ADC22" s="43"/>
-      <c r="ADD22" s="43"/>
-      <c r="ADE22" s="43"/>
-      <c r="ADF22" s="43"/>
-      <c r="ADG22" s="43"/>
-      <c r="ADH22" s="43"/>
-      <c r="ADI22" s="43"/>
-      <c r="ADJ22" s="43"/>
-      <c r="ADK22" s="43"/>
-      <c r="ADL22" s="43"/>
-      <c r="ADM22" s="43"/>
-      <c r="ADN22" s="43"/>
-      <c r="ADO22" s="43"/>
-      <c r="ADP22" s="43"/>
-      <c r="ADQ22" s="43"/>
-      <c r="ADR22" s="43"/>
-      <c r="ADS22" s="43"/>
-      <c r="ADT22" s="43"/>
-      <c r="ADU22" s="43"/>
-      <c r="ADV22" s="43"/>
-      <c r="ADW22" s="43"/>
-      <c r="ADX22" s="43"/>
-      <c r="ADY22" s="43"/>
-      <c r="ADZ22" s="43"/>
-      <c r="AEA22" s="43"/>
-      <c r="AEB22" s="43"/>
-      <c r="AEC22" s="43"/>
-      <c r="AED22" s="43"/>
-      <c r="AEE22" s="43"/>
-      <c r="AEF22" s="43"/>
-      <c r="AEG22" s="43"/>
-      <c r="AEH22" s="43"/>
-      <c r="AEI22" s="43"/>
-      <c r="AEJ22" s="43"/>
-      <c r="AEK22" s="43"/>
-      <c r="AEL22" s="43"/>
-      <c r="AEM22" s="43"/>
-      <c r="AEN22" s="43"/>
-      <c r="AEO22" s="43"/>
-      <c r="AEP22" s="43"/>
-      <c r="AEQ22" s="43"/>
-      <c r="AER22" s="43"/>
-      <c r="AES22" s="43"/>
-      <c r="AET22" s="43"/>
-      <c r="AEU22" s="43"/>
-      <c r="AEV22" s="43"/>
-      <c r="AEW22" s="43"/>
-      <c r="AEX22" s="43"/>
-      <c r="AEY22" s="43"/>
-      <c r="AEZ22" s="43"/>
-      <c r="AFA22" s="43"/>
-      <c r="AFB22" s="43"/>
-      <c r="AFC22" s="43"/>
-      <c r="AFD22" s="43"/>
-      <c r="AFE22" s="43"/>
-      <c r="AFF22" s="43"/>
-      <c r="AFG22" s="43"/>
-      <c r="AFH22" s="43"/>
-      <c r="AFI22" s="43"/>
-      <c r="AFJ22" s="43"/>
-      <c r="AFK22" s="43"/>
-      <c r="AFL22" s="43"/>
-      <c r="AFM22" s="43"/>
-      <c r="AFN22" s="43"/>
-      <c r="AFO22" s="43"/>
-      <c r="AFP22" s="43"/>
-      <c r="AFQ22" s="43"/>
-      <c r="AFR22" s="43"/>
-      <c r="AFS22" s="43"/>
-      <c r="AFT22" s="43"/>
-      <c r="AFU22" s="43"/>
-      <c r="AFV22" s="43"/>
-      <c r="AFW22" s="43"/>
-      <c r="AFX22" s="43"/>
-      <c r="AFY22" s="43"/>
-      <c r="AFZ22" s="43"/>
-      <c r="AGA22" s="43"/>
-      <c r="AGB22" s="43"/>
-      <c r="AGC22" s="43"/>
-      <c r="AGD22" s="43"/>
-      <c r="AGE22" s="43"/>
-      <c r="AGF22" s="43"/>
-      <c r="AGG22" s="43"/>
-      <c r="AGH22" s="43"/>
-      <c r="AGI22" s="43"/>
-      <c r="AGJ22" s="43"/>
-      <c r="AGK22" s="43"/>
-      <c r="AGL22" s="43"/>
-      <c r="AGM22" s="43"/>
-      <c r="AGN22" s="43"/>
-      <c r="AGO22" s="43"/>
-      <c r="AGP22" s="43"/>
-      <c r="AGQ22" s="43"/>
-      <c r="AGR22" s="43"/>
-      <c r="AGS22" s="43"/>
-      <c r="AGT22" s="43"/>
-      <c r="AGU22" s="43"/>
-      <c r="AGV22" s="43"/>
-      <c r="AGW22" s="43"/>
-      <c r="AGX22" s="43"/>
-      <c r="AGY22" s="43"/>
-      <c r="AGZ22" s="43"/>
-      <c r="AHA22" s="43"/>
-      <c r="AHB22" s="43"/>
-      <c r="AHC22" s="43"/>
-      <c r="AHD22" s="43"/>
-      <c r="AHE22" s="43"/>
-      <c r="AHF22" s="43"/>
-      <c r="AHG22" s="43"/>
-      <c r="AHH22" s="43"/>
-      <c r="AHI22" s="43"/>
-      <c r="AHJ22" s="43"/>
-      <c r="AHK22" s="43"/>
-      <c r="AHL22" s="43"/>
-      <c r="AHM22" s="43"/>
-      <c r="AHN22" s="43"/>
-      <c r="AHO22" s="43"/>
-      <c r="AHP22" s="43"/>
-      <c r="AHQ22" s="43"/>
-      <c r="AHR22" s="43"/>
-      <c r="AHS22" s="43"/>
-      <c r="AHT22" s="43"/>
-      <c r="AHU22" s="43"/>
-      <c r="AHV22" s="43"/>
-      <c r="AHW22" s="43"/>
-      <c r="AHX22" s="43"/>
-      <c r="AHY22" s="43"/>
-      <c r="AHZ22" s="43"/>
-      <c r="AIA22" s="43"/>
-      <c r="AIB22" s="43"/>
-      <c r="AIC22" s="43"/>
-      <c r="AID22" s="43"/>
-      <c r="AIE22" s="43"/>
-      <c r="AIF22" s="43"/>
-      <c r="AIG22" s="43"/>
-      <c r="AIH22" s="43"/>
-      <c r="AII22" s="43"/>
-      <c r="AIJ22" s="43"/>
-      <c r="AIK22" s="43"/>
-      <c r="AIL22" s="43"/>
-      <c r="AIM22" s="43"/>
-      <c r="AIN22" s="43"/>
-      <c r="AIO22" s="43"/>
-      <c r="AIP22" s="43"/>
-      <c r="AIQ22" s="43"/>
-      <c r="AIR22" s="43"/>
-      <c r="AIS22" s="43"/>
-      <c r="AIT22" s="43"/>
-      <c r="AIU22" s="43"/>
-      <c r="AIV22" s="43"/>
-      <c r="AIW22" s="43"/>
-      <c r="AIX22" s="43"/>
-      <c r="AIY22" s="43"/>
-      <c r="AIZ22" s="43"/>
-      <c r="AJA22" s="43"/>
-      <c r="AJB22" s="43"/>
-      <c r="AJC22" s="43"/>
-      <c r="AJD22" s="43"/>
-      <c r="AJE22" s="43"/>
-      <c r="AJF22" s="43"/>
-      <c r="AJG22" s="43"/>
-      <c r="AJH22" s="43"/>
-      <c r="AJI22" s="43"/>
-      <c r="AJJ22" s="43"/>
-      <c r="AJK22" s="43"/>
-      <c r="AJL22" s="43"/>
-      <c r="AJM22" s="43"/>
-      <c r="AJN22" s="43"/>
-      <c r="AJO22" s="43"/>
-      <c r="AJP22" s="43"/>
-      <c r="AJQ22" s="43"/>
-      <c r="AJR22" s="43"/>
-      <c r="AJS22" s="43"/>
-      <c r="AJT22" s="43"/>
-      <c r="AJU22" s="43"/>
-      <c r="AJV22" s="43"/>
-      <c r="AJW22" s="43"/>
-      <c r="AJX22" s="43"/>
-      <c r="AJY22" s="43"/>
-      <c r="AJZ22" s="43"/>
-      <c r="AKA22" s="43"/>
-      <c r="AKB22" s="43"/>
-      <c r="AKC22" s="43"/>
-      <c r="AKD22" s="43"/>
-      <c r="AKE22" s="43"/>
-      <c r="AKF22" s="43"/>
-      <c r="AKG22" s="43"/>
-      <c r="AKH22" s="43"/>
-      <c r="AKI22" s="43"/>
-      <c r="AKJ22" s="43"/>
-      <c r="AKK22" s="43"/>
-      <c r="AKL22" s="43"/>
-      <c r="AKM22" s="43"/>
-      <c r="AKN22" s="43"/>
-      <c r="AKO22" s="43"/>
-      <c r="AKP22" s="43"/>
-      <c r="AKQ22" s="43"/>
-      <c r="AKR22" s="43"/>
-      <c r="AKS22" s="43"/>
-      <c r="AKT22" s="43"/>
-      <c r="AKU22" s="43"/>
-      <c r="AKV22" s="43"/>
-      <c r="AKW22" s="43"/>
-      <c r="AKX22" s="43"/>
-      <c r="AKY22" s="43"/>
-      <c r="AKZ22" s="43"/>
-      <c r="ALA22" s="43"/>
-      <c r="ALB22" s="43"/>
-      <c r="ALC22" s="43"/>
-      <c r="ALD22" s="43"/>
-      <c r="ALE22" s="43"/>
-      <c r="ALF22" s="43"/>
-      <c r="ALG22" s="43"/>
-      <c r="ALH22" s="43"/>
-      <c r="ALI22" s="43"/>
-      <c r="ALJ22" s="43"/>
-      <c r="ALK22" s="43"/>
-      <c r="ALL22" s="43"/>
-      <c r="ALM22" s="43"/>
-      <c r="ALN22" s="43"/>
-      <c r="ALO22" s="43"/>
-      <c r="ALP22" s="43"/>
-      <c r="ALQ22" s="43"/>
-      <c r="ALR22" s="43"/>
-      <c r="ALS22" s="43"/>
-      <c r="ALT22" s="43"/>
-      <c r="ALU22" s="43"/>
-      <c r="ALV22" s="43"/>
-      <c r="ALW22" s="43"/>
-      <c r="ALX22" s="43"/>
-      <c r="ALY22" s="43"/>
-      <c r="ALZ22" s="43"/>
-      <c r="AMA22" s="43"/>
-      <c r="AMB22" s="43"/>
-      <c r="AMC22" s="43"/>
-      <c r="AMD22" s="43"/>
-      <c r="AME22" s="43"/>
-      <c r="AMF22" s="43"/>
-      <c r="AMG22" s="43"/>
-      <c r="AMH22" s="43"/>
-      <c r="AMI22" s="43"/>
-      <c r="AMJ22" s="43"/>
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44784</v>
+      </c>
+      <c r="C22" s="28">
+        <v>298.8</v>
+      </c>
+      <c r="D22" s="29">
+        <v>18.721599999999999</v>
+      </c>
+      <c r="E22" s="46">
+        <f>Sayfa2!$D22*Sayfa2!$C22</f>
+        <v>5594.0140799999999</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="17"/>
+        <v>45355</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18">
+        <f>Sayfa4!G2</f>
+        <v>33.542299999999997</v>
+      </c>
+      <c r="I22" s="19">
+        <f>Sayfa2!$H22*Sayfa2!$G22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="28">
+        <f t="shared" si="13"/>
+        <v>14.820699999999999</v>
+      </c>
+      <c r="K22" s="47">
+        <f>Sayfa2!$J22*Sayfa2!$C22</f>
+        <v>4428.4251599999998</v>
+      </c>
+      <c r="L22" s="48">
+        <f t="shared" si="14"/>
+        <v>571</v>
+      </c>
+      <c r="M22" s="26">
+        <f t="shared" si="15"/>
+        <v>0.7916363985984104</v>
+      </c>
+      <c r="N22" s="26">
+        <f t="shared" si="16"/>
+        <v>4.1592105005170424E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:1024">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44774</v>
-      </c>
-      <c r="C23" s="28">
-        <v>850</v>
-      </c>
-      <c r="D23" s="29">
-        <v>15</v>
-      </c>
-      <c r="E23" s="46">
-        <f>Sayfa2!$D23*Sayfa2!$C23</f>
-        <v>12750</v>
-      </c>
-      <c r="F23" s="2">
-        <f>F21</f>
-        <v>45350</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18">
-        <f>Sayfa4!E2</f>
-        <v>30.7361</v>
-      </c>
-      <c r="I23" s="19">
-        <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="28">
-        <f t="shared" si="9"/>
-        <v>15.7361</v>
-      </c>
-      <c r="K23" s="47">
-        <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>13375.684999999999</v>
-      </c>
-      <c r="L23" s="48">
-        <f t="shared" si="10"/>
-        <v>576</v>
-      </c>
-      <c r="M23" s="26">
-        <f t="shared" si="11"/>
-        <v>1.0490733333333333</v>
-      </c>
-      <c r="N23" s="26">
-        <f t="shared" si="12"/>
-        <v>5.4639236111111107E-2</v>
-      </c>
-      <c r="O23" s="4"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="43"/>
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="43"/>
+      <c r="BD23" s="43"/>
+      <c r="BE23" s="43"/>
+      <c r="BF23" s="43"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="43"/>
+      <c r="BI23" s="43"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="43"/>
+      <c r="BN23" s="43"/>
+      <c r="BO23" s="43"/>
+      <c r="BP23" s="43"/>
+      <c r="BQ23" s="43"/>
+      <c r="BR23" s="43"/>
+      <c r="BS23" s="43"/>
+      <c r="BT23" s="43"/>
+      <c r="BU23" s="43"/>
+      <c r="BV23" s="43"/>
+      <c r="BW23" s="43"/>
+      <c r="BX23" s="43"/>
+      <c r="BY23" s="43"/>
+      <c r="BZ23" s="43"/>
+      <c r="CA23" s="43"/>
+      <c r="CB23" s="43"/>
+      <c r="CC23" s="43"/>
+      <c r="CD23" s="43"/>
+      <c r="CE23" s="43"/>
+      <c r="CF23" s="43"/>
+      <c r="CG23" s="43"/>
+      <c r="CH23" s="43"/>
+      <c r="CI23" s="43"/>
+      <c r="CJ23" s="43"/>
+      <c r="CK23" s="43"/>
+      <c r="CL23" s="43"/>
+      <c r="CM23" s="43"/>
+      <c r="CN23" s="43"/>
+      <c r="CO23" s="43"/>
+      <c r="CP23" s="43"/>
+      <c r="CQ23" s="43"/>
+      <c r="CR23" s="43"/>
+      <c r="CS23" s="43"/>
+      <c r="CT23" s="43"/>
+      <c r="CU23" s="43"/>
+      <c r="CV23" s="43"/>
+      <c r="CW23" s="43"/>
+      <c r="CX23" s="43"/>
+      <c r="CY23" s="43"/>
+      <c r="CZ23" s="43"/>
+      <c r="DA23" s="43"/>
+      <c r="DB23" s="43"/>
+      <c r="DC23" s="43"/>
+      <c r="DD23" s="43"/>
+      <c r="DE23" s="43"/>
+      <c r="DF23" s="43"/>
+      <c r="DG23" s="43"/>
+      <c r="DH23" s="43"/>
+      <c r="DI23" s="43"/>
+      <c r="DJ23" s="43"/>
+      <c r="DK23" s="43"/>
+      <c r="DL23" s="43"/>
+      <c r="DM23" s="43"/>
+      <c r="DN23" s="43"/>
+      <c r="DO23" s="43"/>
+      <c r="DP23" s="43"/>
+      <c r="DQ23" s="43"/>
+      <c r="DR23" s="43"/>
+      <c r="DS23" s="43"/>
+      <c r="DT23" s="43"/>
+      <c r="DU23" s="43"/>
+      <c r="DV23" s="43"/>
+      <c r="DW23" s="43"/>
+      <c r="DX23" s="43"/>
+      <c r="DY23" s="43"/>
+      <c r="DZ23" s="43"/>
+      <c r="EA23" s="43"/>
+      <c r="EB23" s="43"/>
+      <c r="EC23" s="43"/>
+      <c r="ED23" s="43"/>
+      <c r="EE23" s="43"/>
+      <c r="EF23" s="43"/>
+      <c r="EG23" s="43"/>
+      <c r="EH23" s="43"/>
+      <c r="EI23" s="43"/>
+      <c r="EJ23" s="43"/>
+      <c r="EK23" s="43"/>
+      <c r="EL23" s="43"/>
+      <c r="EM23" s="43"/>
+      <c r="EN23" s="43"/>
+      <c r="EO23" s="43"/>
+      <c r="EP23" s="43"/>
+      <c r="EQ23" s="43"/>
+      <c r="ER23" s="43"/>
+      <c r="ES23" s="43"/>
+      <c r="ET23" s="43"/>
+      <c r="EU23" s="43"/>
+      <c r="EV23" s="43"/>
+      <c r="EW23" s="43"/>
+      <c r="EX23" s="43"/>
+      <c r="EY23" s="43"/>
+      <c r="EZ23" s="43"/>
+      <c r="FA23" s="43"/>
+      <c r="FB23" s="43"/>
+      <c r="FC23" s="43"/>
+      <c r="FD23" s="43"/>
+      <c r="FE23" s="43"/>
+      <c r="FF23" s="43"/>
+      <c r="FG23" s="43"/>
+      <c r="FH23" s="43"/>
+      <c r="FI23" s="43"/>
+      <c r="FJ23" s="43"/>
+      <c r="FK23" s="43"/>
+      <c r="FL23" s="43"/>
+      <c r="FM23" s="43"/>
+      <c r="FN23" s="43"/>
+      <c r="FO23" s="43"/>
+      <c r="FP23" s="43"/>
+      <c r="FQ23" s="43"/>
+      <c r="FR23" s="43"/>
+      <c r="FS23" s="43"/>
+      <c r="FT23" s="43"/>
+      <c r="FU23" s="43"/>
+      <c r="FV23" s="43"/>
+      <c r="FW23" s="43"/>
+      <c r="FX23" s="43"/>
+      <c r="FY23" s="43"/>
+      <c r="FZ23" s="43"/>
+      <c r="GA23" s="43"/>
+      <c r="GB23" s="43"/>
+      <c r="GC23" s="43"/>
+      <c r="GD23" s="43"/>
+      <c r="GE23" s="43"/>
+      <c r="GF23" s="43"/>
+      <c r="GG23" s="43"/>
+      <c r="GH23" s="43"/>
+      <c r="GI23" s="43"/>
+      <c r="GJ23" s="43"/>
+      <c r="GK23" s="43"/>
+      <c r="GL23" s="43"/>
+      <c r="GM23" s="43"/>
+      <c r="GN23" s="43"/>
+      <c r="GO23" s="43"/>
+      <c r="GP23" s="43"/>
+      <c r="GQ23" s="43"/>
+      <c r="GR23" s="43"/>
+      <c r="GS23" s="43"/>
+      <c r="GT23" s="43"/>
+      <c r="GU23" s="43"/>
+      <c r="GV23" s="43"/>
+      <c r="GW23" s="43"/>
+      <c r="GX23" s="43"/>
+      <c r="GY23" s="43"/>
+      <c r="GZ23" s="43"/>
+      <c r="HA23" s="43"/>
+      <c r="HB23" s="43"/>
+      <c r="HC23" s="43"/>
+      <c r="HD23" s="43"/>
+      <c r="HE23" s="43"/>
+      <c r="HF23" s="43"/>
+      <c r="HG23" s="43"/>
+      <c r="HH23" s="43"/>
+      <c r="HI23" s="43"/>
+      <c r="HJ23" s="43"/>
+      <c r="HK23" s="43"/>
+      <c r="HL23" s="43"/>
+      <c r="HM23" s="43"/>
+      <c r="HN23" s="43"/>
+      <c r="HO23" s="43"/>
+      <c r="HP23" s="43"/>
+      <c r="HQ23" s="43"/>
+      <c r="HR23" s="43"/>
+      <c r="HS23" s="43"/>
+      <c r="HT23" s="43"/>
+      <c r="HU23" s="43"/>
+      <c r="HV23" s="43"/>
+      <c r="HW23" s="43"/>
+      <c r="HX23" s="43"/>
+      <c r="HY23" s="43"/>
+      <c r="HZ23" s="43"/>
+      <c r="IA23" s="43"/>
+      <c r="IB23" s="43"/>
+      <c r="IC23" s="43"/>
+      <c r="ID23" s="43"/>
+      <c r="IE23" s="43"/>
+      <c r="IF23" s="43"/>
+      <c r="IG23" s="43"/>
+      <c r="IH23" s="43"/>
+      <c r="II23" s="43"/>
+      <c r="IJ23" s="43"/>
+      <c r="IK23" s="43"/>
+      <c r="IL23" s="43"/>
+      <c r="IM23" s="43"/>
+      <c r="IN23" s="43"/>
+      <c r="IO23" s="43"/>
+      <c r="IP23" s="43"/>
+      <c r="IQ23" s="43"/>
+      <c r="IR23" s="43"/>
+      <c r="IS23" s="43"/>
+      <c r="IT23" s="43"/>
+      <c r="IU23" s="43"/>
+      <c r="IV23" s="43"/>
+      <c r="IW23" s="43"/>
+      <c r="IX23" s="43"/>
+      <c r="IY23" s="43"/>
+      <c r="IZ23" s="43"/>
+      <c r="JA23" s="43"/>
+      <c r="JB23" s="43"/>
+      <c r="JC23" s="43"/>
+      <c r="JD23" s="43"/>
+      <c r="JE23" s="43"/>
+      <c r="JF23" s="43"/>
+      <c r="JG23" s="43"/>
+      <c r="JH23" s="43"/>
+      <c r="JI23" s="43"/>
+      <c r="JJ23" s="43"/>
+      <c r="JK23" s="43"/>
+      <c r="JL23" s="43"/>
+      <c r="JM23" s="43"/>
+      <c r="JN23" s="43"/>
+      <c r="JO23" s="43"/>
+      <c r="JP23" s="43"/>
+      <c r="JQ23" s="43"/>
+      <c r="JR23" s="43"/>
+      <c r="JS23" s="43"/>
+      <c r="JT23" s="43"/>
+      <c r="JU23" s="43"/>
+      <c r="JV23" s="43"/>
+      <c r="JW23" s="43"/>
+      <c r="JX23" s="43"/>
+      <c r="JY23" s="43"/>
+      <c r="JZ23" s="43"/>
+      <c r="KA23" s="43"/>
+      <c r="KB23" s="43"/>
+      <c r="KC23" s="43"/>
+      <c r="KD23" s="43"/>
+      <c r="KE23" s="43"/>
+      <c r="KF23" s="43"/>
+      <c r="KG23" s="43"/>
+      <c r="KH23" s="43"/>
+      <c r="KI23" s="43"/>
+      <c r="KJ23" s="43"/>
+      <c r="KK23" s="43"/>
+      <c r="KL23" s="43"/>
+      <c r="KM23" s="43"/>
+      <c r="KN23" s="43"/>
+      <c r="KO23" s="43"/>
+      <c r="KP23" s="43"/>
+      <c r="KQ23" s="43"/>
+      <c r="KR23" s="43"/>
+      <c r="KS23" s="43"/>
+      <c r="KT23" s="43"/>
+      <c r="KU23" s="43"/>
+      <c r="KV23" s="43"/>
+      <c r="KW23" s="43"/>
+      <c r="KX23" s="43"/>
+      <c r="KY23" s="43"/>
+      <c r="KZ23" s="43"/>
+      <c r="LA23" s="43"/>
+      <c r="LB23" s="43"/>
+      <c r="LC23" s="43"/>
+      <c r="LD23" s="43"/>
+      <c r="LE23" s="43"/>
+      <c r="LF23" s="43"/>
+      <c r="LG23" s="43"/>
+      <c r="LH23" s="43"/>
+      <c r="LI23" s="43"/>
+      <c r="LJ23" s="43"/>
+      <c r="LK23" s="43"/>
+      <c r="LL23" s="43"/>
+      <c r="LM23" s="43"/>
+      <c r="LN23" s="43"/>
+      <c r="LO23" s="43"/>
+      <c r="LP23" s="43"/>
+      <c r="LQ23" s="43"/>
+      <c r="LR23" s="43"/>
+      <c r="LS23" s="43"/>
+      <c r="LT23" s="43"/>
+      <c r="LU23" s="43"/>
+      <c r="LV23" s="43"/>
+      <c r="LW23" s="43"/>
+      <c r="LX23" s="43"/>
+      <c r="LY23" s="43"/>
+      <c r="LZ23" s="43"/>
+      <c r="MA23" s="43"/>
+      <c r="MB23" s="43"/>
+      <c r="MC23" s="43"/>
+      <c r="MD23" s="43"/>
+      <c r="ME23" s="43"/>
+      <c r="MF23" s="43"/>
+      <c r="MG23" s="43"/>
+      <c r="MH23" s="43"/>
+      <c r="MI23" s="43"/>
+      <c r="MJ23" s="43"/>
+      <c r="MK23" s="43"/>
+      <c r="ML23" s="43"/>
+      <c r="MM23" s="43"/>
+      <c r="MN23" s="43"/>
+      <c r="MO23" s="43"/>
+      <c r="MP23" s="43"/>
+      <c r="MQ23" s="43"/>
+      <c r="MR23" s="43"/>
+      <c r="MS23" s="43"/>
+      <c r="MT23" s="43"/>
+      <c r="MU23" s="43"/>
+      <c r="MV23" s="43"/>
+      <c r="MW23" s="43"/>
+      <c r="MX23" s="43"/>
+      <c r="MY23" s="43"/>
+      <c r="MZ23" s="43"/>
+      <c r="NA23" s="43"/>
+      <c r="NB23" s="43"/>
+      <c r="NC23" s="43"/>
+      <c r="ND23" s="43"/>
+      <c r="NE23" s="43"/>
+      <c r="NF23" s="43"/>
+      <c r="NG23" s="43"/>
+      <c r="NH23" s="43"/>
+      <c r="NI23" s="43"/>
+      <c r="NJ23" s="43"/>
+      <c r="NK23" s="43"/>
+      <c r="NL23" s="43"/>
+      <c r="NM23" s="43"/>
+      <c r="NN23" s="43"/>
+      <c r="NO23" s="43"/>
+      <c r="NP23" s="43"/>
+      <c r="NQ23" s="43"/>
+      <c r="NR23" s="43"/>
+      <c r="NS23" s="43"/>
+      <c r="NT23" s="43"/>
+      <c r="NU23" s="43"/>
+      <c r="NV23" s="43"/>
+      <c r="NW23" s="43"/>
+      <c r="NX23" s="43"/>
+      <c r="NY23" s="43"/>
+      <c r="NZ23" s="43"/>
+      <c r="OA23" s="43"/>
+      <c r="OB23" s="43"/>
+      <c r="OC23" s="43"/>
+      <c r="OD23" s="43"/>
+      <c r="OE23" s="43"/>
+      <c r="OF23" s="43"/>
+      <c r="OG23" s="43"/>
+      <c r="OH23" s="43"/>
+      <c r="OI23" s="43"/>
+      <c r="OJ23" s="43"/>
+      <c r="OK23" s="43"/>
+      <c r="OL23" s="43"/>
+      <c r="OM23" s="43"/>
+      <c r="ON23" s="43"/>
+      <c r="OO23" s="43"/>
+      <c r="OP23" s="43"/>
+      <c r="OQ23" s="43"/>
+      <c r="OR23" s="43"/>
+      <c r="OS23" s="43"/>
+      <c r="OT23" s="43"/>
+      <c r="OU23" s="43"/>
+      <c r="OV23" s="43"/>
+      <c r="OW23" s="43"/>
+      <c r="OX23" s="43"/>
+      <c r="OY23" s="43"/>
+      <c r="OZ23" s="43"/>
+      <c r="PA23" s="43"/>
+      <c r="PB23" s="43"/>
+      <c r="PC23" s="43"/>
+      <c r="PD23" s="43"/>
+      <c r="PE23" s="43"/>
+      <c r="PF23" s="43"/>
+      <c r="PG23" s="43"/>
+      <c r="PH23" s="43"/>
+      <c r="PI23" s="43"/>
+      <c r="PJ23" s="43"/>
+      <c r="PK23" s="43"/>
+      <c r="PL23" s="43"/>
+      <c r="PM23" s="43"/>
+      <c r="PN23" s="43"/>
+      <c r="PO23" s="43"/>
+      <c r="PP23" s="43"/>
+      <c r="PQ23" s="43"/>
+      <c r="PR23" s="43"/>
+      <c r="PS23" s="43"/>
+      <c r="PT23" s="43"/>
+      <c r="PU23" s="43"/>
+      <c r="PV23" s="43"/>
+      <c r="PW23" s="43"/>
+      <c r="PX23" s="43"/>
+      <c r="PY23" s="43"/>
+      <c r="PZ23" s="43"/>
+      <c r="QA23" s="43"/>
+      <c r="QB23" s="43"/>
+      <c r="QC23" s="43"/>
+      <c r="QD23" s="43"/>
+      <c r="QE23" s="43"/>
+      <c r="QF23" s="43"/>
+      <c r="QG23" s="43"/>
+      <c r="QH23" s="43"/>
+      <c r="QI23" s="43"/>
+      <c r="QJ23" s="43"/>
+      <c r="QK23" s="43"/>
+      <c r="QL23" s="43"/>
+      <c r="QM23" s="43"/>
+      <c r="QN23" s="43"/>
+      <c r="QO23" s="43"/>
+      <c r="QP23" s="43"/>
+      <c r="QQ23" s="43"/>
+      <c r="QR23" s="43"/>
+      <c r="QS23" s="43"/>
+      <c r="QT23" s="43"/>
+      <c r="QU23" s="43"/>
+      <c r="QV23" s="43"/>
+      <c r="QW23" s="43"/>
+      <c r="QX23" s="43"/>
+      <c r="QY23" s="43"/>
+      <c r="QZ23" s="43"/>
+      <c r="RA23" s="43"/>
+      <c r="RB23" s="43"/>
+      <c r="RC23" s="43"/>
+      <c r="RD23" s="43"/>
+      <c r="RE23" s="43"/>
+      <c r="RF23" s="43"/>
+      <c r="RG23" s="43"/>
+      <c r="RH23" s="43"/>
+      <c r="RI23" s="43"/>
+      <c r="RJ23" s="43"/>
+      <c r="RK23" s="43"/>
+      <c r="RL23" s="43"/>
+      <c r="RM23" s="43"/>
+      <c r="RN23" s="43"/>
+      <c r="RO23" s="43"/>
+      <c r="RP23" s="43"/>
+      <c r="RQ23" s="43"/>
+      <c r="RR23" s="43"/>
+      <c r="RS23" s="43"/>
+      <c r="RT23" s="43"/>
+      <c r="RU23" s="43"/>
+      <c r="RV23" s="43"/>
+      <c r="RW23" s="43"/>
+      <c r="RX23" s="43"/>
+      <c r="RY23" s="43"/>
+      <c r="RZ23" s="43"/>
+      <c r="SA23" s="43"/>
+      <c r="SB23" s="43"/>
+      <c r="SC23" s="43"/>
+      <c r="SD23" s="43"/>
+      <c r="SE23" s="43"/>
+      <c r="SF23" s="43"/>
+      <c r="SG23" s="43"/>
+      <c r="SH23" s="43"/>
+      <c r="SI23" s="43"/>
+      <c r="SJ23" s="43"/>
+      <c r="SK23" s="43"/>
+      <c r="SL23" s="43"/>
+      <c r="SM23" s="43"/>
+      <c r="SN23" s="43"/>
+      <c r="SO23" s="43"/>
+      <c r="SP23" s="43"/>
+      <c r="SQ23" s="43"/>
+      <c r="SR23" s="43"/>
+      <c r="SS23" s="43"/>
+      <c r="ST23" s="43"/>
+      <c r="SU23" s="43"/>
+      <c r="SV23" s="43"/>
+      <c r="SW23" s="43"/>
+      <c r="SX23" s="43"/>
+      <c r="SY23" s="43"/>
+      <c r="SZ23" s="43"/>
+      <c r="TA23" s="43"/>
+      <c r="TB23" s="43"/>
+      <c r="TC23" s="43"/>
+      <c r="TD23" s="43"/>
+      <c r="TE23" s="43"/>
+      <c r="TF23" s="43"/>
+      <c r="TG23" s="43"/>
+      <c r="TH23" s="43"/>
+      <c r="TI23" s="43"/>
+      <c r="TJ23" s="43"/>
+      <c r="TK23" s="43"/>
+      <c r="TL23" s="43"/>
+      <c r="TM23" s="43"/>
+      <c r="TN23" s="43"/>
+      <c r="TO23" s="43"/>
+      <c r="TP23" s="43"/>
+      <c r="TQ23" s="43"/>
+      <c r="TR23" s="43"/>
+      <c r="TS23" s="43"/>
+      <c r="TT23" s="43"/>
+      <c r="TU23" s="43"/>
+      <c r="TV23" s="43"/>
+      <c r="TW23" s="43"/>
+      <c r="TX23" s="43"/>
+      <c r="TY23" s="43"/>
+      <c r="TZ23" s="43"/>
+      <c r="UA23" s="43"/>
+      <c r="UB23" s="43"/>
+      <c r="UC23" s="43"/>
+      <c r="UD23" s="43"/>
+      <c r="UE23" s="43"/>
+      <c r="UF23" s="43"/>
+      <c r="UG23" s="43"/>
+      <c r="UH23" s="43"/>
+      <c r="UI23" s="43"/>
+      <c r="UJ23" s="43"/>
+      <c r="UK23" s="43"/>
+      <c r="UL23" s="43"/>
+      <c r="UM23" s="43"/>
+      <c r="UN23" s="43"/>
+      <c r="UO23" s="43"/>
+      <c r="UP23" s="43"/>
+      <c r="UQ23" s="43"/>
+      <c r="UR23" s="43"/>
+      <c r="US23" s="43"/>
+      <c r="UT23" s="43"/>
+      <c r="UU23" s="43"/>
+      <c r="UV23" s="43"/>
+      <c r="UW23" s="43"/>
+      <c r="UX23" s="43"/>
+      <c r="UY23" s="43"/>
+      <c r="UZ23" s="43"/>
+      <c r="VA23" s="43"/>
+      <c r="VB23" s="43"/>
+      <c r="VC23" s="43"/>
+      <c r="VD23" s="43"/>
+      <c r="VE23" s="43"/>
+      <c r="VF23" s="43"/>
+      <c r="VG23" s="43"/>
+      <c r="VH23" s="43"/>
+      <c r="VI23" s="43"/>
+      <c r="VJ23" s="43"/>
+      <c r="VK23" s="43"/>
+      <c r="VL23" s="43"/>
+      <c r="VM23" s="43"/>
+      <c r="VN23" s="43"/>
+      <c r="VO23" s="43"/>
+      <c r="VP23" s="43"/>
+      <c r="VQ23" s="43"/>
+      <c r="VR23" s="43"/>
+      <c r="VS23" s="43"/>
+      <c r="VT23" s="43"/>
+      <c r="VU23" s="43"/>
+      <c r="VV23" s="43"/>
+      <c r="VW23" s="43"/>
+      <c r="VX23" s="43"/>
+      <c r="VY23" s="43"/>
+      <c r="VZ23" s="43"/>
+      <c r="WA23" s="43"/>
+      <c r="WB23" s="43"/>
+      <c r="WC23" s="43"/>
+      <c r="WD23" s="43"/>
+      <c r="WE23" s="43"/>
+      <c r="WF23" s="43"/>
+      <c r="WG23" s="43"/>
+      <c r="WH23" s="43"/>
+      <c r="WI23" s="43"/>
+      <c r="WJ23" s="43"/>
+      <c r="WK23" s="43"/>
+      <c r="WL23" s="43"/>
+      <c r="WM23" s="43"/>
+      <c r="WN23" s="43"/>
+      <c r="WO23" s="43"/>
+      <c r="WP23" s="43"/>
+      <c r="WQ23" s="43"/>
+      <c r="WR23" s="43"/>
+      <c r="WS23" s="43"/>
+      <c r="WT23" s="43"/>
+      <c r="WU23" s="43"/>
+      <c r="WV23" s="43"/>
+      <c r="WW23" s="43"/>
+      <c r="WX23" s="43"/>
+      <c r="WY23" s="43"/>
+      <c r="WZ23" s="43"/>
+      <c r="XA23" s="43"/>
+      <c r="XB23" s="43"/>
+      <c r="XC23" s="43"/>
+      <c r="XD23" s="43"/>
+      <c r="XE23" s="43"/>
+      <c r="XF23" s="43"/>
+      <c r="XG23" s="43"/>
+      <c r="XH23" s="43"/>
+      <c r="XI23" s="43"/>
+      <c r="XJ23" s="43"/>
+      <c r="XK23" s="43"/>
+      <c r="XL23" s="43"/>
+      <c r="XM23" s="43"/>
+      <c r="XN23" s="43"/>
+      <c r="XO23" s="43"/>
+      <c r="XP23" s="43"/>
+      <c r="XQ23" s="43"/>
+      <c r="XR23" s="43"/>
+      <c r="XS23" s="43"/>
+      <c r="XT23" s="43"/>
+      <c r="XU23" s="43"/>
+      <c r="XV23" s="43"/>
+      <c r="XW23" s="43"/>
+      <c r="XX23" s="43"/>
+      <c r="XY23" s="43"/>
+      <c r="XZ23" s="43"/>
+      <c r="YA23" s="43"/>
+      <c r="YB23" s="43"/>
+      <c r="YC23" s="43"/>
+      <c r="YD23" s="43"/>
+      <c r="YE23" s="43"/>
+      <c r="YF23" s="43"/>
+      <c r="YG23" s="43"/>
+      <c r="YH23" s="43"/>
+      <c r="YI23" s="43"/>
+      <c r="YJ23" s="43"/>
+      <c r="YK23" s="43"/>
+      <c r="YL23" s="43"/>
+      <c r="YM23" s="43"/>
+      <c r="YN23" s="43"/>
+      <c r="YO23" s="43"/>
+      <c r="YP23" s="43"/>
+      <c r="YQ23" s="43"/>
+      <c r="YR23" s="43"/>
+      <c r="YS23" s="43"/>
+      <c r="YT23" s="43"/>
+      <c r="YU23" s="43"/>
+      <c r="YV23" s="43"/>
+      <c r="YW23" s="43"/>
+      <c r="YX23" s="43"/>
+      <c r="YY23" s="43"/>
+      <c r="YZ23" s="43"/>
+      <c r="ZA23" s="43"/>
+      <c r="ZB23" s="43"/>
+      <c r="ZC23" s="43"/>
+      <c r="ZD23" s="43"/>
+      <c r="ZE23" s="43"/>
+      <c r="ZF23" s="43"/>
+      <c r="ZG23" s="43"/>
+      <c r="ZH23" s="43"/>
+      <c r="ZI23" s="43"/>
+      <c r="ZJ23" s="43"/>
+      <c r="ZK23" s="43"/>
+      <c r="ZL23" s="43"/>
+      <c r="ZM23" s="43"/>
+      <c r="ZN23" s="43"/>
+      <c r="ZO23" s="43"/>
+      <c r="ZP23" s="43"/>
+      <c r="ZQ23" s="43"/>
+      <c r="ZR23" s="43"/>
+      <c r="ZS23" s="43"/>
+      <c r="ZT23" s="43"/>
+      <c r="ZU23" s="43"/>
+      <c r="ZV23" s="43"/>
+      <c r="ZW23" s="43"/>
+      <c r="ZX23" s="43"/>
+      <c r="ZY23" s="43"/>
+      <c r="ZZ23" s="43"/>
+      <c r="AAA23" s="43"/>
+      <c r="AAB23" s="43"/>
+      <c r="AAC23" s="43"/>
+      <c r="AAD23" s="43"/>
+      <c r="AAE23" s="43"/>
+      <c r="AAF23" s="43"/>
+      <c r="AAG23" s="43"/>
+      <c r="AAH23" s="43"/>
+      <c r="AAI23" s="43"/>
+      <c r="AAJ23" s="43"/>
+      <c r="AAK23" s="43"/>
+      <c r="AAL23" s="43"/>
+      <c r="AAM23" s="43"/>
+      <c r="AAN23" s="43"/>
+      <c r="AAO23" s="43"/>
+      <c r="AAP23" s="43"/>
+      <c r="AAQ23" s="43"/>
+      <c r="AAR23" s="43"/>
+      <c r="AAS23" s="43"/>
+      <c r="AAT23" s="43"/>
+      <c r="AAU23" s="43"/>
+      <c r="AAV23" s="43"/>
+      <c r="AAW23" s="43"/>
+      <c r="AAX23" s="43"/>
+      <c r="AAY23" s="43"/>
+      <c r="AAZ23" s="43"/>
+      <c r="ABA23" s="43"/>
+      <c r="ABB23" s="43"/>
+      <c r="ABC23" s="43"/>
+      <c r="ABD23" s="43"/>
+      <c r="ABE23" s="43"/>
+      <c r="ABF23" s="43"/>
+      <c r="ABG23" s="43"/>
+      <c r="ABH23" s="43"/>
+      <c r="ABI23" s="43"/>
+      <c r="ABJ23" s="43"/>
+      <c r="ABK23" s="43"/>
+      <c r="ABL23" s="43"/>
+      <c r="ABM23" s="43"/>
+      <c r="ABN23" s="43"/>
+      <c r="ABO23" s="43"/>
+      <c r="ABP23" s="43"/>
+      <c r="ABQ23" s="43"/>
+      <c r="ABR23" s="43"/>
+      <c r="ABS23" s="43"/>
+      <c r="ABT23" s="43"/>
+      <c r="ABU23" s="43"/>
+      <c r="ABV23" s="43"/>
+      <c r="ABW23" s="43"/>
+      <c r="ABX23" s="43"/>
+      <c r="ABY23" s="43"/>
+      <c r="ABZ23" s="43"/>
+      <c r="ACA23" s="43"/>
+      <c r="ACB23" s="43"/>
+      <c r="ACC23" s="43"/>
+      <c r="ACD23" s="43"/>
+      <c r="ACE23" s="43"/>
+      <c r="ACF23" s="43"/>
+      <c r="ACG23" s="43"/>
+      <c r="ACH23" s="43"/>
+      <c r="ACI23" s="43"/>
+      <c r="ACJ23" s="43"/>
+      <c r="ACK23" s="43"/>
+      <c r="ACL23" s="43"/>
+      <c r="ACM23" s="43"/>
+      <c r="ACN23" s="43"/>
+      <c r="ACO23" s="43"/>
+      <c r="ACP23" s="43"/>
+      <c r="ACQ23" s="43"/>
+      <c r="ACR23" s="43"/>
+      <c r="ACS23" s="43"/>
+      <c r="ACT23" s="43"/>
+      <c r="ACU23" s="43"/>
+      <c r="ACV23" s="43"/>
+      <c r="ACW23" s="43"/>
+      <c r="ACX23" s="43"/>
+      <c r="ACY23" s="43"/>
+      <c r="ACZ23" s="43"/>
+      <c r="ADA23" s="43"/>
+      <c r="ADB23" s="43"/>
+      <c r="ADC23" s="43"/>
+      <c r="ADD23" s="43"/>
+      <c r="ADE23" s="43"/>
+      <c r="ADF23" s="43"/>
+      <c r="ADG23" s="43"/>
+      <c r="ADH23" s="43"/>
+      <c r="ADI23" s="43"/>
+      <c r="ADJ23" s="43"/>
+      <c r="ADK23" s="43"/>
+      <c r="ADL23" s="43"/>
+      <c r="ADM23" s="43"/>
+      <c r="ADN23" s="43"/>
+      <c r="ADO23" s="43"/>
+      <c r="ADP23" s="43"/>
+      <c r="ADQ23" s="43"/>
+      <c r="ADR23" s="43"/>
+      <c r="ADS23" s="43"/>
+      <c r="ADT23" s="43"/>
+      <c r="ADU23" s="43"/>
+      <c r="ADV23" s="43"/>
+      <c r="ADW23" s="43"/>
+      <c r="ADX23" s="43"/>
+      <c r="ADY23" s="43"/>
+      <c r="ADZ23" s="43"/>
+      <c r="AEA23" s="43"/>
+      <c r="AEB23" s="43"/>
+      <c r="AEC23" s="43"/>
+      <c r="AED23" s="43"/>
+      <c r="AEE23" s="43"/>
+      <c r="AEF23" s="43"/>
+      <c r="AEG23" s="43"/>
+      <c r="AEH23" s="43"/>
+      <c r="AEI23" s="43"/>
+      <c r="AEJ23" s="43"/>
+      <c r="AEK23" s="43"/>
+      <c r="AEL23" s="43"/>
+      <c r="AEM23" s="43"/>
+      <c r="AEN23" s="43"/>
+      <c r="AEO23" s="43"/>
+      <c r="AEP23" s="43"/>
+      <c r="AEQ23" s="43"/>
+      <c r="AER23" s="43"/>
+      <c r="AES23" s="43"/>
+      <c r="AET23" s="43"/>
+      <c r="AEU23" s="43"/>
+      <c r="AEV23" s="43"/>
+      <c r="AEW23" s="43"/>
+      <c r="AEX23" s="43"/>
+      <c r="AEY23" s="43"/>
+      <c r="AEZ23" s="43"/>
+      <c r="AFA23" s="43"/>
+      <c r="AFB23" s="43"/>
+      <c r="AFC23" s="43"/>
+      <c r="AFD23" s="43"/>
+      <c r="AFE23" s="43"/>
+      <c r="AFF23" s="43"/>
+      <c r="AFG23" s="43"/>
+      <c r="AFH23" s="43"/>
+      <c r="AFI23" s="43"/>
+      <c r="AFJ23" s="43"/>
+      <c r="AFK23" s="43"/>
+      <c r="AFL23" s="43"/>
+      <c r="AFM23" s="43"/>
+      <c r="AFN23" s="43"/>
+      <c r="AFO23" s="43"/>
+      <c r="AFP23" s="43"/>
+      <c r="AFQ23" s="43"/>
+      <c r="AFR23" s="43"/>
+      <c r="AFS23" s="43"/>
+      <c r="AFT23" s="43"/>
+      <c r="AFU23" s="43"/>
+      <c r="AFV23" s="43"/>
+      <c r="AFW23" s="43"/>
+      <c r="AFX23" s="43"/>
+      <c r="AFY23" s="43"/>
+      <c r="AFZ23" s="43"/>
+      <c r="AGA23" s="43"/>
+      <c r="AGB23" s="43"/>
+      <c r="AGC23" s="43"/>
+      <c r="AGD23" s="43"/>
+      <c r="AGE23" s="43"/>
+      <c r="AGF23" s="43"/>
+      <c r="AGG23" s="43"/>
+      <c r="AGH23" s="43"/>
+      <c r="AGI23" s="43"/>
+      <c r="AGJ23" s="43"/>
+      <c r="AGK23" s="43"/>
+      <c r="AGL23" s="43"/>
+      <c r="AGM23" s="43"/>
+      <c r="AGN23" s="43"/>
+      <c r="AGO23" s="43"/>
+      <c r="AGP23" s="43"/>
+      <c r="AGQ23" s="43"/>
+      <c r="AGR23" s="43"/>
+      <c r="AGS23" s="43"/>
+      <c r="AGT23" s="43"/>
+      <c r="AGU23" s="43"/>
+      <c r="AGV23" s="43"/>
+      <c r="AGW23" s="43"/>
+      <c r="AGX23" s="43"/>
+      <c r="AGY23" s="43"/>
+      <c r="AGZ23" s="43"/>
+      <c r="AHA23" s="43"/>
+      <c r="AHB23" s="43"/>
+      <c r="AHC23" s="43"/>
+      <c r="AHD23" s="43"/>
+      <c r="AHE23" s="43"/>
+      <c r="AHF23" s="43"/>
+      <c r="AHG23" s="43"/>
+      <c r="AHH23" s="43"/>
+      <c r="AHI23" s="43"/>
+      <c r="AHJ23" s="43"/>
+      <c r="AHK23" s="43"/>
+      <c r="AHL23" s="43"/>
+      <c r="AHM23" s="43"/>
+      <c r="AHN23" s="43"/>
+      <c r="AHO23" s="43"/>
+      <c r="AHP23" s="43"/>
+      <c r="AHQ23" s="43"/>
+      <c r="AHR23" s="43"/>
+      <c r="AHS23" s="43"/>
+      <c r="AHT23" s="43"/>
+      <c r="AHU23" s="43"/>
+      <c r="AHV23" s="43"/>
+      <c r="AHW23" s="43"/>
+      <c r="AHX23" s="43"/>
+      <c r="AHY23" s="43"/>
+      <c r="AHZ23" s="43"/>
+      <c r="AIA23" s="43"/>
+      <c r="AIB23" s="43"/>
+      <c r="AIC23" s="43"/>
+      <c r="AID23" s="43"/>
+      <c r="AIE23" s="43"/>
+      <c r="AIF23" s="43"/>
+      <c r="AIG23" s="43"/>
+      <c r="AIH23" s="43"/>
+      <c r="AII23" s="43"/>
+      <c r="AIJ23" s="43"/>
+      <c r="AIK23" s="43"/>
+      <c r="AIL23" s="43"/>
+      <c r="AIM23" s="43"/>
+      <c r="AIN23" s="43"/>
+      <c r="AIO23" s="43"/>
+      <c r="AIP23" s="43"/>
+      <c r="AIQ23" s="43"/>
+      <c r="AIR23" s="43"/>
+      <c r="AIS23" s="43"/>
+      <c r="AIT23" s="43"/>
+      <c r="AIU23" s="43"/>
+      <c r="AIV23" s="43"/>
+      <c r="AIW23" s="43"/>
+      <c r="AIX23" s="43"/>
+      <c r="AIY23" s="43"/>
+      <c r="AIZ23" s="43"/>
+      <c r="AJA23" s="43"/>
+      <c r="AJB23" s="43"/>
+      <c r="AJC23" s="43"/>
+      <c r="AJD23" s="43"/>
+      <c r="AJE23" s="43"/>
+      <c r="AJF23" s="43"/>
+      <c r="AJG23" s="43"/>
+      <c r="AJH23" s="43"/>
+      <c r="AJI23" s="43"/>
+      <c r="AJJ23" s="43"/>
+      <c r="AJK23" s="43"/>
+      <c r="AJL23" s="43"/>
+      <c r="AJM23" s="43"/>
+      <c r="AJN23" s="43"/>
+      <c r="AJO23" s="43"/>
+      <c r="AJP23" s="43"/>
+      <c r="AJQ23" s="43"/>
+      <c r="AJR23" s="43"/>
+      <c r="AJS23" s="43"/>
+      <c r="AJT23" s="43"/>
+      <c r="AJU23" s="43"/>
+      <c r="AJV23" s="43"/>
+      <c r="AJW23" s="43"/>
+      <c r="AJX23" s="43"/>
+      <c r="AJY23" s="43"/>
+      <c r="AJZ23" s="43"/>
+      <c r="AKA23" s="43"/>
+      <c r="AKB23" s="43"/>
+      <c r="AKC23" s="43"/>
+      <c r="AKD23" s="43"/>
+      <c r="AKE23" s="43"/>
+      <c r="AKF23" s="43"/>
+      <c r="AKG23" s="43"/>
+      <c r="AKH23" s="43"/>
+      <c r="AKI23" s="43"/>
+      <c r="AKJ23" s="43"/>
+      <c r="AKK23" s="43"/>
+      <c r="AKL23" s="43"/>
+      <c r="AKM23" s="43"/>
+      <c r="AKN23" s="43"/>
+      <c r="AKO23" s="43"/>
+      <c r="AKP23" s="43"/>
+      <c r="AKQ23" s="43"/>
+      <c r="AKR23" s="43"/>
+      <c r="AKS23" s="43"/>
+      <c r="AKT23" s="43"/>
+      <c r="AKU23" s="43"/>
+      <c r="AKV23" s="43"/>
+      <c r="AKW23" s="43"/>
+      <c r="AKX23" s="43"/>
+      <c r="AKY23" s="43"/>
+      <c r="AKZ23" s="43"/>
+      <c r="ALA23" s="43"/>
+      <c r="ALB23" s="43"/>
+      <c r="ALC23" s="43"/>
+      <c r="ALD23" s="43"/>
+      <c r="ALE23" s="43"/>
+      <c r="ALF23" s="43"/>
+      <c r="ALG23" s="43"/>
+      <c r="ALH23" s="43"/>
+      <c r="ALI23" s="43"/>
+      <c r="ALJ23" s="43"/>
+      <c r="ALK23" s="43"/>
+      <c r="ALL23" s="43"/>
+      <c r="ALM23" s="43"/>
+      <c r="ALN23" s="43"/>
+      <c r="ALO23" s="43"/>
+      <c r="ALP23" s="43"/>
+      <c r="ALQ23" s="43"/>
+      <c r="ALR23" s="43"/>
+      <c r="ALS23" s="43"/>
+      <c r="ALT23" s="43"/>
+      <c r="ALU23" s="43"/>
+      <c r="ALV23" s="43"/>
+      <c r="ALW23" s="43"/>
+      <c r="ALX23" s="43"/>
+      <c r="ALY23" s="43"/>
+      <c r="ALZ23" s="43"/>
+      <c r="AMA23" s="43"/>
+      <c r="AMB23" s="43"/>
+      <c r="AMC23" s="43"/>
+      <c r="AMD23" s="43"/>
+      <c r="AME23" s="43"/>
+      <c r="AMF23" s="43"/>
+      <c r="AMG23" s="43"/>
+      <c r="AMH23" s="43"/>
+      <c r="AMI23" s="43"/>
+      <c r="AMJ23" s="43"/>
     </row>
     <row r="24" spans="1:1024">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2">
-        <v>45219</v>
+        <v>44774</v>
       </c>
       <c r="C24" s="28">
-        <v>50</v>
+        <v>1110</v>
       </c>
       <c r="D24" s="29">
-        <v>1826.53</v>
+        <v>15</v>
       </c>
       <c r="E24" s="46">
         <f>Sayfa2!$D24*Sayfa2!$C24</f>
-        <v>91326.5</v>
+        <v>16650</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="13"/>
-        <v>45350</v>
+        <f>F22</f>
+        <v>45355</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="18">
-        <f>Sayfa4!C5</f>
-        <v>2018.91</v>
+        <f>Sayfa4!E2</f>
+        <v>30.905999999999999</v>
       </c>
       <c r="I24" s="19">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
         <v>0</v>
       </c>
       <c r="J24" s="28">
-        <f t="shared" si="9"/>
-        <v>192.38000000000011</v>
+        <f t="shared" si="13"/>
+        <v>15.905999999999999</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>9619.0000000000055</v>
+        <v>17655.66</v>
       </c>
       <c r="L24" s="48">
-        <f t="shared" si="10"/>
-        <v>131</v>
+        <f t="shared" si="14"/>
+        <v>581</v>
       </c>
       <c r="M24" s="26">
-        <f t="shared" si="11"/>
-        <v>0.10532539843309451</v>
+        <f t="shared" si="15"/>
+        <v>1.0604</v>
       </c>
       <c r="N24" s="26">
-        <f t="shared" si="12"/>
-        <v>2.4120320251853702E-2</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>5.4753872633390703E-2</v>
+      </c>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:1024">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="2">
-        <v>44244</v>
+        <v>45219</v>
       </c>
       <c r="C25" s="28">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D25" s="29">
-        <v>402.1</v>
+        <v>1826.53</v>
       </c>
       <c r="E25" s="46">
         <f>Sayfa2!$D25*Sayfa2!$C25</f>
-        <v>4423.1000000000004</v>
+        <v>91326.5</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="13"/>
-        <v>45350</v>
+        <f t="shared" si="17"/>
+        <v>45355</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="18">
-        <f>H24</f>
-        <v>2018.91</v>
+        <f>Sayfa4!C5</f>
+        <v>2072.52</v>
       </c>
       <c r="I25" s="19">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
         <v>0</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="9"/>
-        <v>1616.81</v>
+        <f t="shared" si="13"/>
+        <v>245.99</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>17784.91</v>
+        <v>12299.5</v>
       </c>
       <c r="L25" s="48">
-        <f t="shared" si="10"/>
-        <v>1106</v>
+        <f t="shared" si="14"/>
+        <v>136</v>
       </c>
       <c r="M25" s="26">
-        <f t="shared" si="11"/>
-        <v>4.0209151952250677</v>
+        <f t="shared" si="15"/>
+        <v>0.13467613452831326</v>
       </c>
       <c r="N25" s="26">
-        <f t="shared" si="12"/>
-        <v>0.10906641578368176</v>
+        <f t="shared" si="16"/>
+        <v>2.9707970851833805E-2</v>
       </c>
     </row>
     <row r="26" spans="1:1024">
@@ -6677,50 +7698,50 @@
         <v>55</v>
       </c>
       <c r="B26" s="2">
-        <v>44084</v>
+        <v>44244</v>
       </c>
       <c r="C26" s="28">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D26" s="29">
-        <v>468.86</v>
+        <v>402.1</v>
       </c>
       <c r="E26" s="46">
         <f>Sayfa2!$D26*Sayfa2!$C26</f>
-        <v>23443</v>
+        <v>4423.1000000000004</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="13"/>
-        <v>45350</v>
+        <f t="shared" si="17"/>
+        <v>45355</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="18">
         <f>H25</f>
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="I26" s="19">
         <f>Sayfa2!$H26*Sayfa2!$G26</f>
         <v>0</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="9"/>
-        <v>1550.0500000000002</v>
+        <f t="shared" si="13"/>
+        <v>1670.42</v>
       </c>
       <c r="K26" s="47">
         <f>Sayfa2!$J26*Sayfa2!$C26</f>
-        <v>77502.500000000015</v>
+        <v>18374.620000000003</v>
       </c>
       <c r="L26" s="48">
-        <f t="shared" si="10"/>
-        <v>1266</v>
+        <f t="shared" si="14"/>
+        <v>1111</v>
       </c>
       <c r="M26" s="26">
-        <f t="shared" si="11"/>
-        <v>3.3059975259139196</v>
+        <f t="shared" si="15"/>
+        <v>4.1542402387465804</v>
       </c>
       <c r="N26" s="26">
-        <f t="shared" si="12"/>
-        <v>7.8341173599855915E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.11217570401655934</v>
       </c>
     </row>
     <row r="27" spans="1:1024">
@@ -6728,50 +7749,50 @@
         <v>55</v>
       </c>
       <c r="B27" s="2">
-        <v>44020</v>
+        <v>44084</v>
       </c>
       <c r="C27" s="28">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D27" s="29">
-        <v>399.87</v>
+        <v>468.86</v>
       </c>
       <c r="E27" s="46">
         <f>Sayfa2!$D27*Sayfa2!$C27</f>
-        <v>9996.75</v>
+        <v>23443</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="13"/>
-        <v>45350</v>
+        <f t="shared" si="17"/>
+        <v>45355</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="18">
         <f>H26</f>
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="I27" s="19">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="9"/>
-        <v>1619.04</v>
+        <f t="shared" si="13"/>
+        <v>1603.6599999999999</v>
       </c>
       <c r="K27" s="47">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>40476</v>
+        <v>80183</v>
       </c>
       <c r="L27" s="48">
-        <f t="shared" si="10"/>
-        <v>1330</v>
+        <f t="shared" si="14"/>
+        <v>1271</v>
       </c>
       <c r="M27" s="26">
-        <f t="shared" si="11"/>
-        <v>4.0489158976667419</v>
+        <f t="shared" si="15"/>
+        <v>3.4203386938531759</v>
       </c>
       <c r="N27" s="26">
-        <f t="shared" si="12"/>
-        <v>9.1328930022558097E-2</v>
+        <f t="shared" si="16"/>
+        <v>8.0731833843898718E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1024">
@@ -6779,50 +7800,50 @@
         <v>55</v>
       </c>
       <c r="B28" s="2">
-        <v>43803</v>
+        <v>44020</v>
       </c>
       <c r="C28" s="28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="29">
-        <v>273.81</v>
+        <v>399.87</v>
       </c>
       <c r="E28" s="46">
         <f>Sayfa2!$D28*Sayfa2!$C28</f>
-        <v>6571.4400000000005</v>
+        <v>9996.75</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="13"/>
-        <v>45350</v>
+        <f t="shared" si="17"/>
+        <v>45355</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18">
         <f>H27</f>
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="I28" s="19">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
         <v>0</v>
       </c>
       <c r="J28" s="28">
-        <f t="shared" si="9"/>
-        <v>1745.1000000000001</v>
+        <f t="shared" si="13"/>
+        <v>1672.65</v>
       </c>
       <c r="K28" s="47">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>41882.400000000001</v>
+        <v>41816.25</v>
       </c>
       <c r="L28" s="48">
-        <f t="shared" si="10"/>
-        <v>1547</v>
+        <f t="shared" si="14"/>
+        <v>1335</v>
       </c>
       <c r="M28" s="26">
-        <f t="shared" si="11"/>
-        <v>6.3733976114824147</v>
+        <f t="shared" si="15"/>
+        <v>4.1829844699527348</v>
       </c>
       <c r="N28" s="26">
-        <f t="shared" si="12"/>
-        <v>0.1235952995116176</v>
+        <f t="shared" si="16"/>
+        <v>9.399965101017381E-2</v>
       </c>
     </row>
     <row r="29" spans="1:1024">
@@ -6833,60 +7854,99 @@
         <v>43803</v>
       </c>
       <c r="C29" s="28">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D29" s="29">
-        <v>237.59</v>
+        <v>273.81</v>
       </c>
       <c r="E29" s="46">
         <f>Sayfa2!$D29*Sayfa2!$C29</f>
-        <v>237.59</v>
+        <v>6571.4400000000005</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="13"/>
-        <v>45350</v>
+        <f t="shared" si="17"/>
+        <v>45355</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="18">
         <f>H28</f>
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="I29" s="19">
         <f>Sayfa2!$H29*Sayfa2!$G29</f>
         <v>0</v>
       </c>
       <c r="J29" s="28">
-        <f t="shared" si="9"/>
-        <v>1781.3200000000002</v>
+        <f t="shared" si="13"/>
+        <v>1798.71</v>
       </c>
       <c r="K29" s="47">
         <f>Sayfa2!$J29*Sayfa2!$C29</f>
-        <v>1781.3200000000002</v>
+        <v>43169.04</v>
       </c>
       <c r="L29" s="48">
-        <f t="shared" si="10"/>
-        <v>1547</v>
+        <f t="shared" si="14"/>
+        <v>1552</v>
       </c>
       <c r="M29" s="26">
-        <f t="shared" si="11"/>
-        <v>7.497453596531841</v>
+        <f t="shared" si="15"/>
+        <v>6.5691903144516264</v>
       </c>
       <c r="N29" s="26">
-        <f t="shared" si="12"/>
-        <v>0.14539341169745004</v>
+        <f t="shared" si="16"/>
+        <v>0.12698177154223506</v>
       </c>
     </row>
     <row r="30" spans="1:1024">
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="41"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43803</v>
+      </c>
+      <c r="C30" s="28">
+        <v>1</v>
+      </c>
+      <c r="D30" s="29">
+        <v>237.59</v>
+      </c>
+      <c r="E30" s="46">
+        <f>Sayfa2!$D30*Sayfa2!$C30</f>
+        <v>237.59</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="17"/>
+        <v>45355</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18">
+        <f>H29</f>
+        <v>2072.52</v>
+      </c>
+      <c r="I30" s="19">
+        <f>Sayfa2!$H30*Sayfa2!$G30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="28">
+        <f t="shared" si="13"/>
+        <v>1834.93</v>
+      </c>
+      <c r="K30" s="47">
+        <f>Sayfa2!$J30*Sayfa2!$C30</f>
+        <v>1834.93</v>
+      </c>
+      <c r="L30" s="48">
+        <f t="shared" si="14"/>
+        <v>1552</v>
+      </c>
+      <c r="M30" s="26">
+        <f t="shared" si="15"/>
+        <v>7.7230944063302331</v>
+      </c>
+      <c r="N30" s="26">
+        <f t="shared" si="16"/>
+        <v>0.14928661867906379</v>
+      </c>
     </row>
     <row r="31" spans="1:1024">
       <c r="C31" s="28"/>
@@ -6901,27 +7961,30 @@
       <c r="N31" s="42"/>
     </row>
     <row r="32" spans="1:1024">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="41"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="C33" s="32"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
-      <c r="J33"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
     </row>
     <row r="34" spans="1:15">
       <c r="C34" s="32"/>
@@ -6942,100 +8005,56 @@
       <c r="J35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45344</v>
-      </c>
-      <c r="C36" s="28">
-        <v>2</v>
-      </c>
-      <c r="D36" s="29">
-        <v>571.10522800000001</v>
-      </c>
-      <c r="E36" s="46">
-        <f>Sayfa2!$D36*Sayfa2!$C36</f>
-        <v>1142.210456</v>
-      </c>
-      <c r="F36" s="2">
-        <f>F17</f>
-        <v>45350</v>
-      </c>
-      <c r="G36" s="17">
-        <v>2</v>
-      </c>
-      <c r="H36" s="18">
-        <v>573.835914</v>
-      </c>
-      <c r="I36" s="19">
-        <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>1147.671828</v>
-      </c>
-      <c r="J36" s="28">
-        <f t="shared" ref="J36:J44" si="14">H36-D36</f>
-        <v>2.7306859999999915</v>
-      </c>
-      <c r="K36" s="47">
-        <f>Sayfa2!$J36*Sayfa2!$G36</f>
-        <v>5.461371999999983</v>
-      </c>
-      <c r="L36" s="48">
-        <f t="shared" ref="L36:L44" si="15">F36-B36</f>
-        <v>6</v>
-      </c>
-      <c r="M36" s="26">
-        <f>K36/E36</f>
-        <v>4.7814060634023678E-3</v>
-      </c>
-      <c r="N36" s="26">
-        <f>M36/L36*30</f>
-        <v>2.3907030317011836E-2</v>
-      </c>
-      <c r="O36" s="45"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="61"/>
+      <c r="J36"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2">
         <v>45344</v>
       </c>
       <c r="C37" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="29">
         <v>571.10522800000001</v>
       </c>
       <c r="E37" s="46">
         <f>Sayfa2!$D37*Sayfa2!$C37</f>
-        <v>571.10522800000001</v>
+        <v>1142.210456</v>
       </c>
       <c r="F37" s="2">
         <f>F18</f>
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="G37" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="18">
         <v>573.835914</v>
       </c>
       <c r="I37" s="19">
         <f>Sayfa2!$H37*Sayfa2!$G37</f>
-        <v>573.835914</v>
+        <v>1147.671828</v>
       </c>
       <c r="J37" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="J37:J45" si="18">H37-D37</f>
         <v>2.7306859999999915</v>
       </c>
       <c r="K37" s="47">
         <f>Sayfa2!$J37*Sayfa2!$G37</f>
-        <v>2.7306859999999915</v>
+        <v>5.461371999999983</v>
       </c>
       <c r="L37" s="48">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" ref="L37:L45" si="19">F37-B37</f>
+        <v>11</v>
       </c>
       <c r="M37" s="26">
         <f>K37/E37</f>
@@ -7043,60 +8062,60 @@
       </c>
       <c r="N37" s="26">
         <f>M37/L37*30</f>
-        <v>2.3907030317011836E-2</v>
+        <v>1.304019835473373E-2</v>
       </c>
       <c r="O37" s="45"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2">
         <v>45344</v>
       </c>
       <c r="C38" s="28">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D38" s="29">
         <v>571.10522800000001</v>
       </c>
       <c r="E38" s="46">
         <f>Sayfa2!$D38*Sayfa2!$C38</f>
-        <v>25128.630032000001</v>
+        <v>571.10522800000001</v>
       </c>
       <c r="F38" s="2">
-        <f>F17</f>
-        <v>45350</v>
+        <f>F19</f>
+        <v>45355</v>
       </c>
       <c r="G38" s="17">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H38" s="18">
         <v>573.835914</v>
       </c>
       <c r="I38" s="19">
         <f>Sayfa2!$H38*Sayfa2!$G38</f>
-        <v>25248.780215999999</v>
+        <v>573.835914</v>
       </c>
       <c r="J38" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.7306859999999915</v>
       </c>
       <c r="K38" s="47">
         <f>Sayfa2!$J38*Sayfa2!$G38</f>
-        <v>120.15018399999963</v>
+        <v>2.7306859999999915</v>
       </c>
       <c r="L38" s="48">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="M38" s="26">
         <f>K38/E38</f>
-        <v>4.7814060634023669E-3</v>
+        <v>4.7814060634023678E-3</v>
       </c>
       <c r="N38" s="26">
         <f>M38/L38*30</f>
-        <v>2.3907030317011836E-2</v>
+        <v>1.304019835473373E-2</v>
       </c>
       <c r="O38" s="45"/>
     </row>
@@ -7105,155 +8124,156 @@
         <v>58</v>
       </c>
       <c r="B39" s="2">
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="C39" s="28">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="D39" s="29">
-        <v>569.09258399999999</v>
+        <v>571.10522800000001</v>
       </c>
       <c r="E39" s="46">
         <f>Sayfa2!$D39*Sayfa2!$C39</f>
-        <v>60323.813903999995</v>
+        <v>25128.630032000001</v>
       </c>
       <c r="F39" s="2">
-        <f>F38</f>
-        <v>45350</v>
+        <f>F18</f>
+        <v>45355</v>
       </c>
       <c r="G39" s="17">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="H39" s="18">
         <v>573.835914</v>
       </c>
       <c r="I39" s="19">
         <f>Sayfa2!$H39*Sayfa2!$G39</f>
-        <v>60826.606884000001</v>
+        <v>25248.780215999999</v>
       </c>
       <c r="J39" s="28">
-        <f t="shared" si="14"/>
-        <v>4.7433300000000145</v>
+        <f t="shared" si="18"/>
+        <v>2.7306859999999915</v>
       </c>
       <c r="K39" s="47">
         <f>Sayfa2!$J39*Sayfa2!$G39</f>
-        <v>502.79298000000153</v>
+        <v>120.15018399999963</v>
       </c>
       <c r="L39" s="48">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="M39" s="26">
         <f>K39/E39</f>
-        <v>8.3349003894241831E-3</v>
+        <v>4.7814060634023669E-3</v>
       </c>
       <c r="N39" s="26">
         <f>M39/L39*30</f>
-        <v>2.778300129808061E-2</v>
+        <v>1.3040198354733728E-2</v>
       </c>
       <c r="O39" s="45"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2">
-        <v>45338</v>
-      </c>
-      <c r="C40" s="3">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1">
-        <v>567.08235100000002</v>
+        <v>45341</v>
+      </c>
+      <c r="C40" s="28">
+        <v>106</v>
+      </c>
+      <c r="D40" s="29">
+        <v>569.09258399999999</v>
       </c>
       <c r="E40" s="46">
         <f>Sayfa2!$D40*Sayfa2!$C40</f>
-        <v>36293.270464000001</v>
+        <v>60323.813903999995</v>
       </c>
       <c r="F40" s="2">
-        <v>45344</v>
-      </c>
-      <c r="G40" s="28">
-        <v>64</v>
-      </c>
-      <c r="H40" s="1">
-        <v>571.10522800000001</v>
+        <f>F39</f>
+        <v>45355</v>
+      </c>
+      <c r="G40" s="17">
+        <v>106</v>
+      </c>
+      <c r="H40" s="18">
+        <v>573.835914</v>
       </c>
       <c r="I40" s="19">
         <f>Sayfa2!$H40*Sayfa2!$G40</f>
-        <v>36550.734592000001</v>
+        <v>60826.606884000001</v>
       </c>
       <c r="J40" s="28">
-        <f t="shared" si="14"/>
-        <v>4.022876999999994</v>
+        <f t="shared" si="18"/>
+        <v>4.7433300000000145</v>
       </c>
       <c r="K40" s="47">
         <f>Sayfa2!$J40*Sayfa2!$G40</f>
-        <v>257.46412799999962</v>
+        <v>502.79298000000153</v>
       </c>
       <c r="L40" s="48">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="M40" s="62">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="M40" s="26">
         <f>K40/E40</f>
-        <v>7.0939908337933691E-3</v>
-      </c>
-      <c r="N40" s="62">
+        <v>8.3349003894241831E-3</v>
+      </c>
+      <c r="N40" s="26">
         <f>M40/L40*30</f>
-        <v>3.5469954168966845E-2</v>
+        <v>1.7860500834480392E-2</v>
       </c>
       <c r="O40" s="45"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2">
-        <v>45299</v>
+        <v>45338</v>
       </c>
       <c r="C41" s="3">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1">
-        <v>542.43450199999995</v>
+        <v>567.08235100000002</v>
       </c>
       <c r="E41" s="46">
         <f>Sayfa2!$D41*Sayfa2!$C41</f>
-        <v>27121.725099999996</v>
+        <v>36293.270464000001</v>
       </c>
       <c r="F41" s="2">
         <v>45344</v>
       </c>
       <c r="G41" s="28">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H41" s="1">
         <v>571.10522800000001</v>
       </c>
       <c r="I41" s="19">
         <f>Sayfa2!$H41*Sayfa2!$G41</f>
-        <v>28555.261399999999</v>
+        <v>36550.734592000001</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="14"/>
-        <v>28.670726000000059</v>
+        <f t="shared" si="18"/>
+        <v>4.022876999999994</v>
       </c>
       <c r="K41" s="47">
         <f>Sayfa2!$J41*Sayfa2!$G41</f>
-        <v>1433.5363000000029</v>
+        <v>257.46412799999962</v>
       </c>
       <c r="L41" s="48">
-        <f t="shared" si="15"/>
-        <v>45</v>
+        <f t="shared" si="19"/>
+        <v>6</v>
       </c>
       <c r="M41" s="62">
-        <f t="shared" ref="M41:M43" si="16">K41/E41</f>
-        <v>5.2855645970690972E-2</v>
+        <f>K41/E41</f>
+        <v>7.0939908337933691E-3</v>
       </c>
       <c r="N41" s="62">
-        <f t="shared" ref="N41:N44" si="17">M41/L41*30</f>
-        <v>3.5237097313793986E-2</v>
+        <f>M41/L41*30</f>
+        <v>3.5469954168966845E-2</v>
       </c>
       <c r="O41" s="45"/>
     </row>
@@ -7262,17 +8282,17 @@
         <v>50</v>
       </c>
       <c r="B42" s="2">
-        <v>45321</v>
+        <v>45299</v>
       </c>
       <c r="C42" s="3">
         <v>50</v>
       </c>
       <c r="D42" s="1">
-        <v>555.950107</v>
+        <v>542.43450199999995</v>
       </c>
       <c r="E42" s="46">
         <f>Sayfa2!$D42*Sayfa2!$C42</f>
-        <v>27797.505349999999</v>
+        <v>27121.725099999996</v>
       </c>
       <c r="F42" s="2">
         <v>45344</v>
@@ -7288,24 +8308,24 @@
         <v>28555.261399999999</v>
       </c>
       <c r="J42" s="28">
-        <f t="shared" si="14"/>
-        <v>15.155121000000008</v>
+        <f t="shared" si="18"/>
+        <v>28.670726000000059</v>
       </c>
       <c r="K42" s="47">
         <f>Sayfa2!$J42*Sayfa2!$G42</f>
-        <v>757.75605000000041</v>
+        <v>1433.5363000000029</v>
       </c>
       <c r="L42" s="48">
-        <f t="shared" si="15"/>
-        <v>23</v>
+        <f t="shared" si="19"/>
+        <v>45</v>
       </c>
       <c r="M42" s="62">
-        <f t="shared" si="16"/>
-        <v>2.7259858050535473E-2</v>
+        <f t="shared" ref="M42:M44" si="20">K42/E42</f>
+        <v>5.2855645970690972E-2</v>
       </c>
       <c r="N42" s="62">
-        <f t="shared" si="17"/>
-        <v>3.5556336587654967E-2</v>
+        <f t="shared" ref="N42:N45" si="21">M42/L42*30</f>
+        <v>3.5237097313793986E-2</v>
       </c>
       <c r="O42" s="45"/>
     </row>
@@ -7314,234 +8334,234 @@
         <v>50</v>
       </c>
       <c r="B43" s="2">
-        <v>45322</v>
+        <v>45321</v>
       </c>
       <c r="C43" s="3">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1">
         <v>555.950107</v>
       </c>
       <c r="E43" s="46">
         <f>Sayfa2!$D43*Sayfa2!$C43</f>
-        <v>8895.201712</v>
+        <v>27797.505349999999</v>
       </c>
       <c r="F43" s="2">
         <v>45344</v>
       </c>
       <c r="G43" s="28">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1">
         <v>571.10522800000001</v>
       </c>
       <c r="I43" s="19">
         <f>Sayfa2!$H43*Sayfa2!$G43</f>
-        <v>9137.6836480000002</v>
+        <v>28555.261399999999</v>
       </c>
       <c r="J43" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15.155121000000008</v>
       </c>
       <c r="K43" s="47">
         <f>Sayfa2!$J43*Sayfa2!$G43</f>
-        <v>242.48193600000013</v>
+        <v>757.75605000000041</v>
       </c>
       <c r="L43" s="48">
-        <f t="shared" si="15"/>
-        <v>22</v>
+        <f t="shared" si="19"/>
+        <v>23</v>
       </c>
       <c r="M43" s="62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.7259858050535473E-2</v>
       </c>
       <c r="N43" s="62">
-        <f t="shared" si="17"/>
-        <v>3.7172533705275651E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.5556336587654967E-2</v>
       </c>
       <c r="O43" s="45"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>45335</v>
+        <v>45322</v>
       </c>
       <c r="C44" s="3">
-        <v>313</v>
-      </c>
-      <c r="D44" s="3">
-        <v>190.8</v>
+        <v>16</v>
+      </c>
+      <c r="D44" s="1">
+        <v>555.950107</v>
       </c>
       <c r="E44" s="46">
         <f>Sayfa2!$D44*Sayfa2!$C44</f>
-        <v>59720.4</v>
+        <v>8895.201712</v>
       </c>
       <c r="F44" s="2">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="G44" s="28">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="H44" s="1">
-        <v>203.3</v>
+        <v>571.10522800000001</v>
       </c>
       <c r="I44" s="19">
         <f>Sayfa2!$H44*Sayfa2!$G44</f>
-        <v>63632.9</v>
+        <v>9137.6836480000002</v>
       </c>
       <c r="J44" s="28">
-        <f t="shared" si="14"/>
-        <v>12.5</v>
+        <f t="shared" si="18"/>
+        <v>15.155121000000008</v>
       </c>
       <c r="K44" s="47">
         <f>Sayfa2!$J44*Sayfa2!$G44</f>
-        <v>3912.5</v>
+        <v>242.48193600000013</v>
       </c>
       <c r="L44" s="48">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>22</v>
       </c>
       <c r="M44" s="62">
-        <f>K44/E44</f>
-        <v>6.5513626834381555E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.7259858050535473E-2</v>
       </c>
       <c r="N44" s="62">
-        <f t="shared" si="17"/>
-        <v>0.98270440251572333</v>
+        <f t="shared" si="21"/>
+        <v>3.7172533705275651E-2</v>
       </c>
       <c r="O44" s="45"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
+        <v>60</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C45" s="3">
+        <v>313</v>
+      </c>
+      <c r="D45" s="3">
+        <v>190.8</v>
+      </c>
       <c r="E45" s="46">
         <f>Sayfa2!$D45*Sayfa2!$C45</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="30"/>
-      <c r="G45"/>
-      <c r="H45" s="44"/>
+        <v>59720.4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45337</v>
+      </c>
+      <c r="G45" s="28">
+        <v>313</v>
+      </c>
+      <c r="H45" s="1">
+        <v>203.3</v>
+      </c>
       <c r="I45" s="19">
         <f>Sayfa2!$H45*Sayfa2!$G45</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>-133.63</v>
+        <v>63632.9</v>
+      </c>
+      <c r="J45" s="28">
+        <f t="shared" si="18"/>
+        <v>12.5</v>
       </c>
       <c r="K45" s="47">
         <f>Sayfa2!$J45*Sayfa2!$G45</f>
-        <v>0</v>
-      </c>
-      <c r="M45"/>
+        <v>3912.5</v>
+      </c>
+      <c r="L45" s="48">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="62">
+        <f>K45/E45</f>
+        <v>6.5513626834381555E-2</v>
+      </c>
+      <c r="N45" s="62">
+        <f t="shared" si="21"/>
+        <v>0.98270440251572333</v>
+      </c>
       <c r="O45" s="45"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45296</v>
-      </c>
-      <c r="C46" s="3">
-        <v>110</v>
-      </c>
-      <c r="D46" s="1">
-        <v>540.60110799999995</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
       <c r="E46" s="46">
         <f>Sayfa2!$D46*Sayfa2!$C46</f>
-        <v>59466.121879999992</v>
-      </c>
-      <c r="F46" s="2">
-        <v>45335</v>
-      </c>
-      <c r="G46" s="28">
-        <v>110</v>
-      </c>
-      <c r="H46" s="1">
-        <v>565.11282900000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F46" s="30"/>
+      <c r="G46"/>
+      <c r="H46" s="44"/>
       <c r="I46" s="19">
         <f>Sayfa2!$H46*Sayfa2!$G46</f>
-        <v>62162.411190000006</v>
-      </c>
-      <c r="J46" s="15">
-        <f t="shared" ref="J46:J58" si="18">H46-D46</f>
-        <v>24.51172100000008</v>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>-133.63</v>
       </c>
       <c r="K46" s="47">
         <f>Sayfa2!$J46*Sayfa2!$G46</f>
-        <v>2696.2893100000088</v>
-      </c>
-      <c r="L46" s="48">
-        <f t="shared" ref="L46:L53" si="19">F46-B46</f>
-        <v>39</v>
-      </c>
-      <c r="M46" s="62">
-        <f>K46/E46</f>
-        <v>4.5341603332415076E-2</v>
-      </c>
-      <c r="N46" s="62">
-        <f>K46/E46</f>
-        <v>4.5341603332415076E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M46"/>
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>45222</v>
+        <v>45296</v>
       </c>
       <c r="C47" s="3">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D47" s="1">
-        <v>130</v>
+        <v>540.60110799999995</v>
       </c>
       <c r="E47" s="46">
         <f>Sayfa2!$D47*Sayfa2!$C47</f>
-        <v>1170</v>
-      </c>
-      <c r="F47" s="63">
-        <v>45334</v>
+        <v>59466.121879999992</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45335</v>
       </c>
       <c r="G47" s="28">
-        <v>9</v>
-      </c>
-      <c r="H47" s="64">
-        <v>145.5</v>
+        <v>110</v>
+      </c>
+      <c r="H47" s="1">
+        <v>565.11282900000003</v>
       </c>
       <c r="I47" s="19">
         <f>Sayfa2!$H47*Sayfa2!$G47</f>
-        <v>1309.5</v>
+        <v>62162.411190000006</v>
       </c>
       <c r="J47" s="15">
-        <f t="shared" si="18"/>
-        <v>15.5</v>
+        <f t="shared" ref="J47:J59" si="22">H47-D47</f>
+        <v>24.51172100000008</v>
       </c>
       <c r="K47" s="47">
         <f>Sayfa2!$J47*Sayfa2!$G47</f>
-        <v>139.5</v>
+        <v>2696.2893100000088</v>
       </c>
       <c r="L47" s="48">
-        <f t="shared" si="19"/>
-        <v>112</v>
+        <f t="shared" ref="L47:L54" si="23">F47-B47</f>
+        <v>39</v>
       </c>
       <c r="M47" s="62">
-        <f t="shared" ref="M47:M59" si="20">K47/E47</f>
-        <v>0.11923076923076924</v>
+        <f>K47/E47</f>
+        <v>4.5341603332415076E-2</v>
       </c>
       <c r="N47" s="62">
         <f>K47/E47</f>
-        <v>0.11923076923076924</v>
+        <v>4.5341603332415076E-2</v>
       </c>
       <c r="O47" s="45"/>
     </row>
@@ -7550,50 +8570,50 @@
         <v>62</v>
       </c>
       <c r="B48" s="2">
-        <v>45271</v>
+        <v>45222</v>
       </c>
       <c r="C48" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1">
-        <v>144.001</v>
+        <v>130</v>
       </c>
       <c r="E48" s="46">
         <f>Sayfa2!$D48*Sayfa2!$C48</f>
-        <v>1440.01</v>
+        <v>1170</v>
       </c>
       <c r="F48" s="63">
         <v>45334</v>
       </c>
       <c r="G48" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H48" s="64">
         <v>145.5</v>
       </c>
       <c r="I48" s="19">
         <f>Sayfa2!$H48*Sayfa2!$G48</f>
-        <v>1455</v>
+        <v>1309.5</v>
       </c>
       <c r="J48" s="15">
-        <f t="shared" si="18"/>
-        <v>1.4989999999999952</v>
+        <f t="shared" si="22"/>
+        <v>15.5</v>
       </c>
       <c r="K48" s="47">
         <f>Sayfa2!$J48*Sayfa2!$G48</f>
-        <v>14.989999999999952</v>
+        <v>139.5</v>
       </c>
       <c r="L48" s="48">
-        <f t="shared" si="19"/>
-        <v>63</v>
+        <f t="shared" si="23"/>
+        <v>112</v>
       </c>
       <c r="M48" s="62">
-        <f t="shared" si="20"/>
-        <v>1.0409649932986544E-2</v>
+        <f t="shared" ref="M48:M60" si="24">K48/E48</f>
+        <v>0.11923076923076924</v>
       </c>
       <c r="N48" s="62">
         <f>K48/E48</f>
-        <v>1.0409649932986544E-2</v>
+        <v>0.11923076923076924</v>
       </c>
       <c r="O48" s="45"/>
     </row>
@@ -7602,460 +8622,460 @@
         <v>62</v>
       </c>
       <c r="B49" s="2">
-        <v>45288</v>
+        <v>45271</v>
       </c>
       <c r="C49" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>115.34</v>
+        <v>144.001</v>
       </c>
       <c r="E49" s="46">
         <f>Sayfa2!$D49*Sayfa2!$C49</f>
-        <v>2306.8000000000002</v>
+        <v>1440.01</v>
       </c>
       <c r="F49" s="63">
         <v>45334</v>
       </c>
       <c r="G49" s="28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H49" s="64">
         <v>145.5</v>
       </c>
       <c r="I49" s="19">
         <f>Sayfa2!$H49*Sayfa2!$G49</f>
-        <v>2910</v>
+        <v>1455</v>
       </c>
       <c r="J49" s="15">
-        <f t="shared" si="18"/>
-        <v>30.159999999999997</v>
+        <f t="shared" si="22"/>
+        <v>1.4989999999999952</v>
       </c>
       <c r="K49" s="47">
         <f>Sayfa2!$J49*Sayfa2!$G49</f>
-        <v>603.19999999999993</v>
+        <v>14.989999999999952</v>
       </c>
       <c r="L49" s="48">
-        <f t="shared" si="19"/>
-        <v>46</v>
+        <f t="shared" si="23"/>
+        <v>63</v>
       </c>
       <c r="M49" s="62">
-        <f t="shared" si="20"/>
-        <v>0.26148777527310557</v>
+        <f t="shared" si="24"/>
+        <v>1.0409649932986544E-2</v>
       </c>
       <c r="N49" s="62">
         <f>K49/E49</f>
-        <v>0.26148777527310557</v>
+        <v>1.0409649932986544E-2</v>
       </c>
       <c r="O49" s="45"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2">
-        <v>45322</v>
+        <v>45288</v>
       </c>
       <c r="C50" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1">
-        <v>555.950107</v>
+        <v>115.34</v>
       </c>
       <c r="E50" s="46">
         <f>Sayfa2!$D50*Sayfa2!$C50</f>
-        <v>5559.5010700000003</v>
-      </c>
-      <c r="F50" s="2">
+        <v>2306.8000000000002</v>
+      </c>
+      <c r="F50" s="63">
         <v>45334</v>
       </c>
       <c r="G50" s="28">
-        <v>10</v>
-      </c>
-      <c r="H50" s="1">
-        <v>564.45009800000003</v>
+        <v>20</v>
+      </c>
+      <c r="H50" s="64">
+        <v>145.5</v>
       </c>
       <c r="I50" s="19">
         <f>Sayfa2!$H50*Sayfa2!$G50</f>
-        <v>5644.5009800000007</v>
+        <v>2910</v>
       </c>
       <c r="J50" s="15">
-        <f t="shared" si="18"/>
-        <v>8.4999910000000227</v>
+        <f t="shared" si="22"/>
+        <v>30.159999999999997</v>
       </c>
       <c r="K50" s="47">
         <f>Sayfa2!$J50*Sayfa2!$G50</f>
-        <v>84.999910000000227</v>
+        <v>603.19999999999993</v>
       </c>
       <c r="L50" s="48">
-        <f t="shared" si="19"/>
-        <v>12</v>
+        <f t="shared" si="23"/>
+        <v>46</v>
       </c>
       <c r="M50" s="62">
-        <f t="shared" si="20"/>
-        <v>1.5289125576155384E-2</v>
+        <f t="shared" si="24"/>
+        <v>0.26148777527310557</v>
       </c>
       <c r="N50" s="62">
-        <f>M50/L50*30</f>
-        <v>3.8222813940388463E-2</v>
+        <f>K50/E50</f>
+        <v>0.26148777527310557</v>
       </c>
       <c r="O50" s="45"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="2">
         <v>45322</v>
       </c>
-      <c r="C51" s="32">
-        <v>46</v>
-      </c>
-      <c r="D51" s="43">
+      <c r="C51" s="3">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1">
         <v>555.950107</v>
       </c>
       <c r="E51" s="46">
         <f>Sayfa2!$D51*Sayfa2!$C51</f>
-        <v>25573.704922000001</v>
-      </c>
-      <c r="F51" s="30">
-        <v>45327</v>
-      </c>
-      <c r="G51" s="32">
-        <v>46</v>
-      </c>
-      <c r="H51" s="43">
-        <v>559.83385699999997</v>
+        <v>5559.5010700000003</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45334</v>
+      </c>
+      <c r="G51" s="28">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>564.45009800000003</v>
       </c>
       <c r="I51" s="19">
         <f>Sayfa2!$H51*Sayfa2!$G51</f>
-        <v>25752.357421999997</v>
-      </c>
-      <c r="J51" s="45">
-        <f t="shared" si="18"/>
-        <v>3.8837499999999636</v>
+        <v>5644.5009800000007</v>
+      </c>
+      <c r="J51" s="15">
+        <f t="shared" si="22"/>
+        <v>8.4999910000000227</v>
       </c>
       <c r="K51" s="47">
         <f>Sayfa2!$J51*Sayfa2!$G51</f>
-        <v>178.65249999999833</v>
+        <v>84.999910000000227</v>
       </c>
       <c r="L51" s="48">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>12</v>
       </c>
       <c r="M51" s="62">
-        <f t="shared" si="20"/>
-        <v>6.9857887445284065E-3</v>
+        <f t="shared" si="24"/>
+        <v>1.5289125576155384E-2</v>
       </c>
       <c r="N51" s="62">
         <f>M51/L51*30</f>
-        <v>4.1914732467170444E-2</v>
+        <v>3.8222813940388463E-2</v>
       </c>
       <c r="O51" s="45"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="43" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B52" s="30">
-        <v>45267</v>
+        <v>45322</v>
       </c>
       <c r="C52" s="32">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D52" s="43">
-        <v>49.18</v>
+        <v>555.950107</v>
       </c>
       <c r="E52" s="46">
         <f>Sayfa2!$D52*Sayfa2!$C52</f>
-        <v>491.8</v>
+        <v>25573.704922000001</v>
       </c>
       <c r="F52" s="30">
         <v>45327</v>
       </c>
       <c r="G52" s="32">
-        <v>10</v>
-      </c>
-      <c r="H52" s="65">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="H52" s="43">
+        <v>559.83385699999997</v>
       </c>
       <c r="I52" s="19">
         <f>Sayfa2!$H52*Sayfa2!$G52</f>
-        <v>520</v>
+        <v>25752.357421999997</v>
       </c>
       <c r="J52" s="45">
-        <f t="shared" si="18"/>
-        <v>2.8200000000000003</v>
+        <f t="shared" si="22"/>
+        <v>3.8837499999999636</v>
       </c>
       <c r="K52" s="47">
         <f>Sayfa2!$J52*Sayfa2!$G52</f>
-        <v>28.200000000000003</v>
+        <v>178.65249999999833</v>
       </c>
       <c r="L52" s="48">
-        <f t="shared" si="19"/>
-        <v>60</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="M52" s="62">
-        <f t="shared" si="20"/>
-        <v>5.7340382269215132E-2</v>
+        <f t="shared" si="24"/>
+        <v>6.9857887445284065E-3</v>
       </c>
       <c r="N52" s="62">
         <f>M52/L52*30</f>
-        <v>2.8670191134607566E-2</v>
+        <v>4.1914732467170444E-2</v>
       </c>
       <c r="O52" s="45"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="A53" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="30">
         <v>45267</v>
       </c>
-      <c r="C53" s="3">
-        <v>13</v>
-      </c>
-      <c r="D53" s="1">
-        <v>28.3</v>
+      <c r="C53" s="32">
+        <v>10</v>
+      </c>
+      <c r="D53" s="43">
+        <v>49.18</v>
       </c>
       <c r="E53" s="46">
         <f>Sayfa2!$D53*Sayfa2!$C53</f>
-        <v>367.90000000000003</v>
-      </c>
-      <c r="F53" s="2">
-        <v>45313</v>
-      </c>
-      <c r="G53" s="28">
-        <v>13</v>
-      </c>
-      <c r="H53" s="1">
-        <v>41.6</v>
+        <v>491.8</v>
+      </c>
+      <c r="F53" s="30">
+        <v>45327</v>
+      </c>
+      <c r="G53" s="32">
+        <v>10</v>
+      </c>
+      <c r="H53" s="65">
+        <v>52</v>
       </c>
       <c r="I53" s="19">
         <f>Sayfa2!$H53*Sayfa2!$G53</f>
-        <v>540.80000000000007</v>
+        <v>520</v>
       </c>
       <c r="J53" s="45">
-        <f t="shared" si="18"/>
-        <v>13.3</v>
+        <f t="shared" si="22"/>
+        <v>2.8200000000000003</v>
       </c>
       <c r="K53" s="47">
         <f>Sayfa2!$J53*Sayfa2!$G53</f>
-        <v>172.9</v>
-      </c>
-      <c r="L53" s="66">
-        <f t="shared" si="19"/>
-        <v>46</v>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="L53" s="48">
+        <f t="shared" si="23"/>
+        <v>60</v>
       </c>
       <c r="M53" s="62">
-        <f>K53/E53</f>
-        <v>0.46996466431095402</v>
+        <f t="shared" si="24"/>
+        <v>5.7340382269215132E-2</v>
       </c>
       <c r="N53" s="62">
         <f>M53/L53*30</f>
-        <v>0.30649869411583958</v>
+        <v>2.8670191134607566E-2</v>
       </c>
       <c r="O53" s="45"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2">
-        <v>45273</v>
+        <v>45267</v>
       </c>
       <c r="C54" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D54" s="1">
-        <v>55.08</v>
+        <v>28.3</v>
       </c>
       <c r="E54" s="46">
         <f>Sayfa2!$D54*Sayfa2!$C54</f>
-        <v>1432.08</v>
+        <v>367.90000000000003</v>
       </c>
       <c r="F54" s="2">
         <v>45313</v>
       </c>
       <c r="G54" s="28">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1">
-        <v>51.4</v>
+        <v>41.6</v>
       </c>
       <c r="I54" s="19">
         <f>Sayfa2!$H54*Sayfa2!$G54</f>
-        <v>1336.3999999999999</v>
-      </c>
-      <c r="J54" s="15">
-        <f t="shared" si="18"/>
-        <v>-3.6799999999999997</v>
+        <v>540.80000000000007</v>
+      </c>
+      <c r="J54" s="45">
+        <f t="shared" si="22"/>
+        <v>13.3</v>
       </c>
       <c r="K54" s="47">
         <f>Sayfa2!$J54*Sayfa2!$G54</f>
-        <v>-95.679999999999993</v>
-      </c>
-      <c r="L54" s="35"/>
-      <c r="M54" s="108">
-        <f t="shared" ref="M54:M55" si="21">K54/E54</f>
-        <v>-6.6811909949164847E-2</v>
-      </c>
-      <c r="N54" s="62"/>
+        <v>172.9</v>
+      </c>
+      <c r="L54" s="66">
+        <f t="shared" si="23"/>
+        <v>46</v>
+      </c>
+      <c r="M54" s="62">
+        <f>K54/E54</f>
+        <v>0.46996466431095402</v>
+      </c>
+      <c r="N54" s="62">
+        <f>M54/L54*30</f>
+        <v>0.30649869411583958</v>
+      </c>
       <c r="O54" s="45"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2">
-        <v>45288</v>
+        <v>45273</v>
       </c>
       <c r="C55" s="3">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D55" s="1">
-        <v>39.5</v>
+        <v>55.08</v>
       </c>
       <c r="E55" s="46">
         <f>Sayfa2!$D55*Sayfa2!$C55</f>
-        <v>3950</v>
+        <v>1432.08</v>
       </c>
       <c r="F55" s="2">
         <v>45313</v>
       </c>
       <c r="G55" s="28">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H55" s="1">
         <v>51.4</v>
       </c>
       <c r="I55" s="19">
         <f>Sayfa2!$H55*Sayfa2!$G55</f>
-        <v>5140</v>
+        <v>1336.3999999999999</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" si="18"/>
-        <v>11.899999999999999</v>
+        <f t="shared" si="22"/>
+        <v>-3.6799999999999997</v>
       </c>
       <c r="K55" s="47">
         <f>Sayfa2!$J55*Sayfa2!$G55</f>
-        <v>1189.9999999999998</v>
-      </c>
-      <c r="L55" s="66">
-        <f>F55-B55</f>
-        <v>25</v>
-      </c>
-      <c r="M55" s="62">
-        <f t="shared" si="21"/>
-        <v>0.30126582278481007</v>
-      </c>
-      <c r="N55" s="62">
-        <f t="shared" ref="N55:N56" si="22">M55/L55*30</f>
-        <v>0.36151898734177207</v>
-      </c>
+        <v>-95.679999999999993</v>
+      </c>
+      <c r="L55" s="35"/>
+      <c r="M55" s="108">
+        <f t="shared" ref="M55:M56" si="25">K55/E55</f>
+        <v>-6.6811909949164847E-2</v>
+      </c>
+      <c r="N55" s="62"/>
       <c r="O55" s="45"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2">
-        <v>45267</v>
+        <v>45288</v>
       </c>
       <c r="C56" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1">
-        <v>18.207357999999999</v>
+        <v>39.5</v>
       </c>
       <c r="E56" s="46">
         <f>Sayfa2!$D56*Sayfa2!$C56</f>
-        <v>5462.2073999999993</v>
+        <v>3950</v>
       </c>
       <c r="F56" s="2">
-        <v>45288</v>
+        <v>45313</v>
       </c>
       <c r="G56" s="28">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H56" s="1">
-        <v>18.625761000000001</v>
+        <v>51.4</v>
       </c>
       <c r="I56" s="19">
         <f>Sayfa2!$H56*Sayfa2!$G56</f>
-        <v>5587.7282999999998</v>
+        <v>5140</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="18"/>
-        <v>0.41840300000000141</v>
+        <f t="shared" si="22"/>
+        <v>11.899999999999999</v>
       </c>
       <c r="K56" s="47">
         <f>Sayfa2!$J56*Sayfa2!$G56</f>
-        <v>125.52090000000042</v>
-      </c>
-      <c r="L56" s="1">
+        <v>1189.9999999999998</v>
+      </c>
+      <c r="L56" s="66">
         <f>F56-B56</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M56" s="62">
-        <f t="shared" si="20"/>
-        <v>2.2979885384798907E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.30126582278481007</v>
       </c>
       <c r="N56" s="62">
-        <f t="shared" si="22"/>
-        <v>3.2828407692569866E-2</v>
+        <f t="shared" ref="N56:N57" si="26">M56/L56*30</f>
+        <v>0.36151898734177207</v>
       </c>
       <c r="O56" s="45"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2">
         <v>45267</v>
       </c>
       <c r="C57" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="D57" s="1">
-        <v>523.88987099999997</v>
+        <v>18.207357999999999</v>
       </c>
       <c r="E57" s="46">
         <f>Sayfa2!$D57*Sayfa2!$C57</f>
-        <v>5238.8987099999995</v>
+        <v>5462.2073999999993</v>
       </c>
       <c r="F57" s="2">
-        <v>45293</v>
+        <v>45288</v>
       </c>
       <c r="G57" s="28">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="H57" s="1">
-        <v>538.78970700000002</v>
+        <v>18.625761000000001</v>
       </c>
       <c r="I57" s="19">
         <f>Sayfa2!$H57*Sayfa2!$G57</f>
-        <v>5387.89707</v>
+        <v>5587.7282999999998</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="18"/>
-        <v>14.89983600000005</v>
+        <f t="shared" si="22"/>
+        <v>0.41840300000000141</v>
       </c>
       <c r="K57" s="47">
         <f>Sayfa2!$J57*Sayfa2!$G57</f>
-        <v>148.9983600000005</v>
+        <v>125.52090000000042</v>
       </c>
       <c r="L57" s="1">
         <f>F57-B57</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M57" s="62">
-        <f t="shared" si="20"/>
-        <v>2.8440778920881354E-2</v>
+        <f t="shared" si="24"/>
+        <v>2.2979885384798907E-2</v>
       </c>
       <c r="N57" s="62">
-        <f>M57/L57*30</f>
-        <v>3.2816283370247716E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.2828407692569866E-2</v>
       </c>
       <c r="O57" s="45"/>
     </row>
@@ -8064,114 +9084,157 @@
         <v>50</v>
       </c>
       <c r="B58" s="2">
-        <v>45273</v>
+        <v>45267</v>
       </c>
       <c r="C58" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1">
-        <v>527.21223999999995</v>
+        <v>523.88987099999997</v>
       </c>
       <c r="E58" s="46">
         <f>Sayfa2!$D58*Sayfa2!$C58</f>
-        <v>14761.942719999999</v>
+        <v>5238.8987099999995</v>
       </c>
       <c r="F58" s="2">
         <v>45293</v>
       </c>
       <c r="G58" s="28">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H58" s="1">
-        <f>H57</f>
         <v>538.78970700000002</v>
       </c>
       <c r="I58" s="19">
         <f>Sayfa2!$H58*Sayfa2!$G58</f>
-        <v>15086.111796000001</v>
+        <v>5387.89707</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" si="18"/>
-        <v>11.57746700000007</v>
+        <f t="shared" si="22"/>
+        <v>14.89983600000005</v>
       </c>
       <c r="K58" s="47">
         <f>Sayfa2!$J58*Sayfa2!$G58</f>
-        <v>324.16907600000195</v>
+        <v>148.9983600000005</v>
       </c>
       <c r="L58" s="1">
         <f>F58-B58</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M58" s="62">
-        <f t="shared" si="20"/>
-        <v>2.1959784165860925E-2</v>
+        <f t="shared" si="24"/>
+        <v>2.8440778920881354E-2</v>
       </c>
       <c r="N58" s="62">
         <f>M58/L58*30</f>
-        <v>3.2939676248791384E-2</v>
+        <v>3.2816283370247716E-2</v>
       </c>
       <c r="O58" s="45"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B59" s="2">
         <v>45273</v>
       </c>
-      <c r="C59">
-        <v>22</v>
+      <c r="C59" s="3">
+        <v>28</v>
       </c>
       <c r="D59" s="1">
         <v>527.21223999999995</v>
       </c>
       <c r="E59" s="46">
         <f>Sayfa2!$D59*Sayfa2!$C59</f>
-        <v>11598.669279999998</v>
+        <v>14761.942719999999</v>
       </c>
       <c r="F59" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G59" s="28">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H59" s="1">
-        <v>540.000044</v>
+        <f>H58</f>
+        <v>538.78970700000002</v>
       </c>
       <c r="I59" s="19">
         <f>Sayfa2!$H59*Sayfa2!$G59</f>
-        <v>11880.000968</v>
+        <v>15086.111796000001</v>
       </c>
       <c r="J59" s="15">
-        <f>H59-D58</f>
-        <v>12.787804000000051</v>
+        <f t="shared" si="22"/>
+        <v>11.57746700000007</v>
       </c>
       <c r="K59" s="47">
         <f>Sayfa2!$J59*Sayfa2!$G59</f>
-        <v>281.33168800000112</v>
+        <v>324.16907600000195</v>
       </c>
       <c r="L59" s="1">
-        <f>F59-B58</f>
-        <v>22</v>
+        <f>F59-B59</f>
+        <v>20</v>
       </c>
       <c r="M59" s="62">
-        <f t="shared" si="20"/>
-        <v>2.4255514249821006E-2</v>
+        <f t="shared" si="24"/>
+        <v>2.1959784165860925E-2</v>
       </c>
       <c r="N59" s="62">
         <f>M59/L59*30</f>
+        <v>3.2939676248791384E-2</v>
+      </c>
+      <c r="O59" s="45"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45273</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1">
+        <v>527.21223999999995</v>
+      </c>
+      <c r="E60" s="46">
+        <f>Sayfa2!$D60*Sayfa2!$C60</f>
+        <v>11598.669279999998</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G60" s="28">
+        <v>22</v>
+      </c>
+      <c r="H60" s="1">
+        <v>540.000044</v>
+      </c>
+      <c r="I60" s="19">
+        <f>Sayfa2!$H60*Sayfa2!$G60</f>
+        <v>11880.000968</v>
+      </c>
+      <c r="J60" s="15">
+        <f>H60-D59</f>
+        <v>12.787804000000051</v>
+      </c>
+      <c r="K60" s="47">
+        <f>Sayfa2!$J60*Sayfa2!$G60</f>
+        <v>281.33168800000112</v>
+      </c>
+      <c r="L60" s="1">
+        <f>F60-B59</f>
+        <v>22</v>
+      </c>
+      <c r="M60" s="62">
+        <f t="shared" si="24"/>
+        <v>2.4255514249821006E-2</v>
+      </c>
+      <c r="N60" s="62">
+        <f>M60/L60*30</f>
         <v>3.3075701249755916E-2</v>
       </c>
-      <c r="O59" s="45"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="E60" s="33"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="67"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
+      <c r="O60" s="45"/>
     </row>
     <row r="61" spans="1:15">
       <c r="E61" s="33"/>
@@ -8179,7 +9242,6 @@
       <c r="G61" s="32"/>
       <c r="H61" s="44"/>
       <c r="I61" s="67"/>
-      <c r="J61"/>
       <c r="K61" s="35"/>
       <c r="L61" s="35"/>
     </row>
@@ -8238,7 +9300,10 @@
       <c r="F67" s="30"/>
       <c r="G67" s="32"/>
       <c r="H67" s="44"/>
+      <c r="I67" s="67"/>
       <c r="J67"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
     </row>
     <row r="68" spans="5:12">
       <c r="E68" s="33"/>
@@ -8262,6 +9327,10 @@
       <c r="J70"/>
     </row>
     <row r="71" spans="5:12">
+      <c r="E71" s="33"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="44"/>
       <c r="J71"/>
     </row>
     <row r="72" spans="5:12">
@@ -8269,6 +9338,9 @@
     </row>
     <row r="73" spans="5:12">
       <c r="J73"/>
+    </row>
+    <row r="74" spans="5:12">
+      <c r="J74"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8286,7 +9358,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>K61:L66 N47 I61:I66 N52 L54 I60:L60 N59</xm:sqref>
+          <xm:sqref>K62:L67 N48 I62:I67 N53 L55 I61:L61 N60</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8296,10 +9368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E833796-0219-408B-99C0-FA7EE694BB58}">
-  <dimension ref="A2:U12"/>
+  <dimension ref="A2:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8309,7 +9381,7 @@
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -8317,47 +9389,49 @@
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="133" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
       <c r="A2" s="109">
         <f>A5</f>
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="K2">
         <f>K5</f>
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="M2">
         <f>M5</f>
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="O2">
         <f>O5</f>
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="Q2">
         <f>Q5</f>
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="S2">
         <f>S5</f>
@@ -8402,82 +9476,90 @@
       <c r="S3" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="T3" s="131" t="s">
+      <c r="T3" s="134" t="s">
+        <v>224</v>
+      </c>
+      <c r="U3" s="131" t="s">
         <v>223</v>
-      </c>
-      <c r="U3" s="131" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="109">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B5" s="111">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="D5">
-        <v>1100</v>
+        <f>D6</f>
+        <v>1110</v>
       </c>
       <c r="E5">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="F5">
-        <v>81.99</v>
+        <f>F6</f>
+        <v>321.99</v>
       </c>
       <c r="G5">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="H5">
+        <f>H6</f>
         <v>57</v>
       </c>
       <c r="I5">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="J5">
+        <f>J6</f>
         <v>125000</v>
       </c>
       <c r="K5">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="L5">
+        <f>L6</f>
         <v>36</v>
       </c>
       <c r="M5">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="N5">
+        <f>N6</f>
         <v>12</v>
       </c>
       <c r="O5">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="P5">
+        <f>P6</f>
         <v>15</v>
       </c>
       <c r="Q5">
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="R5">
+        <f>R6</f>
         <v>15</v>
       </c>
       <c r="S5">
         <v>11.33</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="133">
         <f>(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(J5*K5)+(L5*M5)+(N5*O5)+(P5*Q5)+(R5*S5)</f>
-        <v>525932.48518999992</v>
+        <v>544449.25954799983</v>
       </c>
       <c r="U5">
-        <v>9193.69</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="109">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B6" s="111">
         <v>161</v>
@@ -8486,58 +9568,71 @@
         <v>2018.91</v>
       </c>
       <c r="D6">
-        <v>1100</v>
+        <f>D7</f>
+        <v>1110</v>
       </c>
       <c r="E6">
         <v>30.7361</v>
       </c>
       <c r="F6">
-        <v>81.99</v>
+        <f>F7</f>
+        <v>321.99</v>
       </c>
       <c r="G6">
         <v>33.225700000000003</v>
       </c>
       <c r="H6">
+        <f>H7</f>
         <v>57</v>
       </c>
       <c r="I6">
         <v>576.58807100000001</v>
       </c>
       <c r="J6">
+        <f>J7</f>
         <v>125000</v>
       </c>
       <c r="K6">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="L6">
+        <f>L7</f>
         <v>36</v>
       </c>
       <c r="M6">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="N6">
+        <f>N7</f>
         <v>12</v>
       </c>
       <c r="O6">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="P6">
+        <f>P7</f>
         <v>15</v>
       </c>
       <c r="Q6">
-        <v>39.24</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ref="T6:T12" si="0">(B6*C6)+(D6*E6)+(F6*G6)+(H6*I6)+(J6*K6)+(L6*M6)+(N6*O6)+(P6*Q6)+(R6*S6)</f>
-        <v>522612.96018999995</v>
+        <v>43.16</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <v>11.33</v>
+      </c>
+      <c r="T6" s="133">
+        <f>(B6*C6)+(D6*E6)+(F6*G6)+(H6*I6)+(J6*K6)+(L6*M6)+(N6*O6)+(P6*Q6)+(R6*S6)</f>
+        <v>534214.0141899999</v>
       </c>
       <c r="U6">
-        <v>9100.27</v>
+        <v>9193.69</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="109">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B7" s="111">
         <v>161</v>
@@ -8546,65 +9641,115 @@
         <v>2018.91</v>
       </c>
       <c r="D7">
-        <v>1100</v>
+        <f>D8</f>
+        <v>1110</v>
       </c>
       <c r="E7">
         <v>30.7361</v>
       </c>
       <c r="F7">
-        <v>81.99</v>
+        <f>F8</f>
+        <v>321.99</v>
       </c>
       <c r="G7">
         <v>33.225700000000003</v>
       </c>
       <c r="H7">
+        <f>H8</f>
         <v>57</v>
       </c>
       <c r="I7">
         <v>576.58807100000001</v>
       </c>
       <c r="J7">
+        <f>J8</f>
         <v>125000</v>
       </c>
       <c r="K7">
+        <v>1.010337</v>
+      </c>
+      <c r="L7">
+        <f>L8</f>
+        <v>36</v>
+      </c>
+      <c r="M7">
+        <v>28.66</v>
+      </c>
+      <c r="N7">
+        <f>N8</f>
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>21.38</v>
+      </c>
+      <c r="P7">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <v>39.24</v>
+      </c>
+      <c r="T7" s="133">
+        <f t="shared" ref="T7:T13" si="0">(B7*C7)+(D7*E7)+(F7*G7)+(H7*I7)+(J7*K7)+(L7*M7)+(N7*O7)+(P7*Q7)+(R7*S7)</f>
+        <v>530894.48918999999</v>
+      </c>
+      <c r="U7">
+        <v>9100.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="109">
+        <v>45350</v>
+      </c>
+      <c r="B8" s="111">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>2018.91</v>
+      </c>
+      <c r="D8">
+        <v>1110</v>
+      </c>
+      <c r="E8">
+        <v>30.7361</v>
+      </c>
+      <c r="F8">
+        <v>321.99</v>
+      </c>
+      <c r="G8">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H8">
+        <v>57</v>
+      </c>
+      <c r="I8">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="J8">
+        <f>J9</f>
+        <v>125000</v>
+      </c>
+      <c r="K8">
         <v>1.067704</v>
       </c>
-      <c r="L7">
+      <c r="L8">
+        <f>L9</f>
         <v>36</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>26.06</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>12</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>19.45</v>
       </c>
-      <c r="T7">
+      <c r="T8" s="133">
         <f t="shared" si="0"/>
-        <v>529078.47519000003</v>
-      </c>
-      <c r="U7">
+        <v>537360.00419000001</v>
+      </c>
+      <c r="U8">
         <v>9184.6299999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="J8">
-        <v>125000</v>
-      </c>
-      <c r="K8">
-        <v>1.064435</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>23.7</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>133907.57500000001</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -8612,47 +9757,54 @@
         <v>125000</v>
       </c>
       <c r="K9">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="L9">
         <v>36</v>
       </c>
       <c r="M9">
-        <v>21.56</v>
-      </c>
-      <c r="T9">
+        <v>23.7</v>
+      </c>
+      <c r="T9" s="133">
         <f t="shared" si="0"/>
-        <v>128181.15999999999</v>
+        <v>133907.57500000001</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="J10">
-        <v>125000</v>
+        <f>J11</f>
+        <v>50000</v>
       </c>
       <c r="K10">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="L10">
         <v>36</v>
       </c>
       <c r="M10">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="T10">
+        <v>21.56</v>
+      </c>
+      <c r="T10" s="133">
         <f t="shared" si="0"/>
-        <v>126106.22499999999</v>
+        <v>51738.159999999996</v>
       </c>
     </row>
     <row r="11" spans="1:21">
+      <c r="J11">
+        <v>50000</v>
+      </c>
+      <c r="K11">
+        <v>1.0032049999999999</v>
+      </c>
       <c r="L11">
         <v>36</v>
       </c>
       <c r="M11">
-        <v>17.82</v>
-      </c>
-      <c r="T11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T11" s="133">
         <f t="shared" si="0"/>
-        <v>641.52</v>
+        <v>50865.849999999991</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -8660,11 +9812,42 @@
         <v>36</v>
       </c>
       <c r="M12">
+        <v>17.82</v>
+      </c>
+      <c r="T12" s="133">
+        <f t="shared" si="0"/>
+        <v>641.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="L13">
+        <v>36</v>
+      </c>
+      <c r="M13">
         <v>15.3</v>
       </c>
-      <c r="T12">
+      <c r="T13" s="133">
         <f t="shared" si="0"/>
         <v>550.80000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="M14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="L15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15">
+        <f>M2+(M2*M16)</f>
+        <v>37.999837599999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="M16" s="135">
+        <v>9.6360000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8809,11 +9992,11 @@
         <v>1.034036</v>
       </c>
       <c r="D9" s="112">
-        <f>$C$14*B9</f>
+        <f t="shared" ref="D9:D14" si="0">$C$14*B9</f>
         <v>51701.799999999996</v>
       </c>
       <c r="E9" s="112">
-        <f>D9-$D$14</f>
+        <f t="shared" ref="E9:E14" si="1">D9-$D$14</f>
         <v>1541.5500000000029</v>
       </c>
       <c r="F9" s="112"/>
@@ -8827,11 +10010,11 @@
         <v>-2279.9250000000029</v>
       </c>
       <c r="J9" s="112">
-        <f>E9+I9</f>
+        <f t="shared" ref="J9:J14" si="2">E9+I9</f>
         <v>-738.375</v>
       </c>
       <c r="K9" s="113">
-        <f>J9/($H$12+$D$14)</f>
+        <f t="shared" ref="K9:K14" si="3">J9/($H$12+$D$14)</f>
         <v>-5.6801190065224726E-3</v>
       </c>
       <c r="L9" s="112"/>
@@ -8845,11 +10028,11 @@
         <v>1.067704</v>
       </c>
       <c r="D10" s="112">
-        <f>$C$14*B10</f>
+        <f t="shared" si="0"/>
         <v>53385.2</v>
       </c>
       <c r="E10" s="112">
-        <f>D10-$D$14</f>
+        <f t="shared" si="1"/>
         <v>3224.9500000000044</v>
       </c>
       <c r="F10" s="112"/>
@@ -8863,11 +10046,11 @@
         <v>245.17500000000291</v>
       </c>
       <c r="J10" s="112">
-        <f>E10+I10</f>
+        <f t="shared" si="2"/>
         <v>3470.1250000000073</v>
       </c>
       <c r="K10" s="113">
-        <f>J10/($H$12+$D$14)</f>
+        <f t="shared" si="3"/>
         <v>2.669473230744383E-2</v>
       </c>
       <c r="L10" s="112"/>
@@ -8881,11 +10064,11 @@
         <v>1.067704</v>
       </c>
       <c r="D11" s="112">
-        <f>$C$14*B11</f>
+        <f t="shared" si="0"/>
         <v>53385.2</v>
       </c>
       <c r="E11" s="112">
-        <f>D11-$D$14</f>
+        <f t="shared" si="1"/>
         <v>3224.9500000000044</v>
       </c>
       <c r="H11" s="112">
@@ -8897,11 +10080,11 @@
         <v>245.17500000000291</v>
       </c>
       <c r="J11" s="112">
-        <f>E11+I11</f>
+        <f t="shared" si="2"/>
         <v>3470.1250000000073</v>
       </c>
       <c r="K11" s="113">
-        <f>J11/($H$12+$D$14)</f>
+        <f t="shared" si="3"/>
         <v>2.669473230744383E-2</v>
       </c>
     </row>
@@ -8913,11 +10096,11 @@
         <v>1.064435</v>
       </c>
       <c r="D12" s="112">
-        <f>$C$14*B12</f>
+        <f t="shared" si="0"/>
         <v>53221.75</v>
       </c>
       <c r="E12" s="112">
-        <f>D12-$D$14</f>
+        <f t="shared" si="1"/>
         <v>3061.5000000000073</v>
       </c>
       <c r="G12" s="111">
@@ -8932,11 +10115,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="112">
-        <f>E12+I12</f>
+        <f t="shared" si="2"/>
         <v>3061.5000000000073</v>
       </c>
       <c r="K12" s="113">
-        <f>J12/($H$12+$D$14)</f>
+        <f t="shared" si="3"/>
         <v>2.3551290791899226E-2</v>
       </c>
     </row>
@@ -8948,19 +10131,19 @@
         <v>1.0192399999999999</v>
       </c>
       <c r="D13" s="112">
-        <f>$C$14*B13</f>
+        <f t="shared" si="0"/>
         <v>50961.999999999993</v>
       </c>
       <c r="E13" s="112">
-        <f>D13-$D$14</f>
+        <f t="shared" si="1"/>
         <v>801.75</v>
       </c>
       <c r="J13" s="112">
-        <f>E13+I13</f>
+        <f t="shared" si="2"/>
         <v>801.75</v>
       </c>
       <c r="K13" s="113">
-        <f>J13/($H$12+$D$14)</f>
+        <f t="shared" si="3"/>
         <v>6.167645726736946E-3</v>
       </c>
     </row>
@@ -8975,19 +10158,19 @@
         <v>50000</v>
       </c>
       <c r="D14" s="112">
-        <f>$C$14*B14</f>
+        <f t="shared" si="0"/>
         <v>50160.249999999993</v>
       </c>
       <c r="E14" s="112">
-        <f>D14-$D$14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="112">
-        <f>E14+I14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="110">
-        <f>J14/($H$12+$D$14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D31FE-9AE9-4320-9FCA-69549C3C058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C15FCD2-E094-4105-98B2-E5D8B40F770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="227">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -1690,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1731,11 +1731,11 @@
     </row>
     <row r="2" spans="1:1024">
       <c r="B2" s="137">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="K2" s="12">
         <f>SUM(K5:K6)</f>
-        <v>239357.137017</v>
+        <v>242787.01950700005</v>
       </c>
     </row>
     <row r="3" spans="1:1024">
@@ -1748,20 +1748,20 @@
     <row r="4" spans="1:1024">
       <c r="B4" s="3">
         <f>B2-B3</f>
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="5" spans="1:1024">
       <c r="B5" s="3">
         <f>K2/B4</f>
-        <v>154.1256516529298</v>
+        <v>156.23360328635781</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="22">
         <f>SUBTOTAL(109,E10:E31)</f>
-        <v>302826.17800000001</v>
+        <v>297115.12572000001</v>
       </c>
       <c r="I5" s="23">
         <f>SUBTOTAL(109,I10:I31)</f>
@@ -1769,19 +1769,19 @@
       </c>
       <c r="K5" s="24">
         <f>SUBTOTAL(109,K10:K31)</f>
-        <v>224968.84680699999</v>
+        <v>228135.47550700002</v>
       </c>
       <c r="L5" s="25">
         <f>K5/E5</f>
-        <v>0.74289761966021306</v>
+        <v>0.76783527918398164</v>
       </c>
       <c r="M5" s="26">
         <f>SUBTOTAL(101,M10:M23)</f>
-        <v>0.22544452136381443</v>
+        <v>0.25743972411772775</v>
       </c>
       <c r="N5" s="26">
         <f>SUBTOTAL(101,N10:N23)</f>
-        <v>0.3046285670844589</v>
+        <v>0.34484209172927249</v>
       </c>
     </row>
     <row r="6" spans="1:1024">
@@ -1792,23 +1792,23 @@
       </c>
       <c r="E6" s="15">
         <f>SUBTOTAL(109,E34:E68)</f>
-        <v>441540.83642800001</v>
+        <v>454105.15144399996</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19">
         <f>SUBTOTAL(109,I34:I68)</f>
-        <v>455932.00663799996</v>
+        <v>461798.86446800001</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="15">
         <f>SUBTOTAL(109,K34:K67)</f>
-        <v>14388.290210000014</v>
+        <v>14651.544000000016</v>
       </c>
       <c r="L6" s="20">
         <f>K6/E6</f>
-        <v>3.258654471554466E-2</v>
+        <v>3.226465049649814E-2</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
@@ -2942,6 +2942,11 @@
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
     </row>
+    <row r="12" spans="1:1024">
+      <c r="A12" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="14" spans="1:1024">
       <c r="A14" s="43" t="s">
         <v>170</v>
@@ -2961,7 +2966,7 @@
       </c>
       <c r="F14" s="2">
         <f>B2</f>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18">
@@ -2981,7 +2986,7 @@
       </c>
       <c r="L14" s="48">
         <f t="shared" ref="L14:L15" si="1">F14-B14</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" s="26">
         <f t="shared" ref="M14:M15" si="2">K14/E14</f>
@@ -2989,7 +2994,7 @@
       </c>
       <c r="N14" s="26">
         <f t="shared" ref="N14:N15" si="3">M14/L14*30</f>
-        <v>0.48543689320388334</v>
+        <v>0.41608876560332858</v>
       </c>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
@@ -4021,7 +4026,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" ref="F15:F30" si="4">F14</f>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G15" s="50">
         <v>23.19</v>
@@ -4043,7 +4048,7 @@
       </c>
       <c r="L15" s="48">
         <f t="shared" si="1"/>
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M15" s="26">
         <f t="shared" si="2"/>
@@ -4051,7 +4056,7 @@
       </c>
       <c r="N15" s="26">
         <f t="shared" si="3"/>
-        <v>4.0624609665183137E-2</v>
+        <v>4.0553711568036221E-2</v>
       </c>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
@@ -5083,12 +5088,12 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18">
         <f>Sayfa4!K2</f>
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="I16" s="19">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
@@ -5096,23 +5101,23 @@
       </c>
       <c r="J16" s="28">
         <f t="shared" ref="J16:J28" si="5">H16-D16</f>
-        <v>-4.8404000000000114E-2</v>
+        <v>-7.0463999999999971E-2</v>
       </c>
       <c r="K16" s="47">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-3630.3000000000084</v>
+        <v>-5284.7999999999975</v>
       </c>
       <c r="L16" s="48">
         <f t="shared" ref="L16:L28" si="6">F16-B16</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16" s="26">
         <f t="shared" ref="M16:M28" si="7">K16/E16</f>
-        <v>-4.5473889904033699E-2</v>
+        <v>-6.6198499673535693E-2</v>
       </c>
       <c r="N16" s="26">
         <f t="shared" ref="N16:N28" si="8">M16/L16*30</f>
-        <v>-0.17052708714012638</v>
+        <v>-0.22066166557845229</v>
       </c>
     </row>
     <row r="17" spans="1:1024">
@@ -5134,12 +5139,12 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18">
         <f>Sayfa4!Q2</f>
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="I17" s="19">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
@@ -5147,23 +5152,23 @@
       </c>
       <c r="J17" s="28">
         <f t="shared" si="5"/>
-        <v>12.96</v>
+        <v>18.159999999999997</v>
       </c>
       <c r="K17" s="47">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>194.4</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="L17" s="48">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17" s="26">
         <f t="shared" si="7"/>
-        <v>0.33027522935779818</v>
+        <v>0.46279306829765537</v>
       </c>
       <c r="N17" s="26">
         <f t="shared" si="8"/>
-        <v>0.82568807339449546</v>
+        <v>1.0679840037638202</v>
       </c>
     </row>
     <row r="18" spans="1:1024">
@@ -5185,12 +5190,12 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="18">
         <f>Sayfa4!O2</f>
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="I18" s="19">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
@@ -5198,23 +5203,23 @@
       </c>
       <c r="J18" s="28">
         <f t="shared" si="5"/>
-        <v>8.9700000000000024</v>
+        <v>11.810000000000002</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>107.64000000000003</v>
+        <v>141.72000000000003</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18" s="26">
         <f t="shared" si="7"/>
-        <v>0.46118251928020582</v>
+        <v>0.60719794344473021</v>
       </c>
       <c r="N18" s="26">
         <f t="shared" si="8"/>
-        <v>1.1529562982005146</v>
+        <v>1.4012260233339928</v>
       </c>
     </row>
     <row r="19" spans="1:1024">
@@ -5236,12 +5241,12 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18">
         <f>H16</f>
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="I19" s="19">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
@@ -5249,23 +5254,23 @@
       </c>
       <c r="J19" s="28">
         <f t="shared" si="5"/>
-        <v>1.2826000000000004E-2</v>
+        <v>-9.2339999999998534E-3</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>641.30000000000018</v>
+        <v>-461.69999999999266</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M19" s="26">
         <f t="shared" si="7"/>
-        <v>1.2785023998086139E-2</v>
+        <v>-9.2044995788496415E-3</v>
       </c>
       <c r="N19" s="26">
         <f t="shared" si="8"/>
-        <v>3.1962559995215349E-2</v>
+        <v>-2.1241152874268403E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1024">
@@ -5276,23 +5281,23 @@
         <v>45344</v>
       </c>
       <c r="C20" s="28">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D20" s="29">
         <v>571.10522800000001</v>
       </c>
       <c r="E20" s="46">
         <f>Sayfa2!$D20*Sayfa2!$C20</f>
-        <v>12564.315016</v>
+        <v>6853.2627360000006</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18">
         <f>H39</f>
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="I20" s="19">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
@@ -5300,23 +5305,23 @@
       </c>
       <c r="J20" s="28">
         <f t="shared" si="5"/>
-        <v>8.2564899999999852</v>
+        <v>8.9540200000000141</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>181.64277999999968</v>
+        <v>107.44824000000017</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20" s="26">
         <f t="shared" si="7"/>
-        <v>1.4457038029425962E-2</v>
+        <v>1.5678406642076849E-2</v>
       </c>
       <c r="N20" s="26">
         <f t="shared" si="8"/>
-        <v>3.6142595073564904E-2</v>
+        <v>3.618093840479273E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1024">
@@ -5327,7 +5332,7 @@
       <c r="E22" s="101"/>
       <c r="F22" s="2">
         <f>F40</f>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G22" s="102"/>
       <c r="H22" s="103"/>
@@ -6367,12 +6372,12 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="18">
         <f>Sayfa4!C5</f>
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="I23" s="19">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
@@ -6380,23 +6385,23 @@
       </c>
       <c r="J23" s="28">
         <f t="shared" si="5"/>
-        <v>289.81000000000017</v>
+        <v>324.37000000000012</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>14490.500000000009</v>
+        <v>16218.500000000005</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="6"/>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M23" s="26">
         <f t="shared" si="7"/>
-        <v>0.15866698055876452</v>
+        <v>0.17758810421947632</v>
       </c>
       <c r="N23" s="26">
         <f t="shared" si="8"/>
-        <v>3.4744594282941133E-2</v>
+        <v>3.8606109612929637E-2</v>
       </c>
     </row>
     <row r="24" spans="1:1024">
@@ -6418,12 +6423,12 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="18">
         <f>H23</f>
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="I24" s="19">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
@@ -6431,23 +6436,23 @@
       </c>
       <c r="J24" s="28">
         <f t="shared" si="5"/>
-        <v>1714.2400000000002</v>
+        <v>1748.8000000000002</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>18856.640000000003</v>
+        <v>19236.800000000003</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="6"/>
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M24" s="26">
         <f t="shared" si="7"/>
-        <v>4.2632181049490177</v>
+        <v>4.3491668739119627</v>
       </c>
       <c r="N24" s="26">
         <f t="shared" si="8"/>
-        <v>0.11501487693207782</v>
+        <v>0.11722821762565937</v>
       </c>
     </row>
     <row r="25" spans="1:1024">
@@ -6469,12 +6474,12 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="18">
         <f>H24</f>
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="I25" s="19">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
@@ -6482,23 +6487,23 @@
       </c>
       <c r="J25" s="28">
         <f t="shared" si="5"/>
-        <v>1647.48</v>
+        <v>1682.04</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>82374</v>
+        <v>84102</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="6"/>
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="M25" s="26">
         <f t="shared" si="7"/>
-        <v>3.5137994284008021</v>
+        <v>3.5875101309559358</v>
       </c>
       <c r="N25" s="26">
         <f t="shared" si="8"/>
-        <v>8.2872628028320808E-2</v>
+        <v>8.4544622096369274E-2</v>
       </c>
     </row>
     <row r="26" spans="1:1024">
@@ -6520,12 +6525,12 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="18">
         <f>H25</f>
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="I26" s="19">
         <f>Sayfa2!$H26*Sayfa2!$G26</f>
@@ -6533,23 +6538,23 @@
       </c>
       <c r="J26" s="28">
         <f t="shared" si="5"/>
-        <v>1716.4700000000003</v>
+        <v>1751.0300000000002</v>
       </c>
       <c r="K26" s="47">
         <f>Sayfa2!$J26*Sayfa2!$C26</f>
-        <v>42911.750000000007</v>
+        <v>43775.750000000007</v>
       </c>
       <c r="L26" s="48">
         <f t="shared" si="6"/>
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="M26" s="26">
         <f t="shared" si="7"/>
-        <v>4.292570085277716</v>
+        <v>4.378998174406683</v>
       </c>
       <c r="N26" s="26">
         <f t="shared" si="8"/>
-        <v>9.6390046825098413E-2</v>
+        <v>9.8257251482573291E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1024">
@@ -6571,12 +6576,12 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="18">
         <f>H26</f>
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="I27" s="19">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
@@ -6584,23 +6589,23 @@
       </c>
       <c r="J27" s="28">
         <f t="shared" si="5"/>
-        <v>1842.5300000000002</v>
+        <v>1877.0900000000001</v>
       </c>
       <c r="K27" s="47">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>44220.72</v>
+        <v>45050.16</v>
       </c>
       <c r="L27" s="48">
         <f t="shared" si="6"/>
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="M27" s="26">
         <f t="shared" si="7"/>
-        <v>6.7292282969942656</v>
+        <v>6.8554472079178996</v>
       </c>
       <c r="N27" s="26">
         <f t="shared" si="8"/>
-        <v>0.12999153181572953</v>
+        <v>0.13234454069339574</v>
       </c>
     </row>
     <row r="28" spans="1:1024">
@@ -6622,12 +6627,12 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18">
         <f>H27</f>
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="I28" s="19">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
@@ -6635,23 +6640,23 @@
       </c>
       <c r="J28" s="28">
         <f t="shared" si="5"/>
-        <v>1878.7500000000002</v>
+        <v>1913.3100000000002</v>
       </c>
       <c r="K28" s="47">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>1878.7500000000002</v>
+        <v>1913.3100000000002</v>
       </c>
       <c r="L28" s="48">
         <f t="shared" si="6"/>
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="M28" s="26">
         <f t="shared" si="7"/>
-        <v>7.9075297781893186</v>
+        <v>8.0529904457258308</v>
       </c>
       <c r="N28" s="26">
         <f t="shared" si="8"/>
-        <v>0.15275331187744984</v>
+        <v>0.15546313601787318</v>
       </c>
     </row>
     <row r="29" spans="1:1024">
@@ -6673,12 +6678,12 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="18">
         <f>Sayfa4!G2</f>
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="I29" s="19">
         <f>Sayfa2!$H29*Sayfa2!$G29</f>
@@ -6686,23 +6691,23 @@
       </c>
       <c r="J29" s="28">
         <f>H29-D29</f>
-        <v>15.0001</v>
+        <v>15.284900000000004</v>
       </c>
       <c r="K29" s="47">
         <f>Sayfa2!$J29*Sayfa2!$C29</f>
-        <v>4482.02988</v>
+        <v>4567.1281200000012</v>
       </c>
       <c r="L29" s="48">
         <f>F29-B29</f>
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M29" s="26">
         <f>K29/E29</f>
-        <v>0.80121891291342617</v>
+        <v>0.81643128792410924</v>
       </c>
       <c r="N29" s="26">
         <f>M29/L29*30</f>
-        <v>4.2021970956997876E-2</v>
+        <v>4.2745093608592105E-2</v>
       </c>
     </row>
     <row r="30" spans="1:1024">
@@ -6724,12 +6729,12 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18">
         <f>Sayfa4!E2</f>
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="I30" s="19">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
@@ -6737,23 +6742,23 @@
       </c>
       <c r="J30" s="28">
         <f>H30-D30</f>
-        <v>16.079899999999999</v>
+        <v>16.293399999999998</v>
       </c>
       <c r="K30" s="47">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>17848.688999999998</v>
+        <v>18085.673999999999</v>
       </c>
       <c r="L30" s="48">
         <f>F30-B30</f>
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M30" s="26">
         <f>K30/E30</f>
-        <v>1.0719933333333331</v>
+        <v>1.0862266666666667</v>
       </c>
       <c r="N30" s="26">
         <f>M30/L30*30</f>
-        <v>5.5257388316151193E-2</v>
+        <v>5.5895025728987996E-2</v>
       </c>
       <c r="O30" s="4"/>
     </row>
@@ -6793,6 +6798,9 @@
       <c r="J33"/>
     </row>
     <row r="34" spans="1:1024">
+      <c r="A34" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="C34" s="32"/>
       <c r="D34" s="43"/>
       <c r="E34" s="59"/>
@@ -6813,19 +6821,55 @@
       <c r="K35" s="45"/>
     </row>
     <row r="36" spans="1:1024">
-      <c r="A36" s="43"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="45"/>
-      <c r="J36"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
+      <c r="A36" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C36" s="28">
+        <v>22</v>
+      </c>
+      <c r="D36" s="29">
+        <v>571.10522800000001</v>
+      </c>
+      <c r="E36" s="46">
+        <f>Sayfa2!$D36*Sayfa2!$C36</f>
+        <v>12564.315016</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45357</v>
+      </c>
+      <c r="G36" s="17">
+        <v>10</v>
+      </c>
+      <c r="H36" s="18">
+        <v>580.05924800000003</v>
+      </c>
+      <c r="I36" s="19">
+        <f>Sayfa2!$H36*Sayfa2!$G36</f>
+        <v>5800.5924800000003</v>
+      </c>
+      <c r="J36" s="28">
+        <f t="shared" ref="J36" si="9">H36-D36</f>
+        <v>8.9540200000000141</v>
+      </c>
+      <c r="K36" s="47">
+        <f>Sayfa2!$J36*Sayfa2!$C36</f>
+        <v>196.98844000000031</v>
+      </c>
+      <c r="L36" s="48">
+        <f t="shared" ref="L36" si="10">F36-B36</f>
+        <v>13</v>
+      </c>
+      <c r="M36" s="26">
+        <f t="shared" ref="M36" si="11">K36/E36</f>
+        <v>1.5678406642076849E-2</v>
+      </c>
+      <c r="N36" s="26">
+        <f t="shared" ref="N36" si="12">M36/L36*30</f>
+        <v>3.618093840479273E-2</v>
+      </c>
       <c r="O36" s="43"/>
       <c r="P36" s="43"/>
       <c r="Q36" s="43"/>
@@ -7862,31 +7906,31 @@
       </c>
       <c r="H37" s="18">
         <f>H38</f>
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="I37" s="19">
         <f>Sayfa2!$H37*Sayfa2!$G37</f>
-        <v>6372.9788980000003</v>
+        <v>6380.6517280000007</v>
       </c>
       <c r="J37" s="28">
-        <f t="shared" ref="J37" si="9">H37-D37</f>
-        <v>8.2564899999999852</v>
+        <f t="shared" ref="J37" si="13">H37-D37</f>
+        <v>8.9540200000000141</v>
       </c>
       <c r="K37" s="47">
         <f>Sayfa2!$J37*Sayfa2!$C37</f>
-        <v>90.821389999999838</v>
+        <v>98.494220000000155</v>
       </c>
       <c r="L37" s="48">
-        <f t="shared" ref="L37" si="10">F37-B37</f>
+        <f t="shared" ref="L37" si="14">F37-B37</f>
         <v>12</v>
       </c>
       <c r="M37" s="26">
-        <f t="shared" ref="M37" si="11">K37/E37</f>
-        <v>1.4457038029425962E-2</v>
+        <f t="shared" ref="M37" si="15">K37/E37</f>
+        <v>1.5678406642076849E-2</v>
       </c>
       <c r="N37" s="26">
-        <f t="shared" ref="N37" si="12">M37/L37*30</f>
-        <v>3.6142595073564904E-2</v>
+        <f t="shared" ref="N37" si="16">M37/L37*30</f>
+        <v>3.9196016605192119E-2</v>
       </c>
       <c r="O37" s="43"/>
       <c r="P37" s="43"/>
@@ -8924,31 +8968,31 @@
       </c>
       <c r="H38" s="18">
         <f>H39</f>
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="I38" s="19">
         <f>Sayfa2!$H38*Sayfa2!$G38</f>
-        <v>34761.703079999999</v>
+        <v>34803.554880000003</v>
       </c>
       <c r="J38" s="28">
-        <f t="shared" ref="J38" si="13">H38-D38</f>
-        <v>0.70111499999995885</v>
+        <f t="shared" ref="J38" si="17">H38-D38</f>
+        <v>1.3986449999999877</v>
       </c>
       <c r="K38" s="47">
         <f>Sayfa2!$J38*Sayfa2!$C38</f>
-        <v>42.066899999997531</v>
+        <v>83.918699999999262</v>
       </c>
       <c r="L38" s="48">
-        <f t="shared" ref="L38" si="14">F38-B38</f>
+        <f t="shared" ref="L38" si="18">F38-B38</f>
         <v>1</v>
       </c>
       <c r="M38" s="26">
-        <f t="shared" ref="M38" si="15">K38/E38</f>
-        <v>1.2116169588271743E-3</v>
+        <f t="shared" ref="M38" si="19">K38/E38</f>
+        <v>2.4170385762377323E-3</v>
       </c>
       <c r="N38" s="26">
-        <f t="shared" ref="N38" si="16">M38/L38*30</f>
-        <v>3.6348508764815227E-2</v>
+        <f t="shared" ref="N38" si="20">M38/L38*30</f>
+        <v>7.2511157287131964E-2</v>
       </c>
       <c r="O38" s="43"/>
       <c r="P38" s="43"/>
@@ -9987,31 +10031,31 @@
       </c>
       <c r="H39" s="18">
         <f>Sayfa4!I2</f>
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="I39" s="19">
         <f>Sayfa2!$H39*Sayfa2!$G39</f>
-        <v>13904.681231999999</v>
+        <v>13921.421952000001</v>
       </c>
       <c r="J39" s="28">
-        <f t="shared" ref="J39" si="17">H39-D39</f>
-        <v>4.1463639999999486</v>
+        <f t="shared" ref="J39" si="21">H39-D39</f>
+        <v>4.8438939999999775</v>
       </c>
       <c r="K39" s="47">
         <f>Sayfa2!$J39*Sayfa2!$C39</f>
-        <v>99.512735999998768</v>
+        <v>116.25345599999946</v>
       </c>
       <c r="L39" s="48">
-        <f t="shared" ref="L39" si="18">F39-B39</f>
+        <f t="shared" ref="L39" si="22">F39-B39</f>
         <v>6</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" ref="M39" si="19">K39/E39</f>
-        <v>7.2083680853900645E-3</v>
+        <f t="shared" ref="M39" si="23">K39/E39</f>
+        <v>8.4210095685310522E-3</v>
       </c>
       <c r="N39" s="26">
-        <f t="shared" ref="N39" si="20">M39/L39*30</f>
-        <v>3.6041840426950328E-2</v>
+        <f t="shared" ref="N39" si="24">M39/L39*30</f>
+        <v>4.2105047842655258E-2</v>
       </c>
       <c r="O39" s="43"/>
       <c r="P39" s="43"/>
@@ -11043,7 +11087,7 @@
       </c>
       <c r="F40" s="2">
         <f>F20</f>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G40" s="17">
         <v>18.010000000000002</v>
@@ -11065,7 +11109,7 @@
       </c>
       <c r="L40" s="48">
         <f>F40-B40</f>
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M40" s="26">
         <f>K40/E40</f>
@@ -11073,7 +11117,7 @@
       </c>
       <c r="N40" s="26">
         <f>M40/L40*30</f>
-        <v>3.8268873678240403E-2</v>
+        <v>3.8202086813182393E-2</v>
       </c>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
@@ -13184,7 +13228,7 @@
       </c>
       <c r="F43" s="2">
         <f>F19</f>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G43" s="17">
         <v>2</v>
@@ -13197,7 +13241,7 @@
         <v>1147.671828</v>
       </c>
       <c r="J43" s="28">
-        <f t="shared" ref="J43:J51" si="21">H43-D43</f>
+        <f t="shared" ref="J43:J51" si="25">H43-D43</f>
         <v>2.7306859999999915</v>
       </c>
       <c r="K43" s="24">
@@ -13205,8 +13249,8 @@
         <v>5.461371999999983</v>
       </c>
       <c r="L43" s="48">
-        <f t="shared" ref="L43:L51" si="22">F43-B43</f>
-        <v>12</v>
+        <f t="shared" ref="L43:L51" si="26">F43-B43</f>
+        <v>13</v>
       </c>
       <c r="M43" s="26">
         <f>K43/E43</f>
@@ -13214,7 +13258,7 @@
       </c>
       <c r="N43" s="26">
         <f>M43/L43*30</f>
-        <v>1.1953515158505918E-2</v>
+        <v>1.1034013992467003E-2</v>
       </c>
       <c r="O43" s="45"/>
     </row>
@@ -13237,7 +13281,7 @@
       </c>
       <c r="F44" s="2">
         <f>F20</f>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G44" s="17">
         <v>1</v>
@@ -13250,7 +13294,7 @@
         <v>573.835914</v>
       </c>
       <c r="J44" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.7306859999999915</v>
       </c>
       <c r="K44" s="24">
@@ -13258,8 +13302,8 @@
         <v>2.7306859999999915</v>
       </c>
       <c r="L44" s="48">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" si="26"/>
+        <v>13</v>
       </c>
       <c r="M44" s="26">
         <f>K44/E44</f>
@@ -13267,7 +13311,7 @@
       </c>
       <c r="N44" s="26">
         <f>M44/L44*30</f>
-        <v>1.1953515158505918E-2</v>
+        <v>1.1034013992467003E-2</v>
       </c>
       <c r="O44" s="45"/>
     </row>
@@ -13290,7 +13334,7 @@
       </c>
       <c r="F45" s="2">
         <f>F19</f>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G45" s="17">
         <v>44</v>
@@ -13303,7 +13347,7 @@
         <v>25248.780215999999</v>
       </c>
       <c r="J45" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.7306859999999915</v>
       </c>
       <c r="K45" s="24">
@@ -13311,8 +13355,8 @@
         <v>120.15018399999963</v>
       </c>
       <c r="L45" s="48">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" si="26"/>
+        <v>13</v>
       </c>
       <c r="M45" s="26">
         <f>K45/E45</f>
@@ -13320,7 +13364,7 @@
       </c>
       <c r="N45" s="26">
         <f>M45/L45*30</f>
-        <v>1.1953515158505918E-2</v>
+        <v>1.1034013992467001E-2</v>
       </c>
       <c r="O45" s="45"/>
     </row>
@@ -13343,7 +13387,7 @@
       </c>
       <c r="F46" s="2">
         <f>F45</f>
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G46" s="17">
         <v>106</v>
@@ -13356,7 +13400,7 @@
         <v>60826.606884000001</v>
       </c>
       <c r="J46" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.7433300000000145</v>
       </c>
       <c r="K46" s="24">
@@ -13364,8 +13408,8 @@
         <v>502.79298000000153</v>
       </c>
       <c r="L46" s="48">
-        <f t="shared" si="22"/>
-        <v>15</v>
+        <f t="shared" si="26"/>
+        <v>16</v>
       </c>
       <c r="M46" s="26">
         <f>K46/E46</f>
@@ -13373,7 +13417,7 @@
       </c>
       <c r="N46" s="26">
         <f>M46/L46*30</f>
-        <v>1.6669800778848366E-2</v>
+        <v>1.5627938230170342E-2</v>
       </c>
       <c r="O46" s="45"/>
     </row>
@@ -13408,7 +13452,7 @@
         <v>36550.734592000001</v>
       </c>
       <c r="J47" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.022876999999994</v>
       </c>
       <c r="K47" s="24">
@@ -13416,7 +13460,7 @@
         <v>257.46412799999962</v>
       </c>
       <c r="L47" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="M47" s="62">
@@ -13460,7 +13504,7 @@
         <v>28555.261399999999</v>
       </c>
       <c r="J48" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>28.670726000000059</v>
       </c>
       <c r="K48" s="24">
@@ -13468,15 +13512,15 @@
         <v>1433.5363000000029</v>
       </c>
       <c r="L48" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>45</v>
       </c>
       <c r="M48" s="62">
-        <f t="shared" ref="M48:M50" si="23">K48/E48</f>
+        <f t="shared" ref="M48:M50" si="27">K48/E48</f>
         <v>5.2855645970690972E-2</v>
       </c>
       <c r="N48" s="62">
-        <f t="shared" ref="N48:N51" si="24">M48/L48*30</f>
+        <f t="shared" ref="N48:N51" si="28">M48/L48*30</f>
         <v>3.5237097313793986E-2</v>
       </c>
       <c r="O48" s="45"/>
@@ -13512,7 +13556,7 @@
         <v>28555.261399999999</v>
       </c>
       <c r="J49" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>15.155121000000008</v>
       </c>
       <c r="K49" s="24">
@@ -13520,15 +13564,15 @@
         <v>757.75605000000041</v>
       </c>
       <c r="L49" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="M49" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.7259858050535473E-2</v>
       </c>
       <c r="N49" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3.5556336587654967E-2</v>
       </c>
       <c r="O49" s="45"/>
@@ -13564,7 +13608,7 @@
         <v>9137.6836480000002</v>
       </c>
       <c r="J50" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>15.155121000000008</v>
       </c>
       <c r="K50" s="24">
@@ -13572,15 +13616,15 @@
         <v>242.48193600000013</v>
       </c>
       <c r="L50" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="M50" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.7259858050535473E-2</v>
       </c>
       <c r="N50" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3.7172533705275651E-2</v>
       </c>
       <c r="O50" s="45"/>
@@ -13616,7 +13660,7 @@
         <v>63632.9</v>
       </c>
       <c r="J51" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12.5</v>
       </c>
       <c r="K51" s="47">
@@ -13624,7 +13668,7 @@
         <v>3912.5</v>
       </c>
       <c r="L51" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="M51" s="62">
@@ -13632,7 +13676,7 @@
         <v>6.5513626834381555E-2</v>
       </c>
       <c r="N51" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.98270440251572333</v>
       </c>
       <c r="O51" s="45"/>
@@ -13696,7 +13740,7 @@
         <v>62162.411190000006</v>
       </c>
       <c r="J53" s="15">
-        <f t="shared" ref="J53:J65" si="25">H53-D53</f>
+        <f t="shared" ref="J53:J65" si="29">H53-D53</f>
         <v>24.51172100000008</v>
       </c>
       <c r="K53" s="47">
@@ -13704,7 +13748,7 @@
         <v>2696.2893100000088</v>
       </c>
       <c r="L53" s="48">
-        <f t="shared" ref="L53:L60" si="26">F53-B53</f>
+        <f t="shared" ref="L53:L60" si="30">F53-B53</f>
         <v>39</v>
       </c>
       <c r="M53" s="62">
@@ -13748,7 +13792,7 @@
         <v>1309.5</v>
       </c>
       <c r="J54" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>15.5</v>
       </c>
       <c r="K54" s="47">
@@ -13756,11 +13800,11 @@
         <v>139.5</v>
       </c>
       <c r="L54" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>112</v>
       </c>
       <c r="M54" s="62">
-        <f t="shared" ref="M54:M66" si="27">K54/E54</f>
+        <f t="shared" ref="M54:M66" si="31">K54/E54</f>
         <v>0.11923076923076924</v>
       </c>
       <c r="N54" s="62">
@@ -13800,7 +13844,7 @@
         <v>1455</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.4989999999999952</v>
       </c>
       <c r="K55" s="47">
@@ -13808,11 +13852,11 @@
         <v>14.989999999999952</v>
       </c>
       <c r="L55" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>63</v>
       </c>
       <c r="M55" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.0409649932986544E-2</v>
       </c>
       <c r="N55" s="62">
@@ -13852,7 +13896,7 @@
         <v>2910</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>30.159999999999997</v>
       </c>
       <c r="K56" s="47">
@@ -13860,11 +13904,11 @@
         <v>603.19999999999993</v>
       </c>
       <c r="L56" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>46</v>
       </c>
       <c r="M56" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.26148777527310557</v>
       </c>
       <c r="N56" s="62">
@@ -13904,7 +13948,7 @@
         <v>5644.5009800000007</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>8.4999910000000227</v>
       </c>
       <c r="K57" s="47">
@@ -13912,11 +13956,11 @@
         <v>84.999910000000227</v>
       </c>
       <c r="L57" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="M57" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.5289125576155384E-2</v>
       </c>
       <c r="N57" s="62">
@@ -13956,7 +14000,7 @@
         <v>25752.357421999997</v>
       </c>
       <c r="J58" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.8837499999999636</v>
       </c>
       <c r="K58" s="47">
@@ -13964,11 +14008,11 @@
         <v>178.65249999999833</v>
       </c>
       <c r="L58" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="M58" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>6.9857887445284065E-3</v>
       </c>
       <c r="N58" s="62">
@@ -14008,7 +14052,7 @@
         <v>520</v>
       </c>
       <c r="J59" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.8200000000000003</v>
       </c>
       <c r="K59" s="47">
@@ -14016,11 +14060,11 @@
         <v>28.200000000000003</v>
       </c>
       <c r="L59" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="M59" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>5.7340382269215132E-2</v>
       </c>
       <c r="N59" s="62">
@@ -14060,7 +14104,7 @@
         <v>540.80000000000007</v>
       </c>
       <c r="J60" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>13.3</v>
       </c>
       <c r="K60" s="47">
@@ -14068,7 +14112,7 @@
         <v>172.9</v>
       </c>
       <c r="L60" s="66">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>46</v>
       </c>
       <c r="M60" s="62">
@@ -14112,7 +14156,7 @@
         <v>1336.3999999999999</v>
       </c>
       <c r="J61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-3.6799999999999997</v>
       </c>
       <c r="K61" s="47">
@@ -14121,7 +14165,7 @@
       </c>
       <c r="L61" s="35"/>
       <c r="M61" s="108">
-        <f t="shared" ref="M61:M62" si="28">K61/E61</f>
+        <f t="shared" ref="M61:M62" si="32">K61/E61</f>
         <v>-6.6811909949164847E-2</v>
       </c>
       <c r="N61" s="62"/>
@@ -14158,7 +14202,7 @@
         <v>5140</v>
       </c>
       <c r="J62" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11.899999999999999</v>
       </c>
       <c r="K62" s="47">
@@ -14170,11 +14214,11 @@
         <v>25</v>
       </c>
       <c r="M62" s="62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.30126582278481007</v>
       </c>
       <c r="N62" s="62">
-        <f t="shared" ref="N62:N63" si="29">M62/L62*30</f>
+        <f t="shared" ref="N62:N63" si="33">M62/L62*30</f>
         <v>0.36151898734177207</v>
       </c>
       <c r="O62" s="45"/>
@@ -14210,7 +14254,7 @@
         <v>5587.7282999999998</v>
       </c>
       <c r="J63" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.41840300000000141</v>
       </c>
       <c r="K63" s="47">
@@ -14222,11 +14266,11 @@
         <v>21</v>
       </c>
       <c r="M63" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.2979885384798907E-2</v>
       </c>
       <c r="N63" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>3.2828407692569866E-2</v>
       </c>
       <c r="O63" s="45"/>
@@ -14262,7 +14306,7 @@
         <v>5387.89707</v>
       </c>
       <c r="J64" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>14.89983600000005</v>
       </c>
       <c r="K64" s="47">
@@ -14274,7 +14318,7 @@
         <v>26</v>
       </c>
       <c r="M64" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.8440778920881354E-2</v>
       </c>
       <c r="N64" s="62">
@@ -14315,7 +14359,7 @@
         <v>15086.111796000001</v>
       </c>
       <c r="J65" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11.57746700000007</v>
       </c>
       <c r="K65" s="47">
@@ -14327,7 +14371,7 @@
         <v>20</v>
       </c>
       <c r="M65" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.1959784165860925E-2</v>
       </c>
       <c r="N65" s="62">
@@ -14379,7 +14423,7 @@
         <v>22</v>
       </c>
       <c r="M66" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.4255514249821006E-2</v>
       </c>
       <c r="N66" s="62">
@@ -14520,10 +14564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E833796-0219-408B-99C0-FA7EE694BB58}">
-  <dimension ref="A2:V17"/>
+  <dimension ref="A2:V19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14551,39 +14595,39 @@
     <row r="2" spans="1:22">
       <c r="A2" s="109">
         <f>A5</f>
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="K2">
         <f>K5</f>
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="M2">
         <f>M5</f>
-        <v>38.15</v>
+        <v>34.32</v>
       </c>
       <c r="O2">
         <f>O5</f>
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="Q2">
         <f>Q5</f>
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="S2">
         <f>S5</f>
@@ -14637,65 +14681,61 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="109">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B5" s="111">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="D5">
-        <f>D7</f>
+        <f>D9</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="F5">
-        <f>F7</f>
+        <f>F9</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="H5">
-        <f>H7</f>
+        <f>H9</f>
         <v>57</v>
       </c>
       <c r="I5">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="J5">
-        <f>J7</f>
+        <f>J9</f>
         <v>125000</v>
       </c>
       <c r="K5">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="L5">
-        <f>L7</f>
+        <f>L9</f>
         <v>36</v>
       </c>
       <c r="M5">
-        <v>38.15</v>
-      </c>
-      <c r="N5">
-        <f>N7</f>
-        <v>12</v>
+        <v>34.32</v>
       </c>
       <c r="O5">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="P5">
-        <f>P7</f>
+        <f>P9</f>
         <v>15</v>
       </c>
       <c r="Q5">
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="R5">
-        <f>R7</f>
+        <f>R9</f>
         <v>15</v>
       </c>
       <c r="S5">
@@ -14703,147 +14743,145 @@
       </c>
       <c r="T5" s="133">
         <f>(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(J5*K5)+(L5*M5)+(N5*O5)+(P5*Q5)+(R5*S5)</f>
-        <v>548782.36210899998</v>
+        <v>551556.54907099996</v>
       </c>
       <c r="U5">
         <v>8907</v>
       </c>
       <c r="V5">
-        <v>154.22999999999999</v>
+        <v>156.16</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="109">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B6" s="111">
         <v>161</v>
       </c>
       <c r="C6">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="D6">
-        <f>D8</f>
+        <f>D10</f>
         <v>1110</v>
       </c>
       <c r="E6">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="F6">
-        <f>F8</f>
+        <f>F10</f>
         <v>321.99</v>
       </c>
       <c r="G6">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="H6">
-        <f>H8</f>
+        <f>H10</f>
         <v>57</v>
       </c>
       <c r="I6">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="J6">
-        <f>J8</f>
+        <f>J10</f>
         <v>125000</v>
       </c>
       <c r="K6">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="L6">
-        <f>L8</f>
+        <f>L10</f>
         <v>36</v>
       </c>
       <c r="M6">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="N6">
-        <f>N8</f>
-        <v>12</v>
+        <v>34.32</v>
       </c>
       <c r="O6">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="P6">
-        <f>P8</f>
+        <f>P10</f>
         <v>15</v>
       </c>
       <c r="Q6">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="R6">
-        <f>R8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S6">
         <v>11.33</v>
       </c>
       <c r="T6" s="133">
         <f>(B6*C6)+(D6*E6)+(F6*G6)+(H6*I6)+(J6*K6)+(L6*M6)+(N6*O6)+(P6*Q6)+(R6*S6)</f>
-        <v>544279.30954799987</v>
+        <v>551556.54907099996</v>
       </c>
       <c r="U6">
-        <v>9101</v>
+        <v>8907</v>
+      </c>
+      <c r="V6">
+        <v>156.16</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="109">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B7" s="111">
         <v>161</v>
       </c>
       <c r="C7">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="D7">
-        <f>D8</f>
+        <f>D10</f>
         <v>1110</v>
       </c>
       <c r="E7">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="F7">
-        <f>F8</f>
+        <f>F10</f>
         <v>321.99</v>
       </c>
       <c r="G7">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="H7">
-        <f>H8</f>
+        <f>H10</f>
         <v>57</v>
       </c>
       <c r="I7">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="J7">
-        <f>J8</f>
+        <f>J10</f>
         <v>125000</v>
       </c>
       <c r="K7">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="L7">
-        <f>L8</f>
+        <f>L10</f>
         <v>36</v>
       </c>
       <c r="M7">
-        <v>31.52</v>
+        <v>38.15</v>
       </c>
       <c r="N7">
-        <f>N8</f>
+        <f>N10</f>
         <v>12</v>
       </c>
       <c r="O7">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="P7">
-        <f>P8</f>
+        <f>P10</f>
         <v>15</v>
       </c>
       <c r="Q7">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="R7">
         <v>15</v>
@@ -14853,81 +14891,91 @@
       </c>
       <c r="T7" s="133">
         <f>(B7*C7)+(D7*E7)+(F7*G7)+(H7*I7)+(J7*K7)+(L7*M7)+(N7*O7)+(P7*Q7)+(R7*S7)</f>
-        <v>534214.0141899999</v>
+        <v>548782.36210899998</v>
       </c>
       <c r="U7">
-        <v>9193.69</v>
+        <v>8907</v>
+      </c>
+      <c r="V7">
+        <v>154.22999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="109">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B8" s="111">
         <v>161</v>
       </c>
       <c r="C8">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="D8">
-        <f>D9</f>
+        <f>D10</f>
         <v>1110</v>
       </c>
       <c r="E8">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="F8">
-        <f>F9</f>
+        <f>F10</f>
         <v>321.99</v>
       </c>
       <c r="G8">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="H8">
-        <f>H9</f>
+        <f>H10</f>
         <v>57</v>
       </c>
       <c r="I8">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="J8">
-        <f>J9</f>
+        <f>J10</f>
         <v>125000</v>
       </c>
       <c r="K8">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="L8">
-        <f>L9</f>
+        <f>L10</f>
         <v>36</v>
       </c>
       <c r="M8">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="N8">
-        <f>N9</f>
+        <f>N10</f>
         <v>12</v>
       </c>
       <c r="O8">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="P8">
+        <f>P10</f>
         <v>15</v>
       </c>
       <c r="Q8">
-        <v>39.24</v>
+        <v>47.46</v>
+      </c>
+      <c r="R8">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <v>11.33</v>
       </c>
       <c r="T8" s="133">
-        <f t="shared" ref="T8:T14" si="0">(B8*C8)+(D8*E8)+(F8*G8)+(H8*I8)+(J8*K8)+(L8*M8)+(N8*O8)+(P8*Q8)+(R8*S8)</f>
-        <v>530894.48918999999</v>
+        <f>(B8*C8)+(D8*E8)+(F8*G8)+(H8*I8)+(J8*K8)+(L8*M8)+(N8*O8)+(P8*Q8)+(R8*S8)</f>
+        <v>544449.25954799983</v>
       </c>
       <c r="U8">
-        <v>9100.27</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="109">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B9" s="111">
         <v>161</v>
@@ -14936,18 +14984,21 @@
         <v>2018.91</v>
       </c>
       <c r="D9">
+        <f>D10</f>
         <v>1110</v>
       </c>
       <c r="E9">
         <v>30.7361</v>
       </c>
       <c r="F9">
+        <f>F10</f>
         <v>321.99</v>
       </c>
       <c r="G9">
         <v>33.225700000000003</v>
       </c>
       <c r="H9">
+        <f>H10</f>
         <v>57</v>
       </c>
       <c r="I9">
@@ -14958,123 +15009,259 @@
         <v>125000</v>
       </c>
       <c r="K9">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="L9">
         <f>L10</f>
         <v>36</v>
       </c>
       <c r="M9">
+        <v>31.52</v>
+      </c>
+      <c r="N9">
+        <f>N10</f>
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>23.5</v>
+      </c>
+      <c r="P9">
+        <f>P10</f>
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>43.16</v>
+      </c>
+      <c r="R9">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <v>11.33</v>
+      </c>
+      <c r="T9" s="133">
+        <f>(B9*C9)+(D9*E9)+(F9*G9)+(H9*I9)+(J9*K9)+(L9*M9)+(N9*O9)+(P9*Q9)+(R9*S9)</f>
+        <v>534214.0141899999</v>
+      </c>
+      <c r="U9">
+        <v>9193.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="109">
+        <v>45351</v>
+      </c>
+      <c r="B10" s="111">
+        <v>161</v>
+      </c>
+      <c r="C10">
+        <v>2018.91</v>
+      </c>
+      <c r="D10">
+        <f>D11</f>
+        <v>1110</v>
+      </c>
+      <c r="E10">
+        <v>30.7361</v>
+      </c>
+      <c r="F10">
+        <f>F11</f>
+        <v>321.99</v>
+      </c>
+      <c r="G10">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H10">
+        <f>H11</f>
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="J10">
+        <f>J11</f>
+        <v>125000</v>
+      </c>
+      <c r="K10">
+        <v>1.010337</v>
+      </c>
+      <c r="L10">
+        <f>L11</f>
+        <v>36</v>
+      </c>
+      <c r="M10">
+        <v>28.66</v>
+      </c>
+      <c r="N10">
+        <f>N11</f>
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>21.38</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <v>39.24</v>
+      </c>
+      <c r="T10" s="133">
+        <f t="shared" ref="T10:T16" si="0">(B10*C10)+(D10*E10)+(F10*G10)+(H10*I10)+(J10*K10)+(L10*M10)+(N10*O10)+(P10*Q10)+(R10*S10)</f>
+        <v>530894.48918999999</v>
+      </c>
+      <c r="U10">
+        <v>9100.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="109">
+        <v>45350</v>
+      </c>
+      <c r="B11" s="111">
+        <v>161</v>
+      </c>
+      <c r="C11">
+        <v>2018.91</v>
+      </c>
+      <c r="D11">
+        <v>1110</v>
+      </c>
+      <c r="E11">
+        <v>30.7361</v>
+      </c>
+      <c r="F11">
+        <v>321.99</v>
+      </c>
+      <c r="G11">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H11">
+        <v>57</v>
+      </c>
+      <c r="I11">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="J11">
+        <f>J12</f>
+        <v>125000</v>
+      </c>
+      <c r="K11">
+        <v>1.067704</v>
+      </c>
+      <c r="L11">
+        <f>L12</f>
+        <v>36</v>
+      </c>
+      <c r="M11">
         <v>26.06</v>
       </c>
-      <c r="N9">
+      <c r="N11">
         <v>12</v>
       </c>
-      <c r="O9">
+      <c r="O11">
         <v>19.45</v>
       </c>
-      <c r="T9" s="133">
+      <c r="T11" s="133">
         <f t="shared" si="0"/>
         <v>537360.00419000001</v>
       </c>
-      <c r="U9">
+      <c r="U11">
         <v>9184.6299999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="J10">
+    <row r="12" spans="1:22">
+      <c r="J12">
         <v>125000</v>
       </c>
-      <c r="K10">
+      <c r="K12">
         <v>1.064435</v>
       </c>
-      <c r="L10">
+      <c r="L12">
         <v>36</v>
       </c>
-      <c r="M10">
+      <c r="M12">
         <v>23.7</v>
       </c>
-      <c r="T10" s="133">
+      <c r="T12" s="133">
         <f t="shared" si="0"/>
         <v>133907.57500000001</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="J11">
-        <f>J12</f>
+    <row r="13" spans="1:22">
+      <c r="J13">
+        <f>J14</f>
         <v>50000</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>1.0192399999999999</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>36</v>
       </c>
-      <c r="M11">
+      <c r="M13">
         <v>21.56</v>
       </c>
-      <c r="T11" s="133">
+      <c r="T13" s="133">
         <f t="shared" si="0"/>
         <v>51738.159999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="J12">
+    <row r="14" spans="1:22">
+      <c r="J14">
         <v>50000</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <v>1.0032049999999999</v>
       </c>
-      <c r="L12">
+      <c r="L14">
         <v>36</v>
       </c>
-      <c r="M12">
+      <c r="M14">
         <v>19.600000000000001</v>
       </c>
-      <c r="T12" s="133">
+      <c r="T14" s="133">
         <f t="shared" si="0"/>
         <v>50865.849999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="L13">
+    <row r="15" spans="1:22">
+      <c r="L15">
         <v>36</v>
       </c>
-      <c r="M13">
+      <c r="M15">
         <v>17.82</v>
       </c>
-      <c r="T13" s="133">
+      <c r="T15" s="133">
         <f t="shared" si="0"/>
         <v>641.52</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="L14">
+    <row r="16" spans="1:22">
+      <c r="L16">
         <v>36</v>
       </c>
-      <c r="M14">
+      <c r="M16">
         <v>15.3</v>
       </c>
-      <c r="T14" s="133">
+      <c r="T16" s="133">
         <f t="shared" si="0"/>
         <v>550.80000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="M15" t="s">
+    <row r="17" spans="12:13">
+      <c r="M17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="L16" t="s">
+    <row r="18" spans="12:13">
+      <c r="L18" t="s">
         <v>73</v>
       </c>
-      <c r="M16">
+      <c r="M18">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="13:13">
-      <c r="M17" s="138">
+    <row r="19" spans="12:13">
+      <c r="M19" s="138">
         <f>Sayfa2!M41</f>
         <v>1.3456790123456792</v>
       </c>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D6C7E-FAD4-4A93-AC04-46C559B8A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD6CF42-346A-48B8-A675-368F97002DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
@@ -1744,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ83"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -11055,7 +11055,7 @@
         <v>1309.5</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" ref="J38:J68" si="9">H39-D39</f>
+        <f t="shared" ref="J39:J68" si="9">H39-D39</f>
         <v>15.5</v>
       </c>
       <c r="K39" s="43">
@@ -11063,7 +11063,7 @@
         <v>139.5</v>
       </c>
       <c r="L39" s="44">
-        <f t="shared" ref="L38:L45" si="10">F39-B39</f>
+        <f t="shared" ref="L39:L45" si="10">F39-B39</f>
         <v>112</v>
       </c>
       <c r="M39" s="143">
@@ -18851,7 +18851,7 @@
         <v>1147.671828</v>
       </c>
       <c r="J55" s="26">
-        <f>H55-D55</f>
+        <f t="shared" ref="J55:J65" si="30">H55-D55</f>
         <v>2.7306859999999915</v>
       </c>
       <c r="K55" s="24">
@@ -18859,7 +18859,7 @@
         <v>5.461371999999983</v>
       </c>
       <c r="L55" s="44">
-        <f>F55-B55</f>
+        <f t="shared" ref="L55:L68" si="31">F55-B55</f>
         <v>3</v>
       </c>
       <c r="M55" s="143">
@@ -18867,7 +18867,7 @@
         <v>4.7814060634023678E-3</v>
       </c>
       <c r="N55" s="143">
-        <f>M55/L55*30</f>
+        <f t="shared" ref="N55:N62" si="32">M55/L55*30</f>
         <v>4.7814060634023672E-2</v>
       </c>
       <c r="O55" s="149"/>
@@ -19912,7 +19912,7 @@
         <v>573.835914</v>
       </c>
       <c r="J56" s="26">
-        <f>H56-D56</f>
+        <f t="shared" si="30"/>
         <v>2.7306859999999915</v>
       </c>
       <c r="K56" s="24">
@@ -19920,7 +19920,7 @@
         <v>2.7306859999999915</v>
       </c>
       <c r="L56" s="44">
-        <f>F56-B56</f>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="M56" s="143">
@@ -19928,7 +19928,7 @@
         <v>4.7814060634023678E-3</v>
       </c>
       <c r="N56" s="143">
-        <f>M56/L56*30</f>
+        <f t="shared" si="32"/>
         <v>2.3907030317011836E-2</v>
       </c>
       <c r="O56" s="149"/>
@@ -20973,7 +20973,7 @@
         <v>25248.780215999999</v>
       </c>
       <c r="J57" s="26">
-        <f>H57-D57</f>
+        <f t="shared" si="30"/>
         <v>2.7306859999999915</v>
       </c>
       <c r="K57" s="24">
@@ -20981,7 +20981,7 @@
         <v>120.15018399999963</v>
       </c>
       <c r="L57" s="44">
-        <f>F57-B57</f>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="M57" s="143">
@@ -20989,7 +20989,7 @@
         <v>4.7814060634023669E-3</v>
       </c>
       <c r="N57" s="143">
-        <f>M57/L57*30</f>
+        <f t="shared" si="32"/>
         <v>2.3907030317011836E-2</v>
       </c>
       <c r="O57" s="149"/>
@@ -22034,7 +22034,7 @@
         <v>60826.606884000001</v>
       </c>
       <c r="J58" s="26">
-        <f>H58-D58</f>
+        <f t="shared" si="30"/>
         <v>4.7433300000000145</v>
       </c>
       <c r="K58" s="24">
@@ -22042,7 +22042,7 @@
         <v>502.79298000000153</v>
       </c>
       <c r="L58" s="44">
-        <f>F58-B58</f>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="M58" s="143">
@@ -22050,7 +22050,7 @@
         <v>8.3349003894241831E-3</v>
       </c>
       <c r="N58" s="143">
-        <f>M58/L58*30</f>
+        <f t="shared" si="32"/>
         <v>2.778300129808061E-2</v>
       </c>
       <c r="O58" s="149"/>
@@ -23095,7 +23095,7 @@
         <v>36550.734592000001</v>
       </c>
       <c r="J59" s="26">
-        <f>H59-D59</f>
+        <f t="shared" si="30"/>
         <v>4.022876999999994</v>
       </c>
       <c r="K59" s="24">
@@ -23103,7 +23103,7 @@
         <v>257.46412799999962</v>
       </c>
       <c r="L59" s="44">
-        <f>F59-B59</f>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="M59" s="143">
@@ -23111,7 +23111,7 @@
         <v>7.0939908337933691E-3</v>
       </c>
       <c r="N59" s="143">
-        <f>M59/L59*30</f>
+        <f t="shared" si="32"/>
         <v>3.5469954168966845E-2</v>
       </c>
       <c r="O59" s="149"/>
@@ -24156,7 +24156,7 @@
         <v>28555.261399999999</v>
       </c>
       <c r="J60" s="26">
-        <f>H60-D60</f>
+        <f t="shared" si="30"/>
         <v>28.670726000000059</v>
       </c>
       <c r="K60" s="24">
@@ -24164,15 +24164,15 @@
         <v>1433.5363000000029</v>
       </c>
       <c r="L60" s="44">
-        <f>F60-B60</f>
+        <f t="shared" si="31"/>
         <v>45</v>
       </c>
       <c r="M60" s="143">
-        <f t="shared" ref="M60:M62" si="30">K60/E60</f>
+        <f t="shared" ref="M60:M62" si="33">K60/E60</f>
         <v>5.2855645970690972E-2</v>
       </c>
       <c r="N60" s="143">
-        <f>M60/L60*30</f>
+        <f t="shared" si="32"/>
         <v>3.5237097313793986E-2</v>
       </c>
       <c r="O60" s="149"/>
@@ -25217,7 +25217,7 @@
         <v>28555.261399999999</v>
       </c>
       <c r="J61" s="26">
-        <f>H61-D61</f>
+        <f t="shared" si="30"/>
         <v>15.155121000000008</v>
       </c>
       <c r="K61" s="24">
@@ -25225,15 +25225,15 @@
         <v>757.75605000000041</v>
       </c>
       <c r="L61" s="44">
-        <f>F61-B61</f>
+        <f t="shared" si="31"/>
         <v>23</v>
       </c>
       <c r="M61" s="143">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2.7259858050535473E-2</v>
       </c>
       <c r="N61" s="143">
-        <f>M61/L61*30</f>
+        <f t="shared" si="32"/>
         <v>3.5556336587654967E-2</v>
       </c>
       <c r="O61" s="149"/>
@@ -26278,7 +26278,7 @@
         <v>9137.6836480000002</v>
       </c>
       <c r="J62" s="26">
-        <f>H62-D62</f>
+        <f t="shared" si="30"/>
         <v>15.155121000000008</v>
       </c>
       <c r="K62" s="24">
@@ -26286,15 +26286,15 @@
         <v>242.48193600000013</v>
       </c>
       <c r="L62" s="44">
-        <f>F62-B62</f>
+        <f t="shared" si="31"/>
         <v>22</v>
       </c>
       <c r="M62" s="143">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2.7259858050535473E-2</v>
       </c>
       <c r="N62" s="143">
-        <f>M62/L62*30</f>
+        <f t="shared" si="32"/>
         <v>3.7172533705275651E-2</v>
       </c>
       <c r="O62" s="149"/>
@@ -27339,7 +27339,7 @@
         <v>62162.411190000006</v>
       </c>
       <c r="J63" s="15">
-        <f>H63-D63</f>
+        <f t="shared" si="30"/>
         <v>24.51172100000008</v>
       </c>
       <c r="K63" s="43">
@@ -27347,7 +27347,7 @@
         <v>2696.2893100000088</v>
       </c>
       <c r="L63" s="44">
-        <f>F63-B63</f>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
       <c r="M63" s="143">
@@ -28400,7 +28400,7 @@
         <v>5644.5009800000007</v>
       </c>
       <c r="J64" s="15">
-        <f>H64-D64</f>
+        <f t="shared" si="30"/>
         <v>8.4999910000000227</v>
       </c>
       <c r="K64" s="43">
@@ -28408,7 +28408,7 @@
         <v>84.999910000000227</v>
       </c>
       <c r="L64" s="44">
-        <f>F64-B64</f>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="M64" s="143">
@@ -29461,7 +29461,7 @@
         <v>25752.357421999997</v>
       </c>
       <c r="J65" s="41">
-        <f>H65-D65</f>
+        <f t="shared" si="30"/>
         <v>3.8837499999999636</v>
       </c>
       <c r="K65" s="43">
@@ -29469,7 +29469,7 @@
         <v>178.65249999999833</v>
       </c>
       <c r="L65" s="44">
-        <f>F65-B65</f>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="M65" s="143">
@@ -30530,7 +30530,7 @@
         <v>125.52090000000042</v>
       </c>
       <c r="L66" s="1">
-        <f>F66-B66</f>
+        <f t="shared" si="31"/>
         <v>21</v>
       </c>
       <c r="M66" s="143">
@@ -30582,7 +30582,7 @@
         <v>148.9983600000005</v>
       </c>
       <c r="L67" s="1">
-        <f>F67-B67</f>
+        <f t="shared" si="31"/>
         <v>26</v>
       </c>
       <c r="M67" s="143">
@@ -30635,7 +30635,7 @@
         <v>324.16907600000195</v>
       </c>
       <c r="L68" s="1">
-        <f>F68-B68</f>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="M68" s="143">
@@ -30835,10 +30835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E833796-0219-408B-99C0-FA7EE694BB58}">
-  <dimension ref="A2:V23"/>
+  <dimension ref="A2:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30859,7 +30859,7 @@
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="126" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31071,15 +31071,14 @@
         <v>63.1</v>
       </c>
       <c r="R6">
-        <f>R11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S6">
         <v>12.46</v>
       </c>
       <c r="T6" s="126">
         <f t="shared" si="0"/>
-        <v>550088.09212000004</v>
+        <v>550274.99212000007</v>
       </c>
       <c r="U6">
         <v>9054.18</v>
@@ -31641,7 +31640,7 @@
         <v>17.82</v>
       </c>
     </row>
-    <row r="17" spans="11:13">
+    <row r="17" spans="11:19">
       <c r="K17">
         <v>0.93849000000000005</v>
       </c>
@@ -31652,7 +31651,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="18" spans="11:13">
+    <row r="18" spans="11:19">
       <c r="K18">
         <v>0.91198999999999997</v>
       </c>
@@ -31660,7 +31659,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="11:13">
+    <row r="19" spans="11:19">
       <c r="K19">
         <v>0.90268000000000004</v>
       </c>
@@ -31668,7 +31667,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="11:13">
+    <row r="20" spans="11:19">
       <c r="K20">
         <v>0.89847999999999995</v>
       </c>
@@ -31679,7 +31678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="11:13">
+    <row r="21" spans="11:19">
       <c r="K21">
         <v>0.88783999999999996</v>
       </c>
@@ -31687,19 +31686,57 @@
         <f>Sayfa2!M37</f>
         <v>1.3456790123456792</v>
       </c>
+      <c r="O21" s="131">
+        <f>(O2-O12)/O12</f>
+        <v>0.94344473007712071</v>
+      </c>
+      <c r="Q21" s="131">
+        <f>(Q2-Q11)/Q11</f>
+        <v>0.4717125382262996</v>
+      </c>
+      <c r="S21" s="131">
+        <f>(S2-S10)/S10</f>
+        <v>0.20917917034421882</v>
+      </c>
     </row>
-    <row r="22" spans="11:13">
+    <row r="22" spans="11:19">
       <c r="K22">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="23" spans="11:13">
+    <row r="23" spans="11:19">
       <c r="L23" s="135" t="s">
         <v>227</v>
       </c>
       <c r="M23" s="135">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
+      </c>
+      <c r="O23">
+        <f>O12*O21</f>
+        <v>18.349999999999998</v>
+      </c>
+      <c r="Q23">
+        <f>Q11*Q21</f>
+        <v>18.509999999999998</v>
+      </c>
+      <c r="S23">
+        <f>S10*S21</f>
+        <v>2.3699999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="11:19">
+      <c r="O24">
+        <f>O23+O12</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="Q24">
+        <f>Q23+Q11</f>
+        <v>57.75</v>
+      </c>
+      <c r="S24">
+        <f>S23+S10</f>
+        <v>13.7</v>
       </c>
     </row>
   </sheetData>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD6CF42-346A-48B8-A675-368F97002DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F1D55C-7813-4E90-BD68-9F41EF43C682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="230">
   <si>
     <t>ev elektrik</t>
   </si>
@@ -749,7 +749,7 @@
     <numFmt numFmtId="174" formatCode="0.0000%"/>
     <numFmt numFmtId="175" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -878,6 +878,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans1"/>
@@ -1115,7 +1122,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1315,6 +1322,16 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="14" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1744,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1784,11 +1801,11 @@
     </row>
     <row r="2" spans="1:1024">
       <c r="B2" s="130">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="K2" s="12">
         <f>SUM(K5:K6)</f>
-        <v>250356.67614699999</v>
+        <v>257121.570087</v>
       </c>
     </row>
     <row r="3" spans="1:1024">
@@ -1801,13 +1818,13 @@
     <row r="4" spans="1:1024">
       <c r="B4" s="3">
         <f>B2-B3</f>
-        <v>1556</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="5" spans="1:1024">
       <c r="B5" s="3">
         <f>K2/B4</f>
-        <v>160.89760677827763</v>
+        <v>164.92724187748556</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>28</v>
@@ -1818,23 +1835,23 @@
       </c>
       <c r="I5" s="23">
         <f>SUBTOTAL(109,I10:I28)</f>
-        <v>0</v>
+        <v>1365.3</v>
       </c>
       <c r="K5" s="152">
         <f>SUBTOTAL(109,K10:K28)</f>
-        <v>235261.39875999998</v>
+        <v>242026.29269999999</v>
       </c>
       <c r="L5" s="25">
         <f>K5/E5</f>
-        <v>0.81172845587052445</v>
+        <v>0.83506954344794693</v>
       </c>
       <c r="M5" s="143">
         <f>SUBTOTAL(101,M10:M20)</f>
-        <v>0.27247652618377871</v>
+        <v>0.32499871619178555</v>
       </c>
       <c r="N5" s="143">
         <f>SUBTOTAL(101,N10:N20)</f>
-        <v>0.49762949263055312</v>
+        <v>0.49624465183179756</v>
       </c>
     </row>
     <row r="6" spans="1:1024">
@@ -2983,7 +3000,7 @@
       <c r="N10" s="142"/>
       <c r="O10" s="151">
         <f>SUM(O11:O27)</f>
-        <v>235261.39875999995</v>
+        <v>242026.29269999996</v>
       </c>
     </row>
     <row r="11" spans="1:1024">
@@ -4017,19 +4034,19 @@
       <c r="B13" s="2">
         <v>45350</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="26">
         <v>68</v>
       </c>
-      <c r="D13" s="129">
+      <c r="D13" s="27">
         <v>11.33</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="34">
         <f>Sayfa2!$D13*Sayfa2!$C13</f>
         <v>770.44</v>
       </c>
       <c r="F13" s="136">
-        <f>B2</f>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G13" s="137"/>
       <c r="H13" s="138">
@@ -4049,7 +4066,7 @@
       </c>
       <c r="L13" s="44">
         <f t="shared" ref="L13" si="1">F13-B13</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M13" s="143">
         <f t="shared" ref="M13" si="2">K13/E13</f>
@@ -4057,7 +4074,7 @@
       </c>
       <c r="N13" s="143">
         <f t="shared" ref="N13" si="3">M13/L13*30</f>
-        <v>0.32362459546925559</v>
+        <v>0.24271844660194167</v>
       </c>
       <c r="O13" s="148"/>
       <c r="P13" s="39"/>
@@ -5071,106 +5088,106 @@
       <c r="AMJ13" s="39"/>
     </row>
     <row r="14" spans="1:1024">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="45">
         <v>45344</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="128">
         <v>15</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="129">
         <v>39.24</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="43">
         <f>Sayfa2!$D14*Sayfa2!$C14</f>
         <v>588.6</v>
       </c>
-      <c r="F14" s="136">
-        <f>F13</f>
-        <v>45359</v>
-      </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="138">
-        <f>Sayfa4!Q2</f>
-        <v>57.75</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="F14" s="154">
+        <v>45362</v>
+      </c>
+      <c r="G14" s="155">
+        <v>15</v>
+      </c>
+      <c r="H14" s="156">
+        <v>55.5</v>
+      </c>
+      <c r="I14" s="157">
         <f>Sayfa2!$H14*Sayfa2!$G14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
+        <v>832.5</v>
+      </c>
+      <c r="J14" s="128">
         <f t="shared" ref="J14:J25" si="4">H14-D14</f>
-        <v>18.509999999999998</v>
+        <v>16.259999999999998</v>
       </c>
       <c r="K14" s="43">
         <f>Sayfa2!$J14*Sayfa2!$C14</f>
-        <v>277.64999999999998</v>
-      </c>
-      <c r="L14" s="44">
+        <v>243.89999999999998</v>
+      </c>
+      <c r="L14" s="158">
         <f t="shared" ref="L14:L25" si="5">F14-B14</f>
-        <v>15</v>
-      </c>
-      <c r="M14" s="143">
+        <v>18</v>
+      </c>
+      <c r="M14" s="159">
         <f t="shared" ref="M14:M25" si="6">K14/E14</f>
-        <v>0.47171253822629966</v>
-      </c>
-      <c r="N14" s="143">
+        <v>0.41437308868501521</v>
+      </c>
+      <c r="N14" s="159">
         <f t="shared" ref="N14:N25" si="7">M14/L14*30</f>
-        <v>0.94342507645259932</v>
+        <v>0.69062181447502535</v>
       </c>
       <c r="O14" s="148"/>
     </row>
     <row r="15" spans="1:1024">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="45">
         <v>45344</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="128">
         <v>12</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="129">
         <v>19.45</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="43">
         <f>Sayfa2!$D15*Sayfa2!$C15</f>
         <v>233.39999999999998</v>
       </c>
-      <c r="F15" s="136">
-        <f t="shared" ref="F15:F27" si="8">F14</f>
-        <v>45359</v>
-      </c>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138">
-        <f>Sayfa4!O2</f>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="F15" s="154">
+        <v>45362</v>
+      </c>
+      <c r="G15" s="155">
+        <v>12</v>
+      </c>
+      <c r="H15" s="156">
+        <v>44.4</v>
+      </c>
+      <c r="I15" s="157">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="26">
+        <v>532.79999999999995</v>
+      </c>
+      <c r="J15" s="128">
         <f t="shared" si="4"/>
-        <v>18.349999999999998</v>
+        <v>24.95</v>
       </c>
       <c r="K15" s="43">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>220.2</v>
-      </c>
-      <c r="L15" s="44">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="L15" s="158">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="M15" s="143">
+        <v>18</v>
+      </c>
+      <c r="M15" s="159">
         <f t="shared" si="6"/>
-        <v>0.94344473007712082</v>
-      </c>
-      <c r="N15" s="143">
+        <v>1.282776349614396</v>
+      </c>
+      <c r="N15" s="159">
         <f t="shared" si="7"/>
-        <v>1.8868894601542414</v>
+        <v>2.1379605826906598</v>
       </c>
       <c r="O15" s="148"/>
     </row>
@@ -5192,13 +5209,13 @@
         <v>79832.625</v>
       </c>
       <c r="F16" s="136">
-        <f t="shared" si="8"/>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G16" s="137"/>
       <c r="H16" s="138">
         <f>Sayfa4!K2</f>
-        <v>0.99115900000000001</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="I16" s="19">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
@@ -5206,23 +5223,23 @@
       </c>
       <c r="J16" s="26">
         <f>H16-D16</f>
-        <v>-7.3276000000000008E-2</v>
+        <v>-6.5915100000000004E-2</v>
       </c>
       <c r="K16" s="43">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-5495.7000000000007</v>
+        <v>-4943.6325000000006</v>
       </c>
       <c r="L16" s="44">
         <f>F16-B16</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" s="143">
         <f>K16/E16</f>
-        <v>-6.8840276766547526E-2</v>
+        <v>-6.1924964887475523E-2</v>
       </c>
       <c r="N16" s="143">
         <f>M16/L16*30</f>
-        <v>-0.18774620936331143</v>
+        <v>-0.13269635333030469</v>
       </c>
       <c r="O16" s="148"/>
       <c r="P16" s="39"/>
@@ -6253,13 +6270,13 @@
         <v>50160.249999999993</v>
       </c>
       <c r="F17" s="136">
-        <f t="shared" si="8"/>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G17" s="137"/>
       <c r="H17" s="138">
         <f>H16</f>
-        <v>0.99115900000000001</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="I17" s="19">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
@@ -6267,27 +6284,27 @@
       </c>
       <c r="J17" s="26">
         <f t="shared" si="4"/>
-        <v>-1.204599999999989E-2</v>
+        <v>-4.6850999999998866E-3</v>
       </c>
       <c r="K17" s="43">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-602.2999999999945</v>
+        <v>-234.25499999999434</v>
       </c>
       <c r="L17" s="44">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M17" s="143">
         <f t="shared" si="6"/>
-        <v>-1.2007515911503524E-2</v>
+        <v>-4.6701322262148685E-3</v>
       </c>
       <c r="N17" s="143">
         <f t="shared" si="7"/>
-        <v>-2.4015031823007047E-2</v>
+        <v>-7.7835537103581138E-3</v>
       </c>
       <c r="O17" s="147">
         <f>SUM(K13:K17)</f>
-        <v>-5525.3499999999958</v>
+        <v>-4559.7874999999958</v>
       </c>
     </row>
     <row r="18" spans="1:1024">
@@ -7338,13 +7355,13 @@
         <v>91326.5</v>
       </c>
       <c r="F20" s="136">
-        <f>F17</f>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G20" s="137"/>
       <c r="H20" s="138">
         <f>Sayfa4!C5</f>
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="I20" s="19">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
@@ -7352,23 +7369,23 @@
       </c>
       <c r="J20" s="26">
         <f t="shared" si="4"/>
-        <v>371.62999999999988</v>
+        <v>406.12999999999988</v>
       </c>
       <c r="K20" s="43">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>18581.499999999993</v>
+        <v>20306.499999999993</v>
       </c>
       <c r="L20" s="44">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M20" s="143">
         <f t="shared" si="6"/>
-        <v>0.203462302836526</v>
+        <v>0.22235057732421579</v>
       </c>
       <c r="N20" s="143">
         <f t="shared" si="7"/>
-        <v>4.3599064893541283E-2</v>
+        <v>4.6646974263821493E-2</v>
       </c>
       <c r="O20" s="148"/>
     </row>
@@ -7390,13 +7407,13 @@
         <v>4423.1000000000004</v>
       </c>
       <c r="F21" s="136">
-        <f t="shared" si="8"/>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G21" s="137"/>
       <c r="H21" s="138">
         <f>H20</f>
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="I21" s="19">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
@@ -7404,23 +7421,23 @@
       </c>
       <c r="J21" s="26">
         <f t="shared" si="4"/>
-        <v>1796.06</v>
+        <v>1830.56</v>
       </c>
       <c r="K21" s="43">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>19756.66</v>
+        <v>20136.16</v>
       </c>
       <c r="L21" s="44">
         <f t="shared" si="5"/>
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="M21" s="143">
         <f t="shared" si="6"/>
-        <v>4.4666998259139516</v>
+        <v>4.5524993782641134</v>
       </c>
       <c r="N21" s="143">
         <f t="shared" si="7"/>
-        <v>0.12018026437436641</v>
+        <v>0.12216009065109429</v>
       </c>
       <c r="O21" s="148"/>
     </row>
@@ -7442,13 +7459,13 @@
         <v>23443</v>
       </c>
       <c r="F22" s="136">
-        <f t="shared" si="8"/>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G22" s="137"/>
       <c r="H22" s="138">
         <f>H21</f>
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="I22" s="19">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
@@ -7456,23 +7473,23 @@
       </c>
       <c r="J22" s="26">
         <f t="shared" si="4"/>
-        <v>1729.2999999999997</v>
+        <v>1763.7999999999997</v>
       </c>
       <c r="K22" s="43">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>86464.999999999985</v>
+        <v>88189.999999999985</v>
       </c>
       <c r="L22" s="44">
         <f t="shared" si="5"/>
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="M22" s="143">
         <f t="shared" si="6"/>
-        <v>3.6883078104338174</v>
+        <v>3.7618905430192373</v>
       </c>
       <c r="N22" s="143">
         <f t="shared" si="7"/>
-        <v>8.678371318667806E-2</v>
+        <v>8.8307289742235617E-2</v>
       </c>
       <c r="O22" s="148"/>
     </row>
@@ -7494,13 +7511,13 @@
         <v>9996.75</v>
       </c>
       <c r="F23" s="136">
-        <f t="shared" si="8"/>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G23" s="137"/>
       <c r="H23" s="138">
         <f>H22</f>
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="I23" s="19">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
@@ -7508,23 +7525,23 @@
       </c>
       <c r="J23" s="26">
         <f t="shared" si="4"/>
-        <v>1798.29</v>
+        <v>1832.79</v>
       </c>
       <c r="K23" s="43">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>44957.25</v>
+        <v>45819.75</v>
       </c>
       <c r="L23" s="44">
         <f t="shared" si="5"/>
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="M23" s="143">
         <f t="shared" si="6"/>
-        <v>4.4971865856403328</v>
+        <v>4.5834646260034511</v>
       </c>
       <c r="N23" s="143">
         <f t="shared" si="7"/>
-        <v>0.10075847465960416</v>
+        <v>0.10246195140097134</v>
       </c>
       <c r="O23" s="148"/>
     </row>
@@ -7546,13 +7563,13 @@
         <v>6571.4400000000005</v>
       </c>
       <c r="F24" s="136">
-        <f t="shared" si="8"/>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G24" s="137"/>
       <c r="H24" s="138">
         <f>H23</f>
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="I24" s="19">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
@@ -7560,23 +7577,23 @@
       </c>
       <c r="J24" s="26">
         <f t="shared" si="4"/>
-        <v>1924.35</v>
+        <v>1958.85</v>
       </c>
       <c r="K24" s="43">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>46184.399999999994</v>
+        <v>47012.399999999994</v>
       </c>
       <c r="L24" s="44">
         <f t="shared" si="5"/>
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="M24" s="143">
         <f t="shared" si="6"/>
-        <v>7.028048646871917</v>
+        <v>7.1540484277418637</v>
       </c>
       <c r="N24" s="143">
         <f t="shared" si="7"/>
-        <v>0.13550222326873876</v>
+        <v>0.1376661018808569</v>
       </c>
       <c r="O24" s="148"/>
     </row>
@@ -7598,13 +7615,13 @@
         <v>237.59</v>
       </c>
       <c r="F25" s="136">
-        <f t="shared" si="8"/>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G25" s="137"/>
       <c r="H25" s="138">
         <f>H24</f>
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="I25" s="19">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
@@ -7612,23 +7629,23 @@
       </c>
       <c r="J25" s="26">
         <f t="shared" si="4"/>
-        <v>1960.57</v>
+        <v>1995.07</v>
       </c>
       <c r="K25" s="43">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>1960.57</v>
+        <v>1995.07</v>
       </c>
       <c r="L25" s="44">
         <f t="shared" si="5"/>
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="M25" s="143">
         <f t="shared" si="6"/>
-        <v>8.2519045414369288</v>
+        <v>8.3971126730923018</v>
       </c>
       <c r="N25" s="143">
         <f t="shared" si="7"/>
-        <v>0.15909841660868113</v>
+        <v>0.16158651712172487</v>
       </c>
       <c r="O25" s="148"/>
     </row>
@@ -7650,13 +7667,13 @@
         <v>5594.0140799999999</v>
       </c>
       <c r="F26" s="136">
-        <f t="shared" si="8"/>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G26" s="137"/>
       <c r="H26" s="138">
         <f>Sayfa4!G2</f>
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="I26" s="19">
         <f>Sayfa2!$H26*Sayfa2!$G26</f>
@@ -7664,23 +7681,23 @@
       </c>
       <c r="J26" s="26">
         <f>H26-D26</f>
-        <v>15.642700000000001</v>
+        <v>15.836500000000004</v>
       </c>
       <c r="K26" s="43">
         <f>Sayfa2!$J26*Sayfa2!$C26</f>
-        <v>4674.0387600000004</v>
+        <v>4731.9462000000012</v>
       </c>
       <c r="L26" s="44">
         <f>F26-B26</f>
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M26" s="143">
         <f>K26/E26</f>
-        <v>0.83554290231604145</v>
+        <v>0.84589458165968745</v>
       </c>
       <c r="N26" s="143">
         <f>M26/L26*30</f>
-        <v>4.3593542729532593E-2</v>
+        <v>4.3904563061921496E-2</v>
       </c>
       <c r="O26" s="148"/>
     </row>
@@ -7702,13 +7719,13 @@
         <v>16650</v>
       </c>
       <c r="F27" s="136">
-        <f t="shared" si="8"/>
-        <v>45359</v>
+        <f>$B$2</f>
+        <v>45362</v>
       </c>
       <c r="G27" s="137"/>
       <c r="H27" s="138">
         <f>Sayfa4!E2</f>
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="I27" s="19">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
@@ -7716,27 +7733,27 @@
       </c>
       <c r="J27" s="26">
         <f>H27-D27</f>
-        <v>16.402999999999999</v>
+        <v>16.571400000000001</v>
       </c>
       <c r="K27" s="43">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>18207.329999999998</v>
+        <v>18394.254000000001</v>
       </c>
       <c r="L27" s="44">
         <f>F27-B27</f>
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M27" s="143">
         <f>K27/E27</f>
-        <v>1.0935333333333332</v>
+        <v>1.10476</v>
       </c>
       <c r="N27" s="143">
         <f>M27/L27*30</f>
-        <v>5.607863247863247E-2</v>
+        <v>5.6365306122448978E-2</v>
       </c>
       <c r="O27" s="147">
         <f>SUM(K20:K27)</f>
-        <v>240786.74875999996</v>
+        <v>246586.08019999997</v>
       </c>
     </row>
     <row r="28" spans="1:1024">
@@ -11055,7 +11072,7 @@
         <v>1309.5</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" ref="J39:J68" si="9">H39-D39</f>
+        <f t="shared" ref="J39:J68" si="8">H39-D39</f>
         <v>15.5</v>
       </c>
       <c r="K39" s="43">
@@ -11063,11 +11080,11 @@
         <v>139.5</v>
       </c>
       <c r="L39" s="44">
-        <f t="shared" ref="L39:L45" si="10">F39-B39</f>
+        <f t="shared" ref="L39:L45" si="9">F39-B39</f>
         <v>112</v>
       </c>
       <c r="M39" s="143">
-        <f t="shared" ref="M39:M69" si="11">K39/E39</f>
+        <f t="shared" ref="M39:M69" si="10">K39/E39</f>
         <v>0.11923076923076924</v>
       </c>
       <c r="N39" s="143">
@@ -11107,7 +11124,7 @@
         <v>1455</v>
       </c>
       <c r="J40" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.4989999999999952</v>
       </c>
       <c r="K40" s="43">
@@ -11115,11 +11132,11 @@
         <v>14.989999999999952</v>
       </c>
       <c r="L40" s="44">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="M40" s="143">
         <f t="shared" si="10"/>
-        <v>63</v>
-      </c>
-      <c r="M40" s="143">
-        <f t="shared" si="11"/>
         <v>1.0409649932986544E-2</v>
       </c>
       <c r="N40" s="143">
@@ -11159,7 +11176,7 @@
         <v>2910</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>30.159999999999997</v>
       </c>
       <c r="K41" s="43">
@@ -11167,11 +11184,11 @@
         <v>603.19999999999993</v>
       </c>
       <c r="L41" s="44">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="M41" s="143">
         <f t="shared" si="10"/>
-        <v>46</v>
-      </c>
-      <c r="M41" s="143">
-        <f t="shared" si="11"/>
         <v>0.26148777527310557</v>
       </c>
       <c r="N41" s="143">
@@ -11292,7 +11309,7 @@
         <v>520</v>
       </c>
       <c r="J44" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.8200000000000003</v>
       </c>
       <c r="K44" s="43">
@@ -11300,11 +11317,11 @@
         <v>28.200000000000003</v>
       </c>
       <c r="L44" s="44">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="M44" s="143">
         <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="M44" s="143">
-        <f t="shared" si="11"/>
         <v>5.7340382269215132E-2</v>
       </c>
       <c r="N44" s="143">
@@ -11345,7 +11362,7 @@
         <v>540.80000000000007</v>
       </c>
       <c r="J45" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>13.3</v>
       </c>
       <c r="K45" s="43">
@@ -11353,7 +11370,7 @@
         <v>172.9</v>
       </c>
       <c r="L45" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="M45" s="143">
@@ -11368,16 +11385,16 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:1024">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="161">
         <v>45273</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="162">
         <v>26</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="160">
         <v>55.08</v>
       </c>
       <c r="E46" s="42">
@@ -11398,7 +11415,7 @@
         <v>1336.3999999999999</v>
       </c>
       <c r="J46" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-3.6799999999999997</v>
       </c>
       <c r="K46" s="43">
@@ -11407,7 +11424,7 @@
       </c>
       <c r="L46" s="32"/>
       <c r="M46" s="143">
-        <f t="shared" ref="M46:M47" si="12">K46/E46</f>
+        <f t="shared" ref="M46:M47" si="11">K46/E46</f>
         <v>-6.6811909949164847E-2</v>
       </c>
       <c r="N46" s="143"/>
@@ -11445,7 +11462,7 @@
         <v>5140</v>
       </c>
       <c r="J47" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>11.899999999999999</v>
       </c>
       <c r="K47" s="43">
@@ -11457,11 +11474,11 @@
         <v>25</v>
       </c>
       <c r="M47" s="143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.30126582278481007</v>
       </c>
       <c r="N47" s="143">
-        <f t="shared" ref="N47:N66" si="13">M47/L47*30</f>
+        <f t="shared" ref="N47:N66" si="12">M47/L47*30</f>
         <v>0.36151898734177207</v>
       </c>
       <c r="O47" s="147">
@@ -14607,7 +14624,7 @@
         <v>5800.5924800000003</v>
       </c>
       <c r="J51" s="26">
-        <f t="shared" ref="J51" si="14">H51-D51</f>
+        <f t="shared" ref="J51" si="13">H51-D51</f>
         <v>8.9540200000000141</v>
       </c>
       <c r="K51" s="43">
@@ -14615,15 +14632,15 @@
         <v>196.98844000000031</v>
       </c>
       <c r="L51" s="44">
-        <f t="shared" ref="L51" si="15">F51-B51</f>
+        <f t="shared" ref="L51" si="14">F51-B51</f>
         <v>13</v>
       </c>
       <c r="M51" s="143">
-        <f t="shared" ref="M51" si="16">K51/E51</f>
+        <f t="shared" ref="M51" si="15">K51/E51</f>
         <v>1.5678406642076849E-2</v>
       </c>
       <c r="N51" s="143">
-        <f t="shared" ref="N51" si="17">M51/L51*30</f>
+        <f t="shared" ref="N51" si="16">M51/L51*30</f>
         <v>3.618093840479273E-2</v>
       </c>
       <c r="O51" s="149"/>
@@ -15668,7 +15685,7 @@
         <v>6380.6517280000007</v>
       </c>
       <c r="J52" s="26">
-        <f t="shared" ref="J52" si="18">H52-D52</f>
+        <f t="shared" ref="J52" si="17">H52-D52</f>
         <v>8.9540200000000141</v>
       </c>
       <c r="K52" s="43">
@@ -15676,15 +15693,15 @@
         <v>98.494220000000155</v>
       </c>
       <c r="L52" s="44">
-        <f t="shared" ref="L52" si="19">F52-B52</f>
+        <f t="shared" ref="L52" si="18">F52-B52</f>
         <v>12</v>
       </c>
       <c r="M52" s="143">
-        <f t="shared" ref="M52" si="20">K52/E52</f>
+        <f t="shared" ref="M52" si="19">K52/E52</f>
         <v>1.5678406642076849E-2</v>
       </c>
       <c r="N52" s="143">
-        <f t="shared" ref="N52" si="21">M52/L52*30</f>
+        <f t="shared" ref="N52" si="20">M52/L52*30</f>
         <v>3.9196016605192119E-2</v>
       </c>
       <c r="O52" s="149"/>
@@ -16729,7 +16746,7 @@
         <v>34803.554880000003</v>
       </c>
       <c r="J53" s="26">
-        <f t="shared" ref="J53" si="22">H53-D53</f>
+        <f t="shared" ref="J53" si="21">H53-D53</f>
         <v>1.3986449999999877</v>
       </c>
       <c r="K53" s="43">
@@ -16737,15 +16754,15 @@
         <v>83.918699999999262</v>
       </c>
       <c r="L53" s="44">
-        <f t="shared" ref="L53" si="23">F53-B53</f>
+        <f t="shared" ref="L53" si="22">F53-B53</f>
         <v>1</v>
       </c>
       <c r="M53" s="143">
-        <f t="shared" ref="M53" si="24">K53/E53</f>
+        <f t="shared" ref="M53" si="23">K53/E53</f>
         <v>2.4170385762377323E-3</v>
       </c>
       <c r="N53" s="143">
-        <f t="shared" ref="N53" si="25">M53/L53*30</f>
+        <f t="shared" ref="N53" si="24">M53/L53*30</f>
         <v>7.2511157287131964E-2</v>
       </c>
       <c r="O53" s="149"/>
@@ -17790,7 +17807,7 @@
         <v>13921.421952000001</v>
       </c>
       <c r="J54" s="26">
-        <f t="shared" ref="J54" si="26">H54-D54</f>
+        <f t="shared" ref="J54" si="25">H54-D54</f>
         <v>4.8438939999999775</v>
       </c>
       <c r="K54" s="43">
@@ -17798,15 +17815,15 @@
         <v>116.25345599999946</v>
       </c>
       <c r="L54" s="44">
-        <f t="shared" ref="L54" si="27">F54-B54</f>
+        <f t="shared" ref="L54" si="26">F54-B54</f>
         <v>6</v>
       </c>
       <c r="M54" s="143">
-        <f t="shared" ref="M54" si="28">K54/E54</f>
+        <f t="shared" ref="M54" si="27">K54/E54</f>
         <v>8.4210095685310522E-3</v>
       </c>
       <c r="N54" s="143">
-        <f t="shared" ref="N54" si="29">M54/L54*30</f>
+        <f t="shared" ref="N54" si="28">M54/L54*30</f>
         <v>4.2105047842655258E-2</v>
       </c>
       <c r="O54" s="149"/>
@@ -18851,7 +18868,7 @@
         <v>1147.671828</v>
       </c>
       <c r="J55" s="26">
-        <f t="shared" ref="J55:J65" si="30">H55-D55</f>
+        <f t="shared" ref="J55:J65" si="29">H55-D55</f>
         <v>2.7306859999999915</v>
       </c>
       <c r="K55" s="24">
@@ -18859,7 +18876,7 @@
         <v>5.461371999999983</v>
       </c>
       <c r="L55" s="44">
-        <f t="shared" ref="L55:L68" si="31">F55-B55</f>
+        <f t="shared" ref="L55:L68" si="30">F55-B55</f>
         <v>3</v>
       </c>
       <c r="M55" s="143">
@@ -18867,7 +18884,7 @@
         <v>4.7814060634023678E-3</v>
       </c>
       <c r="N55" s="143">
-        <f t="shared" ref="N55:N62" si="32">M55/L55*30</f>
+        <f t="shared" ref="N55:N62" si="31">M55/L55*30</f>
         <v>4.7814060634023672E-2</v>
       </c>
       <c r="O55" s="149"/>
@@ -19912,7 +19929,7 @@
         <v>573.835914</v>
       </c>
       <c r="J56" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2.7306859999999915</v>
       </c>
       <c r="K56" s="24">
@@ -19920,7 +19937,7 @@
         <v>2.7306859999999915</v>
       </c>
       <c r="L56" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="M56" s="143">
@@ -19928,7 +19945,7 @@
         <v>4.7814060634023678E-3</v>
       </c>
       <c r="N56" s="143">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2.3907030317011836E-2</v>
       </c>
       <c r="O56" s="149"/>
@@ -20973,7 +20990,7 @@
         <v>25248.780215999999</v>
       </c>
       <c r="J57" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2.7306859999999915</v>
       </c>
       <c r="K57" s="24">
@@ -20981,7 +20998,7 @@
         <v>120.15018399999963</v>
       </c>
       <c r="L57" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="M57" s="143">
@@ -20989,7 +21006,7 @@
         <v>4.7814060634023669E-3</v>
       </c>
       <c r="N57" s="143">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2.3907030317011836E-2</v>
       </c>
       <c r="O57" s="149"/>
@@ -22034,7 +22051,7 @@
         <v>60826.606884000001</v>
       </c>
       <c r="J58" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.7433300000000145</v>
       </c>
       <c r="K58" s="24">
@@ -22042,7 +22059,7 @@
         <v>502.79298000000153</v>
       </c>
       <c r="L58" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="M58" s="143">
@@ -22050,7 +22067,7 @@
         <v>8.3349003894241831E-3</v>
       </c>
       <c r="N58" s="143">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2.778300129808061E-2</v>
       </c>
       <c r="O58" s="149"/>
@@ -23095,7 +23112,7 @@
         <v>36550.734592000001</v>
       </c>
       <c r="J59" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.022876999999994</v>
       </c>
       <c r="K59" s="24">
@@ -23103,7 +23120,7 @@
         <v>257.46412799999962</v>
       </c>
       <c r="L59" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="M59" s="143">
@@ -23111,7 +23128,7 @@
         <v>7.0939908337933691E-3</v>
       </c>
       <c r="N59" s="143">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>3.5469954168966845E-2</v>
       </c>
       <c r="O59" s="149"/>
@@ -24156,7 +24173,7 @@
         <v>28555.261399999999</v>
       </c>
       <c r="J60" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>28.670726000000059</v>
       </c>
       <c r="K60" s="24">
@@ -24164,15 +24181,15 @@
         <v>1433.5363000000029</v>
       </c>
       <c r="L60" s="44">
+        <f t="shared" si="30"/>
+        <v>45</v>
+      </c>
+      <c r="M60" s="143">
+        <f t="shared" ref="M60:M62" si="32">K60/E60</f>
+        <v>5.2855645970690972E-2</v>
+      </c>
+      <c r="N60" s="143">
         <f t="shared" si="31"/>
-        <v>45</v>
-      </c>
-      <c r="M60" s="143">
-        <f t="shared" ref="M60:M62" si="33">K60/E60</f>
-        <v>5.2855645970690972E-2</v>
-      </c>
-      <c r="N60" s="143">
-        <f t="shared" si="32"/>
         <v>3.5237097313793986E-2</v>
       </c>
       <c r="O60" s="149"/>
@@ -25217,7 +25234,7 @@
         <v>28555.261399999999</v>
       </c>
       <c r="J61" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>15.155121000000008</v>
       </c>
       <c r="K61" s="24">
@@ -25225,15 +25242,15 @@
         <v>757.75605000000041</v>
       </c>
       <c r="L61" s="44">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="M61" s="143">
+        <f t="shared" si="32"/>
+        <v>2.7259858050535473E-2</v>
+      </c>
+      <c r="N61" s="143">
         <f t="shared" si="31"/>
-        <v>23</v>
-      </c>
-      <c r="M61" s="143">
-        <f t="shared" si="33"/>
-        <v>2.7259858050535473E-2</v>
-      </c>
-      <c r="N61" s="143">
-        <f t="shared" si="32"/>
         <v>3.5556336587654967E-2</v>
       </c>
       <c r="O61" s="149"/>
@@ -26278,7 +26295,7 @@
         <v>9137.6836480000002</v>
       </c>
       <c r="J62" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>15.155121000000008</v>
       </c>
       <c r="K62" s="24">
@@ -26286,15 +26303,15 @@
         <v>242.48193600000013</v>
       </c>
       <c r="L62" s="44">
+        <f t="shared" si="30"/>
+        <v>22</v>
+      </c>
+      <c r="M62" s="143">
+        <f t="shared" si="32"/>
+        <v>2.7259858050535473E-2</v>
+      </c>
+      <c r="N62" s="143">
         <f t="shared" si="31"/>
-        <v>22</v>
-      </c>
-      <c r="M62" s="143">
-        <f t="shared" si="33"/>
-        <v>2.7259858050535473E-2</v>
-      </c>
-      <c r="N62" s="143">
-        <f t="shared" si="32"/>
         <v>3.7172533705275651E-2</v>
       </c>
       <c r="O62" s="149"/>
@@ -27339,7 +27356,7 @@
         <v>62162.411190000006</v>
       </c>
       <c r="J63" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>24.51172100000008</v>
       </c>
       <c r="K63" s="43">
@@ -27347,7 +27364,7 @@
         <v>2696.2893100000088</v>
       </c>
       <c r="L63" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>39</v>
       </c>
       <c r="M63" s="143">
@@ -28400,7 +28417,7 @@
         <v>5644.5009800000007</v>
       </c>
       <c r="J64" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>8.4999910000000227</v>
       </c>
       <c r="K64" s="43">
@@ -28408,7 +28425,7 @@
         <v>84.999910000000227</v>
       </c>
       <c r="L64" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="M64" s="143">
@@ -29461,7 +29478,7 @@
         <v>25752.357421999997</v>
       </c>
       <c r="J65" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3.8837499999999636</v>
       </c>
       <c r="K65" s="43">
@@ -29469,7 +29486,7 @@
         <v>178.65249999999833</v>
       </c>
       <c r="L65" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="M65" s="143">
@@ -30522,7 +30539,7 @@
         <v>5587.7282999999998</v>
       </c>
       <c r="J66" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.41840300000000141</v>
       </c>
       <c r="K66" s="43">
@@ -30530,15 +30547,15 @@
         <v>125.52090000000042</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="M66" s="143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.2979885384798907E-2</v>
       </c>
       <c r="N66" s="143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.2828407692569866E-2</v>
       </c>
       <c r="O66" s="149"/>
@@ -30574,7 +30591,7 @@
         <v>5387.89707</v>
       </c>
       <c r="J67" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>14.89983600000005</v>
       </c>
       <c r="K67" s="43">
@@ -30582,11 +30599,11 @@
         <v>148.9983600000005</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>26</v>
       </c>
       <c r="M67" s="143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.8440778920881354E-2</v>
       </c>
       <c r="N67" s="143">
@@ -30627,7 +30644,7 @@
         <v>15086.111796000001</v>
       </c>
       <c r="J68" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>11.57746700000007</v>
       </c>
       <c r="K68" s="43">
@@ -30635,11 +30652,11 @@
         <v>324.16907600000195</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="M68" s="143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.1959784165860925E-2</v>
       </c>
       <c r="N68" s="143">
@@ -30691,7 +30708,7 @@
         <v>22</v>
       </c>
       <c r="M69" s="143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.4255514249821006E-2</v>
       </c>
       <c r="N69" s="143">
@@ -30835,10 +30852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E833796-0219-408B-99C0-FA7EE694BB58}">
-  <dimension ref="A2:V24"/>
+  <dimension ref="A2:W24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30861,32 +30878,33 @@
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="126" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="102">
         <f>A5</f>
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>580.75701800000002</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>K5</f>
-        <v>0.99115900000000001</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="M2">
         <f>M5</f>
@@ -30894,18 +30912,26 @@
       </c>
       <c r="O2">
         <f>O5</f>
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="Q2">
         <f>Q5</f>
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="S2">
         <f>S5</f>
-        <v>13.7</v>
+        <v>15.07</v>
+      </c>
+      <c r="V2" s="105">
+        <f>Sayfa2!B5</f>
+        <v>164.92724187748556</v>
+      </c>
+      <c r="W2" s="110">
+        <f>Sayfa2!K2</f>
+        <v>257121.570087</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="123"/>
       <c r="B3" s="125"/>
       <c r="C3" s="124" t="s">
@@ -30950,269 +30976,243 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="102">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B5" s="104">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="D5">
-        <f>D10</f>
+        <f>D11</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="F5">
-        <f>F10</f>
+        <f>F11</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>34.3643</v>
-      </c>
-      <c r="H5">
-        <f>H10</f>
-        <v>57</v>
-      </c>
-      <c r="I5">
-        <v>580.75701800000002</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="J5">
-        <f>J10</f>
+        <f>J11</f>
         <v>125000</v>
       </c>
       <c r="K5">
-        <v>0.99115900000000001</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="N5">
         <v>12</v>
       </c>
       <c r="O5">
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="P5">
-        <f>P10</f>
+        <f>P11</f>
         <v>15</v>
       </c>
       <c r="Q5">
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="R5">
-        <f>R10</f>
+        <f>R11</f>
         <v>15</v>
       </c>
       <c r="S5">
-        <v>13.7</v>
+        <v>15.07</v>
       </c>
       <c r="T5" s="126">
-        <f t="shared" ref="T5:T10" si="0">(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(J5*K5)+(L5*M5)+(N5*O5)+(P5*Q5)+(R5*S5)</f>
-        <v>558349.42598299996</v>
+        <f t="shared" ref="T5:T11" si="0">(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(J5*K5)+(L5*M5)+(N5*O5)+(P5*Q5)+(R5*S5)</f>
+        <v>532003.12411900004</v>
       </c>
       <c r="U5">
-        <v>8970</v>
+        <v>9500</v>
       </c>
       <c r="V5">
-        <v>160.9</v>
+        <v>164.91</v>
+      </c>
+      <c r="W5">
+        <v>257088.48</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="102">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B6" s="104">
         <v>161</v>
       </c>
       <c r="C6">
-        <v>2184.79</v>
+        <v>2198.16</v>
       </c>
       <c r="D6">
-        <f>D11</f>
+        <f>D12</f>
         <v>1110</v>
       </c>
       <c r="E6">
-        <v>31.297000000000001</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="F6">
-        <f>F11</f>
+        <f>F12</f>
         <v>321.99</v>
       </c>
       <c r="G6">
-        <v>34.110599999999998</v>
-      </c>
-      <c r="H6">
-        <f>H11</f>
-        <v>57</v>
-      </c>
-      <c r="I6">
-        <v>580.75701800000002</v>
+        <v>34.3643</v>
       </c>
       <c r="J6">
-        <f>J11</f>
+        <f>J12</f>
         <v>125000</v>
       </c>
       <c r="K6">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N6">
         <v>12</v>
       </c>
       <c r="O6">
-        <v>34.380000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="P6">
-        <f>P11</f>
+        <f>P12</f>
         <v>15</v>
       </c>
       <c r="Q6">
-        <v>63.1</v>
+        <v>57.75</v>
       </c>
       <c r="R6">
         <v>15</v>
       </c>
       <c r="S6">
-        <v>12.46</v>
+        <v>13.7</v>
       </c>
       <c r="T6" s="126">
-        <f t="shared" si="0"/>
-        <v>550274.99212000007</v>
+        <f t="shared" ref="T6" si="1">(B6*C6)+(D6*E6)+(F6*G6)+(H6*I6)+(J6*K6)+(L6*M6)+(N6*O6)+(P6*Q6)+(R6*S6)</f>
+        <v>525246.27595699998</v>
       </c>
       <c r="U6">
-        <v>9054.18</v>
+        <v>9155.32</v>
       </c>
       <c r="V6">
-        <v>155.75</v>
+        <v>160.9</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="102">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B7" s="104">
         <v>161</v>
       </c>
       <c r="C7">
-        <v>2150.9</v>
+        <v>2184.79</v>
       </c>
       <c r="D7">
-        <f>D11</f>
+        <f>D12</f>
         <v>1110</v>
       </c>
       <c r="E7">
-        <v>31.293399999999998</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="F7">
-        <f>F11</f>
+        <f>F12</f>
         <v>321.99</v>
       </c>
       <c r="G7">
-        <v>34.006500000000003</v>
-      </c>
-      <c r="H7">
-        <f>H11</f>
-        <v>57</v>
-      </c>
-      <c r="I7">
-        <v>580.05924800000003</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="J7">
-        <f>J11</f>
+        <f>J12</f>
         <v>125000</v>
       </c>
       <c r="K7">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="N7">
         <v>12</v>
       </c>
       <c r="O7">
-        <v>31.26</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="P7">
-        <f>P11</f>
+        <f>P12</f>
         <v>15</v>
       </c>
       <c r="Q7">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="R7">
         <v>15</v>
       </c>
       <c r="S7">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
       <c r="T7" s="126">
         <f t="shared" si="0"/>
-        <v>550696.14907099993</v>
+        <v>517171.84209400002</v>
       </c>
       <c r="U7">
-        <v>8744.58</v>
+        <v>9054.18</v>
       </c>
       <c r="V7">
-        <v>156.16</v>
+        <v>155.75</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" s="102">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B8" s="104">
         <v>161</v>
       </c>
       <c r="C8">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="D8">
-        <f>D11</f>
+        <f>D12</f>
         <v>1110</v>
       </c>
       <c r="E8">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="F8">
-        <f>F11</f>
+        <f>F12</f>
         <v>321.99</v>
       </c>
       <c r="G8">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="H8">
-        <f>H11</f>
+        <f>H12</f>
         <v>57</v>
       </c>
       <c r="I8">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="J8">
-        <f>J11</f>
+        <f>J12</f>
         <v>125000</v>
       </c>
       <c r="K8">
-        <v>1.0160309999999999</v>
-      </c>
-      <c r="L8">
-        <f>L11</f>
-        <v>36</v>
-      </c>
-      <c r="M8" s="134">
-        <v>38.15</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N8">
-        <f>N11</f>
         <v>12</v>
       </c>
       <c r="O8">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="P8">
-        <f>P11</f>
+        <f>P12</f>
         <v>15</v>
       </c>
       <c r="Q8">
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="R8">
         <v>15</v>
@@ -31222,73 +31222,73 @@
       </c>
       <c r="T8" s="126">
         <f t="shared" si="0"/>
-        <v>548782.36210899998</v>
+        <v>550696.14907099993</v>
       </c>
       <c r="U8">
-        <v>8860.52</v>
+        <v>8744.58</v>
       </c>
       <c r="V8">
-        <v>154.22999999999999</v>
+        <v>156.16</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" s="102">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B9" s="104">
         <v>161</v>
       </c>
       <c r="C9">
-        <v>2072.52</v>
+        <v>2116.34</v>
       </c>
       <c r="D9">
-        <f>D11</f>
+        <f>D12</f>
         <v>1110</v>
       </c>
       <c r="E9">
-        <v>30.905999999999999</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="F9">
-        <f>F11</f>
+        <f>F12</f>
         <v>321.99</v>
       </c>
       <c r="G9">
-        <v>33.542299999999997</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="H9">
-        <f>H11</f>
+        <f>H12</f>
         <v>57</v>
       </c>
       <c r="I9">
-        <v>578.66060300000004</v>
+        <v>579.361718</v>
       </c>
       <c r="J9">
-        <f>J11</f>
+        <f>J12</f>
         <v>125000</v>
       </c>
       <c r="K9">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="L9">
-        <f>L11</f>
+        <f>L12</f>
         <v>36</v>
       </c>
-      <c r="M9">
-        <v>34.659999999999997</v>
+      <c r="M9" s="134">
+        <v>38.15</v>
       </c>
       <c r="N9">
-        <f>N11</f>
+        <f>N12</f>
         <v>12</v>
       </c>
       <c r="O9">
-        <v>25.84</v>
+        <v>28.42</v>
       </c>
       <c r="P9">
-        <f>P11</f>
+        <f>P12</f>
         <v>15</v>
       </c>
       <c r="Q9">
-        <v>47.46</v>
+        <v>52.2</v>
       </c>
       <c r="R9">
         <v>15</v>
@@ -31298,70 +31298,73 @@
       </c>
       <c r="T9" s="126">
         <f t="shared" si="0"/>
-        <v>544449.25954799983</v>
+        <v>548782.36210899998</v>
       </c>
       <c r="U9">
-        <v>8907.65</v>
+        <v>8860.52</v>
+      </c>
+      <c r="V9">
+        <v>154.22999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" s="102">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B10" s="104">
         <v>161</v>
       </c>
       <c r="C10">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="D10">
-        <f>D11</f>
+        <f>D12</f>
         <v>1110</v>
       </c>
       <c r="E10">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="F10">
-        <f>F11</f>
+        <f>F12</f>
         <v>321.99</v>
       </c>
       <c r="G10">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="H10">
-        <f>H11</f>
+        <f>H12</f>
         <v>57</v>
       </c>
       <c r="I10">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="J10">
-        <f>J11</f>
+        <f>J12</f>
         <v>125000</v>
       </c>
       <c r="K10">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="L10">
-        <f>L11</f>
+        <f>L12</f>
         <v>36</v>
       </c>
       <c r="M10">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="N10">
-        <f>N11</f>
+        <f>N12</f>
         <v>12</v>
       </c>
       <c r="O10">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="P10">
-        <f>P11</f>
+        <f>P12</f>
         <v>15</v>
       </c>
       <c r="Q10">
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="R10">
         <v>15</v>
@@ -31371,15 +31374,15 @@
       </c>
       <c r="T10" s="126">
         <f t="shared" si="0"/>
-        <v>534214.0141899999</v>
+        <v>544449.25954799983</v>
       </c>
       <c r="U10">
-        <v>9097.15</v>
+        <v>8907.65</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" s="102">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B11" s="104">
         <v>161</v>
@@ -31413,39 +31416,46 @@
         <v>125000</v>
       </c>
       <c r="K11">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="L11">
         <f>L12</f>
         <v>36</v>
       </c>
       <c r="M11">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="N11">
         <f>N12</f>
         <v>12</v>
       </c>
       <c r="O11">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="P11">
+        <f>P12</f>
         <v>15</v>
       </c>
       <c r="Q11">
-        <v>39.24</v>
+        <v>43.16</v>
+      </c>
+      <c r="R11">
+        <v>15</v>
+      </c>
+      <c r="S11">
+        <v>11.33</v>
       </c>
       <c r="T11" s="126">
-        <f t="shared" ref="T11:T15" si="1">(B11*C11)+(D11*E11)+(F11*G11)+(H11*I11)+(J11*K11)+(L11*M11)+(N11*O11)+(P11*Q11)+(R11*S11)</f>
-        <v>530894.48918999999</v>
+        <f t="shared" si="0"/>
+        <v>534214.0141899999</v>
       </c>
       <c r="U11">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" s="102">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B12" s="104">
         <v>161</v>
@@ -31454,18 +31464,21 @@
         <v>2018.91</v>
       </c>
       <c r="D12">
+        <f>D13</f>
         <v>1110</v>
       </c>
       <c r="E12">
         <v>30.7361</v>
       </c>
       <c r="F12">
+        <f>F13</f>
         <v>321.99</v>
       </c>
       <c r="G12">
         <v>33.225700000000003</v>
       </c>
       <c r="H12">
+        <f>H13</f>
         <v>57</v>
       </c>
       <c r="I12">
@@ -31476,30 +31489,40 @@
         <v>125000</v>
       </c>
       <c r="K12">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="L12">
         <f>L13</f>
         <v>36</v>
       </c>
       <c r="M12">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="N12">
+        <f>N13</f>
         <v>12</v>
       </c>
       <c r="O12">
-        <v>19.45</v>
+        <v>21.38</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>39.24</v>
       </c>
       <c r="T12" s="126">
-        <f t="shared" si="1"/>
-        <v>537360.00419000001</v>
+        <f t="shared" ref="T12:T13" si="2">(B12*C12)+(D12*E12)+(F12*G12)+(H12*I12)+(J12*K12)+(L12*M12)+(N12*O12)+(P12*Q12)+(R12*S12)</f>
+        <v>530894.48918999999</v>
       </c>
       <c r="U12">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
+      <c r="A13" s="102">
+        <v>45350</v>
+      </c>
       <c r="B13" s="104">
         <v>161</v>
       </c>
@@ -31525,26 +31548,34 @@
         <v>576.58807100000001</v>
       </c>
       <c r="J13">
+        <f>J14</f>
         <v>125000</v>
       </c>
       <c r="K13">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="L13">
+        <f>L14</f>
         <v>36</v>
       </c>
       <c r="M13">
-        <v>23.7</v>
+        <v>26.06</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>19.45</v>
       </c>
       <c r="T13" s="126">
-        <f t="shared" si="1"/>
-        <v>536633.0191899999</v>
+        <f t="shared" si="2"/>
+        <v>537360.00419000001</v>
       </c>
       <c r="U13">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="B14" s="104">
         <v>161</v>
       </c>
@@ -31570,24 +31601,26 @@
         <v>576.58807100000001</v>
       </c>
       <c r="J14">
-        <f>J15</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="K14">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="L14">
         <v>36</v>
       </c>
       <c r="M14">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="T14" s="126">
-        <f t="shared" si="1"/>
-        <v>454463.60418999993</v>
+        <f>(B14*C14)+(D14*E14)+(F14*G14)+(H14*I14)+(J14*K14)+(L14*M14)+(N14*O14)+(P14*Q14)+(R14*S14)</f>
+        <v>536633.0191899999</v>
+      </c>
+      <c r="U14">
+        <v>9179.48</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="B15" s="104">
         <v>161</v>
       </c>
@@ -31613,130 +31646,205 @@
         <v>576.58807100000001</v>
       </c>
       <c r="J15">
+        <f>J16</f>
         <v>50000</v>
       </c>
       <c r="K15">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="L15">
         <v>36</v>
       </c>
       <c r="M15">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="T15" s="126">
-        <f t="shared" si="1"/>
-        <v>453591.29418999993</v>
+        <f>(B15*C15)+(D15*E15)+(F15*G15)+(H15*I15)+(J15*K15)+(L15*M15)+(N15*O15)+(P15*Q15)+(R15*S15)</f>
+        <v>454463.60418999993</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
+      <c r="B16" s="104">
+        <v>161</v>
+      </c>
+      <c r="C16">
+        <v>2018.91</v>
+      </c>
+      <c r="D16">
+        <v>1110</v>
+      </c>
+      <c r="E16">
+        <v>30.7361</v>
+      </c>
+      <c r="F16">
+        <v>321.99</v>
+      </c>
+      <c r="G16">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H16">
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="J16">
+        <v>50000</v>
+      </c>
       <c r="K16">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="L16">
         <v>36</v>
       </c>
       <c r="M16">
-        <v>17.82</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T16" s="126">
+        <f>(B16*C16)+(D16*E16)+(F16*G16)+(H16*I16)+(J16*K16)+(L16*M16)+(N16*O16)+(P16*Q16)+(R16*S16)</f>
+        <v>453591.29418999993</v>
       </c>
     </row>
     <row r="17" spans="11:19">
       <c r="K17">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="L17">
         <v>36</v>
       </c>
-      <c r="M17" s="132">
-        <v>15.3</v>
+      <c r="M17">
+        <v>17.82</v>
       </c>
     </row>
     <row r="18" spans="11:19">
       <c r="K18">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="M18" s="132" t="s">
-        <v>226</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="L18">
+        <v>36</v>
+      </c>
+      <c r="M18" s="132">
+        <v>15.3</v>
+      </c>
+      <c r="O18" s="132">
+        <f>O13</f>
+        <v>19.45</v>
+      </c>
+      <c r="Q18" s="132">
+        <f>Q12</f>
+        <v>39.24</v>
+      </c>
+      <c r="S18" s="132">
+        <f>S11</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="19" spans="11:19">
       <c r="K19">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="M19" s="133" t="s">
-        <v>224</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="M19" s="132" t="s">
+        <v>226</v>
+      </c>
+      <c r="O19" s="132" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q19" s="132" t="s">
+        <v>226</v>
+      </c>
+      <c r="S19" s="132" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="11:19">
       <c r="K20">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="L20" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="133">
-        <v>38</v>
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="M20" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="O20" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q20" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="S20" s="133" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="11:19">
       <c r="K21">
-        <v>0.88783999999999996</v>
-      </c>
-      <c r="M21" s="131">
-        <f>Sayfa2!M37</f>
-        <v>1.3456790123456792</v>
-      </c>
-      <c r="O21" s="131">
-        <f>(O2-O12)/O12</f>
-        <v>0.94344473007712071</v>
-      </c>
-      <c r="Q21" s="131">
-        <f>(Q2-Q11)/Q11</f>
-        <v>0.4717125382262996</v>
-      </c>
-      <c r="S21" s="131">
-        <f>(S2-S10)/S10</f>
-        <v>0.20917917034421882</v>
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="L21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="133">
+        <v>38</v>
+      </c>
+      <c r="O21" s="133">
+        <v>44.44</v>
+      </c>
+      <c r="Q21" s="133">
+        <v>55.5</v>
+      </c>
+      <c r="S21" s="133">
+        <f>S2</f>
+        <v>15.07</v>
       </c>
     </row>
     <row r="22" spans="11:19">
       <c r="K22">
-        <v>0.86724999999999997</v>
+        <v>0.88783999999999996</v>
+      </c>
+      <c r="M22" s="131">
+        <f>Sayfa2!M37</f>
+        <v>1.3456790123456792</v>
+      </c>
+      <c r="O22" s="131">
+        <f>(O21-O13)/O13</f>
+        <v>1.2848329048843188</v>
+      </c>
+      <c r="Q22" s="131">
+        <f>(Q21-Q12)/Q12</f>
+        <v>0.41437308868501521</v>
+      </c>
+      <c r="S22" s="131">
+        <f>(S21-S11)/S11</f>
+        <v>0.3300970873786408</v>
       </c>
     </row>
     <row r="23" spans="11:19">
-      <c r="L23" s="135" t="s">
+      <c r="K23">
+        <v>0.86724999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="11:19">
+      <c r="L24" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="M23" s="135">
+      <c r="M24" s="135">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="O23">
-        <f>O12*O21</f>
-        <v>18.349999999999998</v>
-      </c>
-      <c r="Q23">
-        <f>Q11*Q21</f>
-        <v>18.509999999999998</v>
-      </c>
-      <c r="S23">
-        <f>S10*S21</f>
-        <v>2.3699999999999992</v>
-      </c>
-    </row>
-    <row r="24" spans="11:19">
-      <c r="O24">
-        <f>O23+O12</f>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="Q24">
-        <f>Q23+Q11</f>
-        <v>57.75</v>
-      </c>
-      <c r="S24">
-        <f>S23+S10</f>
-        <v>13.7</v>
+      <c r="N24" s="135" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" s="135">
+        <f>(N13*O21)-(N5*O13)</f>
+        <v>299.88</v>
+      </c>
+      <c r="P24" s="135" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q24" s="135">
+        <f>(P12*Q21)-(P5*Q12)</f>
+        <v>243.89999999999998</v>
+      </c>
+      <c r="S24" s="135">
+        <f>(R11*S21)-(R5*S11)</f>
+        <v>56.100000000000023</v>
       </c>
     </row>
   </sheetData>
@@ -32985,7 +33093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:AMJ65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A527EE-D5CD-4B7D-9461-AFB854A6AF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A6588-1DBE-424B-B418-640AA9301527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1387,13 +1387,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>422384</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>13139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>41384</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>126019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1431,13 +1431,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>157655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>96358</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>137166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1475,13 +1475,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>558362</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>45984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>99299</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>4166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>250427.63530700008</v>
+        <v>248712.46766700005</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1901,7 +1901,7 @@
     <row r="5" spans="1:15">
       <c r="B5" s="3">
         <f>K2/B4</f>
-        <v>157.20504413496553</v>
+        <v>156.1283538399247</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>3</v>
@@ -1912,23 +1912,23 @@
       </c>
       <c r="I5" s="17">
         <f>SUBTOTAL(109,I10:I26)</f>
-        <v>248102.39999999999</v>
+        <v>247201.66</v>
       </c>
       <c r="K5" s="18">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>234774.62792000006</v>
+        <v>233059.46028000003</v>
       </c>
       <c r="L5" s="19">
         <f>K5/E5</f>
-        <v>0.81235290703206087</v>
+        <v>0.80641818814550326</v>
       </c>
       <c r="M5" s="20">
         <f>SUBTOTAL(101,M10:M18)</f>
-        <v>0.20678968538080145</v>
+        <v>0.24837319029212232</v>
       </c>
       <c r="N5" s="20">
         <f>SUBTOTAL(101,N10:N18)</f>
-        <v>0.11038055503115127</v>
+        <v>0.13818316224122545</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2063,7 +2063,7 @@
       <c r="N10" s="35"/>
       <c r="O10" s="41">
         <f>SUM(O11:O25)</f>
-        <v>234774.62792000003</v>
+        <v>233059.46028</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2100,19 +2100,20 @@
         <v>68</v>
       </c>
       <c r="H13" s="46">
-        <v>20.04</v>
+        <f>Sayfa4!M2</f>
+        <v>22.04</v>
       </c>
       <c r="I13" s="25">
         <f>Sayfa2!$H13*Sayfa2!$G13</f>
-        <v>1362.72</v>
+        <v>1498.72</v>
       </c>
       <c r="J13" s="29">
         <f>H13-D13</f>
-        <v>8.7099999999999991</v>
+        <v>10.709999999999999</v>
       </c>
       <c r="K13" s="47">
         <f>Sayfa2!$J13*Sayfa2!$C13</f>
-        <v>592.28</v>
+        <v>728.28</v>
       </c>
       <c r="L13" s="48">
         <f>F13-B13</f>
@@ -2120,11 +2121,11 @@
       </c>
       <c r="M13" s="20">
         <f>K13/E13</f>
-        <v>0.76875551632833172</v>
+        <v>0.94527802294792573</v>
       </c>
       <c r="N13" s="20">
         <f>M13/L13*30</f>
-        <v>0.50136229325760762</v>
+        <v>0.61648566713995157</v>
       </c>
       <c r="O13" s="43"/>
     </row>
@@ -2152,7 +2153,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="46">
         <f>Sayfa4!K2</f>
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="I14" s="25">
         <f>Sayfa2!$H14*Sayfa2!$G14</f>
@@ -2160,11 +2161,11 @@
       </c>
       <c r="J14" s="29">
         <f>H14-D14</f>
-        <v>-0.11342799999999997</v>
+        <v>-0.11604900000000007</v>
       </c>
       <c r="K14" s="47">
         <f>Sayfa2!$J14*Sayfa2!$C14</f>
-        <v>-8507.0999999999985</v>
+        <v>-8703.6750000000047</v>
       </c>
       <c r="L14" s="48">
         <f>F14-B14</f>
@@ -2172,11 +2173,11 @@
       </c>
       <c r="M14" s="20">
         <f>K14/E14</f>
-        <v>-0.10656169705054792</v>
+        <v>-0.10902403622579121</v>
       </c>
       <c r="N14" s="20">
         <f>M14/L14*30</f>
-        <v>-6.6601060656592451E-2</v>
+        <v>-6.8140022641119513E-2</v>
       </c>
       <c r="O14" s="43"/>
     </row>
@@ -2204,7 +2205,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="46">
         <f>H14</f>
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="I15" s="25">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
@@ -2212,11 +2213,11 @@
       </c>
       <c r="J15" s="29">
         <f>H15-D15</f>
-        <v>-5.2197999999999856E-2</v>
+        <v>-5.4818999999999951E-2</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-2609.8999999999928</v>
+        <v>-2740.9499999999975</v>
       </c>
       <c r="L15" s="48">
         <f>F15-B15</f>
@@ -2224,15 +2225,15 @@
       </c>
       <c r="M15" s="20">
         <f>K15/E15</f>
-        <v>-5.2031239876196657E-2</v>
+        <v>-5.4643866408161802E-2</v>
       </c>
       <c r="N15" s="20">
         <f>M15/L15*30</f>
-        <v>-3.0018023005498072E-2</v>
+        <v>-3.1525307543170275E-2</v>
       </c>
       <c r="O15" s="51">
         <f>SUM(K13:K15)</f>
-        <v>-10524.719999999992</v>
+        <v>-10716.345000000003</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2282,19 +2283,19 @@
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!C5</f>
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="I18" s="25">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>111144</v>
+        <v>110677</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>396.35000000000014</v>
+        <v>387.01</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>19817.500000000007</v>
+        <v>19350.5</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
@@ -2302,23 +2303,23 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.21699616212161868</v>
+        <v>0.2118826408545165</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>3.6779010529087913E-2</v>
+        <v>3.5912312009240083E-2</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>111144</v>
+        <v>110677</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>55.572000000000003</v>
+        <v>55.338500000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2347,19 +2348,19 @@
       </c>
       <c r="H19" s="46">
         <f>H18</f>
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="I19" s="25">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>24451.68</v>
+        <v>24348.94</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" si="1"/>
-        <v>1820.7800000000002</v>
+        <v>1811.44</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>20028.580000000002</v>
+        <v>19925.84</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="2"/>
@@ -2367,23 +2368,23 @@
       </c>
       <c r="M19" s="20">
         <f t="shared" si="3"/>
-        <v>4.5281770703805027</v>
+        <v>4.5049490176572986</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="4"/>
-        <v>0.11792127787449226</v>
+        <v>0.1173163806681588</v>
       </c>
       <c r="O19" s="43"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>24451.68</v>
+        <v>24348.94</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.22584</v>
+        <v>12.174469999999999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2412,19 +2413,19 @@
       </c>
       <c r="H20" s="46">
         <f>H19</f>
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="I20" s="25">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>111144</v>
+        <v>110677</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>1754.02</v>
+        <v>1744.6799999999998</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>87701</v>
+        <v>87233.999999999985</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="2"/>
@@ -2432,23 +2433,23 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="3"/>
-        <v>3.7410314379558929</v>
+        <v>3.7211107793371148</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="4"/>
-        <v>8.5541877392284138E-2</v>
+        <v>8.5086374527525488E-2</v>
       </c>
       <c r="O20" s="43"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>111144</v>
+        <v>110677</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>55.572000000000003</v>
+        <v>55.338500000000003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2475,7 +2476,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="46">
         <f>H20</f>
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="I21" s="25">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
@@ -2483,11 +2484,11 @@
       </c>
       <c r="J21" s="29">
         <f t="shared" si="1"/>
-        <v>1823.0100000000002</v>
+        <v>1813.67</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>45575.250000000007</v>
+        <v>45341.75</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="2"/>
@@ -2495,16 +2496,16 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" si="3"/>
-        <v>4.559006677170081</v>
+        <v>4.5356490859529348</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" si="4"/>
-        <v>9.9396947903417465E-2</v>
+        <v>9.8887698094904108E-2</v>
       </c>
       <c r="O21" s="43"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>123.36984000000001</v>
+        <v>122.85147000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2531,7 +2532,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="46">
         <f>H21</f>
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="I22" s="25">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
@@ -2539,11 +2540,11 @@
       </c>
       <c r="J22" s="29">
         <f t="shared" si="1"/>
-        <v>1949.0700000000002</v>
+        <v>1939.73</v>
       </c>
       <c r="K22" s="47">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>46777.680000000008</v>
+        <v>46553.520000000004</v>
       </c>
       <c r="L22" s="48">
         <f t="shared" si="2"/>
@@ -2551,11 +2552,11 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="3"/>
-        <v>7.1183302289909065</v>
+        <v>7.0842189839669842</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="4"/>
-        <v>0.13405518322016774</v>
+        <v>0.13341278689203359</v>
       </c>
       <c r="O22" s="43"/>
     </row>
@@ -2583,7 +2584,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="46">
         <f>H22</f>
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="I23" s="25">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
@@ -2591,11 +2592,11 @@
       </c>
       <c r="J23" s="29">
         <f t="shared" si="1"/>
-        <v>1985.2900000000002</v>
+        <v>1975.95</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>1985.2900000000002</v>
+        <v>1975.95</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="2"/>
@@ -2603,20 +2604,20 @@
       </c>
       <c r="M23" s="20">
         <f t="shared" si="3"/>
-        <v>8.3559493244665184</v>
+        <v>8.3166379056357584</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="4"/>
-        <v>0.15736251081857849</v>
+        <v>0.15662218278033443</v>
       </c>
       <c r="O23" s="43"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>246739.68</v>
+        <v>245702.94</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>111.12798155220868</v>
+        <v>110.66104885782229</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2643,7 +2644,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="46">
         <f>Sayfa4!G2</f>
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="I24" s="25">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
@@ -2651,11 +2652,11 @@
       </c>
       <c r="J24" s="29">
         <f t="shared" si="1"/>
-        <v>16.040900000000004</v>
+        <v>15.898100000000003</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4793.0209200000018</v>
+        <v>4750.352280000001</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="2"/>
@@ -2663,16 +2664,16 @@
       </c>
       <c r="M24" s="20">
         <f t="shared" si="3"/>
-        <v>0.85681245192718603</v>
+        <v>0.84918489872660474</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="4"/>
-        <v>4.2000610388587552E-2</v>
+        <v>4.162671072189239E-2</v>
       </c>
       <c r="O24" s="43"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>24673.968000000001</v>
+        <v>24570.294000000002</v>
       </c>
       <c r="Q24" s="62">
         <v>0.1</v>
@@ -2705,7 +2706,7 @@
       <c r="G25" s="45"/>
       <c r="H25" s="46">
         <f>Sayfa4!E2</f>
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="I25" s="25">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
@@ -2713,11 +2714,11 @@
       </c>
       <c r="J25" s="29">
         <f t="shared" si="1"/>
-        <v>16.775700000000001</v>
+        <v>16.796299999999999</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18621.027000000002</v>
+        <v>18643.893</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="2"/>
@@ -2725,27 +2726,27 @@
       </c>
       <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>1.1183800000000002</v>
+        <v>1.1197533333333334</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="4"/>
-        <v>5.3941157556270103E-2</v>
+        <v>5.4007395498392285E-2</v>
       </c>
       <c r="O25" s="51">
         <f>SUM(K18:K25)</f>
-        <v>245299.34792000003</v>
+        <v>243775.80528</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>271413.64799999999</v>
+        <v>270273.234</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>135.70682399999998</v>
+        <v>135.136617</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>107.27812173913043</v>
+        <v>106.8273652173913</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2796,7 +2797,7 @@
       <c r="O28" s="43"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>301312.57546367997</v>
+        <v>300046.53345744003</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -4764,10 +4765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4806,19 +4807,19 @@
     <row r="2" spans="1:33">
       <c r="A2" s="90">
         <f>A5</f>
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="I2">
         <f>I5</f>
@@ -4826,19 +4827,19 @@
       </c>
       <c r="K2">
         <f>K5</f>
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="M2">
         <f>M5</f>
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
       <c r="O2" s="91">
         <f>Sayfa2!B5</f>
-        <v>157.20504413496553</v>
+        <v>156.1283538399247</v>
       </c>
       <c r="P2" s="92">
         <f>Sayfa2!K2</f>
-        <v>250427.63530700008</v>
+        <v>248712.46766700005</v>
       </c>
       <c r="T2">
         <f>T5</f>
@@ -4917,50 +4918,50 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="90">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B5" s="88">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="D5">
-        <f>D14</f>
+        <f>D15</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="F5">
-        <f>F14</f>
+        <f>F15</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="J5">
-        <f>J14</f>
+        <f>J15</f>
         <v>125000</v>
       </c>
       <c r="K5">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="L5">
         <v>68</v>
       </c>
       <c r="M5">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
       <c r="N5" s="89">
-        <f>(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(J5*K5)+(S5*T5)+(U5*V5)+(W5*X5)+(L5*M5)</f>
-        <v>524610.95937499998</v>
+        <f t="shared" ref="N5:N20" si="0">(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(J5*K5)+(S5*T5)+(U5*V5)+(W5*X5)+(L5*M5)</f>
+        <v>522868.00020299997</v>
       </c>
       <c r="O5">
-        <v>157.21</v>
+        <v>156.13</v>
       </c>
       <c r="P5">
-        <v>250427.64</v>
+        <v>248712.47</v>
       </c>
       <c r="Q5">
         <v>8907</v>
@@ -4968,58 +4969,58 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="90">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6" s="88">
         <v>161</v>
       </c>
       <c r="C6">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="D6">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="F6">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="J6">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K6">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="L6">
         <v>68</v>
       </c>
       <c r="M6">
-        <v>18.22</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="N6" s="89">
-        <f>(B6*C6)+(D6*E6)+(F6*G6)+(H6*I6)+(J6*K6)+(S6*T6)+(U6*V6)+(W6*X6)+(L6*M6)</f>
-        <v>525154.255</v>
+        <f t="shared" ref="N6" si="1">(B6*C6)+(D6*E6)+(F6*G6)+(H6*I6)+(J6*K6)+(S6*T6)+(U6*V6)+(W6*X6)+(L6*M6)</f>
+        <v>524610.95937499998</v>
       </c>
       <c r="O6">
-        <v>160.79</v>
+        <v>157.21</v>
       </c>
       <c r="P6">
-        <v>250989.9</v>
+        <v>250427.64</v>
       </c>
       <c r="Q6">
-        <v>8910.23</v>
+        <v>8907</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="90">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B7" s="88">
         <v>161</v>
@@ -5028,403 +5029,370 @@
         <v>2220.3200000000002</v>
       </c>
       <c r="D7">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E7">
-        <v>31.516400000000001</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G7">
-        <v>34.463200000000001</v>
+        <v>35</v>
       </c>
       <c r="J7">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K7">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="L7">
         <v>68</v>
       </c>
       <c r="M7">
-        <v>16.57</v>
+        <v>18.22</v>
       </c>
       <c r="N7" s="89">
-        <f>(B7*C7)+(D7*E7)+(F7*G7)+(H7*I7)+(J7*K7)+(S7*T7)+(U7*V7)+(W7*X7)+(L7*M7)</f>
-        <v>527079.91476800013</v>
+        <f t="shared" si="0"/>
+        <v>525154.255</v>
       </c>
       <c r="O7">
-        <v>161.94999999999999</v>
+        <v>160.79</v>
       </c>
       <c r="P7">
-        <v>252645.61</v>
+        <v>250989.9</v>
       </c>
       <c r="Q7">
-        <v>9069.0300000000007</v>
+        <v>8910.23</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="90">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B8" s="88">
         <v>161</v>
       </c>
       <c r="C8">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="D8">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E8">
-        <v>31.571400000000001</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="F8">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G8">
-        <v>34.558100000000003</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="J8">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K8">
-        <v>0.99851990000000002</v>
+        <v>0.979213</v>
       </c>
       <c r="L8">
         <v>68</v>
       </c>
       <c r="M8">
-        <v>15.07</v>
+        <v>16.57</v>
       </c>
       <c r="N8" s="89">
-        <f>(B8*C8)+(D8*E8)+(F8*G8)+(H8*I8)+(J8*K8)+(S8*T8)+(U8*V8)+(W8*X8)+(L8*M8)</f>
-        <v>532801.83411900001</v>
+        <f t="shared" si="0"/>
+        <v>527079.91476800013</v>
       </c>
       <c r="O8">
-        <v>164.91</v>
+        <v>161.94999999999999</v>
       </c>
       <c r="P8">
-        <v>257088.48</v>
+        <v>252645.61</v>
       </c>
       <c r="Q8">
-        <v>9131.82</v>
-      </c>
-      <c r="U8">
-        <v>12</v>
-      </c>
-      <c r="V8">
-        <v>41.58</v>
-      </c>
-      <c r="W8">
-        <f>W15</f>
-        <v>15</v>
-      </c>
-      <c r="X8">
-        <v>55.55</v>
-      </c>
-      <c r="Z8">
-        <f>Z9</f>
-        <v>9</v>
-      </c>
-      <c r="AA8">
-        <v>129.80000000000001</v>
-      </c>
-      <c r="AB8">
-        <v>26</v>
-      </c>
-      <c r="AC8">
-        <v>44.66</v>
-      </c>
-      <c r="AD8">
-        <v>65</v>
-      </c>
-      <c r="AE8">
-        <v>22.66</v>
-      </c>
-      <c r="AF8">
-        <v>3500</v>
-      </c>
-      <c r="AG8">
-        <f>K2</f>
-        <v>0.95100700000000005</v>
+        <v>9069.0300000000007</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="90">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B9" s="88">
         <v>161</v>
       </c>
       <c r="C9">
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="D9">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E9">
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="F9">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G9">
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="J9">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K9">
-        <v>0.99115900000000001</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="L9">
         <v>68</v>
       </c>
       <c r="M9">
-        <v>13.7</v>
+        <v>15.07</v>
       </c>
       <c r="N9" s="89">
-        <f>(B9*C9)+(D9*E9)+(F9*G9)+(H9*I9)+(J9*K9)+(S9*T9)+(U9*V9)+(W9*X9)+(L9*M9)</f>
-        <v>525972.37595699995</v>
+        <f t="shared" si="0"/>
+        <v>532801.83411900001</v>
       </c>
       <c r="O9">
-        <v>160.9</v>
+        <v>164.91</v>
+      </c>
+      <c r="P9">
+        <v>257088.48</v>
       </c>
       <c r="Q9">
-        <v>9155.32</v>
+        <v>9131.82</v>
       </c>
       <c r="U9">
         <v>12</v>
       </c>
       <c r="V9">
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="W9">
-        <f>W15</f>
+        <f>W16</f>
         <v>15</v>
       </c>
       <c r="X9">
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="Z9">
+        <f>Z10</f>
         <v>9</v>
       </c>
       <c r="AA9">
-        <v>130</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="AB9">
         <v>26</v>
       </c>
       <c r="AC9">
-        <v>55.08</v>
+        <v>44.66</v>
       </c>
       <c r="AD9">
         <v>65</v>
       </c>
       <c r="AE9">
-        <v>11.33</v>
+        <v>22.66</v>
       </c>
       <c r="AF9">
         <v>3500</v>
       </c>
       <c r="AG9">
-        <v>0.97</v>
+        <f>K2</f>
+        <v>0.94838599999999995</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="90">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B10" s="88">
         <v>161</v>
       </c>
       <c r="C10">
-        <v>2184.79</v>
+        <v>2198.16</v>
       </c>
       <c r="D10">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E10">
-        <v>31.297000000000001</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="F10">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G10">
-        <v>34.110599999999998</v>
+        <v>34.3643</v>
       </c>
       <c r="J10">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K10">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="L10">
         <v>68</v>
       </c>
       <c r="M10">
-        <v>12.46</v>
+        <v>13.7</v>
       </c>
       <c r="N10" s="89">
-        <f>(B10*C10)+(D10*E10)+(F10*G10)+(H10*I10)+(J10*K10)+(S10*T10)+(U10*V10)+(W10*X10)+(L10*M10)</f>
-        <v>517832.22209400003</v>
+        <f t="shared" si="0"/>
+        <v>525972.37595699995</v>
       </c>
       <c r="O10">
-        <v>155.75</v>
+        <v>160.9</v>
       </c>
       <c r="Q10">
-        <v>9054.18</v>
+        <v>9155.32</v>
       </c>
       <c r="U10">
         <v>12</v>
       </c>
       <c r="V10">
-        <v>34.380000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="W10">
-        <f>W15</f>
+        <f>W16</f>
         <v>15</v>
       </c>
       <c r="X10">
-        <v>63.1</v>
+        <v>57.75</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10">
+        <v>130</v>
+      </c>
+      <c r="AB10">
+        <v>26</v>
+      </c>
+      <c r="AC10">
+        <v>55.08</v>
+      </c>
+      <c r="AD10">
+        <v>65</v>
+      </c>
+      <c r="AE10">
+        <v>11.33</v>
+      </c>
+      <c r="AF10">
+        <v>3500</v>
+      </c>
+      <c r="AG10">
+        <v>0.97</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="90">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B11" s="88">
         <v>161</v>
       </c>
       <c r="C11">
-        <v>2150.9</v>
+        <v>2184.79</v>
       </c>
       <c r="D11">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E11">
-        <v>31.293399999999998</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="F11">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G11">
-        <v>34.006500000000003</v>
-      </c>
-      <c r="H11">
-        <f>H15</f>
-        <v>57</v>
-      </c>
-      <c r="I11">
-        <v>580.05924800000003</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="J11">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K11">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="L11">
         <v>68</v>
       </c>
       <c r="M11">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
       <c r="N11" s="89">
-        <f>(B11*C11)+(D11*E11)+(F11*G11)+(H11*I11)+(J11*K11)+(S11*T11)+(U11*V11)+(W11*X11)+(L11*M11)</f>
-        <v>551296.63907099993</v>
+        <f t="shared" si="0"/>
+        <v>517832.22209400003</v>
       </c>
       <c r="O11">
-        <v>156.16</v>
+        <v>155.75</v>
       </c>
       <c r="Q11">
-        <v>8744.58</v>
+        <v>9054.18</v>
       </c>
       <c r="U11">
         <v>12</v>
       </c>
       <c r="V11">
-        <v>31.26</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="W11">
-        <f>W15</f>
+        <f>W16</f>
         <v>15</v>
       </c>
       <c r="X11">
-        <v>57.4</v>
-      </c>
-      <c r="AA11">
-        <f>AA12*Z9</f>
-        <v>1170</v>
-      </c>
-      <c r="AC11">
-        <f>AC12*AB9</f>
-        <v>1432.08</v>
-      </c>
-      <c r="AE11">
-        <f>AE12*AD9</f>
-        <v>736.45</v>
-      </c>
-      <c r="AG11">
-        <f>AG12*AF9</f>
-        <v>3395</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="90">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B12" s="88">
         <v>161</v>
       </c>
       <c r="C12">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="D12">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E12">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="F12">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G12">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="H12">
-        <f>H15</f>
+        <f>H16</f>
         <v>57</v>
       </c>
       <c r="I12">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="J12">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K12">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="L12">
         <v>68</v>
@@ -5433,91 +5401,82 @@
         <v>11.33</v>
       </c>
       <c r="N12" s="89">
-        <f>(B12*C12)+(D12*E12)+(F12*G12)+(H12*I12)+(J12*K12)+(S12*T12)+(U12*V12)+(W12*X12)+(L12*M12)</f>
-        <v>549382.85210899997</v>
+        <f t="shared" si="0"/>
+        <v>551296.63907099993</v>
       </c>
       <c r="O12">
-        <v>154.22999999999999</v>
+        <v>156.16</v>
       </c>
       <c r="Q12">
-        <v>8860.52</v>
-      </c>
-      <c r="S12">
-        <f>S15</f>
-        <v>36</v>
-      </c>
-      <c r="T12" s="97">
-        <v>38.15</v>
+        <v>8744.58</v>
       </c>
       <c r="U12">
-        <f>U15</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="W12">
-        <f>W15</f>
+        <f>W16</f>
         <v>15</v>
       </c>
       <c r="X12">
-        <v>52.2</v>
-      </c>
-      <c r="AA12" s="98">
-        <f>AA9</f>
-        <v>130</v>
-      </c>
-      <c r="AC12" s="98">
-        <f>AC9</f>
-        <v>55.08</v>
-      </c>
-      <c r="AE12" s="98">
-        <f>AE9</f>
-        <v>11.33</v>
-      </c>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="98">
-        <f>AG9</f>
-        <v>0.97</v>
+        <v>57.4</v>
+      </c>
+      <c r="AA12">
+        <f>AA13*Z10</f>
+        <v>1170</v>
+      </c>
+      <c r="AC12">
+        <f>AC13*AB10</f>
+        <v>1432.08</v>
+      </c>
+      <c r="AE12">
+        <f>AE13*AD10</f>
+        <v>736.45</v>
+      </c>
+      <c r="AG12">
+        <f>AG13*AF10</f>
+        <v>3395</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="90">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B13" s="88">
         <v>161</v>
       </c>
       <c r="C13">
-        <v>2072.52</v>
+        <v>2116.34</v>
       </c>
       <c r="D13">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E13">
-        <v>30.905999999999999</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="F13">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G13">
-        <v>33.542299999999997</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="H13">
-        <f>H15</f>
+        <f>H16</f>
         <v>57</v>
       </c>
       <c r="I13">
-        <v>578.66060300000004</v>
+        <v>579.361718</v>
       </c>
       <c r="J13">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K13">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="L13">
         <v>68</v>
@@ -5526,84 +5485,91 @@
         <v>11.33</v>
       </c>
       <c r="N13" s="89">
-        <f>(B13*C13)+(D13*E13)+(F13*G13)+(H13*I13)+(J13*K13)+(S13*T13)+(U13*V13)+(W13*X13)+(L13*M13)</f>
-        <v>545049.74954799982</v>
+        <f t="shared" si="0"/>
+        <v>549382.85210899997</v>
+      </c>
+      <c r="O13">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q13">
-        <v>8907.65</v>
+        <v>8860.52</v>
       </c>
       <c r="S13">
-        <f>S15</f>
+        <f>S16</f>
         <v>36</v>
       </c>
-      <c r="T13">
-        <v>34.659999999999997</v>
+      <c r="T13" s="97">
+        <v>38.15</v>
       </c>
       <c r="U13">
-        <f>U15</f>
+        <f>U16</f>
         <v>12</v>
       </c>
       <c r="V13">
-        <v>25.84</v>
+        <v>28.42</v>
       </c>
       <c r="W13">
-        <f>W15</f>
+        <f>W16</f>
         <v>15</v>
       </c>
       <c r="X13">
-        <v>47.46</v>
-      </c>
-      <c r="AA13" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC13" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE13" s="98" t="s">
-        <v>60</v>
+        <v>52.2</v>
+      </c>
+      <c r="AA13" s="98">
+        <f>AA10</f>
+        <v>130</v>
+      </c>
+      <c r="AC13" s="98">
+        <f>AC10</f>
+        <v>55.08</v>
+      </c>
+      <c r="AE13" s="98">
+        <f>AE10</f>
+        <v>11.33</v>
       </c>
       <c r="AF13" s="98"/>
-      <c r="AG13" s="98" t="s">
-        <v>60</v>
+      <c r="AG13" s="98">
+        <f>AG10</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="90">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B14" s="88">
         <v>161</v>
       </c>
       <c r="C14">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="D14">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E14">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="F14">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G14">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="H14">
-        <f>H15</f>
+        <f>H16</f>
         <v>57</v>
       </c>
       <c r="I14">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="J14">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K14">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="L14">
         <v>68</v>
@@ -5612,50 +5578,50 @@
         <v>11.33</v>
       </c>
       <c r="N14" s="89">
-        <f>(B14*C14)+(D14*E14)+(F14*G14)+(H14*I14)+(J14*K14)+(S14*T14)+(U14*V14)+(W14*X14)+(L14*M14)</f>
-        <v>534814.50418999989</v>
+        <f t="shared" si="0"/>
+        <v>545049.74954799982</v>
       </c>
       <c r="Q14">
-        <v>9097.15</v>
+        <v>8907.65</v>
       </c>
       <c r="S14">
-        <f>S15</f>
+        <f>S16</f>
         <v>36</v>
       </c>
       <c r="T14">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="U14">
-        <f>U15</f>
+        <f>U16</f>
         <v>12</v>
       </c>
       <c r="V14">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="W14">
-        <f>W15</f>
+        <f>W16</f>
         <v>15</v>
       </c>
       <c r="X14">
-        <v>43.16</v>
-      </c>
-      <c r="AA14" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC14" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE14" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99" t="s">
-        <v>61</v>
+        <v>47.46</v>
+      </c>
+      <c r="AA14" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC14" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE14" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="90">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="88">
         <v>161</v>
@@ -5689,56 +5655,59 @@
         <v>125000</v>
       </c>
       <c r="K15">
-        <v>1.010337</v>
+        <v>1.034036</v>
+      </c>
+      <c r="L15">
+        <v>68</v>
+      </c>
+      <c r="M15">
+        <v>11.33</v>
       </c>
       <c r="N15" s="89">
-        <f>(B15*C15)+(D15*E15)+(F15*G15)+(H15*I15)+(J15*K15)+(S15*T15)+(U15*V15)+(W15*X15)+(L15*M15)</f>
-        <v>530894.48918999999</v>
+        <f t="shared" si="0"/>
+        <v>534814.50418999989</v>
       </c>
       <c r="Q15">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="S15">
         <f>S16</f>
         <v>36</v>
       </c>
       <c r="T15">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="U15">
         <f>U16</f>
         <v>12</v>
       </c>
       <c r="V15">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="W15">
+        <f>W16</f>
         <v>15</v>
       </c>
       <c r="X15">
-        <v>39.24</v>
-      </c>
-      <c r="AA15" s="99">
-        <f>AA8</f>
-        <v>129.80000000000001</v>
-      </c>
-      <c r="AC15" s="99">
-        <f>AC8</f>
-        <v>44.66</v>
-      </c>
-      <c r="AE15" s="99">
-        <f>AE8</f>
-        <v>22.66</v>
+        <v>43.16</v>
+      </c>
+      <c r="AA15" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC15" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15" s="99" t="s">
+        <v>61</v>
       </c>
       <c r="AF15" s="99"/>
-      <c r="AG15" s="99">
-        <f>AG8</f>
-        <v>0.95100700000000005</v>
+      <c r="AG15" s="99" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="90">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B16" s="88">
         <v>161</v>
@@ -5747,18 +5716,21 @@
         <v>2018.91</v>
       </c>
       <c r="D16">
+        <f>D17</f>
         <v>1110</v>
       </c>
       <c r="E16">
         <v>30.7361</v>
       </c>
       <c r="F16">
+        <f>F17</f>
         <v>321.99</v>
       </c>
       <c r="G16">
         <v>33.225700000000003</v>
       </c>
       <c r="H16">
+        <f>H17</f>
         <v>57</v>
       </c>
       <c r="I16">
@@ -5769,46 +5741,57 @@
         <v>125000</v>
       </c>
       <c r="K16">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="N16" s="89">
-        <f>(B16*C16)+(D16*E16)+(F16*G16)+(H16*I16)+(J16*K16)+(S16*T16)+(U16*V16)+(W16*X16)+(L16*M16)</f>
-        <v>537360.00419000001</v>
+        <f t="shared" si="0"/>
+        <v>530894.48918999999</v>
       </c>
       <c r="Q16">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="S16">
         <f>S17</f>
         <v>36</v>
       </c>
       <c r="T16">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="U16">
+        <f>U17</f>
         <v>12</v>
       </c>
       <c r="V16">
-        <v>19.45</v>
-      </c>
-      <c r="AA16">
-        <f>AA15*Z9</f>
-        <v>1168.2</v>
-      </c>
-      <c r="AC16">
-        <f>AC15*AB9</f>
-        <v>1161.1599999999999</v>
-      </c>
-      <c r="AE16">
-        <f>AE15*AD9</f>
-        <v>1472.9</v>
-      </c>
-      <c r="AG16">
-        <f>AF8*AG8</f>
-        <v>3328.5245</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34">
+        <v>21.38</v>
+      </c>
+      <c r="W16">
+        <v>15</v>
+      </c>
+      <c r="X16">
+        <v>39.24</v>
+      </c>
+      <c r="AA16" s="99">
+        <f>AA9</f>
+        <v>129.80000000000001</v>
+      </c>
+      <c r="AC16" s="99">
+        <f>AC9</f>
+        <v>44.66</v>
+      </c>
+      <c r="AE16" s="99">
+        <f>AE9</f>
+        <v>22.66</v>
+      </c>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99">
+        <f>AG9</f>
+        <v>0.94838599999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="90">
+        <v>45350</v>
+      </c>
       <c r="B17" s="88">
         <v>161</v>
       </c>
@@ -5834,43 +5817,50 @@
         <v>576.58807100000001</v>
       </c>
       <c r="J17">
+        <f>J18</f>
         <v>125000</v>
       </c>
       <c r="K17">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="N17" s="89">
-        <f>(B17*C17)+(D17*E17)+(F17*G17)+(H17*I17)+(J17*K17)+(S17*T17)+(U17*V17)+(W17*X17)+(L17*M17)</f>
-        <v>536633.0191899999</v>
+        <f t="shared" si="0"/>
+        <v>537360.00419000001</v>
       </c>
       <c r="Q17">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="S17">
+        <f>S18</f>
         <v>36</v>
       </c>
       <c r="T17">
-        <v>23.7</v>
-      </c>
-      <c r="AA17" s="100">
-        <f>(AA15-AA9)/AA9</f>
-        <v>-1.5384615384614511E-3</v>
-      </c>
-      <c r="AC17" s="100">
-        <f>(AC15-AC9)/AC9</f>
-        <v>-0.1891793754538853</v>
-      </c>
-      <c r="AE17" s="100">
-        <f>(AE15-AE9)/AE9</f>
-        <v>1</v>
-      </c>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="100">
-        <f>(AG15-AG9)/AG9</f>
-        <v>-1.9580412371133945E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34">
+        <v>26.06</v>
+      </c>
+      <c r="U17">
+        <v>12</v>
+      </c>
+      <c r="V17">
+        <v>19.45</v>
+      </c>
+      <c r="AA17">
+        <f>AA16*Z10</f>
+        <v>1168.2</v>
+      </c>
+      <c r="AC17">
+        <f>AC16*AB10</f>
+        <v>1161.1599999999999</v>
+      </c>
+      <c r="AE17">
+        <f>AE16*AD10</f>
+        <v>1472.9</v>
+      </c>
+      <c r="AG17">
+        <f>AF9*AG9</f>
+        <v>3319.3509999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="B18" s="88">
         <v>161</v>
       </c>
@@ -5896,24 +5886,43 @@
         <v>576.58807100000001</v>
       </c>
       <c r="J18">
-        <f>J19</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="K18">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N18" s="89">
-        <f>(B18*C18)+(D18*E18)+(F18*G18)+(H18*I18)+(J18*K18)+(S18*T18)+(U18*V18)+(W18*X18)+(L18*M18)</f>
-        <v>454463.60418999993</v>
+        <f t="shared" si="0"/>
+        <v>536633.0191899999</v>
+      </c>
+      <c r="Q18">
+        <v>9179.48</v>
       </c>
       <c r="S18">
         <v>36</v>
       </c>
       <c r="T18">
-        <v>21.56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34">
+        <v>23.7</v>
+      </c>
+      <c r="AA18" s="100">
+        <f>(AA16-AA10)/AA10</f>
+        <v>-1.5384615384614511E-3</v>
+      </c>
+      <c r="AC18" s="100">
+        <f>(AC16-AC10)/AC10</f>
+        <v>-0.1891793754538853</v>
+      </c>
+      <c r="AE18" s="100">
+        <f>(AE16-AE10)/AE10</f>
+        <v>1</v>
+      </c>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100">
+        <f>(AG16-AG10)/AG10</f>
+        <v>-2.2282474226804148E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="B19" s="88">
         <v>161</v>
       </c>
@@ -5939,191 +5948,234 @@
         <v>576.58807100000001</v>
       </c>
       <c r="J19">
+        <f>J20</f>
         <v>50000</v>
       </c>
       <c r="K19">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N19" s="89">
-        <f>(B19*C19)+(D19*E19)+(F19*G19)+(H19*I19)+(J19*K19)+(S19*T19)+(U19*V19)+(W19*X19)+(L19*M19)</f>
-        <v>453591.29418999993</v>
+        <f t="shared" si="0"/>
+        <v>454463.60418999993</v>
       </c>
       <c r="S19">
         <v>36</v>
       </c>
       <c r="T19">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="Z19" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA19" s="101">
-        <f>(Z9*AA15)-(Z8*AA9)</f>
-        <v>-1.7999999999999545</v>
-      </c>
-      <c r="AB19" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC19" s="101">
-        <f>(AB9*AC15)-(AB8*AC9)</f>
-        <v>-270.92000000000007</v>
-      </c>
-      <c r="AD19" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE19" s="101">
-        <f>(AD9*AE15)-(AD8*AE9)</f>
-        <v>736.45</v>
-      </c>
-      <c r="AF19" s="101"/>
-      <c r="AG19" s="101">
-        <f>(AF9*AG15)-(AF8*AG9)</f>
-        <v>-66.475500000000011</v>
-      </c>
-      <c r="AH19">
-        <f>SUM(AA19:AG19)</f>
-        <v>397.25450000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="B20" s="88">
+        <v>161</v>
+      </c>
+      <c r="C20">
+        <v>2018.91</v>
+      </c>
+      <c r="D20">
+        <v>1110</v>
+      </c>
+      <c r="E20">
+        <v>30.7361</v>
+      </c>
+      <c r="F20">
+        <v>321.99</v>
+      </c>
+      <c r="G20">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H20">
+        <v>57</v>
+      </c>
+      <c r="I20">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="J20">
+        <v>50000</v>
+      </c>
       <c r="K20">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N20" s="89">
+        <f t="shared" si="0"/>
+        <v>453591.29418999993</v>
       </c>
       <c r="S20">
         <v>36</v>
       </c>
       <c r="T20">
-        <v>17.82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Z20" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA20" s="101">
+        <f>(Z10*AA16)-(Z9*AA10)</f>
+        <v>-1.7999999999999545</v>
+      </c>
+      <c r="AB20" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC20" s="101">
+        <f>(AB10*AC16)-(AB9*AC10)</f>
+        <v>-270.92000000000007</v>
+      </c>
+      <c r="AD20" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="101">
+        <f>(AD10*AE16)-(AD9*AE10)</f>
+        <v>736.45</v>
+      </c>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="101">
+        <f>(AF10*AG16)-(AF9*AG10)</f>
+        <v>-75.649000000000342</v>
+      </c>
+      <c r="AH20">
+        <f>SUM(AA20:AG20)</f>
+        <v>388.08099999999968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="K21">
-        <v>0.93849000000000005</v>
-      </c>
-      <c r="M21" s="98">
-        <f>M14</f>
-        <v>11.33</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="S21">
         <v>36</v>
       </c>
-      <c r="T21" s="98">
+      <c r="T21">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="K22">
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="M22" s="98">
+        <f>M15</f>
+        <v>11.33</v>
+      </c>
+      <c r="S22">
+        <v>36</v>
+      </c>
+      <c r="T22" s="98">
         <v>15.3</v>
       </c>
-      <c r="V21" s="98">
-        <f>V16</f>
+      <c r="V22" s="98">
+        <f>V17</f>
         <v>19.45</v>
       </c>
-      <c r="X21" s="98">
-        <f>X15</f>
+      <c r="X22" s="98">
+        <f>X16</f>
         <v>39.24</v>
       </c>
     </row>
-    <row r="22" spans="2:34">
-      <c r="K22">
+    <row r="23" spans="1:34">
+      <c r="K23">
         <v>0.91198999999999997</v>
       </c>
-      <c r="M22" s="98" t="s">
+      <c r="M23" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="T22" s="98" t="s">
+      <c r="T23" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="V22" s="98" t="s">
+      <c r="V23" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="X22" s="98" t="s">
+      <c r="X23" s="98" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:34">
-      <c r="K23">
+    <row r="24" spans="1:34">
+      <c r="K24">
         <v>0.90268000000000004</v>
       </c>
-      <c r="M23" s="99" t="s">
+      <c r="M24" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="T23" s="99" t="s">
+      <c r="T24" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="V23" s="99" t="s">
+      <c r="V24" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="X23" s="99" t="s">
+      <c r="X24" s="99" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:34">
-      <c r="K24">
+    <row r="25" spans="1:34">
+      <c r="K25">
         <v>0.89847999999999995</v>
       </c>
-      <c r="M24" s="99">
+      <c r="M25" s="99">
         <f>M2</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="S24" t="s">
+        <v>22.04</v>
+      </c>
+      <c r="S25" t="s">
         <v>62</v>
       </c>
-      <c r="T24" s="99">
+      <c r="T25" s="99">
         <v>38</v>
       </c>
-      <c r="V24" s="99">
+      <c r="V25" s="99">
         <v>45.72</v>
       </c>
-      <c r="X24" s="99">
+      <c r="X25" s="99">
         <v>55.5</v>
       </c>
     </row>
-    <row r="25" spans="2:34">
-      <c r="K25">
+    <row r="26" spans="1:34">
+      <c r="K26">
         <v>0.88783999999999996</v>
       </c>
-      <c r="M25" s="100">
-        <f>(M24-M14)/M14</f>
-        <v>0.8005295675198586</v>
-      </c>
-      <c r="T25" s="100">
+      <c r="M26" s="100">
+        <f>(M25-M15)/M15</f>
+        <v>0.94527802294792573</v>
+      </c>
+      <c r="T26" s="100">
         <f>Sayfa2!M39</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="V25" s="100">
-        <f>(V24-V16)/V16</f>
+      <c r="V26" s="100">
+        <f>(V25-V17)/V17</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="X25" s="100">
-        <f>(X24-X15)/X15</f>
+      <c r="X26" s="100">
+        <f>(X25-X16)/X16</f>
         <v>0.41437308868501521</v>
       </c>
     </row>
-    <row r="26" spans="2:34">
-      <c r="K26">
+    <row r="27" spans="1:34">
+      <c r="K27">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="27" spans="2:34">
-      <c r="M27" s="101">
-        <f>(L14*M24)-(L5*M14)</f>
-        <v>616.75999999999976</v>
-      </c>
-      <c r="S27" s="101" t="s">
+    <row r="28" spans="1:34">
+      <c r="M28" s="101">
+        <f>(L15*M25)-(L5*M15)</f>
+        <v>728.28</v>
+      </c>
+      <c r="S28" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="T27" s="101">
+      <c r="T28" s="101">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="U27" s="101" t="s">
+      <c r="U28" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="V27" s="101">
-        <f>(U16*V24)-(U5*V16)</f>
+      <c r="V28" s="101">
+        <f>(U17*V25)-(U5*V17)</f>
         <v>548.64</v>
       </c>
-      <c r="W27" s="101" t="s">
+      <c r="W28" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="X27" s="101">
-        <f>(W15*X24)-(W5*X15)</f>
+      <c r="X28" s="101">
+        <f>(W16*X25)-(W5*X16)</f>
         <v>832.5</v>
       </c>
     </row>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A6588-1DBE-424B-B418-640AA9301527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A48B3B4-8D50-4FEB-8F65-22C8376B67EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1387,13 +1387,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>422384</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>13139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>41384</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>126019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1431,13 +1431,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>157655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>96358</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>137166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1475,13 +1475,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>558362</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>45984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>99299</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>4166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ82"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>248712.46766700005</v>
+        <v>247623.16730700003</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1901,7 +1901,7 @@
     <row r="5" spans="1:15">
       <c r="B5" s="3">
         <f>K2/B4</f>
-        <v>156.1283538399247</v>
+        <v>155.44454947080982</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>3</v>
@@ -1912,23 +1912,23 @@
       </c>
       <c r="I5" s="17">
         <f>SUBTOTAL(109,I10:I26)</f>
-        <v>247201.66</v>
+        <v>247132.13</v>
       </c>
       <c r="K5" s="18">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>233059.46028000003</v>
+        <v>231970.15992000001</v>
       </c>
       <c r="L5" s="19">
         <f>K5/E5</f>
-        <v>0.80641818814550326</v>
+        <v>0.80264905720526125</v>
       </c>
       <c r="M5" s="20">
         <f>SUBTOTAL(101,M10:M18)</f>
-        <v>0.24837319029212232</v>
+        <v>0.26390836983394628</v>
       </c>
       <c r="N5" s="20">
         <f>SUBTOTAL(101,N10:N18)</f>
-        <v>0.13818316224122545</v>
+        <v>0.14863237598173928</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2063,7 +2063,7 @@
       <c r="N10" s="35"/>
       <c r="O10" s="41">
         <f>SUM(O11:O25)</f>
-        <v>233059.46028</v>
+        <v>231970.15992000001</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2101,19 +2101,19 @@
       </c>
       <c r="H13" s="46">
         <f>Sayfa4!M2</f>
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
       <c r="I13" s="25">
         <f>Sayfa2!$H13*Sayfa2!$G13</f>
-        <v>1498.72</v>
+        <v>1561.28</v>
       </c>
       <c r="J13" s="29">
         <f>H13-D13</f>
-        <v>10.709999999999999</v>
+        <v>11.63</v>
       </c>
       <c r="K13" s="47">
         <f>Sayfa2!$J13*Sayfa2!$C13</f>
-        <v>728.28</v>
+        <v>790.84</v>
       </c>
       <c r="L13" s="48">
         <f>F13-B13</f>
@@ -2121,11 +2121,11 @@
       </c>
       <c r="M13" s="20">
         <f>K13/E13</f>
-        <v>0.94527802294792573</v>
+        <v>1.026478375992939</v>
       </c>
       <c r="N13" s="20">
         <f>M13/L13*30</f>
-        <v>0.61648566713995157</v>
+        <v>0.6694424191258298</v>
       </c>
       <c r="O13" s="43"/>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="G14" s="45"/>
       <c r="H14" s="46">
         <f>Sayfa4!K2</f>
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="I14" s="25">
         <f>Sayfa2!$H14*Sayfa2!$G14</f>
@@ -2161,11 +2161,11 @@
       </c>
       <c r="J14" s="29">
         <f>H14-D14</f>
-        <v>-0.11604900000000007</v>
+        <v>-0.125556</v>
       </c>
       <c r="K14" s="47">
         <f>Sayfa2!$J14*Sayfa2!$C14</f>
-        <v>-8703.6750000000047</v>
+        <v>-9416.7000000000007</v>
       </c>
       <c r="L14" s="48">
         <f>F14-B14</f>
@@ -2173,11 +2173,11 @@
       </c>
       <c r="M14" s="20">
         <f>K14/E14</f>
-        <v>-0.10902403622579121</v>
+        <v>-0.11795553509608385</v>
       </c>
       <c r="N14" s="20">
         <f>M14/L14*30</f>
-        <v>-6.8140022641119513E-2</v>
+        <v>-7.3722209435052408E-2</v>
       </c>
       <c r="O14" s="43"/>
     </row>
@@ -2205,7 +2205,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="46">
         <f>H14</f>
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="I15" s="25">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
@@ -2213,11 +2213,11 @@
       </c>
       <c r="J15" s="29">
         <f>H15-D15</f>
-        <v>-5.4818999999999951E-2</v>
+        <v>-6.4325999999999883E-2</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-2740.9499999999975</v>
+        <v>-3216.2999999999943</v>
       </c>
       <c r="L15" s="48">
         <f>F15-B15</f>
@@ -2225,15 +2225,15 @@
       </c>
       <c r="M15" s="20">
         <f>K15/E15</f>
-        <v>-5.4643866408161802E-2</v>
+        <v>-6.4120493817315397E-2</v>
       </c>
       <c r="N15" s="20">
         <f>M15/L15*30</f>
-        <v>-3.1525307543170275E-2</v>
+        <v>-3.6992592586912731E-2</v>
       </c>
       <c r="O15" s="51">
         <f>SUM(K13:K15)</f>
-        <v>-10716.345000000003</v>
+        <v>-11842.159999999994</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2283,19 +2283,19 @@
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!C5</f>
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="I18" s="25">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>110677</v>
+        <v>110617.5</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>387.01</v>
+        <v>385.81999999999994</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>19350.5</v>
+        <v>19290.999999999996</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
@@ -2303,23 +2303,23 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.2118826408545165</v>
+        <v>0.2112311322562454</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>3.5912312009240083E-2</v>
+        <v>3.5801886823092439E-2</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>110677</v>
+        <v>110617.5</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>55.338500000000003</v>
+        <v>55.308750000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2348,19 +2348,19 @@
       </c>
       <c r="H19" s="46">
         <f>H18</f>
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="I19" s="25">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>24348.94</v>
+        <v>24335.85</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" si="1"/>
-        <v>1811.44</v>
+        <v>1810.25</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>19925.84</v>
+        <v>19912.75</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="2"/>
@@ -2368,23 +2368,23 @@
       </c>
       <c r="M19" s="20">
         <f t="shared" si="3"/>
-        <v>4.5049490176572986</v>
+        <v>4.5019895548371052</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="4"/>
-        <v>0.1173163806681588</v>
+        <v>0.11723931132388296</v>
       </c>
       <c r="O19" s="43"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>24348.94</v>
+        <v>24335.85</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.174469999999999</v>
+        <v>12.167924999999999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2413,19 +2413,19 @@
       </c>
       <c r="H20" s="46">
         <f>H19</f>
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="I20" s="25">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>110677</v>
+        <v>110617.5</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>1744.6799999999998</v>
+        <v>1743.4899999999998</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>87233.999999999985</v>
+        <v>87174.499999999985</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="2"/>
@@ -2433,23 +2433,23 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="3"/>
-        <v>3.7211107793371148</v>
+        <v>3.7185727082711253</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="4"/>
-        <v>8.5086374527525488E-2</v>
+        <v>8.5028339365955607E-2</v>
       </c>
       <c r="O20" s="43"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>110677</v>
+        <v>110617.5</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>55.338500000000003</v>
+        <v>55.308750000000003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2476,7 +2476,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="46">
         <f>H20</f>
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="I21" s="25">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="J21" s="29">
         <f t="shared" si="1"/>
-        <v>1813.67</v>
+        <v>1812.48</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>45341.75</v>
+        <v>45312</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="2"/>
@@ -2496,16 +2496,16 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" si="3"/>
-        <v>4.5356490859529348</v>
+        <v>4.532673118763598</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" si="4"/>
-        <v>9.8887698094904108E-2</v>
+        <v>9.8822815089322627E-2</v>
       </c>
       <c r="O21" s="43"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>122.85147000000001</v>
+        <v>122.785425</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2532,7 +2532,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="46">
         <f>H21</f>
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="I22" s="25">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
@@ -2540,11 +2540,11 @@
       </c>
       <c r="J22" s="29">
         <f t="shared" si="1"/>
-        <v>1939.73</v>
+        <v>1938.54</v>
       </c>
       <c r="K22" s="47">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>46553.520000000004</v>
+        <v>46524.959999999999</v>
       </c>
       <c r="L22" s="48">
         <f t="shared" si="2"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="3"/>
-        <v>7.0842189839669842</v>
+        <v>7.0798729045688606</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="4"/>
-        <v>0.13341278689203359</v>
+        <v>0.13333093982238911</v>
       </c>
       <c r="O22" s="43"/>
     </row>
@@ -2584,7 +2584,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="46">
         <f>H22</f>
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="I23" s="25">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
@@ -2592,11 +2592,11 @@
       </c>
       <c r="J23" s="29">
         <f t="shared" si="1"/>
-        <v>1975.95</v>
+        <v>1974.76</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>1975.95</v>
+        <v>1974.76</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="2"/>
@@ -2604,20 +2604,20 @@
       </c>
       <c r="M23" s="20">
         <f t="shared" si="3"/>
-        <v>8.3166379056357584</v>
+        <v>8.311629277326487</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="4"/>
-        <v>0.15662218278033443</v>
+        <v>0.15652785833006569</v>
       </c>
       <c r="O23" s="43"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>245702.94</v>
+        <v>245570.85</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>110.66104885782229</v>
+        <v>110.60155743316278</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2644,7 +2644,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="46">
         <f>Sayfa4!G2</f>
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="I24" s="25">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="J24" s="29">
         <f t="shared" si="1"/>
-        <v>15.898100000000003</v>
+        <v>16.090900000000001</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4750.352280000001</v>
+        <v>4807.9609200000004</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="2"/>
@@ -2664,16 +2664,16 @@
       </c>
       <c r="M24" s="20">
         <f t="shared" si="3"/>
-        <v>0.84918489872660474</v>
+        <v>0.85948316383215118</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="4"/>
-        <v>4.162671072189239E-2</v>
+        <v>4.2131527638830941E-2</v>
       </c>
       <c r="O24" s="43"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>24570.294000000002</v>
+        <v>24557.085000000003</v>
       </c>
       <c r="Q24" s="62">
         <v>0.1</v>
@@ -2706,7 +2706,7 @@
       <c r="G25" s="45"/>
       <c r="H25" s="46">
         <f>Sayfa4!E2</f>
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="I25" s="25">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
@@ -2714,11 +2714,11 @@
       </c>
       <c r="J25" s="29">
         <f t="shared" si="1"/>
-        <v>16.796299999999999</v>
+        <v>16.9499</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18643.893</v>
+        <v>18814.388999999999</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="2"/>
@@ -2726,27 +2726,27 @@
       </c>
       <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>1.1197533333333334</v>
+        <v>1.1299933333333332</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="4"/>
-        <v>5.4007395498392285E-2</v>
+        <v>5.450128617363343E-2</v>
       </c>
       <c r="O25" s="51">
         <f>SUM(K18:K25)</f>
-        <v>243775.80528</v>
+        <v>243812.31992000001</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>270273.234</v>
+        <v>270127.935</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>135.136617</v>
+        <v>135.06396749999999</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>106.8273652173913</v>
+        <v>106.7699347826087</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2797,7 +2797,7 @@
       <c r="O28" s="43"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>300046.53345744003</v>
+        <v>299885.22831959999</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -4765,9 +4765,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -4807,19 +4807,19 @@
     <row r="2" spans="1:33">
       <c r="A2" s="90">
         <f>A5</f>
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="I2">
         <f>I5</f>
@@ -4827,19 +4827,19 @@
       </c>
       <c r="K2">
         <f>K5</f>
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="M2">
         <f>M5</f>
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
       <c r="O2" s="91">
         <f>Sayfa2!B5</f>
-        <v>156.1283538399247</v>
+        <v>155.44454947080982</v>
       </c>
       <c r="P2" s="92">
         <f>Sayfa2!K2</f>
-        <v>248712.46766700005</v>
+        <v>247623.16730700003</v>
       </c>
       <c r="T2">
         <f>T5</f>
@@ -4918,50 +4918,50 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="90">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B5" s="88">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="D5">
-        <f>D15</f>
+        <f>D16</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="F5">
-        <f>F15</f>
+        <f>F16</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="J5">
-        <f>J15</f>
+        <f>J16</f>
         <v>125000</v>
       </c>
       <c r="K5">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="L5">
         <v>68</v>
       </c>
       <c r="M5">
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
       <c r="N5" s="89">
-        <f t="shared" ref="N5:N20" si="0">(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(J5*K5)+(S5*T5)+(U5*V5)+(W5*X5)+(L5*M5)</f>
-        <v>522868.00020299997</v>
+        <f t="shared" ref="N5:N21" si="0">(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(J5*K5)+(S5*T5)+(U5*V5)+(W5*X5)+(L5*M5)</f>
+        <v>521783.17087500001</v>
       </c>
       <c r="O5">
-        <v>156.13</v>
+        <v>155.44</v>
       </c>
       <c r="P5">
-        <v>248712.47</v>
+        <v>247623.17</v>
       </c>
       <c r="Q5">
         <v>8907</v>
@@ -4969,50 +4969,50 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="90">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B6" s="88">
         <v>161</v>
       </c>
       <c r="C6">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="D6">
-        <f>D16</f>
+        <f>D17</f>
         <v>1110</v>
       </c>
       <c r="E6">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="F6">
-        <f>F16</f>
+        <f>F17</f>
         <v>321.99</v>
       </c>
       <c r="G6">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="J6">
-        <f>J16</f>
+        <f>J17</f>
         <v>125000</v>
       </c>
       <c r="K6">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="L6">
         <v>68</v>
       </c>
       <c r="M6">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
       <c r="N6" s="89">
         <f t="shared" ref="N6" si="1">(B6*C6)+(D6*E6)+(F6*G6)+(H6*I6)+(J6*K6)+(S6*T6)+(U6*V6)+(W6*X6)+(L6*M6)</f>
-        <v>524610.95937499998</v>
+        <v>522868.00020299997</v>
       </c>
       <c r="O6">
-        <v>157.21</v>
+        <v>156.13</v>
       </c>
       <c r="P6">
-        <v>250427.64</v>
+        <v>248712.47</v>
       </c>
       <c r="Q6">
         <v>8907</v>
@@ -5020,694 +5020,659 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="90">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7" s="88">
         <v>161</v>
       </c>
       <c r="C7">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="D7">
-        <f>D16</f>
+        <f>D17</f>
         <v>1110</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="F7">
-        <f>F16</f>
+        <f>F17</f>
         <v>321.99</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="J7">
-        <f>J16</f>
+        <f>J17</f>
         <v>125000</v>
       </c>
       <c r="K7">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="L7">
         <v>68</v>
       </c>
       <c r="M7">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="N7" s="89">
+        <f t="shared" ref="N7" si="2">(B7*C7)+(D7*E7)+(F7*G7)+(H7*I7)+(J7*K7)+(S7*T7)+(U7*V7)+(W7*X7)+(L7*M7)</f>
+        <v>524610.95937499998</v>
+      </c>
+      <c r="O7">
+        <v>157.21</v>
+      </c>
+      <c r="P7">
+        <v>250427.64</v>
+      </c>
+      <c r="Q7">
+        <v>8907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="90">
+        <v>45364</v>
+      </c>
+      <c r="B8" s="88">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>2220.3200000000002</v>
+      </c>
+      <c r="D8">
+        <f>D17</f>
+        <v>1110</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <f>F17</f>
+        <v>321.99</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <f>J17</f>
+        <v>125000</v>
+      </c>
+      <c r="K8">
+        <v>0.957233</v>
+      </c>
+      <c r="L8">
+        <v>68</v>
+      </c>
+      <c r="M8">
         <v>18.22</v>
       </c>
-      <c r="N7" s="89">
+      <c r="N8" s="89">
         <f t="shared" si="0"/>
         <v>525154.255</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>160.79</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>250989.9</v>
       </c>
-      <c r="Q7">
+      <c r="Q8">
         <v>8910.23</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="90">
+    <row r="9" spans="1:33">
+      <c r="A9" s="90">
         <v>45363</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B9" s="88">
         <v>161</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2220.3200000000002</v>
       </c>
-      <c r="D8">
-        <f>D16</f>
+      <c r="D9">
+        <f>D17</f>
         <v>1110</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>31.516400000000001</v>
       </c>
-      <c r="F8">
-        <f>F16</f>
+      <c r="F9">
+        <f>F17</f>
         <v>321.99</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>34.463200000000001</v>
       </c>
-      <c r="J8">
-        <f>J16</f>
+      <c r="J9">
+        <f>J17</f>
         <v>125000</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>0.979213</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>68</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>16.57</v>
       </c>
-      <c r="N8" s="89">
+      <c r="N9" s="89">
         <f t="shared" si="0"/>
         <v>527079.91476800013</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>161.94999999999999</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>252645.61</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>9069.0300000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="90">
+    <row r="10" spans="1:33">
+      <c r="A10" s="90">
         <v>45362</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B10" s="88">
         <v>161</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2232.66</v>
       </c>
-      <c r="D9">
-        <f>D16</f>
+      <c r="D10">
+        <f>D17</f>
         <v>1110</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>31.571400000000001</v>
       </c>
-      <c r="F9">
-        <f>F16</f>
+      <c r="F10">
+        <f>F17</f>
         <v>321.99</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>34.558100000000003</v>
       </c>
-      <c r="J9">
-        <f>J16</f>
+      <c r="J10">
+        <f>J17</f>
         <v>125000</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.99851990000000002</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>68</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>15.07</v>
       </c>
-      <c r="N9" s="89">
+      <c r="N10" s="89">
         <f t="shared" si="0"/>
         <v>532801.83411900001</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>164.91</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>257088.48</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>9131.82</v>
       </c>
-      <c r="U9">
+      <c r="U10">
         <v>12</v>
       </c>
-      <c r="V9">
+      <c r="V10">
         <v>41.58</v>
       </c>
-      <c r="W9">
-        <f>W16</f>
+      <c r="W10">
+        <f>W17</f>
         <v>15</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <v>55.55</v>
       </c>
-      <c r="Z9">
-        <f>Z10</f>
+      <c r="Z10">
+        <f>Z11</f>
         <v>9</v>
       </c>
-      <c r="AA9">
+      <c r="AA10">
         <v>129.80000000000001</v>
       </c>
-      <c r="AB9">
+      <c r="AB10">
         <v>26</v>
       </c>
-      <c r="AC9">
+      <c r="AC10">
         <v>44.66</v>
       </c>
-      <c r="AD9">
+      <c r="AD10">
         <v>65</v>
       </c>
-      <c r="AE9">
+      <c r="AE10">
         <v>22.66</v>
       </c>
-      <c r="AF9">
+      <c r="AF10">
         <v>3500</v>
       </c>
-      <c r="AG9">
+      <c r="AG10">
         <f>K2</f>
-        <v>0.94838599999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="90">
+        <v>0.93887900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="90">
         <v>45359</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B11" s="88">
         <v>161</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2198.16</v>
       </c>
-      <c r="D10">
-        <f>D16</f>
+      <c r="D11">
+        <f>D17</f>
         <v>1110</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>31.402999999999999</v>
       </c>
-      <c r="F10">
-        <f>F16</f>
+      <c r="F11">
+        <f>F17</f>
         <v>321.99</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>34.3643</v>
       </c>
-      <c r="J10">
-        <f>J16</f>
+      <c r="J11">
+        <f>J17</f>
         <v>125000</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.99115900000000001</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>68</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>13.7</v>
       </c>
-      <c r="N10" s="89">
+      <c r="N11" s="89">
         <f t="shared" si="0"/>
         <v>525972.37595699995</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>160.9</v>
       </c>
-      <c r="Q10">
+      <c r="Q11">
         <v>9155.32</v>
       </c>
-      <c r="U10">
+      <c r="U11">
         <v>12</v>
       </c>
-      <c r="V10">
+      <c r="V11">
         <v>37.799999999999997</v>
       </c>
-      <c r="W10">
-        <f>W16</f>
+      <c r="W11">
+        <f>W17</f>
         <v>15</v>
       </c>
-      <c r="X10">
+      <c r="X11">
         <v>57.75</v>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <v>9</v>
       </c>
-      <c r="AA10">
+      <c r="AA11">
         <v>130</v>
       </c>
-      <c r="AB10">
+      <c r="AB11">
         <v>26</v>
       </c>
-      <c r="AC10">
+      <c r="AC11">
         <v>55.08</v>
       </c>
-      <c r="AD10">
+      <c r="AD11">
         <v>65</v>
       </c>
-      <c r="AE10">
+      <c r="AE11">
         <v>11.33</v>
       </c>
-      <c r="AF10">
+      <c r="AF11">
         <v>3500</v>
       </c>
-      <c r="AG10">
+      <c r="AG11">
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="90">
+    <row r="12" spans="1:33">
+      <c r="A12" s="90">
         <v>45358</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B12" s="88">
         <v>161</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2184.79</v>
       </c>
-      <c r="D11">
-        <f>D16</f>
+      <c r="D12">
+        <f>D17</f>
         <v>1110</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>31.297000000000001</v>
       </c>
-      <c r="F11">
-        <f>F16</f>
+      <c r="F12">
+        <f>F17</f>
         <v>321.99</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>34.110599999999998</v>
       </c>
-      <c r="J11">
-        <f>J16</f>
+      <c r="J12">
+        <f>J17</f>
         <v>125000</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>0.945214</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>68</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>12.46</v>
       </c>
-      <c r="N11" s="89">
+      <c r="N12" s="89">
         <f t="shared" si="0"/>
         <v>517832.22209400003</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>155.75</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <v>9054.18</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <v>12</v>
       </c>
-      <c r="V11">
+      <c r="V12">
         <v>34.380000000000003</v>
       </c>
-      <c r="W11">
-        <f>W16</f>
+      <c r="W12">
+        <f>W17</f>
         <v>15</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <v>63.1</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="90">
+    <row r="13" spans="1:33">
+      <c r="A13" s="90">
         <v>45357</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B13" s="88">
         <v>161</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>2150.9</v>
       </c>
-      <c r="D12">
-        <f>D16</f>
+      <c r="D13">
+        <f>D17</f>
         <v>1110</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>31.293399999999998</v>
       </c>
-      <c r="F12">
-        <f>F16</f>
+      <c r="F13">
+        <f>F17</f>
         <v>321.99</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>34.006500000000003</v>
       </c>
-      <c r="H12">
-        <f>H16</f>
+      <c r="H13">
+        <f>H17</f>
         <v>57</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>580.05924800000003</v>
       </c>
-      <c r="J12">
-        <f>J16</f>
+      <c r="J13">
+        <f>J17</f>
         <v>125000</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.99397100000000005</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>68</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>11.33</v>
       </c>
-      <c r="N12" s="89">
+      <c r="N13" s="89">
         <f t="shared" si="0"/>
         <v>551296.63907099993</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>156.16</v>
       </c>
-      <c r="Q12">
+      <c r="Q13">
         <v>8744.58</v>
       </c>
-      <c r="U12">
+      <c r="U13">
         <v>12</v>
       </c>
-      <c r="V12">
+      <c r="V13">
         <v>31.26</v>
       </c>
-      <c r="W12">
-        <f>W16</f>
+      <c r="W13">
+        <f>W17</f>
         <v>15</v>
       </c>
-      <c r="X12">
+      <c r="X13">
         <v>57.4</v>
       </c>
-      <c r="AA12">
-        <f>AA13*Z10</f>
+      <c r="AA13">
+        <f>AA14*Z11</f>
         <v>1170</v>
       </c>
-      <c r="AC12">
-        <f>AC13*AB10</f>
+      <c r="AC13">
+        <f>AC14*AB11</f>
         <v>1432.08</v>
       </c>
-      <c r="AE12">
-        <f>AE13*AD10</f>
+      <c r="AE13">
+        <f>AE14*AD11</f>
         <v>736.45</v>
       </c>
-      <c r="AG12">
-        <f>AG13*AF10</f>
+      <c r="AG13">
+        <f>AG14*AF11</f>
         <v>3395</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="90">
+    <row r="14" spans="1:33">
+      <c r="A14" s="90">
         <v>45356</v>
       </c>
-      <c r="B13" s="88">
+      <c r="B14" s="88">
         <v>161</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2116.34</v>
       </c>
-      <c r="D13">
-        <f>D16</f>
+      <c r="D14">
+        <f>D17</f>
         <v>1110</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>31.079899999999999</v>
       </c>
-      <c r="F13">
-        <f>F16</f>
+      <c r="F14">
+        <f>F17</f>
         <v>321.99</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>33.721699999999998</v>
       </c>
-      <c r="H13">
-        <f>H16</f>
+      <c r="H14">
+        <f>H17</f>
         <v>57</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>579.361718</v>
       </c>
-      <c r="J13">
-        <f>J16</f>
+      <c r="J14">
+        <f>J17</f>
         <v>125000</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>1.0160309999999999</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>68</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>11.33</v>
       </c>
-      <c r="N13" s="89">
+      <c r="N14" s="89">
         <f t="shared" si="0"/>
         <v>549382.85210899997</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>154.22999999999999</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>8860.52</v>
       </c>
-      <c r="S13">
-        <f>S16</f>
+      <c r="S14">
+        <f>S17</f>
         <v>36</v>
       </c>
-      <c r="T13" s="97">
+      <c r="T14" s="97">
         <v>38.15</v>
       </c>
-      <c r="U13">
-        <f>U16</f>
+      <c r="U14">
+        <f>U17</f>
         <v>12</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <v>28.42</v>
       </c>
-      <c r="W13">
-        <f>W16</f>
+      <c r="W14">
+        <f>W17</f>
         <v>15</v>
       </c>
-      <c r="X13">
+      <c r="X14">
         <v>52.2</v>
       </c>
-      <c r="AA13" s="98">
-        <f>AA10</f>
+      <c r="AA14" s="98">
+        <f>AA11</f>
         <v>130</v>
       </c>
-      <c r="AC13" s="98">
-        <f>AC10</f>
+      <c r="AC14" s="98">
+        <f>AC11</f>
         <v>55.08</v>
       </c>
-      <c r="AE13" s="98">
-        <f>AE10</f>
+      <c r="AE14" s="98">
+        <f>AE11</f>
         <v>11.33</v>
       </c>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="98">
-        <f>AG10</f>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98">
+        <f>AG11</f>
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="90">
+    <row r="15" spans="1:33">
+      <c r="A15" s="90">
         <v>45355</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B15" s="88">
         <v>161</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>2072.52</v>
       </c>
-      <c r="D14">
-        <f>D16</f>
+      <c r="D15">
+        <f>D17</f>
         <v>1110</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>30.905999999999999</v>
       </c>
-      <c r="F14">
-        <f>F16</f>
+      <c r="F15">
+        <f>F17</f>
         <v>321.99</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>33.542299999999997</v>
       </c>
-      <c r="H14">
-        <f>H16</f>
+      <c r="H15">
+        <f>H17</f>
         <v>57</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>578.66060300000004</v>
       </c>
-      <c r="J14">
-        <f>J16</f>
+      <c r="J15">
+        <f>J17</f>
         <v>125000</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>1.041954</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>68</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>11.33</v>
       </c>
-      <c r="N14" s="89">
+      <c r="N15" s="89">
         <f t="shared" si="0"/>
         <v>545049.74954799982</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <v>8907.65</v>
       </c>
-      <c r="S14">
-        <f>S16</f>
+      <c r="S15">
+        <f>S17</f>
         <v>36</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>34.659999999999997</v>
       </c>
-      <c r="U14">
-        <f>U16</f>
+      <c r="U15">
+        <f>U17</f>
         <v>12</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <v>25.84</v>
       </c>
-      <c r="W14">
-        <f>W16</f>
+      <c r="W15">
+        <f>W17</f>
         <v>15</v>
       </c>
-      <c r="X14">
+      <c r="X15">
         <v>47.46</v>
       </c>
-      <c r="AA14" s="98" t="s">
+      <c r="AA15" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="AC14" s="98" t="s">
+      <c r="AC15" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="AE14" s="98" t="s">
+      <c r="AE15" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="98" t="s">
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="98" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="90">
-        <v>45352</v>
-      </c>
-      <c r="B15" s="88">
-        <v>161</v>
-      </c>
-      <c r="C15">
-        <v>2018.91</v>
-      </c>
-      <c r="D15">
-        <f>D16</f>
-        <v>1110</v>
-      </c>
-      <c r="E15">
-        <v>30.7361</v>
-      </c>
-      <c r="F15">
-        <f>F16</f>
-        <v>321.99</v>
-      </c>
-      <c r="G15">
-        <v>33.225700000000003</v>
-      </c>
-      <c r="H15">
-        <f>H16</f>
-        <v>57</v>
-      </c>
-      <c r="I15">
-        <v>576.58807100000001</v>
-      </c>
-      <c r="J15">
-        <f>J16</f>
-        <v>125000</v>
-      </c>
-      <c r="K15">
-        <v>1.034036</v>
-      </c>
-      <c r="L15">
-        <v>68</v>
-      </c>
-      <c r="M15">
-        <v>11.33</v>
-      </c>
-      <c r="N15" s="89">
-        <f t="shared" si="0"/>
-        <v>534814.50418999989</v>
-      </c>
-      <c r="Q15">
-        <v>9097.15</v>
-      </c>
-      <c r="S15">
-        <f>S16</f>
-        <v>36</v>
-      </c>
-      <c r="T15">
-        <v>31.52</v>
-      </c>
-      <c r="U15">
-        <f>U16</f>
-        <v>12</v>
-      </c>
-      <c r="V15">
-        <v>23.5</v>
-      </c>
-      <c r="W15">
-        <f>W16</f>
-        <v>15</v>
-      </c>
-      <c r="X15">
-        <v>43.16</v>
-      </c>
-      <c r="AA15" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC15" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE15" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="99" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="90">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="88">
         <v>161</v>
@@ -5741,56 +5706,59 @@
         <v>125000</v>
       </c>
       <c r="K16">
-        <v>1.010337</v>
+        <v>1.034036</v>
+      </c>
+      <c r="L16">
+        <v>68</v>
+      </c>
+      <c r="M16">
+        <v>11.33</v>
       </c>
       <c r="N16" s="89">
         <f t="shared" si="0"/>
-        <v>530894.48918999999</v>
+        <v>534814.50418999989</v>
       </c>
       <c r="Q16">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="S16">
         <f>S17</f>
         <v>36</v>
       </c>
       <c r="T16">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="U16">
         <f>U17</f>
         <v>12</v>
       </c>
       <c r="V16">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="W16">
+        <f>W17</f>
         <v>15</v>
       </c>
       <c r="X16">
-        <v>39.24</v>
-      </c>
-      <c r="AA16" s="99">
-        <f>AA9</f>
-        <v>129.80000000000001</v>
-      </c>
-      <c r="AC16" s="99">
-        <f>AC9</f>
-        <v>44.66</v>
-      </c>
-      <c r="AE16" s="99">
-        <f>AE9</f>
-        <v>22.66</v>
+        <v>43.16</v>
+      </c>
+      <c r="AA16" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC16" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE16" s="99" t="s">
+        <v>61</v>
       </c>
       <c r="AF16" s="99"/>
-      <c r="AG16" s="99">
-        <f>AG9</f>
-        <v>0.94838599999999995</v>
+      <c r="AG16" s="99" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="90">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B17" s="88">
         <v>161</v>
@@ -5799,18 +5767,21 @@
         <v>2018.91</v>
       </c>
       <c r="D17">
+        <f>D18</f>
         <v>1110</v>
       </c>
       <c r="E17">
         <v>30.7361</v>
       </c>
       <c r="F17">
+        <f>F18</f>
         <v>321.99</v>
       </c>
       <c r="G17">
         <v>33.225700000000003</v>
       </c>
       <c r="H17">
+        <f>H18</f>
         <v>57</v>
       </c>
       <c r="I17">
@@ -5821,46 +5792,57 @@
         <v>125000</v>
       </c>
       <c r="K17">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="N17" s="89">
         <f t="shared" si="0"/>
-        <v>537360.00419000001</v>
+        <v>530894.48918999999</v>
       </c>
       <c r="Q17">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="S17">
         <f>S18</f>
         <v>36</v>
       </c>
       <c r="T17">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="U17">
+        <f>U18</f>
         <v>12</v>
       </c>
       <c r="V17">
-        <v>19.45</v>
-      </c>
-      <c r="AA17">
-        <f>AA16*Z10</f>
-        <v>1168.2</v>
-      </c>
-      <c r="AC17">
-        <f>AC16*AB10</f>
-        <v>1161.1599999999999</v>
-      </c>
-      <c r="AE17">
-        <f>AE16*AD10</f>
-        <v>1472.9</v>
-      </c>
-      <c r="AG17">
-        <f>AF9*AG9</f>
-        <v>3319.3509999999997</v>
+        <v>21.38</v>
+      </c>
+      <c r="W17">
+        <v>15</v>
+      </c>
+      <c r="X17">
+        <v>39.24</v>
+      </c>
+      <c r="AA17" s="99">
+        <f>AA10</f>
+        <v>129.80000000000001</v>
+      </c>
+      <c r="AC17" s="99">
+        <f>AC10</f>
+        <v>44.66</v>
+      </c>
+      <c r="AE17" s="99">
+        <f>AE10</f>
+        <v>22.66</v>
+      </c>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="99">
+        <f>AG10</f>
+        <v>0.93887900000000002</v>
       </c>
     </row>
     <row r="18" spans="1:34">
+      <c r="A18" s="90">
+        <v>45350</v>
+      </c>
       <c r="B18" s="88">
         <v>161</v>
       </c>
@@ -5886,40 +5868,47 @@
         <v>576.58807100000001</v>
       </c>
       <c r="J18">
+        <f>J19</f>
         <v>125000</v>
       </c>
       <c r="K18">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="N18" s="89">
         <f t="shared" si="0"/>
-        <v>536633.0191899999</v>
+        <v>537360.00419000001</v>
       </c>
       <c r="Q18">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="S18">
+        <f>S19</f>
         <v>36</v>
       </c>
       <c r="T18">
-        <v>23.7</v>
-      </c>
-      <c r="AA18" s="100">
-        <f>(AA16-AA10)/AA10</f>
-        <v>-1.5384615384614511E-3</v>
-      </c>
-      <c r="AC18" s="100">
-        <f>(AC16-AC10)/AC10</f>
-        <v>-0.1891793754538853</v>
-      </c>
-      <c r="AE18" s="100">
-        <f>(AE16-AE10)/AE10</f>
-        <v>1</v>
-      </c>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="100">
-        <f>(AG16-AG10)/AG10</f>
-        <v>-2.2282474226804148E-2</v>
+        <v>26.06</v>
+      </c>
+      <c r="U18">
+        <v>12</v>
+      </c>
+      <c r="V18">
+        <v>19.45</v>
+      </c>
+      <c r="AA18">
+        <f>AA17*Z11</f>
+        <v>1168.2</v>
+      </c>
+      <c r="AC18">
+        <f>AC17*AB11</f>
+        <v>1161.1599999999999</v>
+      </c>
+      <c r="AE18">
+        <f>AE17*AD11</f>
+        <v>1472.9</v>
+      </c>
+      <c r="AG18">
+        <f>AF10*AG10</f>
+        <v>3286.0765000000001</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -5948,21 +5937,40 @@
         <v>576.58807100000001</v>
       </c>
       <c r="J19">
-        <f>J20</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="K19">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N19" s="89">
         <f t="shared" si="0"/>
-        <v>454463.60418999993</v>
+        <v>536633.0191899999</v>
+      </c>
+      <c r="Q19">
+        <v>9179.48</v>
       </c>
       <c r="S19">
         <v>36</v>
       </c>
       <c r="T19">
-        <v>21.56</v>
+        <v>23.7</v>
+      </c>
+      <c r="AA19" s="100">
+        <f>(AA17-AA11)/AA11</f>
+        <v>-1.5384615384614511E-3</v>
+      </c>
+      <c r="AC19" s="100">
+        <f>(AC17-AC11)/AC11</f>
+        <v>-0.1891793754538853</v>
+      </c>
+      <c r="AE19" s="100">
+        <f>(AE17-AE11)/AE11</f>
+        <v>1</v>
+      </c>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="100">
+        <f>(AG17-AG11)/AG11</f>
+        <v>-3.2083505154639126E-2</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -5991,191 +5999,234 @@
         <v>576.58807100000001</v>
       </c>
       <c r="J20">
+        <f>J21</f>
         <v>50000</v>
       </c>
       <c r="K20">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N20" s="89">
         <f t="shared" si="0"/>
-        <v>453591.29418999993</v>
+        <v>454463.60418999993</v>
       </c>
       <c r="S20">
         <v>36</v>
       </c>
       <c r="T20">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="Z20" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA20" s="101">
-        <f>(Z10*AA16)-(Z9*AA10)</f>
-        <v>-1.7999999999999545</v>
-      </c>
-      <c r="AB20" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC20" s="101">
-        <f>(AB10*AC16)-(AB9*AC10)</f>
-        <v>-270.92000000000007</v>
-      </c>
-      <c r="AD20" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE20" s="101">
-        <f>(AD10*AE16)-(AD9*AE10)</f>
-        <v>736.45</v>
-      </c>
-      <c r="AF20" s="101"/>
-      <c r="AG20" s="101">
-        <f>(AF10*AG16)-(AF9*AG10)</f>
-        <v>-75.649000000000342</v>
-      </c>
-      <c r="AH20">
-        <f>SUM(AA20:AG20)</f>
-        <v>388.08099999999968</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="21" spans="1:34">
+      <c r="B21" s="88">
+        <v>161</v>
+      </c>
+      <c r="C21">
+        <v>2018.91</v>
+      </c>
+      <c r="D21">
+        <v>1110</v>
+      </c>
+      <c r="E21">
+        <v>30.7361</v>
+      </c>
+      <c r="F21">
+        <v>321.99</v>
+      </c>
+      <c r="G21">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H21">
+        <v>57</v>
+      </c>
+      <c r="I21">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="J21">
+        <v>50000</v>
+      </c>
       <c r="K21">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N21" s="89">
+        <f t="shared" si="0"/>
+        <v>453591.29418999993</v>
       </c>
       <c r="S21">
         <v>36</v>
       </c>
       <c r="T21">
-        <v>17.82</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Z21" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" s="101">
+        <f>(Z11*AA17)-(Z10*AA11)</f>
+        <v>-1.7999999999999545</v>
+      </c>
+      <c r="AB21" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC21" s="101">
+        <f>(AB11*AC17)-(AB10*AC11)</f>
+        <v>-270.92000000000007</v>
+      </c>
+      <c r="AD21" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="101">
+        <f>(AD11*AE17)-(AD10*AE11)</f>
+        <v>736.45</v>
+      </c>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="101">
+        <f>(AF11*AG17)-(AF10*AG11)</f>
+        <v>-108.92349999999988</v>
+      </c>
+      <c r="AH21">
+        <f>SUM(AA21:AG21)</f>
+        <v>354.80650000000014</v>
       </c>
     </row>
     <row r="22" spans="1:34">
       <c r="K22">
-        <v>0.93849000000000005</v>
-      </c>
-      <c r="M22" s="98">
-        <f>M15</f>
-        <v>11.33</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="S22">
         <v>36</v>
       </c>
-      <c r="T22" s="98">
-        <v>15.3</v>
-      </c>
-      <c r="V22" s="98">
-        <f>V17</f>
-        <v>19.45</v>
-      </c>
-      <c r="X22" s="98">
-        <f>X16</f>
-        <v>39.24</v>
+      <c r="T22">
+        <v>17.82</v>
       </c>
     </row>
     <row r="23" spans="1:34">
       <c r="K23">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="M23" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="T23" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="V23" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="X23" s="98" t="s">
-        <v>60</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="M23" s="98">
+        <f>M16</f>
+        <v>11.33</v>
+      </c>
+      <c r="S23">
+        <v>36</v>
+      </c>
+      <c r="T23" s="98">
+        <v>15.3</v>
+      </c>
+      <c r="V23" s="98">
+        <f>V18</f>
+        <v>19.45</v>
+      </c>
+      <c r="X23" s="98">
+        <f>X17</f>
+        <v>39.24</v>
       </c>
     </row>
     <row r="24" spans="1:34">
       <c r="K24">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="M24" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="T24" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="V24" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="X24" s="99" t="s">
-        <v>61</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="M24" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" s="98" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="K25">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="M25" s="99">
-        <f>M2</f>
-        <v>22.04</v>
-      </c>
-      <c r="S25" t="s">
-        <v>62</v>
-      </c>
-      <c r="T25" s="99">
-        <v>38</v>
-      </c>
-      <c r="V25" s="99">
-        <v>45.72</v>
-      </c>
-      <c r="X25" s="99">
-        <v>55.5</v>
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="M25" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="V25" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25" s="99" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:34">
       <c r="K26">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="M26" s="99">
+        <f>M2</f>
+        <v>22.96</v>
+      </c>
+      <c r="S26" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26" s="99">
+        <v>38</v>
+      </c>
+      <c r="V26" s="99">
+        <v>45.72</v>
+      </c>
+      <c r="X26" s="99">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="K27">
         <v>0.88783999999999996</v>
       </c>
-      <c r="M26" s="100">
-        <f>(M25-M15)/M15</f>
-        <v>0.94527802294792573</v>
-      </c>
-      <c r="T26" s="100">
+      <c r="M27" s="100">
+        <f>(M26-M16)/M16</f>
+        <v>1.0264783759929392</v>
+      </c>
+      <c r="T27" s="100">
         <f>Sayfa2!M39</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="V26" s="100">
-        <f>(V25-V17)/V17</f>
+      <c r="V27" s="100">
+        <f>(V26-V18)/V18</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="X26" s="100">
-        <f>(X25-X16)/X16</f>
+      <c r="X27" s="100">
+        <f>(X26-X17)/X17</f>
         <v>0.41437308868501521</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
-      <c r="K27">
+    <row r="28" spans="1:34">
+      <c r="K28">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
-      <c r="M28" s="101">
-        <f>(L15*M25)-(L5*M15)</f>
-        <v>728.28</v>
-      </c>
-      <c r="S28" s="101" t="s">
+    <row r="29" spans="1:34">
+      <c r="M29" s="101">
+        <f>(L16*M26)-(L5*M16)</f>
+        <v>790.83999999999992</v>
+      </c>
+      <c r="S29" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="T28" s="101">
+      <c r="T29" s="101">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="U28" s="101" t="s">
+      <c r="U29" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="V28" s="101">
-        <f>(U17*V25)-(U5*V17)</f>
+      <c r="V29" s="101">
+        <f>(U18*V26)-(U5*V18)</f>
         <v>548.64</v>
       </c>
-      <c r="W28" s="101" t="s">
+      <c r="W29" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="X28" s="101">
-        <f>(W16*X25)-(W5*X16)</f>
+      <c r="X29" s="101">
+        <f>(W17*X26)-(W5*X17)</f>
         <v>832.5</v>
       </c>
     </row>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7595B492-68F3-423E-AD72-740323D8841A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C25586-5B7C-46CF-BA54-EC6B63334603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1840,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ85"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>243803.05738700001</v>
+        <v>248342.615747</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1902,7 +1902,7 @@
     <row r="5" spans="1:15">
       <c r="B5" s="3">
         <f>K2/B4</f>
-        <v>155.58586942373964</v>
+        <v>158.48284348883217</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>3</v>
@@ -1913,23 +1913,23 @@
       </c>
       <c r="I5" s="17">
         <f>SUBTOTAL(109,I10:I27)</f>
-        <v>246311.22</v>
+        <v>246522.12</v>
       </c>
       <c r="K5" s="18">
         <f>SUBTOTAL(109,K10:K27)</f>
-        <v>227584.38</v>
+        <v>232123.93836</v>
       </c>
       <c r="L5" s="19">
         <f>K5/E5</f>
-        <v>0.78957852981147048</v>
+        <v>0.8053280193673098</v>
       </c>
       <c r="M5" s="20">
         <f>SUBTOTAL(101,M10:M19)</f>
-        <v>-1.3940949385870002E-2</v>
+        <v>8.5890007564367408E-3</v>
       </c>
       <c r="N5" s="20">
         <f>SUBTOTAL(101,N10:N19)</f>
-        <v>-9.5283107469913822E-2</v>
+        <v>-6.7360206103478634E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2064,7 +2064,7 @@
       <c r="N10" s="35"/>
       <c r="O10" s="41">
         <f>SUM(O11:O26)</f>
-        <v>227584.38</v>
+        <v>232123.93836</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2100,7 +2100,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="46">
         <f>Sayfa4!I2</f>
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="I15" s="25">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="J15" s="29">
         <f>H15-D15</f>
-        <v>-0.16409899999999999</v>
+        <v>-0.12972899999999998</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-12307.424999999999</v>
+        <v>-9729.6749999999993</v>
       </c>
       <c r="L15" s="48">
         <f>F15-B15</f>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="M15" s="20">
         <f>K15/E15</f>
-        <v>-0.15416535532935313</v>
+        <v>-0.12187592478638902</v>
       </c>
       <c r="N15" s="20">
         <f>M15/L15*30</f>
-        <v>-0.21022548454002701</v>
+        <v>-0.16619444289053048</v>
       </c>
       <c r="O15" s="43"/>
     </row>
@@ -2152,7 +2152,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="46">
         <f>H15</f>
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="I16" s="25">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
@@ -2160,11 +2160,11 @@
       </c>
       <c r="J16" s="29">
         <f>H16-D16</f>
-        <v>-0.10286899999999988</v>
+        <v>-6.8498999999999866E-2</v>
       </c>
       <c r="K16" s="47">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-5143.4499999999935</v>
+        <v>-3424.9499999999935</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
@@ -2172,15 +2172,15 @@
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-0.10254035815212233</v>
+        <v>-6.8280162080531781E-2</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-0.11831579786783346</v>
+        <v>-7.8784802400613599E-2</v>
       </c>
       <c r="O16" s="51">
         <f>SUM(K13:K16)</f>
-        <v>-17450.874999999993</v>
+        <v>-13154.624999999993</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2230,19 +2230,19 @@
       </c>
       <c r="H19" s="46">
         <f>Sayfa4!C5</f>
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="I19" s="25">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>110951</v>
+        <v>111046</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" ref="J19:J26" si="1">H19-D19</f>
-        <v>392.49</v>
+        <v>394.3900000000001</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>19624.5</v>
+        <v>19719.500000000004</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" ref="L19:L26" si="2">F19-B19</f>
@@ -2250,23 +2250,23 @@
       </c>
       <c r="M19" s="20">
         <f t="shared" ref="M19:M26" si="3">K19/E19</f>
-        <v>0.21488286532386547</v>
+        <v>0.21592308913623104</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" ref="N19:N26" si="4">M19/L19*30</f>
-        <v>4.2691959998118971E-2</v>
+        <v>4.2898626980708156E-2</v>
       </c>
       <c r="O19" s="43"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>110951</v>
+        <v>111046</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>55.475499999999997</v>
+        <v>55.523000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2295,19 +2295,19 @@
       </c>
       <c r="H20" s="46">
         <f>H19</f>
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="I20" s="25">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>24409.22</v>
+        <v>24430.120000000003</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>1816.92</v>
+        <v>1818.8200000000002</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>19986.120000000003</v>
+        <v>20007.02</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="2"/>
@@ -2315,23 +2315,23 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="3"/>
-        <v>4.5185774682914701</v>
+        <v>4.5233026610295948</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="4"/>
-        <v>0.12038838725465728</v>
+        <v>0.1205142804892432</v>
       </c>
       <c r="O20" s="43"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>24409.22</v>
+        <v>24430.120000000003</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>12.204610000000001</v>
+        <v>12.215060000000001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2360,19 +2360,19 @@
       </c>
       <c r="H21" s="46">
         <f>H20</f>
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="I21" s="25">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>110951</v>
+        <v>111046</v>
       </c>
       <c r="J21" s="29">
         <f t="shared" si="1"/>
-        <v>1750.1599999999999</v>
+        <v>1752.06</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>87508</v>
+        <v>87603</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="2"/>
@@ -2380,23 +2380,23 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" si="3"/>
-        <v>3.7327987032376404</v>
+        <v>3.7368510856119097</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" si="4"/>
-        <v>8.7079285456554592E-2</v>
+        <v>8.7173820037602864E-2</v>
       </c>
       <c r="O21" s="43"/>
       <c r="P21" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>110951</v>
+        <v>111046</v>
       </c>
       <c r="Q21" s="1">
         <v>2000</v>
       </c>
       <c r="R21" s="1">
         <f>P21/Q21</f>
-        <v>55.475499999999997</v>
+        <v>55.523000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2423,7 +2423,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="46">
         <f>H21</f>
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="I22" s="25">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
@@ -2431,11 +2431,11 @@
       </c>
       <c r="J22" s="29">
         <f t="shared" si="1"/>
-        <v>1819.15</v>
+        <v>1821.0500000000002</v>
       </c>
       <c r="K22" s="47">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>45478.75</v>
+        <v>45526.250000000007</v>
       </c>
       <c r="L22" s="48">
         <f t="shared" si="2"/>
@@ -2443,16 +2443,16 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="3"/>
-        <v>4.5493535399004674</v>
+        <v>4.5541050841523498</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="4"/>
-        <v>0.10109674533112149</v>
+        <v>0.10120233520338555</v>
       </c>
       <c r="O22" s="43"/>
       <c r="R22" s="1">
         <f>SUM(R19:R21)</f>
-        <v>123.15561</v>
+        <v>123.26106000000001</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2479,7 +2479,7 @@
       <c r="G23" s="45"/>
       <c r="H23" s="46">
         <f>H22</f>
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="I23" s="25">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
@@ -2487,11 +2487,11 @@
       </c>
       <c r="J23" s="29">
         <f t="shared" si="1"/>
-        <v>1945.21</v>
+        <v>1947.1100000000001</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>46685.04</v>
+        <v>46730.64</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="2"/>
@@ -2499,11 +2499,11 @@
       </c>
       <c r="M23" s="20">
         <f t="shared" si="3"/>
-        <v>7.1042328622037179</v>
+        <v>7.1111719805704681</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="4"/>
-        <v>0.13600956341168571</v>
+        <v>0.13614241188073647</v>
       </c>
       <c r="O23" s="43"/>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="46">
         <f>H23</f>
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="I24" s="25">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
@@ -2539,11 +2539,11 @@
       </c>
       <c r="J24" s="29">
         <f t="shared" si="1"/>
-        <v>1981.43</v>
+        <v>1983.3300000000002</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>1981.43</v>
+        <v>1983.3300000000002</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="2"/>
@@ -2551,20 +2551,20 @@
       </c>
       <c r="M24" s="20">
         <f t="shared" si="3"/>
-        <v>8.3397028494465264</v>
+        <v>8.3476998190159524</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="4"/>
-        <v>0.15966246680497498</v>
+        <v>0.15981556769015864</v>
       </c>
       <c r="O24" s="43"/>
       <c r="P24" s="6">
         <f>SUM(P19:P23)</f>
-        <v>246311.22</v>
+        <v>246522.12</v>
       </c>
       <c r="R24" s="1">
         <f>P24/2220.32</f>
-        <v>110.93500936801901</v>
+        <v>111.0299956762989</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2591,7 +2591,7 @@
       <c r="G25" s="45"/>
       <c r="H25" s="46">
         <f>Sayfa4!G2</f>
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="I25" s="25">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
@@ -2599,11 +2599,11 @@
       </c>
       <c r="J25" s="29">
         <f t="shared" si="1"/>
-        <v>16.077500000000004</v>
+        <v>16.087199999999999</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>4803.9570000000012</v>
+        <v>4806.8553599999996</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="2"/>
@@ -2611,16 +2611,16 @@
       </c>
       <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>0.85876741304162063</v>
+        <v>0.85928553115118356</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="4"/>
-        <v>4.3964202032847469E-2</v>
+        <v>4.3990726850743192E-2</v>
       </c>
       <c r="O25" s="43"/>
       <c r="P25" s="1">
         <f>P24*Q25</f>
-        <v>24631.122000000003</v>
+        <v>24652.212</v>
       </c>
       <c r="Q25" s="62">
         <v>0.1</v>
@@ -2653,7 +2653,7 @@
       <c r="G26" s="45"/>
       <c r="H26" s="46">
         <f>Sayfa4!E2</f>
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="I26" s="25">
         <f>Sayfa2!$H26*Sayfa2!$G26</f>
@@ -2661,11 +2661,11 @@
       </c>
       <c r="J26" s="29">
         <f t="shared" si="1"/>
-        <v>17.087800000000001</v>
+        <v>17.028799999999997</v>
       </c>
       <c r="K26" s="47">
         <f>Sayfa2!$J26*Sayfa2!$C26</f>
-        <v>18967.458000000002</v>
+        <v>18901.967999999997</v>
       </c>
       <c r="L26" s="48">
         <f t="shared" si="2"/>
@@ -2673,27 +2673,27 @@
       </c>
       <c r="M26" s="20">
         <f t="shared" si="3"/>
-        <v>1.1391866666666668</v>
+        <v>1.1352533333333332</v>
       </c>
       <c r="N26" s="20">
         <f t="shared" si="4"/>
-        <v>5.7341610738255042E-2</v>
+        <v>5.7143624161073818E-2</v>
       </c>
       <c r="O26" s="51">
         <f>SUM(K19:K26)</f>
-        <v>245035.255</v>
+        <v>245278.56336</v>
       </c>
       <c r="P26" s="6">
         <f>SUM(P24:P25)</f>
-        <v>270942.342</v>
+        <v>271174.33199999999</v>
       </c>
       <c r="R26" s="1">
         <f>P26/2000</f>
-        <v>135.471171</v>
+        <v>135.587166</v>
       </c>
       <c r="T26" s="1">
         <f>P24/T25</f>
-        <v>107.0918347826087</v>
+        <v>107.18353043478261</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2744,7 +2744,7 @@
       <c r="O29" s="43"/>
       <c r="R29" s="1">
         <f>R26*2220.32</f>
-        <v>300789.35039472004</v>
+        <v>301046.89641312003</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -4784,10 +4784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA30"/>
+  <dimension ref="A2:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4822,35 +4822,35 @@
     <row r="2" spans="1:27">
       <c r="A2" s="90">
         <f>A5</f>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="K2">
         <f>I5</f>
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="M2" s="91">
         <f>Sayfa2!B5</f>
-        <v>155.58586942373964</v>
+        <v>158.48284348883217</v>
       </c>
       <c r="N2" s="92">
         <f>Sayfa2!K2</f>
-        <v>243803.05738700001</v>
+        <v>248342.615747</v>
       </c>
       <c r="S2">
         <f>S5</f>
@@ -4926,59 +4926,59 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="90">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B5" s="88">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="D5">
-        <f>D17</f>
+        <f>D18</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="F5">
-        <f>F17</f>
+        <f>F18</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="H5">
-        <f>H17</f>
+        <f>H18</f>
         <v>50000</v>
       </c>
       <c r="I5">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="J5">
-        <f>J17</f>
+        <f>J18</f>
         <v>75000</v>
       </c>
       <c r="K5" s="152">
         <f>I5</f>
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="L5" s="89">
-        <f t="shared" ref="L5:L22" si="0">(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z5*AA5)+(J5*K5)</f>
-        <v>517965.56020899996</v>
+        <f t="shared" ref="L5:L23" si="0">(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z5*AA5)+(J5*K5)</f>
+        <v>522505.34351199999</v>
       </c>
       <c r="M5">
-        <v>155.59</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="N5">
-        <v>243803.06</v>
+        <v>248342.62</v>
       </c>
       <c r="O5" s="91">
-        <v>8774</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="P5" s="150">
-        <f t="shared" ref="P5:P22" si="1">(1-(O6/O5))</f>
-        <v>6.3699566902210014E-3</v>
+        <f>(1-(O7/O5))</f>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="Z5">
         <v>68</v>
@@ -4989,859 +4989,832 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="90">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B6" s="88">
         <v>161</v>
       </c>
       <c r="C6">
+        <v>2219.02</v>
+      </c>
+      <c r="D6">
+        <f>D19</f>
+        <v>1110</v>
+      </c>
+      <c r="E6">
+        <v>32.087800000000001</v>
+      </c>
+      <c r="F6">
+        <f>F19</f>
+        <v>321.99</v>
+      </c>
+      <c r="G6">
+        <v>34.799100000000003</v>
+      </c>
+      <c r="H6">
+        <f>H19</f>
+        <v>50000</v>
+      </c>
+      <c r="I6">
+        <v>0.90033600000000003</v>
+      </c>
+      <c r="J6">
+        <f>J19</f>
+        <v>75000</v>
+      </c>
+      <c r="K6" s="152">
+        <f>I6</f>
+        <v>0.90033600000000003</v>
+      </c>
+      <c r="L6" s="89">
+        <f t="shared" ref="L6" si="1">(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z6*AA6)+(J6*K6)</f>
+        <v>516626.64020899998</v>
+      </c>
+      <c r="M6">
+        <v>155.59</v>
+      </c>
+      <c r="N6">
+        <v>243803.06</v>
+      </c>
+      <c r="O6" s="91">
+        <v>8774</v>
+      </c>
+      <c r="P6" s="150">
+        <f>(1-(O8/O6))</f>
+        <v>-6.2343286984272162E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="90">
+        <v>45369</v>
+      </c>
+      <c r="B7" s="88">
+        <v>161</v>
+      </c>
+      <c r="C7">
         <v>2212.35</v>
       </c>
-      <c r="D6">
-        <f>D18</f>
+      <c r="D7">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>31.9499</v>
       </c>
-      <c r="F6">
-        <f>F18</f>
+      <c r="F7">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>34.8125</v>
       </c>
-      <c r="H6">
-        <f>H18</f>
+      <c r="H7">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>0.93887900000000002</v>
       </c>
-      <c r="J6">
-        <f>J18</f>
+      <c r="J7">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>0.93887900000000002</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L7" s="89">
         <f t="shared" si="0"/>
         <v>521783.17087500001</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>155.44</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>247623.17</v>
       </c>
-      <c r="O6" s="91">
+      <c r="O7" s="91">
         <v>8718.11</v>
       </c>
-      <c r="P6" s="150">
-        <f t="shared" si="1"/>
+      <c r="P7" s="150">
+        <f t="shared" ref="P7:P23" si="2">(1-(O8/O7))</f>
         <v>-1.2685088855267868E-2</v>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <v>68</v>
       </c>
-      <c r="AA6">
+      <c r="AA7">
         <v>22.96</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="90">
+    <row r="8" spans="1:27">
+      <c r="A8" s="90">
         <v>45366</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B8" s="88">
         <v>161</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>2213.54</v>
       </c>
-      <c r="D7">
-        <f>D18</f>
+      <c r="D8">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>31.796299999999999</v>
       </c>
-      <c r="F7">
-        <f>F18</f>
+      <c r="F8">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>34.619700000000002</v>
       </c>
-      <c r="H7">
-        <f>H18</f>
+      <c r="H8">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>0.94838599999999995</v>
       </c>
-      <c r="J7">
-        <f>J18</f>
+      <c r="J8">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>0.94838599999999995</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L8" s="89">
         <f t="shared" si="0"/>
         <v>522868.00020299997</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>156.13</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>248712.47</v>
       </c>
-      <c r="O7" s="91">
+      <c r="O8" s="91">
         <v>8828.7000000000007</v>
       </c>
-      <c r="P7" s="150">
-        <f t="shared" si="1"/>
+      <c r="P8" s="150">
+        <f t="shared" si="2"/>
         <v>-6.2092946866469934E-3</v>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <v>68</v>
       </c>
-      <c r="AA7">
+      <c r="AA8">
         <v>22.04</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="90">
+    <row r="9" spans="1:27">
+      <c r="A9" s="90">
         <v>45365</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B9" s="88">
         <v>161</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2222.88</v>
       </c>
-      <c r="D8">
-        <f>D18</f>
+      <c r="D9">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>31.775700000000001</v>
       </c>
-      <c r="F8">
-        <f>F18</f>
+      <c r="F9">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>34.762500000000003</v>
       </c>
-      <c r="H8">
-        <f>H18</f>
+      <c r="H9">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.95100700000000005</v>
       </c>
-      <c r="J8">
-        <f>J18</f>
+      <c r="J9">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>0.95100700000000005</v>
       </c>
-      <c r="L8" s="89">
+      <c r="L9" s="89">
         <f t="shared" si="0"/>
         <v>524610.95937499998</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>157.21</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>250427.64</v>
       </c>
-      <c r="O8" s="91">
+      <c r="O9" s="91">
         <v>8883.52</v>
       </c>
-      <c r="P8" s="150">
-        <f t="shared" si="1"/>
+      <c r="P9" s="150">
+        <f t="shared" si="2"/>
         <v>-3.0066910413888426E-3</v>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <v>68</v>
       </c>
-      <c r="AA8">
+      <c r="AA9">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="90">
+    <row r="10" spans="1:27">
+      <c r="A10" s="90">
         <v>45364</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B10" s="88">
         <v>161</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2220.3200000000002</v>
       </c>
-      <c r="D9">
-        <f>D18</f>
+      <c r="D10">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>32</v>
       </c>
-      <c r="F9">
-        <f>F18</f>
+      <c r="F10">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>35</v>
       </c>
-      <c r="H9">
-        <f>H18</f>
+      <c r="H10">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>0.957233</v>
       </c>
-      <c r="J9">
-        <f>J18</f>
+      <c r="J10">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.957233</v>
       </c>
-      <c r="L9" s="89">
+      <c r="L10" s="89">
         <f t="shared" si="0"/>
         <v>525154.25500000012</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>160.79</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>250989.9</v>
       </c>
-      <c r="O9" s="91">
+      <c r="O10" s="91">
         <v>8910.23</v>
       </c>
-      <c r="P9" s="150">
-        <f t="shared" si="1"/>
+      <c r="P10" s="150">
+        <f t="shared" si="2"/>
         <v>-1.7822211098927898E-2</v>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <v>68</v>
       </c>
-      <c r="AA9">
+      <c r="AA10">
         <v>18.22</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="90">
+    <row r="11" spans="1:27">
+      <c r="A11" s="90">
         <v>45363</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B11" s="88">
         <v>161</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2220.3200000000002</v>
       </c>
-      <c r="D10">
-        <f>D18</f>
+      <c r="D11">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>31.516400000000001</v>
       </c>
-      <c r="F10">
-        <f>F18</f>
+      <c r="F11">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>34.463200000000001</v>
       </c>
-      <c r="H10">
-        <f>H18</f>
+      <c r="H11">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>0.979213</v>
       </c>
-      <c r="J10">
-        <f>J18</f>
+      <c r="J11">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.979213</v>
       </c>
-      <c r="L10" s="89">
+      <c r="L11" s="89">
         <f t="shared" si="0"/>
         <v>527079.91476800013</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>161.94999999999999</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>252645.61</v>
       </c>
-      <c r="O10" s="91">
+      <c r="O11" s="91">
         <v>9069.0300000000007</v>
       </c>
-      <c r="P10" s="150">
-        <f t="shared" si="1"/>
+      <c r="P11" s="150">
+        <f t="shared" si="2"/>
         <v>-6.8684302510850781E-3</v>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <v>68</v>
       </c>
-      <c r="AA10">
+      <c r="AA11">
         <v>16.57</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="90">
+    <row r="12" spans="1:27">
+      <c r="A12" s="90">
         <v>45362</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B12" s="88">
         <v>161</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2232.66</v>
       </c>
-      <c r="D11">
-        <f>D18</f>
+      <c r="D12">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>31.571400000000001</v>
       </c>
-      <c r="F11">
-        <f>F18</f>
+      <c r="F12">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>34.558100000000003</v>
       </c>
-      <c r="H11">
-        <f>H18</f>
+      <c r="H12">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>0.99851990000000002</v>
       </c>
-      <c r="J11">
-        <f>J18</f>
+      <c r="J12">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>0.99851990000000002</v>
       </c>
-      <c r="L11" s="89">
+      <c r="L12" s="89">
         <f t="shared" si="0"/>
         <v>532801.83411900001</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>164.91</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>257088.48</v>
       </c>
-      <c r="O11" s="91">
+      <c r="O12" s="91">
         <v>9131.32</v>
       </c>
-      <c r="P11" s="150">
-        <f t="shared" si="1"/>
+      <c r="P12" s="150">
+        <f t="shared" si="2"/>
         <v>-2.6283166070184549E-3</v>
       </c>
-      <c r="V11">
+      <c r="V12">
         <v>12</v>
       </c>
-      <c r="W11">
+      <c r="W12">
         <v>41.58</v>
       </c>
-      <c r="X11">
-        <f>X18</f>
+      <c r="X12">
+        <f>X19</f>
         <v>15</v>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <v>55.55</v>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <v>68</v>
       </c>
-      <c r="AA11">
+      <c r="AA12">
         <v>15.07</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="90">
+    <row r="13" spans="1:27">
+      <c r="A13" s="90">
         <v>45359</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B13" s="88">
         <v>161</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>2198.16</v>
       </c>
-      <c r="D12">
-        <f>D18</f>
+      <c r="D13">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>31.402999999999999</v>
       </c>
-      <c r="F12">
-        <f>F18</f>
+      <c r="F13">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>34.3643</v>
       </c>
-      <c r="H12">
-        <f>H18</f>
+      <c r="H13">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>0.99115900000000001</v>
       </c>
-      <c r="J12">
-        <f>J18</f>
+      <c r="J13">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.99115900000000001</v>
       </c>
-      <c r="L12" s="89">
+      <c r="L13" s="89">
         <f t="shared" si="0"/>
         <v>525972.37595699995</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>160.9</v>
       </c>
-      <c r="O12" s="91">
+      <c r="O13" s="91">
         <v>9155.32</v>
       </c>
-      <c r="P12" s="150">
-        <f t="shared" si="1"/>
+      <c r="P13" s="150">
+        <f t="shared" si="2"/>
         <v>1.1047128882442081E-2</v>
       </c>
-      <c r="V12">
+      <c r="V13">
         <v>12</v>
       </c>
-      <c r="W12">
+      <c r="W13">
         <v>37.799999999999997</v>
       </c>
-      <c r="X12">
-        <f>X18</f>
+      <c r="X13">
+        <f>X19</f>
         <v>15</v>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <v>57.75</v>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <v>68</v>
       </c>
-      <c r="AA12">
+      <c r="AA13">
         <v>13.7</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="90">
+    <row r="14" spans="1:27">
+      <c r="A14" s="90">
         <v>45358</v>
       </c>
-      <c r="B13" s="88">
+      <c r="B14" s="88">
         <v>161</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2184.79</v>
       </c>
-      <c r="D13">
-        <f>D18</f>
+      <c r="D14">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>31.297000000000001</v>
       </c>
-      <c r="F13">
-        <f>F18</f>
+      <c r="F14">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>34.110599999999998</v>
       </c>
-      <c r="H13">
-        <f>H18</f>
+      <c r="H14">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>0.945214</v>
       </c>
-      <c r="J13">
-        <f>J18</f>
+      <c r="J14">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.945214</v>
       </c>
-      <c r="L13" s="89">
+      <c r="L14" s="89">
         <f t="shared" si="0"/>
         <v>517832.22209400003</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>155.75</v>
       </c>
-      <c r="O13" s="91">
+      <c r="O14" s="91">
         <v>9054.18</v>
       </c>
-      <c r="P13" s="150">
-        <f t="shared" si="1"/>
+      <c r="P14" s="150">
+        <f t="shared" si="2"/>
         <v>3.4194151209717583E-2</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <v>12</v>
       </c>
-      <c r="W13">
+      <c r="W14">
         <v>34.380000000000003</v>
       </c>
-      <c r="X13">
-        <f>X18</f>
+      <c r="X14">
+        <f>X19</f>
         <v>15</v>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <v>63.1</v>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <v>68</v>
       </c>
-      <c r="AA13">
+      <c r="AA14">
         <v>12.46</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="90">
+    <row r="15" spans="1:27">
+      <c r="A15" s="90">
         <v>45357</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B15" s="88">
         <v>161</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>2150.9</v>
       </c>
-      <c r="D14">
-        <f>D18</f>
+      <c r="D15">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>31.293399999999998</v>
       </c>
-      <c r="F14">
-        <f>F18</f>
+      <c r="F15">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>34.006500000000003</v>
       </c>
-      <c r="H14">
-        <f>H18</f>
+      <c r="H15">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>0.99397100000000005</v>
       </c>
-      <c r="J14">
-        <f>J18</f>
+      <c r="J15">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.99397100000000005</v>
       </c>
-      <c r="L14" s="89">
+      <c r="L15" s="89">
         <f t="shared" si="0"/>
         <v>551296.63907100004</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>156.16</v>
       </c>
-      <c r="O14" s="91">
+      <c r="O15" s="91">
         <v>8744.58</v>
       </c>
-      <c r="P14" s="150">
-        <f t="shared" si="1"/>
+      <c r="P15" s="150">
+        <f t="shared" si="2"/>
         <v>-1.3258498407013208E-2</v>
       </c>
-      <c r="T14">
-        <f>T18</f>
+      <c r="T15">
+        <f>T19</f>
         <v>57</v>
       </c>
-      <c r="U14">
+      <c r="U15">
         <v>580.05924800000003</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <v>12</v>
       </c>
-      <c r="W14">
+      <c r="W15">
         <v>31.26</v>
       </c>
-      <c r="X14">
-        <f>X18</f>
+      <c r="X15">
+        <f>X19</f>
         <v>15</v>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <v>57.4</v>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <v>68</v>
       </c>
-      <c r="AA14">
+      <c r="AA15">
         <v>11.33</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="90">
+    <row r="16" spans="1:27">
+      <c r="A16" s="90">
         <v>45356</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B16" s="88">
         <v>161</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>2116.34</v>
       </c>
-      <c r="D15">
-        <f>D18</f>
+      <c r="D16">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>31.079899999999999</v>
       </c>
-      <c r="F15">
-        <f>F18</f>
+      <c r="F16">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>33.721699999999998</v>
       </c>
-      <c r="H15">
-        <f>H18</f>
+      <c r="H16">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>1.0160309999999999</v>
       </c>
-      <c r="J15">
-        <f>J18</f>
+      <c r="J16">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>1.0160309999999999</v>
       </c>
-      <c r="L15" s="89">
+      <c r="L16" s="89">
         <f t="shared" si="0"/>
         <v>549382.85210899997</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>154.22999999999999</v>
       </c>
-      <c r="O15" s="91">
+      <c r="O16" s="91">
         <v>8860.52</v>
       </c>
-      <c r="P15" s="150">
-        <f t="shared" si="1"/>
+      <c r="P16" s="150">
+        <f t="shared" si="2"/>
         <v>-5.319100910555985E-3</v>
       </c>
-      <c r="R15">
-        <f>R18</f>
+      <c r="R16">
+        <f>R19</f>
         <v>36</v>
       </c>
-      <c r="S15" s="97">
+      <c r="S16" s="97">
         <v>38.15</v>
       </c>
-      <c r="T15">
-        <f>T18</f>
+      <c r="T16">
+        <f>T19</f>
         <v>57</v>
       </c>
-      <c r="U15">
+      <c r="U16">
         <v>579.361718</v>
       </c>
-      <c r="V15">
-        <f>V18</f>
+      <c r="V16">
+        <f>V19</f>
         <v>12</v>
       </c>
-      <c r="W15">
+      <c r="W16">
         <v>28.42</v>
       </c>
-      <c r="X15">
-        <f>X18</f>
+      <c r="X16">
+        <f>X19</f>
         <v>15</v>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <v>52.2</v>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <v>68</v>
       </c>
-      <c r="AA15">
+      <c r="AA16">
         <v>11.33</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="90">
+    <row r="17" spans="1:27">
+      <c r="A17" s="90">
         <v>45355</v>
       </c>
-      <c r="B16" s="88">
+      <c r="B17" s="88">
         <v>161</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>2072.52</v>
       </c>
-      <c r="D16">
-        <f>D18</f>
+      <c r="D17">
+        <f>D19</f>
         <v>1110</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>30.905999999999999</v>
       </c>
-      <c r="F16">
-        <f>F18</f>
+      <c r="F17">
+        <f>F19</f>
         <v>321.99</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>33.542299999999997</v>
       </c>
-      <c r="H16">
-        <f>H18</f>
+      <c r="H17">
+        <f>H19</f>
         <v>50000</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>1.041954</v>
       </c>
-      <c r="J16">
-        <f>J18</f>
+      <c r="J17">
+        <f>J19</f>
         <v>75000</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>1.041954</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L17" s="89">
         <f t="shared" si="0"/>
         <v>545049.74954800005</v>
       </c>
-      <c r="O16" s="91">
+      <c r="O17" s="91">
         <v>8907.65</v>
       </c>
-      <c r="P16" s="150">
-        <f t="shared" si="1"/>
+      <c r="P17" s="150">
+        <f t="shared" si="2"/>
         <v>-2.1273848882702007E-2</v>
       </c>
-      <c r="R16">
-        <f>R18</f>
+      <c r="R17">
+        <f>R19</f>
         <v>36</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>34.659999999999997</v>
       </c>
-      <c r="T16">
-        <f>T18</f>
+      <c r="T17">
+        <f>T19</f>
         <v>57</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>578.66060300000004</v>
       </c>
-      <c r="V16">
-        <f>V18</f>
+      <c r="V17">
+        <f>V19</f>
         <v>12</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>25.84</v>
       </c>
-      <c r="X16">
-        <f>X18</f>
+      <c r="X17">
+        <f>X19</f>
         <v>15</v>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <v>47.46</v>
-      </c>
-      <c r="Z16">
-        <v>68</v>
-      </c>
-      <c r="AA16">
-        <v>11.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="90">
-        <v>45352</v>
-      </c>
-      <c r="B17" s="88">
-        <v>161</v>
-      </c>
-      <c r="C17">
-        <v>2018.91</v>
-      </c>
-      <c r="D17">
-        <f>D18</f>
-        <v>1110</v>
-      </c>
-      <c r="E17">
-        <v>30.7361</v>
-      </c>
-      <c r="F17">
-        <f>F18</f>
-        <v>321.99</v>
-      </c>
-      <c r="G17">
-        <v>33.225700000000003</v>
-      </c>
-      <c r="H17">
-        <f>H18</f>
-        <v>50000</v>
-      </c>
-      <c r="I17">
-        <v>1.034036</v>
-      </c>
-      <c r="J17">
-        <f>J18</f>
-        <v>75000</v>
-      </c>
-      <c r="K17">
-        <v>1.034036</v>
-      </c>
-      <c r="L17" s="89">
-        <f t="shared" si="0"/>
-        <v>534814.50418999989</v>
-      </c>
-      <c r="O17" s="91">
-        <v>9097.15</v>
-      </c>
-      <c r="P17" s="150">
-        <f t="shared" si="1"/>
-        <v>-1.0612114783201454E-2</v>
-      </c>
-      <c r="R17">
-        <f>R18</f>
-        <v>36</v>
-      </c>
-      <c r="S17">
-        <v>31.52</v>
-      </c>
-      <c r="T17">
-        <f>T18</f>
-        <v>57</v>
-      </c>
-      <c r="U17">
-        <v>576.58807100000001</v>
-      </c>
-      <c r="V17">
-        <f>V18</f>
-        <v>12</v>
-      </c>
-      <c r="W17">
-        <v>23.5</v>
-      </c>
-      <c r="X17">
-        <f>X18</f>
-        <v>15</v>
-      </c>
-      <c r="Y17">
-        <v>43.16</v>
       </c>
       <c r="Z17">
         <v>68</v>
@@ -5852,7 +5825,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="90">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="88">
         <v>161</v>
@@ -5879,32 +5852,32 @@
         <v>50000</v>
       </c>
       <c r="I18">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="J18">
         <f>J19</f>
         <v>75000</v>
       </c>
       <c r="K18">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="L18" s="89">
         <f t="shared" si="0"/>
-        <v>530894.48918999988</v>
+        <v>534814.50418999989</v>
       </c>
       <c r="O18" s="91">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="P18" s="150">
-        <f t="shared" si="1"/>
-        <v>1.428479750785594E-2</v>
+        <f t="shared" si="2"/>
+        <v>-1.0612114783201454E-2</v>
       </c>
       <c r="R18">
         <f>R19</f>
         <v>36</v>
       </c>
       <c r="S18">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="T18">
         <f>T19</f>
@@ -5918,18 +5891,25 @@
         <v>12</v>
       </c>
       <c r="W18">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="X18">
+        <f>X19</f>
         <v>15</v>
       </c>
       <c r="Y18">
-        <v>39.24</v>
+        <v>43.16</v>
+      </c>
+      <c r="Z18">
+        <v>68</v>
+      </c>
+      <c r="AA18">
+        <v>11.33</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="90">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B19" s="88">
         <v>161</v>
@@ -5938,65 +5918,75 @@
         <v>2018.91</v>
       </c>
       <c r="D19">
+        <f>D20</f>
         <v>1110</v>
       </c>
       <c r="E19">
         <v>30.7361</v>
       </c>
       <c r="F19">
+        <f>F20</f>
         <v>321.99</v>
       </c>
       <c r="G19">
         <v>33.225700000000003</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H21" si="2">H20</f>
+        <f>H20</f>
         <v>50000</v>
       </c>
       <c r="I19">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="J19">
         <f>J20</f>
         <v>75000</v>
       </c>
       <c r="K19">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="L19" s="89">
         <f t="shared" si="0"/>
-        <v>537360.00419000001</v>
+        <v>530894.48918999988</v>
       </c>
       <c r="O19" s="91">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="P19" s="150">
-        <f t="shared" si="1"/>
-        <v>-1.292378585710563E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="R19">
         <f>R20</f>
         <v>36</v>
       </c>
       <c r="S19">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="T19">
+        <f>T20</f>
         <v>57</v>
       </c>
       <c r="U19">
         <v>576.58807100000001</v>
       </c>
       <c r="V19">
+        <f>V20</f>
         <v>12</v>
       </c>
       <c r="W19">
-        <v>19.45</v>
+        <v>21.38</v>
+      </c>
+      <c r="X19">
+        <v>15</v>
+      </c>
+      <c r="Y19">
+        <v>39.24</v>
       </c>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="149">
-        <v>45349</v>
+      <c r="A20" s="90">
+        <v>45350</v>
       </c>
       <c r="B20" s="88">
         <v>161</v>
@@ -6017,34 +6007,36 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H20:H22" si="3">H21</f>
         <v>50000</v>
       </c>
       <c r="I20">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="J20">
+        <f>J21</f>
         <v>75000</v>
       </c>
       <c r="K20">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="L20" s="89">
         <f t="shared" si="0"/>
-        <v>536633.0191899999</v>
+        <v>537360.00419000001</v>
       </c>
       <c r="O20" s="91">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="P20" s="150">
-        <f t="shared" si="1"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="2"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="R20">
+        <f>R21</f>
         <v>36</v>
       </c>
       <c r="S20">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="T20">
         <v>57</v>
@@ -6052,10 +6044,16 @@
       <c r="U20">
         <v>576.58807100000001</v>
       </c>
+      <c r="V20">
+        <v>12</v>
+      </c>
+      <c r="W20">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="149">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B21" s="88">
         <v>161</v>
@@ -6076,31 +6074,34 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="I21">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
+      </c>
+      <c r="J21">
+        <v>75000</v>
       </c>
       <c r="K21">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="L21" s="89">
         <f t="shared" si="0"/>
-        <v>454463.60418999993</v>
+        <v>536633.0191899999</v>
       </c>
       <c r="O21" s="91">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="P21" s="150">
-        <f t="shared" si="1"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="2"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="R21">
         <v>36</v>
       </c>
       <c r="S21">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="T21">
         <v>57</v>
@@ -6111,7 +6112,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="149">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B22" s="88">
         <v>161</v>
@@ -6132,30 +6133,31 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H22">
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="I22">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="K22">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="L22" s="89">
         <f t="shared" si="0"/>
-        <v>453591.29418999993</v>
+        <v>454463.60418999993</v>
       </c>
       <c r="O22" s="91">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="P22" s="150">
-        <f t="shared" si="1"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="2"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="R22">
         <v>36</v>
       </c>
       <c r="S22">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="T22">
         <v>57</v>
@@ -6165,172 +6167,227 @@
       </c>
     </row>
     <row r="23" spans="1:27">
+      <c r="A23" s="149">
+        <v>45345</v>
+      </c>
+      <c r="B23" s="88">
+        <v>161</v>
+      </c>
+      <c r="C23">
+        <v>2018.91</v>
+      </c>
+      <c r="D23">
+        <v>1110</v>
+      </c>
+      <c r="E23">
+        <v>30.7361</v>
+      </c>
+      <c r="F23">
+        <v>321.99</v>
+      </c>
+      <c r="G23">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H23">
+        <v>50000</v>
+      </c>
       <c r="I23">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="K23">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L23" s="89">
+        <f t="shared" si="0"/>
+        <v>453591.29418999993</v>
       </c>
       <c r="O23" s="91">
-        <v>9347.17</v>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="P23" s="150">
+        <f t="shared" si="2"/>
+        <v>2.8834460540633211E-3</v>
       </c>
       <c r="R23">
         <v>36</v>
       </c>
       <c r="S23">
-        <v>17.82</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T23">
+        <v>57</v>
+      </c>
+      <c r="U23">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="I24">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="K24">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="O24" s="91">
+        <v>9347.17</v>
       </c>
       <c r="R24">
         <v>36</v>
       </c>
-      <c r="S24" s="98">
-        <v>15.3</v>
-      </c>
-      <c r="W24" s="98">
-        <f>W19</f>
-        <v>19.45</v>
-      </c>
-      <c r="Y24" s="98">
-        <f>Y18</f>
-        <v>39.24</v>
-      </c>
-      <c r="AA24" s="98">
-        <f>AA17</f>
-        <v>11.33</v>
+      <c r="S24">
+        <v>17.82</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="I25">
-        <v>0.91198999999999997</v>
+        <v>0.93849000000000005</v>
       </c>
       <c r="K25">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="P25" s="151">
-        <f>SUM(P5:P24)</f>
-        <v>-6.4968108442520767E-2</v>
-      </c>
-      <c r="S25" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="W25" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y25" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA25" s="98" t="s">
-        <v>60</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="R25">
+        <v>36</v>
+      </c>
+      <c r="S25" s="98">
+        <v>15.3</v>
+      </c>
+      <c r="W25" s="98">
+        <f>W20</f>
+        <v>19.45</v>
+      </c>
+      <c r="Y25" s="98">
+        <f>Y19</f>
+        <v>39.24</v>
+      </c>
+      <c r="AA25" s="98">
+        <f>AA18</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="I26">
-        <v>0.90268000000000004</v>
+        <v>0.91198999999999997</v>
       </c>
       <c r="K26">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="S26" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="W26" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y26" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA26" s="99" t="s">
-        <v>61</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="P26" s="151">
+        <f>SUM(P5:P25)</f>
+        <v>-5.3857629467034318E-2</v>
+      </c>
+      <c r="S26" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y26" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA26" s="98" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="I27">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="K27">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="S27" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="W27" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y27" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA27" s="99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="I28">
         <v>0.89847999999999995</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>0.89847999999999995</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R28" t="s">
         <v>62</v>
       </c>
-      <c r="S27" s="99">
+      <c r="S28" s="99">
         <v>38</v>
       </c>
-      <c r="W27" s="99">
+      <c r="W28" s="99">
         <v>45.72</v>
       </c>
-      <c r="Y27" s="99">
+      <c r="Y28" s="99">
         <v>55.5</v>
       </c>
-      <c r="AA27" s="99">
+      <c r="AA28" s="99">
         <f>AA2</f>
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
-      <c r="I28">
+    <row r="29" spans="1:27">
+      <c r="I29">
         <v>0.88783999999999996</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>0.88783999999999996</v>
       </c>
-      <c r="S28" s="100">
+      <c r="S29" s="100">
         <f>Sayfa2!M42</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="W28" s="100">
-        <f>(W27-W19)/W19</f>
+      <c r="W29" s="100">
+        <f>(W28-W20)/W20</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="Y28" s="100">
-        <f>(Y27-Y18)/Y18</f>
+      <c r="Y29" s="100">
+        <f>(Y28-Y19)/Y19</f>
         <v>0.41437308868501521</v>
       </c>
-      <c r="AA28" s="100">
-        <f>(AA27-AA17)/AA17</f>
+      <c r="AA29" s="100">
+        <f>(AA28-AA18)/AA18</f>
         <v>0.73786407766990303</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
-      <c r="I29">
+    <row r="30" spans="1:27">
+      <c r="I30">
         <v>0.86724999999999997</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
-      <c r="R30" s="101" t="s">
+    <row r="31" spans="1:27">
+      <c r="R31" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="S30" s="101">
+      <c r="S31" s="101">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="V30" s="101" t="s">
+      <c r="V31" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W30" s="101">
-        <f>(V19*W27)-(V5*W19)</f>
+      <c r="W31" s="101">
+        <f>(V20*W28)-(V5*W20)</f>
         <v>548.64</v>
       </c>
-      <c r="X30" s="101" t="s">
+      <c r="X31" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="Y30" s="101">
-        <f>(X18*Y27)-(X5*Y18)</f>
+      <c r="Y31" s="101">
+        <f>(X19*Y28)-(X5*Y19)</f>
         <v>832.5</v>
       </c>
-      <c r="AA30" s="101">
-        <f>(Z17*AA27)-(Z5*AA17)</f>
+      <c r="AA31" s="101">
+        <f>(Z18*AA28)-(Z5*AA18)</f>
         <v>568.48</v>
       </c>
     </row>
@@ -6344,8 +6401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6453,7 +6510,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="14">
         <f>SUM(K8:K9)</f>
-        <v>-0.40999999999951342</v>
+        <v>143.30100000000033</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -6530,7 +6587,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <f>K5/B7</f>
-        <v>-4.2268041237063236E-3</v>
+        <v>1.4773298969072199</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="16" t="s">
@@ -6550,19 +6607,19 @@
       <c r="J8" s="3"/>
       <c r="K8" s="18">
         <f>SUBTOTAL(109,K13:K20)</f>
-        <v>-566.0799999999997</v>
+        <v>-422.36899999999986</v>
       </c>
       <c r="L8" s="19">
         <f>K8/E8</f>
-        <v>-9.439260440080835E-2</v>
+        <v>-7.0429108832965354E-2</v>
       </c>
       <c r="M8" s="20">
         <f>SUBTOTAL(101,M13:M19)</f>
-        <v>-9.6443862396291435E-2</v>
+        <v>-7.8777685325802038E-2</v>
       </c>
       <c r="N8" s="20">
         <f>SUBTOTAL(101,N13:N19)</f>
-        <v>-3.6626652252283919E-2</v>
+        <v>-3.4607592042603143E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -6793,7 +6850,7 @@
       </c>
       <c r="O14" s="41">
         <f>SUM(O15:O18)</f>
-        <v>-566.0799999999997</v>
+        <v>-422.36899999999986</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -6854,7 +6911,7 @@
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="1">
-        <v>41</v>
+        <v>41.44</v>
       </c>
       <c r="I16" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
@@ -6862,11 +6919,11 @@
       </c>
       <c r="J16" s="22">
         <f>H16-D16</f>
-        <v>-14.079999999999998</v>
+        <v>-13.64</v>
       </c>
       <c r="K16" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-366.07999999999993</v>
+        <v>-354.64</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
@@ -6874,11 +6931,11 @@
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-0.25562817719680458</v>
+        <v>-0.2476397966594045</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-7.9060260988702447E-2</v>
+        <v>-7.6589627832805526E-2</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -6896,7 +6953,7 @@
         <v>174</v>
       </c>
       <c r="B17" s="2">
-        <v>45348</v>
+        <v>45273</v>
       </c>
       <c r="C17" s="29">
         <v>9</v>
@@ -6914,7 +6971,7 @@
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46">
-        <v>135</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="I17" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
@@ -6922,23 +6979,23 @@
       </c>
       <c r="J17" s="29">
         <f>H17-D17</f>
-        <v>5</v>
+        <v>6.1999999999999886</v>
       </c>
       <c r="K17" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>45</v>
+        <v>55.799999999999898</v>
       </c>
       <c r="L17" s="48">
         <f>F17-B17</f>
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M17" s="20">
         <f>K17/E17</f>
-        <v>3.8461538461538464E-2</v>
+        <v>4.7692307692307603E-2</v>
       </c>
       <c r="N17" s="20">
         <f>M17/L17*30</f>
-        <v>5.2447552447552448E-2</v>
+        <v>1.4750198255352866E-2</v>
       </c>
       <c r="O17" s="43"/>
       <c r="P17" s="1"/>
@@ -6974,7 +7031,8 @@
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="46">
-        <v>0.9</v>
+        <f>Sayfa4!K5</f>
+        <v>0.93470600000000004</v>
       </c>
       <c r="I18" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
@@ -6982,11 +7040,11 @@
       </c>
       <c r="J18" s="29">
         <f>H18-D18</f>
-        <v>-6.9999999999999951E-2</v>
+        <v>-3.5293999999999937E-2</v>
       </c>
       <c r="K18" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-244.99999999999983</v>
+        <v>-123.52899999999978</v>
       </c>
       <c r="L18" s="48">
         <f>F18-B18</f>
@@ -6994,15 +7052,15 @@
       </c>
       <c r="M18" s="20">
         <f>K18/E18</f>
-        <v>-7.2164948453608199E-2</v>
+        <v>-3.6385567010309212E-2</v>
       </c>
       <c r="N18" s="20">
         <f>M18/L18*30</f>
-        <v>-8.3267248215701764E-2</v>
+        <v>-4.1983346550356786E-2</v>
       </c>
       <c r="O18" s="51">
         <f>SUM(K15:K18)</f>
-        <v>-566.0799999999997</v>
+        <v>-422.36899999999986</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D2921A-85FA-4666-943A-5B6B19687F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3DB77D-3C18-4B21-BE0A-B34E9B52DB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1991,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2031,11 +2031,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>256845.12418700004</v>
+        <v>245919.30674700002</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>163.90882207211234</v>
+        <v>156.63650111273887</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2081,24 +2081,24 @@
       <c r="H5" s="166"/>
       <c r="I5" s="191">
         <f>SUM(I11:I25)</f>
-        <v>528861.71587999992</v>
+        <v>517935.89843999996</v>
       </c>
       <c r="J5" s="163"/>
       <c r="K5" s="192">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>240626.44680000003</v>
+        <v>229700.62936000002</v>
       </c>
       <c r="L5" s="193">
         <f>K5/E5</f>
-        <v>0.83482652059909401</v>
+        <v>0.79692062006557007</v>
       </c>
       <c r="M5" s="180">
         <f>SUBTOTAL(101,M10:M16)</f>
-        <v>-8.8340789263971278E-2</v>
+        <v>-9.9032876496021577E-2</v>
       </c>
       <c r="N5" s="180">
         <f>SUBTOTAL(101,N10:N16)</f>
-        <v>-0.11403009084028799</v>
+        <v>-0.11285169084493368</v>
       </c>
       <c r="O5" s="164"/>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="44">
         <f>$B$2</f>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G15" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="46">
         <f>Sayfa4!I2</f>
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="I15" s="25">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>70624.875</v>
+        <v>69796.574999999997</v>
       </c>
       <c r="J15" s="29">
         <f>H15-D15</f>
-        <v>-0.12277000000000005</v>
+        <v>-0.13381399999999999</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-9207.7500000000036</v>
+        <v>-10036.049999999999</v>
       </c>
       <c r="L15" s="48">
         <f>F15-B15</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M15" s="20">
         <f>K15/E15</f>
-        <v>-0.11533818410706154</v>
+        <v>-0.12571364150934533</v>
       </c>
       <c r="N15" s="20">
         <f>M15/L15*30</f>
-        <v>-0.15727934196417481</v>
+        <v>-0.15085636981121442</v>
       </c>
       <c r="O15" s="43"/>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F16" s="44">
         <f>$B$2</f>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G16" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2341,35 +2341,35 @@
       </c>
       <c r="H16" s="46">
         <f>H15</f>
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="I16" s="25">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>47083.25</v>
+        <v>46531.05</v>
       </c>
       <c r="J16" s="29">
         <f>H16-D16</f>
-        <v>-6.1539999999999928E-2</v>
+        <v>-7.2583999999999871E-2</v>
       </c>
       <c r="K16" s="47">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-3076.9999999999964</v>
+        <v>-3629.1999999999935</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-6.1343394420881013E-2</v>
+        <v>-7.2352111482697837E-2</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-7.0780839716401173E-2</v>
+        <v>-7.4847011878652933E-2</v>
       </c>
       <c r="O16" s="51">
         <f>SUM(K13:K16)</f>
-        <v>-12284.75</v>
+        <v>-13665.249999999993</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2408,50 +2408,50 @@
       </c>
       <c r="F18" s="44">
         <f t="shared" ref="F18:F25" si="0">$B$2</f>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G18" s="45">
         <v>50</v>
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!C5</f>
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="I18" s="25">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>113380.5</v>
+        <v>110605.5</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>441.08000000000015</v>
+        <v>385.58000000000015</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>22054.000000000007</v>
+        <v>19279.000000000007</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.24148522060957123</v>
+        <v>0.21109973556415726</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>4.7977196147596927E-2</v>
+        <v>4.1123325109900764E-2</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>113380.5</v>
+        <v>110605.5</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>56.690249999999999</v>
+        <v>55.302750000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2473,50 +2473,50 @@
       </c>
       <c r="F19" s="44">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G19" s="45">
         <v>11</v>
       </c>
       <c r="H19" s="46">
         <f>H18</f>
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="I19" s="25">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>24943.710000000003</v>
+        <v>24333.210000000003</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" si="1"/>
-        <v>1865.5100000000002</v>
+        <v>1810.0100000000002</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>20520.61</v>
+        <v>19910.11</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="2"/>
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="M19" s="20">
         <f t="shared" si="3"/>
-        <v>4.6394180552101467</v>
+        <v>4.5013926883859732</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="4"/>
-        <v>0.12360794108019929</v>
+        <v>0.11961185177287793</v>
       </c>
       <c r="O19" s="43"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>24943.710000000003</v>
+        <v>24333.210000000003</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.471855000000001</v>
+        <v>12.166605000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2538,50 +2538,50 @@
       </c>
       <c r="F20" s="44">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G20" s="45">
         <v>50</v>
       </c>
       <c r="H20" s="46">
         <f>H19</f>
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="I20" s="25">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>113380.5</v>
+        <v>110605.5</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>1798.75</v>
+        <v>1743.25</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>89937.5</v>
+        <v>87162.5</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="2"/>
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" si="3"/>
-        <v>3.8364330503775115</v>
+        <v>3.7180608283922707</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="4"/>
-        <v>8.9496882979257661E-2</v>
+        <v>8.6533611211612196E-2</v>
       </c>
       <c r="O20" s="43"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>113380.5</v>
+        <v>110605.5</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>56.690249999999999</v>
+        <v>55.302750000000003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F21" s="44">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G21" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2611,36 +2611,36 @@
       </c>
       <c r="H21" s="46">
         <f>H20</f>
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="I21" s="25">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>56690.25</v>
+        <v>55302.75</v>
       </c>
       <c r="J21" s="29">
         <f t="shared" si="1"/>
-        <v>1867.7400000000002</v>
+        <v>1812.2400000000002</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>46693.500000000007</v>
+        <v>45306.000000000007</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="2"/>
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" si="3"/>
-        <v>4.6708680321104366</v>
+        <v>4.5320729237002029</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" si="4"/>
-        <v>0.10379706738023192</v>
+        <v>0.10048942181153443</v>
       </c>
       <c r="O21" s="43"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>125.85235499999999</v>
+        <v>122.77210500000001</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="F22" s="44">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G22" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2670,31 +2670,31 @@
       </c>
       <c r="H22" s="46">
         <f>H21</f>
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="I22" s="25">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>54422.64</v>
+        <v>53090.64</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="1"/>
-        <v>1993.8000000000002</v>
+        <v>1938.3000000000002</v>
       </c>
       <c r="K22" s="47">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>47851.200000000004</v>
+        <v>46519.200000000004</v>
       </c>
       <c r="L22" s="48">
         <f t="shared" si="2"/>
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" si="3"/>
-        <v>7.2816916840144623</v>
+        <v>7.0789963843541139</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="4"/>
-        <v>0.13940698820704139</v>
+        <v>0.135267446834792</v>
       </c>
       <c r="O22" s="43"/>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="F23" s="44">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G23" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2725,40 +2725,40 @@
       </c>
       <c r="H23" s="46">
         <f>H22</f>
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="I23" s="25">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="J23" s="29">
         <f t="shared" si="1"/>
-        <v>2030.0200000000002</v>
+        <v>1974.5200000000002</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>2030.0200000000002</v>
+        <v>1974.5200000000002</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="2"/>
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" si="3"/>
-        <v>8.5442148238562243</v>
+        <v>8.3106191338019286</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="4"/>
-        <v>0.16357782049501388</v>
+        <v>0.1588016394993999</v>
       </c>
       <c r="O23" s="43"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>251704.71</v>
+        <v>245544.21</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>113.36415922029256</v>
+        <v>110.58955916264321</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F24" s="44">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G24" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2788,36 +2788,36 @@
       </c>
       <c r="H24" s="46">
         <f>Sayfa4!G2</f>
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="I24" s="25">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>10477.451880000001</v>
+        <v>10259.686440000001</v>
       </c>
       <c r="J24" s="29">
         <f t="shared" si="1"/>
-        <v>16.343500000000002</v>
+        <v>15.614700000000003</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4883.4378000000006</v>
+        <v>4665.6723600000014</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="2"/>
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" si="3"/>
-        <v>0.87297560037603639</v>
+        <v>0.83404730364926105</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="4"/>
-        <v>4.4691583636998454E-2</v>
+        <v>4.2481186943086301E-2</v>
       </c>
       <c r="O24" s="43"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>25170.471000000001</v>
+        <v>24554.421000000002</v>
       </c>
       <c r="Q24" s="56">
         <v>0.1</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F25" s="44">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G25" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2853,47 +2853,47 @@
       </c>
       <c r="H25" s="46">
         <f>Sayfa4!E2</f>
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="I25" s="25">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>35590.928999999996</v>
+        <v>35198.877</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="1"/>
-        <v>17.063899999999997</v>
+        <v>16.710699999999999</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18940.928999999996</v>
+        <v>18548.877</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="2"/>
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>1.137593333333333</v>
+        <v>1.1140466666666666</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="4"/>
-        <v>5.7261409395973135E-2</v>
+        <v>5.5795325542570946E-2</v>
       </c>
       <c r="O25" s="51">
         <f>SUM(K18:K25)</f>
-        <v>252911.19680000003</v>
+        <v>243365.87936000002</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>276875.18099999998</v>
+        <v>270098.63099999999</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>138.4375905</v>
+        <v>135.04931550000001</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>109.43683043478261</v>
+        <v>106.75835217391304</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2914,7 +2914,7 @@
       <c r="O26" s="164"/>
       <c r="R26" s="20">
         <f>1-(R25/R23)</f>
-        <v>-0.22117600000000004</v>
+        <v>-0.22117600000000026</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2954,7 +2954,7 @@
       <c r="P28" s="160"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>307375.75093896</v>
+        <v>299852.69619096001</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -5009,10 +5009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA32"/>
+  <dimension ref="A2:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5047,35 +5047,35 @@
     <row r="2" spans="1:27">
       <c r="A2" s="84">
         <f>A5</f>
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="K2">
         <f>I5</f>
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="M2" s="85">
         <f>Sayfa2!D3</f>
-        <v>163.90882207211234</v>
+        <v>156.63650111273887</v>
       </c>
       <c r="N2" s="86">
         <f>Sayfa2!K2</f>
-        <v>256845.12418700004</v>
+        <v>245919.30674700002</v>
       </c>
       <c r="S2">
         <f>S5</f>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>AA7</f>
+        <f>AA8</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5151,1036 +5151,1009 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="84">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B5" s="82">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="D5">
-        <f>D19</f>
+        <f>D20</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="F5">
-        <f>F19</f>
+        <f>F20</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="H5">
-        <f>H19</f>
+        <f>H20</f>
         <v>50000</v>
       </c>
       <c r="I5">
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="J5">
-        <f>J19</f>
+        <f>J20</f>
         <v>75000</v>
       </c>
       <c r="K5" s="146">
         <f>I5</f>
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="L5" s="83">
-        <f>(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z7*AA7)+(J5*K5)</f>
-        <v>531013.79554900003</v>
+        <f>(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z8*AA8)+(J5*K5)</f>
+        <v>520071.07723699999</v>
       </c>
       <c r="M5">
-        <v>163.91</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="N5">
-        <v>256845.12</v>
+        <v>245919.31</v>
       </c>
       <c r="O5" s="85">
         <v>8955.1200000000008</v>
       </c>
       <c r="P5" s="144">
-        <f>(1-(O8/O5))</f>
+        <f>(1-(O9/O5))</f>
         <v>2.6466423677181328E-2</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="84">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B6" s="82">
         <v>161</v>
       </c>
       <c r="C6">
-        <v>2220.92</v>
+        <v>2267.61</v>
       </c>
       <c r="D6">
-        <f>D20</f>
+        <f>D21</f>
         <v>1110</v>
       </c>
       <c r="E6">
-        <v>32.028799999999997</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="F6">
-        <f>F20</f>
+        <f>F21</f>
         <v>321.99</v>
       </c>
       <c r="G6">
-        <v>34.808799999999998</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="H6">
-        <f>H20</f>
+        <f>H21</f>
         <v>50000</v>
       </c>
       <c r="I6">
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="J6">
-        <f>J20</f>
+        <f>J21</f>
         <v>75000</v>
       </c>
       <c r="K6" s="146">
         <f>I6</f>
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="L6" s="83">
-        <f t="shared" ref="L6:L9" si="0">(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z6*AA6)+(J6*K6)</f>
-        <v>521166.42351200001</v>
+        <f>(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z9*AA9)+(J6*K6)</f>
+        <v>531236.15554900002</v>
       </c>
       <c r="M6">
-        <v>158.47999999999999</v>
+        <v>163.91</v>
       </c>
       <c r="N6">
-        <v>248342.62</v>
+        <v>256845.12</v>
       </c>
       <c r="O6" s="85">
-        <v>8929.8799999999992</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="P6" s="144">
-        <f>(1-(O9/O6))</f>
-        <v>1.1330499402007477E-2</v>
+        <f>(1-(O10/O6))</f>
+        <v>1.4117063757939641E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="84">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B7" s="82">
         <v>161</v>
       </c>
       <c r="C7">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="D7">
-        <f>D20</f>
+        <f>D21</f>
         <v>1110</v>
       </c>
       <c r="E7">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="F7">
-        <f>F20</f>
+        <f>F21</f>
         <v>321.99</v>
       </c>
       <c r="G7">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="H7">
-        <f>H20</f>
+        <f>H21</f>
         <v>50000</v>
       </c>
       <c r="I7">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="J7">
-        <f>J20</f>
+        <f>J21</f>
         <v>75000</v>
       </c>
       <c r="K7" s="146">
         <f>I7</f>
+        <v>0.93470600000000004</v>
+      </c>
+      <c r="L7" s="83">
+        <f t="shared" ref="L7:L10" si="0">(B7*C7)+(D7*E7)+(F7*G7)+(T7*U7)+(H7*I7)+(R7*S7)+(V7*W7)+(X7*Y7)+(Z7*AA7)+(J7*K7)</f>
+        <v>521166.42351200001</v>
+      </c>
+      <c r="M7">
+        <v>158.47999999999999</v>
+      </c>
+      <c r="N7">
+        <v>248342.62</v>
+      </c>
+      <c r="O7" s="85">
+        <v>8929.8799999999992</v>
+      </c>
+      <c r="P7" s="144">
+        <f>(1-(O10/O7))</f>
+        <v>1.1330499402007477E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="84">
+        <v>45370</v>
+      </c>
+      <c r="B8" s="82">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>2219.02</v>
+      </c>
+      <c r="D8">
+        <f>D21</f>
+        <v>1110</v>
+      </c>
+      <c r="E8">
+        <v>32.087800000000001</v>
+      </c>
+      <c r="F8">
+        <f>F21</f>
+        <v>321.99</v>
+      </c>
+      <c r="G8">
+        <v>34.799100000000003</v>
+      </c>
+      <c r="H8">
+        <f>H21</f>
+        <v>50000</v>
+      </c>
+      <c r="I8">
         <v>0.90033600000000003</v>
       </c>
-      <c r="L7" s="83">
+      <c r="J8">
+        <f>J21</f>
+        <v>75000</v>
+      </c>
+      <c r="K8" s="146">
+        <f>I8</f>
+        <v>0.90033600000000003</v>
+      </c>
+      <c r="L8" s="83">
         <f t="shared" si="0"/>
         <v>517965.56020899996</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>155.59</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>243803.06</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O8" s="85">
         <v>8774</v>
       </c>
-      <c r="P7" s="144">
-        <f>(1-(O9/O7))</f>
+      <c r="P8" s="144">
+        <f>(1-(O10/O8))</f>
         <v>-6.2343286984272162E-3</v>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <v>68</v>
       </c>
-      <c r="AA7">
+      <c r="AA8">
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="84">
+    <row r="9" spans="1:27">
+      <c r="A9" s="84">
         <v>45369</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B9" s="82">
         <v>161</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2212.35</v>
       </c>
-      <c r="D8">
-        <f>D20</f>
+      <c r="D9">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>31.9499</v>
       </c>
-      <c r="F8">
-        <f>F20</f>
+      <c r="F9">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>34.8125</v>
       </c>
-      <c r="H8">
-        <f>H20</f>
+      <c r="H9">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.93887900000000002</v>
       </c>
-      <c r="J8">
-        <f>J20</f>
+      <c r="J9">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>0.93887900000000002</v>
       </c>
-      <c r="L8" s="83">
+      <c r="L9" s="83">
         <f t="shared" si="0"/>
         <v>521783.17087500001</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>155.44</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>247623.17</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O9" s="85">
         <v>8718.11</v>
       </c>
-      <c r="P8" s="144">
-        <f t="shared" ref="P8:P24" si="1">(1-(O9/O8))</f>
+      <c r="P9" s="144">
+        <f t="shared" ref="P9:P25" si="1">(1-(O10/O9))</f>
         <v>-1.2685088855267868E-2</v>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <v>68</v>
       </c>
-      <c r="AA8">
+      <c r="AA9">
         <v>22.96</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="84">
+    <row r="10" spans="1:27">
+      <c r="A10" s="84">
         <v>45366</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B10" s="82">
         <v>161</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2213.54</v>
       </c>
-      <c r="D9">
-        <f>D20</f>
+      <c r="D10">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>31.796299999999999</v>
       </c>
-      <c r="F9">
-        <f>F20</f>
+      <c r="F10">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>34.619700000000002</v>
       </c>
-      <c r="H9">
-        <f>H20</f>
+      <c r="H10">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>0.94838599999999995</v>
       </c>
-      <c r="J9">
-        <f>J20</f>
+      <c r="J10">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.94838599999999995</v>
       </c>
-      <c r="L9" s="83">
+      <c r="L10" s="83">
         <f t="shared" si="0"/>
         <v>522868.00020299997</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>156.13</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>248712.47</v>
       </c>
-      <c r="O9" s="85">
+      <c r="O10" s="85">
         <v>8828.7000000000007</v>
       </c>
-      <c r="P9" s="144">
+      <c r="P10" s="144">
         <f t="shared" si="1"/>
         <v>-6.2092946866469934E-3</v>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <v>68</v>
       </c>
-      <c r="AA9">
+      <c r="AA10">
         <v>22.04</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="84">
+    <row r="11" spans="1:27">
+      <c r="A11" s="84">
         <v>45365</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B11" s="82">
         <v>161</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2222.88</v>
       </c>
-      <c r="D10">
-        <f>D20</f>
+      <c r="D11">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>31.775700000000001</v>
       </c>
-      <c r="F10">
-        <f>F20</f>
+      <c r="F11">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>34.762500000000003</v>
       </c>
-      <c r="H10">
-        <f>H20</f>
+      <c r="H11">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>0.95100700000000005</v>
       </c>
-      <c r="J10">
-        <f>J20</f>
+      <c r="J11">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.95100700000000005</v>
       </c>
-      <c r="L10" s="83">
-        <f t="shared" ref="L10:L24" si="2">(B10*C10)+(D10*E10)+(F10*G10)+(T10*U10)+(H10*I10)+(R10*S10)+(V10*W10)+(X10*Y10)+(Z10*AA10)+(J10*K10)</f>
+      <c r="L11" s="83">
+        <f t="shared" ref="L11:L25" si="2">(B11*C11)+(D11*E11)+(F11*G11)+(T11*U11)+(H11*I11)+(R11*S11)+(V11*W11)+(X11*Y11)+(Z11*AA11)+(J11*K11)</f>
         <v>524610.95937499998</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>157.21</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>250427.64</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O11" s="85">
         <v>8883.52</v>
       </c>
-      <c r="P10" s="144">
+      <c r="P11" s="144">
         <f t="shared" si="1"/>
         <v>-3.0066910413888426E-3</v>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <v>68</v>
       </c>
-      <c r="AA10">
+      <c r="AA11">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="84">
+    <row r="12" spans="1:27">
+      <c r="A12" s="84">
         <v>45364</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B12" s="82">
         <v>161</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2220.3200000000002</v>
       </c>
-      <c r="D11">
-        <f>D20</f>
+      <c r="D12">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>32</v>
       </c>
-      <c r="F11">
-        <f>F20</f>
+      <c r="F12">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>35</v>
       </c>
-      <c r="H11">
-        <f>H20</f>
+      <c r="H12">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>0.957233</v>
       </c>
-      <c r="J11">
-        <f>J20</f>
+      <c r="J12">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>0.957233</v>
       </c>
-      <c r="L11" s="83">
+      <c r="L12" s="83">
         <f t="shared" si="2"/>
         <v>525154.25500000012</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>160.79</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>250989.9</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O12" s="85">
         <v>8910.23</v>
       </c>
-      <c r="P11" s="144">
+      <c r="P12" s="144">
         <f t="shared" si="1"/>
         <v>-1.7822211098927898E-2</v>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <v>68</v>
       </c>
-      <c r="AA11">
+      <c r="AA12">
         <v>18.22</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="84">
+    <row r="13" spans="1:27">
+      <c r="A13" s="84">
         <v>45363</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B13" s="82">
         <v>161</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>2220.3200000000002</v>
       </c>
-      <c r="D12">
-        <f>D20</f>
+      <c r="D13">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>31.516400000000001</v>
       </c>
-      <c r="F12">
-        <f>F20</f>
+      <c r="F13">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>34.463200000000001</v>
       </c>
-      <c r="H12">
-        <f>H20</f>
+      <c r="H13">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>0.979213</v>
       </c>
-      <c r="J12">
-        <f>J20</f>
+      <c r="J13">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.979213</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L13" s="83">
         <f t="shared" si="2"/>
         <v>527079.91476800013</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>161.94999999999999</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>252645.61</v>
       </c>
-      <c r="O12" s="85">
+      <c r="O13" s="85">
         <v>9069.0300000000007</v>
       </c>
-      <c r="P12" s="144">
+      <c r="P13" s="144">
         <f t="shared" si="1"/>
         <v>-6.8684302510850781E-3</v>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <v>68</v>
       </c>
-      <c r="AA12">
+      <c r="AA13">
         <v>16.57</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="84">
+    <row r="14" spans="1:27">
+      <c r="A14" s="84">
         <v>45362</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B14" s="82">
         <v>161</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2232.66</v>
       </c>
-      <c r="D13">
-        <f>D20</f>
+      <c r="D14">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>31.571400000000001</v>
       </c>
-      <c r="F13">
-        <f>F20</f>
+      <c r="F14">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>34.558100000000003</v>
       </c>
-      <c r="H13">
-        <f>H20</f>
+      <c r="H14">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>0.99851990000000002</v>
       </c>
-      <c r="J13">
-        <f>J20</f>
+      <c r="J14">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.99851990000000002</v>
       </c>
-      <c r="L13" s="83">
+      <c r="L14" s="83">
         <f t="shared" si="2"/>
         <v>532801.83411900001</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>164.91</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>257088.48</v>
       </c>
-      <c r="O13" s="85">
+      <c r="O14" s="85">
         <v>9131.32</v>
       </c>
-      <c r="P13" s="144">
+      <c r="P14" s="144">
         <f t="shared" si="1"/>
         <v>-2.6283166070184549E-3</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <v>12</v>
       </c>
-      <c r="W13">
+      <c r="W14">
         <v>41.58</v>
       </c>
-      <c r="X13">
-        <f>X20</f>
+      <c r="X14">
+        <f>X21</f>
         <v>15</v>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <v>55.55</v>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <v>68</v>
       </c>
-      <c r="AA13">
+      <c r="AA14">
         <v>15.07</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="84">
+    <row r="15" spans="1:27">
+      <c r="A15" s="84">
         <v>45359</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B15" s="82">
         <v>161</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>2198.16</v>
       </c>
-      <c r="D14">
-        <f>D20</f>
+      <c r="D15">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>31.402999999999999</v>
       </c>
-      <c r="F14">
-        <f>F20</f>
+      <c r="F15">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>34.3643</v>
       </c>
-      <c r="H14">
-        <f>H20</f>
+      <c r="H15">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>0.99115900000000001</v>
       </c>
-      <c r="J14">
-        <f>J20</f>
+      <c r="J15">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.99115900000000001</v>
       </c>
-      <c r="L14" s="83">
+      <c r="L15" s="83">
         <f t="shared" si="2"/>
         <v>525972.37595699995</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>160.9</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O15" s="85">
         <v>9155.32</v>
       </c>
-      <c r="P14" s="144">
+      <c r="P15" s="144">
         <f t="shared" si="1"/>
         <v>1.1047128882442081E-2</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <v>12</v>
       </c>
-      <c r="W14">
+      <c r="W15">
         <v>37.799999999999997</v>
       </c>
-      <c r="X14">
-        <f>X20</f>
+      <c r="X15">
+        <f>X21</f>
         <v>15</v>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <v>57.75</v>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <v>68</v>
       </c>
-      <c r="AA14">
+      <c r="AA15">
         <v>13.7</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="84">
+    <row r="16" spans="1:27">
+      <c r="A16" s="84">
         <v>45358</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B16" s="82">
         <v>161</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>2184.79</v>
       </c>
-      <c r="D15">
-        <f>D20</f>
+      <c r="D16">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>31.297000000000001</v>
       </c>
-      <c r="F15">
-        <f>F20</f>
+      <c r="F16">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>34.110599999999998</v>
       </c>
-      <c r="H15">
-        <f>H20</f>
+      <c r="H16">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>0.945214</v>
       </c>
-      <c r="J15">
-        <f>J20</f>
+      <c r="J16">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>0.945214</v>
       </c>
-      <c r="L15" s="83">
+      <c r="L16" s="83">
         <f t="shared" si="2"/>
         <v>517832.22209400003</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>155.75</v>
       </c>
-      <c r="O15" s="85">
+      <c r="O16" s="85">
         <v>9054.18</v>
       </c>
-      <c r="P15" s="144">
+      <c r="P16" s="144">
         <f t="shared" si="1"/>
         <v>3.4194151209717583E-2</v>
       </c>
-      <c r="V15">
+      <c r="V16">
         <v>12</v>
       </c>
-      <c r="W15">
+      <c r="W16">
         <v>34.380000000000003</v>
       </c>
-      <c r="X15">
-        <f>X20</f>
+      <c r="X16">
+        <f>X21</f>
         <v>15</v>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <v>63.1</v>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <v>68</v>
       </c>
-      <c r="AA15">
+      <c r="AA16">
         <v>12.46</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="84">
+    <row r="17" spans="1:27">
+      <c r="A17" s="84">
         <v>45357</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B17" s="82">
         <v>161</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>2150.9</v>
       </c>
-      <c r="D16">
-        <f>D20</f>
+      <c r="D17">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>31.293399999999998</v>
       </c>
-      <c r="F16">
-        <f>F20</f>
+      <c r="F17">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>34.006500000000003</v>
       </c>
-      <c r="H16">
-        <f>H20</f>
+      <c r="H17">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>0.99397100000000005</v>
       </c>
-      <c r="J16">
-        <f>J20</f>
+      <c r="J17">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>0.99397100000000005</v>
       </c>
-      <c r="L16" s="83">
+      <c r="L17" s="83">
         <f t="shared" si="2"/>
         <v>551296.63907100004</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>156.16</v>
       </c>
-      <c r="O16" s="85">
+      <c r="O17" s="85">
         <v>8744.58</v>
       </c>
-      <c r="P16" s="144">
+      <c r="P17" s="144">
         <f t="shared" si="1"/>
         <v>-1.3258498407013208E-2</v>
       </c>
-      <c r="T16">
-        <f>T20</f>
+      <c r="T17">
+        <f>T21</f>
         <v>57</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>580.05924800000003</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>12</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>31.26</v>
       </c>
-      <c r="X16">
-        <f>X20</f>
+      <c r="X17">
+        <f>X21</f>
         <v>15</v>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <v>57.4</v>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <v>68</v>
       </c>
-      <c r="AA16">
+      <c r="AA17">
         <v>11.33</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="84">
+    <row r="18" spans="1:27">
+      <c r="A18" s="84">
         <v>45356</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B18" s="82">
         <v>161</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2116.34</v>
       </c>
-      <c r="D17">
-        <f>D20</f>
+      <c r="D18">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>31.079899999999999</v>
       </c>
-      <c r="F17">
-        <f>F20</f>
+      <c r="F18">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>33.721699999999998</v>
       </c>
-      <c r="H17">
-        <f>H20</f>
+      <c r="H18">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>1.0160309999999999</v>
       </c>
-      <c r="J17">
-        <f>J20</f>
+      <c r="J18">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>1.0160309999999999</v>
       </c>
-      <c r="L17" s="83">
+      <c r="L18" s="83">
         <f t="shared" si="2"/>
         <v>549382.85210899997</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <v>154.22999999999999</v>
       </c>
-      <c r="O17" s="85">
+      <c r="O18" s="85">
         <v>8860.52</v>
       </c>
-      <c r="P17" s="144">
+      <c r="P18" s="144">
         <f t="shared" si="1"/>
         <v>-5.319100910555985E-3</v>
       </c>
-      <c r="R17">
-        <f>R20</f>
+      <c r="R18">
+        <f>R21</f>
         <v>36</v>
       </c>
-      <c r="S17" s="91">
+      <c r="S18" s="91">
         <v>38.15</v>
       </c>
-      <c r="T17">
-        <f>T20</f>
+      <c r="T18">
+        <f>T21</f>
         <v>57</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>579.361718</v>
       </c>
-      <c r="V17">
-        <f>V20</f>
+      <c r="V18">
+        <f>V21</f>
         <v>12</v>
       </c>
-      <c r="W17">
+      <c r="W18">
         <v>28.42</v>
       </c>
-      <c r="X17">
-        <f>X20</f>
+      <c r="X18">
+        <f>X21</f>
         <v>15</v>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <v>52.2</v>
       </c>
-      <c r="Z17">
+      <c r="Z18">
         <v>68</v>
       </c>
-      <c r="AA17">
+      <c r="AA18">
         <v>11.33</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="84">
+    <row r="19" spans="1:27">
+      <c r="A19" s="84">
         <v>45355</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B19" s="82">
         <v>161</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>2072.52</v>
       </c>
-      <c r="D18">
-        <f>D20</f>
+      <c r="D19">
+        <f>D21</f>
         <v>1110</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>30.905999999999999</v>
       </c>
-      <c r="F18">
-        <f>F20</f>
+      <c r="F19">
+        <f>F21</f>
         <v>321.99</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>33.542299999999997</v>
       </c>
-      <c r="H18">
-        <f>H20</f>
+      <c r="H19">
+        <f>H21</f>
         <v>50000</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>1.041954</v>
       </c>
-      <c r="J18">
-        <f>J20</f>
+      <c r="J19">
+        <f>J21</f>
         <v>75000</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>1.041954</v>
       </c>
-      <c r="L18" s="83">
+      <c r="L19" s="83">
         <f t="shared" si="2"/>
         <v>545049.74954800005</v>
       </c>
-      <c r="O18" s="85">
+      <c r="O19" s="85">
         <v>8907.65</v>
       </c>
-      <c r="P18" s="144">
+      <c r="P19" s="144">
         <f t="shared" si="1"/>
         <v>-2.1273848882702007E-2</v>
       </c>
-      <c r="R18">
-        <f>R20</f>
+      <c r="R19">
+        <f>R21</f>
         <v>36</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <v>34.659999999999997</v>
       </c>
-      <c r="T18">
-        <f>T20</f>
+      <c r="T19">
+        <f>T21</f>
         <v>57</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <v>578.66060300000004</v>
       </c>
-      <c r="V18">
-        <f>V20</f>
+      <c r="V19">
+        <f>V21</f>
         <v>12</v>
       </c>
-      <c r="W18">
+      <c r="W19">
         <v>25.84</v>
       </c>
-      <c r="X18">
-        <f>X20</f>
+      <c r="X19">
+        <f>X21</f>
         <v>15</v>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <v>47.46</v>
-      </c>
-      <c r="Z18">
-        <v>68</v>
-      </c>
-      <c r="AA18">
-        <v>11.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="84">
-        <v>45352</v>
-      </c>
-      <c r="B19" s="82">
-        <v>161</v>
-      </c>
-      <c r="C19">
-        <v>2018.91</v>
-      </c>
-      <c r="D19">
-        <f>D20</f>
-        <v>1110</v>
-      </c>
-      <c r="E19">
-        <v>30.7361</v>
-      </c>
-      <c r="F19">
-        <f>F20</f>
-        <v>321.99</v>
-      </c>
-      <c r="G19">
-        <v>33.225700000000003</v>
-      </c>
-      <c r="H19">
-        <f>H20</f>
-        <v>50000</v>
-      </c>
-      <c r="I19">
-        <v>1.034036</v>
-      </c>
-      <c r="J19">
-        <f>J20</f>
-        <v>75000</v>
-      </c>
-      <c r="K19">
-        <v>1.034036</v>
-      </c>
-      <c r="L19" s="83">
-        <f t="shared" si="2"/>
-        <v>534814.50418999989</v>
-      </c>
-      <c r="O19" s="85">
-        <v>9097.15</v>
-      </c>
-      <c r="P19" s="144">
-        <f t="shared" si="1"/>
-        <v>-1.0612114783201454E-2</v>
-      </c>
-      <c r="R19">
-        <f>R20</f>
-        <v>36</v>
-      </c>
-      <c r="S19">
-        <v>31.52</v>
-      </c>
-      <c r="T19">
-        <f>T20</f>
-        <v>57</v>
-      </c>
-      <c r="U19">
-        <v>576.58807100000001</v>
-      </c>
-      <c r="V19">
-        <f>V20</f>
-        <v>12</v>
-      </c>
-      <c r="W19">
-        <v>23.5</v>
-      </c>
-      <c r="X19">
-        <f>X20</f>
-        <v>15</v>
-      </c>
-      <c r="Y19">
-        <v>43.16</v>
       </c>
       <c r="Z19">
         <v>68</v>
@@ -6191,7 +6164,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="84">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B20" s="82">
         <v>161</v>
@@ -6218,32 +6191,32 @@
         <v>50000</v>
       </c>
       <c r="I20">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="J20">
         <f>J21</f>
         <v>75000</v>
       </c>
       <c r="K20">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="L20" s="83">
         <f t="shared" si="2"/>
-        <v>530894.48918999988</v>
+        <v>534814.50418999989</v>
       </c>
       <c r="O20" s="85">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="P20" s="144">
         <f t="shared" si="1"/>
-        <v>1.428479750785594E-2</v>
+        <v>-1.0612114783201454E-2</v>
       </c>
       <c r="R20">
         <f>R21</f>
         <v>36</v>
       </c>
       <c r="S20">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="T20">
         <f>T21</f>
@@ -6257,18 +6230,25 @@
         <v>12</v>
       </c>
       <c r="W20">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="X20">
+        <f>X21</f>
         <v>15</v>
       </c>
       <c r="Y20">
-        <v>39.24</v>
+        <v>43.16</v>
+      </c>
+      <c r="Z20">
+        <v>68</v>
+      </c>
+      <c r="AA20">
+        <v>11.33</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="84">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B21" s="82">
         <v>161</v>
@@ -6277,65 +6257,75 @@
         <v>2018.91</v>
       </c>
       <c r="D21">
+        <f>D22</f>
         <v>1110</v>
       </c>
       <c r="E21">
         <v>30.7361</v>
       </c>
       <c r="F21">
+        <f>F22</f>
         <v>321.99</v>
       </c>
       <c r="G21">
         <v>33.225700000000003</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H23" si="3">H22</f>
+        <f>H22</f>
         <v>50000</v>
       </c>
       <c r="I21">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="J21">
         <f>J22</f>
         <v>75000</v>
       </c>
       <c r="K21">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="L21" s="83">
         <f t="shared" si="2"/>
-        <v>537360.00419000001</v>
+        <v>530894.48918999988</v>
       </c>
       <c r="O21" s="85">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="P21" s="144">
         <f t="shared" si="1"/>
-        <v>-1.292378585710563E-2</v>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="R21">
         <f>R22</f>
         <v>36</v>
       </c>
       <c r="S21">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="T21">
+        <f>T22</f>
         <v>57</v>
       </c>
       <c r="U21">
         <v>576.58807100000001</v>
       </c>
       <c r="V21">
+        <f>V22</f>
         <v>12</v>
       </c>
       <c r="W21">
-        <v>19.45</v>
+        <v>21.38</v>
+      </c>
+      <c r="X21">
+        <v>15</v>
+      </c>
+      <c r="Y21">
+        <v>39.24</v>
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="143">
-        <v>45349</v>
+      <c r="A22" s="84">
+        <v>45350</v>
       </c>
       <c r="B22" s="82">
         <v>161</v>
@@ -6356,34 +6346,36 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H22:H24" si="3">H23</f>
         <v>50000</v>
       </c>
       <c r="I22">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="J22">
+        <f>J23</f>
         <v>75000</v>
       </c>
       <c r="K22">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="L22" s="83">
         <f t="shared" si="2"/>
-        <v>536633.0191899999</v>
+        <v>537360.00419000001</v>
       </c>
       <c r="O22" s="85">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="P22" s="144">
         <f t="shared" si="1"/>
-        <v>-1.6847359545420826E-2</v>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="R22">
+        <f>R23</f>
         <v>36</v>
       </c>
       <c r="S22">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="T22">
         <v>57</v>
@@ -6391,10 +6383,16 @@
       <c r="U22">
         <v>576.58807100000001</v>
       </c>
+      <c r="V22">
+        <v>12</v>
+      </c>
+      <c r="W22">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="143">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B23" s="82">
         <v>161</v>
@@ -6419,27 +6417,30 @@
         <v>50000</v>
       </c>
       <c r="I23">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
+      </c>
+      <c r="J23">
+        <v>75000</v>
       </c>
       <c r="K23">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="L23" s="83">
         <f t="shared" si="2"/>
-        <v>454463.60418999993</v>
+        <v>536633.0191899999</v>
       </c>
       <c r="O23" s="85">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="P23" s="144">
         <f t="shared" si="1"/>
-        <v>-4.2928478604864484E-3</v>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="R23">
         <v>36</v>
       </c>
       <c r="S23">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="T23">
         <v>57</v>
@@ -6450,7 +6451,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="143">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B24" s="82">
         <v>161</v>
@@ -6471,30 +6472,31 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H24">
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="I24">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="K24">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="L24" s="83">
         <f t="shared" si="2"/>
-        <v>453591.29418999993</v>
+        <v>454463.60418999993</v>
       </c>
       <c r="O24" s="85">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="P24" s="144">
         <f t="shared" si="1"/>
-        <v>2.8834460540633211E-3</v>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="R24">
         <v>36</v>
       </c>
       <c r="S24">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="T24">
         <v>57</v>
@@ -6504,172 +6506,227 @@
       </c>
     </row>
     <row r="25" spans="1:27">
+      <c r="A25" s="143">
+        <v>45345</v>
+      </c>
+      <c r="B25" s="82">
+        <v>161</v>
+      </c>
+      <c r="C25">
+        <v>2018.91</v>
+      </c>
+      <c r="D25">
+        <v>1110</v>
+      </c>
+      <c r="E25">
+        <v>30.7361</v>
+      </c>
+      <c r="F25">
+        <v>321.99</v>
+      </c>
+      <c r="G25">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H25">
+        <v>50000</v>
+      </c>
       <c r="I25">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="K25">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L25" s="83">
+        <f t="shared" si="2"/>
+        <v>453591.29418999993</v>
       </c>
       <c r="O25" s="85">
-        <v>9347.17</v>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="P25" s="144">
+        <f t="shared" si="1"/>
+        <v>2.8834460540633211E-3</v>
       </c>
       <c r="R25">
         <v>36</v>
       </c>
       <c r="S25">
-        <v>17.82</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T25">
+        <v>57</v>
+      </c>
+      <c r="U25">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="I26">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="K26">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="O26" s="85">
+        <v>9347.17</v>
       </c>
       <c r="R26">
         <v>36</v>
       </c>
-      <c r="S26" s="92">
-        <v>15.3</v>
-      </c>
-      <c r="W26" s="92">
-        <f>W21</f>
-        <v>19.45</v>
-      </c>
-      <c r="Y26" s="92">
-        <f>Y20</f>
-        <v>39.24</v>
-      </c>
-      <c r="AA26" s="92">
-        <f>AA19</f>
-        <v>11.33</v>
+      <c r="S26">
+        <v>17.82</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="I27">
-        <v>0.91198999999999997</v>
+        <v>0.93849000000000005</v>
       </c>
       <c r="K27">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="P27" s="145">
-        <f>SUM(P5:P26)</f>
-        <v>-3.977547075198018E-2</v>
-      </c>
-      <c r="S27" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="W27" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y27" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA27" s="92" t="s">
-        <v>60</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="R27">
+        <v>36</v>
+      </c>
+      <c r="S27" s="92">
+        <v>15.3</v>
+      </c>
+      <c r="W27" s="92">
+        <f>W22</f>
+        <v>19.45</v>
+      </c>
+      <c r="Y27" s="92">
+        <f>Y21</f>
+        <v>39.24</v>
+      </c>
+      <c r="AA27" s="92">
+        <f>AA20</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="I28">
-        <v>0.90268000000000004</v>
+        <v>0.91198999999999997</v>
       </c>
       <c r="K28">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="S28" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="W28" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y28" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA28" s="93" t="s">
-        <v>61</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="P28" s="145">
+        <f>SUM(P5:P27)</f>
+        <v>-2.5658406994040539E-2</v>
+      </c>
+      <c r="S28" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y28" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" s="92" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="I29">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="K29">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="S29" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="W29" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y29" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA29" s="93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="I30">
         <v>0.89847999999999995</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>0.89847999999999995</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R30" t="s">
         <v>62</v>
       </c>
-      <c r="S29" s="93">
+      <c r="S30" s="93">
         <v>38</v>
       </c>
-      <c r="W29" s="93">
+      <c r="W30" s="93">
         <v>45.72</v>
       </c>
-      <c r="Y29" s="93">
+      <c r="Y30" s="93">
         <v>55.5</v>
       </c>
-      <c r="AA29" s="93">
+      <c r="AA30" s="93">
         <f>AA2</f>
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
-      <c r="I30">
+    <row r="31" spans="1:27">
+      <c r="I31">
         <v>0.88783999999999996</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <v>0.88783999999999996</v>
       </c>
-      <c r="S30" s="94">
+      <c r="S31" s="94">
         <f>Sayfa2!M41</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="W30" s="94">
-        <f>(W29-W21)/W21</f>
+      <c r="W31" s="94">
+        <f>(W30-W22)/W22</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="Y30" s="94">
-        <f>(Y29-Y20)/Y20</f>
+      <c r="Y31" s="94">
+        <f>(Y30-Y21)/Y21</f>
         <v>0.41437308868501521</v>
       </c>
-      <c r="AA30" s="94">
-        <f>(AA29-AA19)/AA19</f>
+      <c r="AA31" s="94">
+        <f>(AA30-AA20)/AA20</f>
         <v>0.73786407766990303</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
-      <c r="I31">
+    <row r="32" spans="1:27">
+      <c r="I32">
         <v>0.86724999999999997</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
-      <c r="R32" s="95" t="s">
+    <row r="33" spans="18:27">
+      <c r="R33" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="S32" s="95">
+      <c r="S33" s="95">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="V32" s="95" t="s">
+      <c r="V33" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W32" s="95">
-        <f>(V21*W29)-(V5*W21)</f>
+      <c r="W33" s="95">
+        <f>(V22*W30)-(V5*W22)</f>
         <v>548.64</v>
       </c>
-      <c r="X32" s="95" t="s">
+      <c r="X33" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="Y32" s="95">
-        <f>(X20*Y29)-(X5*Y20)</f>
+      <c r="Y33" s="95">
+        <f>(X21*Y30)-(X5*Y21)</f>
         <v>832.5</v>
       </c>
-      <c r="AA32" s="95">
-        <f>(Z19*AA29)-(Z7*AA19)</f>
+      <c r="AA33" s="95">
+        <f>(Z20*AA30)-(Z8*AA20)</f>
         <v>568.48</v>
       </c>
     </row>
@@ -6683,8 +6740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:L7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6780,7 +6837,7 @@
     <row r="5" spans="1:24">
       <c r="A5" s="1"/>
       <c r="B5" s="13">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1"/>
@@ -6792,7 +6849,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="14">
         <f>SUM(K8:K9)</f>
-        <v>189.95750000000021</v>
+        <v>100.42350000000033</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -6840,7 +6897,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="3">
         <f>B5-B6</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="148" t="s">
@@ -6860,7 +6917,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="147">
         <f>SUM(K8:K9)</f>
-        <v>189.95750000000021</v>
+        <v>100.42350000000033</v>
       </c>
       <c r="L7" s="19">
         <f ca="1">K7/E7</f>
@@ -6883,7 +6940,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <f>K5/B7</f>
-        <v>1.9583247422680434</v>
+        <v>1.0042350000000033</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="149" t="s">
@@ -6898,24 +6955,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="17">
         <f>SUBTOTAL(109,I13:I20)</f>
-        <v>5621.3675000000003</v>
+        <v>5531.8335000000006</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="18">
         <f>SUBTOTAL(109,K13:K20)</f>
-        <v>-375.71249999999998</v>
+        <v>-465.24649999999986</v>
       </c>
       <c r="L8" s="19">
         <f>K8/E8</f>
-        <v>-6.2649239296457604E-2</v>
+        <v>-7.7578838368005734E-2</v>
       </c>
       <c r="M8" s="20">
         <f>SUBTOTAL(101,M13:M19)</f>
-        <v>-7.0304120831814393E-2</v>
+        <v>-8.7537665234390508E-2</v>
       </c>
       <c r="N8" s="20">
         <f>SUBTOTAL(101,N13:N19)</f>
-        <v>-2.9967195002064625E-2</v>
+        <v>-3.6200542371596915E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -6958,7 +7015,7 @@
       <c r="M9" s="27"/>
       <c r="N9" s="151">
         <f>L9/(B7/30)</f>
-        <v>0.22707736428025868</v>
+        <v>0.22026504335185093</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -7148,7 +7205,7 @@
       </c>
       <c r="O14" s="41">
         <f>SUM(O15:O18)</f>
-        <v>-375.71249999999998</v>
+        <v>-465.24649999999986</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -7205,37 +7262,37 @@
       </c>
       <c r="F16" s="2">
         <f>B5</f>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G16" s="29">
         <v>26</v>
       </c>
       <c r="H16" s="1">
-        <v>41.64</v>
+        <v>40.86</v>
       </c>
       <c r="I16" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>1082.6400000000001</v>
+        <v>1062.3599999999999</v>
       </c>
       <c r="J16" s="22">
         <f>H16-D16</f>
-        <v>-13.439999999999998</v>
+        <v>-14.219999999999999</v>
       </c>
       <c r="K16" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-349.43999999999994</v>
+        <v>-369.71999999999997</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-0.24400871459694987</v>
+        <v>-0.25816993464052285</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-7.5466612761943261E-2</v>
+        <v>-7.7450980392156851E-2</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -7267,37 +7324,37 @@
       </c>
       <c r="F17" s="44">
         <f>$B$5</f>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G17" s="45">
         <v>9</v>
       </c>
       <c r="H17" s="46">
-        <v>138.1</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="I17" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>1242.8999999999999</v>
+        <v>1212.3</v>
       </c>
       <c r="J17" s="29">
         <f>H17-D17</f>
-        <v>8.0999999999999943</v>
+        <v>4.6999999999999886</v>
       </c>
       <c r="K17" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>72.899999999999949</v>
+        <v>42.299999999999898</v>
       </c>
       <c r="L17" s="48">
         <f>F17-B17</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M17" s="20">
         <f>K17/E17</f>
-        <v>6.2307692307692265E-2</v>
+        <v>3.6153846153846064E-2</v>
       </c>
       <c r="N17" s="20">
         <f>M17/L17*30</f>
-        <v>1.9270420301348123E-2</v>
+        <v>1.084615384615382E-2</v>
       </c>
       <c r="O17" s="43"/>
       <c r="P17" s="1"/>
@@ -7329,42 +7386,42 @@
       </c>
       <c r="F18" s="44">
         <f>B5</f>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="G18" s="45">
         <v>3500</v>
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!K5</f>
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="I18" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>3295.8274999999999</v>
+        <v>3257.1735000000003</v>
       </c>
       <c r="J18" s="29">
         <f>H18-D18</f>
-        <v>-2.8334999999999999E-2</v>
+        <v>-3.9378999999999942E-2</v>
       </c>
       <c r="K18" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-99.172499999999999</v>
+        <v>-137.82649999999978</v>
       </c>
       <c r="L18" s="48">
         <f>F18-B18</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M18" s="20">
         <f>K18/E18</f>
-        <v>-2.9211340206185567E-2</v>
+        <v>-4.0596907216494782E-2</v>
       </c>
       <c r="N18" s="20">
         <f>M18/L18*30</f>
-        <v>-3.3705392545598734E-2</v>
+        <v>-4.1996800568787705E-2</v>
       </c>
       <c r="O18" s="51">
         <f>SUM(K15:K18)</f>
-        <v>-375.71249999999998</v>
+        <v>-465.24649999999986</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3DB77D-3C18-4B21-BE0A-B34E9B52DB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4202D3-9F1F-4B8B-9140-64763F13572E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="1350" windowWidth="20205" windowHeight="14550" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1991,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2031,11 +2031,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>245919.30674700002</v>
+        <v>244906.001747</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>156.63650111273887</v>
+        <v>155.69358025874126</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2081,24 +2081,24 @@
       <c r="H5" s="166"/>
       <c r="I5" s="191">
         <f>SUM(I11:I25)</f>
-        <v>517935.89843999996</v>
+        <v>516922.59344000008</v>
       </c>
       <c r="J5" s="163"/>
       <c r="K5" s="192">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>229700.62936000002</v>
+        <v>228687.32436</v>
       </c>
       <c r="L5" s="193">
         <f>K5/E5</f>
-        <v>0.79692062006557007</v>
+        <v>0.79340507180100706</v>
       </c>
       <c r="M5" s="180">
         <f>SUBTOTAL(101,M10:M16)</f>
-        <v>-9.9032876496021577E-2</v>
+        <v>-0.11038910460467341</v>
       </c>
       <c r="N5" s="180">
         <f>SUBTOTAL(101,N10:N16)</f>
-        <v>-0.11285169084493368</v>
+        <v>-0.11264605156715377</v>
       </c>
       <c r="O5" s="164"/>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="44">
         <f>$B$2</f>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G15" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="46">
         <f>Sayfa4!I2</f>
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="I15" s="25">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>69796.574999999997</v>
+        <v>68916.824999999997</v>
       </c>
       <c r="J15" s="29">
         <f>H15-D15</f>
-        <v>-0.13381399999999999</v>
+        <v>-0.14554400000000001</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-10036.049999999999</v>
+        <v>-10915.800000000001</v>
       </c>
       <c r="L15" s="48">
         <f>F15-B15</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M15" s="20">
         <f>K15/E15</f>
-        <v>-0.12571364150934533</v>
+        <v>-0.13673357227073518</v>
       </c>
       <c r="N15" s="20">
         <f>M15/L15*30</f>
-        <v>-0.15085636981121442</v>
+        <v>-0.14650025600435912</v>
       </c>
       <c r="O15" s="43"/>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F16" s="44">
         <f>$B$2</f>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G16" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2341,35 +2341,35 @@
       </c>
       <c r="H16" s="46">
         <f>H15</f>
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="I16" s="25">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>46531.05</v>
+        <v>45944.55</v>
       </c>
       <c r="J16" s="29">
         <f>H16-D16</f>
-        <v>-7.2583999999999871E-2</v>
+        <v>-8.4313999999999889E-2</v>
       </c>
       <c r="K16" s="47">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-3629.1999999999935</v>
+        <v>-4215.6999999999944</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-7.2352111482697837E-2</v>
+        <v>-8.4044636938611653E-2</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-7.4847011878652933E-2</v>
+        <v>-7.8791847129948425E-2</v>
       </c>
       <c r="O16" s="51">
         <f>SUM(K13:K16)</f>
-        <v>-13665.249999999993</v>
+        <v>-15131.499999999996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2408,50 +2408,50 @@
       </c>
       <c r="F18" s="44">
         <f t="shared" ref="F18:F25" si="0">$B$2</f>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G18" s="45">
         <v>50</v>
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!C5</f>
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="I18" s="25">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>110605.5</v>
+        <v>110715.5</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>385.58000000000015</v>
+        <v>387.78</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>19279.000000000007</v>
+        <v>19389</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.21109973556415726</v>
+        <v>0.21230420524163304</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>4.1123325109900764E-2</v>
+        <v>4.0567682530248346E-2</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>110605.5</v>
+        <v>110715.5</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>55.302750000000003</v>
+        <v>55.357750000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2473,50 +2473,50 @@
       </c>
       <c r="F19" s="44">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G19" s="45">
         <v>11</v>
       </c>
       <c r="H19" s="46">
         <f>H18</f>
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="I19" s="25">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>24333.210000000003</v>
+        <v>24357.41</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" si="1"/>
-        <v>1810.0100000000002</v>
+        <v>1812.21</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>19910.11</v>
+        <v>19934.310000000001</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="2"/>
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="M19" s="20">
         <f t="shared" si="3"/>
-        <v>4.5013926883859732</v>
+        <v>4.506863964188013</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="4"/>
-        <v>0.11961185177287793</v>
+        <v>0.11943985770816289</v>
       </c>
       <c r="O19" s="43"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>24333.210000000003</v>
+        <v>24357.41</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.166605000000001</v>
+        <v>12.178705000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2538,50 +2538,50 @@
       </c>
       <c r="F20" s="44">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G20" s="45">
         <v>50</v>
       </c>
       <c r="H20" s="46">
         <f>H19</f>
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="I20" s="25">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>110605.5</v>
+        <v>110715.5</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>1743.25</v>
+        <v>1745.4499999999998</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>87162.5</v>
+        <v>87272.499999999985</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="2"/>
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" si="3"/>
-        <v>3.7180608283922707</v>
+        <v>3.7227530606151085</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="4"/>
-        <v>8.6533611211612196E-2</v>
+        <v>8.6441634534406536E-2</v>
       </c>
       <c r="O20" s="43"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>110605.5</v>
+        <v>110715.5</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>55.302750000000003</v>
+        <v>55.357750000000003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F21" s="44">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G21" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2611,36 +2611,36 @@
       </c>
       <c r="H21" s="46">
         <f>H20</f>
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="I21" s="25">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>55302.75</v>
+        <v>55357.75</v>
       </c>
       <c r="J21" s="29">
         <f t="shared" si="1"/>
-        <v>1812.2400000000002</v>
+        <v>1814.44</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>45306.000000000007</v>
+        <v>45361</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="2"/>
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" si="3"/>
-        <v>4.5320729237002029</v>
+        <v>4.5375747117813292</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" si="4"/>
-        <v>0.10048942181153443</v>
+        <v>0.10038882105710906</v>
       </c>
       <c r="O21" s="43"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>122.77210500000001</v>
+        <v>122.894205</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="F22" s="44">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G22" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2670,31 +2670,31 @@
       </c>
       <c r="H22" s="46">
         <f>H21</f>
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="I22" s="25">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>53090.64</v>
+        <v>53143.44</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="1"/>
-        <v>1938.3000000000002</v>
+        <v>1940.5</v>
       </c>
       <c r="K22" s="47">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>46519.200000000004</v>
+        <v>46572</v>
       </c>
       <c r="L22" s="48">
         <f t="shared" si="2"/>
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" si="3"/>
-        <v>7.0789963843541139</v>
+        <v>7.0870311529892982</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="4"/>
-        <v>0.135267446834792</v>
+        <v>0.13516270476139794</v>
       </c>
       <c r="O22" s="43"/>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="F23" s="44">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G23" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2725,40 +2725,40 @@
       </c>
       <c r="H23" s="46">
         <f>H22</f>
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="I23" s="25">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="J23" s="29">
         <f t="shared" si="1"/>
-        <v>1974.5200000000002</v>
+        <v>1976.72</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>1974.5200000000002</v>
+        <v>1976.72</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="2"/>
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" si="3"/>
-        <v>8.3106191338019286</v>
+        <v>8.3198787827770531</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="4"/>
-        <v>0.1588016394993999</v>
+        <v>0.15867537411526483</v>
       </c>
       <c r="O23" s="43"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>245544.21</v>
+        <v>245788.41</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>110.58955916264321</v>
+        <v>110.69954330907255</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F24" s="44">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G24" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2788,36 +2788,36 @@
       </c>
       <c r="H24" s="46">
         <f>Sayfa4!G2</f>
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="I24" s="25">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>10259.686440000001</v>
+        <v>10274.62644</v>
       </c>
       <c r="J24" s="29">
         <f t="shared" si="1"/>
-        <v>15.614700000000003</v>
+        <v>15.6647</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4665.6723600000014</v>
+        <v>4680.6123600000001</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="2"/>
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" si="3"/>
-        <v>0.83404730364926105</v>
+        <v>0.8367180155542262</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="4"/>
-        <v>4.2481186943086301E-2</v>
+        <v>4.2401250788220927E-2</v>
       </c>
       <c r="O24" s="43"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>24554.421000000002</v>
+        <v>24578.841</v>
       </c>
       <c r="Q24" s="56">
         <v>0.1</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F25" s="44">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="G25" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2853,47 +2853,47 @@
       </c>
       <c r="H25" s="46">
         <f>Sayfa4!E2</f>
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="I25" s="25">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>35198.877</v>
+        <v>35282.682000000001</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="1"/>
-        <v>16.710699999999999</v>
+        <v>16.786200000000001</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18548.877</v>
+        <v>18632.682000000001</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="2"/>
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>1.1140466666666666</v>
+        <v>1.1190800000000001</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="4"/>
-        <v>5.5795325542570946E-2</v>
+        <v>5.5768106312292356E-2</v>
       </c>
       <c r="O25" s="51">
         <f>SUM(K18:K25)</f>
-        <v>243365.87936000002</v>
+        <v>243818.82436</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>270098.63099999999</v>
+        <v>270367.25099999999</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>135.04931550000001</v>
+        <v>135.18362550000001</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>106.75835217391304</v>
+        <v>106.86452608695652</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2954,7 +2954,7 @@
       <c r="P28" s="160"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>299852.69619096001</v>
+        <v>300150.90737016004</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -5009,10 +5009,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA33"/>
+  <dimension ref="A2:AA34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5047,35 +5048,35 @@
     <row r="2" spans="1:27">
       <c r="A2" s="84">
         <f>A5</f>
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="K2">
         <f>I5</f>
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="M2" s="85">
         <f>Sayfa2!D3</f>
-        <v>156.63650111273887</v>
+        <v>155.69358025874126</v>
       </c>
       <c r="N2" s="86">
         <f>Sayfa2!K2</f>
-        <v>245919.30674700002</v>
+        <v>244906.001747</v>
       </c>
       <c r="S2">
         <f>S5</f>
@@ -5094,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>AA8</f>
+        <f>AA9</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5151,1093 +5152,1064 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="84">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B5" s="82">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="D5">
-        <f>D20</f>
+        <f>D21</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="F5">
-        <f>F20</f>
+        <f>F21</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="H5">
-        <f>H20</f>
+        <f>H21</f>
         <v>50000</v>
       </c>
       <c r="I5">
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="J5">
-        <f>J20</f>
+        <f>J21</f>
         <v>75000</v>
       </c>
       <c r="K5" s="146">
         <f>I5</f>
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="L5" s="83">
-        <f>(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z8*AA8)+(J5*K5)</f>
-        <v>520071.07723699999</v>
+        <f>(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z9*AA9)+(J5*K5)</f>
+        <v>519058.93173699995</v>
       </c>
       <c r="M5">
-        <v>156.63999999999999</v>
+        <v>155.99</v>
       </c>
       <c r="N5">
-        <v>245919.31</v>
-      </c>
-      <c r="O5" s="85">
-        <v>8955.1200000000008</v>
-      </c>
-      <c r="P5" s="144">
-        <f>(1-(O9/O5))</f>
-        <v>2.6466423677181328E-2</v>
+        <v>244906</v>
+      </c>
+      <c r="O5" s="85"/>
+      <c r="P5" s="144" t="e">
+        <f>(1-(O10/O5))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="84">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B6" s="82">
         <v>161</v>
       </c>
       <c r="C6">
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="D6">
-        <f>D21</f>
+        <f>D22</f>
         <v>1110</v>
       </c>
       <c r="E6">
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="F6">
-        <f>F21</f>
+        <f>F22</f>
         <v>321.99</v>
       </c>
       <c r="G6">
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="H6">
-        <f>H21</f>
+        <f>H22</f>
         <v>50000</v>
       </c>
       <c r="I6">
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="J6">
-        <f>J21</f>
+        <f>J22</f>
         <v>75000</v>
       </c>
       <c r="K6" s="146">
         <f>I6</f>
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="L6" s="83">
-        <f>(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z9*AA9)+(J6*K6)</f>
-        <v>531236.15554900002</v>
+        <f>(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z10*AA10)+(J6*K6)</f>
+        <v>520293.43723700003</v>
       </c>
       <c r="M6">
-        <v>163.91</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="N6">
-        <v>256845.12</v>
-      </c>
-      <c r="O6" s="85">
-        <v>8955.1200000000008</v>
+        <v>245919.31</v>
+      </c>
+      <c r="O6">
+        <v>9111.5</v>
       </c>
       <c r="P6" s="144">
-        <f>(1-(O10/O6))</f>
-        <v>1.4117063757939641E-2</v>
+        <f>(1-(O11/O7))</f>
+        <v>3.4133053267255242E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="84">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B7" s="82">
         <v>161</v>
       </c>
       <c r="C7">
-        <v>2220.92</v>
+        <v>2267.61</v>
       </c>
       <c r="D7">
-        <f>D21</f>
+        <f>D22</f>
         <v>1110</v>
       </c>
       <c r="E7">
-        <v>32.028799999999997</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="F7">
-        <f>F21</f>
+        <f>F22</f>
         <v>321.99</v>
       </c>
       <c r="G7">
-        <v>34.808799999999998</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="H7">
-        <f>H21</f>
+        <f>H22</f>
         <v>50000</v>
       </c>
       <c r="I7">
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="J7">
-        <f>J21</f>
+        <f>J22</f>
         <v>75000</v>
       </c>
       <c r="K7" s="146">
         <f>I7</f>
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="L7" s="83">
-        <f t="shared" ref="L7:L10" si="0">(B7*C7)+(D7*E7)+(F7*G7)+(T7*U7)+(H7*I7)+(R7*S7)+(V7*W7)+(X7*Y7)+(Z7*AA7)+(J7*K7)</f>
-        <v>521166.42351200001</v>
+        <f>(B7*C7)+(D7*E7)+(F7*G7)+(T7*U7)+(H7*I7)+(R7*S7)+(V7*W7)+(X7*Y7)+(Z10*AA10)+(J7*K7)</f>
+        <v>531236.15554900002</v>
       </c>
       <c r="M7">
-        <v>158.47999999999999</v>
+        <v>163.91</v>
       </c>
       <c r="N7">
-        <v>248342.62</v>
+        <v>256845.12</v>
       </c>
       <c r="O7" s="85">
-        <v>8929.8799999999992</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="P7" s="144">
-        <f>(1-(O10/O7))</f>
-        <v>1.1330499402007477E-2</v>
+        <f>(1-(O11/O8))</f>
+        <v>1.4117063757939641E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="84">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B8" s="82">
         <v>161</v>
       </c>
       <c r="C8">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="D8">
-        <f>D21</f>
+        <f>D22</f>
         <v>1110</v>
       </c>
       <c r="E8">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="F8">
-        <f>F21</f>
+        <f>F22</f>
         <v>321.99</v>
       </c>
       <c r="G8">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="H8">
-        <f>H21</f>
+        <f>H22</f>
         <v>50000</v>
       </c>
       <c r="I8">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="J8">
-        <f>J21</f>
+        <f>J22</f>
         <v>75000</v>
       </c>
       <c r="K8" s="146">
         <f>I8</f>
+        <v>0.93470600000000004</v>
+      </c>
+      <c r="L8" s="83">
+        <f t="shared" ref="L8:L11" si="0">(B8*C8)+(D8*E8)+(F8*G8)+(T8*U8)+(H8*I8)+(R8*S8)+(V8*W8)+(X8*Y8)+(Z8*AA8)+(J8*K8)</f>
+        <v>521166.42351200001</v>
+      </c>
+      <c r="M8">
+        <v>158.47999999999999</v>
+      </c>
+      <c r="N8">
+        <v>248342.62</v>
+      </c>
+      <c r="O8" s="85">
+        <v>8955.1200000000008</v>
+      </c>
+      <c r="P8" s="144">
+        <f>(1-(O11/O9))</f>
+        <v>1.1330499402007477E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="84">
+        <v>45370</v>
+      </c>
+      <c r="B9" s="82">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>2219.02</v>
+      </c>
+      <c r="D9">
+        <f>D22</f>
+        <v>1110</v>
+      </c>
+      <c r="E9">
+        <v>32.087800000000001</v>
+      </c>
+      <c r="F9">
+        <f>F22</f>
+        <v>321.99</v>
+      </c>
+      <c r="G9">
+        <v>34.799100000000003</v>
+      </c>
+      <c r="H9">
+        <f>H22</f>
+        <v>50000</v>
+      </c>
+      <c r="I9">
         <v>0.90033600000000003</v>
       </c>
-      <c r="L8" s="83">
+      <c r="J9">
+        <f>J22</f>
+        <v>75000</v>
+      </c>
+      <c r="K9" s="146">
+        <f>I9</f>
+        <v>0.90033600000000003</v>
+      </c>
+      <c r="L9" s="83">
         <f t="shared" si="0"/>
         <v>517965.56020899996</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>155.59</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>243803.06</v>
       </c>
-      <c r="O8" s="85">
-        <v>8774</v>
-      </c>
-      <c r="P8" s="144">
-        <f>(1-(O10/O8))</f>
-        <v>-6.2343286984272162E-3</v>
-      </c>
-      <c r="Z8">
+      <c r="O9" s="85">
+        <v>8929.8799999999992</v>
+      </c>
+      <c r="P9" s="144">
+        <f t="shared" ref="P9:P11" si="1">(1-(O12/O10))</f>
+        <v>-1.8973148996743516E-2</v>
+      </c>
+      <c r="Z9">
         <v>68</v>
       </c>
-      <c r="AA8">
+      <c r="AA9">
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="84">
+    <row r="10" spans="1:27">
+      <c r="A10" s="84">
         <v>45369</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B10" s="82">
         <v>161</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2212.35</v>
       </c>
-      <c r="D9">
-        <f>D21</f>
+      <c r="D10">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>31.9499</v>
       </c>
-      <c r="F9">
-        <f>F21</f>
+      <c r="F10">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>34.8125</v>
       </c>
-      <c r="H9">
-        <f>H21</f>
+      <c r="H10">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>0.93887900000000002</v>
       </c>
-      <c r="J9">
-        <f>J21</f>
+      <c r="J10">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.93887900000000002</v>
       </c>
-      <c r="L9" s="83">
+      <c r="L10" s="83">
         <f t="shared" si="0"/>
         <v>521783.17087500001</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>155.44</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>247623.17</v>
       </c>
-      <c r="O9" s="85">
+      <c r="O10" s="85">
         <v>8718.11</v>
       </c>
-      <c r="P9" s="144">
-        <f t="shared" ref="P9:P25" si="1">(1-(O10/O9))</f>
-        <v>-1.2685088855267868E-2</v>
-      </c>
-      <c r="Z9">
+      <c r="P10" s="144">
+        <f t="shared" si="1"/>
+        <v>-9.2346551587434433E-3</v>
+      </c>
+      <c r="Z10">
         <v>68</v>
       </c>
-      <c r="AA9">
+      <c r="AA10">
         <v>22.96</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="84">
+    <row r="11" spans="1:27">
+      <c r="A11" s="84">
         <v>45366</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B11" s="82">
         <v>161</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2213.54</v>
       </c>
-      <c r="D10">
-        <f>D21</f>
+      <c r="D11">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>31.796299999999999</v>
       </c>
-      <c r="F10">
-        <f>F21</f>
+      <c r="F11">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>34.619700000000002</v>
       </c>
-      <c r="H10">
-        <f>H21</f>
+      <c r="H11">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>0.94838599999999995</v>
       </c>
-      <c r="J10">
-        <f>J21</f>
+      <c r="J11">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.94838599999999995</v>
       </c>
-      <c r="L10" s="83">
+      <c r="L11" s="83">
         <f t="shared" si="0"/>
         <v>522868.00020299997</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>156.13</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>248712.47</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O11" s="85">
         <v>8828.7000000000007</v>
-      </c>
-      <c r="P10" s="144">
-        <f t="shared" si="1"/>
-        <v>-6.2092946866469934E-3</v>
-      </c>
-      <c r="Z10">
-        <v>68</v>
-      </c>
-      <c r="AA10">
-        <v>22.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="84">
-        <v>45365</v>
-      </c>
-      <c r="B11" s="82">
-        <v>161</v>
-      </c>
-      <c r="C11">
-        <v>2222.88</v>
-      </c>
-      <c r="D11">
-        <f>D21</f>
-        <v>1110</v>
-      </c>
-      <c r="E11">
-        <v>31.775700000000001</v>
-      </c>
-      <c r="F11">
-        <f>F21</f>
-        <v>321.99</v>
-      </c>
-      <c r="G11">
-        <v>34.762500000000003</v>
-      </c>
-      <c r="H11">
-        <f>H21</f>
-        <v>50000</v>
-      </c>
-      <c r="I11">
-        <v>0.95100700000000005</v>
-      </c>
-      <c r="J11">
-        <f>J21</f>
-        <v>75000</v>
-      </c>
-      <c r="K11">
-        <v>0.95100700000000005</v>
-      </c>
-      <c r="L11" s="83">
-        <f t="shared" ref="L11:L25" si="2">(B11*C11)+(D11*E11)+(F11*G11)+(T11*U11)+(H11*I11)+(R11*S11)+(V11*W11)+(X11*Y11)+(Z11*AA11)+(J11*K11)</f>
-        <v>524610.95937499998</v>
-      </c>
-      <c r="M11">
-        <v>157.21</v>
-      </c>
-      <c r="N11">
-        <v>250427.64</v>
-      </c>
-      <c r="O11" s="85">
-        <v>8883.52</v>
       </c>
       <c r="P11" s="144">
         <f t="shared" si="1"/>
-        <v>-3.0066910413888426E-3</v>
+        <v>-2.0882488022765822E-2</v>
       </c>
       <c r="Z11">
         <v>68</v>
       </c>
       <c r="AA11">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="84">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B12" s="82">
         <v>161</v>
       </c>
       <c r="C12">
+        <v>2222.88</v>
+      </c>
+      <c r="D12">
+        <f>D22</f>
+        <v>1110</v>
+      </c>
+      <c r="E12">
+        <v>31.775700000000001</v>
+      </c>
+      <c r="F12">
+        <f>F22</f>
+        <v>321.99</v>
+      </c>
+      <c r="G12">
+        <v>34.762500000000003</v>
+      </c>
+      <c r="H12">
+        <f>H22</f>
+        <v>50000</v>
+      </c>
+      <c r="I12">
+        <v>0.95100700000000005</v>
+      </c>
+      <c r="J12">
+        <f>J22</f>
+        <v>75000</v>
+      </c>
+      <c r="K12">
+        <v>0.95100700000000005</v>
+      </c>
+      <c r="L12" s="83">
+        <f t="shared" ref="L12:L26" si="2">(B12*C12)+(D12*E12)+(F12*G12)+(T12*U12)+(H12*I12)+(R12*S12)+(V12*W12)+(X12*Y12)+(Z12*AA12)+(J12*K12)</f>
+        <v>524610.95937499998</v>
+      </c>
+      <c r="M12">
+        <v>157.21</v>
+      </c>
+      <c r="N12">
+        <v>250427.64</v>
+      </c>
+      <c r="O12" s="85">
+        <v>8883.52</v>
+      </c>
+      <c r="P12" s="144">
+        <f t="shared" ref="P10:P26" si="3">(1-(O13/O12))</f>
+        <v>-3.0066910413888426E-3</v>
+      </c>
+      <c r="Z12">
+        <v>68</v>
+      </c>
+      <c r="AA12">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="84">
+        <v>45364</v>
+      </c>
+      <c r="B13" s="82">
+        <v>161</v>
+      </c>
+      <c r="C13">
         <v>2220.3200000000002</v>
       </c>
-      <c r="D12">
-        <f>D21</f>
+      <c r="D13">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>32</v>
       </c>
-      <c r="F12">
-        <f>F21</f>
+      <c r="F13">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>35</v>
       </c>
-      <c r="H12">
-        <f>H21</f>
+      <c r="H13">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>0.957233</v>
       </c>
-      <c r="J12">
-        <f>J21</f>
+      <c r="J13">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.957233</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L13" s="83">
         <f t="shared" si="2"/>
         <v>525154.25500000012</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>160.79</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>250989.9</v>
       </c>
-      <c r="O12" s="85">
+      <c r="O13" s="85">
         <v>8910.23</v>
       </c>
-      <c r="P12" s="144">
-        <f t="shared" si="1"/>
+      <c r="P13" s="144">
+        <f t="shared" si="3"/>
         <v>-1.7822211098927898E-2</v>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <v>68</v>
       </c>
-      <c r="AA12">
+      <c r="AA13">
         <v>18.22</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="84">
+    <row r="14" spans="1:27">
+      <c r="A14" s="84">
         <v>45363</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B14" s="82">
         <v>161</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2220.3200000000002</v>
       </c>
-      <c r="D13">
-        <f>D21</f>
+      <c r="D14">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>31.516400000000001</v>
       </c>
-      <c r="F13">
-        <f>F21</f>
+      <c r="F14">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>34.463200000000001</v>
       </c>
-      <c r="H13">
-        <f>H21</f>
+      <c r="H14">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>0.979213</v>
       </c>
-      <c r="J13">
-        <f>J21</f>
+      <c r="J14">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.979213</v>
       </c>
-      <c r="L13" s="83">
+      <c r="L14" s="83">
         <f t="shared" si="2"/>
         <v>527079.91476800013</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>161.94999999999999</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>252645.61</v>
       </c>
-      <c r="O13" s="85">
+      <c r="O14" s="85">
         <v>9069.0300000000007</v>
       </c>
-      <c r="P13" s="144">
-        <f t="shared" si="1"/>
+      <c r="P14" s="144">
+        <f t="shared" si="3"/>
         <v>-6.8684302510850781E-3</v>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <v>68</v>
       </c>
-      <c r="AA13">
+      <c r="AA14">
         <v>16.57</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="84">
+    <row r="15" spans="1:27">
+      <c r="A15" s="84">
         <v>45362</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B15" s="82">
         <v>161</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>2232.66</v>
       </c>
-      <c r="D14">
-        <f>D21</f>
+      <c r="D15">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>31.571400000000001</v>
       </c>
-      <c r="F14">
-        <f>F21</f>
+      <c r="F15">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>34.558100000000003</v>
       </c>
-      <c r="H14">
-        <f>H21</f>
+      <c r="H15">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>0.99851990000000002</v>
       </c>
-      <c r="J14">
-        <f>J21</f>
+      <c r="J15">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.99851990000000002</v>
       </c>
-      <c r="L14" s="83">
+      <c r="L15" s="83">
         <f t="shared" si="2"/>
         <v>532801.83411900001</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>164.91</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>257088.48</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O15" s="85">
         <v>9131.32</v>
       </c>
-      <c r="P14" s="144">
-        <f t="shared" si="1"/>
+      <c r="P15" s="144">
+        <f t="shared" si="3"/>
         <v>-2.6283166070184549E-3</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <v>12</v>
       </c>
-      <c r="W14">
+      <c r="W15">
         <v>41.58</v>
       </c>
-      <c r="X14">
-        <f>X21</f>
+      <c r="X15">
+        <f>X22</f>
         <v>15</v>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <v>55.55</v>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <v>68</v>
       </c>
-      <c r="AA14">
+      <c r="AA15">
         <v>15.07</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="84">
+    <row r="16" spans="1:27">
+      <c r="A16" s="84">
         <v>45359</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B16" s="82">
         <v>161</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>2198.16</v>
       </c>
-      <c r="D15">
-        <f>D21</f>
+      <c r="D16">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>31.402999999999999</v>
       </c>
-      <c r="F15">
-        <f>F21</f>
+      <c r="F16">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>34.3643</v>
       </c>
-      <c r="H15">
-        <f>H21</f>
+      <c r="H16">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>0.99115900000000001</v>
       </c>
-      <c r="J15">
-        <f>J21</f>
+      <c r="J16">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>0.99115900000000001</v>
       </c>
-      <c r="L15" s="83">
+      <c r="L16" s="83">
         <f t="shared" si="2"/>
         <v>525972.37595699995</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>160.9</v>
       </c>
-      <c r="O15" s="85">
+      <c r="O16" s="85">
         <v>9155.32</v>
       </c>
-      <c r="P15" s="144">
-        <f t="shared" si="1"/>
+      <c r="P16" s="144">
+        <f t="shared" si="3"/>
         <v>1.1047128882442081E-2</v>
       </c>
-      <c r="V15">
+      <c r="V16">
         <v>12</v>
       </c>
-      <c r="W15">
+      <c r="W16">
         <v>37.799999999999997</v>
       </c>
-      <c r="X15">
-        <f>X21</f>
+      <c r="X16">
+        <f>X22</f>
         <v>15</v>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <v>57.75</v>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <v>68</v>
       </c>
-      <c r="AA15">
+      <c r="AA16">
         <v>13.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="84">
+    <row r="17" spans="1:27">
+      <c r="A17" s="84">
         <v>45358</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B17" s="82">
         <v>161</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>2184.79</v>
       </c>
-      <c r="D16">
-        <f>D21</f>
+      <c r="D17">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>31.297000000000001</v>
       </c>
-      <c r="F16">
-        <f>F21</f>
+      <c r="F17">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>34.110599999999998</v>
       </c>
-      <c r="H16">
-        <f>H21</f>
+      <c r="H17">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>0.945214</v>
       </c>
-      <c r="J16">
-        <f>J21</f>
+      <c r="J17">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>0.945214</v>
       </c>
-      <c r="L16" s="83">
+      <c r="L17" s="83">
         <f t="shared" si="2"/>
         <v>517832.22209400003</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>155.75</v>
       </c>
-      <c r="O16" s="85">
+      <c r="O17" s="85">
         <v>9054.18</v>
       </c>
-      <c r="P16" s="144">
-        <f t="shared" si="1"/>
+      <c r="P17" s="144">
+        <f t="shared" si="3"/>
         <v>3.4194151209717583E-2</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>12</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>34.380000000000003</v>
       </c>
-      <c r="X16">
-        <f>X21</f>
+      <c r="X17">
+        <f>X22</f>
         <v>15</v>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <v>63.1</v>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <v>68</v>
       </c>
-      <c r="AA16">
+      <c r="AA17">
         <v>12.46</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="84">
+    <row r="18" spans="1:27">
+      <c r="A18" s="84">
         <v>45357</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B18" s="82">
         <v>161</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2150.9</v>
       </c>
-      <c r="D17">
-        <f>D21</f>
+      <c r="D18">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>31.293399999999998</v>
       </c>
-      <c r="F17">
-        <f>F21</f>
+      <c r="F18">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>34.006500000000003</v>
       </c>
-      <c r="H17">
-        <f>H21</f>
+      <c r="H18">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.99397100000000005</v>
       </c>
-      <c r="J17">
-        <f>J21</f>
+      <c r="J18">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.99397100000000005</v>
       </c>
-      <c r="L17" s="83">
+      <c r="L18" s="83">
         <f t="shared" si="2"/>
         <v>551296.63907100004</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <v>156.16</v>
       </c>
-      <c r="O17" s="85">
+      <c r="O18" s="85">
         <v>8744.58</v>
       </c>
-      <c r="P17" s="144">
-        <f t="shared" si="1"/>
+      <c r="P18" s="144">
+        <f t="shared" si="3"/>
         <v>-1.3258498407013208E-2</v>
       </c>
-      <c r="T17">
-        <f>T21</f>
+      <c r="T18">
+        <f>T22</f>
         <v>57</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>580.05924800000003</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>12</v>
       </c>
-      <c r="W17">
+      <c r="W18">
         <v>31.26</v>
       </c>
-      <c r="X17">
-        <f>X21</f>
+      <c r="X18">
+        <f>X22</f>
         <v>15</v>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <v>57.4</v>
       </c>
-      <c r="Z17">
+      <c r="Z18">
         <v>68</v>
       </c>
-      <c r="AA17">
+      <c r="AA18">
         <v>11.33</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="84">
+    <row r="19" spans="1:27">
+      <c r="A19" s="84">
         <v>45356</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B19" s="82">
         <v>161</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>2116.34</v>
       </c>
-      <c r="D18">
-        <f>D21</f>
+      <c r="D19">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>31.079899999999999</v>
       </c>
-      <c r="F18">
-        <f>F21</f>
+      <c r="F19">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>33.721699999999998</v>
       </c>
-      <c r="H18">
-        <f>H21</f>
+      <c r="H19">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>1.0160309999999999</v>
       </c>
-      <c r="J18">
-        <f>J21</f>
+      <c r="J19">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>1.0160309999999999</v>
       </c>
-      <c r="L18" s="83">
+      <c r="L19" s="83">
         <f t="shared" si="2"/>
         <v>549382.85210899997</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>154.22999999999999</v>
       </c>
-      <c r="O18" s="85">
+      <c r="O19" s="85">
         <v>8860.52</v>
       </c>
-      <c r="P18" s="144">
-        <f t="shared" si="1"/>
+      <c r="P19" s="144">
+        <f t="shared" si="3"/>
         <v>-5.319100910555985E-3</v>
       </c>
-      <c r="R18">
-        <f>R21</f>
+      <c r="R19">
+        <f>R22</f>
         <v>36</v>
       </c>
-      <c r="S18" s="91">
+      <c r="S19" s="91">
         <v>38.15</v>
       </c>
-      <c r="T18">
-        <f>T21</f>
+      <c r="T19">
+        <f>T22</f>
         <v>57</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <v>579.361718</v>
       </c>
-      <c r="V18">
-        <f>V21</f>
+      <c r="V19">
+        <f>V22</f>
         <v>12</v>
       </c>
-      <c r="W18">
+      <c r="W19">
         <v>28.42</v>
       </c>
-      <c r="X18">
-        <f>X21</f>
+      <c r="X19">
+        <f>X22</f>
         <v>15</v>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <v>52.2</v>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <v>68</v>
       </c>
-      <c r="AA18">
+      <c r="AA19">
         <v>11.33</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="84">
+    <row r="20" spans="1:27">
+      <c r="A20" s="84">
         <v>45355</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B20" s="82">
         <v>161</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2072.52</v>
       </c>
-      <c r="D19">
-        <f>D21</f>
+      <c r="D20">
+        <f>D22</f>
         <v>1110</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>30.905999999999999</v>
       </c>
-      <c r="F19">
-        <f>F21</f>
+      <c r="F20">
+        <f>F22</f>
         <v>321.99</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>33.542299999999997</v>
       </c>
-      <c r="H19">
-        <f>H21</f>
+      <c r="H20">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>1.041954</v>
       </c>
-      <c r="J19">
-        <f>J21</f>
+      <c r="J20">
+        <f>J22</f>
         <v>75000</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>1.041954</v>
       </c>
-      <c r="L19" s="83">
+      <c r="L20" s="83">
         <f t="shared" si="2"/>
         <v>545049.74954800005</v>
       </c>
-      <c r="O19" s="85">
+      <c r="O20" s="85">
         <v>8907.65</v>
       </c>
-      <c r="P19" s="144">
-        <f t="shared" si="1"/>
+      <c r="P20" s="144">
+        <f t="shared" si="3"/>
         <v>-2.1273848882702007E-2</v>
       </c>
-      <c r="R19">
-        <f>R21</f>
+      <c r="R20">
+        <f>R22</f>
         <v>36</v>
       </c>
-      <c r="S19">
+      <c r="S20">
         <v>34.659999999999997</v>
       </c>
-      <c r="T19">
-        <f>T21</f>
+      <c r="T20">
+        <f>T22</f>
         <v>57</v>
       </c>
-      <c r="U19">
+      <c r="U20">
         <v>578.66060300000004</v>
       </c>
-      <c r="V19">
-        <f>V21</f>
+      <c r="V20">
+        <f>V22</f>
         <v>12</v>
       </c>
-      <c r="W19">
+      <c r="W20">
         <v>25.84</v>
       </c>
-      <c r="X19">
-        <f>X21</f>
+      <c r="X20">
+        <f>X22</f>
         <v>15</v>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <v>47.46</v>
-      </c>
-      <c r="Z19">
-        <v>68</v>
-      </c>
-      <c r="AA19">
-        <v>11.33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="84">
-        <v>45352</v>
-      </c>
-      <c r="B20" s="82">
-        <v>161</v>
-      </c>
-      <c r="C20">
-        <v>2018.91</v>
-      </c>
-      <c r="D20">
-        <f>D21</f>
-        <v>1110</v>
-      </c>
-      <c r="E20">
-        <v>30.7361</v>
-      </c>
-      <c r="F20">
-        <f>F21</f>
-        <v>321.99</v>
-      </c>
-      <c r="G20">
-        <v>33.225700000000003</v>
-      </c>
-      <c r="H20">
-        <f>H21</f>
-        <v>50000</v>
-      </c>
-      <c r="I20">
-        <v>1.034036</v>
-      </c>
-      <c r="J20">
-        <f>J21</f>
-        <v>75000</v>
-      </c>
-      <c r="K20">
-        <v>1.034036</v>
-      </c>
-      <c r="L20" s="83">
-        <f t="shared" si="2"/>
-        <v>534814.50418999989</v>
-      </c>
-      <c r="O20" s="85">
-        <v>9097.15</v>
-      </c>
-      <c r="P20" s="144">
-        <f t="shared" si="1"/>
-        <v>-1.0612114783201454E-2</v>
-      </c>
-      <c r="R20">
-        <f>R21</f>
-        <v>36</v>
-      </c>
-      <c r="S20">
-        <v>31.52</v>
-      </c>
-      <c r="T20">
-        <f>T21</f>
-        <v>57</v>
-      </c>
-      <c r="U20">
-        <v>576.58807100000001</v>
-      </c>
-      <c r="V20">
-        <f>V21</f>
-        <v>12</v>
-      </c>
-      <c r="W20">
-        <v>23.5</v>
-      </c>
-      <c r="X20">
-        <f>X21</f>
-        <v>15</v>
-      </c>
-      <c r="Y20">
-        <v>43.16</v>
       </c>
       <c r="Z20">
         <v>68</v>
@@ -6248,7 +6220,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="84">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B21" s="82">
         <v>161</v>
@@ -6275,32 +6247,32 @@
         <v>50000</v>
       </c>
       <c r="I21">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="J21">
         <f>J22</f>
         <v>75000</v>
       </c>
       <c r="K21">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="L21" s="83">
         <f t="shared" si="2"/>
-        <v>530894.48918999988</v>
+        <v>534814.50418999989</v>
       </c>
       <c r="O21" s="85">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="P21" s="144">
-        <f t="shared" si="1"/>
-        <v>1.428479750785594E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.0612114783201454E-2</v>
       </c>
       <c r="R21">
         <f>R22</f>
         <v>36</v>
       </c>
       <c r="S21">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="T21">
         <f>T22</f>
@@ -6314,18 +6286,25 @@
         <v>12</v>
       </c>
       <c r="W21">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="X21">
+        <f>X22</f>
         <v>15</v>
       </c>
       <c r="Y21">
-        <v>39.24</v>
+        <v>43.16</v>
+      </c>
+      <c r="Z21">
+        <v>68</v>
+      </c>
+      <c r="AA21">
+        <v>11.33</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="84">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B22" s="82">
         <v>161</v>
@@ -6334,65 +6313,75 @@
         <v>2018.91</v>
       </c>
       <c r="D22">
+        <f>D23</f>
         <v>1110</v>
       </c>
       <c r="E22">
         <v>30.7361</v>
       </c>
       <c r="F22">
+        <f>F23</f>
         <v>321.99</v>
       </c>
       <c r="G22">
         <v>33.225700000000003</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H24" si="3">H23</f>
+        <f>H23</f>
         <v>50000</v>
       </c>
       <c r="I22">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="J22">
         <f>J23</f>
         <v>75000</v>
       </c>
       <c r="K22">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="L22" s="83">
         <f t="shared" si="2"/>
-        <v>537360.00419000001</v>
+        <v>530894.48918999988</v>
       </c>
       <c r="O22" s="85">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="P22" s="144">
-        <f t="shared" si="1"/>
-        <v>-1.292378585710563E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="R22">
         <f>R23</f>
         <v>36</v>
       </c>
       <c r="S22">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="T22">
+        <f>T23</f>
         <v>57</v>
       </c>
       <c r="U22">
         <v>576.58807100000001</v>
       </c>
       <c r="V22">
+        <f>V23</f>
         <v>12</v>
       </c>
       <c r="W22">
-        <v>19.45</v>
+        <v>21.38</v>
+      </c>
+      <c r="X22">
+        <v>15</v>
+      </c>
+      <c r="Y22">
+        <v>39.24</v>
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="143">
-        <v>45349</v>
+      <c r="A23" s="84">
+        <v>45350</v>
       </c>
       <c r="B23" s="82">
         <v>161</v>
@@ -6413,34 +6402,36 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H23:H25" si="4">H24</f>
         <v>50000</v>
       </c>
       <c r="I23">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="J23">
+        <f>J24</f>
         <v>75000</v>
       </c>
       <c r="K23">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="L23" s="83">
         <f t="shared" si="2"/>
-        <v>536633.0191899999</v>
+        <v>537360.00419000001</v>
       </c>
       <c r="O23" s="85">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="P23" s="144">
-        <f t="shared" si="1"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="R23">
+        <f>R24</f>
         <v>36</v>
       </c>
       <c r="S23">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="T23">
         <v>57</v>
@@ -6448,10 +6439,16 @@
       <c r="U23">
         <v>576.58807100000001</v>
       </c>
+      <c r="V23">
+        <v>12</v>
+      </c>
+      <c r="W23">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="143">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B24" s="82">
         <v>161</v>
@@ -6472,31 +6469,34 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="I24">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
+      </c>
+      <c r="J24">
+        <v>75000</v>
       </c>
       <c r="K24">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="L24" s="83">
         <f t="shared" si="2"/>
-        <v>454463.60418999993</v>
+        <v>536633.0191899999</v>
       </c>
       <c r="O24" s="85">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="P24" s="144">
-        <f t="shared" si="1"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="R24">
         <v>36</v>
       </c>
       <c r="S24">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="T24">
         <v>57</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="143">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B25" s="82">
         <v>161</v>
@@ -6528,30 +6528,31 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H25">
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="I25">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="K25">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="L25" s="83">
         <f t="shared" si="2"/>
-        <v>453591.29418999993</v>
+        <v>454463.60418999993</v>
       </c>
       <c r="O25" s="85">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="P25" s="144">
-        <f t="shared" si="1"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="3"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="R25">
         <v>36</v>
       </c>
       <c r="S25">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="T25">
         <v>57</v>
@@ -6561,178 +6562,233 @@
       </c>
     </row>
     <row r="26" spans="1:27">
+      <c r="A26" s="143">
+        <v>45345</v>
+      </c>
+      <c r="B26" s="82">
+        <v>161</v>
+      </c>
+      <c r="C26">
+        <v>2018.91</v>
+      </c>
+      <c r="D26">
+        <v>1110</v>
+      </c>
+      <c r="E26">
+        <v>30.7361</v>
+      </c>
+      <c r="F26">
+        <v>321.99</v>
+      </c>
+      <c r="G26">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H26">
+        <v>50000</v>
+      </c>
       <c r="I26">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="K26">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L26" s="83">
+        <f t="shared" si="2"/>
+        <v>453591.29418999993</v>
       </c>
       <c r="O26" s="85">
-        <v>9347.17</v>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="P26" s="144">
+        <f t="shared" si="3"/>
+        <v>2.8834460540633211E-3</v>
       </c>
       <c r="R26">
         <v>36</v>
       </c>
       <c r="S26">
-        <v>17.82</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T26">
+        <v>57</v>
+      </c>
+      <c r="U26">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="I27">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="K27">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="O27" s="85">
+        <v>9347.17</v>
       </c>
       <c r="R27">
         <v>36</v>
       </c>
-      <c r="S27" s="92">
-        <v>15.3</v>
-      </c>
-      <c r="W27" s="92">
-        <f>W22</f>
-        <v>19.45</v>
-      </c>
-      <c r="Y27" s="92">
-        <f>Y21</f>
-        <v>39.24</v>
-      </c>
-      <c r="AA27" s="92">
-        <f>AA20</f>
-        <v>11.33</v>
+      <c r="S27">
+        <v>17.82</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="I28">
-        <v>0.91198999999999997</v>
+        <v>0.93849000000000005</v>
       </c>
       <c r="K28">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="P28" s="145">
-        <f>SUM(P5:P27)</f>
-        <v>-2.5658406994040539E-2</v>
-      </c>
-      <c r="S28" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="W28" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y28" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA28" s="92" t="s">
-        <v>60</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="R28">
+        <v>36</v>
+      </c>
+      <c r="S28" s="92">
+        <v>15.3</v>
+      </c>
+      <c r="W28" s="92">
+        <f>W23</f>
+        <v>19.45</v>
+      </c>
+      <c r="Y28" s="92">
+        <f>Y22</f>
+        <v>39.24</v>
+      </c>
+      <c r="AA28" s="92">
+        <f>AA21</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="I29">
-        <v>0.90268000000000004</v>
+        <v>0.91198999999999997</v>
       </c>
       <c r="K29">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="S29" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="W29" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y29" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA29" s="93" t="s">
-        <v>61</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="P29" s="145" t="e">
+        <f>SUM(P5:P28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y29" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA29" s="92" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="I30">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="K30">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="S30" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="W30" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y30" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA30" s="93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="I31">
         <v>0.89847999999999995</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <v>0.89847999999999995</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R31" t="s">
         <v>62</v>
       </c>
-      <c r="S30" s="93">
+      <c r="S31" s="93">
         <v>38</v>
       </c>
-      <c r="W30" s="93">
+      <c r="W31" s="93">
         <v>45.72</v>
       </c>
-      <c r="Y30" s="93">
+      <c r="Y31" s="93">
         <v>55.5</v>
       </c>
-      <c r="AA30" s="93">
+      <c r="AA31" s="93">
         <f>AA2</f>
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
-      <c r="I31">
+    <row r="32" spans="1:27">
+      <c r="I32">
         <v>0.88783999999999996</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>0.88783999999999996</v>
       </c>
-      <c r="S31" s="94">
+      <c r="S32" s="94">
         <f>Sayfa2!M41</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="W31" s="94">
-        <f>(W30-W22)/W22</f>
+      <c r="W32" s="94">
+        <f>(W31-W23)/W23</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="Y31" s="94">
-        <f>(Y30-Y21)/Y21</f>
+      <c r="Y32" s="94">
+        <f>(Y31-Y22)/Y22</f>
         <v>0.41437308868501521</v>
       </c>
-      <c r="AA31" s="94">
-        <f>(AA30-AA20)/AA20</f>
+      <c r="AA32" s="94">
+        <f>(AA31-AA21)/AA21</f>
         <v>0.73786407766990303</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
-      <c r="I32">
+    <row r="33" spans="9:27">
+      <c r="I33">
         <v>0.86724999999999997</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="33" spans="18:27">
-      <c r="R33" s="95" t="s">
+    <row r="34" spans="9:27">
+      <c r="R34" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="S33" s="95">
+      <c r="S34" s="95">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="V33" s="95" t="s">
+      <c r="V34" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W33" s="95">
-        <f>(V22*W30)-(V5*W22)</f>
+      <c r="W34" s="95">
+        <f>(V23*W31)-(V5*W23)</f>
         <v>548.64</v>
       </c>
-      <c r="X33" s="95" t="s">
+      <c r="X34" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="Y33" s="95">
-        <f>(X21*Y30)-(X5*Y21)</f>
+      <c r="Y34" s="95">
+        <f>(X22*Y31)-(X5*Y22)</f>
         <v>832.5</v>
       </c>
-      <c r="AA33" s="95">
-        <f>(Z20*AA30)-(Z8*AA20)</f>
+      <c r="AA34" s="95">
+        <f>(Z21*AA31)-(Z9*AA21)</f>
         <v>568.48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6740,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6849,7 +6905,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="14">
         <f>SUM(K8:K9)</f>
-        <v>100.42350000000033</v>
+        <v>225.24850000000032</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -6917,7 +6973,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="147">
         <f>SUM(K8:K9)</f>
-        <v>100.42350000000033</v>
+        <v>225.24850000000032</v>
       </c>
       <c r="L7" s="19">
         <f ca="1">K7/E7</f>
@@ -6940,7 +6996,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <f>K5/B7</f>
-        <v>1.0042350000000033</v>
+        <v>2.2524850000000032</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="149" t="s">
@@ -6955,24 +7011,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="17">
         <f>SUBTOTAL(109,I13:I20)</f>
-        <v>5531.8335000000006</v>
+        <v>5656.6584999999995</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="18">
         <f>SUBTOTAL(109,K13:K20)</f>
-        <v>-465.24649999999986</v>
+        <v>-340.42149999999987</v>
       </c>
       <c r="L8" s="19">
         <f>K8/E8</f>
-        <v>-7.7578838368005734E-2</v>
+        <v>-5.6764542077144188E-2</v>
       </c>
       <c r="M8" s="20">
         <f>SUBTOTAL(101,M13:M19)</f>
-        <v>-8.7537665234390508E-2</v>
+        <v>-5.2958087138674698E-2</v>
       </c>
       <c r="N8" s="20">
         <f>SUBTOTAL(101,N13:N19)</f>
-        <v>-3.6200542371596915E-2</v>
+        <v>-2.8787315938971755E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -7205,7 +7261,7 @@
       </c>
       <c r="O14" s="41">
         <f>SUM(O15:O18)</f>
-        <v>-465.24649999999986</v>
+        <v>-340.42149999999987</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -7268,19 +7324,19 @@
         <v>26</v>
       </c>
       <c r="H16" s="1">
-        <v>40.86</v>
+        <v>47.24</v>
       </c>
       <c r="I16" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>1062.3599999999999</v>
+        <v>1228.24</v>
       </c>
       <c r="J16" s="22">
         <f>H16-D16</f>
-        <v>-14.219999999999999</v>
+        <v>-7.8399999999999963</v>
       </c>
       <c r="K16" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-369.71999999999997</v>
+        <v>-203.83999999999992</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
@@ -7288,11 +7344,11 @@
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-0.25816993464052285</v>
+        <v>-0.14233841684822071</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-7.7450980392156851E-2</v>
+        <v>-4.2701525054466213E-2</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -7393,19 +7449,19 @@
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!K5</f>
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="I18" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>3257.1735000000003</v>
+        <v>3216.1185</v>
       </c>
       <c r="J18" s="29">
         <f>H18-D18</f>
-        <v>-3.9378999999999942E-2</v>
+        <v>-5.110899999999996E-2</v>
       </c>
       <c r="K18" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-137.82649999999978</v>
+        <v>-178.88149999999985</v>
       </c>
       <c r="L18" s="48">
         <f>F18-B18</f>
@@ -7413,15 +7469,15 @@
       </c>
       <c r="M18" s="20">
         <f>K18/E18</f>
-        <v>-4.0596907216494782E-2</v>
+        <v>-5.2689690721649439E-2</v>
       </c>
       <c r="N18" s="20">
         <f>M18/L18*30</f>
-        <v>-4.1996800568787705E-2</v>
+        <v>-5.4506576608602871E-2</v>
       </c>
       <c r="O18" s="51">
         <f>SUM(K15:K18)</f>
-        <v>-465.24649999999986</v>
+        <v>-340.42149999999987</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4202D3-9F1F-4B8B-9140-64763F13572E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525B01A2-9202-41B5-9976-22FB16894C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1350" windowWidth="20205" windowHeight="14550" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1991,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2031,11 +2031,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>244906.001747</v>
+        <v>242616.68290700001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>155.69358025874126</v>
+        <v>154.1402051505718</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2081,24 +2081,24 @@
       <c r="H5" s="166"/>
       <c r="I5" s="191">
         <f>SUM(I11:I25)</f>
-        <v>516922.59344000008</v>
+        <v>514633.2746</v>
       </c>
       <c r="J5" s="163"/>
       <c r="K5" s="192">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>228687.32436</v>
+        <v>226398.00552000001</v>
       </c>
       <c r="L5" s="193">
         <f>K5/E5</f>
-        <v>0.79340507180100706</v>
+        <v>0.78546253636005592</v>
       </c>
       <c r="M5" s="180">
         <f>SUBTOTAL(101,M10:M16)</f>
-        <v>-0.11038910460467341</v>
+        <v>-0.13805357333482909</v>
       </c>
       <c r="N5" s="180">
         <f>SUBTOTAL(101,N10:N16)</f>
-        <v>-0.11264605156715377</v>
+        <v>-0.13575897262543513</v>
       </c>
       <c r="O5" s="164"/>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="44">
         <f>$B$2</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G15" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="46">
         <f>Sayfa4!I2</f>
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="I15" s="25">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>68916.824999999997</v>
+        <v>66773.7</v>
       </c>
       <c r="J15" s="29">
         <f>H15-D15</f>
-        <v>-0.14554400000000001</v>
+        <v>-0.17411900000000002</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-10915.800000000001</v>
+        <v>-13058.925000000001</v>
       </c>
       <c r="L15" s="48">
         <f>F15-B15</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="20">
         <f>K15/E15</f>
-        <v>-0.13673357227073518</v>
+        <v>-0.16357880002066827</v>
       </c>
       <c r="N15" s="20">
         <f>M15/L15*30</f>
-        <v>-0.14650025600435912</v>
+        <v>-0.16921944829724306</v>
       </c>
       <c r="O15" s="43"/>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F16" s="44">
         <f>$B$2</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G16" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2341,35 +2341,35 @@
       </c>
       <c r="H16" s="46">
         <f>H15</f>
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="I16" s="25">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>45944.55</v>
+        <v>44515.8</v>
       </c>
       <c r="J16" s="29">
         <f>H16-D16</f>
-        <v>-8.4313999999999889E-2</v>
+        <v>-0.11288899999999991</v>
       </c>
       <c r="K16" s="47">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-4215.6999999999944</v>
+        <v>-5644.4499999999953</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-8.4044636938611653E-2</v>
+        <v>-0.1125283466489899</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-7.8791847129948425E-2</v>
+        <v>-0.10229849695362719</v>
       </c>
       <c r="O16" s="51">
         <f>SUM(K13:K16)</f>
-        <v>-15131.499999999996</v>
+        <v>-18703.374999999996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2408,50 +2408,50 @@
       </c>
       <c r="F18" s="44">
         <f t="shared" ref="F18:F25" si="0">$B$2</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G18" s="45">
         <v>50</v>
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!C5</f>
-        <v>2214.31</v>
+        <v>2221.81</v>
       </c>
       <c r="I18" s="25">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>110715.5</v>
+        <v>111090.5</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>387.78</v>
+        <v>395.28</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>19389</v>
+        <v>19764</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.21230420524163304</v>
+        <v>0.2164103518693917</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>4.0567682530248346E-2</v>
+        <v>4.1090573139757919E-2</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>110715.5</v>
+        <v>111090.5</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>55.357750000000003</v>
+        <v>55.545250000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2473,50 +2473,50 @@
       </c>
       <c r="F19" s="44">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G19" s="45">
         <v>11</v>
       </c>
       <c r="H19" s="46">
         <f>H18</f>
-        <v>2214.31</v>
+        <v>2221.81</v>
       </c>
       <c r="I19" s="25">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>24357.41</v>
+        <v>24439.91</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" si="1"/>
-        <v>1812.21</v>
+        <v>1819.71</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>19934.310000000001</v>
+        <v>20016.810000000001</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="2"/>
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="M19" s="20">
         <f t="shared" si="3"/>
-        <v>4.506863964188013</v>
+        <v>4.5255160407858739</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="4"/>
-        <v>0.11943985770816289</v>
+        <v>0.1198283152900055</v>
       </c>
       <c r="O19" s="43"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>24357.41</v>
+        <v>24439.91</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.178705000000001</v>
+        <v>12.219955000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2538,50 +2538,50 @@
       </c>
       <c r="F20" s="44">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G20" s="45">
         <v>50</v>
       </c>
       <c r="H20" s="46">
         <f>H19</f>
-        <v>2214.31</v>
+        <v>2221.81</v>
       </c>
       <c r="I20" s="25">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>110715.5</v>
+        <v>111090.5</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>1745.4499999999998</v>
+        <v>1752.9499999999998</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>87272.499999999985</v>
+        <v>87647.499999999985</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="2"/>
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" si="3"/>
-        <v>3.7227530606151085</v>
+        <v>3.7387493068293303</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="4"/>
-        <v>8.6441634534406536E-2</v>
+        <v>8.6745923592327856E-2</v>
       </c>
       <c r="O20" s="43"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>110715.5</v>
+        <v>111090.5</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>55.357750000000003</v>
+        <v>55.545250000000003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F21" s="44">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G21" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2611,36 +2611,36 @@
       </c>
       <c r="H21" s="46">
         <f>H20</f>
-        <v>2214.31</v>
+        <v>2221.81</v>
       </c>
       <c r="I21" s="25">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>55357.75</v>
+        <v>55545.25</v>
       </c>
       <c r="J21" s="29">
         <f t="shared" si="1"/>
-        <v>1814.44</v>
+        <v>1821.94</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>45361</v>
+        <v>45548.5</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="2"/>
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" si="3"/>
-        <v>4.5375747117813292</v>
+        <v>4.5563308075124418</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" si="4"/>
-        <v>0.10038882105710906</v>
+        <v>0.10072949463918442</v>
       </c>
       <c r="O21" s="43"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>122.894205</v>
+        <v>123.31045500000002</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="F22" s="44">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G22" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2670,31 +2670,31 @@
       </c>
       <c r="H22" s="46">
         <f>H21</f>
-        <v>2214.31</v>
+        <v>2221.81</v>
       </c>
       <c r="I22" s="25">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>53143.44</v>
+        <v>53323.44</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="1"/>
-        <v>1940.5</v>
+        <v>1948</v>
       </c>
       <c r="K22" s="47">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>46572</v>
+        <v>46752</v>
       </c>
       <c r="L22" s="48">
         <f t="shared" si="2"/>
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" si="3"/>
-        <v>7.0870311529892982</v>
+        <v>7.1144224097001567</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="4"/>
-        <v>0.13516270476139794</v>
+        <v>0.13559890234498392</v>
       </c>
       <c r="O22" s="43"/>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="F23" s="44">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G23" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2725,40 +2725,40 @@
       </c>
       <c r="H23" s="46">
         <f>H22</f>
-        <v>2214.31</v>
+        <v>2221.81</v>
       </c>
       <c r="I23" s="25">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>2214.31</v>
+        <v>2221.81</v>
       </c>
       <c r="J23" s="29">
         <f t="shared" si="1"/>
-        <v>1976.72</v>
+        <v>1984.22</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>1976.72</v>
+        <v>1984.22</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="2"/>
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" si="3"/>
-        <v>8.3198787827770531</v>
+        <v>8.3514457679195253</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="4"/>
-        <v>0.15867537411526483</v>
+        <v>0.15917622175196047</v>
       </c>
       <c r="O23" s="43"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>245788.41</v>
+        <v>246620.91</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>110.69954330907255</v>
+        <v>111.07448926280895</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F24" s="44">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G24" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2788,36 +2788,36 @@
       </c>
       <c r="H24" s="46">
         <f>Sayfa4!G2</f>
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="I24" s="25">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>10274.62644</v>
+        <v>10309.944600000001</v>
       </c>
       <c r="J24" s="29">
         <f t="shared" si="1"/>
-        <v>15.6647</v>
+        <v>15.782900000000001</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4680.6123600000001</v>
+        <v>4715.9305200000008</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="2"/>
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" si="3"/>
-        <v>0.8367180155542262</v>
+        <v>0.84303157849756449</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="4"/>
-        <v>4.2401250788220927E-2</v>
+        <v>4.2649152369185393E-2</v>
       </c>
       <c r="O24" s="43"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>24578.841</v>
+        <v>24662.091</v>
       </c>
       <c r="Q24" s="56">
         <v>0.1</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F25" s="44">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G25" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2853,47 +2853,47 @@
       </c>
       <c r="H25" s="46">
         <f>Sayfa4!E2</f>
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="I25" s="25">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>35282.682000000001</v>
+        <v>35322.42</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="1"/>
-        <v>16.786200000000001</v>
+        <v>16.821999999999999</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18632.682000000001</v>
+        <v>18672.419999999998</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="2"/>
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>1.1190800000000001</v>
+        <v>1.1214666666666666</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="4"/>
-        <v>5.5768106312292356E-2</v>
+        <v>5.5794361525704807E-2</v>
       </c>
       <c r="O25" s="51">
         <f>SUM(K18:K25)</f>
-        <v>243818.82436</v>
+        <v>245101.38052000001</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>270367.25099999999</v>
+        <v>271283.00099999999</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>135.18362550000001</v>
+        <v>135.64150050000001</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>106.86452608695652</v>
+        <v>107.22648260869565</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2954,7 +2954,7 @@
       <c r="P28" s="160"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>300150.90737016004</v>
+        <v>301167.53639016004</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -5009,11 +5009,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA34"/>
+  <dimension ref="A2:AA35"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U10" sqref="U10"/>
+      <selection pane="topRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5048,35 +5048,35 @@
     <row r="2" spans="1:27">
       <c r="A2" s="84">
         <f>A5</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2214.31</v>
+        <v>2221.81</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="K2">
         <f>I5</f>
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="M2" s="85">
         <f>Sayfa2!D3</f>
-        <v>155.69358025874126</v>
+        <v>154.1402051505718</v>
       </c>
       <c r="N2" s="86">
         <f>Sayfa2!K2</f>
-        <v>244906.001747</v>
+        <v>242616.68290700001</v>
       </c>
       <c r="S2">
         <f>S5</f>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>AA9</f>
+        <f>AA10</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5152,1148 +5152,1121 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="84">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B5" s="82">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2214.31</v>
+        <v>2221.81</v>
       </c>
       <c r="D5">
-        <f>D21</f>
+        <f>D22</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="F5">
-        <f>F21</f>
+        <f>F22</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="H5">
-        <f>H21</f>
+        <f>H22</f>
         <v>50000</v>
       </c>
       <c r="I5">
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="J5">
-        <f>J21</f>
+        <f>J22</f>
         <v>75000</v>
       </c>
       <c r="K5" s="146">
         <f>I5</f>
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="L5" s="83">
-        <f>(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z9*AA9)+(J5*K5)</f>
-        <v>519058.93173699995</v>
+        <f>(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z10*AA10)+(J5*K5)</f>
+        <v>516772.35395499994</v>
       </c>
       <c r="M5">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="N5">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="O5" s="85"/>
       <c r="P5" s="144" t="e">
-        <f>(1-(O10/O5))</f>
+        <f>(1-(O11/O5))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="84">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B6" s="82">
         <v>161</v>
       </c>
       <c r="C6">
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="D6">
-        <f>D22</f>
+        <f>D23</f>
         <v>1110</v>
       </c>
       <c r="E6">
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="F6">
-        <f>F22</f>
+        <f>F23</f>
         <v>321.99</v>
       </c>
       <c r="G6">
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="H6">
-        <f>H22</f>
+        <f>H23</f>
         <v>50000</v>
       </c>
       <c r="I6">
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="J6">
-        <f>J22</f>
+        <f>J23</f>
         <v>75000</v>
       </c>
       <c r="K6" s="146">
         <f>I6</f>
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="L6" s="83">
-        <f>(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z10*AA10)+(J6*K6)</f>
-        <v>520293.43723700003</v>
+        <f>(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z11*AA11)+(J6*K6)</f>
+        <v>519281.29173699999</v>
       </c>
       <c r="M6">
-        <v>156.63999999999999</v>
+        <v>155.99</v>
       </c>
       <c r="N6">
-        <v>245919.31</v>
-      </c>
-      <c r="O6">
-        <v>9111.5</v>
+        <v>244906</v>
+      </c>
+      <c r="O6" s="85">
+        <v>9029.3799999999992</v>
       </c>
       <c r="P6" s="144">
-        <f>(1-(O11/O7))</f>
-        <v>3.4133053267255242E-2</v>
+        <f>(1-(O7/O6))</f>
+        <v>-9.0947551216142841E-3</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="84">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B7" s="82">
         <v>161</v>
       </c>
       <c r="C7">
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="D7">
-        <f>D22</f>
+        <f>D23</f>
         <v>1110</v>
       </c>
       <c r="E7">
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="F7">
-        <f>F22</f>
+        <f>F23</f>
         <v>321.99</v>
       </c>
       <c r="G7">
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="H7">
-        <f>H22</f>
+        <f>H23</f>
         <v>50000</v>
       </c>
       <c r="I7">
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="J7">
-        <f>J22</f>
+        <f>J23</f>
         <v>75000</v>
       </c>
       <c r="K7" s="146">
         <f>I7</f>
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="L7" s="83">
-        <f>(B7*C7)+(D7*E7)+(F7*G7)+(T7*U7)+(H7*I7)+(R7*S7)+(V7*W7)+(X7*Y7)+(Z10*AA10)+(J7*K7)</f>
-        <v>531236.15554900002</v>
+        <f>(B7*C7)+(D7*E7)+(F7*G7)+(T7*U7)+(H7*I7)+(R7*S7)+(V7*W7)+(X7*Y7)+(Z11*AA11)+(J7*K7)</f>
+        <v>520293.43723700003</v>
       </c>
       <c r="M7">
-        <v>163.91</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="N7">
-        <v>256845.12</v>
-      </c>
-      <c r="O7" s="85">
-        <v>9140.7000000000007</v>
+        <v>245919.31</v>
+      </c>
+      <c r="O7">
+        <v>9111.5</v>
       </c>
       <c r="P7" s="144">
-        <f>(1-(O11/O8))</f>
-        <v>1.4117063757939641E-2</v>
+        <f t="shared" ref="P7:P23" si="0">(1-(O8/O7))</f>
+        <v>-3.2047412610438641E-3</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="84">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B8" s="82">
         <v>161</v>
       </c>
       <c r="C8">
-        <v>2220.92</v>
+        <v>2267.61</v>
       </c>
       <c r="D8">
-        <f>D22</f>
+        <f>D23</f>
         <v>1110</v>
       </c>
       <c r="E8">
-        <v>32.028799999999997</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="F8">
-        <f>F22</f>
+        <f>F23</f>
         <v>321.99</v>
       </c>
       <c r="G8">
-        <v>34.808799999999998</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="H8">
-        <f>H22</f>
+        <f>H23</f>
         <v>50000</v>
       </c>
       <c r="I8">
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="J8">
-        <f>J22</f>
+        <f>J23</f>
         <v>75000</v>
       </c>
       <c r="K8" s="146">
         <f>I8</f>
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="L8" s="83">
-        <f t="shared" ref="L8:L11" si="0">(B8*C8)+(D8*E8)+(F8*G8)+(T8*U8)+(H8*I8)+(R8*S8)+(V8*W8)+(X8*Y8)+(Z8*AA8)+(J8*K8)</f>
-        <v>521166.42351200001</v>
+        <f>(B8*C8)+(D8*E8)+(F8*G8)+(T8*U8)+(H8*I8)+(R8*S8)+(V8*W8)+(X8*Y8)+(Z11*AA11)+(J8*K8)</f>
+        <v>531236.15554900002</v>
       </c>
       <c r="M8">
-        <v>158.47999999999999</v>
+        <v>163.91</v>
       </c>
       <c r="N8">
-        <v>248342.62</v>
+        <v>256845.12</v>
       </c>
       <c r="O8" s="85">
-        <v>8955.1200000000008</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="P8" s="144">
-        <f>(1-(O11/O9))</f>
-        <v>1.1330499402007477E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0302602645311585E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="84">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B9" s="82">
         <v>161</v>
       </c>
       <c r="C9">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="D9">
-        <f>D22</f>
+        <f>D23</f>
         <v>1110</v>
       </c>
       <c r="E9">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="F9">
-        <f>F22</f>
+        <f>F23</f>
         <v>321.99</v>
       </c>
       <c r="G9">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="H9">
-        <f>H22</f>
+        <f>H23</f>
         <v>50000</v>
       </c>
       <c r="I9">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="J9">
-        <f>J22</f>
+        <f>J23</f>
         <v>75000</v>
       </c>
       <c r="K9" s="146">
         <f>I9</f>
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="L9" s="83">
+        <f t="shared" ref="L9:L12" si="1">(B9*C9)+(D9*E9)+(F9*G9)+(T9*U9)+(H9*I9)+(R9*S9)+(V9*W9)+(X9*Y9)+(Z9*AA9)+(J9*K9)</f>
+        <v>521166.42351200001</v>
+      </c>
+      <c r="M9">
+        <v>158.47999999999999</v>
+      </c>
+      <c r="N9">
+        <v>248342.62</v>
+      </c>
+      <c r="O9" s="85">
+        <v>8955.1200000000008</v>
+      </c>
+      <c r="P9" s="144">
         <f t="shared" si="0"/>
-        <v>517965.56020899996</v>
-      </c>
-      <c r="M9">
-        <v>155.59</v>
-      </c>
-      <c r="N9">
-        <v>243803.06</v>
-      </c>
-      <c r="O9" s="85">
-        <v>8929.8799999999992</v>
-      </c>
-      <c r="P9" s="144">
-        <f t="shared" ref="P9:P11" si="1">(1-(O12/O10))</f>
-        <v>-1.8973148996743516E-2</v>
-      </c>
-      <c r="Z9">
-        <v>68</v>
-      </c>
-      <c r="AA9">
-        <v>19.690000000000001</v>
+        <v>2.8184993612594411E-3</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="84">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B10" s="82">
         <v>161</v>
       </c>
       <c r="C10">
-        <v>2212.35</v>
+        <v>2219.02</v>
       </c>
       <c r="D10">
-        <f>D22</f>
+        <f>D23</f>
         <v>1110</v>
       </c>
       <c r="E10">
-        <v>31.9499</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="F10">
-        <f>F22</f>
+        <f>F23</f>
         <v>321.99</v>
       </c>
       <c r="G10">
-        <v>34.8125</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="H10">
-        <f>H22</f>
+        <f>H23</f>
         <v>50000</v>
       </c>
       <c r="I10">
-        <v>0.93887900000000002</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="J10">
-        <f>J22</f>
+        <f>J23</f>
         <v>75000</v>
       </c>
-      <c r="K10">
-        <v>0.93887900000000002</v>
+      <c r="K10" s="146">
+        <f>I10</f>
+        <v>0.90033600000000003</v>
       </c>
       <c r="L10" s="83">
+        <f t="shared" si="1"/>
+        <v>517965.56020899996</v>
+      </c>
+      <c r="M10">
+        <v>155.59</v>
+      </c>
+      <c r="N10">
+        <v>243803.06</v>
+      </c>
+      <c r="O10" s="85">
+        <v>8929.8799999999992</v>
+      </c>
+      <c r="P10" s="144">
         <f t="shared" si="0"/>
-        <v>521783.17087500001</v>
-      </c>
-      <c r="M10">
-        <v>155.44</v>
-      </c>
-      <c r="N10">
-        <v>247623.17</v>
-      </c>
-      <c r="O10" s="85">
-        <v>8718.11</v>
-      </c>
-      <c r="P10" s="144">
-        <f t="shared" si="1"/>
-        <v>-9.2346551587434433E-3</v>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="Z10">
         <v>68</v>
       </c>
       <c r="AA10">
-        <v>22.96</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="84">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B11" s="82">
         <v>161</v>
       </c>
       <c r="C11">
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="D11">
-        <f>D22</f>
+        <f>D23</f>
         <v>1110</v>
       </c>
       <c r="E11">
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="F11">
-        <f>F22</f>
+        <f>F23</f>
         <v>321.99</v>
       </c>
       <c r="G11">
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="H11">
-        <f>H22</f>
+        <f>H23</f>
         <v>50000</v>
       </c>
       <c r="I11">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="J11">
-        <f>J22</f>
+        <f>J23</f>
         <v>75000</v>
       </c>
       <c r="K11">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="L11" s="83">
+        <f t="shared" si="1"/>
+        <v>521783.17087500001</v>
+      </c>
+      <c r="M11">
+        <v>155.44</v>
+      </c>
+      <c r="N11">
+        <v>247623.17</v>
+      </c>
+      <c r="O11" s="85">
+        <v>8718.11</v>
+      </c>
+      <c r="P11" s="144">
         <f t="shared" si="0"/>
-        <v>522868.00020299997</v>
-      </c>
-      <c r="M11">
-        <v>156.13</v>
-      </c>
-      <c r="N11">
-        <v>248712.47</v>
-      </c>
-      <c r="O11" s="85">
-        <v>8828.7000000000007</v>
-      </c>
-      <c r="P11" s="144">
-        <f t="shared" si="1"/>
-        <v>-2.0882488022765822E-2</v>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="Z11">
         <v>68</v>
       </c>
       <c r="AA11">
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="84">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B12" s="82">
         <v>161</v>
       </c>
       <c r="C12">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="D12">
-        <f>D22</f>
+        <f>D23</f>
         <v>1110</v>
       </c>
       <c r="E12">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="F12">
-        <f>F22</f>
+        <f>F23</f>
         <v>321.99</v>
       </c>
       <c r="G12">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="H12">
-        <f>H22</f>
+        <f>H23</f>
         <v>50000</v>
       </c>
       <c r="I12">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="J12">
-        <f>J22</f>
+        <f>J23</f>
         <v>75000</v>
       </c>
       <c r="K12">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="L12" s="83">
-        <f t="shared" ref="L12:L26" si="2">(B12*C12)+(D12*E12)+(F12*G12)+(T12*U12)+(H12*I12)+(R12*S12)+(V12*W12)+(X12*Y12)+(Z12*AA12)+(J12*K12)</f>
-        <v>524610.95937499998</v>
+        <f t="shared" si="1"/>
+        <v>522868.00020299997</v>
       </c>
       <c r="M12">
-        <v>157.21</v>
+        <v>156.13</v>
       </c>
       <c r="N12">
-        <v>250427.64</v>
+        <v>248712.47</v>
       </c>
       <c r="O12" s="85">
-        <v>8883.52</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="P12" s="144">
-        <f t="shared" ref="P10:P26" si="3">(1-(O13/O12))</f>
-        <v>-3.0066910413888426E-3</v>
+        <f t="shared" si="0"/>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="Z12">
         <v>68</v>
       </c>
       <c r="AA12">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="84">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B13" s="82">
         <v>161</v>
       </c>
       <c r="C13">
+        <v>2222.88</v>
+      </c>
+      <c r="D13">
+        <f>D23</f>
+        <v>1110</v>
+      </c>
+      <c r="E13">
+        <v>31.775700000000001</v>
+      </c>
+      <c r="F13">
+        <f>F23</f>
+        <v>321.99</v>
+      </c>
+      <c r="G13">
+        <v>34.762500000000003</v>
+      </c>
+      <c r="H13">
+        <f>H23</f>
+        <v>50000</v>
+      </c>
+      <c r="I13">
+        <v>0.95100700000000005</v>
+      </c>
+      <c r="J13">
+        <f>J23</f>
+        <v>75000</v>
+      </c>
+      <c r="K13">
+        <v>0.95100700000000005</v>
+      </c>
+      <c r="L13" s="83">
+        <f t="shared" ref="L13:L27" si="2">(B13*C13)+(D13*E13)+(F13*G13)+(T13*U13)+(H13*I13)+(R13*S13)+(V13*W13)+(X13*Y13)+(Z13*AA13)+(J13*K13)</f>
+        <v>524610.95937499998</v>
+      </c>
+      <c r="M13">
+        <v>157.21</v>
+      </c>
+      <c r="N13">
+        <v>250427.64</v>
+      </c>
+      <c r="O13" s="85">
+        <v>8883.52</v>
+      </c>
+      <c r="P13" s="144">
+        <f t="shared" si="0"/>
+        <v>-3.0066910413888426E-3</v>
+      </c>
+      <c r="Z13">
+        <v>68</v>
+      </c>
+      <c r="AA13">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="84">
+        <v>45364</v>
+      </c>
+      <c r="B14" s="82">
+        <v>161</v>
+      </c>
+      <c r="C14">
         <v>2220.3200000000002</v>
       </c>
-      <c r="D13">
-        <f>D22</f>
+      <c r="D14">
+        <f>D23</f>
         <v>1110</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>32</v>
       </c>
-      <c r="F13">
-        <f>F22</f>
+      <c r="F14">
+        <f>F23</f>
         <v>321.99</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>35</v>
       </c>
-      <c r="H13">
-        <f>H22</f>
+      <c r="H14">
+        <f>H23</f>
         <v>50000</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>0.957233</v>
       </c>
-      <c r="J13">
-        <f>J22</f>
+      <c r="J14">
+        <f>J23</f>
         <v>75000</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.957233</v>
       </c>
-      <c r="L13" s="83">
+      <c r="L14" s="83">
         <f t="shared" si="2"/>
         <v>525154.25500000012</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>160.79</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>250989.9</v>
       </c>
-      <c r="O13" s="85">
+      <c r="O14" s="85">
         <v>8910.23</v>
       </c>
-      <c r="P13" s="144">
-        <f t="shared" si="3"/>
+      <c r="P14" s="144">
+        <f t="shared" si="0"/>
         <v>-1.7822211098927898E-2</v>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <v>68</v>
       </c>
-      <c r="AA13">
+      <c r="AA14">
         <v>18.22</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="84">
+    <row r="15" spans="1:27">
+      <c r="A15" s="84">
         <v>45363</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B15" s="82">
         <v>161</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>2220.3200000000002</v>
       </c>
-      <c r="D14">
-        <f>D22</f>
+      <c r="D15">
+        <f>D23</f>
         <v>1110</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>31.516400000000001</v>
       </c>
-      <c r="F14">
-        <f>F22</f>
+      <c r="F15">
+        <f>F23</f>
         <v>321.99</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>34.463200000000001</v>
       </c>
-      <c r="H14">
-        <f>H22</f>
+      <c r="H15">
+        <f>H23</f>
         <v>50000</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>0.979213</v>
       </c>
-      <c r="J14">
-        <f>J22</f>
+      <c r="J15">
+        <f>J23</f>
         <v>75000</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.979213</v>
       </c>
-      <c r="L14" s="83">
+      <c r="L15" s="83">
         <f t="shared" si="2"/>
         <v>527079.91476800013</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>161.94999999999999</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>252645.61</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O15" s="85">
         <v>9069.0300000000007</v>
       </c>
-      <c r="P14" s="144">
-        <f t="shared" si="3"/>
+      <c r="P15" s="144">
+        <f t="shared" si="0"/>
         <v>-6.8684302510850781E-3</v>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <v>68</v>
       </c>
-      <c r="AA14">
+      <c r="AA15">
         <v>16.57</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="84">
+    <row r="16" spans="1:27">
+      <c r="A16" s="84">
         <v>45362</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B16" s="82">
         <v>161</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>2232.66</v>
       </c>
-      <c r="D15">
-        <f>D22</f>
+      <c r="D16">
+        <f>D23</f>
         <v>1110</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>31.571400000000001</v>
       </c>
-      <c r="F15">
-        <f>F22</f>
+      <c r="F16">
+        <f>F23</f>
         <v>321.99</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>34.558100000000003</v>
       </c>
-      <c r="H15">
-        <f>H22</f>
+      <c r="H16">
+        <f>H23</f>
         <v>50000</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>0.99851990000000002</v>
       </c>
-      <c r="J15">
-        <f>J22</f>
+      <c r="J16">
+        <f>J23</f>
         <v>75000</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>0.99851990000000002</v>
       </c>
-      <c r="L15" s="83">
+      <c r="L16" s="83">
         <f t="shared" si="2"/>
         <v>532801.83411900001</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>164.91</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>257088.48</v>
       </c>
-      <c r="O15" s="85">
+      <c r="O16" s="85">
         <v>9131.32</v>
       </c>
-      <c r="P15" s="144">
-        <f t="shared" si="3"/>
+      <c r="P16" s="144">
+        <f t="shared" si="0"/>
         <v>-2.6283166070184549E-3</v>
       </c>
-      <c r="V15">
+      <c r="V16">
         <v>12</v>
       </c>
-      <c r="W15">
+      <c r="W16">
         <v>41.58</v>
       </c>
-      <c r="X15">
-        <f>X22</f>
+      <c r="X16">
+        <f>X23</f>
         <v>15</v>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <v>55.55</v>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <v>68</v>
       </c>
-      <c r="AA15">
+      <c r="AA16">
         <v>15.07</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="84">
+    <row r="17" spans="1:27">
+      <c r="A17" s="84">
         <v>45359</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B17" s="82">
         <v>161</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>2198.16</v>
       </c>
-      <c r="D16">
-        <f>D22</f>
+      <c r="D17">
+        <f>D23</f>
         <v>1110</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>31.402999999999999</v>
       </c>
-      <c r="F16">
-        <f>F22</f>
+      <c r="F17">
+        <f>F23</f>
         <v>321.99</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>34.3643</v>
       </c>
-      <c r="H16">
-        <f>H22</f>
+      <c r="H17">
+        <f>H23</f>
         <v>50000</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>0.99115900000000001</v>
       </c>
-      <c r="J16">
-        <f>J22</f>
+      <c r="J17">
+        <f>J23</f>
         <v>75000</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>0.99115900000000001</v>
       </c>
-      <c r="L16" s="83">
+      <c r="L17" s="83">
         <f t="shared" si="2"/>
         <v>525972.37595699995</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>160.9</v>
       </c>
-      <c r="O16" s="85">
+      <c r="O17" s="85">
         <v>9155.32</v>
       </c>
-      <c r="P16" s="144">
-        <f t="shared" si="3"/>
+      <c r="P17" s="144">
+        <f t="shared" si="0"/>
         <v>1.1047128882442081E-2</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>12</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>37.799999999999997</v>
       </c>
-      <c r="X16">
-        <f>X22</f>
+      <c r="X17">
+        <f>X23</f>
         <v>15</v>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <v>57.75</v>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <v>68</v>
       </c>
-      <c r="AA16">
+      <c r="AA17">
         <v>13.7</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="84">
+    <row r="18" spans="1:27">
+      <c r="A18" s="84">
         <v>45358</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B18" s="82">
         <v>161</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2184.79</v>
       </c>
-      <c r="D17">
-        <f>D22</f>
+      <c r="D18">
+        <f>D23</f>
         <v>1110</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>31.297000000000001</v>
       </c>
-      <c r="F17">
-        <f>F22</f>
+      <c r="F18">
+        <f>F23</f>
         <v>321.99</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>34.110599999999998</v>
       </c>
-      <c r="H17">
-        <f>H22</f>
+      <c r="H18">
+        <f>H23</f>
         <v>50000</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.945214</v>
       </c>
-      <c r="J17">
-        <f>J22</f>
+      <c r="J18">
+        <f>J23</f>
         <v>75000</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.945214</v>
       </c>
-      <c r="L17" s="83">
+      <c r="L18" s="83">
         <f t="shared" si="2"/>
         <v>517832.22209400003</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <v>155.75</v>
       </c>
-      <c r="O17" s="85">
+      <c r="O18" s="85">
         <v>9054.18</v>
       </c>
-      <c r="P17" s="144">
-        <f t="shared" si="3"/>
+      <c r="P18" s="144">
+        <f t="shared" si="0"/>
         <v>3.4194151209717583E-2</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>12</v>
       </c>
-      <c r="W17">
+      <c r="W18">
         <v>34.380000000000003</v>
       </c>
-      <c r="X17">
-        <f>X22</f>
+      <c r="X18">
+        <f>X23</f>
         <v>15</v>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <v>63.1</v>
       </c>
-      <c r="Z17">
+      <c r="Z18">
         <v>68</v>
       </c>
-      <c r="AA17">
+      <c r="AA18">
         <v>12.46</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="84">
+    <row r="19" spans="1:27">
+      <c r="A19" s="84">
         <v>45357</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B19" s="82">
         <v>161</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>2150.9</v>
       </c>
-      <c r="D18">
-        <f>D22</f>
+      <c r="D19">
+        <f>D23</f>
         <v>1110</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>31.293399999999998</v>
       </c>
-      <c r="F18">
-        <f>F22</f>
+      <c r="F19">
+        <f>F23</f>
         <v>321.99</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>34.006500000000003</v>
       </c>
-      <c r="H18">
-        <f>H22</f>
+      <c r="H19">
+        <f>H23</f>
         <v>50000</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>0.99397100000000005</v>
       </c>
-      <c r="J18">
-        <f>J22</f>
+      <c r="J19">
+        <f>J23</f>
         <v>75000</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>0.99397100000000005</v>
       </c>
-      <c r="L18" s="83">
+      <c r="L19" s="83">
         <f t="shared" si="2"/>
         <v>551296.63907100004</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>156.16</v>
       </c>
-      <c r="O18" s="85">
+      <c r="O19" s="85">
         <v>8744.58</v>
       </c>
-      <c r="P18" s="144">
-        <f t="shared" si="3"/>
+      <c r="P19" s="144">
+        <f t="shared" si="0"/>
         <v>-1.3258498407013208E-2</v>
       </c>
-      <c r="T18">
-        <f>T22</f>
+      <c r="T19">
+        <f>T23</f>
         <v>57</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <v>580.05924800000003</v>
       </c>
-      <c r="V18">
+      <c r="V19">
         <v>12</v>
       </c>
-      <c r="W18">
+      <c r="W19">
         <v>31.26</v>
       </c>
-      <c r="X18">
-        <f>X22</f>
+      <c r="X19">
+        <f>X23</f>
         <v>15</v>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <v>57.4</v>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <v>68</v>
       </c>
-      <c r="AA18">
+      <c r="AA19">
         <v>11.33</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="84">
+    <row r="20" spans="1:27">
+      <c r="A20" s="84">
         <v>45356</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B20" s="82">
         <v>161</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2116.34</v>
       </c>
-      <c r="D19">
-        <f>D22</f>
+      <c r="D20">
+        <f>D23</f>
         <v>1110</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>31.079899999999999</v>
       </c>
-      <c r="F19">
-        <f>F22</f>
+      <c r="F20">
+        <f>F23</f>
         <v>321.99</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>33.721699999999998</v>
       </c>
-      <c r="H19">
-        <f>H22</f>
+      <c r="H20">
+        <f>H23</f>
         <v>50000</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>1.0160309999999999</v>
       </c>
-      <c r="J19">
-        <f>J22</f>
+      <c r="J20">
+        <f>J23</f>
         <v>75000</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>1.0160309999999999</v>
       </c>
-      <c r="L19" s="83">
+      <c r="L20" s="83">
         <f t="shared" si="2"/>
         <v>549382.85210899997</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>154.22999999999999</v>
       </c>
-      <c r="O19" s="85">
+      <c r="O20" s="85">
         <v>8860.52</v>
       </c>
-      <c r="P19" s="144">
-        <f t="shared" si="3"/>
+      <c r="P20" s="144">
+        <f t="shared" si="0"/>
         <v>-5.319100910555985E-3</v>
       </c>
-      <c r="R19">
-        <f>R22</f>
+      <c r="R20">
+        <f>R23</f>
         <v>36</v>
       </c>
-      <c r="S19" s="91">
+      <c r="S20" s="91">
         <v>38.15</v>
       </c>
-      <c r="T19">
-        <f>T22</f>
+      <c r="T20">
+        <f>T23</f>
         <v>57</v>
       </c>
-      <c r="U19">
+      <c r="U20">
         <v>579.361718</v>
       </c>
-      <c r="V19">
-        <f>V22</f>
+      <c r="V20">
+        <f>V23</f>
         <v>12</v>
       </c>
-      <c r="W19">
+      <c r="W20">
         <v>28.42</v>
       </c>
-      <c r="X19">
-        <f>X22</f>
+      <c r="X20">
+        <f>X23</f>
         <v>15</v>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <v>52.2</v>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <v>68</v>
       </c>
-      <c r="AA19">
+      <c r="AA20">
         <v>11.33</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="84">
+    <row r="21" spans="1:27">
+      <c r="A21" s="84">
         <v>45355</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B21" s="82">
         <v>161</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>2072.52</v>
       </c>
-      <c r="D20">
-        <f>D22</f>
+      <c r="D21">
+        <f>D23</f>
         <v>1110</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>30.905999999999999</v>
       </c>
-      <c r="F20">
-        <f>F22</f>
+      <c r="F21">
+        <f>F23</f>
         <v>321.99</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>33.542299999999997</v>
       </c>
-      <c r="H20">
-        <f>H22</f>
+      <c r="H21">
+        <f>H23</f>
         <v>50000</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>1.041954</v>
       </c>
-      <c r="J20">
-        <f>J22</f>
+      <c r="J21">
+        <f>J23</f>
         <v>75000</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>1.041954</v>
       </c>
-      <c r="L20" s="83">
+      <c r="L21" s="83">
         <f t="shared" si="2"/>
         <v>545049.74954800005</v>
       </c>
-      <c r="O20" s="85">
+      <c r="O21" s="85">
         <v>8907.65</v>
       </c>
-      <c r="P20" s="144">
-        <f t="shared" si="3"/>
+      <c r="P21" s="144">
+        <f t="shared" si="0"/>
         <v>-2.1273848882702007E-2</v>
       </c>
-      <c r="R20">
-        <f>R22</f>
+      <c r="R21">
+        <f>R23</f>
         <v>36</v>
       </c>
-      <c r="S20">
+      <c r="S21">
         <v>34.659999999999997</v>
       </c>
-      <c r="T20">
-        <f>T22</f>
+      <c r="T21">
+        <f>T23</f>
         <v>57</v>
       </c>
-      <c r="U20">
+      <c r="U21">
         <v>578.66060300000004</v>
       </c>
-      <c r="V20">
-        <f>V22</f>
+      <c r="V21">
+        <f>V23</f>
         <v>12</v>
       </c>
-      <c r="W20">
+      <c r="W21">
         <v>25.84</v>
       </c>
-      <c r="X20">
-        <f>X22</f>
+      <c r="X21">
+        <f>X23</f>
         <v>15</v>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <v>47.46</v>
-      </c>
-      <c r="Z20">
-        <v>68</v>
-      </c>
-      <c r="AA20">
-        <v>11.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="84">
-        <v>45352</v>
-      </c>
-      <c r="B21" s="82">
-        <v>161</v>
-      </c>
-      <c r="C21">
-        <v>2018.91</v>
-      </c>
-      <c r="D21">
-        <f>D22</f>
-        <v>1110</v>
-      </c>
-      <c r="E21">
-        <v>30.7361</v>
-      </c>
-      <c r="F21">
-        <f>F22</f>
-        <v>321.99</v>
-      </c>
-      <c r="G21">
-        <v>33.225700000000003</v>
-      </c>
-      <c r="H21">
-        <f>H22</f>
-        <v>50000</v>
-      </c>
-      <c r="I21">
-        <v>1.034036</v>
-      </c>
-      <c r="J21">
-        <f>J22</f>
-        <v>75000</v>
-      </c>
-      <c r="K21">
-        <v>1.034036</v>
-      </c>
-      <c r="L21" s="83">
-        <f t="shared" si="2"/>
-        <v>534814.50418999989</v>
-      </c>
-      <c r="O21" s="85">
-        <v>9097.15</v>
-      </c>
-      <c r="P21" s="144">
-        <f t="shared" si="3"/>
-        <v>-1.0612114783201454E-2</v>
-      </c>
-      <c r="R21">
-        <f>R22</f>
-        <v>36</v>
-      </c>
-      <c r="S21">
-        <v>31.52</v>
-      </c>
-      <c r="T21">
-        <f>T22</f>
-        <v>57</v>
-      </c>
-      <c r="U21">
-        <v>576.58807100000001</v>
-      </c>
-      <c r="V21">
-        <f>V22</f>
-        <v>12</v>
-      </c>
-      <c r="W21">
-        <v>23.5</v>
-      </c>
-      <c r="X21">
-        <f>X22</f>
-        <v>15</v>
-      </c>
-      <c r="Y21">
-        <v>43.16</v>
       </c>
       <c r="Z21">
         <v>68</v>
@@ -6304,7 +6277,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="84">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B22" s="82">
         <v>161</v>
@@ -6331,32 +6304,32 @@
         <v>50000</v>
       </c>
       <c r="I22">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="J22">
         <f>J23</f>
         <v>75000</v>
       </c>
       <c r="K22">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="L22" s="83">
         <f t="shared" si="2"/>
-        <v>530894.48918999988</v>
+        <v>534814.50418999989</v>
       </c>
       <c r="O22" s="85">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="P22" s="144">
-        <f t="shared" si="3"/>
-        <v>1.428479750785594E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.0612114783201454E-2</v>
       </c>
       <c r="R22">
         <f>R23</f>
         <v>36</v>
       </c>
       <c r="S22">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="T22">
         <f>T23</f>
@@ -6370,18 +6343,25 @@
         <v>12</v>
       </c>
       <c r="W22">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="X22">
+        <f>X23</f>
         <v>15</v>
       </c>
       <c r="Y22">
-        <v>39.24</v>
+        <v>43.16</v>
+      </c>
+      <c r="Z22">
+        <v>68</v>
+      </c>
+      <c r="AA22">
+        <v>11.33</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="84">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B23" s="82">
         <v>161</v>
@@ -6390,65 +6370,75 @@
         <v>2018.91</v>
       </c>
       <c r="D23">
+        <f>D24</f>
         <v>1110</v>
       </c>
       <c r="E23">
         <v>30.7361</v>
       </c>
       <c r="F23">
+        <f>F24</f>
         <v>321.99</v>
       </c>
       <c r="G23">
         <v>33.225700000000003</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H25" si="4">H24</f>
+        <f>H24</f>
         <v>50000</v>
       </c>
       <c r="I23">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="J23">
         <f>J24</f>
         <v>75000</v>
       </c>
       <c r="K23">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="L23" s="83">
         <f t="shared" si="2"/>
-        <v>537360.00419000001</v>
+        <v>530894.48918999988</v>
       </c>
       <c r="O23" s="85">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="P23" s="144">
-        <f t="shared" si="3"/>
-        <v>-1.292378585710563E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="R23">
         <f>R24</f>
         <v>36</v>
       </c>
       <c r="S23">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="T23">
+        <f>T24</f>
         <v>57</v>
       </c>
       <c r="U23">
         <v>576.58807100000001</v>
       </c>
       <c r="V23">
+        <f>V24</f>
         <v>12</v>
       </c>
       <c r="W23">
-        <v>19.45</v>
+        <v>21.38</v>
+      </c>
+      <c r="X23">
+        <v>15</v>
+      </c>
+      <c r="Y23">
+        <v>39.24</v>
       </c>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="143">
-        <v>45349</v>
+      <c r="A24" s="84">
+        <v>45350</v>
       </c>
       <c r="B24" s="82">
         <v>161</v>
@@ -6469,34 +6459,36 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H24:H26" si="3">H25</f>
         <v>50000</v>
       </c>
       <c r="I24">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="J24">
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K24">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="L24" s="83">
         <f t="shared" si="2"/>
-        <v>536633.0191899999</v>
+        <v>537360.00419000001</v>
       </c>
       <c r="O24" s="85">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="P24" s="144">
-        <f t="shared" si="3"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" ref="P13:P27" si="4">(1-(O25/O24))</f>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="R24">
+        <f>R25</f>
         <v>36</v>
       </c>
       <c r="S24">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="T24">
         <v>57</v>
@@ -6504,10 +6496,16 @@
       <c r="U24">
         <v>576.58807100000001</v>
       </c>
+      <c r="V24">
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="143">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B25" s="82">
         <v>161</v>
@@ -6528,31 +6526,34 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="I25">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
+      </c>
+      <c r="J25">
+        <v>75000</v>
       </c>
       <c r="K25">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="L25" s="83">
         <f t="shared" si="2"/>
-        <v>454463.60418999993</v>
+        <v>536633.0191899999</v>
       </c>
       <c r="O25" s="85">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="P25" s="144">
-        <f t="shared" si="3"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="R25">
         <v>36</v>
       </c>
       <c r="S25">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="T25">
         <v>57</v>
@@ -6563,7 +6564,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="143">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B26" s="82">
         <v>161</v>
@@ -6584,30 +6585,31 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H26">
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="I26">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="K26">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="L26" s="83">
         <f t="shared" si="2"/>
-        <v>453591.29418999993</v>
+        <v>454463.60418999993</v>
       </c>
       <c r="O26" s="85">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="P26" s="144">
-        <f t="shared" si="3"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="4"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="R26">
         <v>36</v>
       </c>
       <c r="S26">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="T26">
         <v>57</v>
@@ -6617,172 +6619,227 @@
       </c>
     </row>
     <row r="27" spans="1:27">
+      <c r="A27" s="143">
+        <v>45345</v>
+      </c>
+      <c r="B27" s="82">
+        <v>161</v>
+      </c>
+      <c r="C27">
+        <v>2018.91</v>
+      </c>
+      <c r="D27">
+        <v>1110</v>
+      </c>
+      <c r="E27">
+        <v>30.7361</v>
+      </c>
+      <c r="F27">
+        <v>321.99</v>
+      </c>
+      <c r="G27">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H27">
+        <v>50000</v>
+      </c>
       <c r="I27">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="K27">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L27" s="83">
+        <f t="shared" si="2"/>
+        <v>453591.29418999993</v>
       </c>
       <c r="O27" s="85">
-        <v>9347.17</v>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="P27" s="144">
+        <f t="shared" si="4"/>
+        <v>2.8834460540633211E-3</v>
       </c>
       <c r="R27">
         <v>36</v>
       </c>
       <c r="S27">
-        <v>17.82</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T27">
+        <v>57</v>
+      </c>
+      <c r="U27">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="I28">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="K28">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="O28" s="85">
+        <v>9347.17</v>
       </c>
       <c r="R28">
         <v>36</v>
       </c>
-      <c r="S28" s="92">
-        <v>15.3</v>
-      </c>
-      <c r="W28" s="92">
-        <f>W23</f>
-        <v>19.45</v>
-      </c>
-      <c r="Y28" s="92">
-        <f>Y22</f>
-        <v>39.24</v>
-      </c>
-      <c r="AA28" s="92">
-        <f>AA21</f>
-        <v>11.33</v>
+      <c r="S28">
+        <v>17.82</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="I29">
-        <v>0.91198999999999997</v>
+        <v>0.93849000000000005</v>
       </c>
       <c r="K29">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="P29" s="145" t="e">
-        <f>SUM(P5:P28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="W29" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y29" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA29" s="92" t="s">
-        <v>60</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="R29">
+        <v>36</v>
+      </c>
+      <c r="S29" s="92">
+        <v>15.3</v>
+      </c>
+      <c r="W29" s="92">
+        <f>W24</f>
+        <v>19.45</v>
+      </c>
+      <c r="Y29" s="92">
+        <f>Y23</f>
+        <v>39.24</v>
+      </c>
+      <c r="AA29" s="92">
+        <f>AA22</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="I30">
-        <v>0.90268000000000004</v>
+        <v>0.91198999999999997</v>
       </c>
       <c r="K30">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="S30" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="W30" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y30" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA30" s="93" t="s">
-        <v>61</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="P30" s="145" t="e">
+        <f>SUM(P5:P29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y30" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA30" s="92" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="I31">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="K31">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="S31" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="W31" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA31" s="93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="I32">
         <v>0.89847999999999995</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>0.89847999999999995</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R32" t="s">
         <v>62</v>
       </c>
-      <c r="S31" s="93">
+      <c r="S32" s="93">
         <v>38</v>
       </c>
-      <c r="W31" s="93">
+      <c r="W32" s="93">
         <v>45.72</v>
       </c>
-      <c r="Y31" s="93">
+      <c r="Y32" s="93">
         <v>55.5</v>
       </c>
-      <c r="AA31" s="93">
+      <c r="AA32" s="93">
         <f>AA2</f>
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
-      <c r="I32">
+    <row r="33" spans="9:27">
+      <c r="I33">
         <v>0.88783999999999996</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>0.88783999999999996</v>
       </c>
-      <c r="S32" s="94">
+      <c r="S33" s="94">
         <f>Sayfa2!M41</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="W32" s="94">
-        <f>(W31-W23)/W23</f>
+      <c r="W33" s="94">
+        <f>(W32-W24)/W24</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="Y32" s="94">
-        <f>(Y31-Y22)/Y22</f>
+      <c r="Y33" s="94">
+        <f>(Y32-Y23)/Y23</f>
         <v>0.41437308868501521</v>
       </c>
-      <c r="AA32" s="94">
-        <f>(AA31-AA21)/AA21</f>
+      <c r="AA33" s="94">
+        <f>(AA32-AA22)/AA22</f>
         <v>0.73786407766990303</v>
       </c>
     </row>
-    <row r="33" spans="9:27">
-      <c r="I33">
+    <row r="34" spans="9:27">
+      <c r="I34">
         <v>0.86724999999999997</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="34" spans="9:27">
-      <c r="R34" s="95" t="s">
+    <row r="35" spans="9:27">
+      <c r="R35" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="S34" s="95">
+      <c r="S35" s="95">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="V34" s="95" t="s">
+      <c r="V35" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W34" s="95">
-        <f>(V23*W31)-(V5*W23)</f>
+      <c r="W35" s="95">
+        <f>(V24*W32)-(V5*W24)</f>
         <v>548.64</v>
       </c>
-      <c r="X34" s="95" t="s">
+      <c r="X35" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="Y34" s="95">
-        <f>(X22*Y31)-(X5*Y22)</f>
+      <c r="Y35" s="95">
+        <f>(X23*Y32)-(X5*Y23)</f>
         <v>832.5</v>
       </c>
-      <c r="AA34" s="95">
-        <f>(Z21*AA31)-(Z9*AA21)</f>
+      <c r="AA35" s="95">
+        <f>(Z22*AA32)-(Z10*AA22)</f>
         <v>568.48</v>
       </c>
     </row>
@@ -6796,8 +6853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6905,7 +6962,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="14">
         <f>SUM(K8:K9)</f>
-        <v>225.24850000000032</v>
+        <v>-1.3039999999996326</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -6973,7 +7030,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="147">
         <f>SUM(K8:K9)</f>
-        <v>225.24850000000032</v>
+        <v>-1.3039999999996326</v>
       </c>
       <c r="L7" s="19">
         <f ca="1">K7/E7</f>
@@ -6996,7 +7053,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <f>K5/B7</f>
-        <v>2.2524850000000032</v>
+        <v>-1.3039999999996325E-2</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="149" t="s">
@@ -7011,24 +7068,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="17">
         <f>SUBTOTAL(109,I13:I20)</f>
-        <v>5656.6584999999995</v>
+        <v>5430.1059999999998</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="18">
         <f>SUBTOTAL(109,K13:K20)</f>
-        <v>-340.42149999999987</v>
+        <v>-566.97399999999982</v>
       </c>
       <c r="L8" s="19">
         <f>K8/E8</f>
-        <v>-5.6764542077144188E-2</v>
+        <v>-9.4541676949448705E-2</v>
       </c>
       <c r="M8" s="20">
         <f>SUBTOTAL(101,M13:M19)</f>
-        <v>-5.2958087138674698E-2</v>
+        <v>-9.4436799956077608E-2</v>
       </c>
       <c r="N8" s="20">
         <f>SUBTOTAL(101,N13:N19)</f>
-        <v>-2.8787315938971755E-2</v>
+        <v>-4.8443247594359716E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -7261,7 +7318,7 @@
       </c>
       <c r="O14" s="41">
         <f>SUM(O15:O18)</f>
-        <v>-340.42149999999987</v>
+        <v>-566.97399999999982</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -7324,19 +7381,19 @@
         <v>26</v>
       </c>
       <c r="H16" s="1">
-        <v>47.24</v>
+        <v>44</v>
       </c>
       <c r="I16" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>1228.24</v>
+        <v>1144</v>
       </c>
       <c r="J16" s="22">
         <f>H16-D16</f>
-        <v>-7.8399999999999963</v>
+        <v>-11.079999999999998</v>
       </c>
       <c r="K16" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-203.83999999999992</v>
+        <v>-288.07999999999993</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
@@ -7344,11 +7401,11 @@
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-0.14233841684822071</v>
+        <v>-0.20116194625998543</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-4.2701525054466213E-2</v>
+        <v>-6.0348583877995632E-2</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -7386,19 +7443,19 @@
         <v>9</v>
       </c>
       <c r="H17" s="46">
-        <v>134.69999999999999</v>
+        <v>130</v>
       </c>
       <c r="I17" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>1212.3</v>
+        <v>1170</v>
       </c>
       <c r="J17" s="29">
         <f>H17-D17</f>
-        <v>4.6999999999999886</v>
+        <v>0</v>
       </c>
       <c r="K17" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>42.299999999999898</v>
+        <v>0</v>
       </c>
       <c r="L17" s="48">
         <f>F17-B17</f>
@@ -7406,11 +7463,11 @@
       </c>
       <c r="M17" s="20">
         <f>K17/E17</f>
-        <v>3.6153846153846064E-2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="20">
         <f>M17/L17*30</f>
-        <v>1.084615384615382E-2</v>
+        <v>0</v>
       </c>
       <c r="O17" s="43"/>
       <c r="P17" s="1"/>
@@ -7449,19 +7506,19 @@
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!K5</f>
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="I18" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>3216.1185</v>
+        <v>3116.1059999999998</v>
       </c>
       <c r="J18" s="29">
         <f>H18-D18</f>
-        <v>-5.110899999999996E-2</v>
+        <v>-7.9683999999999977E-2</v>
       </c>
       <c r="K18" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-178.88149999999985</v>
+        <v>-278.89399999999989</v>
       </c>
       <c r="L18" s="48">
         <f>F18-B18</f>
@@ -7469,15 +7526,15 @@
       </c>
       <c r="M18" s="20">
         <f>K18/E18</f>
-        <v>-5.2689690721649439E-2</v>
+        <v>-8.2148453608247393E-2</v>
       </c>
       <c r="N18" s="20">
         <f>M18/L18*30</f>
-        <v>-5.4506576608602871E-2</v>
+        <v>-8.4981158905083509E-2</v>
       </c>
       <c r="O18" s="51">
         <f>SUM(K15:K18)</f>
-        <v>-340.42149999999987</v>
+        <v>-566.97399999999982</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525B01A2-9202-41B5-9976-22FB16894C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502AD02-80E8-4C50-819F-E2A1A295B6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1991,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2031,11 +2031,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>242616.68290700001</v>
+        <v>242408.73834700003</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>154.1402051505718</v>
+        <v>153.81265123540612</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2081,24 +2081,24 @@
       <c r="H5" s="166"/>
       <c r="I5" s="191">
         <f>SUM(I11:I25)</f>
-        <v>514633.2746</v>
+        <v>514425.33004000009</v>
       </c>
       <c r="J5" s="163"/>
       <c r="K5" s="192">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>226398.00552000001</v>
+        <v>226190.06096000003</v>
       </c>
       <c r="L5" s="193">
         <f>K5/E5</f>
-        <v>0.78546253636005592</v>
+        <v>0.78474109598718378</v>
       </c>
       <c r="M5" s="180">
         <f>SUBTOTAL(101,M10:M16)</f>
-        <v>-0.13805357333482909</v>
+        <v>-0.16282234911758686</v>
       </c>
       <c r="N5" s="180">
         <f>SUBTOTAL(101,N10:N16)</f>
-        <v>-0.13575897262543513</v>
+        <v>-0.14993698604620503</v>
       </c>
       <c r="O5" s="164"/>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="44">
         <f>$B$2</f>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G15" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="46">
         <f>Sayfa4!I2</f>
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="I15" s="25">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>66773.7</v>
+        <v>64854.899999999994</v>
       </c>
       <c r="J15" s="29">
         <f>H15-D15</f>
-        <v>-0.17411900000000002</v>
+        <v>-0.19970300000000007</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-13058.925000000001</v>
+        <v>-14977.725000000006</v>
       </c>
       <c r="L15" s="48">
         <f>F15-B15</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M15" s="20">
         <f>K15/E15</f>
-        <v>-0.16357880002066827</v>
+        <v>-0.18761408634627769</v>
       </c>
       <c r="N15" s="20">
         <f>M15/L15*30</f>
-        <v>-0.16921944829724306</v>
+        <v>-0.18156201904478486</v>
       </c>
       <c r="O15" s="43"/>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F16" s="44">
         <f>$B$2</f>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G16" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2341,35 +2341,35 @@
       </c>
       <c r="H16" s="46">
         <f>H15</f>
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="I16" s="25">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>44515.8</v>
+        <v>43236.6</v>
       </c>
       <c r="J16" s="29">
         <f>H16-D16</f>
-        <v>-0.11288899999999991</v>
+        <v>-0.13847299999999996</v>
       </c>
       <c r="K16" s="47">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-5644.4499999999953</v>
+        <v>-6923.6499999999978</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-0.1125283466489899</v>
+        <v>-0.13803061188889607</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-0.10229849695362719</v>
+        <v>-0.11831195304762521</v>
       </c>
       <c r="O16" s="51">
         <f>SUM(K13:K16)</f>
-        <v>-18703.374999999996</v>
+        <v>-21901.375000000004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2408,50 +2408,50 @@
       </c>
       <c r="F18" s="44">
         <f t="shared" ref="F18:F25" si="0">$B$2</f>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G18" s="45">
         <v>50</v>
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!C5</f>
-        <v>2221.81</v>
+        <v>2240.09</v>
       </c>
       <c r="I18" s="25">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>111090.5</v>
+        <v>112004.5</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>395.28</v>
+        <v>413.56000000000017</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>19764</v>
+        <v>20678.000000000007</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.2164103518693917</v>
+        <v>0.22641839991678217</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>4.1090573139757919E-2</v>
+        <v>4.2453449984396652E-2</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>111090.5</v>
+        <v>112004.5</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>55.545250000000003</v>
+        <v>56.002249999999997</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2473,50 +2473,50 @@
       </c>
       <c r="F19" s="44">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G19" s="45">
         <v>11</v>
       </c>
       <c r="H19" s="46">
         <f>H18</f>
-        <v>2221.81</v>
+        <v>2240.09</v>
       </c>
       <c r="I19" s="25">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>24439.91</v>
+        <v>24640.99</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" si="1"/>
-        <v>1819.71</v>
+        <v>1837.9900000000002</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>20016.810000000001</v>
+        <v>20217.890000000003</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="2"/>
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="M19" s="20">
         <f t="shared" si="3"/>
-        <v>4.5255160407858739</v>
+        <v>4.5709773688137281</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="4"/>
-        <v>0.1198283152900055</v>
+        <v>0.12081878507877694</v>
       </c>
       <c r="O19" s="43"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>24439.91</v>
+        <v>24640.99</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.219955000000001</v>
+        <v>12.320495000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2538,50 +2538,50 @@
       </c>
       <c r="F20" s="44">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G20" s="45">
         <v>50</v>
       </c>
       <c r="H20" s="46">
         <f>H19</f>
-        <v>2221.81</v>
+        <v>2240.09</v>
       </c>
       <c r="I20" s="25">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>111090.5</v>
+        <v>112004.5</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>1752.9499999999998</v>
+        <v>1771.23</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>87647.499999999985</v>
+        <v>88561.5</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="2"/>
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" si="3"/>
-        <v>3.7387493068293303</v>
+        <v>3.7777374909354604</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="4"/>
-        <v>8.6745923592327856E-2</v>
+        <v>8.7515154230165107E-2</v>
       </c>
       <c r="O20" s="43"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>111090.5</v>
+        <v>112004.5</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>55.545250000000003</v>
+        <v>56.002249999999997</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F21" s="44">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G21" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2611,36 +2611,36 @@
       </c>
       <c r="H21" s="46">
         <f>H20</f>
-        <v>2221.81</v>
+        <v>2240.09</v>
       </c>
       <c r="I21" s="25">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>55545.25</v>
+        <v>56002.25</v>
       </c>
       <c r="J21" s="29">
         <f t="shared" si="1"/>
-        <v>1821.94</v>
+        <v>1840.2200000000003</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>45548.5</v>
+        <v>46005.500000000007</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="2"/>
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" si="3"/>
-        <v>4.5563308075124418</v>
+        <v>4.6020456648410741</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" si="4"/>
-        <v>0.10072949463918442</v>
+        <v>0.10159041202739678</v>
       </c>
       <c r="O21" s="43"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>123.31045500000002</v>
+        <v>124.324995</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="F22" s="44">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G22" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2670,31 +2670,31 @@
       </c>
       <c r="H22" s="46">
         <f>H21</f>
-        <v>2221.81</v>
+        <v>2240.09</v>
       </c>
       <c r="I22" s="25">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>53323.44</v>
+        <v>53762.16</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="1"/>
-        <v>1948</v>
+        <v>1966.2800000000002</v>
       </c>
       <c r="K22" s="47">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>46752</v>
+        <v>47190.720000000001</v>
       </c>
       <c r="L22" s="48">
         <f t="shared" si="2"/>
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" si="3"/>
-        <v>7.1144224097001567</v>
+        <v>7.1811840327234213</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="4"/>
-        <v>0.13559890234498392</v>
+        <v>0.13669766559752705</v>
       </c>
       <c r="O22" s="43"/>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="F23" s="44">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G23" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2725,40 +2725,40 @@
       </c>
       <c r="H23" s="46">
         <f>H22</f>
-        <v>2221.81</v>
+        <v>2240.09</v>
       </c>
       <c r="I23" s="25">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>2221.81</v>
+        <v>2240.09</v>
       </c>
       <c r="J23" s="29">
         <f t="shared" si="1"/>
-        <v>1984.22</v>
+        <v>2002.5000000000002</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>1984.22</v>
+        <v>2002.5000000000002</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="2"/>
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" si="3"/>
-        <v>8.3514457679195253</v>
+        <v>8.4283850330401116</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="4"/>
-        <v>0.15917622175196047</v>
+        <v>0.16043880139035746</v>
       </c>
       <c r="O23" s="43"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>246620.91</v>
+        <v>248649.99</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>111.07448926280895</v>
+        <v>111.98835753404913</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F24" s="44">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G24" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2788,36 +2788,36 @@
       </c>
       <c r="H24" s="46">
         <f>Sayfa4!G2</f>
-        <v>34.5045</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="I24" s="25">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>10309.944600000001</v>
+        <v>10302.86304</v>
       </c>
       <c r="J24" s="29">
         <f t="shared" si="1"/>
-        <v>15.782900000000001</v>
+        <v>15.759200000000003</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4715.9305200000008</v>
+        <v>4708.8489600000012</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="2"/>
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" si="3"/>
-        <v>0.84303157849756449</v>
+        <v>0.84176566105461093</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="4"/>
-        <v>4.2649152369185393E-2</v>
+        <v>4.2441966103593826E-2</v>
       </c>
       <c r="O24" s="43"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>24662.091</v>
+        <v>24864.999</v>
       </c>
       <c r="Q24" s="56">
         <v>0.1</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F25" s="44">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G25" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2853,47 +2853,47 @@
       </c>
       <c r="H25" s="46">
         <f>Sayfa4!E2</f>
-        <v>31.821999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="I25" s="25">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>35322.42</v>
+        <v>35376.476999999999</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="1"/>
-        <v>16.821999999999999</v>
+        <v>16.870699999999999</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18672.419999999998</v>
+        <v>18726.476999999999</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="2"/>
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>1.1214666666666666</v>
+        <v>1.1247133333333332</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="4"/>
-        <v>5.5794361525704807E-2</v>
+        <v>5.5770909090909086E-2</v>
       </c>
       <c r="O25" s="51">
         <f>SUM(K18:K25)</f>
-        <v>245101.38052000001</v>
+        <v>248091.43596000003</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>271283.00099999999</v>
+        <v>273514.989</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>135.64150050000001</v>
+        <v>136.75749450000001</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>107.22648260869565</v>
+        <v>108.10869130434783</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2954,7 +2954,7 @@
       <c r="P28" s="160"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>301167.53639016004</v>
+        <v>303645.40018824005</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -5009,11 +5009,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA35"/>
+  <dimension ref="A2:AA37"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P12" sqref="P12"/>
+      <selection pane="topRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5048,35 +5048,35 @@
     <row r="2" spans="1:27">
       <c r="A2" s="84">
         <f>A5</f>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2221.81</v>
+        <v>2240.09</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>31.821999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>34.5045</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="K2">
         <f>I5</f>
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="M2" s="85">
         <f>Sayfa2!D3</f>
-        <v>154.1402051505718</v>
+        <v>153.81265123540612</v>
       </c>
       <c r="N2" s="86">
         <f>Sayfa2!K2</f>
-        <v>242616.68290700001</v>
+        <v>242408.73834700003</v>
       </c>
       <c r="S2">
         <f>S5</f>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>AA10</f>
+        <f>AA12</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5152,1121 +5152,1064 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="84">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B5" s="82">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2221.81</v>
+        <v>2240.09</v>
       </c>
       <c r="D5">
-        <f>D22</f>
+        <f>D24</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>31.821999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="F5">
-        <f>F22</f>
+        <f>F24</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>34.5045</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="H5">
-        <f>H22</f>
+        <f>H24</f>
         <v>50000</v>
       </c>
       <c r="I5">
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="J5">
-        <f>J22</f>
+        <f>J24</f>
         <v>75000</v>
       </c>
       <c r="K5" s="146">
-        <f>I5</f>
-        <v>0.890316</v>
+        <f t="shared" ref="K5:K12" si="0">I5</f>
+        <v>0.86473199999999995</v>
       </c>
       <c r="L5" s="83">
-        <f>(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z10*AA10)+(J5*K5)</f>
-        <v>516772.35395499994</v>
+        <f>(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z12*AA12)+(J5*K5)</f>
+        <v>516563.85979200003</v>
       </c>
       <c r="M5">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="N5">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="O5" s="85"/>
       <c r="P5" s="144" t="e">
-        <f>(1-(O11/O5))</f>
+        <f>(1-(O13/O5))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="84">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B6" s="82">
         <v>161</v>
       </c>
       <c r="C6">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="D6">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E6">
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="F6">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G6">
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="H6">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I6">
-        <v>0.91889100000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="J6">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K6" s="146">
-        <f>I6</f>
-        <v>0.91889100000000001</v>
+        <f t="shared" ref="K6:K7" si="1">I6</f>
+        <v>0.85899999999999999</v>
       </c>
       <c r="L6" s="83">
-        <f>(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z11*AA11)+(J6*K6)</f>
-        <v>519281.29173699999</v>
+        <f>(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z13*AA13)+(J6*K6)</f>
+        <v>513956.05395500001</v>
       </c>
       <c r="M6">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="N6">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="O6" s="85">
-        <v>9029.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="P6" s="144">
-        <f>(1-(O7/O6))</f>
-        <v>-9.0947551216142841E-3</v>
+        <f>(1-(O14/O6))</f>
+        <v>-2.4958213727699352E-3</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="84">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B7" s="82">
         <v>161</v>
       </c>
       <c r="C7">
-        <v>2212.11</v>
+        <v>2227.25</v>
       </c>
       <c r="D7">
-        <f>D23</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E7">
-        <v>31.710699999999999</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="F7">
-        <f>F23</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G7">
-        <v>34.336300000000001</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="H7">
-        <f>H23</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I7">
-        <v>0.93062100000000003</v>
+        <v>0.890316</v>
       </c>
       <c r="J7">
-        <f>J23</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K7" s="146">
-        <f>I7</f>
-        <v>0.93062100000000003</v>
+        <f t="shared" si="1"/>
+        <v>0.890316</v>
       </c>
       <c r="L7" s="83">
-        <f>(B7*C7)+(D7*E7)+(F7*G7)+(T7*U7)+(H7*I7)+(R7*S7)+(V7*W7)+(X7*Y7)+(Z11*AA11)+(J7*K7)</f>
-        <v>520293.43723700003</v>
+        <f>(B7*C7)+(D7*E7)+(F7*G7)+(T7*U7)+(H7*I7)+(R7*S7)+(V7*W7)+(X7*Y7)+(Z14*AA14)+(J7*K7)</f>
+        <v>517363.07854099997</v>
       </c>
       <c r="M7">
-        <v>156.63999999999999</v>
+        <v>154.24</v>
       </c>
       <c r="N7">
-        <v>245919.31</v>
-      </c>
-      <c r="O7">
-        <v>9111.5</v>
+        <v>242616.68</v>
+      </c>
+      <c r="O7" s="85">
+        <v>8807.3799999999992</v>
       </c>
       <c r="P7" s="144">
-        <f t="shared" ref="P7:P23" si="0">(1-(O8/O7))</f>
-        <v>-3.2047412610438641E-3</v>
+        <f>(1-(O15/O7))</f>
+        <v>-8.6450226968748378E-3</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="84">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B8" s="82">
         <v>161</v>
       </c>
       <c r="C8">
-        <v>2267.61</v>
+        <v>2214.31</v>
       </c>
       <c r="D8">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E8">
-        <v>32.063899999999997</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="F8">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G8">
-        <v>35.065100000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="H8">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I8">
-        <v>0.94166499999999997</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="J8">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K8" s="146">
-        <f>I8</f>
-        <v>0.94166499999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.91889100000000001</v>
       </c>
       <c r="L8" s="83">
-        <f>(B8*C8)+(D8*E8)+(F8*G8)+(T8*U8)+(H8*I8)+(R8*S8)+(V8*W8)+(X8*Y8)+(Z11*AA11)+(J8*K8)</f>
-        <v>531236.15554900002</v>
+        <f>(B8*C8)+(D8*E8)+(F8*G8)+(T8*U8)+(H8*I8)+(R8*S8)+(V8*W8)+(X8*Y8)+(Z13*AA13)+(J8*K8)</f>
+        <v>519281.29173699999</v>
       </c>
       <c r="M8">
-        <v>163.91</v>
+        <v>155.99</v>
       </c>
       <c r="N8">
-        <v>256845.12</v>
+        <v>244906</v>
       </c>
       <c r="O8" s="85">
-        <v>9140.7000000000007</v>
+        <v>9029.3799999999992</v>
       </c>
       <c r="P8" s="144">
-        <f t="shared" si="0"/>
-        <v>2.0302602645311585E-2</v>
+        <f>(1-(O9/O8))</f>
+        <v>-9.0947551216142841E-3</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="84">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B9" s="82">
         <v>161</v>
       </c>
       <c r="C9">
-        <v>2220.92</v>
+        <v>2212.11</v>
       </c>
       <c r="D9">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E9">
-        <v>32.028799999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="F9">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G9">
-        <v>34.808799999999998</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="H9">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I9">
-        <v>0.93470600000000004</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="J9">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K9" s="146">
-        <f>I9</f>
-        <v>0.93470600000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.93062100000000003</v>
       </c>
       <c r="L9" s="83">
-        <f t="shared" ref="L9:L12" si="1">(B9*C9)+(D9*E9)+(F9*G9)+(T9*U9)+(H9*I9)+(R9*S9)+(V9*W9)+(X9*Y9)+(Z9*AA9)+(J9*K9)</f>
-        <v>521166.42351200001</v>
+        <f>(B9*C9)+(D9*E9)+(F9*G9)+(T9*U9)+(H9*I9)+(R9*S9)+(V9*W9)+(X9*Y9)+(Z13*AA13)+(J9*K9)</f>
+        <v>520293.43723700003</v>
       </c>
       <c r="M9">
-        <v>158.47999999999999</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="N9">
-        <v>248342.62</v>
-      </c>
-      <c r="O9" s="85">
-        <v>8955.1200000000008</v>
+        <v>245919.31</v>
+      </c>
+      <c r="O9">
+        <v>9111.5</v>
       </c>
       <c r="P9" s="144">
-        <f t="shared" si="0"/>
-        <v>2.8184993612594411E-3</v>
+        <f t="shared" ref="P9:P25" si="2">(1-(O10/O9))</f>
+        <v>-3.2047412610438641E-3</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="84">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B10" s="82">
         <v>161</v>
       </c>
       <c r="C10">
-        <v>2219.02</v>
+        <v>2267.61</v>
       </c>
       <c r="D10">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E10">
-        <v>32.087800000000001</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="F10">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G10">
-        <v>34.799100000000003</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="H10">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I10">
-        <v>0.90033600000000003</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="J10">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K10" s="146">
-        <f>I10</f>
-        <v>0.90033600000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.94166499999999997</v>
       </c>
       <c r="L10" s="83">
-        <f t="shared" si="1"/>
-        <v>517965.56020899996</v>
+        <f>(B10*C10)+(D10*E10)+(F10*G10)+(T10*U10)+(H10*I10)+(R10*S10)+(V10*W10)+(X10*Y10)+(Z13*AA13)+(J10*K10)</f>
+        <v>531236.15554900002</v>
       </c>
       <c r="M10">
-        <v>155.59</v>
+        <v>163.91</v>
       </c>
       <c r="N10">
-        <v>243803.06</v>
+        <v>256845.12</v>
       </c>
       <c r="O10" s="85">
-        <v>8929.8799999999992</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="P10" s="144">
-        <f t="shared" si="0"/>
-        <v>2.3714764364134666E-2</v>
-      </c>
-      <c r="Z10">
-        <v>68</v>
-      </c>
-      <c r="AA10">
-        <v>19.690000000000001</v>
+        <f t="shared" si="2"/>
+        <v>2.0302602645311585E-2</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="84">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B11" s="82">
         <v>161</v>
       </c>
       <c r="C11">
-        <v>2212.35</v>
+        <v>2220.92</v>
       </c>
       <c r="D11">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E11">
-        <v>31.9499</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="F11">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G11">
-        <v>34.8125</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="H11">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I11">
-        <v>0.93887900000000002</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="J11">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
-      <c r="K11">
-        <v>0.93887900000000002</v>
+      <c r="K11" s="146">
+        <f t="shared" si="0"/>
+        <v>0.93470600000000004</v>
       </c>
       <c r="L11" s="83">
-        <f t="shared" si="1"/>
-        <v>521783.17087500001</v>
+        <f t="shared" ref="L11:L14" si="3">(B11*C11)+(D11*E11)+(F11*G11)+(T11*U11)+(H11*I11)+(R11*S11)+(V11*W11)+(X11*Y11)+(Z11*AA11)+(J11*K11)</f>
+        <v>521166.42351200001</v>
       </c>
       <c r="M11">
-        <v>155.44</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="N11">
-        <v>247623.17</v>
+        <v>248342.62</v>
       </c>
       <c r="O11" s="85">
-        <v>8718.11</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="P11" s="144">
-        <f t="shared" si="0"/>
-        <v>-1.2685088855267868E-2</v>
-      </c>
-      <c r="Z11">
-        <v>68</v>
-      </c>
-      <c r="AA11">
-        <v>22.96</v>
+        <f t="shared" si="2"/>
+        <v>2.8184993612594411E-3</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="84">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B12" s="82">
         <v>161</v>
       </c>
       <c r="C12">
-        <v>2213.54</v>
+        <v>2219.02</v>
       </c>
       <c r="D12">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E12">
-        <v>31.796299999999999</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="F12">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G12">
-        <v>34.619700000000002</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="H12">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I12">
-        <v>0.94838599999999995</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="J12">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
-      <c r="K12">
-        <v>0.94838599999999995</v>
+      <c r="K12" s="146">
+        <f t="shared" si="0"/>
+        <v>0.90033600000000003</v>
       </c>
       <c r="L12" s="83">
-        <f t="shared" si="1"/>
-        <v>522868.00020299997</v>
+        <f t="shared" si="3"/>
+        <v>517965.56020899996</v>
       </c>
       <c r="M12">
-        <v>156.13</v>
+        <v>155.59</v>
       </c>
       <c r="N12">
-        <v>248712.47</v>
+        <v>243803.06</v>
       </c>
       <c r="O12" s="85">
-        <v>8828.7000000000007</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="P12" s="144">
-        <f t="shared" si="0"/>
-        <v>-6.2092946866469934E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="Z12">
         <v>68</v>
       </c>
       <c r="AA12">
-        <v>22.04</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="84">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B13" s="82">
         <v>161</v>
       </c>
       <c r="C13">
-        <v>2222.88</v>
+        <v>2212.35</v>
       </c>
       <c r="D13">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E13">
-        <v>31.775700000000001</v>
+        <v>31.9499</v>
       </c>
       <c r="F13">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G13">
-        <v>34.762500000000003</v>
+        <v>34.8125</v>
       </c>
       <c r="H13">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I13">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="J13">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K13">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="L13" s="83">
-        <f t="shared" ref="L13:L27" si="2">(B13*C13)+(D13*E13)+(F13*G13)+(T13*U13)+(H13*I13)+(R13*S13)+(V13*W13)+(X13*Y13)+(Z13*AA13)+(J13*K13)</f>
-        <v>524610.95937499998</v>
+        <f t="shared" si="3"/>
+        <v>521783.17087500001</v>
       </c>
       <c r="M13">
-        <v>157.21</v>
+        <v>155.44</v>
       </c>
       <c r="N13">
-        <v>250427.64</v>
+        <v>247623.17</v>
       </c>
       <c r="O13" s="85">
-        <v>8883.52</v>
+        <v>8718.11</v>
       </c>
       <c r="P13" s="144">
-        <f t="shared" si="0"/>
-        <v>-3.0066910413888426E-3</v>
+        <f t="shared" si="2"/>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="Z13">
         <v>68</v>
       </c>
       <c r="AA13">
-        <v>20.399999999999999</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="84">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B14" s="82">
         <v>161</v>
       </c>
       <c r="C14">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="D14">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="F14">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G14">
-        <v>35</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="H14">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I14">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="J14">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K14">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="L14" s="83">
+        <f t="shared" si="3"/>
+        <v>522868.00020299997</v>
+      </c>
+      <c r="M14">
+        <v>156.13</v>
+      </c>
+      <c r="N14">
+        <v>248712.47</v>
+      </c>
+      <c r="O14" s="85">
+        <v>8828.7000000000007</v>
+      </c>
+      <c r="P14" s="144">
         <f t="shared" si="2"/>
-        <v>525154.25500000012</v>
-      </c>
-      <c r="M14">
-        <v>160.79</v>
-      </c>
-      <c r="N14">
-        <v>250989.9</v>
-      </c>
-      <c r="O14" s="85">
-        <v>8910.23</v>
-      </c>
-      <c r="P14" s="144">
-        <f t="shared" si="0"/>
-        <v>-1.7822211098927898E-2</v>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="Z14">
         <v>68</v>
       </c>
       <c r="AA14">
-        <v>18.22</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="84">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B15" s="82">
         <v>161</v>
       </c>
       <c r="C15">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="D15">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E15">
-        <v>31.516400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="F15">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G15">
-        <v>34.463200000000001</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="H15">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I15">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="J15">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K15">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="L15" s="83">
+        <f t="shared" ref="L15:L29" si="4">(B15*C15)+(D15*E15)+(F15*G15)+(T15*U15)+(H15*I15)+(R15*S15)+(V15*W15)+(X15*Y15)+(Z15*AA15)+(J15*K15)</f>
+        <v>524610.95937499998</v>
+      </c>
+      <c r="M15">
+        <v>157.21</v>
+      </c>
+      <c r="N15">
+        <v>250427.64</v>
+      </c>
+      <c r="O15" s="85">
+        <v>8883.52</v>
+      </c>
+      <c r="P15" s="144">
         <f t="shared" si="2"/>
-        <v>527079.91476800013</v>
-      </c>
-      <c r="M15">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="N15">
-        <v>252645.61</v>
-      </c>
-      <c r="O15" s="85">
-        <v>9069.0300000000007</v>
-      </c>
-      <c r="P15" s="144">
-        <f t="shared" si="0"/>
-        <v>-6.8684302510850781E-3</v>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="Z15">
         <v>68</v>
       </c>
       <c r="AA15">
-        <v>16.57</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="84">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B16" s="82">
         <v>161</v>
       </c>
       <c r="C16">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="D16">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E16">
-        <v>31.571400000000001</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G16">
-        <v>34.558100000000003</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I16">
-        <v>0.99851990000000002</v>
+        <v>0.957233</v>
       </c>
       <c r="J16">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K16">
-        <v>0.99851990000000002</v>
+        <v>0.957233</v>
       </c>
       <c r="L16" s="83">
+        <f t="shared" si="4"/>
+        <v>525154.25500000012</v>
+      </c>
+      <c r="M16">
+        <v>160.79</v>
+      </c>
+      <c r="N16">
+        <v>250989.9</v>
+      </c>
+      <c r="O16" s="85">
+        <v>8910.23</v>
+      </c>
+      <c r="P16" s="144">
         <f t="shared" si="2"/>
-        <v>532801.83411900001</v>
-      </c>
-      <c r="M16">
-        <v>164.91</v>
-      </c>
-      <c r="N16">
-        <v>257088.48</v>
-      </c>
-      <c r="O16" s="85">
-        <v>9131.32</v>
-      </c>
-      <c r="P16" s="144">
-        <f t="shared" si="0"/>
-        <v>-2.6283166070184549E-3</v>
-      </c>
-      <c r="V16">
-        <v>12</v>
-      </c>
-      <c r="W16">
-        <v>41.58</v>
-      </c>
-      <c r="X16">
-        <f>X23</f>
-        <v>15</v>
-      </c>
-      <c r="Y16">
-        <v>55.55</v>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="Z16">
         <v>68</v>
       </c>
       <c r="AA16">
-        <v>15.07</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="84">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B17" s="82">
         <v>161</v>
       </c>
       <c r="C17">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="D17">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E17">
-        <v>31.402999999999999</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="F17">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G17">
-        <v>34.3643</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="H17">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I17">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="J17">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K17">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="L17" s="83">
+        <f t="shared" si="4"/>
+        <v>527079.91476800013</v>
+      </c>
+      <c r="M17">
+        <v>161.94999999999999</v>
+      </c>
+      <c r="N17">
+        <v>252645.61</v>
+      </c>
+      <c r="O17" s="85">
+        <v>9069.0300000000007</v>
+      </c>
+      <c r="P17" s="144">
         <f t="shared" si="2"/>
-        <v>525972.37595699995</v>
-      </c>
-      <c r="M17">
-        <v>160.9</v>
-      </c>
-      <c r="O17" s="85">
-        <v>9155.32</v>
-      </c>
-      <c r="P17" s="144">
-        <f t="shared" si="0"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="V17">
-        <v>12</v>
-      </c>
-      <c r="W17">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X17">
-        <f>X23</f>
-        <v>15</v>
-      </c>
-      <c r="Y17">
-        <v>57.75</v>
+        <v>-6.8684302510850781E-3</v>
       </c>
       <c r="Z17">
         <v>68</v>
       </c>
       <c r="AA17">
-        <v>13.7</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="84">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B18" s="82">
         <v>161</v>
       </c>
       <c r="C18">
-        <v>2184.79</v>
+        <v>2232.66</v>
       </c>
       <c r="D18">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E18">
-        <v>31.297000000000001</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="F18">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G18">
-        <v>34.110599999999998</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="H18">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I18">
-        <v>0.945214</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="J18">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K18">
-        <v>0.945214</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="L18" s="83">
+        <f t="shared" si="4"/>
+        <v>532801.83411900001</v>
+      </c>
+      <c r="M18">
+        <v>164.91</v>
+      </c>
+      <c r="N18">
+        <v>257088.48</v>
+      </c>
+      <c r="O18" s="85">
+        <v>9131.32</v>
+      </c>
+      <c r="P18" s="144">
         <f t="shared" si="2"/>
-        <v>517832.22209400003</v>
-      </c>
-      <c r="M18">
-        <v>155.75</v>
-      </c>
-      <c r="O18" s="85">
-        <v>9054.18</v>
-      </c>
-      <c r="P18" s="144">
-        <f t="shared" si="0"/>
-        <v>3.4194151209717583E-2</v>
+        <v>-2.6283166070184549E-3</v>
       </c>
       <c r="V18">
         <v>12</v>
       </c>
       <c r="W18">
-        <v>34.380000000000003</v>
+        <v>41.58</v>
       </c>
       <c r="X18">
-        <f>X23</f>
+        <f>X25</f>
         <v>15</v>
       </c>
       <c r="Y18">
-        <v>63.1</v>
+        <v>55.55</v>
       </c>
       <c r="Z18">
         <v>68</v>
       </c>
       <c r="AA18">
-        <v>12.46</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="84">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B19" s="82">
         <v>161</v>
       </c>
       <c r="C19">
-        <v>2150.9</v>
+        <v>2198.16</v>
       </c>
       <c r="D19">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E19">
-        <v>31.293399999999998</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="F19">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G19">
-        <v>34.006500000000003</v>
+        <v>34.3643</v>
       </c>
       <c r="H19">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I19">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="J19">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K19">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="L19" s="83">
+        <f t="shared" si="4"/>
+        <v>525972.37595699995</v>
+      </c>
+      <c r="M19">
+        <v>160.9</v>
+      </c>
+      <c r="O19" s="85">
+        <v>9155.32</v>
+      </c>
+      <c r="P19" s="144">
         <f t="shared" si="2"/>
-        <v>551296.63907100004</v>
-      </c>
-      <c r="M19">
-        <v>156.16</v>
-      </c>
-      <c r="O19" s="85">
-        <v>8744.58</v>
-      </c>
-      <c r="P19" s="144">
-        <f t="shared" si="0"/>
-        <v>-1.3258498407013208E-2</v>
-      </c>
-      <c r="T19">
-        <f>T23</f>
-        <v>57</v>
-      </c>
-      <c r="U19">
-        <v>580.05924800000003</v>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="V19">
         <v>12</v>
       </c>
       <c r="W19">
-        <v>31.26</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="X19">
-        <f>X23</f>
+        <f>X25</f>
         <v>15</v>
       </c>
       <c r="Y19">
-        <v>57.4</v>
+        <v>57.75</v>
       </c>
       <c r="Z19">
         <v>68</v>
       </c>
       <c r="AA19">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="84">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B20" s="82">
         <v>161</v>
       </c>
       <c r="C20">
-        <v>2116.34</v>
+        <v>2184.79</v>
       </c>
       <c r="D20">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E20">
-        <v>31.079899999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="F20">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G20">
-        <v>33.721699999999998</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="H20">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I20">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="J20">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K20">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="L20" s="83">
+        <f t="shared" si="4"/>
+        <v>517832.22209400003</v>
+      </c>
+      <c r="M20">
+        <v>155.75</v>
+      </c>
+      <c r="O20" s="85">
+        <v>9054.18</v>
+      </c>
+      <c r="P20" s="144">
         <f t="shared" si="2"/>
-        <v>549382.85210899997</v>
-      </c>
-      <c r="M20">
-        <v>154.22999999999999</v>
-      </c>
-      <c r="O20" s="85">
-        <v>8860.52</v>
-      </c>
-      <c r="P20" s="144">
-        <f t="shared" si="0"/>
-        <v>-5.319100910555985E-3</v>
-      </c>
-      <c r="R20">
-        <f>R23</f>
-        <v>36</v>
-      </c>
-      <c r="S20" s="91">
-        <v>38.15</v>
-      </c>
-      <c r="T20">
-        <f>T23</f>
-        <v>57</v>
-      </c>
-      <c r="U20">
-        <v>579.361718</v>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="V20">
-        <f>V23</f>
         <v>12</v>
       </c>
       <c r="W20">
-        <v>28.42</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="X20">
-        <f>X23</f>
+        <f>X25</f>
         <v>15</v>
       </c>
       <c r="Y20">
-        <v>52.2</v>
+        <v>63.1</v>
       </c>
       <c r="Z20">
         <v>68</v>
       </c>
       <c r="AA20">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="84">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B21" s="82">
         <v>161</v>
       </c>
       <c r="C21">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="D21">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E21">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="F21">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G21">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="H21">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I21">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="J21">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K21">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="L21" s="83">
+        <f t="shared" si="4"/>
+        <v>551296.63907100004</v>
+      </c>
+      <c r="M21">
+        <v>156.16</v>
+      </c>
+      <c r="O21" s="85">
+        <v>8744.58</v>
+      </c>
+      <c r="P21" s="144">
         <f t="shared" si="2"/>
-        <v>545049.74954800005</v>
-      </c>
-      <c r="O21" s="85">
-        <v>8907.65</v>
-      </c>
-      <c r="P21" s="144">
-        <f t="shared" si="0"/>
-        <v>-2.1273848882702007E-2</v>
-      </c>
-      <c r="R21">
-        <f>R23</f>
-        <v>36</v>
-      </c>
-      <c r="S21">
-        <v>34.659999999999997</v>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="T21">
-        <f>T23</f>
+        <f>T25</f>
         <v>57</v>
       </c>
       <c r="U21">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="V21">
-        <f>V23</f>
         <v>12</v>
       </c>
       <c r="W21">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="X21">
-        <f>X23</f>
+        <f>X25</f>
         <v>15</v>
       </c>
       <c r="Y21">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="Z21">
         <v>68</v>
@@ -6277,80 +6220,83 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="84">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B22" s="82">
         <v>161</v>
       </c>
       <c r="C22">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="D22">
-        <f>D23</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E22">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="F22">
-        <f>F23</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G22">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="H22">
-        <f>H23</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I22">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="J22">
-        <f>J23</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K22">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="L22" s="83">
+        <f t="shared" si="4"/>
+        <v>549382.85210899997</v>
+      </c>
+      <c r="M22">
+        <v>154.22999999999999</v>
+      </c>
+      <c r="O22" s="85">
+        <v>8860.52</v>
+      </c>
+      <c r="P22" s="144">
         <f t="shared" si="2"/>
-        <v>534814.50418999989</v>
-      </c>
-      <c r="O22" s="85">
-        <v>9097.15</v>
-      </c>
-      <c r="P22" s="144">
-        <f t="shared" si="0"/>
-        <v>-1.0612114783201454E-2</v>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="R22">
-        <f>R23</f>
+        <f>R25</f>
         <v>36</v>
       </c>
-      <c r="S22">
-        <v>31.52</v>
+      <c r="S22" s="91">
+        <v>38.15</v>
       </c>
       <c r="T22">
-        <f>T23</f>
+        <f>T25</f>
         <v>57</v>
       </c>
       <c r="U22">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="V22">
-        <f>V23</f>
+        <f>V25</f>
         <v>12</v>
       </c>
       <c r="W22">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="X22">
-        <f>X23</f>
+        <f>X25</f>
         <v>15</v>
       </c>
       <c r="Y22">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="Z22">
         <v>68</v>
@@ -6361,84 +6307,91 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="84">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B23" s="82">
         <v>161</v>
       </c>
       <c r="C23">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="D23">
-        <f>D24</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E23">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="F23">
-        <f>F24</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G23">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="H23">
-        <f>H24</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I23">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="J23">
-        <f>J24</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K23">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="L23" s="83">
+        <f t="shared" si="4"/>
+        <v>545049.74954800005</v>
+      </c>
+      <c r="O23" s="85">
+        <v>8907.65</v>
+      </c>
+      <c r="P23" s="144">
         <f t="shared" si="2"/>
-        <v>530894.48918999988</v>
-      </c>
-      <c r="O23" s="85">
-        <v>9193.69</v>
-      </c>
-      <c r="P23" s="144">
-        <f t="shared" si="0"/>
-        <v>1.428479750785594E-2</v>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="R23">
-        <f>R24</f>
+        <f>R25</f>
         <v>36</v>
       </c>
       <c r="S23">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="T23">
-        <f>T24</f>
+        <f>T25</f>
         <v>57</v>
       </c>
       <c r="U23">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="V23">
-        <f>V24</f>
+        <f>V25</f>
         <v>12</v>
       </c>
       <c r="W23">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="X23">
+        <f>X25</f>
         <v>15</v>
       </c>
       <c r="Y23">
-        <v>39.24</v>
+        <v>47.46</v>
+      </c>
+      <c r="Z23">
+        <v>68</v>
+      </c>
+      <c r="AA23">
+        <v>11.33</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="84">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B24" s="82">
         <v>161</v>
@@ -6447,65 +6400,82 @@
         <v>2018.91</v>
       </c>
       <c r="D24">
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E24">
         <v>30.7361</v>
       </c>
       <c r="F24">
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G24">
         <v>33.225700000000003</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H26" si="3">H25</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I24">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="J24">
         <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K24">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="L24" s="83">
+        <f t="shared" si="4"/>
+        <v>534814.50418999989</v>
+      </c>
+      <c r="O24" s="85">
+        <v>9097.15</v>
+      </c>
+      <c r="P24" s="144">
         <f t="shared" si="2"/>
-        <v>537360.00419000001</v>
-      </c>
-      <c r="O24" s="85">
-        <v>9062.36</v>
-      </c>
-      <c r="P24" s="144">
-        <f t="shared" ref="P13:P27" si="4">(1-(O25/O24))</f>
-        <v>-1.292378585710563E-2</v>
+        <v>-1.0612114783201454E-2</v>
       </c>
       <c r="R24">
         <f>R25</f>
         <v>36</v>
       </c>
       <c r="S24">
-        <v>26.06</v>
+        <v>31.52</v>
       </c>
       <c r="T24">
+        <f>T25</f>
         <v>57</v>
       </c>
       <c r="U24">
         <v>576.58807100000001</v>
       </c>
       <c r="V24">
+        <f>V25</f>
         <v>12</v>
       </c>
       <c r="W24">
-        <v>19.45</v>
+        <v>23.5</v>
+      </c>
+      <c r="X24">
+        <f>X25</f>
+        <v>15</v>
+      </c>
+      <c r="Y24">
+        <v>43.16</v>
+      </c>
+      <c r="Z24">
+        <v>68</v>
+      </c>
+      <c r="AA24">
+        <v>11.33</v>
       </c>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="143">
-        <v>45349</v>
+      <c r="A25" s="84">
+        <v>45351</v>
       </c>
       <c r="B25" s="82">
         <v>161</v>
@@ -6514,57 +6484,75 @@
         <v>2018.91</v>
       </c>
       <c r="D25">
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E25">
         <v>30.7361</v>
       </c>
       <c r="F25">
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G25">
         <v>33.225700000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I25">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="J25">
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K25">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="L25" s="83">
+        <f t="shared" si="4"/>
+        <v>530894.48918999988</v>
+      </c>
+      <c r="O25" s="85">
+        <v>9193.69</v>
+      </c>
+      <c r="P25" s="144">
         <f t="shared" si="2"/>
-        <v>536633.0191899999</v>
-      </c>
-      <c r="O25" s="85">
-        <v>9179.48</v>
-      </c>
-      <c r="P25" s="144">
-        <f t="shared" si="4"/>
-        <v>-1.6847359545420826E-2</v>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="R25">
+        <f>R26</f>
         <v>36</v>
       </c>
       <c r="S25">
-        <v>23.7</v>
+        <v>28.66</v>
       </c>
       <c r="T25">
+        <f>T26</f>
         <v>57</v>
       </c>
       <c r="U25">
         <v>576.58807100000001</v>
       </c>
+      <c r="V25">
+        <f>V26</f>
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>21.38</v>
+      </c>
+      <c r="X25">
+        <v>15</v>
+      </c>
+      <c r="Y25">
+        <v>39.24</v>
+      </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="143">
-        <v>45348</v>
+      <c r="A26" s="84">
+        <v>45350</v>
       </c>
       <c r="B26" s="82">
         <v>161</v>
@@ -6585,31 +6573,36 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H26:H28" si="5">H27</f>
         <v>50000</v>
       </c>
       <c r="I26">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
+      </c>
+      <c r="J26">
+        <f>J27</f>
+        <v>75000</v>
       </c>
       <c r="K26">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="L26" s="83">
-        <f t="shared" si="2"/>
-        <v>454463.60418999993</v>
+        <f t="shared" si="4"/>
+        <v>537360.00419000001</v>
       </c>
       <c r="O26" s="85">
-        <v>9334.1299999999992</v>
+        <v>9062.36</v>
       </c>
       <c r="P26" s="144">
-        <f t="shared" si="4"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" ref="P26:P29" si="6">(1-(O27/O26))</f>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="R26">
+        <f>R27</f>
         <v>36</v>
       </c>
       <c r="S26">
-        <v>21.56</v>
+        <v>26.06</v>
       </c>
       <c r="T26">
         <v>57</v>
@@ -6617,10 +6610,16 @@
       <c r="U26">
         <v>576.58807100000001</v>
       </c>
+      <c r="V26">
+        <v>12</v>
+      </c>
+      <c r="W26">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="143">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B27" s="82">
         <v>161</v>
@@ -6641,30 +6640,34 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H27">
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
       <c r="I27">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
+      </c>
+      <c r="J27">
+        <v>75000</v>
       </c>
       <c r="K27">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="L27" s="83">
-        <f t="shared" si="2"/>
-        <v>453591.29418999993</v>
+        <f t="shared" si="4"/>
+        <v>536633.0191899999</v>
       </c>
       <c r="O27" s="85">
-        <v>9374.2000000000007</v>
+        <v>9179.48</v>
       </c>
       <c r="P27" s="144">
-        <f t="shared" si="4"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="6"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="R27">
         <v>36</v>
       </c>
       <c r="S27">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="T27">
         <v>57</v>
@@ -6674,172 +6677,283 @@
       </c>
     </row>
     <row r="28" spans="1:27">
+      <c r="A28" s="143">
+        <v>45348</v>
+      </c>
+      <c r="B28" s="82">
+        <v>161</v>
+      </c>
+      <c r="C28">
+        <v>2018.91</v>
+      </c>
+      <c r="D28">
+        <v>1110</v>
+      </c>
+      <c r="E28">
+        <v>30.7361</v>
+      </c>
+      <c r="F28">
+        <v>321.99</v>
+      </c>
+      <c r="G28">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>50000</v>
+      </c>
       <c r="I28">
-        <v>0.97160999999999997</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="K28">
-        <v>0.97160999999999997</v>
+        <v>1.0192399999999999</v>
+      </c>
+      <c r="L28" s="83">
+        <f t="shared" si="4"/>
+        <v>454463.60418999993</v>
       </c>
       <c r="O28" s="85">
-        <v>9347.17</v>
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="P28" s="144">
+        <f t="shared" si="6"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="R28">
         <v>36</v>
       </c>
       <c r="S28">
-        <v>17.82</v>
+        <v>21.56</v>
+      </c>
+      <c r="T28">
+        <v>57</v>
+      </c>
+      <c r="U28">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="29" spans="1:27">
+      <c r="A29" s="143">
+        <v>45345</v>
+      </c>
+      <c r="B29" s="82">
+        <v>161</v>
+      </c>
+      <c r="C29">
+        <v>2018.91</v>
+      </c>
+      <c r="D29">
+        <v>1110</v>
+      </c>
+      <c r="E29">
+        <v>30.7361</v>
+      </c>
+      <c r="F29">
+        <v>321.99</v>
+      </c>
+      <c r="G29">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H29">
+        <v>50000</v>
+      </c>
       <c r="I29">
-        <v>0.93849000000000005</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="K29">
-        <v>0.93849000000000005</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L29" s="83">
+        <f t="shared" si="4"/>
+        <v>453591.29418999993</v>
+      </c>
+      <c r="O29" s="85">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="P29" s="144">
+        <f t="shared" si="6"/>
+        <v>2.8834460540633211E-3</v>
       </c>
       <c r="R29">
         <v>36</v>
       </c>
-      <c r="S29" s="92">
-        <v>15.3</v>
-      </c>
-      <c r="W29" s="92">
-        <f>W24</f>
-        <v>19.45</v>
-      </c>
-      <c r="Y29" s="92">
-        <f>Y23</f>
-        <v>39.24</v>
-      </c>
-      <c r="AA29" s="92">
-        <f>AA22</f>
-        <v>11.33</v>
+      <c r="S29">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T29">
+        <v>57</v>
+      </c>
+      <c r="U29">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="I30">
-        <v>0.91198999999999997</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="K30">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="P30" s="145" t="e">
-        <f>SUM(P5:P29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="W30" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y30" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA30" s="92" t="s">
-        <v>60</v>
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="O30" s="85">
+        <v>9347.17</v>
+      </c>
+      <c r="R30">
+        <v>36</v>
+      </c>
+      <c r="S30">
+        <v>17.82</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="I31">
-        <v>0.90268000000000004</v>
+        <v>0.93849000000000005</v>
       </c>
       <c r="K31">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="S31" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="W31" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y31" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA31" s="93" t="s">
-        <v>61</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="R31">
+        <v>36</v>
+      </c>
+      <c r="S31" s="92">
+        <v>15.3</v>
+      </c>
+      <c r="W31" s="92">
+        <f>W26</f>
+        <v>19.45</v>
+      </c>
+      <c r="Y31" s="92">
+        <f>Y25</f>
+        <v>39.24</v>
+      </c>
+      <c r="AA31" s="92">
+        <f>AA24</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="I32">
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="K32">
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="P32" s="145" t="e">
+        <f>SUM(P5:P31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y32" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA32" s="92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="9:27">
+      <c r="I33">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="K33">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="S33" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="W33" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y33" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA33" s="93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="9:27">
+      <c r="I34">
         <v>0.89847999999999995</v>
       </c>
-      <c r="K32">
+      <c r="K34">
         <v>0.89847999999999995</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R34" t="s">
         <v>62</v>
       </c>
-      <c r="S32" s="93">
+      <c r="S34" s="93">
         <v>38</v>
       </c>
-      <c r="W32" s="93">
+      <c r="W34" s="93">
         <v>45.72</v>
       </c>
-      <c r="Y32" s="93">
+      <c r="Y34" s="93">
         <v>55.5</v>
       </c>
-      <c r="AA32" s="93">
+      <c r="AA34" s="93">
         <f>AA2</f>
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="33" spans="9:27">
-      <c r="I33">
+    <row r="35" spans="9:27">
+      <c r="I35">
         <v>0.88783999999999996</v>
       </c>
-      <c r="K33">
+      <c r="K35">
         <v>0.88783999999999996</v>
       </c>
-      <c r="S33" s="94">
+      <c r="S35" s="94">
         <f>Sayfa2!M41</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="W33" s="94">
-        <f>(W32-W24)/W24</f>
+      <c r="W35" s="94">
+        <f>(W34-W26)/W26</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="Y33" s="94">
-        <f>(Y32-Y23)/Y23</f>
+      <c r="Y35" s="94">
+        <f>(Y34-Y25)/Y25</f>
         <v>0.41437308868501521</v>
       </c>
-      <c r="AA33" s="94">
-        <f>(AA32-AA22)/AA22</f>
+      <c r="AA35" s="94">
+        <f>(AA34-AA24)/AA24</f>
         <v>0.73786407766990303</v>
       </c>
     </row>
-    <row r="34" spans="9:27">
-      <c r="I34">
+    <row r="36" spans="9:27">
+      <c r="I36">
         <v>0.86724999999999997</v>
       </c>
-      <c r="K34">
+      <c r="K36">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="35" spans="9:27">
-      <c r="R35" s="95" t="s">
+    <row r="37" spans="9:27">
+      <c r="R37" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="S35" s="95">
+      <c r="S37" s="95">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="V35" s="95" t="s">
+      <c r="V37" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W35" s="95">
-        <f>(V24*W32)-(V5*W24)</f>
+      <c r="W37" s="95">
+        <f>(V26*W34)-(V5*W26)</f>
         <v>548.64</v>
       </c>
-      <c r="X35" s="95" t="s">
+      <c r="X37" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="Y35" s="95">
-        <f>(X23*Y32)-(X5*Y23)</f>
+      <c r="Y37" s="95">
+        <f>(X25*Y34)-(X5*Y25)</f>
         <v>832.5</v>
       </c>
-      <c r="AA35" s="95">
-        <f>(Z22*AA32)-(Z10*AA22)</f>
+      <c r="AA37" s="95">
+        <f>(Z24*AA34)-(Z12*AA24)</f>
         <v>568.48</v>
       </c>
     </row>
@@ -6854,7 +6968,7 @@
   <dimension ref="A1:X180"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6962,7 +7076,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="14">
         <f>SUM(K8:K9)</f>
-        <v>-1.3039999999996326</v>
+        <v>-126.84799999999984</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -7030,7 +7144,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="147">
         <f>SUM(K8:K9)</f>
-        <v>-1.3039999999996326</v>
+        <v>-126.84799999999984</v>
       </c>
       <c r="L7" s="19">
         <f ca="1">K7/E7</f>
@@ -7053,7 +7167,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <f>K5/B7</f>
-        <v>-1.3039999999996325E-2</v>
+        <v>-1.2684799999999985</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="149" t="s">
@@ -7068,24 +7182,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="17">
         <f>SUBTOTAL(109,I13:I20)</f>
-        <v>5430.1059999999998</v>
+        <v>5304.5619999999999</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="18">
         <f>SUBTOTAL(109,K13:K20)</f>
-        <v>-566.97399999999982</v>
+        <v>-692.51800000000003</v>
       </c>
       <c r="L8" s="19">
         <f>K8/E8</f>
-        <v>-9.4541676949448705E-2</v>
+        <v>-0.11547586492092819</v>
       </c>
       <c r="M8" s="20">
         <f>SUBTOTAL(101,M13:M19)</f>
-        <v>-9.4436799956077608E-2</v>
+        <v>-0.11348496278980746</v>
       </c>
       <c r="N8" s="20">
         <f>SUBTOTAL(101,N13:N19)</f>
-        <v>-4.8443247594359716E-2</v>
+        <v>-6.0615087130578942E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -7318,7 +7432,7 @@
       </c>
       <c r="O14" s="41">
         <f>SUM(O15:O18)</f>
-        <v>-566.97399999999982</v>
+        <v>-692.51800000000003</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -7443,19 +7557,19 @@
         <v>9</v>
       </c>
       <c r="H17" s="46">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I17" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>1170</v>
+        <v>1134</v>
       </c>
       <c r="J17" s="29">
         <f>H17-D17</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K17" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="L17" s="48">
         <f>F17-B17</f>
@@ -7463,11 +7577,11 @@
       </c>
       <c r="M17" s="20">
         <f>K17/E17</f>
-        <v>0</v>
+        <v>-3.0769230769230771E-2</v>
       </c>
       <c r="N17" s="20">
         <f>M17/L17*30</f>
-        <v>0</v>
+        <v>-9.2307692307692316E-3</v>
       </c>
       <c r="O17" s="43"/>
       <c r="P17" s="1"/>
@@ -7506,19 +7620,19 @@
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!K5</f>
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="I18" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>3116.1059999999998</v>
+        <v>3026.5619999999999</v>
       </c>
       <c r="J18" s="29">
         <f>H18-D18</f>
-        <v>-7.9683999999999977E-2</v>
+        <v>-0.10526800000000003</v>
       </c>
       <c r="K18" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-278.89399999999989</v>
+        <v>-368.4380000000001</v>
       </c>
       <c r="L18" s="48">
         <f>F18-B18</f>
@@ -7526,15 +7640,15 @@
       </c>
       <c r="M18" s="20">
         <f>K18/E18</f>
-        <v>-8.2148453608247393E-2</v>
+        <v>-0.10852371134020622</v>
       </c>
       <c r="N18" s="20">
         <f>M18/L18*30</f>
-        <v>-8.4981158905083509E-2</v>
+        <v>-0.11226590828297195</v>
       </c>
       <c r="O18" s="51">
         <f>SUM(K15:K18)</f>
-        <v>-566.97399999999982</v>
+        <v>-692.51800000000003</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502AD02-80E8-4C50-819F-E2A1A295B6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F9D1B1-350C-4DF0-92B7-DB5658069DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1992,7 +1992,7 @@
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2031,11 +2031,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>242408.73834700003</v>
+        <v>246268.71742700005</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>153.81265123540612</v>
+        <v>156.1627884762207</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2081,24 +2081,24 @@
       <c r="H5" s="166"/>
       <c r="I5" s="191">
         <f>SUM(I11:I25)</f>
-        <v>514425.33004000009</v>
+        <v>518285.30912000005</v>
       </c>
       <c r="J5" s="163"/>
       <c r="K5" s="192">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>226190.06096000003</v>
+        <v>230050.04004000005</v>
       </c>
       <c r="L5" s="193">
         <f>K5/E5</f>
-        <v>0.78474109598718378</v>
+        <v>0.79813286130556571</v>
       </c>
       <c r="M5" s="180">
         <f>SUBTOTAL(101,M10:M16)</f>
-        <v>-0.16282234911758686</v>
+        <v>-0.17376324714451552</v>
       </c>
       <c r="N5" s="180">
         <f>SUBTOTAL(101,N10:N16)</f>
-        <v>-0.14993698604620503</v>
+        <v>-0.15512723649500468</v>
       </c>
       <c r="O5" s="164"/>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="44">
         <f>$B$2</f>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G15" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="46">
         <f>Sayfa4!I2</f>
-        <v>0.86473199999999995</v>
+        <v>0.85343100000000005</v>
       </c>
       <c r="I15" s="25">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>64854.899999999994</v>
+        <v>64007.325000000004</v>
       </c>
       <c r="J15" s="29">
         <f>H15-D15</f>
-        <v>-0.19970300000000007</v>
+        <v>-0.21100399999999997</v>
       </c>
       <c r="K15" s="47">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-14977.725000000006</v>
+        <v>-15825.299999999997</v>
       </c>
       <c r="L15" s="48">
         <f>F15-B15</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M15" s="20">
         <f>K15/E15</f>
-        <v>-0.18761408634627769</v>
+        <v>-0.19823098639184164</v>
       </c>
       <c r="N15" s="20">
         <f>M15/L15*30</f>
-        <v>-0.18156201904478486</v>
+        <v>-0.18584154974235154</v>
       </c>
       <c r="O15" s="43"/>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F16" s="44">
         <f>$B$2</f>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G16" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2341,35 +2341,35 @@
       </c>
       <c r="H16" s="46">
         <f>H15</f>
-        <v>0.86473199999999995</v>
+        <v>0.85343100000000005</v>
       </c>
       <c r="I16" s="25">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>43236.6</v>
+        <v>42671.55</v>
       </c>
       <c r="J16" s="29">
         <f>H16-D16</f>
-        <v>-0.13847299999999996</v>
+        <v>-0.14977399999999985</v>
       </c>
       <c r="K16" s="47">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-6923.6499999999978</v>
+        <v>-7488.6999999999925</v>
       </c>
       <c r="L16" s="48">
         <f>F16-B16</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" s="20">
         <f>K16/E16</f>
-        <v>-0.13803061188889607</v>
+        <v>-0.14929550789718937</v>
       </c>
       <c r="N16" s="20">
         <f>M16/L16*30</f>
-        <v>-0.11831195304762521</v>
+        <v>-0.12441292324765781</v>
       </c>
       <c r="O16" s="51">
         <f>SUM(K13:K16)</f>
-        <v>-21901.375000000004</v>
+        <v>-23313.999999999989</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2408,50 +2408,50 @@
       </c>
       <c r="F18" s="44">
         <f t="shared" ref="F18:F25" si="0">$B$2</f>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G18" s="45">
         <v>50</v>
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!C5</f>
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="I18" s="25">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>112004.5</v>
+        <v>113666.00000000001</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>413.56000000000017</v>
+        <v>446.79000000000019</v>
       </c>
       <c r="K18" s="47">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>20678.000000000007</v>
+        <v>22339.500000000011</v>
       </c>
       <c r="L18" s="48">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.22641839991678217</v>
+        <v>0.2446113669088382</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>4.2453449984396652E-2</v>
+        <v>4.5579757809100285E-2</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>112004.5</v>
+        <v>113666.00000000001</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>56.002249999999997</v>
+        <v>56.833000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2473,50 +2473,50 @@
       </c>
       <c r="F19" s="44">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G19" s="45">
         <v>11</v>
       </c>
       <c r="H19" s="46">
         <f>H18</f>
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="I19" s="25">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>24640.99</v>
+        <v>25006.52</v>
       </c>
       <c r="J19" s="29">
         <f t="shared" si="1"/>
-        <v>1837.9900000000002</v>
+        <v>1871.2200000000003</v>
       </c>
       <c r="K19" s="47">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>20217.890000000003</v>
+        <v>20583.420000000002</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" si="2"/>
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="M19" s="20">
         <f t="shared" si="3"/>
-        <v>4.5709773688137281</v>
+        <v>4.6536185028599855</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="4"/>
-        <v>0.12081878507877694</v>
+        <v>0.12289485482904891</v>
       </c>
       <c r="O19" s="43"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>24640.99</v>
+        <v>25006.52</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.320495000000001</v>
+        <v>12.503260000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2538,50 +2538,50 @@
       </c>
       <c r="F20" s="44">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G20" s="45">
         <v>50</v>
       </c>
       <c r="H20" s="46">
         <f>H19</f>
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="I20" s="25">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>112004.5</v>
+        <v>113666.00000000001</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>1771.23</v>
+        <v>1804.46</v>
       </c>
       <c r="K20" s="47">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>88561.5</v>
+        <v>90223</v>
       </c>
       <c r="L20" s="48">
         <f t="shared" si="2"/>
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" si="3"/>
-        <v>3.7777374909354604</v>
+        <v>3.8486115258286056</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" si="4"/>
-        <v>8.7515154230165107E-2</v>
+        <v>8.9088229764551052E-2</v>
       </c>
       <c r="O20" s="43"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>112004.5</v>
+        <v>113666.00000000001</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>56.002249999999997</v>
+        <v>56.833000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F21" s="44">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G21" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2611,36 +2611,36 @@
       </c>
       <c r="H21" s="46">
         <f>H20</f>
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="I21" s="25">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>56002.25</v>
+        <v>56833.000000000007</v>
       </c>
       <c r="J21" s="29">
         <f t="shared" si="1"/>
-        <v>1840.2200000000003</v>
+        <v>1873.4500000000003</v>
       </c>
       <c r="K21" s="47">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>46005.500000000007</v>
+        <v>46836.250000000007</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="2"/>
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" si="3"/>
-        <v>4.6020456648410741</v>
+        <v>4.6851476729937236</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" si="4"/>
-        <v>0.10159041202739678</v>
+        <v>0.10334884572780273</v>
       </c>
       <c r="O21" s="43"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>124.324995</v>
+        <v>126.16926000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="F22" s="44">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G22" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2670,31 +2670,31 @@
       </c>
       <c r="H22" s="46">
         <f>H21</f>
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="I22" s="25">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>53762.16</v>
+        <v>54559.680000000008</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="1"/>
-        <v>1966.2800000000002</v>
+        <v>1999.5100000000002</v>
       </c>
       <c r="K22" s="47">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>47190.720000000001</v>
+        <v>47988.240000000005</v>
       </c>
       <c r="L22" s="48">
         <f t="shared" si="2"/>
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" si="3"/>
-        <v>7.1811840327234213</v>
+        <v>7.3025455607903291</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="4"/>
-        <v>0.13669766559752705</v>
+        <v>0.13891969995162326</v>
       </c>
       <c r="O22" s="43"/>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="F23" s="44">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G23" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2725,40 +2725,40 @@
       </c>
       <c r="H23" s="46">
         <f>H22</f>
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="I23" s="25">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="J23" s="29">
         <f t="shared" si="1"/>
-        <v>2002.5000000000002</v>
+        <v>2035.7300000000002</v>
       </c>
       <c r="K23" s="47">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>2002.5000000000002</v>
+        <v>2035.7300000000002</v>
       </c>
       <c r="L23" s="48">
         <f t="shared" si="2"/>
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" si="3"/>
-        <v>8.4283850330401116</v>
+        <v>8.5682478218780265</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="4"/>
-        <v>0.16043880139035746</v>
+        <v>0.1629977391606473</v>
       </c>
       <c r="O23" s="43"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>248649.99</v>
+        <v>252338.52000000002</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>111.98835753404913</v>
+        <v>113.64961807307054</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F24" s="44">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G24" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2788,36 +2788,36 @@
       </c>
       <c r="H24" s="46">
         <f>Sayfa4!G2</f>
-        <v>34.480800000000002</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="I24" s="25">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>10302.86304</v>
+        <v>10269.726120000001</v>
       </c>
       <c r="J24" s="29">
         <f t="shared" si="1"/>
-        <v>15.759200000000003</v>
+        <v>15.648300000000003</v>
       </c>
       <c r="K24" s="47">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4708.8489600000012</v>
+        <v>4675.7120400000013</v>
       </c>
       <c r="L24" s="48">
         <f t="shared" si="2"/>
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" si="3"/>
-        <v>0.84176566105461093</v>
+        <v>0.83584202204939773</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="4"/>
-        <v>4.2441966103593826E-2</v>
+        <v>4.2072585002486458E-2</v>
       </c>
       <c r="O24" s="43"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>24864.999</v>
+        <v>25233.852000000003</v>
       </c>
       <c r="Q24" s="56">
         <v>0.1</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F25" s="44">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G25" s="45">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2853,47 +2853,47 @@
       </c>
       <c r="H25" s="46">
         <f>Sayfa4!E2</f>
-        <v>31.870699999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="I25" s="25">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>35376.476999999999</v>
+        <v>35332.188000000002</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="1"/>
-        <v>16.870699999999999</v>
+        <v>16.8308</v>
       </c>
       <c r="K25" s="47">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18726.476999999999</v>
+        <v>18682.187999999998</v>
       </c>
       <c r="L25" s="48">
         <f t="shared" si="2"/>
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>1.1247133333333332</v>
+        <v>1.1220533333333331</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="4"/>
-        <v>5.5770909090909086E-2</v>
+        <v>5.5547194719471935E-2</v>
       </c>
       <c r="O25" s="51">
         <f>SUM(K18:K25)</f>
-        <v>248091.43596000003</v>
+        <v>253364.04004000005</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>273514.989</v>
+        <v>277572.37200000003</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>136.75749450000001</v>
+        <v>138.78618600000001</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>108.10869130434783</v>
+        <v>109.7124</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2954,7 +2954,7 @@
       <c r="P28" s="160"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>303645.40018824005</v>
+        <v>308149.74449952005</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -5009,11 +5009,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA37"/>
+  <dimension ref="A2:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N5" sqref="N5"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5048,35 +5048,35 @@
     <row r="2" spans="1:27">
       <c r="A2" s="84">
         <f>A5</f>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>31.870699999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>34.480800000000002</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>0.86473199999999995</v>
+        <v>0.85343100000000005</v>
       </c>
       <c r="K2">
         <f>I5</f>
-        <v>0.86473199999999995</v>
+        <v>0.85343100000000005</v>
       </c>
       <c r="M2" s="85">
         <f>Sayfa2!D3</f>
-        <v>153.81265123540612</v>
+        <v>156.1627884762207</v>
       </c>
       <c r="N2" s="86">
         <f>Sayfa2!K2</f>
-        <v>242408.73834700003</v>
+        <v>246268.71742700005</v>
       </c>
       <c r="S2">
         <f>S5</f>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>AA12</f>
+        <f>AA13</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5152,119 +5152,119 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="84">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="B5" s="82">
         <v>161</v>
       </c>
       <c r="C5">
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="D5">
-        <f>D24</f>
+        <f>D25</f>
         <v>1110</v>
       </c>
       <c r="E5">
-        <v>31.870699999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="F5">
-        <f>F24</f>
+        <f>F25</f>
         <v>321.99</v>
       </c>
       <c r="G5">
-        <v>34.480800000000002</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="H5">
-        <f>H24</f>
+        <f>H25</f>
         <v>50000</v>
       </c>
       <c r="I5">
-        <v>0.86473199999999995</v>
+        <v>0.85343100000000005</v>
       </c>
       <c r="J5">
-        <f>J24</f>
+        <f>J25</f>
         <v>75000</v>
       </c>
       <c r="K5" s="146">
-        <f t="shared" ref="K5:K12" si="0">I5</f>
-        <v>0.86473199999999995</v>
+        <f t="shared" ref="K5:K13" si="0">I5</f>
+        <v>0.85343100000000005</v>
       </c>
       <c r="L5" s="83">
-        <f>(B5*C5)+(D5*E5)+(F5*G5)+(T5*U5)+(H5*I5)+(R5*S5)+(V5*W5)+(X5*Y5)+(Z12*AA12)+(J5*K5)</f>
-        <v>516563.85979200003</v>
+        <f>(B5*C5)+(D5*E5)+(F5*G5)+(H5*I5)+(Z13*AA13)+(J5*K5)</f>
+        <v>520421.267101</v>
       </c>
       <c r="M5">
-        <v>153.81</v>
+        <v>156.16</v>
       </c>
       <c r="N5">
-        <v>242408.74</v>
+        <v>246268.72</v>
       </c>
       <c r="O5" s="85"/>
       <c r="P5" s="144" t="e">
-        <f>(1-(O13/O5))</f>
+        <f>(1-(O14/O5))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="84">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B6" s="82">
         <v>161</v>
       </c>
       <c r="C6">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="D6">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E6">
-        <v>31.821999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="F6">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G6">
-        <v>34.5045</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="H6">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I6">
-        <v>0.85899999999999999</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="J6">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K6" s="146">
-        <f t="shared" ref="K6:K7" si="1">I6</f>
-        <v>0.85899999999999999</v>
+        <f t="shared" ref="K6" si="1">I6</f>
+        <v>0.86473199999999995</v>
       </c>
       <c r="L6" s="83">
-        <f>(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z13*AA13)+(J6*K6)</f>
-        <v>513956.05395500001</v>
+        <f>(B6*C6)+(D6*E6)+(F6*G6)+(T6*U6)+(H6*I6)+(R6*S6)+(V6*W6)+(X6*Y6)+(Z14*AA14)+(J6*K6)</f>
+        <v>516786.21979200002</v>
       </c>
       <c r="M6">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="N6">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="O6" s="85">
-        <v>8806.7199999999993</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="P6" s="144">
-        <f>(1-(O14/O6))</f>
-        <v>-2.4958213727699352E-3</v>
+        <f>(1-(O15/O6))</f>
+        <v>2.7672998919599845E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="84">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B7" s="82">
         <v>161</v>
@@ -5277,33 +5277,33 @@
         <v>1110</v>
       </c>
       <c r="E7">
-        <v>31.530999999999999</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="F7">
         <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G7">
-        <v>34.125900000000001</v>
+        <v>34.5045</v>
       </c>
       <c r="H7">
         <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I7">
-        <v>0.890316</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="J7">
         <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K7" s="146">
-        <f t="shared" si="1"/>
-        <v>0.890316</v>
+        <f t="shared" ref="K7:K8" si="2">I7</f>
+        <v>0.85899999999999999</v>
       </c>
       <c r="L7" s="83">
         <f>(B7*C7)+(D7*E7)+(F7*G7)+(T7*U7)+(H7*I7)+(R7*S7)+(V7*W7)+(X7*Y7)+(Z14*AA14)+(J7*K7)</f>
-        <v>517363.07854099997</v>
+        <v>513956.05395500001</v>
       </c>
       <c r="M7">
         <v>154.24</v>
@@ -5312,555 +5312,550 @@
         <v>242616.68</v>
       </c>
       <c r="O7" s="85">
-        <v>8807.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="P7" s="144">
         <f>(1-(O15/O7))</f>
-        <v>-8.6450226968748378E-3</v>
+        <v>-2.4958213727699352E-3</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="84">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B8" s="82">
         <v>161</v>
       </c>
       <c r="C8">
+        <v>2227.25</v>
+      </c>
+      <c r="D8">
+        <f>D27</f>
+        <v>1110</v>
+      </c>
+      <c r="E8">
+        <v>31.530999999999999</v>
+      </c>
+      <c r="F8">
+        <f>F27</f>
+        <v>321.99</v>
+      </c>
+      <c r="G8">
+        <v>34.125900000000001</v>
+      </c>
+      <c r="H8">
+        <f>H27</f>
+        <v>50000</v>
+      </c>
+      <c r="I8">
+        <v>0.890316</v>
+      </c>
+      <c r="J8">
+        <f>J27</f>
+        <v>75000</v>
+      </c>
+      <c r="K8" s="146">
+        <f t="shared" si="2"/>
+        <v>0.890316</v>
+      </c>
+      <c r="L8" s="83">
+        <f>(B8*C8)+(D8*E8)+(F8*G8)+(T8*U8)+(H8*I8)+(R8*S8)+(V8*W8)+(X8*Y8)+(Z15*AA15)+(J8*K8)</f>
+        <v>517363.07854099997</v>
+      </c>
+      <c r="M8">
+        <v>154.24</v>
+      </c>
+      <c r="N8">
+        <v>242616.68</v>
+      </c>
+      <c r="O8" s="85">
+        <v>8807.3799999999992</v>
+      </c>
+      <c r="P8" s="144">
+        <f>(1-(O16/O8))</f>
+        <v>-8.6450226968748378E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="84">
+        <v>45376</v>
+      </c>
+      <c r="B9" s="82">
+        <v>161</v>
+      </c>
+      <c r="C9">
         <v>2214.31</v>
       </c>
-      <c r="D8">
-        <f>D25</f>
+      <c r="D9">
+        <f>D26</f>
         <v>1110</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>31.786200000000001</v>
       </c>
-      <c r="F8">
-        <f>F25</f>
+      <c r="F9">
+        <f>F26</f>
         <v>321.99</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>34.386299999999999</v>
       </c>
-      <c r="H8">
-        <f>H25</f>
+      <c r="H9">
+        <f>H26</f>
         <v>50000</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.91889100000000001</v>
       </c>
-      <c r="J8">
-        <f>J25</f>
+      <c r="J9">
+        <f>J26</f>
         <v>75000</v>
       </c>
-      <c r="K8" s="146">
+      <c r="K9" s="146">
         <f t="shared" si="0"/>
         <v>0.91889100000000001</v>
       </c>
-      <c r="L8" s="83">
-        <f>(B8*C8)+(D8*E8)+(F8*G8)+(T8*U8)+(H8*I8)+(R8*S8)+(V8*W8)+(X8*Y8)+(Z13*AA13)+(J8*K8)</f>
+      <c r="L9" s="83">
+        <f>(B9*C9)+(D9*E9)+(F9*G9)+(T9*U9)+(H9*I9)+(R9*S9)+(V9*W9)+(X9*Y9)+(Z14*AA14)+(J9*K9)</f>
         <v>519281.29173699999</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>155.99</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>244906</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O9" s="85">
         <v>9029.3799999999992</v>
       </c>
-      <c r="P8" s="144">
-        <f>(1-(O9/O8))</f>
+      <c r="P9" s="144">
+        <f>(1-(O10/O9))</f>
         <v>-9.0947551216142841E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="84">
+    <row r="10" spans="1:27">
+      <c r="A10" s="84">
         <v>45373</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B10" s="82">
         <v>161</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2212.11</v>
       </c>
-      <c r="D9">
-        <f>D25</f>
+      <c r="D10">
+        <f>D26</f>
         <v>1110</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>31.710699999999999</v>
       </c>
-      <c r="F9">
-        <f>F25</f>
+      <c r="F10">
+        <f>F26</f>
         <v>321.99</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>34.336300000000001</v>
       </c>
-      <c r="H9">
-        <f>H25</f>
+      <c r="H10">
+        <f>H26</f>
         <v>50000</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>0.93062100000000003</v>
       </c>
-      <c r="J9">
-        <f>J25</f>
+      <c r="J10">
+        <f>J26</f>
         <v>75000</v>
       </c>
-      <c r="K9" s="146">
+      <c r="K10" s="146">
         <f t="shared" si="0"/>
         <v>0.93062100000000003</v>
       </c>
-      <c r="L9" s="83">
-        <f>(B9*C9)+(D9*E9)+(F9*G9)+(T9*U9)+(H9*I9)+(R9*S9)+(V9*W9)+(X9*Y9)+(Z13*AA13)+(J9*K9)</f>
+      <c r="L10" s="83">
+        <f>(B10*C10)+(D10*E10)+(F10*G10)+(T10*U10)+(H10*I10)+(R10*S10)+(V10*W10)+(X10*Y10)+(Z14*AA14)+(J10*K10)</f>
         <v>520293.43723700003</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>156.63999999999999</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>245919.31</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>9111.5</v>
       </c>
-      <c r="P9" s="144">
-        <f t="shared" ref="P9:P25" si="2">(1-(O10/O9))</f>
+      <c r="P10" s="144">
+        <f t="shared" ref="P10:P26" si="3">(1-(O11/O10))</f>
         <v>-3.2047412610438641E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="84">
+    <row r="11" spans="1:27">
+      <c r="A11" s="84">
         <v>45372</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B11" s="82">
         <v>161</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2267.61</v>
       </c>
-      <c r="D10">
-        <f>D25</f>
+      <c r="D11">
+        <f>D26</f>
         <v>1110</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>32.063899999999997</v>
       </c>
-      <c r="F10">
-        <f>F25</f>
+      <c r="F11">
+        <f>F26</f>
         <v>321.99</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>35.065100000000001</v>
       </c>
-      <c r="H10">
-        <f>H25</f>
+      <c r="H11">
+        <f>H26</f>
         <v>50000</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>0.94166499999999997</v>
       </c>
-      <c r="J10">
-        <f>J25</f>
+      <c r="J11">
+        <f>J26</f>
         <v>75000</v>
       </c>
-      <c r="K10" s="146">
+      <c r="K11" s="146">
         <f t="shared" si="0"/>
         <v>0.94166499999999997</v>
       </c>
-      <c r="L10" s="83">
-        <f>(B10*C10)+(D10*E10)+(F10*G10)+(T10*U10)+(H10*I10)+(R10*S10)+(V10*W10)+(X10*Y10)+(Z13*AA13)+(J10*K10)</f>
+      <c r="L11" s="83">
+        <f>(B11*C11)+(D11*E11)+(F11*G11)+(T11*U11)+(H11*I11)+(R11*S11)+(V11*W11)+(X11*Y11)+(Z14*AA14)+(J11*K11)</f>
         <v>531236.15554900002</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>163.91</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>256845.12</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O11" s="85">
         <v>9140.7000000000007</v>
       </c>
-      <c r="P10" s="144">
-        <f t="shared" si="2"/>
+      <c r="P11" s="144">
+        <f t="shared" si="3"/>
         <v>2.0302602645311585E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="84">
+    <row r="12" spans="1:27">
+      <c r="A12" s="84">
         <v>45371</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B12" s="82">
         <v>161</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2220.92</v>
       </c>
-      <c r="D11">
-        <f>D25</f>
+      <c r="D12">
+        <f>D26</f>
         <v>1110</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>32.028799999999997</v>
       </c>
-      <c r="F11">
-        <f>F25</f>
+      <c r="F12">
+        <f>F26</f>
         <v>321.99</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>34.808799999999998</v>
       </c>
-      <c r="H11">
-        <f>H25</f>
+      <c r="H12">
+        <f>H26</f>
         <v>50000</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>0.93470600000000004</v>
       </c>
-      <c r="J11">
-        <f>J25</f>
+      <c r="J12">
+        <f>J26</f>
         <v>75000</v>
       </c>
-      <c r="K11" s="146">
+      <c r="K12" s="146">
         <f t="shared" si="0"/>
         <v>0.93470600000000004</v>
       </c>
-      <c r="L11" s="83">
-        <f t="shared" ref="L11:L14" si="3">(B11*C11)+(D11*E11)+(F11*G11)+(T11*U11)+(H11*I11)+(R11*S11)+(V11*W11)+(X11*Y11)+(Z11*AA11)+(J11*K11)</f>
+      <c r="L12" s="83">
+        <f t="shared" ref="L12:L15" si="4">(B12*C12)+(D12*E12)+(F12*G12)+(T12*U12)+(H12*I12)+(R12*S12)+(V12*W12)+(X12*Y12)+(Z12*AA12)+(J12*K12)</f>
         <v>521166.42351200001</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>158.47999999999999</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>248342.62</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O12" s="85">
         <v>8955.1200000000008</v>
       </c>
-      <c r="P11" s="144">
-        <f t="shared" si="2"/>
+      <c r="P12" s="144">
+        <f t="shared" si="3"/>
         <v>2.8184993612594411E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="84">
+    <row r="13" spans="1:27">
+      <c r="A13" s="84">
         <v>45370</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B13" s="82">
         <v>161</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>2219.02</v>
       </c>
-      <c r="D12">
-        <f>D25</f>
+      <c r="D13">
+        <f>D26</f>
         <v>1110</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>32.087800000000001</v>
       </c>
-      <c r="F12">
-        <f>F25</f>
+      <c r="F13">
+        <f>F26</f>
         <v>321.99</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>34.799100000000003</v>
       </c>
-      <c r="H12">
-        <f>H25</f>
+      <c r="H13">
+        <f>H26</f>
         <v>50000</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>0.90033600000000003</v>
       </c>
-      <c r="J12">
-        <f>J25</f>
+      <c r="J13">
+        <f>J26</f>
         <v>75000</v>
       </c>
-      <c r="K12" s="146">
+      <c r="K13" s="146">
         <f t="shared" si="0"/>
         <v>0.90033600000000003</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L13" s="83">
+        <f t="shared" si="4"/>
+        <v>517965.56020899996</v>
+      </c>
+      <c r="M13">
+        <v>155.59</v>
+      </c>
+      <c r="N13">
+        <v>243803.06</v>
+      </c>
+      <c r="O13" s="85">
+        <v>8929.8799999999992</v>
+      </c>
+      <c r="P13" s="144">
         <f t="shared" si="3"/>
-        <v>517965.56020899996</v>
-      </c>
-      <c r="M12">
-        <v>155.59</v>
-      </c>
-      <c r="N12">
-        <v>243803.06</v>
-      </c>
-      <c r="O12" s="85">
-        <v>8929.8799999999992</v>
-      </c>
-      <c r="P12" s="144">
-        <f t="shared" si="2"/>
         <v>2.3714764364134666E-2</v>
-      </c>
-      <c r="Z12">
-        <v>68</v>
-      </c>
-      <c r="AA12">
-        <v>19.690000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="84">
-        <v>45369</v>
-      </c>
-      <c r="B13" s="82">
-        <v>161</v>
-      </c>
-      <c r="C13">
-        <v>2212.35</v>
-      </c>
-      <c r="D13">
-        <f>D25</f>
-        <v>1110</v>
-      </c>
-      <c r="E13">
-        <v>31.9499</v>
-      </c>
-      <c r="F13">
-        <f>F25</f>
-        <v>321.99</v>
-      </c>
-      <c r="G13">
-        <v>34.8125</v>
-      </c>
-      <c r="H13">
-        <f>H25</f>
-        <v>50000</v>
-      </c>
-      <c r="I13">
-        <v>0.93887900000000002</v>
-      </c>
-      <c r="J13">
-        <f>J25</f>
-        <v>75000</v>
-      </c>
-      <c r="K13">
-        <v>0.93887900000000002</v>
-      </c>
-      <c r="L13" s="83">
-        <f t="shared" si="3"/>
-        <v>521783.17087500001</v>
-      </c>
-      <c r="M13">
-        <v>155.44</v>
-      </c>
-      <c r="N13">
-        <v>247623.17</v>
-      </c>
-      <c r="O13" s="85">
-        <v>8718.11</v>
-      </c>
-      <c r="P13" s="144">
-        <f t="shared" si="2"/>
-        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="Z13">
         <v>68</v>
       </c>
       <c r="AA13">
-        <v>22.96</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="84">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B14" s="82">
         <v>161</v>
       </c>
       <c r="C14">
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="D14">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E14">
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="F14">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G14">
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="H14">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I14">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="J14">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K14">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="L14" s="83">
+        <f t="shared" si="4"/>
+        <v>521783.17087500001</v>
+      </c>
+      <c r="M14">
+        <v>155.44</v>
+      </c>
+      <c r="N14">
+        <v>247623.17</v>
+      </c>
+      <c r="O14" s="85">
+        <v>8718.11</v>
+      </c>
+      <c r="P14" s="144">
         <f t="shared" si="3"/>
-        <v>522868.00020299997</v>
-      </c>
-      <c r="M14">
-        <v>156.13</v>
-      </c>
-      <c r="N14">
-        <v>248712.47</v>
-      </c>
-      <c r="O14" s="85">
-        <v>8828.7000000000007</v>
-      </c>
-      <c r="P14" s="144">
-        <f t="shared" si="2"/>
-        <v>-6.2092946866469934E-3</v>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="Z14">
         <v>68</v>
       </c>
       <c r="AA14">
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="84">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B15" s="82">
         <v>161</v>
       </c>
       <c r="C15">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="D15">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E15">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="F15">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G15">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="H15">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I15">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="J15">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K15">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="L15" s="83">
-        <f t="shared" ref="L15:L29" si="4">(B15*C15)+(D15*E15)+(F15*G15)+(T15*U15)+(H15*I15)+(R15*S15)+(V15*W15)+(X15*Y15)+(Z15*AA15)+(J15*K15)</f>
-        <v>524610.95937499998</v>
+        <f t="shared" si="4"/>
+        <v>522868.00020299997</v>
       </c>
       <c r="M15">
-        <v>157.21</v>
+        <v>156.13</v>
       </c>
       <c r="N15">
-        <v>250427.64</v>
+        <v>248712.47</v>
       </c>
       <c r="O15" s="85">
-        <v>8883.52</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="P15" s="144">
-        <f t="shared" si="2"/>
-        <v>-3.0066910413888426E-3</v>
+        <f t="shared" si="3"/>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="Z15">
         <v>68</v>
       </c>
       <c r="AA15">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="84">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B16" s="82">
         <v>161</v>
       </c>
       <c r="C16">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="D16">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="F16">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="H16">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I16">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="J16">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K16">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="L16" s="83">
-        <f t="shared" si="4"/>
-        <v>525154.25500000012</v>
+        <f t="shared" ref="L16:L30" si="5">(B16*C16)+(D16*E16)+(F16*G16)+(T16*U16)+(H16*I16)+(R16*S16)+(V16*W16)+(X16*Y16)+(Z16*AA16)+(J16*K16)</f>
+        <v>524610.95937499998</v>
       </c>
       <c r="M16">
-        <v>160.79</v>
+        <v>157.21</v>
       </c>
       <c r="N16">
-        <v>250989.9</v>
+        <v>250427.64</v>
       </c>
       <c r="O16" s="85">
-        <v>8910.23</v>
+        <v>8883.52</v>
       </c>
       <c r="P16" s="144">
-        <f t="shared" si="2"/>
-        <v>-1.7822211098927898E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="Z16">
         <v>68</v>
       </c>
       <c r="AA16">
-        <v>18.22</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="84">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B17" s="82">
         <v>161</v>
@@ -5869,434 +5864,409 @@
         <v>2220.3200000000002</v>
       </c>
       <c r="D17">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E17">
-        <v>31.516400000000001</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G17">
-        <v>34.463200000000001</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I17">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="J17">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K17">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="L17" s="83">
-        <f t="shared" si="4"/>
-        <v>527079.91476800013</v>
+        <f t="shared" si="5"/>
+        <v>525154.25500000012</v>
       </c>
       <c r="M17">
-        <v>161.94999999999999</v>
+        <v>160.79</v>
       </c>
       <c r="N17">
-        <v>252645.61</v>
+        <v>250989.9</v>
       </c>
       <c r="O17" s="85">
-        <v>9069.0300000000007</v>
+        <v>8910.23</v>
       </c>
       <c r="P17" s="144">
-        <f t="shared" si="2"/>
-        <v>-6.8684302510850781E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="Z17">
         <v>68</v>
       </c>
       <c r="AA17">
-        <v>16.57</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="84">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B18" s="82">
         <v>161</v>
       </c>
       <c r="C18">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="D18">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E18">
-        <v>31.571400000000001</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="F18">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G18">
-        <v>34.558100000000003</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="H18">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I18">
-        <v>0.99851990000000002</v>
+        <v>0.979213</v>
       </c>
       <c r="J18">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K18">
-        <v>0.99851990000000002</v>
+        <v>0.979213</v>
       </c>
       <c r="L18" s="83">
-        <f t="shared" si="4"/>
-        <v>532801.83411900001</v>
+        <f t="shared" si="5"/>
+        <v>527079.91476800013</v>
       </c>
       <c r="M18">
-        <v>164.91</v>
+        <v>161.94999999999999</v>
       </c>
       <c r="N18">
-        <v>257088.48</v>
+        <v>252645.61</v>
       </c>
       <c r="O18" s="85">
-        <v>9131.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="P18" s="144">
-        <f t="shared" si="2"/>
-        <v>-2.6283166070184549E-3</v>
-      </c>
-      <c r="V18">
-        <v>12</v>
-      </c>
-      <c r="W18">
-        <v>41.58</v>
-      </c>
-      <c r="X18">
-        <f>X25</f>
-        <v>15</v>
-      </c>
-      <c r="Y18">
-        <v>55.55</v>
+        <f t="shared" si="3"/>
+        <v>-6.8684302510850781E-3</v>
       </c>
       <c r="Z18">
         <v>68</v>
       </c>
       <c r="AA18">
-        <v>15.07</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="84">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B19" s="82">
         <v>161</v>
       </c>
       <c r="C19">
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="D19">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E19">
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="F19">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G19">
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="H19">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I19">
-        <v>0.99115900000000001</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="J19">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K19">
-        <v>0.99115900000000001</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="L19" s="83">
-        <f t="shared" si="4"/>
-        <v>525972.37595699995</v>
+        <f t="shared" si="5"/>
+        <v>532801.83411900001</v>
       </c>
       <c r="M19">
-        <v>160.9</v>
+        <v>164.91</v>
+      </c>
+      <c r="N19">
+        <v>257088.48</v>
       </c>
       <c r="O19" s="85">
-        <v>9155.32</v>
+        <v>9131.32</v>
       </c>
       <c r="P19" s="144">
-        <f t="shared" si="2"/>
-        <v>1.1047128882442081E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.6283166070184549E-3</v>
       </c>
       <c r="V19">
         <v>12</v>
       </c>
       <c r="W19">
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="X19">
-        <f>X25</f>
+        <f>X26</f>
         <v>15</v>
       </c>
       <c r="Y19">
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="Z19">
         <v>68</v>
       </c>
       <c r="AA19">
-        <v>13.7</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="84">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B20" s="82">
         <v>161</v>
       </c>
       <c r="C20">
-        <v>2184.79</v>
+        <v>2198.16</v>
       </c>
       <c r="D20">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E20">
-        <v>31.297000000000001</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="F20">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G20">
-        <v>34.110599999999998</v>
+        <v>34.3643</v>
       </c>
       <c r="H20">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I20">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="J20">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K20">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="L20" s="83">
-        <f t="shared" si="4"/>
-        <v>517832.22209400003</v>
+        <f t="shared" si="5"/>
+        <v>525972.37595699995</v>
       </c>
       <c r="M20">
-        <v>155.75</v>
+        <v>160.9</v>
       </c>
       <c r="O20" s="85">
-        <v>9054.18</v>
+        <v>9155.32</v>
       </c>
       <c r="P20" s="144">
-        <f t="shared" si="2"/>
-        <v>3.4194151209717583E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="V20">
         <v>12</v>
       </c>
       <c r="W20">
-        <v>34.380000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="X20">
-        <f>X25</f>
+        <f>X26</f>
         <v>15</v>
       </c>
       <c r="Y20">
-        <v>63.1</v>
+        <v>57.75</v>
       </c>
       <c r="Z20">
         <v>68</v>
       </c>
       <c r="AA20">
-        <v>12.46</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="84">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B21" s="82">
         <v>161</v>
       </c>
       <c r="C21">
-        <v>2150.9</v>
+        <v>2184.79</v>
       </c>
       <c r="D21">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E21">
-        <v>31.293399999999998</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="F21">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G21">
-        <v>34.006500000000003</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="H21">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I21">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="J21">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K21">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="L21" s="83">
-        <f t="shared" si="4"/>
-        <v>551296.63907100004</v>
+        <f t="shared" si="5"/>
+        <v>517832.22209400003</v>
       </c>
       <c r="M21">
-        <v>156.16</v>
+        <v>155.75</v>
       </c>
       <c r="O21" s="85">
-        <v>8744.58</v>
+        <v>9054.18</v>
       </c>
       <c r="P21" s="144">
-        <f t="shared" si="2"/>
-        <v>-1.3258498407013208E-2</v>
-      </c>
-      <c r="T21">
-        <f>T25</f>
-        <v>57</v>
-      </c>
-      <c r="U21">
-        <v>580.05924800000003</v>
+        <f t="shared" si="3"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="V21">
         <v>12</v>
       </c>
       <c r="W21">
-        <v>31.26</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="X21">
-        <f>X25</f>
+        <f>X26</f>
         <v>15</v>
       </c>
       <c r="Y21">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="Z21">
         <v>68</v>
       </c>
       <c r="AA21">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="84">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B22" s="82">
         <v>161</v>
       </c>
       <c r="C22">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="D22">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E22">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="F22">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G22">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="H22">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I22">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="J22">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K22">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="L22" s="83">
-        <f t="shared" si="4"/>
-        <v>549382.85210899997</v>
+        <f t="shared" si="5"/>
+        <v>551296.63907100004</v>
       </c>
       <c r="M22">
-        <v>154.22999999999999</v>
+        <v>156.16</v>
       </c>
       <c r="O22" s="85">
-        <v>8860.52</v>
+        <v>8744.58</v>
       </c>
       <c r="P22" s="144">
-        <f t="shared" si="2"/>
-        <v>-5.319100910555985E-3</v>
-      </c>
-      <c r="R22">
-        <f>R25</f>
-        <v>36</v>
-      </c>
-      <c r="S22" s="91">
-        <v>38.15</v>
+        <f t="shared" si="3"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="T22">
-        <f>T25</f>
+        <f>T26</f>
         <v>57</v>
       </c>
       <c r="U22">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="V22">
-        <f>V25</f>
         <v>12</v>
       </c>
       <c r="W22">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="X22">
-        <f>X25</f>
+        <f>X26</f>
         <v>15</v>
       </c>
       <c r="Y22">
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="Z22">
         <v>68</v>
@@ -6307,80 +6277,83 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="84">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B23" s="82">
         <v>161</v>
       </c>
       <c r="C23">
-        <v>2072.52</v>
+        <v>2116.34</v>
       </c>
       <c r="D23">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E23">
-        <v>30.905999999999999</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="F23">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G23">
-        <v>33.542299999999997</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="H23">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I23">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="J23">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K23">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="L23" s="83">
-        <f t="shared" si="4"/>
-        <v>545049.74954800005</v>
+        <f t="shared" si="5"/>
+        <v>549382.85210899997</v>
+      </c>
+      <c r="M23">
+        <v>154.22999999999999</v>
       </c>
       <c r="O23" s="85">
-        <v>8907.65</v>
+        <v>8860.52</v>
       </c>
       <c r="P23" s="144">
-        <f t="shared" si="2"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="R23">
-        <f>R25</f>
+        <f>R26</f>
         <v>36</v>
       </c>
-      <c r="S23">
-        <v>34.659999999999997</v>
+      <c r="S23" s="91">
+        <v>38.15</v>
       </c>
       <c r="T23">
-        <f>T25</f>
+        <f>T26</f>
         <v>57</v>
       </c>
       <c r="U23">
-        <v>578.66060300000004</v>
+        <v>579.361718</v>
       </c>
       <c r="V23">
-        <f>V25</f>
+        <f>V26</f>
         <v>12</v>
       </c>
       <c r="W23">
-        <v>25.84</v>
+        <v>28.42</v>
       </c>
       <c r="X23">
-        <f>X25</f>
+        <f>X26</f>
         <v>15</v>
       </c>
       <c r="Y23">
-        <v>47.46</v>
+        <v>52.2</v>
       </c>
       <c r="Z23">
         <v>68</v>
@@ -6391,80 +6364,80 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="84">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B24" s="82">
         <v>161</v>
       </c>
       <c r="C24">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="D24">
-        <f>D25</f>
+        <f>D26</f>
         <v>1110</v>
       </c>
       <c r="E24">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="F24">
-        <f>F25</f>
+        <f>F26</f>
         <v>321.99</v>
       </c>
       <c r="G24">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="H24">
-        <f>H25</f>
+        <f>H26</f>
         <v>50000</v>
       </c>
       <c r="I24">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="J24">
-        <f>J25</f>
+        <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K24">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="L24" s="83">
-        <f t="shared" si="4"/>
-        <v>534814.50418999989</v>
+        <f t="shared" si="5"/>
+        <v>545049.74954800005</v>
       </c>
       <c r="O24" s="85">
-        <v>9097.15</v>
+        <v>8907.65</v>
       </c>
       <c r="P24" s="144">
-        <f t="shared" si="2"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="R24">
-        <f>R25</f>
+        <f>R26</f>
         <v>36</v>
       </c>
       <c r="S24">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="T24">
-        <f>T25</f>
+        <f>T26</f>
         <v>57</v>
       </c>
       <c r="U24">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="V24">
-        <f>V25</f>
+        <f>V26</f>
         <v>12</v>
       </c>
       <c r="W24">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="X24">
-        <f>X25</f>
+        <f>X26</f>
         <v>15</v>
       </c>
       <c r="Y24">
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="Z24">
         <v>68</v>
@@ -6475,7 +6448,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="84">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B25" s="82">
         <v>161</v>
@@ -6502,32 +6475,32 @@
         <v>50000</v>
       </c>
       <c r="I25">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="J25">
         <f>J26</f>
         <v>75000</v>
       </c>
       <c r="K25">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="L25" s="83">
-        <f t="shared" si="4"/>
-        <v>530894.48918999988</v>
+        <f t="shared" si="5"/>
+        <v>534814.50418999989</v>
       </c>
       <c r="O25" s="85">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="P25" s="144">
-        <f t="shared" si="2"/>
-        <v>1.428479750785594E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.0612114783201454E-2</v>
       </c>
       <c r="R25">
         <f>R26</f>
         <v>36</v>
       </c>
       <c r="S25">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="T25">
         <f>T26</f>
@@ -6541,18 +6514,25 @@
         <v>12</v>
       </c>
       <c r="W25">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="X25">
+        <f>X26</f>
         <v>15</v>
       </c>
       <c r="Y25">
-        <v>39.24</v>
+        <v>43.16</v>
+      </c>
+      <c r="Z25">
+        <v>68</v>
+      </c>
+      <c r="AA25">
+        <v>11.33</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="84">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B26" s="82">
         <v>161</v>
@@ -6561,65 +6541,75 @@
         <v>2018.91</v>
       </c>
       <c r="D26">
+        <f>D27</f>
         <v>1110</v>
       </c>
       <c r="E26">
         <v>30.7361</v>
       </c>
       <c r="F26">
+        <f>F27</f>
         <v>321.99</v>
       </c>
       <c r="G26">
         <v>33.225700000000003</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H28" si="5">H27</f>
+        <f>H27</f>
         <v>50000</v>
       </c>
       <c r="I26">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="J26">
         <f>J27</f>
         <v>75000</v>
       </c>
       <c r="K26">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="L26" s="83">
-        <f t="shared" si="4"/>
-        <v>537360.00419000001</v>
+        <f t="shared" si="5"/>
+        <v>530894.48918999988</v>
       </c>
       <c r="O26" s="85">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="P26" s="144">
-        <f t="shared" ref="P26:P29" si="6">(1-(O27/O26))</f>
-        <v>-1.292378585710563E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="R26">
         <f>R27</f>
         <v>36</v>
       </c>
       <c r="S26">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="T26">
+        <f>T27</f>
         <v>57</v>
       </c>
       <c r="U26">
         <v>576.58807100000001</v>
       </c>
       <c r="V26">
+        <f>V27</f>
         <v>12</v>
       </c>
       <c r="W26">
-        <v>19.45</v>
+        <v>21.38</v>
+      </c>
+      <c r="X26">
+        <v>15</v>
+      </c>
+      <c r="Y26">
+        <v>39.24</v>
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="143">
-        <v>45349</v>
+      <c r="A27" s="84">
+        <v>45350</v>
       </c>
       <c r="B27" s="82">
         <v>161</v>
@@ -6640,34 +6630,36 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H27">
+        <f t="shared" ref="H27:H29" si="6">H28</f>
+        <v>50000</v>
+      </c>
+      <c r="I27">
+        <v>1.067704</v>
+      </c>
+      <c r="J27">
+        <f>J28</f>
+        <v>75000</v>
+      </c>
+      <c r="K27">
+        <v>1.067704</v>
+      </c>
+      <c r="L27" s="83">
         <f t="shared" si="5"/>
-        <v>50000</v>
-      </c>
-      <c r="I27">
-        <v>1.064435</v>
-      </c>
-      <c r="J27">
-        <v>75000</v>
-      </c>
-      <c r="K27">
-        <v>1.064435</v>
-      </c>
-      <c r="L27" s="83">
-        <f t="shared" si="4"/>
-        <v>536633.0191899999</v>
+        <v>537360.00419000001</v>
       </c>
       <c r="O27" s="85">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="P27" s="144">
-        <f t="shared" si="6"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" ref="P27:P30" si="7">(1-(O28/O27))</f>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="R27">
+        <f>R28</f>
         <v>36</v>
       </c>
       <c r="S27">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="T27">
         <v>57</v>
@@ -6675,10 +6667,16 @@
       <c r="U27">
         <v>576.58807100000001</v>
       </c>
+      <c r="V27">
+        <v>12</v>
+      </c>
+      <c r="W27">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="143">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B28" s="82">
         <v>161</v>
@@ -6699,31 +6697,34 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H28">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="I28">
+        <v>1.064435</v>
+      </c>
+      <c r="J28">
+        <v>75000</v>
+      </c>
+      <c r="K28">
+        <v>1.064435</v>
+      </c>
+      <c r="L28" s="83">
         <f t="shared" si="5"/>
-        <v>50000</v>
-      </c>
-      <c r="I28">
-        <v>1.0192399999999999</v>
-      </c>
-      <c r="K28">
-        <v>1.0192399999999999</v>
-      </c>
-      <c r="L28" s="83">
-        <f t="shared" si="4"/>
-        <v>454463.60418999993</v>
+        <v>536633.0191899999</v>
       </c>
       <c r="O28" s="85">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="P28" s="144">
-        <f t="shared" si="6"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="7"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="R28">
         <v>36</v>
       </c>
       <c r="S28">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="T28">
         <v>57</v>
@@ -6734,7 +6735,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="143">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B29" s="82">
         <v>161</v>
@@ -6755,30 +6756,31 @@
         <v>33.225700000000003</v>
       </c>
       <c r="H29">
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="I29">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="K29">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="L29" s="83">
-        <f t="shared" si="4"/>
-        <v>453591.29418999993</v>
+        <f t="shared" si="5"/>
+        <v>454463.60418999993</v>
       </c>
       <c r="O29" s="85">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="P29" s="144">
-        <f t="shared" si="6"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="7"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="R29">
         <v>36</v>
       </c>
       <c r="S29">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="T29">
         <v>57</v>
@@ -6788,172 +6790,227 @@
       </c>
     </row>
     <row r="30" spans="1:27">
+      <c r="A30" s="143">
+        <v>45345</v>
+      </c>
+      <c r="B30" s="82">
+        <v>161</v>
+      </c>
+      <c r="C30">
+        <v>2018.91</v>
+      </c>
+      <c r="D30">
+        <v>1110</v>
+      </c>
+      <c r="E30">
+        <v>30.7361</v>
+      </c>
+      <c r="F30">
+        <v>321.99</v>
+      </c>
+      <c r="G30">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="H30">
+        <v>50000</v>
+      </c>
       <c r="I30">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="K30">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L30" s="83">
+        <f t="shared" si="5"/>
+        <v>453591.29418999993</v>
       </c>
       <c r="O30" s="85">
-        <v>9347.17</v>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="P30" s="144">
+        <f t="shared" si="7"/>
+        <v>2.8834460540633211E-3</v>
       </c>
       <c r="R30">
         <v>36</v>
       </c>
       <c r="S30">
-        <v>17.82</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T30">
+        <v>57</v>
+      </c>
+      <c r="U30">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="I31">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="K31">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="O31" s="85">
+        <v>9347.17</v>
       </c>
       <c r="R31">
         <v>36</v>
       </c>
-      <c r="S31" s="92">
-        <v>15.3</v>
-      </c>
-      <c r="W31" s="92">
-        <f>W26</f>
-        <v>19.45</v>
-      </c>
-      <c r="Y31" s="92">
-        <f>Y25</f>
-        <v>39.24</v>
-      </c>
-      <c r="AA31" s="92">
-        <f>AA24</f>
-        <v>11.33</v>
+      <c r="S31">
+        <v>17.82</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="I32">
-        <v>0.91198999999999997</v>
+        <v>0.93849000000000005</v>
       </c>
       <c r="K32">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="P32" s="145" t="e">
-        <f>SUM(P5:P31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="W32" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y32" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA32" s="92" t="s">
-        <v>60</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="R32">
+        <v>36</v>
+      </c>
+      <c r="S32" s="92">
+        <v>15.3</v>
+      </c>
+      <c r="W32" s="92">
+        <f>W27</f>
+        <v>19.45</v>
+      </c>
+      <c r="Y32" s="92">
+        <f>Y26</f>
+        <v>39.24</v>
+      </c>
+      <c r="AA32" s="92">
+        <f>AA25</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="33" spans="9:27">
       <c r="I33">
-        <v>0.90268000000000004</v>
+        <v>0.91198999999999997</v>
       </c>
       <c r="K33">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="S33" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="W33" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y33" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA33" s="93" t="s">
-        <v>61</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="P33" s="145" t="e">
+        <f>SUM(P5:P32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y33" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA33" s="92" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="9:27">
       <c r="I34">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="K34">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="S34" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="W34" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y34" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA34" s="93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="9:27">
+      <c r="I35">
         <v>0.89847999999999995</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>0.89847999999999995</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R35" t="s">
         <v>62</v>
       </c>
-      <c r="S34" s="93">
+      <c r="S35" s="93">
         <v>38</v>
       </c>
-      <c r="W34" s="93">
+      <c r="W35" s="93">
         <v>45.72</v>
       </c>
-      <c r="Y34" s="93">
+      <c r="Y35" s="93">
         <v>55.5</v>
       </c>
-      <c r="AA34" s="93">
+      <c r="AA35" s="93">
         <f>AA2</f>
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="35" spans="9:27">
-      <c r="I35">
+    <row r="36" spans="9:27">
+      <c r="I36">
         <v>0.88783999999999996</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>0.88783999999999996</v>
       </c>
-      <c r="S35" s="94">
+      <c r="S36" s="94">
         <f>Sayfa2!M41</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="W35" s="94">
-        <f>(W34-W26)/W26</f>
+      <c r="W36" s="94">
+        <f>(W35-W27)/W27</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="Y35" s="94">
-        <f>(Y34-Y25)/Y25</f>
+      <c r="Y36" s="94">
+        <f>(Y35-Y26)/Y26</f>
         <v>0.41437308868501521</v>
       </c>
-      <c r="AA35" s="94">
-        <f>(AA34-AA24)/AA24</f>
+      <c r="AA36" s="94">
+        <f>(AA35-AA25)/AA25</f>
         <v>0.73786407766990303</v>
       </c>
     </row>
-    <row r="36" spans="9:27">
-      <c r="I36">
+    <row r="37" spans="9:27">
+      <c r="I37">
         <v>0.86724999999999997</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="37" spans="9:27">
-      <c r="R37" s="95" t="s">
+    <row r="38" spans="9:27">
+      <c r="R38" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="S37" s="95">
+      <c r="S38" s="95">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="V37" s="95" t="s">
+      <c r="V38" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W37" s="95">
-        <f>(V26*W34)-(V5*W26)</f>
+      <c r="W38" s="95">
+        <f>(V27*W35)-(V5*W27)</f>
         <v>548.64</v>
       </c>
-      <c r="X37" s="95" t="s">
+      <c r="X38" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="Y37" s="95">
-        <f>(X25*Y34)-(X5*Y25)</f>
+      <c r="Y38" s="95">
+        <f>(X26*Y35)-(X5*Y26)</f>
         <v>832.5</v>
       </c>
-      <c r="AA37" s="95">
-        <f>(Z24*AA34)-(Z12*AA24)</f>
+      <c r="AA38" s="95">
+        <f>(Z25*AA35)-(Z13*AA25)</f>
         <v>568.48</v>
       </c>
     </row>
@@ -7076,7 +7133,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="14">
         <f>SUM(K8:K9)</f>
-        <v>-126.84799999999984</v>
+        <v>-166.40149999999949</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -7144,7 +7201,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="147">
         <f>SUM(K8:K9)</f>
-        <v>-126.84799999999984</v>
+        <v>-166.40149999999949</v>
       </c>
       <c r="L7" s="19">
         <f ca="1">K7/E7</f>
@@ -7167,7 +7224,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <f>K5/B7</f>
-        <v>-1.2684799999999985</v>
+        <v>-1.6640149999999949</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="149" t="s">
@@ -7182,24 +7239,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="17">
         <f>SUBTOTAL(109,I13:I20)</f>
-        <v>5304.5619999999999</v>
+        <v>5265.0084999999999</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="18">
         <f>SUBTOTAL(109,K13:K20)</f>
-        <v>-692.51800000000003</v>
+        <v>-732.07149999999967</v>
       </c>
       <c r="L8" s="19">
         <f>K8/E8</f>
-        <v>-0.11547586492092819</v>
+        <v>-0.12207132471135948</v>
       </c>
       <c r="M8" s="20">
         <f>SUBTOTAL(101,M13:M19)</f>
-        <v>-0.11348496278980746</v>
+        <v>-0.11736846794444661</v>
       </c>
       <c r="N8" s="20">
         <f>SUBTOTAL(101,N13:N19)</f>
-        <v>-6.0615087130578942E-2</v>
+        <v>-6.4632506256067701E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -7432,7 +7489,7 @@
       </c>
       <c r="O14" s="41">
         <f>SUM(O15:O18)</f>
-        <v>-692.51800000000003</v>
+        <v>-732.07149999999967</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -7620,19 +7677,19 @@
       </c>
       <c r="H18" s="46">
         <f>Sayfa4!K5</f>
-        <v>0.86473199999999995</v>
+        <v>0.85343100000000005</v>
       </c>
       <c r="I18" s="25">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>3026.5619999999999</v>
+        <v>2987.0085000000004</v>
       </c>
       <c r="J18" s="29">
         <f>H18-D18</f>
-        <v>-0.10526800000000003</v>
+        <v>-0.11656899999999992</v>
       </c>
       <c r="K18" s="47">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-368.4380000000001</v>
+        <v>-407.99149999999975</v>
       </c>
       <c r="L18" s="48">
         <f>F18-B18</f>
@@ -7640,15 +7697,15 @@
       </c>
       <c r="M18" s="20">
         <f>K18/E18</f>
-        <v>-0.10852371134020622</v>
+        <v>-0.12017422680412364</v>
       </c>
       <c r="N18" s="20">
         <f>M18/L18*30</f>
-        <v>-0.11226590828297195</v>
+        <v>-0.12431816565943823</v>
       </c>
       <c r="O18" s="51">
         <f>SUM(K15:K18)</f>
-        <v>-692.51800000000003</v>
+        <v>-732.07149999999967</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C99B6-D265-4E22-9506-8C25C89CE269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2DA74E-5BE9-41CA-8ED7-1AC801658538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="231">
   <si>
     <t>Toplam Yatırım</t>
   </si>
@@ -1078,7 +1078,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1338,6 +1338,7 @@
     <xf numFmtId="176" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="174" fontId="19" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="19" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1577,8 +1578,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A9:M76" totalsRowShown="0">
-  <autoFilter ref="A9:M76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo2" displayName="Tablo2" ref="A9:M77" totalsRowShown="0">
+  <autoFilter ref="A9:M77" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Açıklama"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="tarih"/>
@@ -1917,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ84"/>
+  <dimension ref="A1:AMJ85"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1959,11 +1960,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>255424.81162699999</v>
+        <v>248387.66174700006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1972,11 +1973,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>161.66127318164556</v>
+        <v>157.10794544402282</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2002,31 +2003,31 @@
       </c>
       <c r="E5" s="25">
         <f>SUBTOTAL(109,E10:E26)</f>
-        <v>288235.26908</v>
+        <v>279102.61908000003</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I25)</f>
-        <v>527441.40332000004</v>
+        <v>520428.75344</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>239206.13423999998</v>
+        <v>229887.48436000003</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.8298989051669734</v>
+        <v>0.82366652494259351</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M16)</f>
-        <v>-0.14709595786465077</v>
+        <v>-0.17165271199729809</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N16)</f>
-        <v>-0.12072671080340633</v>
+        <v>-0.13691382364459359</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2036,24 +2037,24 @@
         <v>4</v>
       </c>
       <c r="E6" s="34">
-        <f>SUBTOTAL(109,E29:E75)</f>
-        <v>462985.00808399991</v>
+        <f>SUBTOTAL(109,E29:E76)</f>
+        <v>472117.65808399994</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="36"/>
       <c r="H6" s="37"/>
       <c r="I6" s="34">
-        <f>SUBTOTAL(109,I29:I75)</f>
-        <v>472251.57449500007</v>
+        <f>SUBTOTAL(109,I29:I76)</f>
+        <v>483665.72449500003</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="38">
-        <f>SUBTOTAL(109,K29:K74)</f>
-        <v>16218.677387000014</v>
+        <f>SUBTOTAL(109,K29:K75)</f>
+        <v>18500.177387000018</v>
       </c>
       <c r="L6" s="39">
         <f>K6/E6</f>
-        <v>3.5030675084100002E-2</v>
+        <v>3.918552307930926E-2</v>
       </c>
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
@@ -2181,7 +2182,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O26)</f>
-        <v>239206.13423999998</v>
+        <v>229887.48436000003</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2206,7 +2207,7 @@
       </c>
       <c r="F15" s="63">
         <f>$B$2</f>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G15" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2214,31 +2215,31 @@
       </c>
       <c r="H15" s="65">
         <f>Sayfa4!I2</f>
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>66073.2</v>
+        <v>64170.825000000004</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-0.18345900000000004</v>
+        <v>-0.20882400000000001</v>
       </c>
       <c r="K15" s="66">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-13759.425000000003</v>
+        <v>-15661.800000000001</v>
       </c>
       <c r="L15" s="67">
         <f>F15-B15</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="68">
         <f>K15/E15</f>
-        <v>-0.17235340814610572</v>
+        <v>-0.19618295151888093</v>
       </c>
       <c r="N15" s="68">
         <f>M15/L15*30</f>
-        <v>-0.14773149269666205</v>
+        <v>-0.16348579293240076</v>
       </c>
       <c r="O15" s="69"/>
     </row>
@@ -2261,7 +2262,7 @@
       </c>
       <c r="F16" s="63">
         <f>$B$2</f>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G16" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2269,35 +2270,35 @@
       </c>
       <c r="H16" s="65">
         <f>H15</f>
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>44048.799999999996</v>
+        <v>42780.55</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-0.12222899999999992</v>
+        <v>-0.14759399999999989</v>
       </c>
       <c r="K16" s="66">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-6111.4499999999962</v>
+        <v>-7379.6999999999944</v>
       </c>
       <c r="L16" s="67">
         <f>F16-B16</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M16" s="68">
         <f>K16/E16</f>
-        <v>-0.1218385075831958</v>
+        <v>-0.14712247247571525</v>
       </c>
       <c r="N16" s="68">
         <f>M16/L16*30</f>
-        <v>-9.3721928910150618E-2</v>
+        <v>-0.11034185435678644</v>
       </c>
       <c r="O16" s="70">
         <f>SUM(K13:K16)</f>
-        <v>-19870.875</v>
+        <v>-23041.499999999996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2325,61 +2326,61 @@
         <v>45219</v>
       </c>
       <c r="C18" s="46">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D18" s="47">
         <v>1826.53</v>
       </c>
       <c r="E18" s="62">
         <f>Sayfa2!$D18*Sayfa2!$C18</f>
-        <v>91326.5</v>
+        <v>82193.850000000006</v>
       </c>
       <c r="F18" s="63">
         <f t="shared" ref="F18:F25" si="0">$B$2</f>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G18" s="64">
         <v>50</v>
       </c>
       <c r="H18" s="65">
         <f>Sayfa4!G5</f>
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="I18" s="51">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>115421.49999999999</v>
+        <v>114386.5</v>
       </c>
       <c r="J18" s="46">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>481.89999999999986</v>
+        <v>461.20000000000005</v>
       </c>
       <c r="K18" s="66">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>24094.999999999993</v>
+        <v>20754.000000000004</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M18" s="68">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.26383360798891881</v>
+        <v>0.25250064329630506</v>
       </c>
       <c r="N18" s="68">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>4.826224536382661E-2</v>
+        <v>4.5909207872055463E-2</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>115421.49999999999</v>
+        <v>114386.5</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>57.71074999999999</v>
+        <v>57.193249999999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2401,50 +2402,50 @@
       </c>
       <c r="F19" s="63">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G19" s="64">
         <v>11</v>
       </c>
       <c r="H19" s="65">
         <f>H18</f>
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="I19" s="51">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>25392.73</v>
+        <v>25165.03</v>
       </c>
       <c r="J19" s="46">
         <f t="shared" si="1"/>
-        <v>1906.33</v>
+        <v>1885.63</v>
       </c>
       <c r="K19" s="66">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>20969.629999999997</v>
+        <v>20741.93</v>
       </c>
       <c r="L19" s="67">
         <f t="shared" si="2"/>
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="M19" s="68">
         <f t="shared" si="3"/>
-        <v>4.7409350907734389</v>
+        <v>4.6894553593633423</v>
       </c>
       <c r="N19" s="68">
         <f t="shared" si="4"/>
-        <v>0.12487098570957257</v>
+        <v>0.12340671998324586</v>
       </c>
       <c r="O19" s="69"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25392.73</v>
+        <v>25165.03</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.696365</v>
+        <v>12.582514999999999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2466,50 +2467,50 @@
       </c>
       <c r="F20" s="63">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G20" s="64">
         <v>50</v>
       </c>
       <c r="H20" s="65">
         <f>H19</f>
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>115421.49999999999</v>
+        <v>114386.5</v>
       </c>
       <c r="J20" s="46">
         <f t="shared" si="1"/>
-        <v>1839.5699999999997</v>
+        <v>1818.87</v>
       </c>
       <c r="K20" s="66">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>91978.499999999985</v>
+        <v>90943.5</v>
       </c>
       <c r="L20" s="67">
         <f t="shared" si="2"/>
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="M20" s="68">
         <f t="shared" si="3"/>
-        <v>3.9234952864394481</v>
+        <v>3.8793456468881971</v>
       </c>
       <c r="N20" s="68">
         <f t="shared" si="4"/>
-        <v>9.0611900379663934E-2</v>
+        <v>8.9523361082035319E-2</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>115421.49999999999</v>
+        <v>114386.5</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>57.71074999999999</v>
+        <v>57.193249999999999</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2531,7 +2532,7 @@
       </c>
       <c r="F21" s="63">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G21" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2539,36 +2540,36 @@
       </c>
       <c r="H21" s="65">
         <f>H20</f>
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>57710.749999999993</v>
+        <v>57193.25</v>
       </c>
       <c r="J21" s="46">
         <f t="shared" si="1"/>
-        <v>1908.56</v>
+        <v>1887.8600000000001</v>
       </c>
       <c r="K21" s="66">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>47714</v>
+        <v>47196.5</v>
       </c>
       <c r="L21" s="67">
         <f t="shared" si="2"/>
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="M21" s="68">
         <f t="shared" si="3"/>
-        <v>4.7729512091429713</v>
+        <v>4.7211843849251007</v>
       </c>
       <c r="N21" s="68">
         <f t="shared" si="4"/>
-        <v>0.10505395177864207</v>
+        <v>0.10383836623735559</v>
       </c>
       <c r="O21" s="69"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>128.11786499999999</v>
+        <v>126.96901499999998</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2590,7 +2591,7 @@
       </c>
       <c r="F22" s="63">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G22" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2598,31 +2599,31 @@
       </c>
       <c r="H22" s="65">
         <f>H21</f>
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="I22" s="51">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>55402.319999999992</v>
+        <v>54905.520000000004</v>
       </c>
       <c r="J22" s="46">
         <f t="shared" si="1"/>
-        <v>2034.62</v>
+        <v>2013.92</v>
       </c>
       <c r="K22" s="66">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>48830.879999999997</v>
+        <v>48334.080000000002</v>
       </c>
       <c r="L22" s="67">
         <f t="shared" si="2"/>
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="M22" s="68">
         <f t="shared" si="3"/>
-        <v>7.4307731638727574</v>
+        <v>7.3551732953507907</v>
       </c>
       <c r="N22" s="68">
         <f t="shared" si="4"/>
-        <v>0.14109062969378652</v>
+        <v>0.139566855699256</v>
       </c>
       <c r="O22" s="69"/>
     </row>
@@ -2645,7 +2646,7 @@
       </c>
       <c r="F23" s="63">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G23" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2653,40 +2654,40 @@
       </c>
       <c r="H23" s="65">
         <f>H22</f>
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" si="1"/>
-        <v>2070.8399999999997</v>
+        <v>2050.14</v>
       </c>
       <c r="K23" s="66">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>2070.8399999999997</v>
+        <v>2050.14</v>
       </c>
       <c r="L23" s="67">
         <f t="shared" si="2"/>
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="M23" s="68">
         <f t="shared" si="3"/>
-        <v>8.7160234016583171</v>
+        <v>8.6288985226650947</v>
       </c>
       <c r="N23" s="68">
         <f t="shared" si="4"/>
-        <v>0.16549411522136045</v>
+        <v>0.16373621485133005</v>
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>256235.72999999998</v>
+        <v>253938.03</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>115.4048650644952</v>
+        <v>114.37001423218274</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2708,7 +2709,7 @@
       </c>
       <c r="F24" s="63">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G24" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2716,36 +2717,36 @@
       </c>
       <c r="H24" s="65">
         <f>Sayfa4!E2</f>
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="I24" s="51">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>10276.150319999999</v>
+        <v>10146.889439999999</v>
       </c>
       <c r="J24" s="46">
         <f t="shared" si="1"/>
-        <v>15.669799999999999</v>
+        <v>15.237199999999998</v>
       </c>
       <c r="K24" s="66">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4682.1362399999998</v>
+        <v>4552.8753599999991</v>
       </c>
       <c r="L24" s="67">
         <f t="shared" si="2"/>
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M24" s="68">
         <f t="shared" si="3"/>
-        <v>0.83699042816853253</v>
+        <v>0.81388342876677189</v>
       </c>
       <c r="N24" s="68">
         <f t="shared" si="4"/>
-        <v>4.1919387053515819E-2</v>
+        <v>4.0694171438338589E-2</v>
       </c>
       <c r="O24" s="69"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>25623.573</v>
+        <v>25393.803</v>
       </c>
       <c r="Q24" s="75">
         <v>0.1</v>
@@ -2773,7 +2774,7 @@
       </c>
       <c r="F25" s="63">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="G25" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2781,47 +2782,47 @@
       </c>
       <c r="H25" s="65">
         <f>Sayfa4!C2</f>
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>35386.023000000001</v>
+        <v>35005.959000000003</v>
       </c>
       <c r="J25" s="46">
         <f t="shared" si="1"/>
-        <v>16.879300000000001</v>
+        <v>16.536899999999999</v>
       </c>
       <c r="K25" s="66">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18736.023000000001</v>
+        <v>18355.958999999999</v>
       </c>
       <c r="L25" s="67">
         <f t="shared" si="2"/>
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M25" s="68">
         <f t="shared" si="3"/>
-        <v>1.1252866666666668</v>
+        <v>1.10246</v>
       </c>
       <c r="N25" s="68">
         <f t="shared" si="4"/>
-        <v>5.54328407224959E-2</v>
+        <v>5.4219344262295084E-2</v>
       </c>
       <c r="O25" s="70">
         <f>SUM(K18:K25)</f>
-        <v>259077.00923999998</v>
+        <v>252928.98436000003</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>281859.30299999996</v>
+        <v>279331.83299999998</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>140.92965149999998</v>
+        <v>139.66591649999998</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>111.40683913043478</v>
+        <v>110.40783913043478</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2882,7 +2883,7 @@
       <c r="P28" s="61"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>312908.92381847999</v>
+        <v>310103.02772327996</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2905,8 +2906,8 @@
         <v>27</v>
       </c>
       <c r="O29" s="96">
-        <f>SUM(O73,O51,O32)</f>
-        <v>15095.277387000015</v>
+        <f>SUM(O31:O75)</f>
+        <v>18500.177387000014</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -3028,755 +3029,1806 @@
         <v>582.30895100000009</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:1024">
       <c r="A33" s="41"/>
       <c r="O33" s="69"/>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="41"/>
-      <c r="O34" s="69"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45350</v>
-      </c>
-      <c r="C35" s="46">
-        <v>68</v>
-      </c>
-      <c r="D35" s="47">
-        <v>11.33</v>
-      </c>
-      <c r="E35" s="56">
-        <f>Sayfa2!$D35*Sayfa2!$C35</f>
-        <v>770.44</v>
-      </c>
-      <c r="F35" s="63">
-        <v>45370</v>
-      </c>
-      <c r="G35" s="64">
-        <v>68</v>
-      </c>
-      <c r="H35" s="65">
-        <v>19.690000000000001</v>
-      </c>
-      <c r="I35" s="51">
-        <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>1338.92</v>
-      </c>
-      <c r="J35" s="46">
-        <f>H35-D35</f>
-        <v>8.3600000000000012</v>
-      </c>
-      <c r="K35" s="66">
-        <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>568.48000000000013</v>
-      </c>
-      <c r="L35" s="67">
-        <f>F35-B35</f>
-        <v>20</v>
-      </c>
-      <c r="M35" s="68">
-        <f>K35/E35</f>
-        <v>0.73786407766990303</v>
-      </c>
-      <c r="N35" s="68">
-        <f>M35/L35*30</f>
-        <v>1.1067961165048545</v>
-      </c>
+    <row r="34" spans="1:1024">
+      <c r="A34" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="79">
+        <v>45219</v>
+      </c>
+      <c r="C34" s="46">
+        <v>5</v>
+      </c>
+      <c r="D34" s="47">
+        <v>1826.53</v>
+      </c>
+      <c r="E34" s="62">
+        <f>Sayfa2!$D34*Sayfa2!$C34</f>
+        <v>9132.65</v>
+      </c>
+      <c r="F34" s="63">
+        <v>45384</v>
+      </c>
+      <c r="G34" s="64">
+        <v>5</v>
+      </c>
+      <c r="H34" s="65">
+        <v>2282.83</v>
+      </c>
+      <c r="I34" s="51">
+        <f>Sayfa2!$H34*Sayfa2!$G34</f>
+        <v>11414.15</v>
+      </c>
+      <c r="J34" s="46">
+        <f t="shared" ref="J34" si="5">H34-D34</f>
+        <v>456.29999999999995</v>
+      </c>
+      <c r="K34" s="66">
+        <f>Sayfa2!$J34*Sayfa2!$C34</f>
+        <v>2281.5</v>
+      </c>
+      <c r="L34" s="67">
+        <f t="shared" ref="L34" si="6">F34-B34</f>
+        <v>165</v>
+      </c>
+      <c r="M34" s="86">
+        <f t="shared" ref="M34" si="7">K34/E34</f>
+        <v>0.24981796083283606</v>
+      </c>
+      <c r="N34" s="86">
+        <f t="shared" ref="N34" si="8">M34/L34*30</f>
+        <v>4.5421447424152009E-2</v>
+      </c>
+      <c r="O34" s="201">
+        <f>Tablo2[[#This Row],[Tutar2]]</f>
+        <v>2281.5</v>
+      </c>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="61"/>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="61"/>
+      <c r="AR34" s="61"/>
+      <c r="AS34" s="61"/>
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="61"/>
+      <c r="AV34" s="61"/>
+      <c r="AW34" s="61"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="61"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="61"/>
+      <c r="BD34" s="61"/>
+      <c r="BE34" s="61"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="61"/>
+      <c r="BH34" s="61"/>
+      <c r="BI34" s="61"/>
+      <c r="BJ34" s="61"/>
+      <c r="BK34" s="61"/>
+      <c r="BL34" s="61"/>
+      <c r="BM34" s="61"/>
+      <c r="BN34" s="61"/>
+      <c r="BO34" s="61"/>
+      <c r="BP34" s="61"/>
+      <c r="BQ34" s="61"/>
+      <c r="BR34" s="61"/>
+      <c r="BS34" s="61"/>
+      <c r="BT34" s="61"/>
+      <c r="BU34" s="61"/>
+      <c r="BV34" s="61"/>
+      <c r="BW34" s="61"/>
+      <c r="BX34" s="61"/>
+      <c r="BY34" s="61"/>
+      <c r="BZ34" s="61"/>
+      <c r="CA34" s="61"/>
+      <c r="CB34" s="61"/>
+      <c r="CC34" s="61"/>
+      <c r="CD34" s="61"/>
+      <c r="CE34" s="61"/>
+      <c r="CF34" s="61"/>
+      <c r="CG34" s="61"/>
+      <c r="CH34" s="61"/>
+      <c r="CI34" s="61"/>
+      <c r="CJ34" s="61"/>
+      <c r="CK34" s="61"/>
+      <c r="CL34" s="61"/>
+      <c r="CM34" s="61"/>
+      <c r="CN34" s="61"/>
+      <c r="CO34" s="61"/>
+      <c r="CP34" s="61"/>
+      <c r="CQ34" s="61"/>
+      <c r="CR34" s="61"/>
+      <c r="CS34" s="61"/>
+      <c r="CT34" s="61"/>
+      <c r="CU34" s="61"/>
+      <c r="CV34" s="61"/>
+      <c r="CW34" s="61"/>
+      <c r="CX34" s="61"/>
+      <c r="CY34" s="61"/>
+      <c r="CZ34" s="61"/>
+      <c r="DA34" s="61"/>
+      <c r="DB34" s="61"/>
+      <c r="DC34" s="61"/>
+      <c r="DD34" s="61"/>
+      <c r="DE34" s="61"/>
+      <c r="DF34" s="61"/>
+      <c r="DG34" s="61"/>
+      <c r="DH34" s="61"/>
+      <c r="DI34" s="61"/>
+      <c r="DJ34" s="61"/>
+      <c r="DK34" s="61"/>
+      <c r="DL34" s="61"/>
+      <c r="DM34" s="61"/>
+      <c r="DN34" s="61"/>
+      <c r="DO34" s="61"/>
+      <c r="DP34" s="61"/>
+      <c r="DQ34" s="61"/>
+      <c r="DR34" s="61"/>
+      <c r="DS34" s="61"/>
+      <c r="DT34" s="61"/>
+      <c r="DU34" s="61"/>
+      <c r="DV34" s="61"/>
+      <c r="DW34" s="61"/>
+      <c r="DX34" s="61"/>
+      <c r="DY34" s="61"/>
+      <c r="DZ34" s="61"/>
+      <c r="EA34" s="61"/>
+      <c r="EB34" s="61"/>
+      <c r="EC34" s="61"/>
+      <c r="ED34" s="61"/>
+      <c r="EE34" s="61"/>
+      <c r="EF34" s="61"/>
+      <c r="EG34" s="61"/>
+      <c r="EH34" s="61"/>
+      <c r="EI34" s="61"/>
+      <c r="EJ34" s="61"/>
+      <c r="EK34" s="61"/>
+      <c r="EL34" s="61"/>
+      <c r="EM34" s="61"/>
+      <c r="EN34" s="61"/>
+      <c r="EO34" s="61"/>
+      <c r="EP34" s="61"/>
+      <c r="EQ34" s="61"/>
+      <c r="ER34" s="61"/>
+      <c r="ES34" s="61"/>
+      <c r="ET34" s="61"/>
+      <c r="EU34" s="61"/>
+      <c r="EV34" s="61"/>
+      <c r="EW34" s="61"/>
+      <c r="EX34" s="61"/>
+      <c r="EY34" s="61"/>
+      <c r="EZ34" s="61"/>
+      <c r="FA34" s="61"/>
+      <c r="FB34" s="61"/>
+      <c r="FC34" s="61"/>
+      <c r="FD34" s="61"/>
+      <c r="FE34" s="61"/>
+      <c r="FF34" s="61"/>
+      <c r="FG34" s="61"/>
+      <c r="FH34" s="61"/>
+      <c r="FI34" s="61"/>
+      <c r="FJ34" s="61"/>
+      <c r="FK34" s="61"/>
+      <c r="FL34" s="61"/>
+      <c r="FM34" s="61"/>
+      <c r="FN34" s="61"/>
+      <c r="FO34" s="61"/>
+      <c r="FP34" s="61"/>
+      <c r="FQ34" s="61"/>
+      <c r="FR34" s="61"/>
+      <c r="FS34" s="61"/>
+      <c r="FT34" s="61"/>
+      <c r="FU34" s="61"/>
+      <c r="FV34" s="61"/>
+      <c r="FW34" s="61"/>
+      <c r="FX34" s="61"/>
+      <c r="FY34" s="61"/>
+      <c r="FZ34" s="61"/>
+      <c r="GA34" s="61"/>
+      <c r="GB34" s="61"/>
+      <c r="GC34" s="61"/>
+      <c r="GD34" s="61"/>
+      <c r="GE34" s="61"/>
+      <c r="GF34" s="61"/>
+      <c r="GG34" s="61"/>
+      <c r="GH34" s="61"/>
+      <c r="GI34" s="61"/>
+      <c r="GJ34" s="61"/>
+      <c r="GK34" s="61"/>
+      <c r="GL34" s="61"/>
+      <c r="GM34" s="61"/>
+      <c r="GN34" s="61"/>
+      <c r="GO34" s="61"/>
+      <c r="GP34" s="61"/>
+      <c r="GQ34" s="61"/>
+      <c r="GR34" s="61"/>
+      <c r="GS34" s="61"/>
+      <c r="GT34" s="61"/>
+      <c r="GU34" s="61"/>
+      <c r="GV34" s="61"/>
+      <c r="GW34" s="61"/>
+      <c r="GX34" s="61"/>
+      <c r="GY34" s="61"/>
+      <c r="GZ34" s="61"/>
+      <c r="HA34" s="61"/>
+      <c r="HB34" s="61"/>
+      <c r="HC34" s="61"/>
+      <c r="HD34" s="61"/>
+      <c r="HE34" s="61"/>
+      <c r="HF34" s="61"/>
+      <c r="HG34" s="61"/>
+      <c r="HH34" s="61"/>
+      <c r="HI34" s="61"/>
+      <c r="HJ34" s="61"/>
+      <c r="HK34" s="61"/>
+      <c r="HL34" s="61"/>
+      <c r="HM34" s="61"/>
+      <c r="HN34" s="61"/>
+      <c r="HO34" s="61"/>
+      <c r="HP34" s="61"/>
+      <c r="HQ34" s="61"/>
+      <c r="HR34" s="61"/>
+      <c r="HS34" s="61"/>
+      <c r="HT34" s="61"/>
+      <c r="HU34" s="61"/>
+      <c r="HV34" s="61"/>
+      <c r="HW34" s="61"/>
+      <c r="HX34" s="61"/>
+      <c r="HY34" s="61"/>
+      <c r="HZ34" s="61"/>
+      <c r="IA34" s="61"/>
+      <c r="IB34" s="61"/>
+      <c r="IC34" s="61"/>
+      <c r="ID34" s="61"/>
+      <c r="IE34" s="61"/>
+      <c r="IF34" s="61"/>
+      <c r="IG34" s="61"/>
+      <c r="IH34" s="61"/>
+      <c r="II34" s="61"/>
+      <c r="IJ34" s="61"/>
+      <c r="IK34" s="61"/>
+      <c r="IL34" s="61"/>
+      <c r="IM34" s="61"/>
+      <c r="IN34" s="61"/>
+      <c r="IO34" s="61"/>
+      <c r="IP34" s="61"/>
+      <c r="IQ34" s="61"/>
+      <c r="IR34" s="61"/>
+      <c r="IS34" s="61"/>
+      <c r="IT34" s="61"/>
+      <c r="IU34" s="61"/>
+      <c r="IV34" s="61"/>
+      <c r="IW34" s="61"/>
+      <c r="IX34" s="61"/>
+      <c r="IY34" s="61"/>
+      <c r="IZ34" s="61"/>
+      <c r="JA34" s="61"/>
+      <c r="JB34" s="61"/>
+      <c r="JC34" s="61"/>
+      <c r="JD34" s="61"/>
+      <c r="JE34" s="61"/>
+      <c r="JF34" s="61"/>
+      <c r="JG34" s="61"/>
+      <c r="JH34" s="61"/>
+      <c r="JI34" s="61"/>
+      <c r="JJ34" s="61"/>
+      <c r="JK34" s="61"/>
+      <c r="JL34" s="61"/>
+      <c r="JM34" s="61"/>
+      <c r="JN34" s="61"/>
+      <c r="JO34" s="61"/>
+      <c r="JP34" s="61"/>
+      <c r="JQ34" s="61"/>
+      <c r="JR34" s="61"/>
+      <c r="JS34" s="61"/>
+      <c r="JT34" s="61"/>
+      <c r="JU34" s="61"/>
+      <c r="JV34" s="61"/>
+      <c r="JW34" s="61"/>
+      <c r="JX34" s="61"/>
+      <c r="JY34" s="61"/>
+      <c r="JZ34" s="61"/>
+      <c r="KA34" s="61"/>
+      <c r="KB34" s="61"/>
+      <c r="KC34" s="61"/>
+      <c r="KD34" s="61"/>
+      <c r="KE34" s="61"/>
+      <c r="KF34" s="61"/>
+      <c r="KG34" s="61"/>
+      <c r="KH34" s="61"/>
+      <c r="KI34" s="61"/>
+      <c r="KJ34" s="61"/>
+      <c r="KK34" s="61"/>
+      <c r="KL34" s="61"/>
+      <c r="KM34" s="61"/>
+      <c r="KN34" s="61"/>
+      <c r="KO34" s="61"/>
+      <c r="KP34" s="61"/>
+      <c r="KQ34" s="61"/>
+      <c r="KR34" s="61"/>
+      <c r="KS34" s="61"/>
+      <c r="KT34" s="61"/>
+      <c r="KU34" s="61"/>
+      <c r="KV34" s="61"/>
+      <c r="KW34" s="61"/>
+      <c r="KX34" s="61"/>
+      <c r="KY34" s="61"/>
+      <c r="KZ34" s="61"/>
+      <c r="LA34" s="61"/>
+      <c r="LB34" s="61"/>
+      <c r="LC34" s="61"/>
+      <c r="LD34" s="61"/>
+      <c r="LE34" s="61"/>
+      <c r="LF34" s="61"/>
+      <c r="LG34" s="61"/>
+      <c r="LH34" s="61"/>
+      <c r="LI34" s="61"/>
+      <c r="LJ34" s="61"/>
+      <c r="LK34" s="61"/>
+      <c r="LL34" s="61"/>
+      <c r="LM34" s="61"/>
+      <c r="LN34" s="61"/>
+      <c r="LO34" s="61"/>
+      <c r="LP34" s="61"/>
+      <c r="LQ34" s="61"/>
+      <c r="LR34" s="61"/>
+      <c r="LS34" s="61"/>
+      <c r="LT34" s="61"/>
+      <c r="LU34" s="61"/>
+      <c r="LV34" s="61"/>
+      <c r="LW34" s="61"/>
+      <c r="LX34" s="61"/>
+      <c r="LY34" s="61"/>
+      <c r="LZ34" s="61"/>
+      <c r="MA34" s="61"/>
+      <c r="MB34" s="61"/>
+      <c r="MC34" s="61"/>
+      <c r="MD34" s="61"/>
+      <c r="ME34" s="61"/>
+      <c r="MF34" s="61"/>
+      <c r="MG34" s="61"/>
+      <c r="MH34" s="61"/>
+      <c r="MI34" s="61"/>
+      <c r="MJ34" s="61"/>
+      <c r="MK34" s="61"/>
+      <c r="ML34" s="61"/>
+      <c r="MM34" s="61"/>
+      <c r="MN34" s="61"/>
+      <c r="MO34" s="61"/>
+      <c r="MP34" s="61"/>
+      <c r="MQ34" s="61"/>
+      <c r="MR34" s="61"/>
+      <c r="MS34" s="61"/>
+      <c r="MT34" s="61"/>
+      <c r="MU34" s="61"/>
+      <c r="MV34" s="61"/>
+      <c r="MW34" s="61"/>
+      <c r="MX34" s="61"/>
+      <c r="MY34" s="61"/>
+      <c r="MZ34" s="61"/>
+      <c r="NA34" s="61"/>
+      <c r="NB34" s="61"/>
+      <c r="NC34" s="61"/>
+      <c r="ND34" s="61"/>
+      <c r="NE34" s="61"/>
+      <c r="NF34" s="61"/>
+      <c r="NG34" s="61"/>
+      <c r="NH34" s="61"/>
+      <c r="NI34" s="61"/>
+      <c r="NJ34" s="61"/>
+      <c r="NK34" s="61"/>
+      <c r="NL34" s="61"/>
+      <c r="NM34" s="61"/>
+      <c r="NN34" s="61"/>
+      <c r="NO34" s="61"/>
+      <c r="NP34" s="61"/>
+      <c r="NQ34" s="61"/>
+      <c r="NR34" s="61"/>
+      <c r="NS34" s="61"/>
+      <c r="NT34" s="61"/>
+      <c r="NU34" s="61"/>
+      <c r="NV34" s="61"/>
+      <c r="NW34" s="61"/>
+      <c r="NX34" s="61"/>
+      <c r="NY34" s="61"/>
+      <c r="NZ34" s="61"/>
+      <c r="OA34" s="61"/>
+      <c r="OB34" s="61"/>
+      <c r="OC34" s="61"/>
+      <c r="OD34" s="61"/>
+      <c r="OE34" s="61"/>
+      <c r="OF34" s="61"/>
+      <c r="OG34" s="61"/>
+      <c r="OH34" s="61"/>
+      <c r="OI34" s="61"/>
+      <c r="OJ34" s="61"/>
+      <c r="OK34" s="61"/>
+      <c r="OL34" s="61"/>
+      <c r="OM34" s="61"/>
+      <c r="ON34" s="61"/>
+      <c r="OO34" s="61"/>
+      <c r="OP34" s="61"/>
+      <c r="OQ34" s="61"/>
+      <c r="OR34" s="61"/>
+      <c r="OS34" s="61"/>
+      <c r="OT34" s="61"/>
+      <c r="OU34" s="61"/>
+      <c r="OV34" s="61"/>
+      <c r="OW34" s="61"/>
+      <c r="OX34" s="61"/>
+      <c r="OY34" s="61"/>
+      <c r="OZ34" s="61"/>
+      <c r="PA34" s="61"/>
+      <c r="PB34" s="61"/>
+      <c r="PC34" s="61"/>
+      <c r="PD34" s="61"/>
+      <c r="PE34" s="61"/>
+      <c r="PF34" s="61"/>
+      <c r="PG34" s="61"/>
+      <c r="PH34" s="61"/>
+      <c r="PI34" s="61"/>
+      <c r="PJ34" s="61"/>
+      <c r="PK34" s="61"/>
+      <c r="PL34" s="61"/>
+      <c r="PM34" s="61"/>
+      <c r="PN34" s="61"/>
+      <c r="PO34" s="61"/>
+      <c r="PP34" s="61"/>
+      <c r="PQ34" s="61"/>
+      <c r="PR34" s="61"/>
+      <c r="PS34" s="61"/>
+      <c r="PT34" s="61"/>
+      <c r="PU34" s="61"/>
+      <c r="PV34" s="61"/>
+      <c r="PW34" s="61"/>
+      <c r="PX34" s="61"/>
+      <c r="PY34" s="61"/>
+      <c r="PZ34" s="61"/>
+      <c r="QA34" s="61"/>
+      <c r="QB34" s="61"/>
+      <c r="QC34" s="61"/>
+      <c r="QD34" s="61"/>
+      <c r="QE34" s="61"/>
+      <c r="QF34" s="61"/>
+      <c r="QG34" s="61"/>
+      <c r="QH34" s="61"/>
+      <c r="QI34" s="61"/>
+      <c r="QJ34" s="61"/>
+      <c r="QK34" s="61"/>
+      <c r="QL34" s="61"/>
+      <c r="QM34" s="61"/>
+      <c r="QN34" s="61"/>
+      <c r="QO34" s="61"/>
+      <c r="QP34" s="61"/>
+      <c r="QQ34" s="61"/>
+      <c r="QR34" s="61"/>
+      <c r="QS34" s="61"/>
+      <c r="QT34" s="61"/>
+      <c r="QU34" s="61"/>
+      <c r="QV34" s="61"/>
+      <c r="QW34" s="61"/>
+      <c r="QX34" s="61"/>
+      <c r="QY34" s="61"/>
+      <c r="QZ34" s="61"/>
+      <c r="RA34" s="61"/>
+      <c r="RB34" s="61"/>
+      <c r="RC34" s="61"/>
+      <c r="RD34" s="61"/>
+      <c r="RE34" s="61"/>
+      <c r="RF34" s="61"/>
+      <c r="RG34" s="61"/>
+      <c r="RH34" s="61"/>
+      <c r="RI34" s="61"/>
+      <c r="RJ34" s="61"/>
+      <c r="RK34" s="61"/>
+      <c r="RL34" s="61"/>
+      <c r="RM34" s="61"/>
+      <c r="RN34" s="61"/>
+      <c r="RO34" s="61"/>
+      <c r="RP34" s="61"/>
+      <c r="RQ34" s="61"/>
+      <c r="RR34" s="61"/>
+      <c r="RS34" s="61"/>
+      <c r="RT34" s="61"/>
+      <c r="RU34" s="61"/>
+      <c r="RV34" s="61"/>
+      <c r="RW34" s="61"/>
+      <c r="RX34" s="61"/>
+      <c r="RY34" s="61"/>
+      <c r="RZ34" s="61"/>
+      <c r="SA34" s="61"/>
+      <c r="SB34" s="61"/>
+      <c r="SC34" s="61"/>
+      <c r="SD34" s="61"/>
+      <c r="SE34" s="61"/>
+      <c r="SF34" s="61"/>
+      <c r="SG34" s="61"/>
+      <c r="SH34" s="61"/>
+      <c r="SI34" s="61"/>
+      <c r="SJ34" s="61"/>
+      <c r="SK34" s="61"/>
+      <c r="SL34" s="61"/>
+      <c r="SM34" s="61"/>
+      <c r="SN34" s="61"/>
+      <c r="SO34" s="61"/>
+      <c r="SP34" s="61"/>
+      <c r="SQ34" s="61"/>
+      <c r="SR34" s="61"/>
+      <c r="SS34" s="61"/>
+      <c r="ST34" s="61"/>
+      <c r="SU34" s="61"/>
+      <c r="SV34" s="61"/>
+      <c r="SW34" s="61"/>
+      <c r="SX34" s="61"/>
+      <c r="SY34" s="61"/>
+      <c r="SZ34" s="61"/>
+      <c r="TA34" s="61"/>
+      <c r="TB34" s="61"/>
+      <c r="TC34" s="61"/>
+      <c r="TD34" s="61"/>
+      <c r="TE34" s="61"/>
+      <c r="TF34" s="61"/>
+      <c r="TG34" s="61"/>
+      <c r="TH34" s="61"/>
+      <c r="TI34" s="61"/>
+      <c r="TJ34" s="61"/>
+      <c r="TK34" s="61"/>
+      <c r="TL34" s="61"/>
+      <c r="TM34" s="61"/>
+      <c r="TN34" s="61"/>
+      <c r="TO34" s="61"/>
+      <c r="TP34" s="61"/>
+      <c r="TQ34" s="61"/>
+      <c r="TR34" s="61"/>
+      <c r="TS34" s="61"/>
+      <c r="TT34" s="61"/>
+      <c r="TU34" s="61"/>
+      <c r="TV34" s="61"/>
+      <c r="TW34" s="61"/>
+      <c r="TX34" s="61"/>
+      <c r="TY34" s="61"/>
+      <c r="TZ34" s="61"/>
+      <c r="UA34" s="61"/>
+      <c r="UB34" s="61"/>
+      <c r="UC34" s="61"/>
+      <c r="UD34" s="61"/>
+      <c r="UE34" s="61"/>
+      <c r="UF34" s="61"/>
+      <c r="UG34" s="61"/>
+      <c r="UH34" s="61"/>
+      <c r="UI34" s="61"/>
+      <c r="UJ34" s="61"/>
+      <c r="UK34" s="61"/>
+      <c r="UL34" s="61"/>
+      <c r="UM34" s="61"/>
+      <c r="UN34" s="61"/>
+      <c r="UO34" s="61"/>
+      <c r="UP34" s="61"/>
+      <c r="UQ34" s="61"/>
+      <c r="UR34" s="61"/>
+      <c r="US34" s="61"/>
+      <c r="UT34" s="61"/>
+      <c r="UU34" s="61"/>
+      <c r="UV34" s="61"/>
+      <c r="UW34" s="61"/>
+      <c r="UX34" s="61"/>
+      <c r="UY34" s="61"/>
+      <c r="UZ34" s="61"/>
+      <c r="VA34" s="61"/>
+      <c r="VB34" s="61"/>
+      <c r="VC34" s="61"/>
+      <c r="VD34" s="61"/>
+      <c r="VE34" s="61"/>
+      <c r="VF34" s="61"/>
+      <c r="VG34" s="61"/>
+      <c r="VH34" s="61"/>
+      <c r="VI34" s="61"/>
+      <c r="VJ34" s="61"/>
+      <c r="VK34" s="61"/>
+      <c r="VL34" s="61"/>
+      <c r="VM34" s="61"/>
+      <c r="VN34" s="61"/>
+      <c r="VO34" s="61"/>
+      <c r="VP34" s="61"/>
+      <c r="VQ34" s="61"/>
+      <c r="VR34" s="61"/>
+      <c r="VS34" s="61"/>
+      <c r="VT34" s="61"/>
+      <c r="VU34" s="61"/>
+      <c r="VV34" s="61"/>
+      <c r="VW34" s="61"/>
+      <c r="VX34" s="61"/>
+      <c r="VY34" s="61"/>
+      <c r="VZ34" s="61"/>
+      <c r="WA34" s="61"/>
+      <c r="WB34" s="61"/>
+      <c r="WC34" s="61"/>
+      <c r="WD34" s="61"/>
+      <c r="WE34" s="61"/>
+      <c r="WF34" s="61"/>
+      <c r="WG34" s="61"/>
+      <c r="WH34" s="61"/>
+      <c r="WI34" s="61"/>
+      <c r="WJ34" s="61"/>
+      <c r="WK34" s="61"/>
+      <c r="WL34" s="61"/>
+      <c r="WM34" s="61"/>
+      <c r="WN34" s="61"/>
+      <c r="WO34" s="61"/>
+      <c r="WP34" s="61"/>
+      <c r="WQ34" s="61"/>
+      <c r="WR34" s="61"/>
+      <c r="WS34" s="61"/>
+      <c r="WT34" s="61"/>
+      <c r="WU34" s="61"/>
+      <c r="WV34" s="61"/>
+      <c r="WW34" s="61"/>
+      <c r="WX34" s="61"/>
+      <c r="WY34" s="61"/>
+      <c r="WZ34" s="61"/>
+      <c r="XA34" s="61"/>
+      <c r="XB34" s="61"/>
+      <c r="XC34" s="61"/>
+      <c r="XD34" s="61"/>
+      <c r="XE34" s="61"/>
+      <c r="XF34" s="61"/>
+      <c r="XG34" s="61"/>
+      <c r="XH34" s="61"/>
+      <c r="XI34" s="61"/>
+      <c r="XJ34" s="61"/>
+      <c r="XK34" s="61"/>
+      <c r="XL34" s="61"/>
+      <c r="XM34" s="61"/>
+      <c r="XN34" s="61"/>
+      <c r="XO34" s="61"/>
+      <c r="XP34" s="61"/>
+      <c r="XQ34" s="61"/>
+      <c r="XR34" s="61"/>
+      <c r="XS34" s="61"/>
+      <c r="XT34" s="61"/>
+      <c r="XU34" s="61"/>
+      <c r="XV34" s="61"/>
+      <c r="XW34" s="61"/>
+      <c r="XX34" s="61"/>
+      <c r="XY34" s="61"/>
+      <c r="XZ34" s="61"/>
+      <c r="YA34" s="61"/>
+      <c r="YB34" s="61"/>
+      <c r="YC34" s="61"/>
+      <c r="YD34" s="61"/>
+      <c r="YE34" s="61"/>
+      <c r="YF34" s="61"/>
+      <c r="YG34" s="61"/>
+      <c r="YH34" s="61"/>
+      <c r="YI34" s="61"/>
+      <c r="YJ34" s="61"/>
+      <c r="YK34" s="61"/>
+      <c r="YL34" s="61"/>
+      <c r="YM34" s="61"/>
+      <c r="YN34" s="61"/>
+      <c r="YO34" s="61"/>
+      <c r="YP34" s="61"/>
+      <c r="YQ34" s="61"/>
+      <c r="YR34" s="61"/>
+      <c r="YS34" s="61"/>
+      <c r="YT34" s="61"/>
+      <c r="YU34" s="61"/>
+      <c r="YV34" s="61"/>
+      <c r="YW34" s="61"/>
+      <c r="YX34" s="61"/>
+      <c r="YY34" s="61"/>
+      <c r="YZ34" s="61"/>
+      <c r="ZA34" s="61"/>
+      <c r="ZB34" s="61"/>
+      <c r="ZC34" s="61"/>
+      <c r="ZD34" s="61"/>
+      <c r="ZE34" s="61"/>
+      <c r="ZF34" s="61"/>
+      <c r="ZG34" s="61"/>
+      <c r="ZH34" s="61"/>
+      <c r="ZI34" s="61"/>
+      <c r="ZJ34" s="61"/>
+      <c r="ZK34" s="61"/>
+      <c r="ZL34" s="61"/>
+      <c r="ZM34" s="61"/>
+      <c r="ZN34" s="61"/>
+      <c r="ZO34" s="61"/>
+      <c r="ZP34" s="61"/>
+      <c r="ZQ34" s="61"/>
+      <c r="ZR34" s="61"/>
+      <c r="ZS34" s="61"/>
+      <c r="ZT34" s="61"/>
+      <c r="ZU34" s="61"/>
+      <c r="ZV34" s="61"/>
+      <c r="ZW34" s="61"/>
+      <c r="ZX34" s="61"/>
+      <c r="ZY34" s="61"/>
+      <c r="ZZ34" s="61"/>
+      <c r="AAA34" s="61"/>
+      <c r="AAB34" s="61"/>
+      <c r="AAC34" s="61"/>
+      <c r="AAD34" s="61"/>
+      <c r="AAE34" s="61"/>
+      <c r="AAF34" s="61"/>
+      <c r="AAG34" s="61"/>
+      <c r="AAH34" s="61"/>
+      <c r="AAI34" s="61"/>
+      <c r="AAJ34" s="61"/>
+      <c r="AAK34" s="61"/>
+      <c r="AAL34" s="61"/>
+      <c r="AAM34" s="61"/>
+      <c r="AAN34" s="61"/>
+      <c r="AAO34" s="61"/>
+      <c r="AAP34" s="61"/>
+      <c r="AAQ34" s="61"/>
+      <c r="AAR34" s="61"/>
+      <c r="AAS34" s="61"/>
+      <c r="AAT34" s="61"/>
+      <c r="AAU34" s="61"/>
+      <c r="AAV34" s="61"/>
+      <c r="AAW34" s="61"/>
+      <c r="AAX34" s="61"/>
+      <c r="AAY34" s="61"/>
+      <c r="AAZ34" s="61"/>
+      <c r="ABA34" s="61"/>
+      <c r="ABB34" s="61"/>
+      <c r="ABC34" s="61"/>
+      <c r="ABD34" s="61"/>
+      <c r="ABE34" s="61"/>
+      <c r="ABF34" s="61"/>
+      <c r="ABG34" s="61"/>
+      <c r="ABH34" s="61"/>
+      <c r="ABI34" s="61"/>
+      <c r="ABJ34" s="61"/>
+      <c r="ABK34" s="61"/>
+      <c r="ABL34" s="61"/>
+      <c r="ABM34" s="61"/>
+      <c r="ABN34" s="61"/>
+      <c r="ABO34" s="61"/>
+      <c r="ABP34" s="61"/>
+      <c r="ABQ34" s="61"/>
+      <c r="ABR34" s="61"/>
+      <c r="ABS34" s="61"/>
+      <c r="ABT34" s="61"/>
+      <c r="ABU34" s="61"/>
+      <c r="ABV34" s="61"/>
+      <c r="ABW34" s="61"/>
+      <c r="ABX34" s="61"/>
+      <c r="ABY34" s="61"/>
+      <c r="ABZ34" s="61"/>
+      <c r="ACA34" s="61"/>
+      <c r="ACB34" s="61"/>
+      <c r="ACC34" s="61"/>
+      <c r="ACD34" s="61"/>
+      <c r="ACE34" s="61"/>
+      <c r="ACF34" s="61"/>
+      <c r="ACG34" s="61"/>
+      <c r="ACH34" s="61"/>
+      <c r="ACI34" s="61"/>
+      <c r="ACJ34" s="61"/>
+      <c r="ACK34" s="61"/>
+      <c r="ACL34" s="61"/>
+      <c r="ACM34" s="61"/>
+      <c r="ACN34" s="61"/>
+      <c r="ACO34" s="61"/>
+      <c r="ACP34" s="61"/>
+      <c r="ACQ34" s="61"/>
+      <c r="ACR34" s="61"/>
+      <c r="ACS34" s="61"/>
+      <c r="ACT34" s="61"/>
+      <c r="ACU34" s="61"/>
+      <c r="ACV34" s="61"/>
+      <c r="ACW34" s="61"/>
+      <c r="ACX34" s="61"/>
+      <c r="ACY34" s="61"/>
+      <c r="ACZ34" s="61"/>
+      <c r="ADA34" s="61"/>
+      <c r="ADB34" s="61"/>
+      <c r="ADC34" s="61"/>
+      <c r="ADD34" s="61"/>
+      <c r="ADE34" s="61"/>
+      <c r="ADF34" s="61"/>
+      <c r="ADG34" s="61"/>
+      <c r="ADH34" s="61"/>
+      <c r="ADI34" s="61"/>
+      <c r="ADJ34" s="61"/>
+      <c r="ADK34" s="61"/>
+      <c r="ADL34" s="61"/>
+      <c r="ADM34" s="61"/>
+      <c r="ADN34" s="61"/>
+      <c r="ADO34" s="61"/>
+      <c r="ADP34" s="61"/>
+      <c r="ADQ34" s="61"/>
+      <c r="ADR34" s="61"/>
+      <c r="ADS34" s="61"/>
+      <c r="ADT34" s="61"/>
+      <c r="ADU34" s="61"/>
+      <c r="ADV34" s="61"/>
+      <c r="ADW34" s="61"/>
+      <c r="ADX34" s="61"/>
+      <c r="ADY34" s="61"/>
+      <c r="ADZ34" s="61"/>
+      <c r="AEA34" s="61"/>
+      <c r="AEB34" s="61"/>
+      <c r="AEC34" s="61"/>
+      <c r="AED34" s="61"/>
+      <c r="AEE34" s="61"/>
+      <c r="AEF34" s="61"/>
+      <c r="AEG34" s="61"/>
+      <c r="AEH34" s="61"/>
+      <c r="AEI34" s="61"/>
+      <c r="AEJ34" s="61"/>
+      <c r="AEK34" s="61"/>
+      <c r="AEL34" s="61"/>
+      <c r="AEM34" s="61"/>
+      <c r="AEN34" s="61"/>
+      <c r="AEO34" s="61"/>
+      <c r="AEP34" s="61"/>
+      <c r="AEQ34" s="61"/>
+      <c r="AER34" s="61"/>
+      <c r="AES34" s="61"/>
+      <c r="AET34" s="61"/>
+      <c r="AEU34" s="61"/>
+      <c r="AEV34" s="61"/>
+      <c r="AEW34" s="61"/>
+      <c r="AEX34" s="61"/>
+      <c r="AEY34" s="61"/>
+      <c r="AEZ34" s="61"/>
+      <c r="AFA34" s="61"/>
+      <c r="AFB34" s="61"/>
+      <c r="AFC34" s="61"/>
+      <c r="AFD34" s="61"/>
+      <c r="AFE34" s="61"/>
+      <c r="AFF34" s="61"/>
+      <c r="AFG34" s="61"/>
+      <c r="AFH34" s="61"/>
+      <c r="AFI34" s="61"/>
+      <c r="AFJ34" s="61"/>
+      <c r="AFK34" s="61"/>
+      <c r="AFL34" s="61"/>
+      <c r="AFM34" s="61"/>
+      <c r="AFN34" s="61"/>
+      <c r="AFO34" s="61"/>
+      <c r="AFP34" s="61"/>
+      <c r="AFQ34" s="61"/>
+      <c r="AFR34" s="61"/>
+      <c r="AFS34" s="61"/>
+      <c r="AFT34" s="61"/>
+      <c r="AFU34" s="61"/>
+      <c r="AFV34" s="61"/>
+      <c r="AFW34" s="61"/>
+      <c r="AFX34" s="61"/>
+      <c r="AFY34" s="61"/>
+      <c r="AFZ34" s="61"/>
+      <c r="AGA34" s="61"/>
+      <c r="AGB34" s="61"/>
+      <c r="AGC34" s="61"/>
+      <c r="AGD34" s="61"/>
+      <c r="AGE34" s="61"/>
+      <c r="AGF34" s="61"/>
+      <c r="AGG34" s="61"/>
+      <c r="AGH34" s="61"/>
+      <c r="AGI34" s="61"/>
+      <c r="AGJ34" s="61"/>
+      <c r="AGK34" s="61"/>
+      <c r="AGL34" s="61"/>
+      <c r="AGM34" s="61"/>
+      <c r="AGN34" s="61"/>
+      <c r="AGO34" s="61"/>
+      <c r="AGP34" s="61"/>
+      <c r="AGQ34" s="61"/>
+      <c r="AGR34" s="61"/>
+      <c r="AGS34" s="61"/>
+      <c r="AGT34" s="61"/>
+      <c r="AGU34" s="61"/>
+      <c r="AGV34" s="61"/>
+      <c r="AGW34" s="61"/>
+      <c r="AGX34" s="61"/>
+      <c r="AGY34" s="61"/>
+      <c r="AGZ34" s="61"/>
+      <c r="AHA34" s="61"/>
+      <c r="AHB34" s="61"/>
+      <c r="AHC34" s="61"/>
+      <c r="AHD34" s="61"/>
+      <c r="AHE34" s="61"/>
+      <c r="AHF34" s="61"/>
+      <c r="AHG34" s="61"/>
+      <c r="AHH34" s="61"/>
+      <c r="AHI34" s="61"/>
+      <c r="AHJ34" s="61"/>
+      <c r="AHK34" s="61"/>
+      <c r="AHL34" s="61"/>
+      <c r="AHM34" s="61"/>
+      <c r="AHN34" s="61"/>
+      <c r="AHO34" s="61"/>
+      <c r="AHP34" s="61"/>
+      <c r="AHQ34" s="61"/>
+      <c r="AHR34" s="61"/>
+      <c r="AHS34" s="61"/>
+      <c r="AHT34" s="61"/>
+      <c r="AHU34" s="61"/>
+      <c r="AHV34" s="61"/>
+      <c r="AHW34" s="61"/>
+      <c r="AHX34" s="61"/>
+      <c r="AHY34" s="61"/>
+      <c r="AHZ34" s="61"/>
+      <c r="AIA34" s="61"/>
+      <c r="AIB34" s="61"/>
+      <c r="AIC34" s="61"/>
+      <c r="AID34" s="61"/>
+      <c r="AIE34" s="61"/>
+      <c r="AIF34" s="61"/>
+      <c r="AIG34" s="61"/>
+      <c r="AIH34" s="61"/>
+      <c r="AII34" s="61"/>
+      <c r="AIJ34" s="61"/>
+      <c r="AIK34" s="61"/>
+      <c r="AIL34" s="61"/>
+      <c r="AIM34" s="61"/>
+      <c r="AIN34" s="61"/>
+      <c r="AIO34" s="61"/>
+      <c r="AIP34" s="61"/>
+      <c r="AIQ34" s="61"/>
+      <c r="AIR34" s="61"/>
+      <c r="AIS34" s="61"/>
+      <c r="AIT34" s="61"/>
+      <c r="AIU34" s="61"/>
+      <c r="AIV34" s="61"/>
+      <c r="AIW34" s="61"/>
+      <c r="AIX34" s="61"/>
+      <c r="AIY34" s="61"/>
+      <c r="AIZ34" s="61"/>
+      <c r="AJA34" s="61"/>
+      <c r="AJB34" s="61"/>
+      <c r="AJC34" s="61"/>
+      <c r="AJD34" s="61"/>
+      <c r="AJE34" s="61"/>
+      <c r="AJF34" s="61"/>
+      <c r="AJG34" s="61"/>
+      <c r="AJH34" s="61"/>
+      <c r="AJI34" s="61"/>
+      <c r="AJJ34" s="61"/>
+      <c r="AJK34" s="61"/>
+      <c r="AJL34" s="61"/>
+      <c r="AJM34" s="61"/>
+      <c r="AJN34" s="61"/>
+      <c r="AJO34" s="61"/>
+      <c r="AJP34" s="61"/>
+      <c r="AJQ34" s="61"/>
+      <c r="AJR34" s="61"/>
+      <c r="AJS34" s="61"/>
+      <c r="AJT34" s="61"/>
+      <c r="AJU34" s="61"/>
+      <c r="AJV34" s="61"/>
+      <c r="AJW34" s="61"/>
+      <c r="AJX34" s="61"/>
+      <c r="AJY34" s="61"/>
+      <c r="AJZ34" s="61"/>
+      <c r="AKA34" s="61"/>
+      <c r="AKB34" s="61"/>
+      <c r="AKC34" s="61"/>
+      <c r="AKD34" s="61"/>
+      <c r="AKE34" s="61"/>
+      <c r="AKF34" s="61"/>
+      <c r="AKG34" s="61"/>
+      <c r="AKH34" s="61"/>
+      <c r="AKI34" s="61"/>
+      <c r="AKJ34" s="61"/>
+      <c r="AKK34" s="61"/>
+      <c r="AKL34" s="61"/>
+      <c r="AKM34" s="61"/>
+      <c r="AKN34" s="61"/>
+      <c r="AKO34" s="61"/>
+      <c r="AKP34" s="61"/>
+      <c r="AKQ34" s="61"/>
+      <c r="AKR34" s="61"/>
+      <c r="AKS34" s="61"/>
+      <c r="AKT34" s="61"/>
+      <c r="AKU34" s="61"/>
+      <c r="AKV34" s="61"/>
+      <c r="AKW34" s="61"/>
+      <c r="AKX34" s="61"/>
+      <c r="AKY34" s="61"/>
+      <c r="AKZ34" s="61"/>
+      <c r="ALA34" s="61"/>
+      <c r="ALB34" s="61"/>
+      <c r="ALC34" s="61"/>
+      <c r="ALD34" s="61"/>
+      <c r="ALE34" s="61"/>
+      <c r="ALF34" s="61"/>
+      <c r="ALG34" s="61"/>
+      <c r="ALH34" s="61"/>
+      <c r="ALI34" s="61"/>
+      <c r="ALJ34" s="61"/>
+      <c r="ALK34" s="61"/>
+      <c r="ALL34" s="61"/>
+      <c r="ALM34" s="61"/>
+      <c r="ALN34" s="61"/>
+      <c r="ALO34" s="61"/>
+      <c r="ALP34" s="61"/>
+      <c r="ALQ34" s="61"/>
+      <c r="ALR34" s="61"/>
+      <c r="ALS34" s="61"/>
+      <c r="ALT34" s="61"/>
+      <c r="ALU34" s="61"/>
+      <c r="ALV34" s="61"/>
+      <c r="ALW34" s="61"/>
+      <c r="ALX34" s="61"/>
+      <c r="ALY34" s="61"/>
+      <c r="ALZ34" s="61"/>
+      <c r="AMA34" s="61"/>
+      <c r="AMB34" s="61"/>
+      <c r="AMC34" s="61"/>
+      <c r="AMD34" s="61"/>
+      <c r="AME34" s="61"/>
+      <c r="AMF34" s="61"/>
+      <c r="AMG34" s="61"/>
+      <c r="AMH34" s="61"/>
+      <c r="AMI34" s="61"/>
+      <c r="AMJ34" s="61"/>
+    </row>
+    <row r="35" spans="1:1024">
+      <c r="A35" s="41"/>
       <c r="O35" s="69"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:1024">
       <c r="A36" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="46"/>
+      <c r="B36" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C36" s="46">
+        <v>68</v>
+      </c>
+      <c r="D36" s="47">
+        <v>11.33</v>
+      </c>
+      <c r="E36" s="56">
+        <f>Sayfa2!$D36*Sayfa2!$C36</f>
+        <v>770.44</v>
+      </c>
+      <c r="F36" s="63">
+        <v>45370</v>
+      </c>
+      <c r="G36" s="64">
+        <v>68</v>
+      </c>
+      <c r="H36" s="65">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="I36" s="51">
+        <f>Sayfa2!$H36*Sayfa2!$G36</f>
+        <v>1338.92</v>
+      </c>
+      <c r="J36" s="46">
+        <f>H36-D36</f>
+        <v>8.3600000000000012</v>
+      </c>
       <c r="K36" s="66">
+        <f>Sayfa2!$J36*Sayfa2!$C36</f>
+        <v>568.48000000000013</v>
+      </c>
+      <c r="L36" s="67">
+        <f>F36-B36</f>
+        <v>20</v>
+      </c>
+      <c r="M36" s="68">
+        <f>K36/E36</f>
+        <v>0.73786407766990303</v>
+      </c>
+      <c r="N36" s="68">
+        <f>M36/L36*30</f>
+        <v>1.1067961165048545</v>
+      </c>
+      <c r="O36" s="69"/>
+    </row>
+    <row r="37" spans="1:1024">
+      <c r="A37" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="66">
         <v>-2.81</v>
       </c>
-      <c r="L36" s="67"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="69"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="104" t="s">
+      <c r="L37" s="67"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="69"/>
+    </row>
+    <row r="38" spans="1:1024">
+      <c r="A38" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B38" s="48">
         <v>45344</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C38" s="46">
         <v>15</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D38" s="47">
         <v>39.24</v>
       </c>
-      <c r="E37" s="56">
-        <f>Sayfa2!$D37*Sayfa2!$C37</f>
+      <c r="E38" s="56">
+        <f>Sayfa2!$D38*Sayfa2!$C38</f>
         <v>588.6</v>
       </c>
-      <c r="F37" s="105">
+      <c r="F38" s="105">
         <v>45362</v>
       </c>
-      <c r="G37" s="106">
+      <c r="G38" s="106">
         <v>15</v>
       </c>
-      <c r="H37" s="107">
+      <c r="H38" s="107">
         <v>55.6</v>
       </c>
-      <c r="I37" s="51">
-        <f>Sayfa2!$H37*Sayfa2!$G37</f>
+      <c r="I38" s="51">
+        <f>Sayfa2!$H38*Sayfa2!$G38</f>
         <v>834</v>
       </c>
-      <c r="J37" s="46">
-        <f>H37-D37</f>
+      <c r="J38" s="46">
+        <f>H38-D38</f>
         <v>16.36</v>
       </c>
-      <c r="K37" s="56">
-        <f>Sayfa2!$J37*Sayfa2!$C37</f>
+      <c r="K38" s="56">
+        <f>Sayfa2!$J38*Sayfa2!$C38</f>
         <v>245.39999999999998</v>
       </c>
-      <c r="L37" s="108">
-        <f>F37-B37</f>
+      <c r="L38" s="108">
+        <f>F38-B38</f>
         <v>18</v>
       </c>
-      <c r="M37" s="109">
-        <f>K37/E37</f>
+      <c r="M38" s="109">
+        <f>K38/E38</f>
         <v>0.41692150866462785</v>
       </c>
-      <c r="N37" s="109">
-        <f>M37/L37*30</f>
+      <c r="N38" s="109">
+        <f>M38/L38*30</f>
         <v>0.69486918110771312</v>
       </c>
-      <c r="O37" s="110"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="104" t="s">
+      <c r="O38" s="110"/>
+    </row>
+    <row r="39" spans="1:1024">
+      <c r="A39" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="56">
+      <c r="B39" s="48"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="56">
         <v>-1.75</v>
       </c>
-      <c r="L38" s="108"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="110"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="104" t="s">
+      <c r="L39" s="108"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="110"/>
+    </row>
+    <row r="40" spans="1:1024">
+      <c r="A40" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B40" s="48">
         <v>45344</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C40" s="46">
         <v>12</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D40" s="47">
         <v>19.45</v>
       </c>
-      <c r="E39" s="56">
-        <f>Sayfa2!$D39*Sayfa2!$C39</f>
+      <c r="E40" s="56">
+        <f>Sayfa2!$D40*Sayfa2!$C40</f>
         <v>233.39999999999998</v>
       </c>
-      <c r="F39" s="105">
+      <c r="F40" s="105">
         <v>45364</v>
       </c>
-      <c r="G39" s="106">
+      <c r="G40" s="106">
         <v>12</v>
       </c>
-      <c r="H39" s="107">
+      <c r="H40" s="107">
         <v>45.72</v>
       </c>
-      <c r="I39" s="51">
-        <f>Sayfa2!$H39*Sayfa2!$G39</f>
+      <c r="I40" s="51">
+        <f>Sayfa2!$H40*Sayfa2!$G40</f>
         <v>548.64</v>
       </c>
-      <c r="J39" s="46">
-        <f>H39-D39</f>
+      <c r="J40" s="46">
+        <f>H40-D40</f>
         <v>26.27</v>
       </c>
-      <c r="K39" s="56">
-        <f>Sayfa2!$J39*Sayfa2!$C39</f>
+      <c r="K40" s="56">
+        <f>Sayfa2!$J40*Sayfa2!$C40</f>
         <v>315.24</v>
       </c>
-      <c r="L39" s="108">
-        <f>F39-B39</f>
+      <c r="L40" s="108">
+        <f>F40-B40</f>
         <v>20</v>
       </c>
-      <c r="M39" s="109">
-        <f>K39/E39</f>
+      <c r="M40" s="109">
+        <f>K40/E40</f>
         <v>1.3506426735218511</v>
       </c>
-      <c r="N39" s="109">
-        <f>M39/L39*30</f>
+      <c r="N40" s="109">
+        <f>M40/L40*30</f>
         <v>2.0259640102827765</v>
       </c>
-      <c r="O39" s="69"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="104" t="s">
+      <c r="O40" s="69"/>
+    </row>
+    <row r="41" spans="1:1024">
+      <c r="A41" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="56">
+      <c r="B41" s="48"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="56">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="L40" s="108"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="69"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="41" t="s">
+      <c r="L41" s="108"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="109"/>
+      <c r="O41" s="69"/>
+    </row>
+    <row r="42" spans="1:1024">
+      <c r="A42" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="2">
         <v>45341</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C42" s="46">
         <v>36</v>
       </c>
-      <c r="D41" s="47">
+      <c r="D42" s="47">
         <v>16.2</v>
       </c>
-      <c r="E41" s="62">
-        <f>Sayfa2!$D41*Sayfa2!$C41</f>
+      <c r="E42" s="62">
+        <f>Sayfa2!$D42*Sayfa2!$C42</f>
         <v>583.19999999999993</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F42" s="2">
         <v>45356</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G42" s="49">
         <v>36</v>
       </c>
-      <c r="H41" s="103">
+      <c r="H42" s="103">
         <v>38</v>
       </c>
-      <c r="I41" s="51">
-        <f>Sayfa2!$H41*Sayfa2!$G41</f>
+      <c r="I42" s="51">
+        <f>Sayfa2!$H42*Sayfa2!$G42</f>
         <v>1368</v>
       </c>
-      <c r="J41" s="46">
-        <f>H41-D41</f>
+      <c r="J42" s="46">
+        <f>H42-D42</f>
         <v>21.8</v>
       </c>
-      <c r="K41" s="112">
-        <f>Sayfa2!$J41*Sayfa2!$C41</f>
+      <c r="K42" s="112">
+        <f>Sayfa2!$J42*Sayfa2!$C42</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="L41" s="67">
-        <f>F41-B41</f>
+      <c r="L42" s="67">
+        <f>F42-B42</f>
         <v>15</v>
       </c>
-      <c r="M41" s="68">
-        <f>K41/E41</f>
+      <c r="M42" s="68">
+        <f>K42/E42</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="N41" s="68">
-        <f>M41/L41*30</f>
+      <c r="N42" s="68">
+        <f>M42/L42*30</f>
         <v>2.6913580246913584</v>
       </c>
-      <c r="O41" s="113"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="41" t="s">
+      <c r="O42" s="113"/>
+    </row>
+    <row r="43" spans="1:1024">
+      <c r="A43" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="62"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="112">
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="62"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="112">
         <v>-2.88</v>
       </c>
-      <c r="L42" s="67"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="113"/>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45222</v>
-      </c>
-      <c r="C43" s="3">
-        <v>9</v>
-      </c>
-      <c r="D43" s="1">
-        <v>130</v>
-      </c>
-      <c r="E43" s="62">
-        <f>Sayfa2!$D43*Sayfa2!$C43</f>
-        <v>1170</v>
-      </c>
-      <c r="F43" s="114">
-        <v>45334</v>
-      </c>
-      <c r="G43" s="46">
-        <v>9</v>
-      </c>
-      <c r="H43" s="115">
-        <v>145.5</v>
-      </c>
-      <c r="I43" s="51">
-        <f>Sayfa2!$H43*Sayfa2!$G43</f>
-        <v>1309.5</v>
-      </c>
-      <c r="J43" s="116">
-        <f>H43-D43</f>
-        <v>15.5</v>
-      </c>
-      <c r="K43" s="66">
-        <f>Sayfa2!$J43*Sayfa2!$G43</f>
-        <v>139.5</v>
-      </c>
-      <c r="L43" s="67">
-        <f>F43-B43</f>
-        <v>112</v>
-      </c>
-      <c r="M43" s="68">
-        <f>K43/E43</f>
-        <v>0.11923076923076924</v>
-      </c>
-      <c r="N43" s="68">
-        <f>K43/E43</f>
-        <v>0.11923076923076924</v>
-      </c>
+      <c r="L43" s="67"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
       <c r="O43" s="113"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:1024">
       <c r="A44" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="2">
-        <v>45271</v>
+        <v>45222</v>
       </c>
       <c r="C44" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1">
-        <v>144.001</v>
+        <v>130</v>
       </c>
       <c r="E44" s="62">
         <f>Sayfa2!$D44*Sayfa2!$C44</f>
-        <v>1440.01</v>
+        <v>1170</v>
       </c>
       <c r="F44" s="114">
         <v>45334</v>
       </c>
       <c r="G44" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44" s="115">
         <v>145.5</v>
       </c>
       <c r="I44" s="51">
         <f>Sayfa2!$H44*Sayfa2!$G44</f>
-        <v>1455</v>
+        <v>1309.5</v>
       </c>
       <c r="J44" s="116">
         <f>H44-D44</f>
-        <v>1.4989999999999952</v>
+        <v>15.5</v>
       </c>
       <c r="K44" s="66">
         <f>Sayfa2!$J44*Sayfa2!$G44</f>
-        <v>14.989999999999952</v>
+        <v>139.5</v>
       </c>
       <c r="L44" s="67">
         <f>F44-B44</f>
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="M44" s="68">
         <f>K44/E44</f>
-        <v>1.0409649932986544E-2</v>
+        <v>0.11923076923076924</v>
       </c>
       <c r="N44" s="68">
         <f>K44/E44</f>
-        <v>1.0409649932986544E-2</v>
+        <v>0.11923076923076924</v>
       </c>
       <c r="O44" s="113"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:1024">
       <c r="A45" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="2">
-        <v>45288</v>
+        <v>45271</v>
       </c>
       <c r="C45" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>115.34</v>
+        <v>144.001</v>
       </c>
       <c r="E45" s="62">
         <f>Sayfa2!$D45*Sayfa2!$C45</f>
-        <v>2306.8000000000002</v>
+        <v>1440.01</v>
       </c>
       <c r="F45" s="114">
         <v>45334</v>
       </c>
       <c r="G45" s="46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H45" s="115">
         <v>145.5</v>
       </c>
       <c r="I45" s="51">
         <f>Sayfa2!$H45*Sayfa2!$G45</f>
-        <v>2910</v>
+        <v>1455</v>
       </c>
       <c r="J45" s="116">
         <f>H45-D45</f>
-        <v>30.159999999999997</v>
+        <v>1.4989999999999952</v>
       </c>
       <c r="K45" s="66">
         <f>Sayfa2!$J45*Sayfa2!$G45</f>
-        <v>603.19999999999993</v>
+        <v>14.989999999999952</v>
       </c>
       <c r="L45" s="67">
         <f>F45-B45</f>
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M45" s="68">
         <f>K45/E45</f>
-        <v>0.26148777527310557</v>
+        <v>1.0409649932986544E-2</v>
       </c>
       <c r="N45" s="68">
         <f>K45/E45</f>
-        <v>0.26148777527310557</v>
+        <v>1.0409649932986544E-2</v>
       </c>
       <c r="O45" s="113"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:1024">
       <c r="A46" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2">
-        <v>45335</v>
+        <v>45288</v>
       </c>
       <c r="C46" s="3">
-        <v>313</v>
-      </c>
-      <c r="D46" s="3">
-        <v>190.8</v>
+        <v>20</v>
+      </c>
+      <c r="D46" s="1">
+        <v>115.34</v>
       </c>
       <c r="E46" s="62">
         <f>Sayfa2!$D46*Sayfa2!$C46</f>
-        <v>59720.4</v>
-      </c>
-      <c r="F46" s="2">
-        <v>45337</v>
+        <v>2306.8000000000002</v>
+      </c>
+      <c r="F46" s="114">
+        <v>45334</v>
       </c>
       <c r="G46" s="46">
-        <v>313</v>
-      </c>
-      <c r="H46" s="1">
-        <v>203.3</v>
+        <v>20</v>
+      </c>
+      <c r="H46" s="115">
+        <v>145.5</v>
       </c>
       <c r="I46" s="51">
         <f>Sayfa2!$H46*Sayfa2!$G46</f>
-        <v>63632.9</v>
-      </c>
-      <c r="J46" s="46">
+        <v>2910</v>
+      </c>
+      <c r="J46" s="116">
         <f>H46-D46</f>
-        <v>12.5</v>
+        <v>30.159999999999997</v>
       </c>
       <c r="K46" s="66">
         <f>Sayfa2!$J46*Sayfa2!$G46</f>
-        <v>3912.5</v>
+        <v>603.19999999999993</v>
       </c>
       <c r="L46" s="67">
         <f>F46-B46</f>
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="M46" s="68">
         <f>K46/E46</f>
-        <v>6.5513626834381555E-2</v>
+        <v>0.26148777527310557</v>
       </c>
       <c r="N46" s="68">
-        <f>M46/L46*30</f>
-        <v>0.98270440251572333</v>
+        <f>K46/E46</f>
+        <v>0.26148777527310557</v>
       </c>
       <c r="O46" s="113"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:1024">
       <c r="A47" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C47" s="3">
+        <v>313</v>
+      </c>
+      <c r="D47" s="3">
+        <v>190.8</v>
       </c>
       <c r="E47" s="62">
         <f>Sayfa2!$D47*Sayfa2!$C47</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="48"/>
+        <v>59720.4</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45337</v>
+      </c>
+      <c r="G47" s="46">
+        <v>313</v>
+      </c>
+      <c r="H47" s="1">
+        <v>203.3</v>
+      </c>
       <c r="I47" s="51">
         <f>Sayfa2!$H47*Sayfa2!$G47</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>-133.63</v>
+        <v>63632.9</v>
+      </c>
+      <c r="J47" s="46">
+        <f>H47-D47</f>
+        <v>12.5</v>
       </c>
       <c r="K47" s="66">
         <f>Sayfa2!$J47*Sayfa2!$G47</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
+        <v>3912.5</v>
+      </c>
+      <c r="L47" s="67">
+        <f>F47-B47</f>
+        <v>2</v>
+      </c>
+      <c r="M47" s="68">
+        <f>K47/E47</f>
+        <v>6.5513626834381555E-2</v>
+      </c>
+      <c r="N47" s="68">
+        <f>M47/L47*30</f>
+        <v>0.98270440251572333</v>
+      </c>
       <c r="O47" s="113"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:1024">
       <c r="A48" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="48">
-        <v>45267</v>
-      </c>
-      <c r="C48" s="52">
-        <v>10</v>
-      </c>
-      <c r="D48" s="1">
-        <v>49.18</v>
+        <v>39</v>
       </c>
       <c r="E48" s="62">
         <f>Sayfa2!$D48*Sayfa2!$C48</f>
-        <v>491.8</v>
-      </c>
-      <c r="F48" s="48">
-        <v>45327</v>
-      </c>
-      <c r="G48" s="52">
-        <v>10</v>
-      </c>
-      <c r="H48" s="55">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F48" s="48"/>
       <c r="I48" s="51">
         <f>Sayfa2!$H48*Sayfa2!$G48</f>
-        <v>520</v>
-      </c>
-      <c r="J48" s="6">
-        <f>H48-D48</f>
-        <v>2.8200000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>-133.63</v>
       </c>
       <c r="K48" s="66">
         <f>Sayfa2!$J48*Sayfa2!$G48</f>
-        <v>28.200000000000003</v>
-      </c>
-      <c r="L48" s="67">
-        <f>F48-B48</f>
-        <v>60</v>
-      </c>
-      <c r="M48" s="68">
-        <f>K48/E48</f>
-        <v>5.7340382269215132E-2</v>
-      </c>
-      <c r="N48" s="68">
-        <f>M48/L48*30</f>
-        <v>2.8670191134607566E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
       <c r="O48" s="113"/>
-      <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="2">
+        <v>40</v>
+      </c>
+      <c r="B49" s="48">
         <v>45267</v>
       </c>
-      <c r="C49" s="3">
-        <v>13</v>
+      <c r="C49" s="52">
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>28.3</v>
+        <v>49.18</v>
       </c>
       <c r="E49" s="62">
         <f>Sayfa2!$D49*Sayfa2!$C49</f>
-        <v>367.90000000000003</v>
-      </c>
-      <c r="F49" s="2">
-        <v>45313</v>
-      </c>
-      <c r="G49" s="46">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1">
-        <v>41.6</v>
+        <v>491.8</v>
+      </c>
+      <c r="F49" s="48">
+        <v>45327</v>
+      </c>
+      <c r="G49" s="52">
+        <v>10</v>
+      </c>
+      <c r="H49" s="55">
+        <v>52</v>
       </c>
       <c r="I49" s="51">
         <f>Sayfa2!$H49*Sayfa2!$G49</f>
-        <v>540.80000000000007</v>
+        <v>520</v>
       </c>
       <c r="J49" s="6">
         <f>H49-D49</f>
-        <v>13.3</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="K49" s="66">
         <f>Sayfa2!$J49*Sayfa2!$G49</f>
-        <v>172.9</v>
-      </c>
-      <c r="L49" s="117">
+        <v>28.200000000000003</v>
+      </c>
+      <c r="L49" s="67">
         <f>F49-B49</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M49" s="68">
         <f>K49/E49</f>
-        <v>0.46996466431095402</v>
+        <v>5.7340382269215132E-2</v>
       </c>
       <c r="N49" s="68">
         <f>M49/L49*30</f>
-        <v>0.30649869411583958</v>
+        <v>2.8670191134607566E-2</v>
       </c>
       <c r="O49" s="113"/>
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="119">
-        <v>45273</v>
-      </c>
-      <c r="C50" s="120">
-        <v>26</v>
-      </c>
-      <c r="D50" s="121">
-        <v>55.08</v>
+      <c r="A50" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45267</v>
+      </c>
+      <c r="C50" s="3">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1">
+        <v>28.3</v>
       </c>
       <c r="E50" s="62">
         <f>Sayfa2!$D50*Sayfa2!$C50</f>
-        <v>1432.08</v>
+        <v>367.90000000000003</v>
       </c>
       <c r="F50" s="2">
         <v>45313</v>
       </c>
       <c r="G50" s="46">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1">
-        <v>51.4</v>
+        <v>41.6</v>
       </c>
       <c r="I50" s="51">
         <f>Sayfa2!$H50*Sayfa2!$G50</f>
-        <v>1336.3999999999999</v>
-      </c>
-      <c r="J50" s="116">
+        <v>540.80000000000007</v>
+      </c>
+      <c r="J50" s="6">
         <f>H50-D50</f>
-        <v>-3.6799999999999997</v>
+        <v>13.3</v>
       </c>
       <c r="K50" s="66">
         <f>Sayfa2!$J50*Sayfa2!$G50</f>
-        <v>-95.679999999999993</v>
-      </c>
-      <c r="L50" s="55"/>
+        <v>172.9</v>
+      </c>
+      <c r="L50" s="117">
+        <f>F50-B50</f>
+        <v>46</v>
+      </c>
       <c r="M50" s="68">
         <f>K50/E50</f>
-        <v>-6.6811909949164847E-2</v>
-      </c>
-      <c r="N50" s="68"/>
+        <v>0.46996466431095402</v>
+      </c>
+      <c r="N50" s="68">
+        <f>M50/L50*30</f>
+        <v>0.30649869411583958</v>
+      </c>
       <c r="O50" s="113"/>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="2">
-        <v>45288</v>
-      </c>
-      <c r="C51" s="3">
-        <v>100</v>
-      </c>
-      <c r="D51" s="1">
-        <v>39.5</v>
+      <c r="A51" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="119">
+        <v>45273</v>
+      </c>
+      <c r="C51" s="120">
+        <v>26</v>
+      </c>
+      <c r="D51" s="121">
+        <v>55.08</v>
       </c>
       <c r="E51" s="62">
         <f>Sayfa2!$D51*Sayfa2!$C51</f>
-        <v>3950</v>
+        <v>1432.08</v>
       </c>
       <c r="F51" s="2">
         <v>45313</v>
       </c>
       <c r="G51" s="46">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H51" s="1">
         <v>51.4</v>
       </c>
       <c r="I51" s="51">
         <f>Sayfa2!$H51*Sayfa2!$G51</f>
-        <v>5140</v>
+        <v>1336.3999999999999</v>
       </c>
       <c r="J51" s="116">
         <f>H51-D51</f>
-        <v>11.899999999999999</v>
+        <v>-3.6799999999999997</v>
       </c>
       <c r="K51" s="66">
         <f>Sayfa2!$J51*Sayfa2!$G51</f>
-        <v>1189.9999999999998</v>
-      </c>
-      <c r="L51" s="117">
-        <f>F51-B51</f>
-        <v>25</v>
-      </c>
+        <v>-95.679999999999993</v>
+      </c>
+      <c r="L51" s="55"/>
       <c r="M51" s="68">
         <f>K51/E51</f>
+        <v>-6.6811909949164847E-2</v>
+      </c>
+      <c r="N51" s="68"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45288</v>
+      </c>
+      <c r="C52" s="3">
+        <v>100</v>
+      </c>
+      <c r="D52" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="E52" s="62">
+        <f>Sayfa2!$D52*Sayfa2!$C52</f>
+        <v>3950</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45313</v>
+      </c>
+      <c r="G52" s="46">
+        <v>100</v>
+      </c>
+      <c r="H52" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="I52" s="51">
+        <f>Sayfa2!$H52*Sayfa2!$G52</f>
+        <v>5140</v>
+      </c>
+      <c r="J52" s="116">
+        <f>H52-D52</f>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="K52" s="66">
+        <f>Sayfa2!$J52*Sayfa2!$G52</f>
+        <v>1189.9999999999998</v>
+      </c>
+      <c r="L52" s="117">
+        <f>F52-B52</f>
+        <v>25</v>
+      </c>
+      <c r="M52" s="68">
+        <f>K52/E52</f>
         <v>0.30126582278481007</v>
       </c>
-      <c r="N51" s="68">
-        <f>M51/L51*30</f>
+      <c r="N52" s="68">
+        <f>M52/L52*30</f>
         <v>0.36151898734177207</v>
       </c>
-      <c r="O51" s="70">
-        <f>SUM(K41:K51)</f>
-        <v>6747.53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="41"/>
-      <c r="E52" s="62"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="117"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="113"/>
+      <c r="O52" s="70">
+        <f>SUM(K36:K52)</f>
+        <v>7870.9299999999994</v>
+      </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="41"/>
@@ -3792,55 +4844,16 @@
       <c r="O53" s="113"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="2">
-        <v>45344</v>
-      </c>
-      <c r="C54" s="46">
-        <v>12</v>
-      </c>
-      <c r="D54" s="47">
-        <v>571.10522800000001</v>
-      </c>
-      <c r="E54" s="62">
-        <f>Sayfa2!$D54*Sayfa2!$C54</f>
-        <v>6853.2627360000006</v>
-      </c>
-      <c r="F54" s="2">
-        <v>45357</v>
-      </c>
-      <c r="G54" s="49">
-        <v>12</v>
-      </c>
-      <c r="H54" s="103">
-        <v>580.05924800000003</v>
-      </c>
-      <c r="I54" s="51">
-        <f>Sayfa2!$H54*Sayfa2!$G54</f>
-        <v>6960.7109760000003</v>
-      </c>
-      <c r="J54" s="46">
-        <f t="shared" ref="J54:J72" si="5">H54-D54</f>
-        <v>8.9540200000000141</v>
-      </c>
-      <c r="K54" s="66">
-        <f>Sayfa2!$J54*Sayfa2!$C54</f>
-        <v>107.44824000000017</v>
-      </c>
-      <c r="L54" s="67">
-        <f t="shared" ref="L54:L72" si="6">F54-B54</f>
-        <v>13</v>
-      </c>
-      <c r="M54" s="68">
-        <f t="shared" ref="M54:M73" si="7">K54/E54</f>
-        <v>1.5678406642076849E-2</v>
-      </c>
-      <c r="N54" s="68">
-        <f t="shared" ref="N54:N66" si="8">M54/L54*30</f>
-        <v>3.618093840479273E-2</v>
-      </c>
+      <c r="A54" s="41"/>
+      <c r="E54" s="62"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="117"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="68"/>
       <c r="O54" s="113"/>
     </row>
     <row r="55" spans="1:16">
@@ -3851,46 +4864,46 @@
         <v>45344</v>
       </c>
       <c r="C55" s="46">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D55" s="47">
         <v>571.10522800000001</v>
       </c>
       <c r="E55" s="62">
         <f>Sayfa2!$D55*Sayfa2!$C55</f>
-        <v>12564.315016</v>
+        <v>6853.2627360000006</v>
       </c>
       <c r="F55" s="2">
         <v>45357</v>
       </c>
       <c r="G55" s="49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H55" s="103">
         <v>580.05924800000003</v>
       </c>
       <c r="I55" s="51">
         <f>Sayfa2!$H55*Sayfa2!$G55</f>
-        <v>5800.5924800000003</v>
+        <v>6960.7109760000003</v>
       </c>
       <c r="J55" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J55:J73" si="9">H55-D55</f>
         <v>8.9540200000000141</v>
       </c>
       <c r="K55" s="66">
         <f>Sayfa2!$J55*Sayfa2!$C55</f>
-        <v>196.98844000000031</v>
+        <v>107.44824000000017</v>
       </c>
       <c r="L55" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L55:L73" si="10">F55-B55</f>
         <v>13</v>
       </c>
       <c r="M55" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M55:M74" si="11">K55/E55</f>
         <v>1.5678406642076849E-2</v>
       </c>
       <c r="N55" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N55:N67" si="12">M55/L55*30</f>
         <v>3.618093840479273E-2</v>
       </c>
       <c r="O55" s="113"/>
@@ -3903,47 +4916,47 @@
         <v>45344</v>
       </c>
       <c r="C56" s="46">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D56" s="47">
         <v>571.10522800000001</v>
       </c>
       <c r="E56" s="62">
         <f>Sayfa2!$D56*Sayfa2!$C56</f>
-        <v>6282.1575080000002</v>
+        <v>12564.315016</v>
       </c>
       <c r="F56" s="2">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="G56" s="49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H56" s="103">
         <v>580.05924800000003</v>
       </c>
       <c r="I56" s="51">
         <f>Sayfa2!$H56*Sayfa2!$G56</f>
-        <v>6380.6517280000007</v>
+        <v>5800.5924800000003</v>
       </c>
       <c r="J56" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.9540200000000141</v>
       </c>
       <c r="K56" s="66">
         <f>Sayfa2!$J56*Sayfa2!$C56</f>
-        <v>98.494220000000155</v>
+        <v>196.98844000000031</v>
       </c>
       <c r="L56" s="67">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="M56" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.5678406642076849E-2</v>
       </c>
       <c r="N56" s="68">
-        <f t="shared" si="8"/>
-        <v>3.9196016605192119E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.618093840479273E-2</v>
       </c>
       <c r="O56" s="113"/>
     </row>
@@ -3952,50 +4965,50 @@
         <v>44</v>
       </c>
       <c r="B57" s="2">
-        <v>45355</v>
+        <v>45344</v>
       </c>
       <c r="C57" s="46">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D57" s="47">
-        <v>578.66060300000004</v>
+        <v>571.10522800000001</v>
       </c>
       <c r="E57" s="62">
         <f>Sayfa2!$D57*Sayfa2!$C57</f>
-        <v>34719.636180000001</v>
+        <v>6282.1575080000002</v>
       </c>
       <c r="F57" s="2">
         <v>45356</v>
       </c>
       <c r="G57" s="49">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H57" s="103">
         <v>580.05924800000003</v>
       </c>
       <c r="I57" s="51">
         <f>Sayfa2!$H57*Sayfa2!$G57</f>
-        <v>34803.554880000003</v>
+        <v>6380.6517280000007</v>
       </c>
       <c r="J57" s="46">
-        <f t="shared" si="5"/>
-        <v>1.3986449999999877</v>
+        <f t="shared" si="9"/>
+        <v>8.9540200000000141</v>
       </c>
       <c r="K57" s="66">
         <f>Sayfa2!$J57*Sayfa2!$C57</f>
-        <v>83.918699999999262</v>
+        <v>98.494220000000155</v>
       </c>
       <c r="L57" s="67">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="M57" s="68">
-        <f t="shared" si="7"/>
-        <v>2.4170385762377323E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.5678406642076849E-2</v>
       </c>
       <c r="N57" s="68">
-        <f t="shared" si="8"/>
-        <v>7.2511157287131964E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.9196016605192119E-2</v>
       </c>
       <c r="O57" s="113"/>
     </row>
@@ -4004,205 +5017,205 @@
         <v>44</v>
       </c>
       <c r="B58" s="2">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="C58" s="46">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D58" s="47">
-        <v>575.21535400000005</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="E58" s="62">
         <f>Sayfa2!$D58*Sayfa2!$C58</f>
-        <v>13805.168496000002</v>
+        <v>34719.636180000001</v>
       </c>
       <c r="F58" s="2">
         <v>45356</v>
       </c>
       <c r="G58" s="49">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H58" s="103">
         <v>580.05924800000003</v>
       </c>
       <c r="I58" s="51">
         <f>Sayfa2!$H58*Sayfa2!$G58</f>
-        <v>13921.421952000001</v>
+        <v>34803.554880000003</v>
       </c>
       <c r="J58" s="46">
-        <f t="shared" si="5"/>
-        <v>4.8438939999999775</v>
+        <f t="shared" si="9"/>
+        <v>1.3986449999999877</v>
       </c>
       <c r="K58" s="66">
         <f>Sayfa2!$J58*Sayfa2!$C58</f>
-        <v>116.25345599999946</v>
+        <v>83.918699999999262</v>
       </c>
       <c r="L58" s="67">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="M58" s="68">
-        <f t="shared" si="7"/>
-        <v>8.4210095685310522E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.4170385762377323E-3</v>
       </c>
       <c r="N58" s="68">
-        <f t="shared" si="8"/>
-        <v>4.2105047842655258E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.2511157287131964E-2</v>
       </c>
       <c r="O58" s="113"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="2">
-        <v>45344</v>
+        <v>45350</v>
       </c>
       <c r="C59" s="46">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D59" s="47">
-        <v>571.10522800000001</v>
+        <v>575.21535400000005</v>
       </c>
       <c r="E59" s="62">
         <f>Sayfa2!$D59*Sayfa2!$C59</f>
-        <v>1142.210456</v>
+        <v>13805.168496000002</v>
       </c>
       <c r="F59" s="2">
-        <v>45347</v>
+        <v>45356</v>
       </c>
       <c r="G59" s="49">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H59" s="103">
-        <v>573.835914</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="I59" s="51">
         <f>Sayfa2!$H59*Sayfa2!$G59</f>
-        <v>1147.671828</v>
+        <v>13921.421952000001</v>
       </c>
       <c r="J59" s="46">
-        <f t="shared" si="5"/>
-        <v>2.7306859999999915</v>
-      </c>
-      <c r="K59" s="112">
-        <f>Sayfa2!$J59*Sayfa2!$G59</f>
-        <v>5.461371999999983</v>
+        <f t="shared" si="9"/>
+        <v>4.8438939999999775</v>
+      </c>
+      <c r="K59" s="66">
+        <f>Sayfa2!$J59*Sayfa2!$C59</f>
+        <v>116.25345599999946</v>
       </c>
       <c r="L59" s="67">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="M59" s="68">
-        <f t="shared" si="7"/>
-        <v>4.7814060634023678E-3</v>
+        <f t="shared" si="11"/>
+        <v>8.4210095685310522E-3</v>
       </c>
       <c r="N59" s="68">
-        <f t="shared" si="8"/>
-        <v>4.7814060634023672E-2</v>
+        <f t="shared" si="12"/>
+        <v>4.2105047842655258E-2</v>
       </c>
       <c r="O59" s="113"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="2">
         <v>45344</v>
       </c>
       <c r="C60" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="47">
         <v>571.10522800000001</v>
       </c>
       <c r="E60" s="62">
         <f>Sayfa2!$D60*Sayfa2!$C60</f>
-        <v>571.10522800000001</v>
+        <v>1142.210456</v>
       </c>
       <c r="F60" s="2">
-        <v>45350</v>
+        <v>45347</v>
       </c>
       <c r="G60" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="103">
         <v>573.835914</v>
       </c>
       <c r="I60" s="51">
         <f>Sayfa2!$H60*Sayfa2!$G60</f>
-        <v>573.835914</v>
+        <v>1147.671828</v>
       </c>
       <c r="J60" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.7306859999999915</v>
       </c>
       <c r="K60" s="112">
         <f>Sayfa2!$J60*Sayfa2!$G60</f>
-        <v>2.7306859999999915</v>
+        <v>5.461371999999983</v>
       </c>
       <c r="L60" s="67">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="M60" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.7814060634023678E-3</v>
       </c>
       <c r="N60" s="68">
-        <f t="shared" si="8"/>
-        <v>2.3907030317011836E-2</v>
+        <f t="shared" si="12"/>
+        <v>4.7814060634023672E-2</v>
       </c>
       <c r="O60" s="113"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="2">
         <v>45344</v>
       </c>
       <c r="C61" s="46">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D61" s="47">
         <v>571.10522800000001</v>
       </c>
       <c r="E61" s="62">
         <f>Sayfa2!$D61*Sayfa2!$C61</f>
-        <v>25128.630032000001</v>
+        <v>571.10522800000001</v>
       </c>
       <c r="F61" s="2">
         <v>45350</v>
       </c>
       <c r="G61" s="49">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H61" s="103">
         <v>573.835914</v>
       </c>
       <c r="I61" s="51">
         <f>Sayfa2!$H61*Sayfa2!$G61</f>
-        <v>25248.780215999999</v>
+        <v>573.835914</v>
       </c>
       <c r="J61" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.7306859999999915</v>
       </c>
       <c r="K61" s="112">
         <f>Sayfa2!$J61*Sayfa2!$G61</f>
-        <v>120.15018399999963</v>
+        <v>2.7306859999999915</v>
       </c>
       <c r="L61" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="M61" s="68">
-        <f t="shared" si="7"/>
-        <v>4.7814060634023669E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.7814060634023678E-3</v>
       </c>
       <c r="N61" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.3907030317011836E-2</v>
       </c>
       <c r="O61" s="113"/>
@@ -4212,154 +5225,154 @@
         <v>47</v>
       </c>
       <c r="B62" s="2">
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="C62" s="46">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="D62" s="47">
-        <v>569.09258399999999</v>
+        <v>571.10522800000001</v>
       </c>
       <c r="E62" s="62">
         <f>Sayfa2!$D62*Sayfa2!$C62</f>
-        <v>60323.813903999995</v>
+        <v>25128.630032000001</v>
       </c>
       <c r="F62" s="2">
         <v>45350</v>
       </c>
       <c r="G62" s="49">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="H62" s="103">
         <v>573.835914</v>
       </c>
       <c r="I62" s="51">
         <f>Sayfa2!$H62*Sayfa2!$G62</f>
-        <v>60826.606884000001</v>
+        <v>25248.780215999999</v>
       </c>
       <c r="J62" s="46">
-        <f t="shared" si="5"/>
-        <v>4.7433300000000145</v>
+        <f t="shared" si="9"/>
+        <v>2.7306859999999915</v>
       </c>
       <c r="K62" s="112">
         <f>Sayfa2!$J62*Sayfa2!$G62</f>
-        <v>502.79298000000153</v>
+        <v>120.15018399999963</v>
       </c>
       <c r="L62" s="67">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="M62" s="68">
-        <f t="shared" si="7"/>
-        <v>8.3349003894241831E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.7814060634023669E-3</v>
       </c>
       <c r="N62" s="68">
-        <f t="shared" si="8"/>
-        <v>2.778300129808061E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.3907030317011836E-2</v>
       </c>
       <c r="O62" s="113"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="2">
-        <v>45338</v>
-      </c>
-      <c r="C63" s="3">
-        <v>64</v>
-      </c>
-      <c r="D63" s="1">
-        <v>567.08235100000002</v>
+        <v>45341</v>
+      </c>
+      <c r="C63" s="46">
+        <v>106</v>
+      </c>
+      <c r="D63" s="47">
+        <v>569.09258399999999</v>
       </c>
       <c r="E63" s="62">
         <f>Sayfa2!$D63*Sayfa2!$C63</f>
-        <v>36293.270464000001</v>
+        <v>60323.813903999995</v>
       </c>
       <c r="F63" s="2">
-        <v>45344</v>
-      </c>
-      <c r="G63" s="46">
-        <v>64</v>
-      </c>
-      <c r="H63" s="1">
-        <v>571.10522800000001</v>
+        <v>45350</v>
+      </c>
+      <c r="G63" s="49">
+        <v>106</v>
+      </c>
+      <c r="H63" s="103">
+        <v>573.835914</v>
       </c>
       <c r="I63" s="51">
         <f>Sayfa2!$H63*Sayfa2!$G63</f>
-        <v>36550.734592000001</v>
+        <v>60826.606884000001</v>
       </c>
       <c r="J63" s="46">
-        <f t="shared" si="5"/>
-        <v>4.022876999999994</v>
+        <f t="shared" si="9"/>
+        <v>4.7433300000000145</v>
       </c>
       <c r="K63" s="112">
         <f>Sayfa2!$J63*Sayfa2!$G63</f>
-        <v>257.46412799999962</v>
+        <v>502.79298000000153</v>
       </c>
       <c r="L63" s="67">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="M63" s="68">
-        <f t="shared" si="7"/>
-        <v>7.0939908337933691E-3</v>
+        <f t="shared" si="11"/>
+        <v>8.3349003894241831E-3</v>
       </c>
       <c r="N63" s="68">
-        <f t="shared" si="8"/>
-        <v>3.5469954168966845E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.778300129808061E-2</v>
       </c>
       <c r="O63" s="113"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B64" s="2">
-        <v>45299</v>
+        <v>45338</v>
       </c>
       <c r="C64" s="3">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D64" s="1">
-        <v>542.43450199999995</v>
+        <v>567.08235100000002</v>
       </c>
       <c r="E64" s="62">
         <f>Sayfa2!$D64*Sayfa2!$C64</f>
-        <v>27121.725099999996</v>
+        <v>36293.270464000001</v>
       </c>
       <c r="F64" s="2">
         <v>45344</v>
       </c>
       <c r="G64" s="46">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H64" s="1">
         <v>571.10522800000001</v>
       </c>
       <c r="I64" s="51">
         <f>Sayfa2!$H64*Sayfa2!$G64</f>
-        <v>28555.261399999999</v>
+        <v>36550.734592000001</v>
       </c>
       <c r="J64" s="46">
-        <f t="shared" si="5"/>
-        <v>28.670726000000059</v>
+        <f t="shared" si="9"/>
+        <v>4.022876999999994</v>
       </c>
       <c r="K64" s="112">
         <f>Sayfa2!$J64*Sayfa2!$G64</f>
-        <v>1433.5363000000029</v>
+        <v>257.46412799999962</v>
       </c>
       <c r="L64" s="67">
-        <f t="shared" si="6"/>
-        <v>45</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="M64" s="68">
-        <f t="shared" si="7"/>
-        <v>5.2855645970690972E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.0939908337933691E-3</v>
       </c>
       <c r="N64" s="68">
-        <f t="shared" si="8"/>
-        <v>3.5237097313793986E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.5469954168966845E-2</v>
       </c>
       <c r="O64" s="113"/>
     </row>
@@ -4368,17 +5381,17 @@
         <v>44</v>
       </c>
       <c r="B65" s="2">
-        <v>45321</v>
+        <v>45299</v>
       </c>
       <c r="C65" s="3">
         <v>50</v>
       </c>
       <c r="D65" s="1">
-        <v>555.950107</v>
+        <v>542.43450199999995</v>
       </c>
       <c r="E65" s="62">
         <f>Sayfa2!$D65*Sayfa2!$C65</f>
-        <v>27797.505349999999</v>
+        <v>27121.725099999996</v>
       </c>
       <c r="F65" s="2">
         <v>45344</v>
@@ -4394,24 +5407,24 @@
         <v>28555.261399999999</v>
       </c>
       <c r="J65" s="46">
-        <f t="shared" si="5"/>
-        <v>15.155121000000008</v>
+        <f t="shared" si="9"/>
+        <v>28.670726000000059</v>
       </c>
       <c r="K65" s="112">
         <f>Sayfa2!$J65*Sayfa2!$G65</f>
-        <v>757.75605000000041</v>
+        <v>1433.5363000000029</v>
       </c>
       <c r="L65" s="67">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f t="shared" si="10"/>
+        <v>45</v>
       </c>
       <c r="M65" s="68">
-        <f t="shared" si="7"/>
-        <v>2.7259858050535473E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.2855645970690972E-2</v>
       </c>
       <c r="N65" s="68">
-        <f t="shared" si="8"/>
-        <v>3.5556336587654967E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.5237097313793986E-2</v>
       </c>
       <c r="O65" s="113"/>
     </row>
@@ -4420,50 +5433,50 @@
         <v>44</v>
       </c>
       <c r="B66" s="2">
-        <v>45322</v>
+        <v>45321</v>
       </c>
       <c r="C66" s="3">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D66" s="1">
         <v>555.950107</v>
       </c>
       <c r="E66" s="62">
         <f>Sayfa2!$D66*Sayfa2!$C66</f>
-        <v>8895.201712</v>
+        <v>27797.505349999999</v>
       </c>
       <c r="F66" s="2">
         <v>45344</v>
       </c>
       <c r="G66" s="46">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H66" s="1">
         <v>571.10522800000001</v>
       </c>
       <c r="I66" s="51">
         <f>Sayfa2!$H66*Sayfa2!$G66</f>
-        <v>9137.6836480000002</v>
+        <v>28555.261399999999</v>
       </c>
       <c r="J66" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15.155121000000008</v>
       </c>
       <c r="K66" s="112">
         <f>Sayfa2!$J66*Sayfa2!$G66</f>
-        <v>242.48193600000013</v>
+        <v>757.75605000000041</v>
       </c>
       <c r="L66" s="67">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f t="shared" si="10"/>
+        <v>23</v>
       </c>
       <c r="M66" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.7259858050535473E-2</v>
       </c>
       <c r="N66" s="68">
-        <f t="shared" si="8"/>
-        <v>3.7172533705275651E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.5556336587654967E-2</v>
       </c>
       <c r="O66" s="113"/>
     </row>
@@ -4472,50 +5485,50 @@
         <v>44</v>
       </c>
       <c r="B67" s="2">
-        <v>45296</v>
+        <v>45322</v>
       </c>
       <c r="C67" s="3">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1">
-        <v>540.60110799999995</v>
+        <v>555.950107</v>
       </c>
       <c r="E67" s="62">
         <f>Sayfa2!$D67*Sayfa2!$C67</f>
-        <v>59466.121879999992</v>
+        <v>8895.201712</v>
       </c>
       <c r="F67" s="2">
-        <v>45335</v>
+        <v>45344</v>
       </c>
       <c r="G67" s="46">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="H67" s="1">
-        <v>565.11282900000003</v>
+        <v>571.10522800000001</v>
       </c>
       <c r="I67" s="51">
         <f>Sayfa2!$H67*Sayfa2!$G67</f>
-        <v>62162.411190000006</v>
-      </c>
-      <c r="J67" s="116">
-        <f t="shared" si="5"/>
-        <v>24.51172100000008</v>
-      </c>
-      <c r="K67" s="66">
+        <v>9137.6836480000002</v>
+      </c>
+      <c r="J67" s="46">
+        <f t="shared" si="9"/>
+        <v>15.155121000000008</v>
+      </c>
+      <c r="K67" s="112">
         <f>Sayfa2!$J67*Sayfa2!$G67</f>
-        <v>2696.2893100000088</v>
+        <v>242.48193600000013</v>
       </c>
       <c r="L67" s="67">
-        <f t="shared" si="6"/>
-        <v>39</v>
+        <f t="shared" si="10"/>
+        <v>22</v>
       </c>
       <c r="M67" s="68">
-        <f t="shared" si="7"/>
-        <v>4.5341603332415076E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.7259858050535473E-2</v>
       </c>
       <c r="N67" s="68">
-        <f>K67/E67</f>
-        <v>4.5341603332415076E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.7172533705275651E-2</v>
       </c>
       <c r="O67" s="113"/>
     </row>
@@ -4524,50 +5537,50 @@
         <v>44</v>
       </c>
       <c r="B68" s="2">
-        <v>45322</v>
+        <v>45296</v>
       </c>
       <c r="C68" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D68" s="1">
-        <v>555.950107</v>
+        <v>540.60110799999995</v>
       </c>
       <c r="E68" s="62">
         <f>Sayfa2!$D68*Sayfa2!$C68</f>
-        <v>5559.5010700000003</v>
+        <v>59466.121879999992</v>
       </c>
       <c r="F68" s="2">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="G68" s="46">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="H68" s="1">
-        <v>564.45009800000003</v>
+        <v>565.11282900000003</v>
       </c>
       <c r="I68" s="51">
         <f>Sayfa2!$H68*Sayfa2!$G68</f>
-        <v>5644.5009800000007</v>
+        <v>62162.411190000006</v>
       </c>
       <c r="J68" s="116">
-        <f t="shared" si="5"/>
-        <v>8.4999910000000227</v>
+        <f t="shared" si="9"/>
+        <v>24.51172100000008</v>
       </c>
       <c r="K68" s="66">
         <f>Sayfa2!$J68*Sayfa2!$G68</f>
-        <v>84.999910000000227</v>
+        <v>2696.2893100000088</v>
       </c>
       <c r="L68" s="67">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>39</v>
       </c>
       <c r="M68" s="68">
-        <f t="shared" si="7"/>
-        <v>1.5289125576155384E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.5341603332415076E-2</v>
       </c>
       <c r="N68" s="68">
-        <f t="shared" ref="N68:N73" si="9">M68/L68*30</f>
-        <v>3.8222813940388463E-2</v>
+        <f>K68/E68</f>
+        <v>4.5341603332415076E-2</v>
       </c>
       <c r="O68" s="113"/>
     </row>
@@ -4575,155 +5588,155 @@
       <c r="A69" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="48">
+      <c r="B69" s="2">
         <v>45322</v>
       </c>
-      <c r="C69" s="52">
-        <v>46</v>
+      <c r="C69" s="3">
+        <v>10</v>
       </c>
       <c r="D69" s="1">
         <v>555.950107</v>
       </c>
       <c r="E69" s="62">
         <f>Sayfa2!$D69*Sayfa2!$C69</f>
-        <v>25573.704922000001</v>
-      </c>
-      <c r="F69" s="48">
-        <v>45327</v>
-      </c>
-      <c r="G69" s="52">
-        <v>46</v>
+        <v>5559.5010700000003</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45334</v>
+      </c>
+      <c r="G69" s="46">
+        <v>10</v>
       </c>
       <c r="H69" s="1">
-        <v>559.83385699999997</v>
+        <v>564.45009800000003</v>
       </c>
       <c r="I69" s="51">
         <f>Sayfa2!$H69*Sayfa2!$G69</f>
-        <v>25752.357421999997</v>
-      </c>
-      <c r="J69" s="6">
-        <f t="shared" si="5"/>
-        <v>3.8837499999999636</v>
+        <v>5644.5009800000007</v>
+      </c>
+      <c r="J69" s="116">
+        <f t="shared" si="9"/>
+        <v>8.4999910000000227</v>
       </c>
       <c r="K69" s="66">
         <f>Sayfa2!$J69*Sayfa2!$G69</f>
-        <v>178.65249999999833</v>
+        <v>84.999910000000227</v>
       </c>
       <c r="L69" s="67">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="M69" s="68">
-        <f t="shared" si="7"/>
-        <v>6.9857887445284065E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.5289125576155384E-2</v>
       </c>
       <c r="N69" s="68">
-        <f t="shared" si="9"/>
-        <v>4.1914732467170444E-2</v>
+        <f t="shared" ref="N69:N74" si="13">M69/L69*30</f>
+        <v>3.8222813940388463E-2</v>
       </c>
       <c r="O69" s="113"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="2">
-        <v>45267</v>
-      </c>
-      <c r="C70" s="3">
-        <v>300</v>
+        <v>44</v>
+      </c>
+      <c r="B70" s="48">
+        <v>45322</v>
+      </c>
+      <c r="C70" s="52">
+        <v>46</v>
       </c>
       <c r="D70" s="1">
-        <v>18.207357999999999</v>
+        <v>555.950107</v>
       </c>
       <c r="E70" s="62">
         <f>Sayfa2!$D70*Sayfa2!$C70</f>
-        <v>5462.2073999999993</v>
-      </c>
-      <c r="F70" s="2">
-        <v>45288</v>
-      </c>
-      <c r="G70" s="46">
-        <v>300</v>
+        <v>25573.704922000001</v>
+      </c>
+      <c r="F70" s="48">
+        <v>45327</v>
+      </c>
+      <c r="G70" s="52">
+        <v>46</v>
       </c>
       <c r="H70" s="1">
-        <v>18.625761000000001</v>
+        <v>559.83385699999997</v>
       </c>
       <c r="I70" s="51">
         <f>Sayfa2!$H70*Sayfa2!$G70</f>
-        <v>5587.7282999999998</v>
-      </c>
-      <c r="J70" s="116">
-        <f t="shared" si="5"/>
-        <v>0.41840300000000141</v>
+        <v>25752.357421999997</v>
+      </c>
+      <c r="J70" s="6">
+        <f t="shared" si="9"/>
+        <v>3.8837499999999636</v>
       </c>
       <c r="K70" s="66">
         <f>Sayfa2!$J70*Sayfa2!$G70</f>
-        <v>125.52090000000042</v>
-      </c>
-      <c r="L70" s="1">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <v>178.65249999999833</v>
+      </c>
+      <c r="L70" s="67">
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="M70" s="68">
-        <f t="shared" si="7"/>
-        <v>2.2979885384798907E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.9857887445284065E-3</v>
       </c>
       <c r="N70" s="68">
-        <f t="shared" si="9"/>
-        <v>3.2828407692569866E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.1914732467170444E-2</v>
       </c>
       <c r="O70" s="113"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="41" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B71" s="2">
         <v>45267</v>
       </c>
       <c r="C71" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="D71" s="1">
-        <v>523.88987099999997</v>
+        <v>18.207357999999999</v>
       </c>
       <c r="E71" s="62">
         <f>Sayfa2!$D71*Sayfa2!$C71</f>
-        <v>5238.8987099999995</v>
+        <v>5462.2073999999993</v>
       </c>
       <c r="F71" s="2">
-        <v>45293</v>
+        <v>45288</v>
       </c>
       <c r="G71" s="46">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="H71" s="1">
-        <v>538.78970700000002</v>
+        <v>18.625761000000001</v>
       </c>
       <c r="I71" s="51">
         <f>Sayfa2!$H71*Sayfa2!$G71</f>
-        <v>5387.89707</v>
+        <v>5587.7282999999998</v>
       </c>
       <c r="J71" s="116">
-        <f t="shared" si="5"/>
-        <v>14.89983600000005</v>
+        <f t="shared" si="9"/>
+        <v>0.41840300000000141</v>
       </c>
       <c r="K71" s="66">
         <f>Sayfa2!$J71*Sayfa2!$G71</f>
-        <v>148.9983600000005</v>
+        <v>125.52090000000042</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="M71" s="68">
-        <f t="shared" si="7"/>
-        <v>2.8440778920881354E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.2979885384798907E-2</v>
       </c>
       <c r="N71" s="68">
-        <f t="shared" si="9"/>
-        <v>3.2816283370247716E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.2828407692569866E-2</v>
       </c>
       <c r="O71" s="113"/>
     </row>
@@ -4732,116 +5745,160 @@
         <v>44</v>
       </c>
       <c r="B72" s="2">
-        <v>45273</v>
+        <v>45267</v>
       </c>
       <c r="C72" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
-        <v>527.21223999999995</v>
+        <v>523.88987099999997</v>
       </c>
       <c r="E72" s="62">
         <f>Sayfa2!$D72*Sayfa2!$C72</f>
-        <v>14761.942719999999</v>
+        <v>5238.8987099999995</v>
       </c>
       <c r="F72" s="2">
         <v>45293</v>
       </c>
       <c r="G72" s="46">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H72" s="1">
-        <f>H71</f>
         <v>538.78970700000002</v>
       </c>
       <c r="I72" s="51">
         <f>Sayfa2!$H72*Sayfa2!$G72</f>
-        <v>15086.111796000001</v>
+        <v>5387.89707</v>
       </c>
       <c r="J72" s="116">
-        <f t="shared" si="5"/>
-        <v>11.57746700000007</v>
+        <f t="shared" si="9"/>
+        <v>14.89983600000005</v>
       </c>
       <c r="K72" s="66">
         <f>Sayfa2!$J72*Sayfa2!$G72</f>
-        <v>324.16907600000195</v>
+        <v>148.9983600000005</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>26</v>
       </c>
       <c r="M72" s="68">
-        <f t="shared" si="7"/>
-        <v>2.1959784165860925E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.8440778920881354E-2</v>
       </c>
       <c r="N72" s="68">
-        <f t="shared" si="9"/>
-        <v>3.2939676248791384E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.2816283370247716E-2</v>
       </c>
       <c r="O72" s="113"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B73" s="2">
         <v>45273</v>
       </c>
       <c r="C73" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1">
         <v>527.21223999999995</v>
       </c>
       <c r="E73" s="62">
         <f>Sayfa2!$D73*Sayfa2!$C73</f>
-        <v>11598.669279999998</v>
+        <v>14761.942719999999</v>
       </c>
       <c r="F73" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G73" s="46">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H73" s="1">
-        <v>540.000044</v>
+        <f>H72</f>
+        <v>538.78970700000002</v>
       </c>
       <c r="I73" s="51">
         <f>Sayfa2!$H73*Sayfa2!$G73</f>
-        <v>11880.000968</v>
+        <v>15086.111796000001</v>
       </c>
       <c r="J73" s="116">
-        <f>H73-D72</f>
-        <v>12.787804000000051</v>
+        <f t="shared" si="9"/>
+        <v>11.57746700000007</v>
       </c>
       <c r="K73" s="66">
         <f>Sayfa2!$J73*Sayfa2!$G73</f>
+        <v>324.16907600000195</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M73" s="68">
+        <f t="shared" si="11"/>
+        <v>2.1959784165860925E-2</v>
+      </c>
+      <c r="N73" s="68">
+        <f t="shared" si="13"/>
+        <v>3.2939676248791384E-2</v>
+      </c>
+      <c r="O73" s="113"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45273</v>
+      </c>
+      <c r="C74" s="3">
+        <v>22</v>
+      </c>
+      <c r="D74" s="1">
+        <v>527.21223999999995</v>
+      </c>
+      <c r="E74" s="62">
+        <f>Sayfa2!$D74*Sayfa2!$C74</f>
+        <v>11598.669279999998</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G74" s="46">
+        <v>22</v>
+      </c>
+      <c r="H74" s="1">
+        <v>540.000044</v>
+      </c>
+      <c r="I74" s="51">
+        <f>Sayfa2!$H74*Sayfa2!$G74</f>
+        <v>11880.000968</v>
+      </c>
+      <c r="J74" s="116">
+        <f>H74-D73</f>
+        <v>12.787804000000051</v>
+      </c>
+      <c r="K74" s="66">
+        <f>Sayfa2!$J74*Sayfa2!$G74</f>
         <v>281.33168800000112</v>
       </c>
-      <c r="L73" s="1">
-        <f>F73-B72</f>
+      <c r="L74" s="1">
+        <f>F74-B73</f>
         <v>22</v>
       </c>
-      <c r="M73" s="68">
-        <f t="shared" si="7"/>
+      <c r="M74" s="68">
+        <f t="shared" si="11"/>
         <v>2.4255514249821006E-2</v>
       </c>
-      <c r="N73" s="68">
-        <f t="shared" si="9"/>
+      <c r="N74" s="68">
+        <f t="shared" si="13"/>
         <v>3.3075701249755916E-2</v>
       </c>
-      <c r="O73" s="70">
-        <f>SUM(K54:K73)</f>
+      <c r="O74" s="70">
+        <f>SUM(K55:K74)</f>
         <v>7765.4384360000149</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="E74" s="53"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="52"/>
-      <c r="I74" s="123"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
     </row>
     <row r="75" spans="1:15">
       <c r="E75" s="53"/>
@@ -4891,25 +5948,33 @@
       <c r="K80" s="55"/>
       <c r="L80" s="55"/>
     </row>
-    <row r="81" spans="5:7">
+    <row r="81" spans="5:12">
       <c r="E81" s="53"/>
       <c r="F81" s="48"/>
       <c r="G81" s="52"/>
-    </row>
-    <row r="82" spans="5:7">
+      <c r="I81" s="123"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+    </row>
+    <row r="82" spans="5:12">
       <c r="E82" s="53"/>
       <c r="F82" s="48"/>
       <c r="G82" s="52"/>
     </row>
-    <row r="83" spans="5:7">
+    <row r="83" spans="5:12">
       <c r="E83" s="53"/>
       <c r="F83" s="48"/>
       <c r="G83" s="52"/>
     </row>
-    <row r="84" spans="5:7">
+    <row r="84" spans="5:12">
       <c r="E84" s="53"/>
       <c r="F84" s="48"/>
       <c r="G84" s="52"/>
+    </row>
+    <row r="85" spans="5:12">
+      <c r="E85" s="53"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4927,7 +5992,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>N43 N48 L50 N73 I74:L74 I75:I80 K75:L80</xm:sqref>
+          <xm:sqref>N44 N49 L51 N74 I75:L75 I76:I81 K76:L81</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4937,11 +6002,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA39"/>
+  <dimension ref="A2:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M6" sqref="M6"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4976,35 +6041,35 @@
     <row r="2" spans="1:27">
       <c r="A2" s="126">
         <f>A5</f>
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="C2">
         <f>C5</f>
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="E2">
         <f>E5</f>
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="G2">
         <f>G5</f>
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="I2">
         <f>I5</f>
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="K2">
         <f>I5</f>
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="M2" s="127">
         <f>Sayfa2!D3</f>
-        <v>161.66127318164556</v>
+        <v>157.10794544402282</v>
       </c>
       <c r="N2" s="128">
         <f>Sayfa2!K2</f>
-        <v>255424.81162699999</v>
+        <v>248387.66174700006</v>
       </c>
       <c r="S2">
         <f>S5</f>
@@ -5023,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>AA14</f>
+        <f>AA16</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5080,1349 +6145,1292 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="126">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B5">
-        <f>B26</f>
+        <f>B28</f>
         <v>1110</v>
       </c>
       <c r="C5">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D5">
-        <f>D26</f>
+        <f>D28</f>
         <v>321.99</v>
       </c>
       <c r="E5">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F5" s="124">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G5">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="H5">
-        <f>H26</f>
+        <f>H28</f>
         <v>50000</v>
       </c>
       <c r="I5">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="J5">
-        <f>J26</f>
+        <f>J28</f>
         <v>75000</v>
       </c>
       <c r="K5" s="129">
-        <f t="shared" ref="K5:K14" si="0">I5</f>
-        <v>0.88097599999999998</v>
+        <f t="shared" ref="K5:K16" si="0">I5</f>
+        <v>0.85561100000000001</v>
       </c>
       <c r="L5" s="125">
-        <f>(F5*G5)+(B5*C5)+(D5*E5)+(H5*I5)+(Z14*AA14)+(J5*K5)</f>
-        <v>529577.85988599993</v>
+        <f>(F5*G5)+(B5*C5)+(D5*E5)+(H5*I5)+(Z16*AA16)+(J5*K5)</f>
+        <v>511116.52801200002</v>
       </c>
       <c r="M5">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="N5">
-        <v>255424.81</v>
-      </c>
-      <c r="O5" s="127"/>
-      <c r="P5" s="133" t="e">
-        <f>(1-(O15/O5))</f>
-        <v>#DIV/0!</v>
+        <v>248387.66</v>
+      </c>
+      <c r="O5" s="127">
+        <v>9113</v>
+      </c>
+      <c r="P5" s="133">
+        <f t="shared" ref="P5:P25" si="1">(1-(O6/O5))</f>
+        <v>-4.8875233183365285E-3</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="126">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B6">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C6">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D6">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E6">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F6" s="124">
         <v>161</v>
       </c>
       <c r="G6">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="H6">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I6">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="J6">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K6" s="129">
-        <f t="shared" ref="K6" si="1">I6</f>
-        <v>0.85243100000000005</v>
+        <f t="shared" ref="K6" si="2">I6</f>
+        <v>0.88097599999999998</v>
       </c>
       <c r="L6" s="125">
-        <f>(F6*G6)+(B6*C6)+(D6*E6)+(H6*I6)+(Z15*AA15)+(J6*K6)</f>
-        <v>520518.62710100005</v>
+        <f>(F6*G6)+(B6*C6)+(D6*E6)+(H6*I6)+(Z17*AA17)+(J6*K6)</f>
+        <v>529800.21988599992</v>
       </c>
       <c r="M6">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="N6">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="O6" s="127">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="P6" s="133">
-        <f>(1-(O16/O6))</f>
-        <v>3.4312653132656523E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="126">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B7">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C7">
-        <v>31.870699999999999</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D7">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E7">
-        <v>34.480800000000002</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F7" s="124">
         <v>161</v>
       </c>
       <c r="G7">
+        <v>2308.4299999999998</v>
+      </c>
+      <c r="H7">
+        <f>H29</f>
+        <v>50000</v>
+      </c>
+      <c r="I7">
+        <v>0.88097599999999998</v>
+      </c>
+      <c r="J7">
+        <f>J29</f>
+        <v>75000</v>
+      </c>
+      <c r="K7" s="129">
+        <f t="shared" ref="K7" si="3">I7</f>
+        <v>0.88097599999999998</v>
+      </c>
+      <c r="L7" s="125">
+        <f>(F7*G7)+(B7*C7)+(D7*E7)+(H7*I7)+(Z17*AA17)+(J7*K7)</f>
+        <v>529800.21988599992</v>
+      </c>
+      <c r="M7">
+        <v>161.66</v>
+      </c>
+      <c r="N7">
+        <v>255424.81</v>
+      </c>
+      <c r="O7" s="127"/>
+      <c r="P7" s="133" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="126">
+        <v>45380</v>
+      </c>
+      <c r="B8">
+        <f>B29</f>
+        <v>1110</v>
+      </c>
+      <c r="C8">
+        <v>31.8308</v>
+      </c>
+      <c r="D8">
+        <f>D29</f>
+        <v>321.99</v>
+      </c>
+      <c r="E8">
+        <v>34.369900000000001</v>
+      </c>
+      <c r="F8" s="124">
+        <v>161</v>
+      </c>
+      <c r="G8">
+        <v>2273.3200000000002</v>
+      </c>
+      <c r="H8">
+        <f>H29</f>
+        <v>50000</v>
+      </c>
+      <c r="I8">
+        <v>0.85243100000000005</v>
+      </c>
+      <c r="J8">
+        <f>J29</f>
+        <v>75000</v>
+      </c>
+      <c r="K8" s="129">
+        <f t="shared" ref="K8" si="4">I8</f>
+        <v>0.85243100000000005</v>
+      </c>
+      <c r="L8" s="125">
+        <f>(F8*G8)+(B8*C8)+(D8*E8)+(H8*I8)+(Z17*AA17)+(J8*K8)</f>
+        <v>520518.62710100005</v>
+      </c>
+      <c r="M8">
+        <v>156.08000000000001</v>
+      </c>
+      <c r="N8">
+        <v>246143.72</v>
+      </c>
+      <c r="O8" s="127">
+        <v>9142.4</v>
+      </c>
+      <c r="P8" s="133">
+        <f t="shared" si="1"/>
+        <v>6.8286226811340445E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="126">
+        <v>45379</v>
+      </c>
+      <c r="B9">
+        <f>B29</f>
+        <v>1110</v>
+      </c>
+      <c r="C9">
+        <v>31.870699999999999</v>
+      </c>
+      <c r="D9">
+        <f>D29</f>
+        <v>321.99</v>
+      </c>
+      <c r="E9">
+        <v>34.480800000000002</v>
+      </c>
+      <c r="F9" s="124">
+        <v>161</v>
+      </c>
+      <c r="G9">
         <v>2240.09</v>
       </c>
-      <c r="H7">
-        <f>H27</f>
+      <c r="H9">
+        <f>H29</f>
         <v>50000</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>0.86473199999999995</v>
       </c>
-      <c r="J7">
-        <f>J27</f>
+      <c r="J9">
+        <f>J29</f>
         <v>75000</v>
       </c>
-      <c r="K7" s="129">
+      <c r="K9" s="129">
         <f t="shared" si="0"/>
         <v>0.86473199999999995</v>
       </c>
-      <c r="L7" s="125">
-        <f>(F7*G7)+(B7*C7)+(D7*E7)+(T7*U7)+(H7*I7)+(R7*S7)+(V7*W7)+(X7*Y7)+(Z15*AA15)+(J7*K7)</f>
+      <c r="L9" s="125">
+        <f>(F9*G9)+(B9*C9)+(D9*E9)+(T9*U9)+(H9*I9)+(R9*S9)+(V9*W9)+(X9*Y9)+(Z17*AA17)+(J9*K9)</f>
         <v>516786.21979200002</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <v>153.81</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <v>242408.74</v>
       </c>
-      <c r="O7" s="127">
+      <c r="O9" s="127">
         <v>9079.9699999999993</v>
       </c>
-      <c r="P7" s="133">
-        <f>(1-(O16/O7))</f>
-        <v>2.7672998919599845E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="126">
+      <c r="P9" s="133">
+        <f t="shared" si="1"/>
+        <v>3.0093711763364839E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="126">
         <v>45378</v>
       </c>
-      <c r="B8">
-        <f>B27</f>
+      <c r="B10">
+        <f>B29</f>
         <v>1110</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>31.821999999999999</v>
       </c>
-      <c r="D8">
-        <f>D27</f>
+      <c r="D10">
+        <f>D29</f>
         <v>321.99</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>34.5045</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F10" s="124">
         <v>161</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>2227.25</v>
       </c>
-      <c r="H8">
-        <f>H27</f>
+      <c r="H10">
+        <f>H29</f>
         <v>50000</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>0.85899999999999999</v>
       </c>
-      <c r="J8">
-        <f>J27</f>
+      <c r="J10">
+        <f>J29</f>
         <v>75000</v>
       </c>
-      <c r="K8" s="129">
+      <c r="K10" s="129">
         <f t="shared" si="0"/>
         <v>0.85899999999999999</v>
       </c>
-      <c r="L8" s="125">
-        <f>(F8*G8)+(B8*C8)+(D8*E8)+(T8*U8)+(H8*I8)+(R8*S8)+(V8*W8)+(X8*Y8)+(Z15*AA15)+(J8*K8)</f>
+      <c r="L10" s="125">
+        <f>(F10*G10)+(B10*C10)+(D10*E10)+(T10*U10)+(H10*I10)+(R10*S10)+(V10*W10)+(X10*Y10)+(Z17*AA17)+(J10*K10)</f>
         <v>513956.05395500001</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <v>154.24</v>
       </c>
-      <c r="N8">
+      <c r="N10">
         <v>242616.68</v>
       </c>
-      <c r="O8" s="127">
+      <c r="O10" s="127">
         <v>8806.7199999999993</v>
       </c>
-      <c r="P8" s="133">
-        <f>(1-(O16/O8))</f>
-        <v>-2.4958213727699352E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="126">
+      <c r="P10" s="133">
+        <f t="shared" si="1"/>
+        <v>-7.4942770974972817E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="126">
         <v>45377</v>
       </c>
-      <c r="B9">
-        <f>B28</f>
+      <c r="B11">
+        <f>B30</f>
         <v>1110</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>31.530999999999999</v>
       </c>
-      <c r="D9">
-        <f>D28</f>
+      <c r="D11">
+        <f>D30</f>
         <v>321.99</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>34.125900000000001</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F11" s="124">
         <v>161</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>2227.25</v>
       </c>
-      <c r="H9">
-        <f>H28</f>
+      <c r="H11">
+        <f>H30</f>
         <v>50000</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>0.890316</v>
       </c>
-      <c r="J9">
-        <f>J28</f>
+      <c r="J11">
+        <f>J30</f>
         <v>75000</v>
       </c>
-      <c r="K9" s="129">
+      <c r="K11" s="129">
         <f t="shared" si="0"/>
         <v>0.890316</v>
       </c>
-      <c r="L9" s="125">
-        <f>(F9*G9)+(B9*C9)+(D9*E9)+(T9*U9)+(H9*I9)+(R9*S9)+(V9*W9)+(X9*Y9)+(Z16*AA16)+(J9*K9)</f>
+      <c r="L11" s="125">
+        <f>(F11*G11)+(B11*C11)+(D11*E11)+(T11*U11)+(H11*I11)+(R11*S11)+(V11*W11)+(X11*Y11)+(Z18*AA18)+(J11*K11)</f>
         <v>517363.07854099997</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>154.24</v>
       </c>
-      <c r="N9">
+      <c r="N11">
         <v>242616.68</v>
       </c>
-      <c r="O9" s="127">
+      <c r="O11" s="127">
         <v>8807.3799999999992</v>
       </c>
-      <c r="P9" s="133">
-        <f>(1-(O17/O9))</f>
-        <v>-8.6450226968748378E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="126">
+      <c r="P11" s="133">
+        <f t="shared" si="1"/>
+        <v>-2.5206133946758191E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="126">
         <v>45376</v>
       </c>
-      <c r="B10">
-        <f>B27</f>
+      <c r="B12">
+        <f>B29</f>
         <v>1110</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>31.786200000000001</v>
       </c>
-      <c r="D10">
-        <f>D27</f>
+      <c r="D12">
+        <f>D29</f>
         <v>321.99</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>34.386299999999999</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F12" s="124">
         <v>161</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>2214.31</v>
       </c>
-      <c r="H10">
-        <f>H27</f>
+      <c r="H12">
+        <f>H29</f>
         <v>50000</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>0.91889100000000001</v>
       </c>
-      <c r="J10">
-        <f>J27</f>
+      <c r="J12">
+        <f>J29</f>
         <v>75000</v>
       </c>
-      <c r="K10" s="129">
+      <c r="K12" s="129">
         <f t="shared" si="0"/>
         <v>0.91889100000000001</v>
       </c>
-      <c r="L10" s="125">
-        <f>(F10*G10)+(B10*C10)+(D10*E10)+(T10*U10)+(H10*I10)+(R10*S10)+(V10*W10)+(X10*Y10)+(Z15*AA15)+(J10*K10)</f>
+      <c r="L12" s="125">
+        <f>(F12*G12)+(B12*C12)+(D12*E12)+(T12*U12)+(H12*I12)+(R12*S12)+(V12*W12)+(X12*Y12)+(Z17*AA17)+(J12*K12)</f>
         <v>519281.29173699999</v>
       </c>
-      <c r="M10">
+      <c r="M12">
         <v>155.99</v>
       </c>
-      <c r="N10">
+      <c r="N12">
         <v>244906</v>
       </c>
-      <c r="O10" s="127">
+      <c r="O12" s="127">
         <v>9029.3799999999992</v>
       </c>
-      <c r="P10" s="133">
-        <f t="shared" ref="P10:P31" si="2">(1-(O11/O10))</f>
+      <c r="P12" s="133">
+        <f t="shared" si="1"/>
         <v>-9.0947551216142841E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="126">
+    <row r="13" spans="1:27">
+      <c r="A13" s="126">
         <v>45373</v>
       </c>
-      <c r="B11">
-        <f>B27</f>
+      <c r="B13">
+        <f>B29</f>
         <v>1110</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>31.710699999999999</v>
       </c>
-      <c r="D11">
-        <f>D27</f>
+      <c r="D13">
+        <f>D29</f>
         <v>321.99</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>34.336300000000001</v>
       </c>
-      <c r="F11" s="124">
+      <c r="F13" s="124">
         <v>161</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>2212.11</v>
       </c>
-      <c r="H11">
-        <f>H27</f>
+      <c r="H13">
+        <f>H29</f>
         <v>50000</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>0.93062100000000003</v>
       </c>
-      <c r="J11">
-        <f>J27</f>
+      <c r="J13">
+        <f>J29</f>
         <v>75000</v>
       </c>
-      <c r="K11" s="129">
+      <c r="K13" s="129">
         <f t="shared" si="0"/>
         <v>0.93062100000000003</v>
       </c>
-      <c r="L11" s="125">
-        <f>(F11*G11)+(B11*C11)+(D11*E11)+(T11*U11)+(H11*I11)+(R11*S11)+(V11*W11)+(X11*Y11)+(Z15*AA15)+(J11*K11)</f>
+      <c r="L13" s="125">
+        <f>(F13*G13)+(B13*C13)+(D13*E13)+(T13*U13)+(H13*I13)+(R13*S13)+(V13*W13)+(X13*Y13)+(Z17*AA17)+(J13*K13)</f>
         <v>520293.43723700003</v>
       </c>
-      <c r="M11">
+      <c r="M13">
         <v>156.63999999999999</v>
       </c>
-      <c r="N11">
+      <c r="N13">
         <v>245919.31</v>
       </c>
-      <c r="O11">
+      <c r="O13">
         <v>9111.5</v>
       </c>
-      <c r="P11" s="133">
-        <f t="shared" si="2"/>
+      <c r="P13" s="133">
+        <f t="shared" si="1"/>
         <v>-3.2047412610438641E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="126">
+    <row r="14" spans="1:27">
+      <c r="A14" s="126">
         <v>45372</v>
       </c>
-      <c r="B12">
-        <f>B27</f>
+      <c r="B14">
+        <f>B29</f>
         <v>1110</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>32.063899999999997</v>
       </c>
-      <c r="D12">
-        <f>D27</f>
+      <c r="D14">
+        <f>D29</f>
         <v>321.99</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>35.065100000000001</v>
       </c>
-      <c r="F12" s="124">
+      <c r="F14" s="124">
         <v>161</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>2267.61</v>
       </c>
-      <c r="H12">
-        <f>H27</f>
+      <c r="H14">
+        <f>H29</f>
         <v>50000</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>0.94166499999999997</v>
       </c>
-      <c r="J12">
-        <f>J27</f>
+      <c r="J14">
+        <f>J29</f>
         <v>75000</v>
       </c>
-      <c r="K12" s="129">
+      <c r="K14" s="129">
         <f t="shared" si="0"/>
         <v>0.94166499999999997</v>
       </c>
-      <c r="L12" s="125">
-        <f>(F12*G12)+(B12*C12)+(D12*E12)+(T12*U12)+(H12*I12)+(R12*S12)+(V12*W12)+(X12*Y12)+(Z15*AA15)+(J12*K12)</f>
+      <c r="L14" s="125">
+        <f>(F14*G14)+(B14*C14)+(D14*E14)+(T14*U14)+(H14*I14)+(R14*S14)+(V14*W14)+(X14*Y14)+(Z17*AA17)+(J14*K14)</f>
         <v>531236.15554900002</v>
       </c>
-      <c r="M12">
+      <c r="M14">
         <v>163.91</v>
       </c>
-      <c r="N12">
+      <c r="N14">
         <v>256845.12</v>
       </c>
-      <c r="O12" s="127">
+      <c r="O14" s="127">
         <v>9140.7000000000007</v>
       </c>
-      <c r="P12" s="133">
-        <f t="shared" si="2"/>
+      <c r="P14" s="133">
+        <f t="shared" si="1"/>
         <v>2.0302602645311585E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="126">
+    <row r="15" spans="1:27">
+      <c r="A15" s="126">
         <v>45371</v>
       </c>
-      <c r="B13">
-        <f>B27</f>
+      <c r="B15">
+        <f>B29</f>
         <v>1110</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>32.028799999999997</v>
       </c>
-      <c r="D13">
-        <f>D27</f>
+      <c r="D15">
+        <f>D29</f>
         <v>321.99</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>34.808799999999998</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F15" s="124">
         <v>161</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>2220.92</v>
       </c>
-      <c r="H13">
-        <f>H27</f>
+      <c r="H15">
+        <f>H29</f>
         <v>50000</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>0.93470600000000004</v>
       </c>
-      <c r="J13">
-        <f>J27</f>
+      <c r="J15">
+        <f>J29</f>
         <v>75000</v>
       </c>
-      <c r="K13" s="129">
+      <c r="K15" s="129">
         <f t="shared" si="0"/>
         <v>0.93470600000000004</v>
       </c>
-      <c r="L13" s="125">
-        <f>(F13*G13)+(B13*C13)+(D13*E13)+(T13*U13)+(H13*I13)+(R13*S13)+(V13*W13)+(X13*Y13)+(Z13*AA13)+(J13*K13)</f>
+      <c r="L15" s="125">
+        <f t="shared" ref="L15:L33" si="5">(F15*G15)+(B15*C15)+(D15*E15)+(T15*U15)+(H15*I15)+(R15*S15)+(V15*W15)+(X15*Y15)+(Z15*AA15)+(J15*K15)</f>
         <v>521166.42351200001</v>
       </c>
-      <c r="M13">
+      <c r="M15">
         <v>158.47999999999999</v>
       </c>
-      <c r="N13">
+      <c r="N15">
         <v>248342.62</v>
       </c>
-      <c r="O13" s="127">
+      <c r="O15" s="127">
         <v>8955.1200000000008</v>
       </c>
-      <c r="P13" s="133">
-        <f t="shared" si="2"/>
+      <c r="P15" s="133">
+        <f t="shared" si="1"/>
         <v>2.8184993612594411E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="126">
+    <row r="16" spans="1:27">
+      <c r="A16" s="126">
         <v>45370</v>
       </c>
-      <c r="B14">
-        <f>B27</f>
+      <c r="B16">
+        <f>B29</f>
         <v>1110</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>32.087800000000001</v>
       </c>
-      <c r="D14">
-        <f>D27</f>
+      <c r="D16">
+        <f>D29</f>
         <v>321.99</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>34.799100000000003</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F16" s="124">
         <v>161</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>2219.02</v>
       </c>
-      <c r="H14">
-        <f>H27</f>
+      <c r="H16">
+        <f>H29</f>
         <v>50000</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <v>0.90033600000000003</v>
       </c>
-      <c r="J14">
-        <f>J27</f>
+      <c r="J16">
+        <f>J29</f>
         <v>75000</v>
       </c>
-      <c r="K14" s="129">
+      <c r="K16" s="129">
         <f t="shared" si="0"/>
         <v>0.90033600000000003</v>
       </c>
-      <c r="L14" s="125">
-        <f>(F14*G14)+(B14*C14)+(D14*E14)+(T14*U14)+(H14*I14)+(R14*S14)+(V14*W14)+(X14*Y14)+(Z14*AA14)+(J14*K14)</f>
+      <c r="L16" s="125">
+        <f t="shared" si="5"/>
         <v>517965.56020899996</v>
       </c>
-      <c r="M14">
+      <c r="M16">
         <v>155.59</v>
       </c>
-      <c r="N14">
+      <c r="N16">
         <v>243803.06</v>
       </c>
-      <c r="O14" s="127">
+      <c r="O16" s="127">
         <v>8929.8799999999992</v>
       </c>
-      <c r="P14" s="133">
-        <f t="shared" si="2"/>
+      <c r="P16" s="133">
+        <f t="shared" si="1"/>
         <v>2.3714764364134666E-2</v>
-      </c>
-      <c r="Z14">
-        <v>68</v>
-      </c>
-      <c r="AA14">
-        <v>19.690000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="126">
-        <v>45369</v>
-      </c>
-      <c r="B15">
-        <f>B27</f>
-        <v>1110</v>
-      </c>
-      <c r="C15">
-        <v>31.9499</v>
-      </c>
-      <c r="D15">
-        <f>D27</f>
-        <v>321.99</v>
-      </c>
-      <c r="E15">
-        <v>34.8125</v>
-      </c>
-      <c r="F15" s="124">
-        <v>161</v>
-      </c>
-      <c r="G15">
-        <v>2212.35</v>
-      </c>
-      <c r="H15">
-        <f>H27</f>
-        <v>50000</v>
-      </c>
-      <c r="I15">
-        <v>0.93887900000000002</v>
-      </c>
-      <c r="J15">
-        <f>J27</f>
-        <v>75000</v>
-      </c>
-      <c r="K15">
-        <v>0.93887900000000002</v>
-      </c>
-      <c r="L15" s="125">
-        <f>(F15*G15)+(B15*C15)+(D15*E15)+(T15*U15)+(H15*I15)+(R15*S15)+(V15*W15)+(X15*Y15)+(Z15*AA15)+(J15*K15)</f>
-        <v>521783.17087500001</v>
-      </c>
-      <c r="M15">
-        <v>155.44</v>
-      </c>
-      <c r="N15">
-        <v>247623.17</v>
-      </c>
-      <c r="O15" s="127">
-        <v>8718.11</v>
-      </c>
-      <c r="P15" s="133">
-        <f t="shared" si="2"/>
-        <v>-1.2685088855267868E-2</v>
-      </c>
-      <c r="Z15">
-        <v>68</v>
-      </c>
-      <c r="AA15">
-        <v>22.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="126">
-        <v>45366</v>
-      </c>
-      <c r="B16">
-        <f>B27</f>
-        <v>1110</v>
-      </c>
-      <c r="C16">
-        <v>31.796299999999999</v>
-      </c>
-      <c r="D16">
-        <f>D27</f>
-        <v>321.99</v>
-      </c>
-      <c r="E16">
-        <v>34.619700000000002</v>
-      </c>
-      <c r="F16" s="124">
-        <v>161</v>
-      </c>
-      <c r="G16">
-        <v>2213.54</v>
-      </c>
-      <c r="H16">
-        <f>H27</f>
-        <v>50000</v>
-      </c>
-      <c r="I16">
-        <v>0.94838599999999995</v>
-      </c>
-      <c r="J16">
-        <f>J27</f>
-        <v>75000</v>
-      </c>
-      <c r="K16">
-        <v>0.94838599999999995</v>
-      </c>
-      <c r="L16" s="125">
-        <f>(F16*G16)+(B16*C16)+(D16*E16)+(T16*U16)+(H16*I16)+(R16*S16)+(V16*W16)+(X16*Y16)+(Z16*AA16)+(J16*K16)</f>
-        <v>522868.00020299997</v>
-      </c>
-      <c r="M16">
-        <v>156.13</v>
-      </c>
-      <c r="N16">
-        <v>248712.47</v>
-      </c>
-      <c r="O16" s="127">
-        <v>8828.7000000000007</v>
-      </c>
-      <c r="P16" s="133">
-        <f t="shared" si="2"/>
-        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="Z16">
         <v>68</v>
       </c>
       <c r="AA16">
-        <v>22.04</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="126">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B17">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.775700000000001</v>
+        <v>31.9499</v>
       </c>
       <c r="D17">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>34.762500000000003</v>
+        <v>34.8125</v>
       </c>
       <c r="F17" s="124">
         <v>161</v>
       </c>
       <c r="G17">
-        <v>2222.88</v>
+        <v>2212.35</v>
       </c>
       <c r="H17">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I17">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="J17">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K17">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="L17" s="125">
-        <f>(F17*G17)+(B17*C17)+(D17*E17)+(T17*U17)+(H17*I17)+(R17*S17)+(V17*W17)+(X17*Y17)+(Z17*AA17)+(J17*K17)</f>
-        <v>524610.95937499998</v>
+        <f t="shared" si="5"/>
+        <v>521783.17087500001</v>
       </c>
       <c r="M17">
-        <v>157.21</v>
+        <v>155.44</v>
       </c>
       <c r="N17">
-        <v>250427.64</v>
+        <v>247623.17</v>
       </c>
       <c r="O17" s="127">
-        <v>8883.52</v>
+        <v>8718.11</v>
       </c>
       <c r="P17" s="133">
-        <f t="shared" si="2"/>
-        <v>-3.0066910413888426E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="Z17">
         <v>68</v>
       </c>
       <c r="AA17">
-        <v>20.399999999999999</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="126">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B18">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D18">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F18" s="124">
         <v>161</v>
       </c>
       <c r="G18">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="H18">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I18">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="J18">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K18">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="L18" s="125">
-        <f>(F18*G18)+(B18*C18)+(D18*E18)+(T18*U18)+(H18*I18)+(R18*S18)+(V18*W18)+(X18*Y18)+(Z18*AA18)+(J18*K18)</f>
-        <v>525154.25500000012</v>
+        <f t="shared" si="5"/>
+        <v>522868.00020299997</v>
       </c>
       <c r="M18">
-        <v>160.79</v>
+        <v>156.13</v>
       </c>
       <c r="N18">
-        <v>250989.9</v>
+        <v>248712.47</v>
       </c>
       <c r="O18" s="127">
-        <v>8910.23</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="P18" s="133">
-        <f t="shared" si="2"/>
-        <v>-1.7822211098927898E-2</v>
+        <f t="shared" si="1"/>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="Z18">
         <v>68</v>
       </c>
       <c r="AA18">
-        <v>18.22</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="126">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B19">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.516400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D19">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.463200000000001</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F19" s="124">
         <v>161</v>
       </c>
       <c r="G19">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="H19">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I19">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="J19">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K19">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="L19" s="125">
-        <f>(F19*G19)+(B19*C19)+(D19*E19)+(T19*U19)+(H19*I19)+(R19*S19)+(V19*W19)+(X19*Y19)+(Z19*AA19)+(J19*K19)</f>
-        <v>527079.91476800013</v>
+        <f t="shared" si="5"/>
+        <v>524610.95937499998</v>
       </c>
       <c r="M19">
-        <v>161.94999999999999</v>
+        <v>157.21</v>
       </c>
       <c r="N19">
-        <v>252645.61</v>
+        <v>250427.64</v>
       </c>
       <c r="O19" s="127">
-        <v>9069.0300000000007</v>
+        <v>8883.52</v>
       </c>
       <c r="P19" s="133">
-        <f t="shared" si="2"/>
-        <v>-6.8684302510850781E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="Z19">
         <v>68</v>
       </c>
       <c r="AA19">
-        <v>16.57</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="126">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B20">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.571400000000001</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.558100000000003</v>
+        <v>35</v>
       </c>
       <c r="F20" s="124">
         <v>161</v>
       </c>
       <c r="G20">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="H20">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I20">
-        <v>0.99851990000000002</v>
+        <v>0.957233</v>
       </c>
       <c r="J20">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K20">
-        <v>0.99851990000000002</v>
+        <v>0.957233</v>
       </c>
       <c r="L20" s="125">
-        <f>(F20*G20)+(B20*C20)+(D20*E20)+(T20*U20)+(H20*I20)+(R20*S20)+(V20*W20)+(X20*Y20)+(Z20*AA20)+(J20*K20)</f>
-        <v>532801.83411900001</v>
+        <f t="shared" si="5"/>
+        <v>525154.25500000012</v>
       </c>
       <c r="M20">
-        <v>164.91</v>
+        <v>160.79</v>
       </c>
       <c r="N20">
-        <v>257088.48</v>
+        <v>250989.9</v>
       </c>
       <c r="O20" s="127">
-        <v>9131.32</v>
+        <v>8910.23</v>
       </c>
       <c r="P20" s="133">
-        <f t="shared" si="2"/>
-        <v>-2.6283166070184549E-3</v>
-      </c>
-      <c r="V20">
-        <v>12</v>
-      </c>
-      <c r="W20">
-        <v>41.58</v>
-      </c>
-      <c r="X20">
-        <f>X27</f>
-        <v>15</v>
-      </c>
-      <c r="Y20">
-        <v>55.55</v>
+        <f t="shared" si="1"/>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="Z20">
         <v>68</v>
       </c>
       <c r="AA20">
-        <v>15.07</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="126">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B21">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.402999999999999</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D21">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.3643</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F21" s="124">
         <v>161</v>
       </c>
       <c r="G21">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="H21">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I21">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="J21">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K21">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="L21" s="125">
-        <f>(F21*G21)+(B21*C21)+(D21*E21)+(T21*U21)+(H21*I21)+(R21*S21)+(V21*W21)+(X21*Y21)+(Z21*AA21)+(J21*K21)</f>
-        <v>525972.37595699995</v>
+        <f t="shared" si="5"/>
+        <v>527079.91476800013</v>
       </c>
       <c r="M21">
-        <v>160.9</v>
+        <v>161.94999999999999</v>
+      </c>
+      <c r="N21">
+        <v>252645.61</v>
       </c>
       <c r="O21" s="127">
-        <v>9155.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="P21" s="133">
-        <f t="shared" si="2"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="V21">
-        <v>12</v>
-      </c>
-      <c r="W21">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X21">
-        <f>X27</f>
-        <v>15</v>
-      </c>
-      <c r="Y21">
-        <v>57.75</v>
+        <f t="shared" si="1"/>
+        <v>-6.8684302510850781E-3</v>
       </c>
       <c r="Z21">
         <v>68</v>
       </c>
       <c r="AA21">
-        <v>13.7</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="126">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B22">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.297000000000001</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D22">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.110599999999998</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F22" s="124">
         <v>161</v>
       </c>
       <c r="G22">
-        <v>2184.79</v>
+        <v>2232.66</v>
       </c>
       <c r="H22">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I22">
-        <v>0.945214</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="J22">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K22">
-        <v>0.945214</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="L22" s="125">
-        <f>(F22*G22)+(B22*C22)+(D22*E22)+(T22*U22)+(H22*I22)+(R22*S22)+(V22*W22)+(X22*Y22)+(Z22*AA22)+(J22*K22)</f>
-        <v>517832.22209400003</v>
+        <f t="shared" si="5"/>
+        <v>532801.83411900001</v>
       </c>
       <c r="M22">
-        <v>155.75</v>
+        <v>164.91</v>
+      </c>
+      <c r="N22">
+        <v>257088.48</v>
       </c>
       <c r="O22" s="127">
-        <v>9054.18</v>
+        <v>9131.32</v>
       </c>
       <c r="P22" s="133">
-        <f t="shared" si="2"/>
-        <v>3.4194151209717583E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.6283166070184549E-3</v>
       </c>
       <c r="V22">
         <v>12</v>
       </c>
       <c r="W22">
-        <v>34.380000000000003</v>
+        <v>41.58</v>
       </c>
       <c r="X22">
-        <f>X27</f>
+        <f>X29</f>
         <v>15</v>
       </c>
       <c r="Y22">
-        <v>63.1</v>
+        <v>55.55</v>
       </c>
       <c r="Z22">
         <v>68</v>
       </c>
       <c r="AA22">
-        <v>12.46</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="126">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B23">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.293399999999998</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D23">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.006500000000003</v>
+        <v>34.3643</v>
       </c>
       <c r="F23" s="124">
         <v>161</v>
       </c>
       <c r="G23">
-        <v>2150.9</v>
+        <v>2198.16</v>
       </c>
       <c r="H23">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I23">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="J23">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K23">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="L23" s="125">
-        <f>(F23*G23)+(B23*C23)+(D23*E23)+(T23*U23)+(H23*I23)+(R23*S23)+(V23*W23)+(X23*Y23)+(Z23*AA23)+(J23*K23)</f>
-        <v>551296.63907100004</v>
+        <f t="shared" si="5"/>
+        <v>525972.37595699995</v>
       </c>
       <c r="M23">
-        <v>156.16</v>
+        <v>160.9</v>
       </c>
       <c r="O23" s="127">
-        <v>8744.58</v>
+        <v>9155.32</v>
       </c>
       <c r="P23" s="133">
-        <f t="shared" si="2"/>
-        <v>-1.3258498407013208E-2</v>
-      </c>
-      <c r="T23">
-        <f>T27</f>
-        <v>57</v>
-      </c>
-      <c r="U23">
-        <v>580.05924800000003</v>
+        <f t="shared" si="1"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="V23">
         <v>12</v>
       </c>
       <c r="W23">
-        <v>31.26</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="X23">
-        <f>X27</f>
+        <f>X29</f>
         <v>15</v>
       </c>
       <c r="Y23">
-        <v>57.4</v>
+        <v>57.75</v>
       </c>
       <c r="Z23">
         <v>68</v>
       </c>
       <c r="AA23">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="126">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B24">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.079899999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D24">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>33.721699999999998</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F24" s="124">
         <v>161</v>
       </c>
       <c r="G24">
-        <v>2116.34</v>
+        <v>2184.79</v>
       </c>
       <c r="H24">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I24">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="J24">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K24">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="L24" s="125">
-        <f>(F24*G24)+(B24*C24)+(D24*E24)+(T24*U24)+(H24*I24)+(R24*S24)+(V24*W24)+(X24*Y24)+(Z24*AA24)+(J24*K24)</f>
-        <v>549382.85210899997</v>
+        <f t="shared" si="5"/>
+        <v>517832.22209400003</v>
       </c>
       <c r="M24">
-        <v>154.22999999999999</v>
+        <v>155.75</v>
       </c>
       <c r="O24" s="127">
-        <v>8860.52</v>
+        <v>9054.18</v>
       </c>
       <c r="P24" s="133">
-        <f t="shared" si="2"/>
-        <v>-5.319100910555985E-3</v>
-      </c>
-      <c r="R24">
-        <f>R27</f>
-        <v>36</v>
-      </c>
-      <c r="S24" s="134">
-        <v>38.15</v>
-      </c>
-      <c r="T24">
-        <f>T27</f>
-        <v>57</v>
-      </c>
-      <c r="U24">
-        <v>579.361718</v>
+        <f t="shared" si="1"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="V24">
-        <f>V27</f>
         <v>12</v>
       </c>
       <c r="W24">
-        <v>28.42</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="X24">
-        <f>X27</f>
+        <f>X29</f>
         <v>15</v>
       </c>
       <c r="Y24">
-        <v>52.2</v>
+        <v>63.1</v>
       </c>
       <c r="Z24">
         <v>68</v>
       </c>
       <c r="AA24">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="126">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B25">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D25">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F25" s="124">
         <v>161</v>
       </c>
       <c r="G25">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="H25">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I25">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="J25">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K25">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="L25" s="125">
-        <f>(F25*G25)+(B25*C25)+(D25*E25)+(T25*U25)+(H25*I25)+(R25*S25)+(V25*W25)+(X25*Y25)+(Z25*AA25)+(J25*K25)</f>
-        <v>545049.74954800005</v>
+        <f t="shared" si="5"/>
+        <v>551296.63907100004</v>
+      </c>
+      <c r="M25">
+        <v>156.16</v>
       </c>
       <c r="O25" s="127">
-        <v>8907.65</v>
+        <v>8744.58</v>
       </c>
       <c r="P25" s="133">
-        <f t="shared" si="2"/>
-        <v>-2.1273848882702007E-2</v>
-      </c>
-      <c r="R25">
-        <f>R27</f>
-        <v>36</v>
-      </c>
-      <c r="S25">
-        <v>34.659999999999997</v>
+        <f t="shared" si="1"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="T25">
-        <f>T27</f>
+        <f>T29</f>
         <v>57</v>
       </c>
       <c r="U25">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="V25">
-        <f>V27</f>
         <v>12</v>
       </c>
       <c r="W25">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="X25">
-        <f>X27</f>
+        <f>X29</f>
         <v>15</v>
       </c>
       <c r="Y25">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="Z25">
         <v>68</v>
@@ -6433,80 +7441,83 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="126">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B26">
-        <f>B27</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D26">
-        <f>D27</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F26" s="124">
         <v>161</v>
       </c>
       <c r="G26">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="H26">
-        <f>H27</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I26">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="J26">
-        <f>J27</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K26">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="L26" s="125">
-        <f>(F26*G26)+(B26*C26)+(D26*E26)+(T26*U26)+(H26*I26)+(R26*S26)+(V26*W26)+(X26*Y26)+(Z26*AA26)+(J26*K26)</f>
-        <v>534814.50418999989</v>
+        <f t="shared" si="5"/>
+        <v>549382.85210899997</v>
+      </c>
+      <c r="M26">
+        <v>154.22999999999999</v>
       </c>
       <c r="O26" s="127">
-        <v>9097.15</v>
+        <v>8860.52</v>
       </c>
       <c r="P26" s="133">
-        <f t="shared" si="2"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" ref="P12:P33" si="6">(1-(O27/O26))</f>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="R26">
-        <f>R27</f>
+        <f>R29</f>
         <v>36</v>
       </c>
-      <c r="S26">
-        <v>31.52</v>
+      <c r="S26" s="134">
+        <v>38.15</v>
       </c>
       <c r="T26">
-        <f>T27</f>
+        <f>T29</f>
         <v>57</v>
       </c>
       <c r="U26">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="V26">
-        <f>V27</f>
+        <f>V29</f>
         <v>12</v>
       </c>
       <c r="W26">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="X26">
-        <f>X27</f>
+        <f>X29</f>
         <v>15</v>
       </c>
       <c r="Y26">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="Z26">
         <v>68</v>
@@ -6517,92 +7528,101 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="126">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B27">
-        <f>B28</f>
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D27">
-        <f>D28</f>
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F27" s="124">
         <v>161</v>
       </c>
       <c r="G27">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="H27">
-        <f>H28</f>
+        <f>H29</f>
         <v>50000</v>
       </c>
       <c r="I27">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="J27">
-        <f>J28</f>
+        <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K27">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="L27" s="125">
-        <f>(F27*G27)+(B27*C27)+(D27*E27)+(T27*U27)+(H27*I27)+(R27*S27)+(V27*W27)+(X27*Y27)+(Z27*AA27)+(J27*K27)</f>
-        <v>530894.48918999988</v>
+        <f t="shared" si="5"/>
+        <v>545049.74954800005</v>
       </c>
       <c r="O27" s="127">
-        <v>9193.69</v>
+        <v>8907.65</v>
       </c>
       <c r="P27" s="133">
-        <f t="shared" si="2"/>
-        <v>1.428479750785594E-2</v>
+        <f t="shared" si="6"/>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="R27">
-        <f>R28</f>
+        <f>R29</f>
         <v>36</v>
       </c>
       <c r="S27">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="T27">
-        <f>T28</f>
+        <f>T29</f>
         <v>57</v>
       </c>
       <c r="U27">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="V27">
-        <f>V28</f>
+        <f>V29</f>
         <v>12</v>
       </c>
       <c r="W27">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="X27">
+        <f>X29</f>
         <v>15</v>
       </c>
       <c r="Y27">
-        <v>39.24</v>
+        <v>47.46</v>
+      </c>
+      <c r="Z27">
+        <v>68</v>
+      </c>
+      <c r="AA27">
+        <v>11.33</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="126">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B28">
+        <f>B29</f>
         <v>1110</v>
       </c>
       <c r="C28">
         <v>30.7361</v>
       </c>
       <c r="D28">
+        <f>D29</f>
         <v>321.99</v>
       </c>
       <c r="E28">
@@ -6619,57 +7639,74 @@
         <v>50000</v>
       </c>
       <c r="I28">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="J28">
         <f>J29</f>
         <v>75000</v>
       </c>
       <c r="K28">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="L28" s="125">
-        <f>(F28*G28)+(B28*C28)+(D28*E28)+(T28*U28)+(H28*I28)+(R28*S28)+(V28*W28)+(X28*Y28)+(Z28*AA28)+(J28*K28)</f>
-        <v>537360.00419000001</v>
+        <f t="shared" si="5"/>
+        <v>534814.50418999989</v>
       </c>
       <c r="O28" s="127">
-        <v>9062.36</v>
+        <v>9097.15</v>
       </c>
       <c r="P28" s="133">
-        <f t="shared" si="2"/>
-        <v>-1.292378585710563E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.0612114783201454E-2</v>
       </c>
       <c r="R28">
         <f>R29</f>
         <v>36</v>
       </c>
       <c r="S28">
-        <v>26.06</v>
+        <v>31.52</v>
       </c>
       <c r="T28">
+        <f>T29</f>
         <v>57</v>
       </c>
       <c r="U28">
         <v>576.58807100000001</v>
       </c>
       <c r="V28">
+        <f>V29</f>
         <v>12</v>
       </c>
       <c r="W28">
-        <v>19.45</v>
+        <v>23.5</v>
+      </c>
+      <c r="X28">
+        <f>X29</f>
+        <v>15</v>
+      </c>
+      <c r="Y28">
+        <v>43.16</v>
+      </c>
+      <c r="Z28">
+        <v>68</v>
+      </c>
+      <c r="AA28">
+        <v>11.33</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="126">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B29">
+        <f>B30</f>
         <v>1110</v>
       </c>
       <c r="C29">
         <v>30.7361</v>
       </c>
       <c r="D29">
+        <f>D30</f>
         <v>321.99</v>
       </c>
       <c r="E29">
@@ -6686,41 +7723,57 @@
         <v>50000</v>
       </c>
       <c r="I29">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="J29">
+        <f>J30</f>
         <v>75000</v>
       </c>
       <c r="K29">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="L29" s="125">
-        <f>(F29*G29)+(B29*C29)+(D29*E29)+(T29*U29)+(H29*I29)+(R29*S29)+(V29*W29)+(X29*Y29)+(Z29*AA29)+(J29*K29)</f>
-        <v>536633.0191899999</v>
+        <f t="shared" si="5"/>
+        <v>530894.48918999988</v>
       </c>
       <c r="O29" s="127">
-        <v>9179.48</v>
+        <v>9193.69</v>
       </c>
       <c r="P29" s="133">
-        <f t="shared" si="2"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="R29">
+        <f>R30</f>
         <v>36</v>
       </c>
       <c r="S29">
-        <v>23.7</v>
+        <v>28.66</v>
       </c>
       <c r="T29">
+        <f>T30</f>
         <v>57</v>
       </c>
       <c r="U29">
         <v>576.58807100000001</v>
       </c>
+      <c r="V29">
+        <f>V30</f>
+        <v>12</v>
+      </c>
+      <c r="W29">
+        <v>21.38</v>
+      </c>
+      <c r="X29">
+        <v>15</v>
+      </c>
+      <c r="Y29">
+        <v>39.24</v>
+      </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="126">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B30">
         <v>1110</v>
@@ -6745,27 +7798,32 @@
         <v>50000</v>
       </c>
       <c r="I30">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
+      </c>
+      <c r="J30">
+        <f>J31</f>
+        <v>75000</v>
       </c>
       <c r="K30">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="L30" s="125">
-        <f>(F30*G30)+(B30*C30)+(D30*E30)+(T30*U30)+(H30*I30)+(R30*S30)+(V30*W30)+(X30*Y30)+(Z30*AA30)+(J30*K30)</f>
-        <v>454463.60418999993</v>
+        <f t="shared" si="5"/>
+        <v>537360.00419000001</v>
       </c>
       <c r="O30" s="127">
-        <v>9334.1299999999992</v>
+        <v>9062.36</v>
       </c>
       <c r="P30" s="133">
-        <f t="shared" si="2"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="6"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="R30">
+        <f>R31</f>
         <v>36</v>
       </c>
       <c r="S30">
-        <v>21.56</v>
+        <v>26.06</v>
       </c>
       <c r="T30">
         <v>57</v>
@@ -6773,10 +7831,16 @@
       <c r="U30">
         <v>576.58807100000001</v>
       </c>
+      <c r="V30">
+        <v>12</v>
+      </c>
+      <c r="W30">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="126">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B31">
         <v>1110</v>
@@ -6797,30 +7861,34 @@
         <v>2018.91</v>
       </c>
       <c r="H31">
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I31">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
+      </c>
+      <c r="J31">
+        <v>75000</v>
       </c>
       <c r="K31">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="L31" s="125">
-        <f>(F31*G31)+(B31*C31)+(D31*E31)+(T31*U31)+(H31*I31)+(R31*S31)+(V31*W31)+(X31*Y31)+(Z31*AA31)+(J31*K31)</f>
-        <v>453591.29418999993</v>
+        <f t="shared" si="5"/>
+        <v>536633.0191899999</v>
       </c>
       <c r="O31" s="127">
-        <v>9374.2000000000007</v>
+        <v>9179.48</v>
       </c>
       <c r="P31" s="133">
-        <f t="shared" si="2"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="6"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="R31">
         <v>36</v>
       </c>
       <c r="S31">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="T31">
         <v>57</v>
@@ -6830,172 +7898,283 @@
       </c>
     </row>
     <row r="32" spans="1:27">
+      <c r="A32" s="126">
+        <v>45348</v>
+      </c>
+      <c r="B32">
+        <v>1110</v>
+      </c>
+      <c r="C32">
+        <v>30.7361</v>
+      </c>
+      <c r="D32">
+        <v>321.99</v>
+      </c>
+      <c r="E32">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F32" s="124">
+        <v>161</v>
+      </c>
+      <c r="G32">
+        <v>2018.91</v>
+      </c>
+      <c r="H32">
+        <f>H33</f>
+        <v>50000</v>
+      </c>
       <c r="I32">
-        <v>0.97160999999999997</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="K32">
-        <v>0.97160999999999997</v>
+        <v>1.0192399999999999</v>
+      </c>
+      <c r="L32" s="125">
+        <f t="shared" si="5"/>
+        <v>454463.60418999993</v>
       </c>
       <c r="O32" s="127">
-        <v>9347.17</v>
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="P32" s="133">
+        <f t="shared" si="6"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="R32">
         <v>36</v>
       </c>
       <c r="S32">
-        <v>17.82</v>
-      </c>
-    </row>
-    <row r="33" spans="9:27">
+        <v>21.56</v>
+      </c>
+      <c r="T32">
+        <v>57</v>
+      </c>
+      <c r="U32">
+        <v>576.58807100000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="126">
+        <v>45345</v>
+      </c>
+      <c r="B33">
+        <v>1110</v>
+      </c>
+      <c r="C33">
+        <v>30.7361</v>
+      </c>
+      <c r="D33">
+        <v>321.99</v>
+      </c>
+      <c r="E33">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F33" s="124">
+        <v>161</v>
+      </c>
+      <c r="G33">
+        <v>2018.91</v>
+      </c>
+      <c r="H33">
+        <v>50000</v>
+      </c>
       <c r="I33">
-        <v>0.93849000000000005</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="K33">
-        <v>0.93849000000000005</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L33" s="125">
+        <f t="shared" si="5"/>
+        <v>453591.29418999993</v>
+      </c>
+      <c r="O33" s="127">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="P33" s="133">
+        <f t="shared" si="6"/>
+        <v>2.8834460540633211E-3</v>
       </c>
       <c r="R33">
         <v>36</v>
       </c>
-      <c r="S33" s="135">
+      <c r="S33">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T33">
+        <v>57</v>
+      </c>
+      <c r="U33">
+        <v>576.58807100000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="I34">
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="K34">
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="O34" s="127">
+        <v>9347.17</v>
+      </c>
+      <c r="R34">
+        <v>36</v>
+      </c>
+      <c r="S34">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="I35">
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="K35">
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="R35">
+        <v>36</v>
+      </c>
+      <c r="S35" s="135">
         <v>15.3</v>
       </c>
-      <c r="W33" s="135">
-        <f>W28</f>
+      <c r="W35" s="135">
+        <f>W30</f>
         <v>19.45</v>
       </c>
-      <c r="Y33" s="135">
-        <f>Y27</f>
+      <c r="Y35" s="135">
+        <f>Y29</f>
         <v>39.24</v>
       </c>
-      <c r="AA33" s="135">
-        <f>AA26</f>
+      <c r="AA35" s="135">
+        <f>AA28</f>
         <v>11.33</v>
       </c>
     </row>
-    <row r="34" spans="9:27">
-      <c r="I34">
+    <row r="36" spans="1:27">
+      <c r="I36">
         <v>0.91198999999999997</v>
       </c>
-      <c r="K34">
+      <c r="K36">
         <v>0.91198999999999997</v>
       </c>
-      <c r="P34" s="136" t="e">
-        <f>SUM(P5:P33)</f>
+      <c r="P36" s="136" t="e">
+        <f>SUM(P5:P35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S34" s="135" t="s">
+      <c r="S36" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="W34" s="135" t="s">
+      <c r="W36" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="Y34" s="135" t="s">
+      <c r="Y36" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="AA34" s="135" t="s">
+      <c r="AA36" s="135" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="9:27">
-      <c r="I35">
+    <row r="37" spans="1:27">
+      <c r="I37">
         <v>0.90268000000000004</v>
       </c>
-      <c r="K35">
+      <c r="K37">
         <v>0.90268000000000004</v>
       </c>
-      <c r="S35" s="137" t="s">
+      <c r="S37" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="W35" s="137" t="s">
+      <c r="W37" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="Y35" s="137" t="s">
+      <c r="Y37" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="AA35" s="137" t="s">
+      <c r="AA37" s="137" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="9:27">
-      <c r="I36">
+    <row r="38" spans="1:27">
+      <c r="I38">
         <v>0.89847999999999995</v>
       </c>
-      <c r="K36">
+      <c r="K38">
         <v>0.89847999999999995</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R38" t="s">
         <v>62</v>
       </c>
-      <c r="S36" s="137">
+      <c r="S38" s="137">
         <v>38</v>
       </c>
-      <c r="W36" s="137">
+      <c r="W38" s="137">
         <v>45.72</v>
       </c>
-      <c r="Y36" s="137">
+      <c r="Y38" s="137">
         <v>55.5</v>
       </c>
-      <c r="AA36" s="137">
+      <c r="AA38" s="137">
         <f>AA2</f>
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="37" spans="9:27">
-      <c r="I37">
+    <row r="39" spans="1:27">
+      <c r="I39">
         <v>0.88783999999999996</v>
       </c>
-      <c r="K37">
+      <c r="K39">
         <v>0.88783999999999996</v>
       </c>
-      <c r="S37" s="138">
-        <f>Sayfa2!M41</f>
+      <c r="S39" s="138">
+        <f>Sayfa2!M42</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="W37" s="138">
-        <f>(W36-W28)/W28</f>
+      <c r="W39" s="138">
+        <f>(W38-W30)/W30</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="Y37" s="138">
-        <f>(Y36-Y27)/Y27</f>
+      <c r="Y39" s="138">
+        <f>(Y38-Y29)/Y29</f>
         <v>0.41437308868501521</v>
       </c>
-      <c r="AA37" s="138">
-        <f>(AA36-AA26)/AA26</f>
+      <c r="AA39" s="138">
+        <f>(AA38-AA28)/AA28</f>
         <v>0.73786407766990303</v>
       </c>
     </row>
-    <row r="38" spans="9:27">
-      <c r="I38">
+    <row r="40" spans="1:27">
+      <c r="I40">
         <v>0.86724999999999997</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="39" spans="9:27">
-      <c r="R39" s="139" t="s">
+    <row r="41" spans="1:27">
+      <c r="R41" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="S39" s="139">
+      <c r="S41" s="139">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="V39" s="139" t="s">
+      <c r="V41" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="W39" s="139">
-        <f>(V28*W36)-(V5*W28)</f>
+      <c r="W41" s="139">
+        <f>(V30*W38)-(V5*W30)</f>
         <v>548.64</v>
       </c>
-      <c r="X39" s="139" t="s">
+      <c r="X41" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="Y39" s="139">
-        <f>(X27*Y36)-(X5*Y27)</f>
+      <c r="Y41" s="139">
+        <f>(X29*Y38)-(X5*Y29)</f>
         <v>832.5</v>
       </c>
-      <c r="AA39" s="139">
-        <f>(Z26*AA36)-(Z14*AA26)</f>
+      <c r="AA41" s="139">
+        <f>(Z28*AA38)-(Z16*AA28)</f>
         <v>568.48</v>
       </c>
     </row>
@@ -7095,7 +8274,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="14">
         <f>SUM(K8:K9)</f>
-        <v>-69.993999999999687</v>
+        <v>-158.77149999999961</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -7163,7 +8342,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="38">
         <f>SUM(K8:K9)</f>
-        <v>-69.993999999999687</v>
+        <v>-158.77149999999961</v>
       </c>
       <c r="L7" s="44">
         <f ca="1">K7/E7</f>
@@ -7186,7 +8365,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <f>K5/B7</f>
-        <v>-0.6999399999999969</v>
+        <v>-1.587714999999996</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="141" t="s">
@@ -7201,24 +8380,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="43">
         <f>SUBTOTAL(109,I13:I20)</f>
-        <v>5361.4159999999993</v>
+        <v>5272.6385</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="142">
         <f>SUBTOTAL(109,K13:K20)</f>
-        <v>-635.66399999999987</v>
+        <v>-724.44149999999979</v>
       </c>
       <c r="L8" s="44">
         <f>K8/E8</f>
-        <v>-0.10599558451779864</v>
+        <v>-0.12079903886558122</v>
       </c>
       <c r="M8" s="68">
         <f>SUBTOTAL(101,M13:M19)</f>
-        <v>-0.10790283220561502</v>
+        <v>-0.11661932705097583</v>
       </c>
       <c r="N8" s="68">
         <f>SUBTOTAL(101,N13:N19)</f>
-        <v>-5.4840469284862602E-2</v>
+        <v>-6.3857532917994494E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -7451,7 +8630,7 @@
       </c>
       <c r="O14" s="148">
         <f>SUM(O15:O18)</f>
-        <v>-635.66399999999987</v>
+        <v>-724.44149999999979</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -7639,19 +8818,19 @@
       </c>
       <c r="H18" s="65">
         <f>Sayfa4!K5</f>
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="I18" s="51">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>3083.4159999999997</v>
+        <v>2994.6385</v>
       </c>
       <c r="J18" s="46">
         <f>H18-D18</f>
-        <v>-8.9023999999999992E-2</v>
+        <v>-0.11438899999999996</v>
       </c>
       <c r="K18" s="66">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-311.58399999999995</v>
+        <v>-400.36149999999986</v>
       </c>
       <c r="L18" s="67">
         <f>F18-B18</f>
@@ -7659,15 +8838,15 @@
       </c>
       <c r="M18" s="68">
         <f>K18/E18</f>
-        <v>-9.1777319587628844E-2</v>
+        <v>-0.1179268041237113</v>
       </c>
       <c r="N18" s="68">
         <f>M18/L18*30</f>
-        <v>-9.4942054745822943E-2</v>
+        <v>-0.1219932456452186</v>
       </c>
       <c r="O18" s="70">
         <f>SUM(K15:K18)</f>
-        <v>-635.66399999999987</v>
+        <v>-724.44149999999979</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aanext\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2DA74E-5BE9-41CA-8ED7-1AC801658538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301398F-69C5-4693-A6C6-D0263E0F278B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>620280</xdr:colOff>
+      <xdr:colOff>582180</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
@@ -1921,7 +1921,7 @@
   <dimension ref="A1:AMJ85"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -1960,11 +1960,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>248387.66174700006</v>
+        <v>245709.69758700003</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1973,11 +1973,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>157.10794544402282</v>
+        <v>155.21774958117501</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2010,24 +2010,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I25)</f>
-        <v>520428.75344</v>
+        <v>517774.98928000004</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>229887.48436000003</v>
+        <v>227209.52020000003</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.82366652494259351</v>
+        <v>0.8140716161996111</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M16)</f>
-        <v>-0.17165271199729809</v>
+        <v>-0.19728119200516098</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N16)</f>
-        <v>-0.13691382364459359</v>
+        <v>-0.14922538087745646</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2182,7 +2182,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O26)</f>
-        <v>229887.48436000003</v>
+        <v>227209.52020000003</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F15" s="63">
         <f>$B$2</f>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G15" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2215,31 +2215,31 @@
       </c>
       <c r="H15" s="65">
         <f>Sayfa4!I2</f>
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>64170.825000000004</v>
+        <v>62185.424999999996</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-0.20882400000000001</v>
+        <v>-0.23529600000000006</v>
       </c>
       <c r="K15" s="66">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-15661.800000000001</v>
+        <v>-17647.200000000004</v>
       </c>
       <c r="L15" s="67">
         <f>F15-B15</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M15" s="68">
         <f>K15/E15</f>
-        <v>-0.19618295151888093</v>
+        <v>-0.22105248324228352</v>
       </c>
       <c r="N15" s="68">
         <f>M15/L15*30</f>
-        <v>-0.16348579293240076</v>
+        <v>-0.17451511834917119</v>
       </c>
       <c r="O15" s="69"/>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="F16" s="63">
         <f>$B$2</f>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G16" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2270,35 +2270,35 @@
       </c>
       <c r="H16" s="65">
         <f>H15</f>
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>42780.55</v>
+        <v>41456.949999999997</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-0.14759399999999989</v>
+        <v>-0.17406599999999994</v>
       </c>
       <c r="K16" s="66">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-7379.6999999999944</v>
+        <v>-8703.2999999999975</v>
       </c>
       <c r="L16" s="67">
         <f>F16-B16</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M16" s="68">
         <f>K16/E16</f>
-        <v>-0.14712247247571525</v>
+        <v>-0.17350990076803841</v>
       </c>
       <c r="N16" s="68">
         <f>M16/L16*30</f>
-        <v>-0.11034185435678644</v>
+        <v>-0.1239356434057417</v>
       </c>
       <c r="O16" s="70">
         <f>SUM(K13:K16)</f>
-        <v>-23041.499999999996</v>
+        <v>-26350.5</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2337,50 +2337,50 @@
       </c>
       <c r="F18" s="63">
         <f t="shared" ref="F18:F25" si="0">$B$2</f>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G18" s="64">
         <v>50</v>
       </c>
       <c r="H18" s="65">
-        <f>Sayfa4!G5</f>
-        <v>2287.73</v>
+        <f>Sayfa4!G6</f>
+        <v>2292.5700000000002</v>
       </c>
       <c r="I18" s="51">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>114386.5</v>
+        <v>114628.50000000001</v>
       </c>
       <c r="J18" s="46">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>461.20000000000005</v>
+        <v>466.04000000000019</v>
       </c>
       <c r="K18" s="66">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>20754.000000000004</v>
+        <v>20971.80000000001</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M18" s="68">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.25250064329630506</v>
+        <v>0.25515047658675205</v>
       </c>
       <c r="N18" s="68">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>4.5909207872055463E-2</v>
+        <v>4.5835414955703965E-2</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>114386.5</v>
+        <v>114628.50000000001</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>57.193249999999999</v>
+        <v>57.314250000000008</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2402,50 +2402,50 @@
       </c>
       <c r="F19" s="63">
         <f t="shared" si="0"/>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G19" s="64">
         <v>11</v>
       </c>
       <c r="H19" s="65">
         <f>H18</f>
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="I19" s="51">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>25165.03</v>
+        <v>25218.27</v>
       </c>
       <c r="J19" s="46">
         <f t="shared" si="1"/>
-        <v>1885.63</v>
+        <v>1890.4700000000003</v>
       </c>
       <c r="K19" s="66">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>20741.93</v>
+        <v>20795.170000000002</v>
       </c>
       <c r="L19" s="67">
         <f t="shared" si="2"/>
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="M19" s="68">
         <f t="shared" si="3"/>
-        <v>4.6894553593633423</v>
+        <v>4.7014921661278288</v>
       </c>
       <c r="N19" s="68">
         <f t="shared" si="4"/>
-        <v>0.12340671998324586</v>
+        <v>0.12350679946045083</v>
       </c>
       <c r="O19" s="69"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25165.03</v>
+        <v>25218.27</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.582514999999999</v>
+        <v>12.609135</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2467,50 +2467,50 @@
       </c>
       <c r="F20" s="63">
         <f t="shared" si="0"/>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G20" s="64">
         <v>50</v>
       </c>
       <c r="H20" s="65">
         <f>H19</f>
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>114386.5</v>
+        <v>114628.50000000001</v>
       </c>
       <c r="J20" s="46">
         <f t="shared" si="1"/>
-        <v>1818.87</v>
+        <v>1823.71</v>
       </c>
       <c r="K20" s="66">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>90943.5</v>
+        <v>91185.5</v>
       </c>
       <c r="L20" s="67">
         <f t="shared" si="2"/>
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="M20" s="68">
         <f t="shared" si="3"/>
-        <v>3.8793456468881971</v>
+        <v>3.8896685577784411</v>
       </c>
       <c r="N20" s="68">
         <f t="shared" si="4"/>
-        <v>8.9523361082035319E-2</v>
+        <v>8.9623699487982517E-2</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>114386.5</v>
+        <v>114628.50000000001</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>57.193249999999999</v>
+        <v>57.314250000000008</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="F21" s="63">
         <f t="shared" si="0"/>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G21" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2540,36 +2540,36 @@
       </c>
       <c r="H21" s="65">
         <f>H20</f>
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>57193.25</v>
+        <v>57314.250000000007</v>
       </c>
       <c r="J21" s="46">
         <f t="shared" si="1"/>
-        <v>1887.8600000000001</v>
+        <v>1892.7000000000003</v>
       </c>
       <c r="K21" s="66">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>47196.5</v>
+        <v>47317.500000000007</v>
       </c>
       <c r="L21" s="67">
         <f t="shared" si="2"/>
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="M21" s="68">
         <f t="shared" si="3"/>
-        <v>4.7211843849251007</v>
+        <v>4.733288318703579</v>
       </c>
       <c r="N21" s="68">
         <f t="shared" si="4"/>
-        <v>0.10383836623735559</v>
+        <v>0.10395215926874625</v>
       </c>
       <c r="O21" s="69"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>126.96901499999998</v>
+        <v>127.23763500000001</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F22" s="63">
         <f t="shared" si="0"/>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G22" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2599,31 +2599,31 @@
       </c>
       <c r="H22" s="65">
         <f>H21</f>
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="I22" s="51">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>54905.520000000004</v>
+        <v>55021.680000000008</v>
       </c>
       <c r="J22" s="46">
         <f t="shared" si="1"/>
-        <v>2013.92</v>
+        <v>2018.7600000000002</v>
       </c>
       <c r="K22" s="66">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>48334.080000000002</v>
+        <v>48450.240000000005</v>
       </c>
       <c r="L22" s="67">
         <f t="shared" si="2"/>
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="M22" s="68">
         <f t="shared" si="3"/>
-        <v>7.3551732953507907</v>
+        <v>7.3728497863481977</v>
       </c>
       <c r="N22" s="68">
         <f t="shared" si="4"/>
-        <v>0.139566855699256</v>
+        <v>0.13972551711335812</v>
       </c>
       <c r="O22" s="69"/>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F23" s="63">
         <f t="shared" si="0"/>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G23" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2654,40 +2654,40 @@
       </c>
       <c r="H23" s="65">
         <f>H22</f>
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" si="1"/>
-        <v>2050.14</v>
+        <v>2054.98</v>
       </c>
       <c r="K23" s="66">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>2050.14</v>
+        <v>2054.98</v>
       </c>
       <c r="L23" s="67">
         <f t="shared" si="2"/>
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="M23" s="68">
         <f t="shared" si="3"/>
-        <v>8.6288985226650947</v>
+        <v>8.6492697504103706</v>
       </c>
       <c r="N23" s="68">
         <f t="shared" si="4"/>
-        <v>0.16373621485133005</v>
+        <v>0.16391540904125781</v>
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>253938.03</v>
+        <v>254475.27000000002</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>114.37001423218274</v>
+        <v>114.6119793543273</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F24" s="63">
         <f t="shared" si="0"/>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G24" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2717,36 +2717,36 @@
       </c>
       <c r="H24" s="65">
         <f>Sayfa4!E2</f>
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="I24" s="51">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>10146.889439999999</v>
+        <v>10175.066280000001</v>
       </c>
       <c r="J24" s="46">
         <f t="shared" si="1"/>
-        <v>15.237199999999998</v>
+        <v>15.331500000000002</v>
       </c>
       <c r="K24" s="66">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4552.8753599999991</v>
+        <v>4581.052200000001</v>
       </c>
       <c r="L24" s="67">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M24" s="68">
         <f t="shared" si="3"/>
-        <v>0.81388342876677189</v>
+        <v>0.81892039141953699</v>
       </c>
       <c r="N24" s="68">
         <f t="shared" si="4"/>
-        <v>4.0694171438338589E-2</v>
+        <v>4.0809986283365629E-2</v>
       </c>
       <c r="O24" s="69"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>25393.803</v>
+        <v>25447.527000000002</v>
       </c>
       <c r="Q24" s="75">
         <v>0.1</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F25" s="63">
         <f t="shared" si="0"/>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G25" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2782,47 +2782,47 @@
       </c>
       <c r="H25" s="65">
         <f>Sayfa4!C2</f>
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>35005.959000000003</v>
+        <v>34853.777999999998</v>
       </c>
       <c r="J25" s="46">
         <f t="shared" si="1"/>
-        <v>16.536899999999999</v>
+        <v>16.399799999999999</v>
       </c>
       <c r="K25" s="66">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18355.958999999999</v>
+        <v>18203.777999999998</v>
       </c>
       <c r="L25" s="67">
         <f t="shared" si="2"/>
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M25" s="68">
         <f t="shared" si="3"/>
-        <v>1.10246</v>
+        <v>1.0933199999999998</v>
       </c>
       <c r="N25" s="68">
         <f t="shared" si="4"/>
-        <v>5.4219344262295084E-2</v>
+        <v>5.359411764705882E-2</v>
       </c>
       <c r="O25" s="70">
         <f>SUM(K18:K25)</f>
-        <v>252928.98436000003</v>
+        <v>253560.02020000003</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>279331.83299999998</v>
+        <v>279922.79700000002</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>139.66591649999998</v>
+        <v>139.9613985</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>110.40783913043478</v>
+        <v>110.64142173913044</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2843,7 +2843,7 @@
       <c r="O26" s="32"/>
       <c r="R26" s="68">
         <f>1-(R25/R23)</f>
-        <v>-0.22117599999999982</v>
+        <v>-0.22117600000000004</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2883,7 +2883,7 @@
       <c r="P28" s="61"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>310103.02772327996</v>
+        <v>310759.09231752</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -6002,11 +6002,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA41"/>
+  <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6040,55 +6040,55 @@
   <sheetData>
     <row r="2" spans="1:27">
       <c r="A2" s="126">
-        <f>A5</f>
-        <v>45384</v>
+        <f>A6</f>
+        <v>45386</v>
       </c>
       <c r="C2">
-        <f>C5</f>
-        <v>31.536899999999999</v>
+        <f>C6</f>
+        <v>31.399799999999999</v>
       </c>
       <c r="E2">
-        <f>E5</f>
-        <v>33.958799999999997</v>
+        <f>E6</f>
+        <v>34.053100000000001</v>
       </c>
       <c r="G2">
-        <f>G5</f>
-        <v>2287.73</v>
+        <f>G6</f>
+        <v>2292.5700000000002</v>
       </c>
       <c r="I2">
-        <f>I5</f>
-        <v>0.85561100000000001</v>
+        <f>I6</f>
+        <v>0.82913899999999996</v>
       </c>
       <c r="K2">
-        <f>I5</f>
-        <v>0.85561100000000001</v>
+        <f>I6</f>
+        <v>0.82913899999999996</v>
       </c>
       <c r="M2" s="127">
         <f>Sayfa2!D3</f>
-        <v>157.10794544402282</v>
+        <v>155.21774958117501</v>
       </c>
       <c r="N2" s="128">
         <f>Sayfa2!K2</f>
-        <v>248387.66174700006</v>
+        <v>245709.69758700003</v>
       </c>
       <c r="S2">
-        <f>S5</f>
+        <f>S6</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>U5</f>
+        <f>U6</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>W5</f>
+        <f>W6</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>Y5</f>
+        <f>Y6</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>AA16</f>
+        <f>AA19</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6143,1549 +6143,1410 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="126">
-        <v>45384</v>
-      </c>
-      <c r="B5">
-        <f>B28</f>
-        <v>1110</v>
-      </c>
-      <c r="C5">
-        <v>31.536899999999999</v>
-      </c>
-      <c r="D5">
-        <f>D28</f>
-        <v>321.99</v>
-      </c>
-      <c r="E5">
-        <v>33.958799999999997</v>
-      </c>
-      <c r="F5" s="124">
-        <v>156</v>
-      </c>
-      <c r="G5">
-        <v>2287.73</v>
-      </c>
-      <c r="H5">
-        <f>H28</f>
-        <v>50000</v>
-      </c>
-      <c r="I5">
-        <v>0.85561100000000001</v>
-      </c>
-      <c r="J5">
-        <f>J28</f>
-        <v>75000</v>
-      </c>
-      <c r="K5" s="129">
-        <f t="shared" ref="K5:K16" si="0">I5</f>
-        <v>0.85561100000000001</v>
-      </c>
-      <c r="L5" s="125">
-        <f>(F5*G5)+(B5*C5)+(D5*E5)+(H5*I5)+(Z16*AA16)+(J5*K5)</f>
-        <v>511116.52801200002</v>
-      </c>
-      <c r="M5">
-        <v>157.11000000000001</v>
-      </c>
-      <c r="N5">
-        <v>248387.66</v>
-      </c>
-      <c r="O5" s="127">
-        <v>9113</v>
-      </c>
-      <c r="P5" s="133">
-        <f t="shared" ref="P5:P25" si="1">(1-(O6/O5))</f>
-        <v>-4.8875233183365285E-3</v>
-      </c>
-    </row>
     <row r="6" spans="1:27">
       <c r="A6" s="126">
-        <v>45383</v>
+        <v>45386</v>
       </c>
       <c r="B6">
-        <f>B29</f>
+        <f>B31</f>
         <v>1110</v>
       </c>
       <c r="C6">
-        <v>31.879300000000001</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D6">
-        <f>D29</f>
+        <f>D31</f>
         <v>321.99</v>
       </c>
       <c r="E6">
-        <v>34.391399999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F6" s="124">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G6">
-        <v>2308.4299999999998</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="H6">
-        <f>H29</f>
+        <f>H31</f>
         <v>50000</v>
       </c>
       <c r="I6">
-        <v>0.88097599999999998</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="J6">
-        <f>J29</f>
+        <f>J31</f>
         <v>75000</v>
       </c>
       <c r="K6" s="129">
-        <f t="shared" ref="K6" si="2">I6</f>
-        <v>0.88097599999999998</v>
+        <f t="shared" ref="K6:K19" si="0">I6</f>
+        <v>0.82913899999999996</v>
       </c>
       <c r="L6" s="125">
-        <f>(F6*G6)+(B6*C6)+(D6*E6)+(H6*I6)+(Z17*AA17)+(J6*K6)</f>
-        <v>529800.21988599992</v>
+        <f>(F6*G6)+(B6*C6)+(D6*E6)+(H6*I6)+(Z19*AA19)+(J6*K6)</f>
+        <v>508440.75066900003</v>
       </c>
       <c r="M6">
-        <v>161.66</v>
+        <v>155.22</v>
       </c>
       <c r="N6">
-        <v>255424.81</v>
+        <v>245709.7</v>
       </c>
       <c r="O6" s="127">
-        <v>9157.5400000000009</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="P6" s="133">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>(1-(O9/O6))</f>
+        <v>-2.3669207896443112E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="126">
-        <v>45381</v>
+        <v>45385</v>
       </c>
       <c r="B7">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C7">
-        <v>31.879300000000001</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D7">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E7">
-        <v>34.391399999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F7" s="124">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G7">
-        <v>2308.4299999999998</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="H7">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I7">
-        <v>0.88097599999999998</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="J7">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K7" s="129">
-        <f t="shared" ref="K7" si="3">I7</f>
-        <v>0.88097599999999998</v>
+        <f t="shared" ref="K7" si="1">I7</f>
+        <v>0.82913899999999996</v>
       </c>
       <c r="L7" s="125">
-        <f>(F7*G7)+(B7*C7)+(D7*E7)+(H7*I7)+(Z17*AA17)+(J7*K7)</f>
-        <v>529800.21988599992</v>
+        <f>(F7*G7)+(B7*C7)+(D7*E7)+(H7*I7)+(Z20*AA20)+(J7*K7)</f>
+        <v>508663.11066900007</v>
       </c>
       <c r="M7">
-        <v>161.66</v>
+        <v>155.22</v>
       </c>
       <c r="N7">
-        <v>255424.81</v>
-      </c>
-      <c r="O7" s="127"/>
-      <c r="P7" s="133" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>245709.7</v>
+      </c>
+      <c r="O7" s="127">
+        <v>8945.7999999999993</v>
+      </c>
+      <c r="P7" s="133">
+        <f>(1-(O10/O7))</f>
+        <v>-2.1976793579109755E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="126">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B8">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C8">
-        <v>31.8308</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D8">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E8">
-        <v>34.369900000000001</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F8" s="124">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G8">
-        <v>2273.3200000000002</v>
+        <v>2287.73</v>
       </c>
       <c r="H8">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I8">
-        <v>0.85243100000000005</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="J8">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K8" s="129">
-        <f t="shared" ref="K8" si="4">I8</f>
-        <v>0.85243100000000005</v>
+        <f t="shared" ref="K8" si="2">I8</f>
+        <v>0.85561100000000001</v>
       </c>
       <c r="L8" s="125">
-        <f>(F8*G8)+(B8*C8)+(D8*E8)+(H8*I8)+(Z17*AA17)+(J8*K8)</f>
-        <v>520518.62710100005</v>
+        <f>(F8*G8)+(B8*C8)+(D8*E8)+(H8*I8)+(Z20*AA20)+(J8*K8)</f>
+        <v>511338.88801200007</v>
       </c>
       <c r="M8">
-        <v>156.08000000000001</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="N8">
-        <v>246143.72</v>
+        <v>248387.66</v>
       </c>
       <c r="O8" s="127">
-        <v>9142.4</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="P8" s="133">
-        <f t="shared" si="1"/>
-        <v>6.8286226811340445E-3</v>
+        <f>(1-(O10/O8))</f>
+        <v>-1.1230113916027795E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="126">
-        <v>45379</v>
+        <v>45383</v>
       </c>
       <c r="B9">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C9">
-        <v>31.870699999999999</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D9">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E9">
-        <v>34.480800000000002</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F9" s="124">
         <v>161</v>
       </c>
       <c r="G9">
+        <v>2308.4299999999998</v>
+      </c>
+      <c r="H9">
+        <f>H32</f>
+        <v>50000</v>
+      </c>
+      <c r="I9">
+        <v>0.88097599999999998</v>
+      </c>
+      <c r="J9">
+        <f>J32</f>
+        <v>75000</v>
+      </c>
+      <c r="K9" s="129">
+        <f t="shared" ref="K9" si="3">I9</f>
+        <v>0.88097599999999998</v>
+      </c>
+      <c r="L9" s="125">
+        <f>(F9*G9)+(B9*C9)+(D9*E9)+(H9*I9)+(Z20*AA20)+(J9*K9)</f>
+        <v>529800.21988599992</v>
+      </c>
+      <c r="M9">
+        <v>161.66</v>
+      </c>
+      <c r="N9">
+        <v>255424.81</v>
+      </c>
+      <c r="O9" s="127">
+        <v>9157.5400000000009</v>
+      </c>
+      <c r="P9" s="133">
+        <f t="shared" ref="P9:P28" si="4">(1-(O10/O9))</f>
+        <v>1.6532824317448958E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="126">
+        <v>45381</v>
+      </c>
+      <c r="B10">
+        <f>B32</f>
+        <v>1110</v>
+      </c>
+      <c r="C10">
+        <v>31.879300000000001</v>
+      </c>
+      <c r="D10">
+        <f>D32</f>
+        <v>321.99</v>
+      </c>
+      <c r="E10">
+        <v>34.391399999999997</v>
+      </c>
+      <c r="F10" s="124">
+        <v>161</v>
+      </c>
+      <c r="G10">
+        <v>2308.4299999999998</v>
+      </c>
+      <c r="H10">
+        <f>H32</f>
+        <v>50000</v>
+      </c>
+      <c r="I10">
+        <v>0.88097599999999998</v>
+      </c>
+      <c r="J10">
+        <f>J32</f>
+        <v>75000</v>
+      </c>
+      <c r="K10" s="129">
+        <f t="shared" ref="K10" si="5">I10</f>
+        <v>0.88097599999999998</v>
+      </c>
+      <c r="L10" s="125">
+        <f>(F10*G10)+(B10*C10)+(D10*E10)+(H10*I10)+(Z20*AA20)+(J10*K10)</f>
+        <v>529800.21988599992</v>
+      </c>
+      <c r="M10">
+        <v>161.66</v>
+      </c>
+      <c r="N10">
+        <v>255424.81</v>
+      </c>
+      <c r="O10" s="127">
+        <v>9142.4</v>
+      </c>
+      <c r="P10" s="133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="126">
+        <v>45380</v>
+      </c>
+      <c r="B11">
+        <f>B32</f>
+        <v>1110</v>
+      </c>
+      <c r="C11">
+        <v>31.8308</v>
+      </c>
+      <c r="D11">
+        <f>D32</f>
+        <v>321.99</v>
+      </c>
+      <c r="E11">
+        <v>34.369900000000001</v>
+      </c>
+      <c r="F11" s="124">
+        <v>161</v>
+      </c>
+      <c r="G11">
+        <v>2273.3200000000002</v>
+      </c>
+      <c r="H11">
+        <f>H32</f>
+        <v>50000</v>
+      </c>
+      <c r="I11">
+        <v>0.85243100000000005</v>
+      </c>
+      <c r="J11">
+        <f>J32</f>
+        <v>75000</v>
+      </c>
+      <c r="K11" s="129">
+        <f t="shared" ref="K11" si="6">I11</f>
+        <v>0.85243100000000005</v>
+      </c>
+      <c r="L11" s="125">
+        <f>(F11*G11)+(B11*C11)+(D11*E11)+(H11*I11)+(Z20*AA20)+(J11*K11)</f>
+        <v>520518.62710100005</v>
+      </c>
+      <c r="M11">
+        <v>156.08000000000001</v>
+      </c>
+      <c r="N11">
+        <v>246143.72</v>
+      </c>
+      <c r="O11" s="127">
+        <v>9142.4</v>
+      </c>
+      <c r="P11" s="133">
+        <f t="shared" si="4"/>
+        <v>6.8286226811340445E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="126">
+        <v>45379</v>
+      </c>
+      <c r="B12">
+        <f>B32</f>
+        <v>1110</v>
+      </c>
+      <c r="C12">
+        <v>31.870699999999999</v>
+      </c>
+      <c r="D12">
+        <f>D32</f>
+        <v>321.99</v>
+      </c>
+      <c r="E12">
+        <v>34.480800000000002</v>
+      </c>
+      <c r="F12" s="124">
+        <v>161</v>
+      </c>
+      <c r="G12">
         <v>2240.09</v>
       </c>
-      <c r="H9">
-        <f>H29</f>
+      <c r="H12">
+        <f>H32</f>
         <v>50000</v>
       </c>
-      <c r="I9">
+      <c r="I12">
         <v>0.86473199999999995</v>
       </c>
-      <c r="J9">
-        <f>J29</f>
+      <c r="J12">
+        <f>J32</f>
         <v>75000</v>
       </c>
-      <c r="K9" s="129">
+      <c r="K12" s="129">
         <f t="shared" si="0"/>
         <v>0.86473199999999995</v>
       </c>
-      <c r="L9" s="125">
-        <f>(F9*G9)+(B9*C9)+(D9*E9)+(T9*U9)+(H9*I9)+(R9*S9)+(V9*W9)+(X9*Y9)+(Z17*AA17)+(J9*K9)</f>
+      <c r="L12" s="125">
+        <f>(F12*G12)+(B12*C12)+(D12*E12)+(T12*U12)+(H12*I12)+(R12*S12)+(V12*W12)+(X12*Y12)+(Z20*AA20)+(J12*K12)</f>
         <v>516786.21979200002</v>
       </c>
-      <c r="M9">
+      <c r="M12">
         <v>153.81</v>
       </c>
-      <c r="N9">
+      <c r="N12">
         <v>242408.74</v>
       </c>
-      <c r="O9" s="127">
+      <c r="O12" s="127">
         <v>9079.9699999999993</v>
       </c>
-      <c r="P9" s="133">
-        <f t="shared" si="1"/>
+      <c r="P12" s="133">
+        <f t="shared" si="4"/>
         <v>3.0093711763364839E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="126">
+    <row r="13" spans="1:27">
+      <c r="A13" s="126">
         <v>45378</v>
       </c>
-      <c r="B10">
-        <f>B29</f>
+      <c r="B13">
+        <f>B32</f>
         <v>1110</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>31.821999999999999</v>
       </c>
-      <c r="D10">
-        <f>D29</f>
+      <c r="D13">
+        <f>D32</f>
         <v>321.99</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>34.5045</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F13" s="124">
         <v>161</v>
       </c>
-      <c r="G10">
+      <c r="G13">
         <v>2227.25</v>
       </c>
-      <c r="H10">
-        <f>H29</f>
+      <c r="H13">
+        <f>H32</f>
         <v>50000</v>
       </c>
-      <c r="I10">
+      <c r="I13">
         <v>0.85899999999999999</v>
       </c>
-      <c r="J10">
-        <f>J29</f>
+      <c r="J13">
+        <f>J32</f>
         <v>75000</v>
       </c>
-      <c r="K10" s="129">
+      <c r="K13" s="129">
         <f t="shared" si="0"/>
         <v>0.85899999999999999</v>
       </c>
-      <c r="L10" s="125">
-        <f>(F10*G10)+(B10*C10)+(D10*E10)+(T10*U10)+(H10*I10)+(R10*S10)+(V10*W10)+(X10*Y10)+(Z17*AA17)+(J10*K10)</f>
+      <c r="L13" s="125">
+        <f>(F13*G13)+(B13*C13)+(D13*E13)+(T13*U13)+(H13*I13)+(R13*S13)+(V13*W13)+(X13*Y13)+(Z20*AA20)+(J13*K13)</f>
         <v>513956.05395500001</v>
       </c>
-      <c r="M10">
+      <c r="M13">
         <v>154.24</v>
       </c>
-      <c r="N10">
+      <c r="N13">
         <v>242616.68</v>
       </c>
-      <c r="O10" s="127">
+      <c r="O13" s="127">
         <v>8806.7199999999993</v>
       </c>
-      <c r="P10" s="133">
-        <f t="shared" si="1"/>
+      <c r="P13" s="133">
+        <f t="shared" si="4"/>
         <v>-7.4942770974972817E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="126">
+    <row r="14" spans="1:27">
+      <c r="A14" s="126">
         <v>45377</v>
       </c>
-      <c r="B11">
-        <f>B30</f>
+      <c r="B14">
+        <f>B33</f>
         <v>1110</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>31.530999999999999</v>
       </c>
-      <c r="D11">
-        <f>D30</f>
+      <c r="D14">
+        <f>D33</f>
         <v>321.99</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>34.125900000000001</v>
       </c>
-      <c r="F11" s="124">
+      <c r="F14" s="124">
         <v>161</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>2227.25</v>
       </c>
-      <c r="H11">
-        <f>H30</f>
+      <c r="H14">
+        <f>H33</f>
         <v>50000</v>
       </c>
-      <c r="I11">
+      <c r="I14">
         <v>0.890316</v>
       </c>
-      <c r="J11">
-        <f>J30</f>
+      <c r="J14">
+        <f>J33</f>
         <v>75000</v>
       </c>
-      <c r="K11" s="129">
+      <c r="K14" s="129">
         <f t="shared" si="0"/>
         <v>0.890316</v>
       </c>
-      <c r="L11" s="125">
-        <f>(F11*G11)+(B11*C11)+(D11*E11)+(T11*U11)+(H11*I11)+(R11*S11)+(V11*W11)+(X11*Y11)+(Z18*AA18)+(J11*K11)</f>
+      <c r="L14" s="125">
+        <f>(F14*G14)+(B14*C14)+(D14*E14)+(T14*U14)+(H14*I14)+(R14*S14)+(V14*W14)+(X14*Y14)+(Z21*AA21)+(J14*K14)</f>
         <v>517363.07854099997</v>
       </c>
-      <c r="M11">
+      <c r="M14">
         <v>154.24</v>
       </c>
-      <c r="N11">
+      <c r="N14">
         <v>242616.68</v>
       </c>
-      <c r="O11" s="127">
+      <c r="O14" s="127">
         <v>8807.3799999999992</v>
       </c>
-      <c r="P11" s="133">
-        <f t="shared" si="1"/>
+      <c r="P14" s="133">
+        <f t="shared" si="4"/>
         <v>-2.5206133946758191E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="126">
+    <row r="15" spans="1:27">
+      <c r="A15" s="126">
         <v>45376</v>
       </c>
-      <c r="B12">
-        <f>B29</f>
+      <c r="B15">
+        <f>B32</f>
         <v>1110</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>31.786200000000001</v>
       </c>
-      <c r="D12">
-        <f>D29</f>
+      <c r="D15">
+        <f>D32</f>
         <v>321.99</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>34.386299999999999</v>
       </c>
-      <c r="F12" s="124">
+      <c r="F15" s="124">
         <v>161</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>2214.31</v>
       </c>
-      <c r="H12">
-        <f>H29</f>
+      <c r="H15">
+        <f>H32</f>
         <v>50000</v>
       </c>
-      <c r="I12">
+      <c r="I15">
         <v>0.91889100000000001</v>
       </c>
-      <c r="J12">
-        <f>J29</f>
+      <c r="J15">
+        <f>J32</f>
         <v>75000</v>
       </c>
-      <c r="K12" s="129">
+      <c r="K15" s="129">
         <f t="shared" si="0"/>
         <v>0.91889100000000001</v>
       </c>
-      <c r="L12" s="125">
-        <f>(F12*G12)+(B12*C12)+(D12*E12)+(T12*U12)+(H12*I12)+(R12*S12)+(V12*W12)+(X12*Y12)+(Z17*AA17)+(J12*K12)</f>
+      <c r="L15" s="125">
+        <f>(F15*G15)+(B15*C15)+(D15*E15)+(T15*U15)+(H15*I15)+(R15*S15)+(V15*W15)+(X15*Y15)+(Z20*AA20)+(J15*K15)</f>
         <v>519281.29173699999</v>
       </c>
-      <c r="M12">
+      <c r="M15">
         <v>155.99</v>
       </c>
-      <c r="N12">
+      <c r="N15">
         <v>244906</v>
       </c>
-      <c r="O12" s="127">
+      <c r="O15" s="127">
         <v>9029.3799999999992</v>
       </c>
-      <c r="P12" s="133">
-        <f t="shared" si="1"/>
+      <c r="P15" s="133">
+        <f t="shared" si="4"/>
         <v>-9.0947551216142841E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="126">
+    <row r="16" spans="1:27">
+      <c r="A16" s="126">
         <v>45373</v>
       </c>
-      <c r="B13">
-        <f>B29</f>
+      <c r="B16">
+        <f>B32</f>
         <v>1110</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>31.710699999999999</v>
       </c>
-      <c r="D13">
-        <f>D29</f>
+      <c r="D16">
+        <f>D32</f>
         <v>321.99</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>34.336300000000001</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F16" s="124">
         <v>161</v>
       </c>
-      <c r="G13">
+      <c r="G16">
         <v>2212.11</v>
       </c>
-      <c r="H13">
-        <f>H29</f>
+      <c r="H16">
+        <f>H32</f>
         <v>50000</v>
       </c>
-      <c r="I13">
+      <c r="I16">
         <v>0.93062100000000003</v>
       </c>
-      <c r="J13">
-        <f>J29</f>
+      <c r="J16">
+        <f>J32</f>
         <v>75000</v>
       </c>
-      <c r="K13" s="129">
+      <c r="K16" s="129">
         <f t="shared" si="0"/>
         <v>0.93062100000000003</v>
       </c>
-      <c r="L13" s="125">
-        <f>(F13*G13)+(B13*C13)+(D13*E13)+(T13*U13)+(H13*I13)+(R13*S13)+(V13*W13)+(X13*Y13)+(Z17*AA17)+(J13*K13)</f>
+      <c r="L16" s="125">
+        <f>(F16*G16)+(B16*C16)+(D16*E16)+(T16*U16)+(H16*I16)+(R16*S16)+(V16*W16)+(X16*Y16)+(Z20*AA20)+(J16*K16)</f>
         <v>520293.43723700003</v>
       </c>
-      <c r="M13">
+      <c r="M16">
         <v>156.63999999999999</v>
       </c>
-      <c r="N13">
+      <c r="N16">
         <v>245919.31</v>
       </c>
-      <c r="O13">
+      <c r="O16">
         <v>9111.5</v>
       </c>
-      <c r="P13" s="133">
-        <f t="shared" si="1"/>
+      <c r="P16" s="133">
+        <f t="shared" si="4"/>
         <v>-3.2047412610438641E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="126">
+    <row r="17" spans="1:27">
+      <c r="A17" s="126">
         <v>45372</v>
       </c>
-      <c r="B14">
-        <f>B29</f>
+      <c r="B17">
+        <f>B32</f>
         <v>1110</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>32.063899999999997</v>
       </c>
-      <c r="D14">
-        <f>D29</f>
+      <c r="D17">
+        <f>D32</f>
         <v>321.99</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>35.065100000000001</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F17" s="124">
         <v>161</v>
       </c>
-      <c r="G14">
+      <c r="G17">
         <v>2267.61</v>
       </c>
-      <c r="H14">
-        <f>H29</f>
+      <c r="H17">
+        <f>H32</f>
         <v>50000</v>
       </c>
-      <c r="I14">
+      <c r="I17">
         <v>0.94166499999999997</v>
       </c>
-      <c r="J14">
-        <f>J29</f>
+      <c r="J17">
+        <f>J32</f>
         <v>75000</v>
       </c>
-      <c r="K14" s="129">
+      <c r="K17" s="129">
         <f t="shared" si="0"/>
         <v>0.94166499999999997</v>
       </c>
-      <c r="L14" s="125">
-        <f>(F14*G14)+(B14*C14)+(D14*E14)+(T14*U14)+(H14*I14)+(R14*S14)+(V14*W14)+(X14*Y14)+(Z17*AA17)+(J14*K14)</f>
+      <c r="L17" s="125">
+        <f>(F17*G17)+(B17*C17)+(D17*E17)+(T17*U17)+(H17*I17)+(R17*S17)+(V17*W17)+(X17*Y17)+(Z20*AA20)+(J17*K17)</f>
         <v>531236.15554900002</v>
       </c>
-      <c r="M14">
+      <c r="M17">
         <v>163.91</v>
       </c>
-      <c r="N14">
+      <c r="N17">
         <v>256845.12</v>
       </c>
-      <c r="O14" s="127">
+      <c r="O17" s="127">
         <v>9140.7000000000007</v>
       </c>
-      <c r="P14" s="133">
-        <f t="shared" si="1"/>
+      <c r="P17" s="133">
+        <f t="shared" si="4"/>
         <v>2.0302602645311585E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="126">
+    <row r="18" spans="1:27">
+      <c r="A18" s="126">
         <v>45371</v>
       </c>
-      <c r="B15">
-        <f>B29</f>
+      <c r="B18">
+        <f>B32</f>
         <v>1110</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>32.028799999999997</v>
       </c>
-      <c r="D15">
-        <f>D29</f>
+      <c r="D18">
+        <f>D32</f>
         <v>321.99</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>34.808799999999998</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F18" s="124">
         <v>161</v>
       </c>
-      <c r="G15">
+      <c r="G18">
         <v>2220.92</v>
       </c>
-      <c r="H15">
-        <f>H29</f>
+      <c r="H18">
+        <f>H32</f>
         <v>50000</v>
       </c>
-      <c r="I15">
+      <c r="I18">
         <v>0.93470600000000004</v>
       </c>
-      <c r="J15">
-        <f>J29</f>
+      <c r="J18">
+        <f>J32</f>
         <v>75000</v>
       </c>
-      <c r="K15" s="129">
+      <c r="K18" s="129">
         <f t="shared" si="0"/>
         <v>0.93470600000000004</v>
       </c>
-      <c r="L15" s="125">
-        <f t="shared" ref="L15:L33" si="5">(F15*G15)+(B15*C15)+(D15*E15)+(T15*U15)+(H15*I15)+(R15*S15)+(V15*W15)+(X15*Y15)+(Z15*AA15)+(J15*K15)</f>
+      <c r="L18" s="125">
+        <f t="shared" ref="L18:L36" si="7">(F18*G18)+(B18*C18)+(D18*E18)+(T18*U18)+(H18*I18)+(R18*S18)+(V18*W18)+(X18*Y18)+(Z18*AA18)+(J18*K18)</f>
         <v>521166.42351200001</v>
       </c>
-      <c r="M15">
+      <c r="M18">
         <v>158.47999999999999</v>
       </c>
-      <c r="N15">
+      <c r="N18">
         <v>248342.62</v>
       </c>
-      <c r="O15" s="127">
+      <c r="O18" s="127">
         <v>8955.1200000000008</v>
       </c>
-      <c r="P15" s="133">
-        <f t="shared" si="1"/>
+      <c r="P18" s="133">
+        <f t="shared" si="4"/>
         <v>2.8184993612594411E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="126">
+    <row r="19" spans="1:27">
+      <c r="A19" s="126">
         <v>45370</v>
       </c>
-      <c r="B16">
-        <f>B29</f>
+      <c r="B19">
+        <f>B32</f>
         <v>1110</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>32.087800000000001</v>
       </c>
-      <c r="D16">
-        <f>D29</f>
+      <c r="D19">
+        <f>D32</f>
         <v>321.99</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>34.799100000000003</v>
       </c>
-      <c r="F16" s="124">
+      <c r="F19" s="124">
         <v>161</v>
       </c>
-      <c r="G16">
+      <c r="G19">
         <v>2219.02</v>
       </c>
-      <c r="H16">
-        <f>H29</f>
+      <c r="H19">
+        <f>H32</f>
         <v>50000</v>
       </c>
-      <c r="I16">
+      <c r="I19">
         <v>0.90033600000000003</v>
       </c>
-      <c r="J16">
-        <f>J29</f>
+      <c r="J19">
+        <f>J32</f>
         <v>75000</v>
       </c>
-      <c r="K16" s="129">
+      <c r="K19" s="129">
         <f t="shared" si="0"/>
         <v>0.90033600000000003</v>
       </c>
-      <c r="L16" s="125">
-        <f t="shared" si="5"/>
+      <c r="L19" s="125">
+        <f t="shared" si="7"/>
         <v>517965.56020899996</v>
       </c>
-      <c r="M16">
+      <c r="M19">
         <v>155.59</v>
       </c>
-      <c r="N16">
+      <c r="N19">
         <v>243803.06</v>
       </c>
-      <c r="O16" s="127">
+      <c r="O19" s="127">
         <v>8929.8799999999992</v>
       </c>
-      <c r="P16" s="133">
-        <f t="shared" si="1"/>
+      <c r="P19" s="133">
+        <f t="shared" si="4"/>
         <v>2.3714764364134666E-2</v>
-      </c>
-      <c r="Z16">
-        <v>68</v>
-      </c>
-      <c r="AA16">
-        <v>19.690000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="126">
-        <v>45369</v>
-      </c>
-      <c r="B17">
-        <f>B29</f>
-        <v>1110</v>
-      </c>
-      <c r="C17">
-        <v>31.9499</v>
-      </c>
-      <c r="D17">
-        <f>D29</f>
-        <v>321.99</v>
-      </c>
-      <c r="E17">
-        <v>34.8125</v>
-      </c>
-      <c r="F17" s="124">
-        <v>161</v>
-      </c>
-      <c r="G17">
-        <v>2212.35</v>
-      </c>
-      <c r="H17">
-        <f>H29</f>
-        <v>50000</v>
-      </c>
-      <c r="I17">
-        <v>0.93887900000000002</v>
-      </c>
-      <c r="J17">
-        <f>J29</f>
-        <v>75000</v>
-      </c>
-      <c r="K17">
-        <v>0.93887900000000002</v>
-      </c>
-      <c r="L17" s="125">
-        <f t="shared" si="5"/>
-        <v>521783.17087500001</v>
-      </c>
-      <c r="M17">
-        <v>155.44</v>
-      </c>
-      <c r="N17">
-        <v>247623.17</v>
-      </c>
-      <c r="O17" s="127">
-        <v>8718.11</v>
-      </c>
-      <c r="P17" s="133">
-        <f t="shared" si="1"/>
-        <v>-1.2685088855267868E-2</v>
-      </c>
-      <c r="Z17">
-        <v>68</v>
-      </c>
-      <c r="AA17">
-        <v>22.96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="126">
-        <v>45366</v>
-      </c>
-      <c r="B18">
-        <f>B29</f>
-        <v>1110</v>
-      </c>
-      <c r="C18">
-        <v>31.796299999999999</v>
-      </c>
-      <c r="D18">
-        <f>D29</f>
-        <v>321.99</v>
-      </c>
-      <c r="E18">
-        <v>34.619700000000002</v>
-      </c>
-      <c r="F18" s="124">
-        <v>161</v>
-      </c>
-      <c r="G18">
-        <v>2213.54</v>
-      </c>
-      <c r="H18">
-        <f>H29</f>
-        <v>50000</v>
-      </c>
-      <c r="I18">
-        <v>0.94838599999999995</v>
-      </c>
-      <c r="J18">
-        <f>J29</f>
-        <v>75000</v>
-      </c>
-      <c r="K18">
-        <v>0.94838599999999995</v>
-      </c>
-      <c r="L18" s="125">
-        <f t="shared" si="5"/>
-        <v>522868.00020299997</v>
-      </c>
-      <c r="M18">
-        <v>156.13</v>
-      </c>
-      <c r="N18">
-        <v>248712.47</v>
-      </c>
-      <c r="O18" s="127">
-        <v>8828.7000000000007</v>
-      </c>
-      <c r="P18" s="133">
-        <f t="shared" si="1"/>
-        <v>-6.2092946866469934E-3</v>
-      </c>
-      <c r="Z18">
-        <v>68</v>
-      </c>
-      <c r="AA18">
-        <v>22.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="126">
-        <v>45365</v>
-      </c>
-      <c r="B19">
-        <f>B29</f>
-        <v>1110</v>
-      </c>
-      <c r="C19">
-        <v>31.775700000000001</v>
-      </c>
-      <c r="D19">
-        <f>D29</f>
-        <v>321.99</v>
-      </c>
-      <c r="E19">
-        <v>34.762500000000003</v>
-      </c>
-      <c r="F19" s="124">
-        <v>161</v>
-      </c>
-      <c r="G19">
-        <v>2222.88</v>
-      </c>
-      <c r="H19">
-        <f>H29</f>
-        <v>50000</v>
-      </c>
-      <c r="I19">
-        <v>0.95100700000000005</v>
-      </c>
-      <c r="J19">
-        <f>J29</f>
-        <v>75000</v>
-      </c>
-      <c r="K19">
-        <v>0.95100700000000005</v>
-      </c>
-      <c r="L19" s="125">
-        <f t="shared" si="5"/>
-        <v>524610.95937499998</v>
-      </c>
-      <c r="M19">
-        <v>157.21</v>
-      </c>
-      <c r="N19">
-        <v>250427.64</v>
-      </c>
-      <c r="O19" s="127">
-        <v>8883.52</v>
-      </c>
-      <c r="P19" s="133">
-        <f t="shared" si="1"/>
-        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="Z19">
         <v>68</v>
       </c>
       <c r="AA19">
-        <v>20.399999999999999</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="126">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="B20">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>31.9499</v>
       </c>
       <c r="D20">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>34.8125</v>
       </c>
       <c r="F20" s="124">
         <v>161</v>
       </c>
       <c r="G20">
-        <v>2220.3200000000002</v>
+        <v>2212.35</v>
       </c>
       <c r="H20">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I20">
-        <v>0.957233</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="J20">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K20">
-        <v>0.957233</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="L20" s="125">
-        <f t="shared" si="5"/>
-        <v>525154.25500000012</v>
+        <f t="shared" si="7"/>
+        <v>521783.17087500001</v>
       </c>
       <c r="M20">
-        <v>160.79</v>
+        <v>155.44</v>
       </c>
       <c r="N20">
-        <v>250989.9</v>
+        <v>247623.17</v>
       </c>
       <c r="O20" s="127">
-        <v>8910.23</v>
+        <v>8718.11</v>
       </c>
       <c r="P20" s="133">
-        <f t="shared" si="1"/>
-        <v>-1.7822211098927898E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="Z20">
         <v>68</v>
       </c>
       <c r="AA20">
-        <v>18.22</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="126">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="B21">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.516400000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D21">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.463200000000001</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F21" s="124">
         <v>161</v>
       </c>
       <c r="G21">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="H21">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I21">
-        <v>0.979213</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="J21">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K21">
-        <v>0.979213</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="L21" s="125">
-        <f t="shared" si="5"/>
-        <v>527079.91476800013</v>
+        <f t="shared" si="7"/>
+        <v>522868.00020299997</v>
       </c>
       <c r="M21">
-        <v>161.94999999999999</v>
+        <v>156.13</v>
       </c>
       <c r="N21">
-        <v>252645.61</v>
+        <v>248712.47</v>
       </c>
       <c r="O21" s="127">
-        <v>9069.0300000000007</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="P21" s="133">
-        <f t="shared" si="1"/>
-        <v>-6.8684302510850781E-3</v>
+        <f t="shared" si="4"/>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="Z21">
         <v>68</v>
       </c>
       <c r="AA21">
-        <v>16.57</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="126">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B22">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.571400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D22">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.558100000000003</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F22" s="124">
         <v>161</v>
       </c>
       <c r="G22">
-        <v>2232.66</v>
+        <v>2222.88</v>
       </c>
       <c r="H22">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I22">
-        <v>0.99851990000000002</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="J22">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K22">
-        <v>0.99851990000000002</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="L22" s="125">
-        <f t="shared" si="5"/>
-        <v>532801.83411900001</v>
+        <f t="shared" si="7"/>
+        <v>524610.95937499998</v>
       </c>
       <c r="M22">
-        <v>164.91</v>
+        <v>157.21</v>
       </c>
       <c r="N22">
-        <v>257088.48</v>
+        <v>250427.64</v>
       </c>
       <c r="O22" s="127">
-        <v>9131.32</v>
+        <v>8883.52</v>
       </c>
       <c r="P22" s="133">
-        <f t="shared" si="1"/>
-        <v>-2.6283166070184549E-3</v>
-      </c>
-      <c r="V22">
-        <v>12</v>
-      </c>
-      <c r="W22">
-        <v>41.58</v>
-      </c>
-      <c r="X22">
-        <f>X29</f>
-        <v>15</v>
-      </c>
-      <c r="Y22">
-        <v>55.55</v>
+        <f t="shared" si="4"/>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="Z22">
         <v>68</v>
       </c>
       <c r="AA22">
-        <v>15.07</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="126">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="B23">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.402999999999999</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.3643</v>
+        <v>35</v>
       </c>
       <c r="F23" s="124">
         <v>161</v>
       </c>
       <c r="G23">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="H23">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I23">
-        <v>0.99115900000000001</v>
+        <v>0.957233</v>
       </c>
       <c r="J23">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K23">
-        <v>0.99115900000000001</v>
+        <v>0.957233</v>
       </c>
       <c r="L23" s="125">
-        <f t="shared" si="5"/>
-        <v>525972.37595699995</v>
+        <f t="shared" si="7"/>
+        <v>525154.25500000012</v>
       </c>
       <c r="M23">
-        <v>160.9</v>
+        <v>160.79</v>
+      </c>
+      <c r="N23">
+        <v>250989.9</v>
       </c>
       <c r="O23" s="127">
-        <v>9155.32</v>
+        <v>8910.23</v>
       </c>
       <c r="P23" s="133">
-        <f t="shared" si="1"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="V23">
-        <v>12</v>
-      </c>
-      <c r="W23">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X23">
-        <f>X29</f>
-        <v>15</v>
-      </c>
-      <c r="Y23">
-        <v>57.75</v>
+        <f t="shared" si="4"/>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="Z23">
         <v>68</v>
       </c>
       <c r="AA23">
-        <v>13.7</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="126">
-        <v>45358</v>
+        <v>45363</v>
       </c>
       <c r="B24">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.297000000000001</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D24">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.110599999999998</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F24" s="124">
         <v>161</v>
       </c>
       <c r="G24">
-        <v>2184.79</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="H24">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I24">
-        <v>0.945214</v>
+        <v>0.979213</v>
       </c>
       <c r="J24">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K24">
-        <v>0.945214</v>
+        <v>0.979213</v>
       </c>
       <c r="L24" s="125">
-        <f t="shared" si="5"/>
-        <v>517832.22209400003</v>
+        <f t="shared" si="7"/>
+        <v>527079.91476800013</v>
       </c>
       <c r="M24">
-        <v>155.75</v>
+        <v>161.94999999999999</v>
+      </c>
+      <c r="N24">
+        <v>252645.61</v>
       </c>
       <c r="O24" s="127">
-        <v>9054.18</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="P24" s="133">
-        <f t="shared" si="1"/>
-        <v>3.4194151209717583E-2</v>
-      </c>
-      <c r="V24">
-        <v>12</v>
-      </c>
-      <c r="W24">
-        <v>34.380000000000003</v>
-      </c>
-      <c r="X24">
-        <f>X29</f>
-        <v>15</v>
-      </c>
-      <c r="Y24">
-        <v>63.1</v>
+        <f t="shared" si="4"/>
+        <v>-6.8684302510850781E-3</v>
       </c>
       <c r="Z24">
         <v>68</v>
       </c>
       <c r="AA24">
-        <v>12.46</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="126">
-        <v>45357</v>
+        <v>45362</v>
       </c>
       <c r="B25">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.293399999999998</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D25">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>34.006500000000003</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F25" s="124">
         <v>161</v>
       </c>
       <c r="G25">
-        <v>2150.9</v>
+        <v>2232.66</v>
       </c>
       <c r="H25">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I25">
-        <v>0.99397100000000005</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="J25">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K25">
-        <v>0.99397100000000005</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="L25" s="125">
-        <f t="shared" si="5"/>
-        <v>551296.63907100004</v>
+        <f t="shared" si="7"/>
+        <v>532801.83411900001</v>
       </c>
       <c r="M25">
-        <v>156.16</v>
+        <v>164.91</v>
+      </c>
+      <c r="N25">
+        <v>257088.48</v>
       </c>
       <c r="O25" s="127">
-        <v>8744.58</v>
+        <v>9131.32</v>
       </c>
       <c r="P25" s="133">
-        <f t="shared" si="1"/>
-        <v>-1.3258498407013208E-2</v>
-      </c>
-      <c r="T25">
-        <f>T29</f>
-        <v>57</v>
-      </c>
-      <c r="U25">
-        <v>580.05924800000003</v>
+        <f t="shared" si="4"/>
+        <v>-2.6283166070184549E-3</v>
       </c>
       <c r="V25">
         <v>12</v>
       </c>
       <c r="W25">
-        <v>31.26</v>
+        <v>41.58</v>
       </c>
       <c r="X25">
-        <f>X29</f>
+        <f>X32</f>
         <v>15</v>
       </c>
       <c r="Y25">
-        <v>57.4</v>
+        <v>55.55</v>
       </c>
       <c r="Z25">
         <v>68</v>
       </c>
       <c r="AA25">
-        <v>11.33</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="126">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B26">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.079899999999999</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D26">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>33.721699999999998</v>
+        <v>34.3643</v>
       </c>
       <c r="F26" s="124">
         <v>161</v>
       </c>
       <c r="G26">
-        <v>2116.34</v>
+        <v>2198.16</v>
       </c>
       <c r="H26">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I26">
-        <v>1.0160309999999999</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="J26">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K26">
-        <v>1.0160309999999999</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="L26" s="125">
-        <f t="shared" si="5"/>
-        <v>549382.85210899997</v>
+        <f t="shared" si="7"/>
+        <v>525972.37595699995</v>
       </c>
       <c r="M26">
-        <v>154.22999999999999</v>
+        <v>160.9</v>
       </c>
       <c r="O26" s="127">
-        <v>8860.52</v>
+        <v>9155.32</v>
       </c>
       <c r="P26" s="133">
-        <f t="shared" ref="P12:P33" si="6">(1-(O27/O26))</f>
-        <v>-5.319100910555985E-3</v>
-      </c>
-      <c r="R26">
-        <f>R29</f>
-        <v>36</v>
-      </c>
-      <c r="S26" s="134">
-        <v>38.15</v>
-      </c>
-      <c r="T26">
-        <f>T29</f>
-        <v>57</v>
-      </c>
-      <c r="U26">
-        <v>579.361718</v>
+        <f t="shared" si="4"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="V26">
-        <f>V29</f>
         <v>12</v>
       </c>
       <c r="W26">
-        <v>28.42</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="X26">
-        <f>X29</f>
+        <f>X32</f>
         <v>15</v>
       </c>
       <c r="Y26">
-        <v>52.2</v>
+        <v>57.75</v>
       </c>
       <c r="Z26">
         <v>68</v>
       </c>
       <c r="AA26">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="126">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="B27">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>30.905999999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D27">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>33.542299999999997</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F27" s="124">
         <v>161</v>
       </c>
       <c r="G27">
-        <v>2072.52</v>
+        <v>2184.79</v>
       </c>
       <c r="H27">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I27">
-        <v>1.041954</v>
+        <v>0.945214</v>
       </c>
       <c r="J27">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K27">
-        <v>1.041954</v>
+        <v>0.945214</v>
       </c>
       <c r="L27" s="125">
-        <f t="shared" si="5"/>
-        <v>545049.74954800005</v>
+        <f t="shared" si="7"/>
+        <v>517832.22209400003</v>
+      </c>
+      <c r="M27">
+        <v>155.75</v>
       </c>
       <c r="O27" s="127">
-        <v>8907.65</v>
+        <v>9054.18</v>
       </c>
       <c r="P27" s="133">
-        <f t="shared" si="6"/>
-        <v>-2.1273848882702007E-2</v>
-      </c>
-      <c r="R27">
-        <f>R29</f>
-        <v>36</v>
-      </c>
-      <c r="S27">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="T27">
-        <f>T29</f>
-        <v>57</v>
-      </c>
-      <c r="U27">
-        <v>578.66060300000004</v>
+        <f t="shared" si="4"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="V27">
-        <f>V29</f>
         <v>12</v>
       </c>
       <c r="W27">
-        <v>25.84</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="X27">
-        <f>X29</f>
+        <f>X32</f>
         <v>15</v>
       </c>
       <c r="Y27">
-        <v>47.46</v>
+        <v>63.1</v>
       </c>
       <c r="Z27">
         <v>68</v>
       </c>
       <c r="AA27">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="126">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B28">
-        <f>B29</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>30.7361</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D28">
-        <f>D29</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>33.225700000000003</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F28" s="124">
         <v>161</v>
       </c>
       <c r="G28">
-        <v>2018.91</v>
+        <v>2150.9</v>
       </c>
       <c r="H28">
-        <f>H29</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I28">
-        <v>1.034036</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="J28">
-        <f>J29</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K28">
-        <v>1.034036</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="L28" s="125">
-        <f t="shared" si="5"/>
-        <v>534814.50418999989</v>
+        <f t="shared" si="7"/>
+        <v>551296.63907100004</v>
+      </c>
+      <c r="M28">
+        <v>156.16</v>
       </c>
       <c r="O28" s="127">
-        <v>9097.15</v>
+        <v>8744.58</v>
       </c>
       <c r="P28" s="133">
-        <f t="shared" si="6"/>
-        <v>-1.0612114783201454E-2</v>
-      </c>
-      <c r="R28">
-        <f>R29</f>
-        <v>36</v>
-      </c>
-      <c r="S28">
-        <v>31.52</v>
+        <f t="shared" si="4"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="T28">
-        <f>T29</f>
+        <f>T32</f>
         <v>57</v>
       </c>
       <c r="U28">
-        <v>576.58807100000001</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="V28">
-        <f>V29</f>
         <v>12</v>
       </c>
       <c r="W28">
-        <v>23.5</v>
+        <v>31.26</v>
       </c>
       <c r="X28">
-        <f>X29</f>
+        <f>X32</f>
         <v>15</v>
       </c>
       <c r="Y28">
-        <v>43.16</v>
+        <v>57.4</v>
       </c>
       <c r="Z28">
         <v>68</v>
@@ -7696,159 +7557,188 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="126">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B29">
-        <f>B30</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D29">
-        <f>D30</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F29" s="124">
         <v>161</v>
       </c>
       <c r="G29">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="H29">
-        <f>H30</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I29">
-        <v>1.010337</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="J29">
-        <f>J30</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K29">
-        <v>1.010337</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="L29" s="125">
-        <f t="shared" si="5"/>
-        <v>530894.48918999988</v>
+        <f t="shared" si="7"/>
+        <v>549382.85210899997</v>
+      </c>
+      <c r="M29">
+        <v>154.22999999999999</v>
       </c>
       <c r="O29" s="127">
-        <v>9193.69</v>
+        <v>8860.52</v>
       </c>
       <c r="P29" s="133">
-        <f t="shared" si="6"/>
-        <v>1.428479750785594E-2</v>
+        <f t="shared" ref="P29:P36" si="8">(1-(O30/O29))</f>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="R29">
-        <f>R30</f>
+        <f>R32</f>
         <v>36</v>
       </c>
-      <c r="S29">
-        <v>28.66</v>
+      <c r="S29" s="134">
+        <v>38.15</v>
       </c>
       <c r="T29">
-        <f>T30</f>
+        <f>T32</f>
         <v>57</v>
       </c>
       <c r="U29">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="V29">
-        <f>V30</f>
+        <f>V32</f>
         <v>12</v>
       </c>
       <c r="W29">
-        <v>21.38</v>
+        <v>28.42</v>
       </c>
       <c r="X29">
+        <f>X32</f>
         <v>15</v>
       </c>
       <c r="Y29">
-        <v>39.24</v>
+        <v>52.2</v>
+      </c>
+      <c r="Z29">
+        <v>68</v>
+      </c>
+      <c r="AA29">
+        <v>11.33</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="126">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="B30">
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D30">
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F30" s="124">
         <v>161</v>
       </c>
       <c r="G30">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="H30">
-        <f>H31</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I30">
-        <v>1.067704</v>
+        <v>1.041954</v>
       </c>
       <c r="J30">
-        <f>J31</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K30">
-        <v>1.067704</v>
+        <v>1.041954</v>
       </c>
       <c r="L30" s="125">
-        <f t="shared" si="5"/>
-        <v>537360.00419000001</v>
+        <f t="shared" si="7"/>
+        <v>545049.74954800005</v>
       </c>
       <c r="O30" s="127">
-        <v>9062.36</v>
+        <v>8907.65</v>
       </c>
       <c r="P30" s="133">
-        <f t="shared" si="6"/>
-        <v>-1.292378585710563E-2</v>
+        <f t="shared" si="8"/>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="R30">
-        <f>R31</f>
+        <f>R32</f>
         <v>36</v>
       </c>
       <c r="S30">
-        <v>26.06</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="T30">
+        <f>T32</f>
         <v>57</v>
       </c>
       <c r="U30">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="V30">
+        <f>V32</f>
         <v>12</v>
       </c>
       <c r="W30">
-        <v>19.45</v>
+        <v>25.84</v>
+      </c>
+      <c r="X30">
+        <f>X32</f>
+        <v>15</v>
+      </c>
+      <c r="Y30">
+        <v>47.46</v>
+      </c>
+      <c r="Z30">
+        <v>68</v>
+      </c>
+      <c r="AA30">
+        <v>11.33</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="126">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B31">
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C31">
         <v>30.7361</v>
       </c>
       <c r="D31">
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E31">
@@ -7865,49 +7755,74 @@
         <v>50000</v>
       </c>
       <c r="I31">
-        <v>1.064435</v>
+        <v>1.034036</v>
       </c>
       <c r="J31">
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K31">
-        <v>1.064435</v>
+        <v>1.034036</v>
       </c>
       <c r="L31" s="125">
-        <f t="shared" si="5"/>
-        <v>536633.0191899999</v>
+        <f t="shared" si="7"/>
+        <v>534814.50418999989</v>
       </c>
       <c r="O31" s="127">
-        <v>9179.48</v>
+        <v>9097.15</v>
       </c>
       <c r="P31" s="133">
-        <f t="shared" si="6"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="8"/>
+        <v>-1.0612114783201454E-2</v>
       </c>
       <c r="R31">
+        <f>R32</f>
         <v>36</v>
       </c>
       <c r="S31">
-        <v>23.7</v>
+        <v>31.52</v>
       </c>
       <c r="T31">
+        <f>T32</f>
         <v>57</v>
       </c>
       <c r="U31">
         <v>576.58807100000001</v>
       </c>
+      <c r="V31">
+        <f>V32</f>
+        <v>12</v>
+      </c>
+      <c r="W31">
+        <v>23.5</v>
+      </c>
+      <c r="X31">
+        <f>X32</f>
+        <v>15</v>
+      </c>
+      <c r="Y31">
+        <v>43.16</v>
+      </c>
+      <c r="Z31">
+        <v>68</v>
+      </c>
+      <c r="AA31">
+        <v>11.33</v>
+      </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="126">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B32">
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C32">
         <v>30.7361</v>
       </c>
       <c r="D32">
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E32">
@@ -7924,38 +7839,57 @@
         <v>50000</v>
       </c>
       <c r="I32">
-        <v>1.0192399999999999</v>
+        <v>1.010337</v>
+      </c>
+      <c r="J32">
+        <f>J33</f>
+        <v>75000</v>
       </c>
       <c r="K32">
-        <v>1.0192399999999999</v>
+        <v>1.010337</v>
       </c>
       <c r="L32" s="125">
-        <f t="shared" si="5"/>
-        <v>454463.60418999993</v>
+        <f t="shared" si="7"/>
+        <v>530894.48918999988</v>
       </c>
       <c r="O32" s="127">
-        <v>9334.1299999999992</v>
+        <v>9193.69</v>
       </c>
       <c r="P32" s="133">
-        <f t="shared" si="6"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="R32">
+        <f>R33</f>
         <v>36</v>
       </c>
       <c r="S32">
-        <v>21.56</v>
+        <v>28.66</v>
       </c>
       <c r="T32">
+        <f>T33</f>
         <v>57</v>
       </c>
       <c r="U32">
         <v>576.58807100000001</v>
       </c>
+      <c r="V32">
+        <f>V33</f>
+        <v>12</v>
+      </c>
+      <c r="W32">
+        <v>21.38</v>
+      </c>
+      <c r="X32">
+        <v>15</v>
+      </c>
+      <c r="Y32">
+        <v>39.24</v>
+      </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="126">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B33">
         <v>1110</v>
@@ -7976,30 +7910,36 @@
         <v>2018.91</v>
       </c>
       <c r="H33">
+        <f>H34</f>
         <v>50000</v>
       </c>
       <c r="I33">
-        <v>1.0032049999999999</v>
+        <v>1.067704</v>
+      </c>
+      <c r="J33">
+        <f>J34</f>
+        <v>75000</v>
       </c>
       <c r="K33">
-        <v>1.0032049999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="L33" s="125">
-        <f t="shared" si="5"/>
-        <v>453591.29418999993</v>
+        <f t="shared" si="7"/>
+        <v>537360.00419000001</v>
       </c>
       <c r="O33" s="127">
-        <v>9374.2000000000007</v>
+        <v>9062.36</v>
       </c>
       <c r="P33" s="133">
-        <f t="shared" si="6"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="R33">
+        <f>R34</f>
         <v>36</v>
       </c>
       <c r="S33">
-        <v>19.600000000000001</v>
+        <v>26.06</v>
       </c>
       <c r="T33">
         <v>57</v>
@@ -8007,174 +7947,350 @@
       <c r="U33">
         <v>576.58807100000001</v>
       </c>
+      <c r="V33">
+        <v>12</v>
+      </c>
+      <c r="W33">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="34" spans="1:27">
+      <c r="A34" s="126">
+        <v>45349</v>
+      </c>
+      <c r="B34">
+        <v>1110</v>
+      </c>
+      <c r="C34">
+        <v>30.7361</v>
+      </c>
+      <c r="D34">
+        <v>321.99</v>
+      </c>
+      <c r="E34">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F34" s="124">
+        <v>161</v>
+      </c>
+      <c r="G34">
+        <v>2018.91</v>
+      </c>
+      <c r="H34">
+        <f>H35</f>
+        <v>50000</v>
+      </c>
       <c r="I34">
-        <v>0.97160999999999997</v>
+        <v>1.064435</v>
+      </c>
+      <c r="J34">
+        <v>75000</v>
       </c>
       <c r="K34">
-        <v>0.97160999999999997</v>
+        <v>1.064435</v>
+      </c>
+      <c r="L34" s="125">
+        <f t="shared" si="7"/>
+        <v>536633.0191899999</v>
       </c>
       <c r="O34" s="127">
-        <v>9347.17</v>
+        <v>9179.48</v>
+      </c>
+      <c r="P34" s="133">
+        <f t="shared" si="8"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="R34">
         <v>36</v>
       </c>
       <c r="S34">
-        <v>17.82</v>
+        <v>23.7</v>
+      </c>
+      <c r="T34">
+        <v>57</v>
+      </c>
+      <c r="U34">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="35" spans="1:27">
+      <c r="A35" s="126">
+        <v>45348</v>
+      </c>
+      <c r="B35">
+        <v>1110</v>
+      </c>
+      <c r="C35">
+        <v>30.7361</v>
+      </c>
+      <c r="D35">
+        <v>321.99</v>
+      </c>
+      <c r="E35">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F35" s="124">
+        <v>161</v>
+      </c>
+      <c r="G35">
+        <v>2018.91</v>
+      </c>
+      <c r="H35">
+        <f>H36</f>
+        <v>50000</v>
+      </c>
       <c r="I35">
-        <v>0.93849000000000005</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="K35">
-        <v>0.93849000000000005</v>
+        <v>1.0192399999999999</v>
+      </c>
+      <c r="L35" s="125">
+        <f t="shared" si="7"/>
+        <v>454463.60418999993</v>
+      </c>
+      <c r="O35" s="127">
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="P35" s="133">
+        <f t="shared" si="8"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="R35">
         <v>36</v>
       </c>
-      <c r="S35" s="135">
-        <v>15.3</v>
-      </c>
-      <c r="W35" s="135">
-        <f>W30</f>
-        <v>19.45</v>
-      </c>
-      <c r="Y35" s="135">
-        <f>Y29</f>
-        <v>39.24</v>
-      </c>
-      <c r="AA35" s="135">
-        <f>AA28</f>
-        <v>11.33</v>
+      <c r="S35">
+        <v>21.56</v>
+      </c>
+      <c r="T35">
+        <v>57</v>
+      </c>
+      <c r="U35">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="36" spans="1:27">
+      <c r="A36" s="126">
+        <v>45345</v>
+      </c>
+      <c r="B36">
+        <v>1110</v>
+      </c>
+      <c r="C36">
+        <v>30.7361</v>
+      </c>
+      <c r="D36">
+        <v>321.99</v>
+      </c>
+      <c r="E36">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F36" s="124">
+        <v>161</v>
+      </c>
+      <c r="G36">
+        <v>2018.91</v>
+      </c>
+      <c r="H36">
+        <v>50000</v>
+      </c>
       <c r="I36">
-        <v>0.91198999999999997</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="K36">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="P36" s="136" t="e">
-        <f>SUM(P5:P35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="W36" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y36" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA36" s="135" t="s">
-        <v>60</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L36" s="125">
+        <f t="shared" si="7"/>
+        <v>453591.29418999993</v>
+      </c>
+      <c r="O36" s="127">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="P36" s="133">
+        <f t="shared" si="8"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="R36">
+        <v>36</v>
+      </c>
+      <c r="S36">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T36">
+        <v>57</v>
+      </c>
+      <c r="U36">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="I37">
-        <v>0.90268000000000004</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="K37">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="S37" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="W37" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y37" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA37" s="137" t="s">
-        <v>61</v>
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="O37" s="127">
+        <v>9347.17</v>
+      </c>
+      <c r="R37">
+        <v>36</v>
+      </c>
+      <c r="S37">
+        <v>17.82</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="I38">
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="K38">
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="R38">
+        <v>36</v>
+      </c>
+      <c r="S38" s="135">
+        <v>15.3</v>
+      </c>
+      <c r="W38" s="135">
+        <f>W33</f>
+        <v>19.45</v>
+      </c>
+      <c r="Y38" s="135">
+        <f>Y32</f>
+        <v>39.24</v>
+      </c>
+      <c r="AA38" s="135">
+        <f>AA31</f>
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="I39">
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="K39">
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="P39" s="136">
+        <f>SUM(P6:P38)</f>
+        <v>-8.0383270377764271E-2</v>
+      </c>
+      <c r="S39" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y39" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA39" s="135" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="I40">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="K40">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="S40" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="W40" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y40" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA40" s="137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="I41">
         <v>0.89847999999999995</v>
       </c>
-      <c r="K38">
+      <c r="K41">
         <v>0.89847999999999995</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R41" t="s">
         <v>62</v>
       </c>
-      <c r="S38" s="137">
+      <c r="S41" s="137">
         <v>38</v>
       </c>
-      <c r="W38" s="137">
+      <c r="W41" s="137">
         <v>45.72</v>
       </c>
-      <c r="Y38" s="137">
+      <c r="Y41" s="137">
         <v>55.5</v>
       </c>
-      <c r="AA38" s="137">
+      <c r="AA41" s="137">
         <f>AA2</f>
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
-      <c r="I39">
+    <row r="42" spans="1:27">
+      <c r="I42">
         <v>0.88783999999999996</v>
       </c>
-      <c r="K39">
+      <c r="K42">
         <v>0.88783999999999996</v>
       </c>
-      <c r="S39" s="138">
+      <c r="S42" s="138">
         <f>Sayfa2!M42</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="W39" s="138">
-        <f>(W38-W30)/W30</f>
+      <c r="W42" s="138">
+        <f>(W41-W33)/W33</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="Y39" s="138">
-        <f>(Y38-Y29)/Y29</f>
+      <c r="Y42" s="138">
+        <f>(Y41-Y32)/Y32</f>
         <v>0.41437308868501521</v>
       </c>
-      <c r="AA39" s="138">
-        <f>(AA38-AA28)/AA28</f>
+      <c r="AA42" s="138">
+        <f>(AA41-AA31)/AA31</f>
         <v>0.73786407766990303</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
-      <c r="I40">
+    <row r="43" spans="1:27">
+      <c r="I43">
         <v>0.86724999999999997</v>
       </c>
-      <c r="K40">
+      <c r="K43">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
-      <c r="R41" s="139" t="s">
+    <row r="44" spans="1:27">
+      <c r="R44" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="S41" s="139">
+      <c r="S44" s="139">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="V41" s="139" t="s">
+      <c r="V44" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="W41" s="139">
-        <f>(V30*W38)-(V5*W30)</f>
+      <c r="W44" s="139">
+        <f>(V33*W41)-(V6*W33)</f>
         <v>548.64</v>
       </c>
-      <c r="X41" s="139" t="s">
+      <c r="X44" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="Y41" s="139">
-        <f>(X29*Y38)-(X5*Y29)</f>
+      <c r="Y44" s="139">
+        <f>(X32*Y41)-(X6*Y32)</f>
         <v>832.5</v>
       </c>
-      <c r="AA41" s="139">
-        <f>(Z28*AA38)-(Z16*AA28)</f>
+      <c r="AA44" s="139">
+        <f>(Z31*AA41)-(Z19*AA31)</f>
         <v>568.48</v>
       </c>
     </row>
@@ -8188,8 +8304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -8262,7 +8378,7 @@
     <row r="5" spans="1:24">
       <c r="A5" s="1"/>
       <c r="B5" s="13">
-        <v>45373</v>
+        <v>45386</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1"/>
@@ -8274,7 +8390,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="14">
         <f>SUM(K8:K9)</f>
-        <v>-158.77149999999961</v>
+        <v>-93.623499999999808</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -8322,7 +8438,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="3">
         <f>B5-B6</f>
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="141" t="s">
@@ -8342,7 +8458,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="38">
         <f>SUM(K8:K9)</f>
-        <v>-158.77149999999961</v>
+        <v>-93.623499999999808</v>
       </c>
       <c r="L7" s="44">
         <f ca="1">K7/E7</f>
@@ -8365,7 +8481,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <f>K5/B7</f>
-        <v>-1.587714999999996</v>
+        <v>-0.8285265486725647</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="141" t="s">
@@ -8380,24 +8496,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="43">
         <f>SUBTOTAL(109,I13:I20)</f>
-        <v>5272.6385</v>
+        <v>5337.7865000000002</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="142">
         <f>SUBTOTAL(109,K13:K20)</f>
-        <v>-724.44149999999979</v>
+        <v>-659.29349999999999</v>
       </c>
       <c r="L8" s="44">
         <f>K8/E8</f>
-        <v>-0.12079903886558122</v>
+        <v>-0.10993575206600546</v>
       </c>
       <c r="M8" s="68">
         <f>SUBTOTAL(101,M13:M19)</f>
-        <v>-0.11661932705097583</v>
+        <v>-8.5232462411149845E-2</v>
       </c>
       <c r="N8" s="68">
         <f>SUBTOTAL(101,N13:N19)</f>
-        <v>-6.3857532917994494E-2</v>
+        <v>-4.4352580264858388E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -8440,7 +8556,7 @@
       <c r="M9" s="145"/>
       <c r="N9" s="146">
         <f>L9/(B7/30)</f>
-        <v>0.22026504335185093</v>
+        <v>0.19492481712553181</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -8630,7 +8746,7 @@
       </c>
       <c r="O14" s="148">
         <f>SUM(O15:O18)</f>
-        <v>-724.44149999999979</v>
+        <v>-659.29349999999999</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -8687,37 +8803,37 @@
       </c>
       <c r="F16" s="2">
         <f>B5</f>
-        <v>45373</v>
+        <v>45386</v>
       </c>
       <c r="G16" s="46">
         <v>26</v>
       </c>
       <c r="H16" s="1">
-        <v>44</v>
+        <v>47.3</v>
       </c>
       <c r="I16" s="51">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>1144</v>
+        <v>1229.8</v>
       </c>
       <c r="J16" s="116">
         <f>H16-D16</f>
-        <v>-11.079999999999998</v>
+        <v>-7.7800000000000011</v>
       </c>
       <c r="K16" s="66">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-288.07999999999993</v>
+        <v>-202.28000000000003</v>
       </c>
       <c r="L16" s="67">
         <f>F16-B16</f>
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M16" s="68">
         <f>K16/E16</f>
-        <v>-0.20116194625998543</v>
+        <v>-0.14124909222948442</v>
       </c>
       <c r="N16" s="68">
         <f>M16/L16*30</f>
-        <v>-6.0348583877995632E-2</v>
+        <v>-3.7499758998978165E-2</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -8749,37 +8865,37 @@
       </c>
       <c r="F17" s="63">
         <f>$B$5</f>
-        <v>45373</v>
+        <v>45386</v>
       </c>
       <c r="G17" s="64">
         <v>9</v>
       </c>
       <c r="H17" s="65">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I17" s="51">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>1134</v>
+        <v>1206</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="K17" s="66">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-36</v>
+        <v>36</v>
       </c>
       <c r="L17" s="67">
         <f>F17-B17</f>
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M17" s="68">
         <f>K17/E17</f>
-        <v>-3.0769230769230771E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="N17" s="68">
         <f>M17/L17*30</f>
-        <v>-9.2307692307692316E-3</v>
+        <v>8.168822328114363E-3</v>
       </c>
       <c r="O17" s="69"/>
       <c r="P17" s="1"/>
@@ -8811,42 +8927,42 @@
       </c>
       <c r="F18" s="63">
         <f>B5</f>
-        <v>45373</v>
+        <v>45386</v>
       </c>
       <c r="G18" s="64">
         <v>3500</v>
       </c>
       <c r="H18" s="65">
-        <f>Sayfa4!K5</f>
-        <v>0.85561100000000001</v>
+        <f>Sayfa4!K6</f>
+        <v>0.82913899999999996</v>
       </c>
       <c r="I18" s="51">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>2994.6385</v>
+        <v>2901.9865</v>
       </c>
       <c r="J18" s="46">
         <f>H18-D18</f>
-        <v>-0.11438899999999996</v>
+        <v>-0.14086100000000001</v>
       </c>
       <c r="K18" s="66">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-400.36149999999986</v>
+        <v>-493.01350000000002</v>
       </c>
       <c r="L18" s="67">
         <f>F18-B18</f>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M18" s="68">
         <f>K18/E18</f>
-        <v>-0.1179268041237113</v>
+        <v>-0.14521752577319588</v>
       </c>
       <c r="N18" s="68">
         <f>M18/L18*30</f>
-        <v>-0.1219932456452186</v>
+        <v>-0.10372680412371135</v>
       </c>
       <c r="O18" s="70">
         <f>SUM(K15:K18)</f>
-        <v>-724.44149999999979</v>
+        <v>-659.29349999999999</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -13150,7 +13266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aanext\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301398F-69C5-4693-A6C6-D0263E0F278B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE3D43-A3A6-4951-84CB-CC6E616A730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1960,11 +1960,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>245709.69758700003</v>
+        <v>244587.02162700001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1973,11 +1973,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>155.21774958117501</v>
+        <v>154.41099850189394</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2010,24 +2010,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I25)</f>
-        <v>517774.98928000004</v>
+        <v>516635.81332000002</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>227209.52020000003</v>
+        <v>226086.84424000001</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.8140716161996111</v>
+        <v>0.81004916752571232</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M16)</f>
-        <v>-0.19728119200516098</v>
+        <v>-0.20201827846173664</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N16)</f>
-        <v>-0.14922538087745646</v>
+        <v>-0.14901630476292854</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2182,7 +2182,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O26)</f>
-        <v>227209.52020000003</v>
+        <v>226086.84423999998</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F15" s="63">
         <f>$B$2</f>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G15" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2215,31 +2215,31 @@
       </c>
       <c r="H15" s="65">
         <f>Sayfa4!I2</f>
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>62185.424999999996</v>
+        <v>61818.450000000004</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-0.23529600000000006</v>
+        <v>-0.24018899999999999</v>
       </c>
       <c r="K15" s="66">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-17647.200000000004</v>
+        <v>-18014.174999999999</v>
       </c>
       <c r="L15" s="67">
         <f>F15-B15</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="68">
         <f>K15/E15</f>
-        <v>-0.22105248324228352</v>
+        <v>-0.22564928811998852</v>
       </c>
       <c r="N15" s="68">
         <f>M15/L15*30</f>
-        <v>-0.17451511834917119</v>
+        <v>-0.17357637547691426</v>
       </c>
       <c r="O15" s="69"/>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="F16" s="63">
         <f>$B$2</f>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G16" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2270,35 +2270,35 @@
       </c>
       <c r="H16" s="65">
         <f>H15</f>
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>41456.949999999997</v>
+        <v>41212.300000000003</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-0.17406599999999994</v>
+        <v>-0.17895899999999987</v>
       </c>
       <c r="K16" s="66">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-8703.2999999999975</v>
+        <v>-8947.9499999999935</v>
       </c>
       <c r="L16" s="67">
         <f>F16-B16</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M16" s="68">
         <f>K16/E16</f>
-        <v>-0.17350990076803841</v>
+        <v>-0.17838726880348474</v>
       </c>
       <c r="N16" s="68">
         <f>M16/L16*30</f>
-        <v>-0.1239356434057417</v>
+        <v>-0.12445623404894283</v>
       </c>
       <c r="O16" s="70">
         <f>SUM(K13:K16)</f>
-        <v>-26350.5</v>
+        <v>-26962.124999999993</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2337,50 +2337,50 @@
       </c>
       <c r="F18" s="63">
         <f t="shared" ref="F18:F25" si="0">$B$2</f>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G18" s="64">
         <v>50</v>
       </c>
       <c r="H18" s="65">
         <f>Sayfa4!G6</f>
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="I18" s="51">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>114628.50000000001</v>
+        <v>114463.5</v>
       </c>
       <c r="J18" s="46">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>466.04000000000019</v>
+        <v>462.74</v>
       </c>
       <c r="K18" s="66">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>20971.80000000001</v>
+        <v>20823.3</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M18" s="68">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.25515047658675205</v>
+        <v>0.2533437720705381</v>
       </c>
       <c r="N18" s="68">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>4.5835414955703965E-2</v>
+        <v>4.523995929831038E-2</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>114628.50000000001</v>
+        <v>114463.5</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>57.314250000000008</v>
+        <v>57.231749999999998</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2402,50 +2402,50 @@
       </c>
       <c r="F19" s="63">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G19" s="64">
         <v>11</v>
       </c>
       <c r="H19" s="65">
         <f>H18</f>
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="I19" s="51">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>25218.27</v>
+        <v>25181.97</v>
       </c>
       <c r="J19" s="46">
         <f t="shared" si="1"/>
-        <v>1890.4700000000003</v>
+        <v>1887.17</v>
       </c>
       <c r="K19" s="66">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>20795.170000000002</v>
+        <v>20758.870000000003</v>
       </c>
       <c r="L19" s="67">
         <f t="shared" si="2"/>
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="M19" s="68">
         <f t="shared" si="3"/>
-        <v>4.7014921661278288</v>
+        <v>4.6932852524247703</v>
       </c>
       <c r="N19" s="68">
         <f t="shared" si="4"/>
-        <v>0.12350679946045083</v>
+        <v>0.12318333995865538</v>
       </c>
       <c r="O19" s="69"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25218.27</v>
+        <v>25181.97</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.609135</v>
+        <v>12.590985</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2467,50 +2467,50 @@
       </c>
       <c r="F20" s="63">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G20" s="64">
         <v>50</v>
       </c>
       <c r="H20" s="65">
         <f>H19</f>
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>114628.50000000001</v>
+        <v>114463.5</v>
       </c>
       <c r="J20" s="46">
         <f t="shared" si="1"/>
-        <v>1823.71</v>
+        <v>1820.4099999999999</v>
       </c>
       <c r="K20" s="66">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>91185.5</v>
+        <v>91020.5</v>
       </c>
       <c r="L20" s="67">
         <f t="shared" si="2"/>
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="M20" s="68">
         <f t="shared" si="3"/>
-        <v>3.8896685577784411</v>
+        <v>3.8826302094441836</v>
       </c>
       <c r="N20" s="68">
         <f t="shared" si="4"/>
-        <v>8.9623699487982517E-2</v>
+        <v>8.939286744691137E-2</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>114628.50000000001</v>
+        <v>114463.5</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>57.314250000000008</v>
+        <v>57.231749999999998</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="F21" s="63">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G21" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2540,36 +2540,36 @@
       </c>
       <c r="H21" s="65">
         <f>H20</f>
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>57314.250000000007</v>
+        <v>57231.75</v>
       </c>
       <c r="J21" s="46">
         <f t="shared" si="1"/>
-        <v>1892.7000000000003</v>
+        <v>1889.4</v>
       </c>
       <c r="K21" s="66">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>47317.500000000007</v>
+        <v>47235</v>
       </c>
       <c r="L21" s="67">
         <f t="shared" si="2"/>
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="M21" s="68">
         <f t="shared" si="3"/>
-        <v>4.733288318703579</v>
+        <v>4.7250356365818895</v>
       </c>
       <c r="N21" s="68">
         <f t="shared" si="4"/>
-        <v>0.10395215926874625</v>
+        <v>0.10369500299740796</v>
       </c>
       <c r="O21" s="69"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>127.23763500000001</v>
+        <v>127.054485</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F22" s="63">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G22" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2599,31 +2599,31 @@
       </c>
       <c r="H22" s="65">
         <f>H21</f>
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="I22" s="51">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>55021.680000000008</v>
+        <v>54942.479999999996</v>
       </c>
       <c r="J22" s="46">
         <f t="shared" si="1"/>
-        <v>2018.7600000000002</v>
+        <v>2015.46</v>
       </c>
       <c r="K22" s="66">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>48450.240000000005</v>
+        <v>48371.040000000001</v>
       </c>
       <c r="L22" s="67">
         <f t="shared" si="2"/>
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="M22" s="68">
         <f t="shared" si="3"/>
-        <v>7.3728497863481977</v>
+        <v>7.3607976333954195</v>
       </c>
       <c r="N22" s="68">
         <f t="shared" si="4"/>
-        <v>0.13972551711335812</v>
+        <v>0.13940904608703447</v>
       </c>
       <c r="O22" s="69"/>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F23" s="63">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G23" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2654,40 +2654,40 @@
       </c>
       <c r="H23" s="65">
         <f>H22</f>
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" si="1"/>
-        <v>2054.98</v>
+        <v>2051.6799999999998</v>
       </c>
       <c r="K23" s="66">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>2054.98</v>
+        <v>2051.6799999999998</v>
       </c>
       <c r="L23" s="67">
         <f t="shared" si="2"/>
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="M23" s="68">
         <f t="shared" si="3"/>
-        <v>8.6492697504103706</v>
+        <v>8.6353802769476822</v>
       </c>
       <c r="N23" s="68">
         <f t="shared" si="4"/>
-        <v>0.16391540904125781</v>
+        <v>0.16354886888158487</v>
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>254475.27000000002</v>
+        <v>254108.97</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>114.6119793543273</v>
+        <v>114.44700313468329</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F24" s="63">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G24" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2717,36 +2717,36 @@
       </c>
       <c r="H24" s="65">
         <f>Sayfa4!E2</f>
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="I24" s="51">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>10175.066280000001</v>
+        <v>10170.82332</v>
       </c>
       <c r="J24" s="46">
         <f t="shared" si="1"/>
-        <v>15.331500000000002</v>
+        <v>15.317299999999999</v>
       </c>
       <c r="K24" s="66">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4581.052200000001</v>
+        <v>4576.8092399999996</v>
       </c>
       <c r="L24" s="67">
         <f t="shared" si="2"/>
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M24" s="68">
         <f t="shared" si="3"/>
-        <v>0.81892039141953699</v>
+        <v>0.81816190923852661</v>
       </c>
       <c r="N24" s="68">
         <f t="shared" si="4"/>
-        <v>4.0809986283365629E-2</v>
+        <v>4.0704572598931676E-2</v>
       </c>
       <c r="O24" s="69"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>25447.527000000002</v>
+        <v>25410.897000000001</v>
       </c>
       <c r="Q24" s="75">
         <v>0.1</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F25" s="63">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="G25" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2782,47 +2782,47 @@
       </c>
       <c r="H25" s="65">
         <f>Sayfa4!C2</f>
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>34853.777999999998</v>
+        <v>34861.769999999997</v>
       </c>
       <c r="J25" s="46">
         <f t="shared" si="1"/>
-        <v>16.399799999999999</v>
+        <v>16.407</v>
       </c>
       <c r="K25" s="66">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18203.777999999998</v>
+        <v>18211.77</v>
       </c>
       <c r="L25" s="67">
         <f t="shared" si="2"/>
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M25" s="68">
         <f t="shared" si="3"/>
-        <v>1.0933199999999998</v>
+        <v>1.0938000000000001</v>
       </c>
       <c r="N25" s="68">
         <f t="shared" si="4"/>
-        <v>5.359411764705882E-2</v>
+        <v>5.353017944535074E-2</v>
       </c>
       <c r="O25" s="70">
         <f>SUM(K18:K25)</f>
-        <v>253560.02020000003</v>
+        <v>253048.96923999998</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>279922.79700000002</v>
+        <v>279519.86700000003</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>139.9613985</v>
+        <v>139.75993350000002</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>110.64142173913044</v>
+        <v>110.48216086956522</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2843,7 +2843,7 @@
       <c r="O26" s="32"/>
       <c r="R26" s="68">
         <f>1-(R25/R23)</f>
-        <v>-0.22117600000000004</v>
+        <v>-0.22117600000000026</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2883,7 +2883,7 @@
       <c r="P28" s="61"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>310759.09231752</v>
+        <v>310311.77554872003</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -6002,11 +6002,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA44"/>
+  <dimension ref="A2:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6041,35 +6041,35 @@
     <row r="2" spans="1:27">
       <c r="A2" s="126">
         <f>A6</f>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="C2">
         <f>C6</f>
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="E2">
         <f>E6</f>
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="G2">
         <f>G6</f>
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="I2">
         <f>I6</f>
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="K2">
         <f>I6</f>
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="M2" s="127">
         <f>Sayfa2!D3</f>
-        <v>155.21774958117501</v>
+        <v>154.41099850189394</v>
       </c>
       <c r="N2" s="128">
         <f>Sayfa2!K2</f>
-        <v>245709.69758700003</v>
+        <v>244587.02162700001</v>
       </c>
       <c r="S2">
         <f>S6</f>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>AA19</f>
+        <f>AA20</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6145,74 +6145,74 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="126">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B6">
-        <f>B31</f>
+        <f>B32</f>
         <v>1110</v>
       </c>
       <c r="C6">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D6">
-        <f>D31</f>
+        <f>D32</f>
         <v>321.99</v>
       </c>
       <c r="E6">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F6" s="124">
         <v>156</v>
       </c>
       <c r="G6">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="H6">
-        <f>H31</f>
+        <f>H32</f>
         <v>50000</v>
       </c>
       <c r="I6">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="J6">
-        <f>J31</f>
+        <f>J32</f>
         <v>75000</v>
       </c>
       <c r="K6" s="129">
-        <f t="shared" ref="K6:K19" si="0">I6</f>
-        <v>0.82913899999999996</v>
+        <f t="shared" ref="K6:K20" si="0">I6</f>
+        <v>0.82424600000000003</v>
       </c>
       <c r="L6" s="125">
-        <f>(F6*G6)+(B6*C6)+(D6*E6)+(H6*I6)+(Z19*AA19)+(J6*K6)</f>
-        <v>508440.75066900003</v>
+        <f>(F6*G6)+(B6*C6)+(D6*E6)+(H6*I6)+(Z20*AA20)+(J6*K6)</f>
+        <v>507317.74541099998</v>
       </c>
       <c r="M6">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="N6">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="O6" s="127">
-        <v>8945.7999999999993</v>
+        <v>9300</v>
       </c>
       <c r="P6" s="133">
-        <f>(1-(O9/O6))</f>
-        <v>-2.3669207896443112E-2</v>
+        <f>(1-(O7/O6))</f>
+        <v>1.8384946236559063E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="126">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B7">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C7">
         <v>31.399799999999999</v>
       </c>
       <c r="D7">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E7">
@@ -6225,14 +6225,14 @@
         <v>2292.5700000000002</v>
       </c>
       <c r="H7">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I7">
         <v>0.82913899999999996</v>
       </c>
       <c r="J7">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K7" s="129">
@@ -6240,7 +6240,7 @@
         <v>0.82913899999999996</v>
       </c>
       <c r="L7" s="125">
-        <f>(F7*G7)+(B7*C7)+(D7*E7)+(H7*I7)+(Z20*AA20)+(J7*K7)</f>
+        <f>(F7*G7)+(B7*C7)+(D7*E7)+(H7*I7)+(Z21*AA21)+(J7*K7)</f>
         <v>508663.11066900007</v>
       </c>
       <c r="M7">
@@ -6250,140 +6250,140 @@
         <v>245709.7</v>
       </c>
       <c r="O7" s="127">
-        <v>8945.7999999999993</v>
+        <v>9129.02</v>
       </c>
       <c r="P7" s="133">
-        <f>(1-(O10/O7))</f>
-        <v>-2.1976793579109755E-2</v>
+        <f>(1-(O8/O7))</f>
+        <v>2.0070062284889389E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="126">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B8">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C8">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D8">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E8">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F8" s="124">
         <v>156</v>
       </c>
       <c r="G8">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="H8">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I8">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="J8">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K8" s="129">
         <f t="shared" ref="K8" si="2">I8</f>
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="L8" s="125">
-        <f>(F8*G8)+(B8*C8)+(D8*E8)+(H8*I8)+(Z20*AA20)+(J8*K8)</f>
-        <v>511338.88801200007</v>
+        <f>(F8*G8)+(B8*C8)+(D8*E8)+(H8*I8)+(Z21*AA21)+(J8*K8)</f>
+        <v>508663.11066900007</v>
       </c>
       <c r="M8">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="N8">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="O8" s="127">
-        <v>9040.8700000000008</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="P8" s="133">
-        <f>(1-(O10/O8))</f>
-        <v>-1.1230113916027795E-2</v>
+        <f t="shared" ref="P8:P28" si="3">(1-(O9/O8))</f>
+        <v>-1.0627333497283731E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="126">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B9">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C9">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D9">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E9">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F9" s="124">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G9">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="H9">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I9">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="J9">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K9" s="129">
-        <f t="shared" ref="K9" si="3">I9</f>
-        <v>0.88097599999999998</v>
+        <f t="shared" ref="K9" si="4">I9</f>
+        <v>0.85561100000000001</v>
       </c>
       <c r="L9" s="125">
-        <f>(F9*G9)+(B9*C9)+(D9*E9)+(H9*I9)+(Z20*AA20)+(J9*K9)</f>
-        <v>529800.21988599992</v>
+        <f>(F9*G9)+(B9*C9)+(D9*E9)+(H9*I9)+(Z21*AA21)+(J9*K9)</f>
+        <v>511338.88801200007</v>
       </c>
       <c r="M9">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="N9">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="O9" s="127">
-        <v>9157.5400000000009</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="P9" s="133">
-        <f t="shared" ref="P9:P28" si="4">(1-(O10/O9))</f>
-        <v>1.6532824317448958E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.2904731513670775E-2</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="126">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B10">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C10">
         <v>31.879300000000001</v>
       </c>
       <c r="D10">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E10">
@@ -6396,14 +6396,14 @@
         <v>2308.4299999999998</v>
       </c>
       <c r="H10">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I10">
         <v>0.88097599999999998</v>
       </c>
       <c r="J10">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K10" s="129">
@@ -6411,7 +6411,7 @@
         <v>0.88097599999999998</v>
       </c>
       <c r="L10" s="125">
-        <f>(F10*G10)+(B10*C10)+(D10*E10)+(H10*I10)+(Z20*AA20)+(J10*K10)</f>
+        <f>(F10*G10)+(B10*C10)+(D10*E10)+(H10*I10)+(Z21*AA21)+(J10*K10)</f>
         <v>529800.21988599992</v>
       </c>
       <c r="M10">
@@ -6421,201 +6421,201 @@
         <v>255424.81</v>
       </c>
       <c r="O10" s="127">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="P10" s="133">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.6532824317448958E-3</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="126">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="B11">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D11">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F11" s="124">
         <v>161</v>
       </c>
       <c r="G11">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="H11">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I11">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="J11">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K11" s="129">
         <f t="shared" ref="K11" si="6">I11</f>
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="L11" s="125">
-        <f>(F11*G11)+(B11*C11)+(D11*E11)+(H11*I11)+(Z20*AA20)+(J11*K11)</f>
-        <v>520518.62710100005</v>
+        <f>(F11*G11)+(B11*C11)+(D11*E11)+(H11*I11)+(Z21*AA21)+(J11*K11)</f>
+        <v>529800.21988599992</v>
       </c>
       <c r="M11">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="N11">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="O11" s="127">
         <v>9142.4</v>
       </c>
       <c r="P11" s="133">
-        <f t="shared" si="4"/>
-        <v>6.8286226811340445E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="126">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="B12">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.870699999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D12">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.480800000000002</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F12" s="124">
         <v>161</v>
       </c>
       <c r="G12">
+        <v>2273.3200000000002</v>
+      </c>
+      <c r="H12">
+        <f>H33</f>
+        <v>50000</v>
+      </c>
+      <c r="I12">
+        <v>0.85243100000000005</v>
+      </c>
+      <c r="J12">
+        <f>J33</f>
+        <v>75000</v>
+      </c>
+      <c r="K12" s="129">
+        <f t="shared" ref="K12" si="7">I12</f>
+        <v>0.85243100000000005</v>
+      </c>
+      <c r="L12" s="125">
+        <f>(F12*G12)+(B12*C12)+(D12*E12)+(H12*I12)+(Z21*AA21)+(J12*K12)</f>
+        <v>520518.62710100005</v>
+      </c>
+      <c r="M12">
+        <v>156.08000000000001</v>
+      </c>
+      <c r="N12">
+        <v>246143.72</v>
+      </c>
+      <c r="O12" s="127">
+        <v>9142.4</v>
+      </c>
+      <c r="P12" s="133">
+        <f t="shared" si="3"/>
+        <v>6.8286226811340445E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="126">
+        <v>45379</v>
+      </c>
+      <c r="B13">
+        <f>B33</f>
+        <v>1110</v>
+      </c>
+      <c r="C13">
+        <v>31.870699999999999</v>
+      </c>
+      <c r="D13">
+        <f>D33</f>
+        <v>321.99</v>
+      </c>
+      <c r="E13">
+        <v>34.480800000000002</v>
+      </c>
+      <c r="F13" s="124">
+        <v>161</v>
+      </c>
+      <c r="G13">
         <v>2240.09</v>
       </c>
-      <c r="H12">
-        <f>H32</f>
+      <c r="H13">
+        <f>H33</f>
         <v>50000</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>0.86473199999999995</v>
       </c>
-      <c r="J12">
-        <f>J32</f>
+      <c r="J13">
+        <f>J33</f>
         <v>75000</v>
       </c>
-      <c r="K12" s="129">
+      <c r="K13" s="129">
         <f t="shared" si="0"/>
         <v>0.86473199999999995</v>
       </c>
-      <c r="L12" s="125">
-        <f>(F12*G12)+(B12*C12)+(D12*E12)+(T12*U12)+(H12*I12)+(R12*S12)+(V12*W12)+(X12*Y12)+(Z20*AA20)+(J12*K12)</f>
+      <c r="L13" s="125">
+        <f>(F13*G13)+(B13*C13)+(D13*E13)+(T13*U13)+(H13*I13)+(R13*S13)+(V13*W13)+(X13*Y13)+(Z21*AA21)+(J13*K13)</f>
         <v>516786.21979200002</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>153.81</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>242408.74</v>
       </c>
-      <c r="O12" s="127">
+      <c r="O13" s="127">
         <v>9079.9699999999993</v>
       </c>
-      <c r="P12" s="133">
-        <f t="shared" si="4"/>
+      <c r="P13" s="133">
+        <f t="shared" si="3"/>
         <v>3.0093711763364839E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="126">
-        <v>45378</v>
-      </c>
-      <c r="B13">
-        <f>B32</f>
-        <v>1110</v>
-      </c>
-      <c r="C13">
-        <v>31.821999999999999</v>
-      </c>
-      <c r="D13">
-        <f>D32</f>
-        <v>321.99</v>
-      </c>
-      <c r="E13">
-        <v>34.5045</v>
-      </c>
-      <c r="F13" s="124">
-        <v>161</v>
-      </c>
-      <c r="G13">
-        <v>2227.25</v>
-      </c>
-      <c r="H13">
-        <f>H32</f>
-        <v>50000</v>
-      </c>
-      <c r="I13">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="J13">
-        <f>J32</f>
-        <v>75000</v>
-      </c>
-      <c r="K13" s="129">
-        <f t="shared" si="0"/>
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="L13" s="125">
-        <f>(F13*G13)+(B13*C13)+(D13*E13)+(T13*U13)+(H13*I13)+(R13*S13)+(V13*W13)+(X13*Y13)+(Z20*AA20)+(J13*K13)</f>
-        <v>513956.05395500001</v>
-      </c>
-      <c r="M13">
-        <v>154.24</v>
-      </c>
-      <c r="N13">
-        <v>242616.68</v>
-      </c>
-      <c r="O13" s="127">
-        <v>8806.7199999999993</v>
-      </c>
-      <c r="P13" s="133">
-        <f t="shared" si="4"/>
-        <v>-7.4942770974972817E-5</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="126">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B14">
         <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>31.530999999999999</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D14">
         <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>34.125900000000001</v>
+        <v>34.5045</v>
       </c>
       <c r="F14" s="124">
         <v>161</v>
@@ -6628,7 +6628,7 @@
         <v>50000</v>
       </c>
       <c r="I14">
-        <v>0.890316</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="J14">
         <f>J33</f>
@@ -6636,11 +6636,11 @@
       </c>
       <c r="K14" s="129">
         <f t="shared" si="0"/>
-        <v>0.890316</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="L14" s="125">
         <f>(F14*G14)+(B14*C14)+(D14*E14)+(T14*U14)+(H14*I14)+(R14*S14)+(V14*W14)+(X14*Y14)+(Z21*AA21)+(J14*K14)</f>
-        <v>517363.07854099997</v>
+        <v>513956.05395500001</v>
       </c>
       <c r="M14">
         <v>154.24</v>
@@ -6649,569 +6649,564 @@
         <v>242616.68</v>
       </c>
       <c r="O14" s="127">
-        <v>8807.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="P14" s="133">
-        <f t="shared" si="4"/>
-        <v>-2.5206133946758191E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.4942770974972817E-5</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="126">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B15">
-        <f>B32</f>
+        <f>B34</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.786200000000001</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D15">
-        <f>D32</f>
+        <f>D34</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>34.386299999999999</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F15" s="124">
         <v>161</v>
       </c>
       <c r="G15">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="H15">
-        <f>H32</f>
+        <f>H34</f>
         <v>50000</v>
       </c>
       <c r="I15">
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="J15">
-        <f>J32</f>
+        <f>J34</f>
         <v>75000</v>
       </c>
       <c r="K15" s="129">
         <f t="shared" si="0"/>
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="L15" s="125">
-        <f>(F15*G15)+(B15*C15)+(D15*E15)+(T15*U15)+(H15*I15)+(R15*S15)+(V15*W15)+(X15*Y15)+(Z20*AA20)+(J15*K15)</f>
-        <v>519281.29173699999</v>
+        <f>(F15*G15)+(B15*C15)+(D15*E15)+(T15*U15)+(H15*I15)+(R15*S15)+(V15*W15)+(X15*Y15)+(Z22*AA22)+(J15*K15)</f>
+        <v>517363.07854099997</v>
       </c>
       <c r="M15">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="N15">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="O15" s="127">
-        <v>9029.3799999999992</v>
+        <v>8807.3799999999992</v>
       </c>
       <c r="P15" s="133">
-        <f t="shared" si="4"/>
-        <v>-9.0947551216142841E-3</v>
+        <f t="shared" si="3"/>
+        <v>-2.5206133946758191E-2</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="126">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B16">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D16">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F16" s="124">
         <v>161</v>
       </c>
       <c r="G16">
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="H16">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I16">
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="J16">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K16" s="129">
         <f t="shared" si="0"/>
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="L16" s="125">
-        <f>(F16*G16)+(B16*C16)+(D16*E16)+(T16*U16)+(H16*I16)+(R16*S16)+(V16*W16)+(X16*Y16)+(Z20*AA20)+(J16*K16)</f>
-        <v>520293.43723700003</v>
+        <f>(F16*G16)+(B16*C16)+(D16*E16)+(T16*U16)+(H16*I16)+(R16*S16)+(V16*W16)+(X16*Y16)+(Z21*AA21)+(J16*K16)</f>
+        <v>519281.29173699999</v>
       </c>
       <c r="M16">
-        <v>156.63999999999999</v>
+        <v>155.99</v>
       </c>
       <c r="N16">
-        <v>245919.31</v>
-      </c>
-      <c r="O16">
-        <v>9111.5</v>
+        <v>244906</v>
+      </c>
+      <c r="O16" s="127">
+        <v>9029.3799999999992</v>
       </c>
       <c r="P16" s="133">
-        <f t="shared" si="4"/>
-        <v>-3.2047412610438641E-3</v>
+        <f t="shared" si="3"/>
+        <v>-9.0947551216142841E-3</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="126">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B17">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D17">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F17" s="124">
         <v>161</v>
       </c>
       <c r="G17">
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="H17">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I17">
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="J17">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K17" s="129">
         <f t="shared" si="0"/>
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="L17" s="125">
-        <f>(F17*G17)+(B17*C17)+(D17*E17)+(T17*U17)+(H17*I17)+(R17*S17)+(V17*W17)+(X17*Y17)+(Z20*AA20)+(J17*K17)</f>
-        <v>531236.15554900002</v>
+        <f>(F17*G17)+(B17*C17)+(D17*E17)+(T17*U17)+(H17*I17)+(R17*S17)+(V17*W17)+(X17*Y17)+(Z21*AA21)+(J17*K17)</f>
+        <v>520293.43723700003</v>
       </c>
       <c r="M17">
-        <v>163.91</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="N17">
-        <v>256845.12</v>
-      </c>
-      <c r="O17" s="127">
-        <v>9140.7000000000007</v>
+        <v>245919.31</v>
+      </c>
+      <c r="O17">
+        <v>9111.5</v>
       </c>
       <c r="P17" s="133">
-        <f t="shared" si="4"/>
-        <v>2.0302602645311585E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.2047412610438641E-3</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="126">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B18">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>32.028799999999997</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D18">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.808799999999998</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F18" s="124">
         <v>161</v>
       </c>
       <c r="G18">
-        <v>2220.92</v>
+        <v>2267.61</v>
       </c>
       <c r="H18">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I18">
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="J18">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K18" s="129">
         <f t="shared" si="0"/>
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="L18" s="125">
-        <f t="shared" ref="L18:L36" si="7">(F18*G18)+(B18*C18)+(D18*E18)+(T18*U18)+(H18*I18)+(R18*S18)+(V18*W18)+(X18*Y18)+(Z18*AA18)+(J18*K18)</f>
-        <v>521166.42351200001</v>
+        <f>(F18*G18)+(B18*C18)+(D18*E18)+(T18*U18)+(H18*I18)+(R18*S18)+(V18*W18)+(X18*Y18)+(Z21*AA21)+(J18*K18)</f>
+        <v>531236.15554900002</v>
       </c>
       <c r="M18">
-        <v>158.47999999999999</v>
+        <v>163.91</v>
       </c>
       <c r="N18">
-        <v>248342.62</v>
+        <v>256845.12</v>
       </c>
       <c r="O18" s="127">
-        <v>8955.1200000000008</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="P18" s="133">
-        <f t="shared" si="4"/>
-        <v>2.8184993612594411E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.0302602645311585E-2</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="126">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B19">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D19">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F19" s="124">
         <v>161</v>
       </c>
       <c r="G19">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="H19">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I19">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="J19">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K19" s="129">
         <f t="shared" si="0"/>
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="L19" s="125">
-        <f t="shared" si="7"/>
-        <v>517965.56020899996</v>
+        <f t="shared" ref="L19:L37" si="8">(F19*G19)+(B19*C19)+(D19*E19)+(T19*U19)+(H19*I19)+(R19*S19)+(V19*W19)+(X19*Y19)+(Z19*AA19)+(J19*K19)</f>
+        <v>521166.42351200001</v>
       </c>
       <c r="M19">
-        <v>155.59</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="N19">
-        <v>243803.06</v>
+        <v>248342.62</v>
       </c>
       <c r="O19" s="127">
-        <v>8929.8799999999992</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="P19" s="133">
-        <f t="shared" si="4"/>
-        <v>2.3714764364134666E-2</v>
-      </c>
-      <c r="Z19">
-        <v>68</v>
-      </c>
-      <c r="AA19">
-        <v>19.690000000000001</v>
+        <f t="shared" si="3"/>
+        <v>2.8184993612594411E-3</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="126">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B20">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.9499</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D20">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.8125</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F20" s="124">
         <v>161</v>
       </c>
       <c r="G20">
-        <v>2212.35</v>
+        <v>2219.02</v>
       </c>
       <c r="H20">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I20">
-        <v>0.93887900000000002</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="J20">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
-      <c r="K20">
-        <v>0.93887900000000002</v>
+      <c r="K20" s="129">
+        <f t="shared" si="0"/>
+        <v>0.90033600000000003</v>
       </c>
       <c r="L20" s="125">
-        <f t="shared" si="7"/>
-        <v>521783.17087500001</v>
+        <f t="shared" si="8"/>
+        <v>517965.56020899996</v>
       </c>
       <c r="M20">
-        <v>155.44</v>
+        <v>155.59</v>
       </c>
       <c r="N20">
-        <v>247623.17</v>
+        <v>243803.06</v>
       </c>
       <c r="O20" s="127">
-        <v>8718.11</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="P20" s="133">
-        <f t="shared" si="4"/>
-        <v>-1.2685088855267868E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="Z20">
         <v>68</v>
       </c>
       <c r="AA20">
-        <v>22.96</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="126">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B21">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="D21">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="F21" s="124">
         <v>161</v>
       </c>
       <c r="G21">
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="H21">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I21">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="J21">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K21">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="L21" s="125">
-        <f t="shared" si="7"/>
-        <v>522868.00020299997</v>
+        <f t="shared" si="8"/>
+        <v>521783.17087500001</v>
       </c>
       <c r="M21">
-        <v>156.13</v>
+        <v>155.44</v>
       </c>
       <c r="N21">
-        <v>248712.47</v>
+        <v>247623.17</v>
       </c>
       <c r="O21" s="127">
-        <v>8828.7000000000007</v>
+        <v>8718.11</v>
       </c>
       <c r="P21" s="133">
-        <f t="shared" si="4"/>
-        <v>-6.2092946866469934E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="Z21">
         <v>68</v>
       </c>
       <c r="AA21">
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="126">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B22">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D22">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F22" s="124">
         <v>161</v>
       </c>
       <c r="G22">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="H22">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I22">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="J22">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K22">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="L22" s="125">
-        <f t="shared" si="7"/>
-        <v>524610.95937499998</v>
+        <f t="shared" si="8"/>
+        <v>522868.00020299997</v>
       </c>
       <c r="M22">
-        <v>157.21</v>
+        <v>156.13</v>
       </c>
       <c r="N22">
-        <v>250427.64</v>
+        <v>248712.47</v>
       </c>
       <c r="O22" s="127">
-        <v>8883.52</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="P22" s="133">
-        <f t="shared" si="4"/>
-        <v>-3.0066910413888426E-3</v>
+        <f t="shared" si="3"/>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="Z22">
         <v>68</v>
       </c>
       <c r="AA22">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="126">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B23">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D23">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F23" s="124">
         <v>161</v>
       </c>
       <c r="G23">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="H23">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I23">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="J23">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K23">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="L23" s="125">
-        <f t="shared" si="7"/>
-        <v>525154.25500000012</v>
+        <f t="shared" si="8"/>
+        <v>524610.95937499998</v>
       </c>
       <c r="M23">
-        <v>160.79</v>
+        <v>157.21</v>
       </c>
       <c r="N23">
-        <v>250989.9</v>
+        <v>250427.64</v>
       </c>
       <c r="O23" s="127">
-        <v>8910.23</v>
+        <v>8883.52</v>
       </c>
       <c r="P23" s="133">
-        <f t="shared" si="4"/>
-        <v>-1.7822211098927898E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="Z23">
         <v>68</v>
       </c>
       <c r="AA23">
-        <v>18.22</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="126">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B24">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.516400000000001</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.463200000000001</v>
+        <v>35</v>
       </c>
       <c r="F24" s="124">
         <v>161</v>
@@ -7220,420 +7215,395 @@
         <v>2220.3200000000002</v>
       </c>
       <c r="H24">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I24">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="J24">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K24">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="L24" s="125">
-        <f t="shared" si="7"/>
-        <v>527079.91476800013</v>
+        <f t="shared" si="8"/>
+        <v>525154.25500000012</v>
       </c>
       <c r="M24">
-        <v>161.94999999999999</v>
+        <v>160.79</v>
       </c>
       <c r="N24">
-        <v>252645.61</v>
+        <v>250989.9</v>
       </c>
       <c r="O24" s="127">
-        <v>9069.0300000000007</v>
+        <v>8910.23</v>
       </c>
       <c r="P24" s="133">
-        <f t="shared" si="4"/>
-        <v>-6.8684302510850781E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="Z24">
         <v>68</v>
       </c>
       <c r="AA24">
-        <v>16.57</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="126">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B25">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.571400000000001</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D25">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>34.558100000000003</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F25" s="124">
         <v>161</v>
       </c>
       <c r="G25">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="H25">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I25">
-        <v>0.99851990000000002</v>
+        <v>0.979213</v>
       </c>
       <c r="J25">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K25">
-        <v>0.99851990000000002</v>
+        <v>0.979213</v>
       </c>
       <c r="L25" s="125">
-        <f t="shared" si="7"/>
-        <v>532801.83411900001</v>
+        <f t="shared" si="8"/>
+        <v>527079.91476800013</v>
       </c>
       <c r="M25">
-        <v>164.91</v>
+        <v>161.94999999999999</v>
       </c>
       <c r="N25">
-        <v>257088.48</v>
+        <v>252645.61</v>
       </c>
       <c r="O25" s="127">
-        <v>9131.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="P25" s="133">
-        <f t="shared" si="4"/>
-        <v>-2.6283166070184549E-3</v>
-      </c>
-      <c r="V25">
-        <v>12</v>
-      </c>
-      <c r="W25">
-        <v>41.58</v>
-      </c>
-      <c r="X25">
-        <f>X32</f>
-        <v>15</v>
-      </c>
-      <c r="Y25">
-        <v>55.55</v>
+        <f t="shared" si="3"/>
+        <v>-6.8684302510850781E-3</v>
       </c>
       <c r="Z25">
         <v>68</v>
       </c>
       <c r="AA25">
-        <v>15.07</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="126">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B26">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D26">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F26" s="124">
         <v>161</v>
       </c>
       <c r="G26">
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="H26">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I26">
-        <v>0.99115900000000001</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="J26">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K26">
-        <v>0.99115900000000001</v>
+        <v>0.99851990000000002</v>
       </c>
       <c r="L26" s="125">
-        <f t="shared" si="7"/>
-        <v>525972.37595699995</v>
+        <f t="shared" si="8"/>
+        <v>532801.83411900001</v>
       </c>
       <c r="M26">
-        <v>160.9</v>
+        <v>164.91</v>
+      </c>
+      <c r="N26">
+        <v>257088.48</v>
       </c>
       <c r="O26" s="127">
-        <v>9155.32</v>
+        <v>9131.32</v>
       </c>
       <c r="P26" s="133">
-        <f t="shared" si="4"/>
-        <v>1.1047128882442081E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.6283166070184549E-3</v>
       </c>
       <c r="V26">
         <v>12</v>
       </c>
       <c r="W26">
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="X26">
-        <f>X32</f>
+        <f>X33</f>
         <v>15</v>
       </c>
       <c r="Y26">
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="Z26">
         <v>68</v>
       </c>
       <c r="AA26">
-        <v>13.7</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="126">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B27">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.297000000000001</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D27">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.110599999999998</v>
+        <v>34.3643</v>
       </c>
       <c r="F27" s="124">
         <v>161</v>
       </c>
       <c r="G27">
-        <v>2184.79</v>
+        <v>2198.16</v>
       </c>
       <c r="H27">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I27">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="J27">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K27">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="L27" s="125">
-        <f t="shared" si="7"/>
-        <v>517832.22209400003</v>
+        <f t="shared" si="8"/>
+        <v>525972.37595699995</v>
       </c>
       <c r="M27">
-        <v>155.75</v>
+        <v>160.9</v>
       </c>
       <c r="O27" s="127">
-        <v>9054.18</v>
+        <v>9155.32</v>
       </c>
       <c r="P27" s="133">
-        <f t="shared" si="4"/>
-        <v>3.4194151209717583E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="V27">
         <v>12</v>
       </c>
       <c r="W27">
-        <v>34.380000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="X27">
-        <f>X32</f>
+        <f>X33</f>
         <v>15</v>
       </c>
       <c r="Y27">
-        <v>63.1</v>
+        <v>57.75</v>
       </c>
       <c r="Z27">
         <v>68</v>
       </c>
       <c r="AA27">
-        <v>12.46</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="126">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B28">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.293399999999998</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D28">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>34.006500000000003</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F28" s="124">
         <v>161</v>
       </c>
       <c r="G28">
-        <v>2150.9</v>
+        <v>2184.79</v>
       </c>
       <c r="H28">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I28">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="J28">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K28">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="L28" s="125">
-        <f t="shared" si="7"/>
-        <v>551296.63907100004</v>
+        <f t="shared" si="8"/>
+        <v>517832.22209400003</v>
       </c>
       <c r="M28">
-        <v>156.16</v>
+        <v>155.75</v>
       </c>
       <c r="O28" s="127">
-        <v>8744.58</v>
+        <v>9054.18</v>
       </c>
       <c r="P28" s="133">
-        <f t="shared" si="4"/>
-        <v>-1.3258498407013208E-2</v>
-      </c>
-      <c r="T28">
-        <f>T32</f>
-        <v>57</v>
-      </c>
-      <c r="U28">
-        <v>580.05924800000003</v>
+        <f t="shared" si="3"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="V28">
         <v>12</v>
       </c>
       <c r="W28">
-        <v>31.26</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="X28">
-        <f>X32</f>
+        <f>X33</f>
         <v>15</v>
       </c>
       <c r="Y28">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="Z28">
         <v>68</v>
       </c>
       <c r="AA28">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="126">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B29">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D29">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F29" s="124">
         <v>161</v>
       </c>
       <c r="G29">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="H29">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I29">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="J29">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K29">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="L29" s="125">
-        <f t="shared" si="7"/>
-        <v>549382.85210899997</v>
+        <f t="shared" si="8"/>
+        <v>551296.63907100004</v>
       </c>
       <c r="M29">
-        <v>154.22999999999999</v>
+        <v>156.16</v>
       </c>
       <c r="O29" s="127">
-        <v>8860.52</v>
+        <v>8744.58</v>
       </c>
       <c r="P29" s="133">
-        <f t="shared" ref="P29:P36" si="8">(1-(O30/O29))</f>
-        <v>-5.319100910555985E-3</v>
-      </c>
-      <c r="R29">
-        <f>R32</f>
-        <v>36</v>
-      </c>
-      <c r="S29" s="134">
-        <v>38.15</v>
+        <f t="shared" ref="P10:P29" si="9">(1-(O30/O29))</f>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="T29">
-        <f>T32</f>
+        <f>T33</f>
         <v>57</v>
       </c>
       <c r="U29">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="V29">
-        <f>V32</f>
         <v>12</v>
       </c>
       <c r="W29">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="X29">
-        <f>X32</f>
+        <f>X33</f>
         <v>15</v>
       </c>
       <c r="Y29">
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="Z29">
         <v>68</v>
@@ -7644,80 +7614,83 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="126">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B30">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>30.905999999999999</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D30">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>33.542299999999997</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F30" s="124">
         <v>161</v>
       </c>
       <c r="G30">
-        <v>2072.52</v>
+        <v>2116.34</v>
       </c>
       <c r="H30">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I30">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="J30">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K30">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="L30" s="125">
-        <f t="shared" si="7"/>
-        <v>545049.74954800005</v>
+        <f t="shared" si="8"/>
+        <v>549382.85210899997</v>
+      </c>
+      <c r="M30">
+        <v>154.22999999999999</v>
       </c>
       <c r="O30" s="127">
-        <v>8907.65</v>
+        <v>8860.52</v>
       </c>
       <c r="P30" s="133">
-        <f t="shared" si="8"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" ref="P30:P37" si="10">(1-(O31/O30))</f>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="R30">
-        <f>R32</f>
+        <f>R33</f>
         <v>36</v>
       </c>
-      <c r="S30">
-        <v>34.659999999999997</v>
+      <c r="S30" s="134">
+        <v>38.15</v>
       </c>
       <c r="T30">
-        <f>T32</f>
+        <f>T33</f>
         <v>57</v>
       </c>
       <c r="U30">
-        <v>578.66060300000004</v>
+        <v>579.361718</v>
       </c>
       <c r="V30">
-        <f>V32</f>
+        <f>V33</f>
         <v>12</v>
       </c>
       <c r="W30">
-        <v>25.84</v>
+        <v>28.42</v>
       </c>
       <c r="X30">
-        <f>X32</f>
+        <f>X33</f>
         <v>15</v>
       </c>
       <c r="Y30">
-        <v>47.46</v>
+        <v>52.2</v>
       </c>
       <c r="Z30">
         <v>68</v>
@@ -7728,80 +7701,80 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="126">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B31">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D31">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F31" s="124">
         <v>161</v>
       </c>
       <c r="G31">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="H31">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I31">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="J31">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K31">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="L31" s="125">
-        <f t="shared" si="7"/>
-        <v>534814.50418999989</v>
+        <f t="shared" si="8"/>
+        <v>545049.74954800005</v>
       </c>
       <c r="O31" s="127">
-        <v>9097.15</v>
+        <v>8907.65</v>
       </c>
       <c r="P31" s="133">
-        <f t="shared" si="8"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="R31">
-        <f>R32</f>
+        <f>R33</f>
         <v>36</v>
       </c>
       <c r="S31">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="T31">
-        <f>T32</f>
+        <f>T33</f>
         <v>57</v>
       </c>
       <c r="U31">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="V31">
-        <f>V32</f>
+        <f>V33</f>
         <v>12</v>
       </c>
       <c r="W31">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="X31">
-        <f>X32</f>
+        <f>X33</f>
         <v>15</v>
       </c>
       <c r="Y31">
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="Z31">
         <v>68</v>
@@ -7812,7 +7785,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="126">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B32">
         <f>B33</f>
@@ -7839,32 +7812,32 @@
         <v>50000</v>
       </c>
       <c r="I32">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="J32">
         <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K32">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="L32" s="125">
-        <f t="shared" si="7"/>
-        <v>530894.48918999988</v>
+        <f t="shared" si="8"/>
+        <v>534814.50418999989</v>
       </c>
       <c r="O32" s="127">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="P32" s="133">
-        <f t="shared" si="8"/>
-        <v>1.428479750785594E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.0612114783201454E-2</v>
       </c>
       <c r="R32">
         <f>R33</f>
         <v>36</v>
       </c>
       <c r="S32">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="T32">
         <f>T33</f>
@@ -7878,26 +7851,35 @@
         <v>12</v>
       </c>
       <c r="W32">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="X32">
+        <f>X33</f>
         <v>15</v>
       </c>
       <c r="Y32">
-        <v>39.24</v>
+        <v>43.16</v>
+      </c>
+      <c r="Z32">
+        <v>68</v>
+      </c>
+      <c r="AA32">
+        <v>11.33</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="126">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B33">
+        <f>B34</f>
         <v>1110</v>
       </c>
       <c r="C33">
         <v>30.7361</v>
       </c>
       <c r="D33">
+        <f>D34</f>
         <v>321.99</v>
       </c>
       <c r="E33">
@@ -7914,49 +7896,57 @@
         <v>50000</v>
       </c>
       <c r="I33">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="J33">
         <f>J34</f>
         <v>75000</v>
       </c>
       <c r="K33">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="L33" s="125">
-        <f t="shared" si="7"/>
-        <v>537360.00419000001</v>
+        <f t="shared" si="8"/>
+        <v>530894.48918999988</v>
       </c>
       <c r="O33" s="127">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="P33" s="133">
-        <f t="shared" si="8"/>
-        <v>-1.292378585710563E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="R33">
         <f>R34</f>
         <v>36</v>
       </c>
       <c r="S33">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="T33">
+        <f>T34</f>
         <v>57</v>
       </c>
       <c r="U33">
         <v>576.58807100000001</v>
       </c>
       <c r="V33">
+        <f>V34</f>
         <v>12</v>
       </c>
       <c r="W33">
-        <v>19.45</v>
+        <v>21.38</v>
+      </c>
+      <c r="X33">
+        <v>15</v>
+      </c>
+      <c r="Y33">
+        <v>39.24</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="126">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B34">
         <v>1110</v>
@@ -7981,30 +7971,32 @@
         <v>50000</v>
       </c>
       <c r="I34">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="J34">
+        <f>J35</f>
         <v>75000</v>
       </c>
       <c r="K34">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="L34" s="125">
-        <f t="shared" si="7"/>
-        <v>536633.0191899999</v>
+        <f t="shared" si="8"/>
+        <v>537360.00419000001</v>
       </c>
       <c r="O34" s="127">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="P34" s="133">
-        <f t="shared" si="8"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="R34">
+        <f>R35</f>
         <v>36</v>
       </c>
       <c r="S34">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="T34">
         <v>57</v>
@@ -8012,10 +8004,16 @@
       <c r="U34">
         <v>576.58807100000001</v>
       </c>
+      <c r="V34">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="126">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B35">
         <v>1110</v>
@@ -8040,27 +8038,30 @@
         <v>50000</v>
       </c>
       <c r="I35">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
+      </c>
+      <c r="J35">
+        <v>75000</v>
       </c>
       <c r="K35">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="L35" s="125">
-        <f t="shared" si="7"/>
-        <v>454463.60418999993</v>
+        <f t="shared" si="8"/>
+        <v>536633.0191899999</v>
       </c>
       <c r="O35" s="127">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="P35" s="133">
-        <f t="shared" si="8"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="10"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="R35">
         <v>36</v>
       </c>
       <c r="S35">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="T35">
         <v>57</v>
@@ -8071,7 +8072,7 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="126">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B36">
         <v>1110</v>
@@ -8092,30 +8093,31 @@
         <v>2018.91</v>
       </c>
       <c r="H36">
+        <f>H37</f>
         <v>50000</v>
       </c>
       <c r="I36">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="K36">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="L36" s="125">
-        <f t="shared" si="7"/>
-        <v>453591.29418999993</v>
+        <f t="shared" si="8"/>
+        <v>454463.60418999993</v>
       </c>
       <c r="O36" s="127">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="P36" s="133">
-        <f t="shared" si="8"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="10"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="R36">
         <v>36</v>
       </c>
       <c r="S36">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="T36">
         <v>57</v>
@@ -8125,172 +8127,227 @@
       </c>
     </row>
     <row r="37" spans="1:27">
+      <c r="A37" s="126">
+        <v>45345</v>
+      </c>
+      <c r="B37">
+        <v>1110</v>
+      </c>
+      <c r="C37">
+        <v>30.7361</v>
+      </c>
+      <c r="D37">
+        <v>321.99</v>
+      </c>
+      <c r="E37">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F37" s="124">
+        <v>161</v>
+      </c>
+      <c r="G37">
+        <v>2018.91</v>
+      </c>
+      <c r="H37">
+        <v>50000</v>
+      </c>
       <c r="I37">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
       </c>
       <c r="K37">
-        <v>0.97160999999999997</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="L37" s="125">
+        <f t="shared" si="8"/>
+        <v>453591.29418999993</v>
       </c>
       <c r="O37" s="127">
-        <v>9347.17</v>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="P37" s="133">
+        <f t="shared" si="10"/>
+        <v>2.8834460540633211E-3</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37">
-        <v>17.82</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T37">
+        <v>57</v>
+      </c>
+      <c r="U37">
+        <v>576.58807100000001</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="I38">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
       </c>
       <c r="K38">
-        <v>0.93849000000000005</v>
+        <v>0.97160999999999997</v>
+      </c>
+      <c r="O38" s="127">
+        <v>9347.17</v>
       </c>
       <c r="R38">
         <v>36</v>
       </c>
-      <c r="S38" s="135">
-        <v>15.3</v>
-      </c>
-      <c r="W38" s="135">
-        <f>W33</f>
-        <v>19.45</v>
-      </c>
-      <c r="Y38" s="135">
-        <f>Y32</f>
-        <v>39.24</v>
-      </c>
-      <c r="AA38" s="135">
-        <f>AA31</f>
-        <v>11.33</v>
+      <c r="S38">
+        <v>17.82</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="I39">
-        <v>0.91198999999999997</v>
+        <v>0.93849000000000005</v>
       </c>
       <c r="K39">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="P39" s="136">
-        <f>SUM(P6:P38)</f>
-        <v>-8.0383270377764271E-2</v>
-      </c>
-      <c r="S39" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="W39" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y39" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA39" s="135" t="s">
-        <v>60</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="R39">
+        <v>36</v>
+      </c>
+      <c r="S39" s="135">
+        <v>15.3</v>
+      </c>
+      <c r="W39" s="135">
+        <f>W34</f>
+        <v>19.45</v>
+      </c>
+      <c r="Y39" s="135">
+        <f>Y33</f>
+        <v>39.24</v>
+      </c>
+      <c r="AA39" s="135">
+        <f>AA32</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="I40">
-        <v>0.90268000000000004</v>
+        <v>0.91198999999999997</v>
       </c>
       <c r="K40">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="S40" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="W40" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y40" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA40" s="137" t="s">
-        <v>61</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="P40" s="136">
+        <f>SUM(P6:P39)</f>
+        <v>-8.5842114756896626E-3</v>
+      </c>
+      <c r="S40" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="W40" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y40" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA40" s="135" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="I41">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="K41">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="S41" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="W41" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y41" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA41" s="137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="I42">
         <v>0.89847999999999995</v>
       </c>
-      <c r="K41">
+      <c r="K42">
         <v>0.89847999999999995</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R42" t="s">
         <v>62</v>
       </c>
-      <c r="S41" s="137">
+      <c r="S42" s="137">
         <v>38</v>
       </c>
-      <c r="W41" s="137">
+      <c r="W42" s="137">
         <v>45.72</v>
       </c>
-      <c r="Y41" s="137">
+      <c r="Y42" s="137">
         <v>55.5</v>
       </c>
-      <c r="AA41" s="137">
+      <c r="AA42" s="137">
         <f>AA2</f>
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
-      <c r="I42">
+    <row r="43" spans="1:27">
+      <c r="I43">
         <v>0.88783999999999996</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <v>0.88783999999999996</v>
       </c>
-      <c r="S42" s="138">
+      <c r="S43" s="138">
         <f>Sayfa2!M42</f>
         <v>1.3456790123456792</v>
       </c>
-      <c r="W42" s="138">
-        <f>(W41-W33)/W33</f>
+      <c r="W43" s="138">
+        <f>(W42-W34)/W34</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="Y42" s="138">
-        <f>(Y41-Y32)/Y32</f>
+      <c r="Y43" s="138">
+        <f>(Y42-Y33)/Y33</f>
         <v>0.41437308868501521</v>
       </c>
-      <c r="AA42" s="138">
-        <f>(AA41-AA31)/AA31</f>
+      <c r="AA43" s="138">
+        <f>(AA42-AA32)/AA32</f>
         <v>0.73786407766990303</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
-      <c r="I43">
+    <row r="44" spans="1:27">
+      <c r="I44">
         <v>0.86724999999999997</v>
       </c>
-      <c r="K43">
+      <c r="K44">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
-      <c r="R44" s="139" t="s">
+    <row r="45" spans="1:27">
+      <c r="R45" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="S44" s="139">
+      <c r="S45" s="139">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="V44" s="139" t="s">
+      <c r="V45" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="W44" s="139">
-        <f>(V33*W41)-(V6*W33)</f>
+      <c r="W45" s="139">
+        <f>(V34*W42)-(V6*W34)</f>
         <v>548.64</v>
       </c>
-      <c r="X44" s="139" t="s">
+      <c r="X45" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="Y44" s="139">
-        <f>(X32*Y41)-(X6*Y32)</f>
+      <c r="Y45" s="139">
+        <f>(X33*Y42)-(X6*Y33)</f>
         <v>832.5</v>
       </c>
-      <c r="AA44" s="139">
-        <f>(Z31*AA41)-(Z19*AA31)</f>
+      <c r="AA45" s="139">
+        <f>(Z32*AA42)-(Z20*AA32)</f>
         <v>568.48</v>
       </c>
     </row>
@@ -8304,7 +8361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -8390,7 +8447,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="14">
         <f>SUM(K8:K9)</f>
-        <v>-93.623499999999808</v>
+        <v>-110.74899999999968</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -8458,7 +8515,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="38">
         <f>SUM(K8:K9)</f>
-        <v>-93.623499999999808</v>
+        <v>-110.74899999999968</v>
       </c>
       <c r="L7" s="44">
         <f ca="1">K7/E7</f>
@@ -8481,7 +8538,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <f>K5/B7</f>
-        <v>-0.8285265486725647</v>
+        <v>-0.98007964601769626</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="141" t="s">
@@ -8496,24 +8553,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="43">
         <f>SUBTOTAL(109,I13:I20)</f>
-        <v>5337.7865000000002</v>
+        <v>5320.6610000000001</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="142">
         <f>SUBTOTAL(109,K13:K20)</f>
-        <v>-659.29349999999999</v>
+        <v>-676.41899999999987</v>
       </c>
       <c r="L8" s="44">
         <f>K8/E8</f>
-        <v>-0.10993575206600546</v>
+        <v>-0.11279139181068118</v>
       </c>
       <c r="M8" s="68">
         <f>SUBTOTAL(101,M13:M19)</f>
-        <v>-8.5232462411149845E-2</v>
+        <v>-8.691390571011888E-2</v>
       </c>
       <c r="N8" s="68">
         <f>SUBTOTAL(101,N13:N19)</f>
-        <v>-4.4352580264858388E-2</v>
+        <v>-4.5553611192693418E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -8746,7 +8803,7 @@
       </c>
       <c r="O14" s="148">
         <f>SUM(O15:O18)</f>
-        <v>-659.29349999999999</v>
+        <v>-676.41899999999987</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -8934,19 +8991,19 @@
       </c>
       <c r="H18" s="65">
         <f>Sayfa4!K6</f>
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="I18" s="51">
         <f>Tablo23[[#This Row],[Fiyat]]*Tablo23[[#This Row],[Miktar]]</f>
-        <v>2901.9865</v>
+        <v>2884.8610000000003</v>
       </c>
       <c r="J18" s="46">
         <f>H18-D18</f>
-        <v>-0.14086100000000001</v>
+        <v>-0.14575399999999994</v>
       </c>
       <c r="K18" s="66">
         <f>Tablo23[[#This Row],[Miktar3]]*Tablo23[[#This Row],[adet]]</f>
-        <v>-493.01350000000002</v>
+        <v>-510.13899999999978</v>
       </c>
       <c r="L18" s="67">
         <f>F18-B18</f>
@@ -8954,15 +9011,15 @@
       </c>
       <c r="M18" s="68">
         <f>K18/E18</f>
-        <v>-0.14521752577319588</v>
+        <v>-0.15026185567010303</v>
       </c>
       <c r="N18" s="68">
         <f>M18/L18*30</f>
-        <v>-0.10372680412371135</v>
+        <v>-0.10732989690721645</v>
       </c>
       <c r="O18" s="70">
         <f>SUM(K15:K18)</f>
-        <v>-659.29349999999999</v>
+        <v>-676.41899999999987</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>

--- a/05-24-YTRM.xlsx
+++ b/05-24-YTRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE3D43-A3A6-4951-84CB-CC6E616A730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8879CB5-0040-43A5-A47A-0966C4FE1A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1960,11 +1960,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>244587.02162700001</v>
+        <v>252634.36542699998</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1973,11 +1973,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>154.41099850189394</v>
+        <v>159.18989629930687</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2010,24 +2010,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I25)</f>
-        <v>516635.81332000002</v>
+        <v>524958.65711999999</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K26)</f>
-        <v>226086.84424000001</v>
+        <v>234134.18803999998</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.81004916752571232</v>
+        <v>0.83888208864456904</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M16)</f>
-        <v>-0.20201827846173664</v>
+        <v>-0.20750276543833621</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N16)</f>
-        <v>-0.14901630476292854</v>
+        <v>-0.14250091411795446</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2182,7 +2182,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O26)</f>
-        <v>226086.84423999998</v>
+        <v>234134.18803999998</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F15" s="63">
         <f>$B$2</f>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G15" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2215,31 +2215,31 @@
       </c>
       <c r="H15" s="65">
         <f>Sayfa4!I2</f>
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>61818.450000000004</v>
+        <v>61393.574999999997</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-0.24018899999999999</v>
+        <v>-0.24585400000000002</v>
       </c>
       <c r="K15" s="66">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-18014.174999999999</v>
+        <v>-18439.050000000003</v>
       </c>
       <c r="L15" s="67">
         <f>F15-B15</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M15" s="68">
         <f>K15/E15</f>
-        <v>-0.22564928811998852</v>
+        <v>-0.23097136039307242</v>
       </c>
       <c r="N15" s="68">
         <f>M15/L15*30</f>
-        <v>-0.17357637547691426</v>
+        <v>-0.16497954313790889</v>
       </c>
       <c r="O15" s="69"/>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="F16" s="63">
         <f>$B$2</f>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G16" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2270,35 +2270,35 @@
       </c>
       <c r="H16" s="65">
         <f>H15</f>
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>41212.300000000003</v>
+        <v>40929.050000000003</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-0.17895899999999987</v>
+        <v>-0.1846239999999999</v>
       </c>
       <c r="K16" s="66">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-8947.9499999999935</v>
+        <v>-9231.1999999999953</v>
       </c>
       <c r="L16" s="67">
         <f>F16-B16</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M16" s="68">
         <f>K16/E16</f>
-        <v>-0.17838726880348474</v>
+        <v>-0.18403417048359999</v>
       </c>
       <c r="N16" s="68">
         <f>M16/L16*30</f>
-        <v>-0.12445623404894283</v>
+        <v>-0.120022285098</v>
       </c>
       <c r="O16" s="70">
         <f>SUM(K13:K16)</f>
-        <v>-26962.124999999993</v>
+        <v>-27670.25</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2337,50 +2337,50 @@
       </c>
       <c r="F18" s="63">
         <f t="shared" ref="F18:F25" si="0">$B$2</f>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G18" s="64">
         <v>50</v>
       </c>
       <c r="H18" s="65">
         <f>Sayfa4!G6</f>
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="I18" s="51">
         <f>Sayfa2!$H18*Sayfa2!$G18</f>
-        <v>114463.5</v>
+        <v>117218.5</v>
       </c>
       <c r="J18" s="46">
         <f t="shared" ref="J18:J25" si="1">H18-D18</f>
-        <v>462.74</v>
+        <v>517.83999999999992</v>
       </c>
       <c r="K18" s="66">
         <f>Sayfa2!$J18*Sayfa2!$C18</f>
-        <v>20823.3</v>
+        <v>23302.799999999996</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" ref="L18:L25" si="2">F18-B18</f>
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M18" s="68">
         <f t="shared" ref="M18:M25" si="3">K18/E18</f>
-        <v>0.2533437720705381</v>
+        <v>0.28351026262913825</v>
       </c>
       <c r="N18" s="68">
         <f t="shared" ref="N18:N25" si="4">M18/L18*30</f>
-        <v>4.523995929831038E-2</v>
+        <v>4.973864256651548E-2</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>114463.5</v>
+        <v>117218.5</v>
       </c>
       <c r="Q18" s="1">
         <v>2000</v>
       </c>
       <c r="R18" s="1">
         <f>P18/Q18</f>
-        <v>57.231749999999998</v>
+        <v>58.609250000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2402,50 +2402,50 @@
       </c>
       <c r="F19" s="63">
         <f t="shared" si="0"/>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G19" s="64">
         <v>11</v>
       </c>
       <c r="H19" s="65">
         <f>H18</f>
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="I19" s="51">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>25181.97</v>
+        <v>25788.07</v>
       </c>
       <c r="J19" s="46">
         <f t="shared" si="1"/>
-        <v>1887.17</v>
+        <v>1942.27</v>
       </c>
       <c r="K19" s="66">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>20758.870000000003</v>
+        <v>21364.97</v>
       </c>
       <c r="L19" s="67">
         <f t="shared" si="2"/>
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="M19" s="68">
         <f t="shared" si="3"/>
-        <v>4.6932852524247703</v>
+        <v>4.83031584183039</v>
       </c>
       <c r="N19" s="68">
         <f t="shared" si="4"/>
-        <v>0.12318333995865538</v>
+        <v>0.12644805868665943</v>
       </c>
       <c r="O19" s="69"/>
       <c r="P19" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25181.97</v>
+        <v>25788.07</v>
       </c>
       <c r="Q19" s="1">
         <v>2000</v>
       </c>
       <c r="R19" s="1">
         <f>P19/Q19</f>
-        <v>12.590985</v>
+        <v>12.894035000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2467,50 +2467,50 @@
       </c>
       <c r="F20" s="63">
         <f t="shared" si="0"/>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G20" s="64">
         <v>50</v>
       </c>
       <c r="H20" s="65">
         <f>H19</f>
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>114463.5</v>
+        <v>117218.5</v>
       </c>
       <c r="J20" s="46">
         <f t="shared" si="1"/>
-        <v>1820.4099999999999</v>
+        <v>1875.5099999999998</v>
       </c>
       <c r="K20" s="66">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>91020.5</v>
+        <v>93775.499999999985</v>
       </c>
       <c r="L20" s="67">
         <f t="shared" si="2"/>
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="M20" s="68">
         <f t="shared" si="3"/>
-        <v>3.8826302094441836</v>
+        <v>4.0001492982979991</v>
       </c>
       <c r="N20" s="68">
         <f t="shared" si="4"/>
-        <v>8.939286744691137E-2</v>
+        <v>9.1887043605620194E-2</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>114463.5</v>
+        <v>117218.5</v>
       </c>
       <c r="Q20" s="1">
         <v>2000</v>
       </c>
       <c r="R20" s="1">
         <f>P20/Q20</f>
-        <v>57.231749999999998</v>
+        <v>58.609250000000003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="F21" s="63">
         <f t="shared" si="0"/>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G21" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2540,36 +2540,36 @@
       </c>
       <c r="H21" s="65">
         <f>H20</f>
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>57231.75</v>
+        <v>58609.25</v>
       </c>
       <c r="J21" s="46">
         <f t="shared" si="1"/>
-        <v>1889.4</v>
+        <v>1944.5</v>
       </c>
       <c r="K21" s="66">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>47235</v>
+        <v>48612.5</v>
       </c>
       <c r="L21" s="67">
         <f t="shared" si="2"/>
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="M21" s="68">
         <f t="shared" si="3"/>
-        <v>4.7250356365818895</v>
+        <v>4.8628304198864631</v>
       </c>
       <c r="N21" s="68">
         <f t="shared" si="4"/>
-        <v>0.10369500299740796</v>
+        <v>0.10648533766174736</v>
       </c>
       <c r="O21" s="69"/>
       <c r="R21" s="1">
         <f>SUM(R18:R20)</f>
-        <v>127.054485</v>
+        <v>130.11253500000001</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F22" s="63">
         <f t="shared" si="0"/>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G22" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2599,31 +2599,31 @@
       </c>
       <c r="H22" s="65">
         <f>H21</f>
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="I22" s="51">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>54942.479999999996</v>
+        <v>56264.88</v>
       </c>
       <c r="J22" s="46">
         <f t="shared" si="1"/>
-        <v>2015.46</v>
+        <v>2070.56</v>
       </c>
       <c r="K22" s="66">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>48371.040000000001</v>
+        <v>49693.440000000002</v>
       </c>
       <c r="L22" s="67">
         <f t="shared" si="2"/>
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="M22" s="68">
         <f t="shared" si="3"/>
-        <v>7.3607976333954195</v>
+        <v>7.5620320660311897</v>
       </c>
       <c r="N22" s="68">
         <f t="shared" si="4"/>
-        <v>0.13940904608703447</v>
+        <v>0.14294956646561796</v>
       </c>
       <c r="O22" s="69"/>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F23" s="63">
         <f t="shared" si="0"/>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G23" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2654,40 +2654,40 @@
       </c>
       <c r="H23" s="65">
         <f>H22</f>
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" si="1"/>
-        <v>2051.6799999999998</v>
+        <v>2106.7799999999997</v>
       </c>
       <c r="K23" s="66">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>2051.6799999999998</v>
+        <v>2106.7799999999997</v>
       </c>
       <c r="L23" s="67">
         <f t="shared" si="2"/>
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="M23" s="68">
         <f t="shared" si="3"/>
-        <v>8.6353802769476822</v>
+        <v>8.867292394461046</v>
       </c>
       <c r="N23" s="68">
         <f t="shared" si="4"/>
-        <v>0.16354886888158487</v>
+        <v>0.16762367475351694</v>
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="6">
         <f>SUM(P18:P22)</f>
-        <v>254108.97</v>
+        <v>260225.07</v>
       </c>
       <c r="R23" s="1">
         <f>P23/2220.32</f>
-        <v>114.44700313468329</v>
+        <v>117.20160607480003</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F24" s="63">
         <f t="shared" si="0"/>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G24" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2717,36 +2717,36 @@
       </c>
       <c r="H24" s="65">
         <f>Sayfa4!E2</f>
-        <v>34.038899999999998</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="I24" s="51">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>10170.82332</v>
+        <v>10205.484119999999</v>
       </c>
       <c r="J24" s="46">
         <f t="shared" si="1"/>
-        <v>15.317299999999999</v>
+        <v>15.433299999999999</v>
       </c>
       <c r="K24" s="66">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>4576.8092399999996</v>
+        <v>4611.4700400000002</v>
       </c>
       <c r="L24" s="67">
         <f t="shared" si="2"/>
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M24" s="68">
         <f t="shared" si="3"/>
-        <v>0.81816190923852661</v>
+        <v>0.82435796085804636</v>
       </c>
       <c r="N24" s="68">
         <f t="shared" si="4"/>
-        <v>4.0704572598931676E-2</v>
+        <v>4.0809800042477543E-2</v>
       </c>
       <c r="O24" s="69"/>
       <c r="P24" s="1">
         <f>P23*Q24</f>
-        <v>25410.897000000001</v>
+        <v>26022.507000000001</v>
       </c>
       <c r="Q24" s="75">
         <v>0.1</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F25" s="63">
         <f t="shared" si="0"/>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="G25" s="64">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2782,47 +2782,47 @@
       </c>
       <c r="H25" s="65">
         <f>Sayfa4!C2</f>
-        <v>31.407</v>
+        <v>31.5198</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>34861.769999999997</v>
+        <v>34986.978000000003</v>
       </c>
       <c r="J25" s="46">
         <f t="shared" si="1"/>
-        <v>16.407</v>
+        <v>16.5198</v>
       </c>
       <c r="K25" s="66">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>18211.77</v>
+        <v>18336.977999999999</v>
       </c>
       <c r="L25" s="67">
         <f t="shared" si="2"/>
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="M25" s="68">
         <f t="shared" si="3"/>
-        <v>1.0938000000000001</v>
+        <v>1.1013199999999999</v>
       </c>
       <c r="N25" s="68">
         <f t="shared" si="4"/>
-        <v>5.353017944535074E-2</v>
+        <v>5.363571428571428E-2</v>
       </c>
       <c r="O25" s="70">
         <f>SUM(K18:K25)</f>
-        <v>253048.96923999998</v>
+        <v>261804.43803999998</v>
       </c>
       <c r="P25" s="6">
         <f>SUM(P23:P24)</f>
-        <v>279519.86700000003</v>
+        <v>286247.57699999999</v>
       </c>
       <c r="R25" s="1">
         <f>P25/2000</f>
-        <v>139.75993350000002</v>
+        <v>143.12378849999999</v>
       </c>
       <c r="T25" s="1">
         <f>P23/T24</f>
-        <v>110.48216086956522</v>
+        <v>113.14133478260869</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2843,7 +2843,7 @@
       <c r="O26" s="32"/>
       <c r="R26" s="68">
         <f>1-(R25/R23)</f>
-        <v>-0.22117600000000026</v>
+        <v>-0.22117600000000004</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2883,7 +2883,7 @@
       <c r="P28" s="61"/>
       <c r="R28" s="1">
         <f>R25*2220.32</f>
-        <v>310311.77554872003</v>
+        <v>317780.61008232</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -6002,11 +6002,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA45"/>
+  <dimension ref="A2:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <selection pane="topRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6021,6 +6021,7 @@
     <col min="9" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.140625" style="125" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
     <col min="18" max="18" width="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" customWidth="1"/>
@@ -6041,35 +6042,35 @@
     <row r="2" spans="1:27">
       <c r="A2" s="126">
         <f>A6</f>
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="C2">
         <f>C6</f>
-        <v>31.407</v>
+        <v>31.5198</v>
       </c>
       <c r="E2">
         <f>E6</f>
-        <v>34.038899999999998</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="G2">
         <f>G6</f>
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="I2">
         <f>I6</f>
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="K2">
         <f>I6</f>
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="M2" s="127">
         <f>Sayfa2!D3</f>
-        <v>154.41099850189394</v>
+        <v>159.18989629930687</v>
       </c>
       <c r="N2" s="128">
         <f>Sayfa2!K2</f>
-        <v>244587.02162700001</v>
+        <v>252634.36542699998</v>
       </c>
       <c r="S2">
         <f>S6</f>
@@ -6088,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>AA20</f>
+        <f>AA21</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6145,131 +6146,131 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="126">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B6">
-        <f>B32</f>
+        <f>B33</f>
         <v>1110</v>
       </c>
       <c r="C6">
-        <v>31.407</v>
+        <v>31.5198</v>
       </c>
       <c r="D6">
-        <f>D32</f>
+        <f>D33</f>
         <v>321.99</v>
       </c>
       <c r="E6">
-        <v>34.038899999999998</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F6" s="124">
         <v>156</v>
       </c>
       <c r="G6">
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="H6">
-        <f>H32</f>
+        <f>H33</f>
         <v>50000</v>
       </c>
       <c r="I6">
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="J6">
-        <f>J32</f>
+        <f>J33</f>
         <v>75000</v>
       </c>
       <c r="K6" s="129">
-        <f t="shared" ref="K6:K20" si="0">I6</f>
-        <v>0.82424600000000003</v>
+        <f t="shared" ref="K6:K21" si="0">I6</f>
+        <v>0.818581</v>
       </c>
       <c r="L6" s="125">
-        <f>(F6*G6)+(B6*C6)+(D6*E6)+(H6*I6)+(Z20*AA20)+(J6*K6)</f>
-        <v>507317.74541099998</v>
+        <f>(F6*G6)+(B6*C6)+(D6*E6)+(H6*I6)+(Z21*AA21)+(J6*K6)</f>
+        <v>515367.77925099997</v>
       </c>
       <c r="M6">
-        <v>154.41</v>
+        <v>159.19</v>
       </c>
       <c r="N6">
-        <v>244587.02</v>
+        <v>252634.37</v>
       </c>
       <c r="O6" s="127">
-        <v>9300</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="133">
-        <f>(1-(O7/O6))</f>
-        <v>1.8384946236559063E-2</v>
+        <f t="shared" ref="P6" si="1">(1-(O7/O6))</f>
+        <v>3.8116999999999956E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="126">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B7">
-        <f>B33</f>
+        <f>B34</f>
         <v>1110</v>
       </c>
       <c r="C7">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D7">
-        <f>D33</f>
+        <f>D34</f>
         <v>321.99</v>
       </c>
       <c r="E7">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F7" s="124">
         <v>156</v>
       </c>
       <c r="G7">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="H7">
-        <f>H33</f>
+        <f>H34</f>
         <v>50000</v>
       </c>
       <c r="I7">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="J7">
-        <f>J33</f>
+        <f>J34</f>
         <v>75000</v>
       </c>
       <c r="K7" s="129">
-        <f t="shared" ref="K7" si="1">I7</f>
-        <v>0.82913899999999996</v>
+        <f t="shared" ref="K7" si="2">I7</f>
+        <v>0.82424600000000003</v>
       </c>
       <c r="L7" s="125">
-        <f>(F7*G7)+(B7*C7)+(D7*E7)+(H7*I7)+(Z21*AA21)+(J7*K7)</f>
-        <v>508663.11066900007</v>
+        <f>(F7*G7)+(B7*C7)+(D7*E7)+(H7*I7)+(Z22*AA22)+(J7*K7)</f>
+        <v>507540.10541100003</v>
       </c>
       <c r="M7">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="N7">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="O7" s="127">
-        <v>9129.02</v>
+        <v>9618.83</v>
       </c>
       <c r="P7" s="133">
-        <f>(1-(O8/O7))</f>
-        <v>2.0070062284889389E-2</v>
+        <f t="shared" ref="P7:P29" si="3">(1-(O8/O7))</f>
+        <v>5.0921993631241946E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="126">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B8">
-        <f>B33</f>
+        <f>B34</f>
         <v>1110</v>
       </c>
       <c r="C8">
         <v>31.399799999999999</v>
       </c>
       <c r="D8">
-        <f>D33</f>
+        <f>D34</f>
         <v>321.99</v>
       </c>
       <c r="E8">
@@ -6282,22 +6283,22 @@
         <v>2292.5700000000002</v>
       </c>
       <c r="H8">
-        <f>H33</f>
+        <f>H34</f>
         <v>50000</v>
       </c>
       <c r="I8">
         <v>0.82913899999999996</v>
       </c>
       <c r="J8">
-        <f>J33</f>
+        <f>J34</f>
         <v>75000</v>
       </c>
       <c r="K8" s="129">
-        <f t="shared" ref="K8" si="2">I8</f>
+        <f t="shared" ref="K8" si="4">I8</f>
         <v>0.82913899999999996</v>
       </c>
       <c r="L8" s="125">
-        <f>(F8*G8)+(B8*C8)+(D8*E8)+(H8*I8)+(Z21*AA21)+(J8*K8)</f>
+        <f>(F8*G8)+(B8*C8)+(D8*E8)+(H8*I8)+(Z22*AA22)+(J8*K8)</f>
         <v>508663.11066900007</v>
       </c>
       <c r="M8">
@@ -6307,140 +6308,140 @@
         <v>245709.7</v>
       </c>
       <c r="O8" s="127">
-        <v>8945.7999999999993</v>
+        <v>9129.02</v>
       </c>
       <c r="P8" s="133">
-        <f t="shared" ref="P8:P28" si="3">(1-(O9/O8))</f>
-        <v>-1.0627333497283731E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.0070062284889389E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r